--- a/lunch.xlsx
+++ b/lunch.xlsx
@@ -18,12 +18,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">주간메뉴표!$B$2:$H$58</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">칼로리및알레르기공시!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="346">
   <si>
     <t>작성 가이드</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -1052,467 +1052,76 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2023.11.6~2023.11.10</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>월 11/6</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>화 11/7</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>수 11/8</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>목 11/9</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>금 11/10</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>케이준치킨샐러드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>비프나쵸샐러드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>크림새우샐러드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>꽃맛살아보카도샐러드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>베이컨루꼴라샐러드</t>
+    <t>┗쫑상추,콩나물무침</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>깍두기</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>열무김치</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.11.13~2023.11.17</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>월 11/13</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>화 11/14</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>수 11/15</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>목 11/16</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>금 11/17</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>훈제오리단호박샐러드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>풀드포크샐러드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>불고기포케샐러드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>크림치킨어니언샐러드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>단호박&amp;로제치킨샌드위치
+&amp;과일2종</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>루꼴라갈릭치즈베이글샌드위치
+&amp;과일2종</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>콘참치모닝샌드위치
+&amp;과일2종</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF008A3E"/>
-        <rFont val="나눔고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>N</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="나눔고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 그릴치킨보리밥</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF008A3E"/>
-        <rFont val="나눔고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>N</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="나눔고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 닭가슴살콘샐러드</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>파프리카새우라이스</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>훈제오리귀리라이스</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>셀프제육비빔밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗쌀밥,제육볶음,계란후라이</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗쫑상추,콩나물무침</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗맛김가루,무들깨볶음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>얼갈이된장국</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>깍두기</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>유부장국</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>셀프우렁강된장비빔밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗무생채,맛김가루</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>감자수제비국</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>셀프치킨마요덮밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗쌀밥,치킨,계란지단</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗쫑상추,맛김가루</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>매콤떡볶이</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>하프시그니쳐클럽샌드위치
-&amp;과일2종</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>하프시그니처디럭스샌드위치
-&amp;과일2종</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>에그햄치즈페스트리샌드위치
-&amp;과일2종</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>올리브살라미치즈샌드위치
-&amp;과일2종</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>참치김치찌개</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>얼큰소고기장터국밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>짜글이고추장돼지불고기</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>북어해장국</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>(뚝)추어탕*소면사리</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>로스팜구이*케찹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>돼지고기메추리알장조림</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>유채된장국</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>깻잎완자전</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>고기경단조림</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>계란찜</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>두부조림</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>호박새우젓볶음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>감자채햄볶음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>부추생채</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>도시락김</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>미역줄기버섯볶음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>명란젓*참기름</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>간장고추지</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>청국장찌개 정식</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>사골떡만둣국</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>(뚝)묵말랭이들깨수제비</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>돼지고기고추장볶음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>채소잡채</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>동태전</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>미역국</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>주꾸미오징어브로콜리숙회</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>어묵볶음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>쥐어채고추장무침</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>너비아니&amp;새송이버섯구이</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>미니메밀전병</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>양파고추간장절임</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>마늘쫑무침/콘샐러드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>잔멸치볶음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>배추겉절이/잡곡밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="나눔고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>▼월드셰프이벤트▼</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="나눔고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-_스크래치</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>해물파전</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>한방갈비탕</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>전주식비빔밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>깍두기/보리밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>간자장*계란후라이(2&amp;3)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>토리동</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>소시지커리필라프</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>짬뽕국물</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>치킨너겟*칠리소스</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>만두탕수</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>애플파이</t>
-  </si>
-  <si>
-    <t>연두부찜*참깨D</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>한입콤비네이션피자</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>감자튀김</t>
-  </si>
-  <si>
-    <t>무비트피클</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>코올슬로</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>탄산음료</t>
-  </si>
-  <si>
-    <t>비(프)슈(림프)버거 Set</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Fun!629]</t>
-  </si>
-  <si>
-    <t>[웰그린데이]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>명란버터비빔우동</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>태국식볶음밥&amp;크리스피치킨</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>고사리들기름파스타</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>가래떡떡볶이</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;똠양국</t>
-  </si>
-  <si>
-    <t>베지치킨&amp;베지오징어링튀김</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>꼬치어묵국</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>모둠튀김*느억맘소스</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>모둠튀김</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>*간장소스/우동국물</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>오이탕탕이/포기김치</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3종교자</t>
+      <t xml:space="preserve">통밀프리미엄에그디럭스샌드위치
+</t>
     </r>
     <r>
       <rPr>
@@ -1521,126 +1130,371 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>(새우,랍스터,갈비)</t>
+      <t>&amp;과일2종</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>발사믹D&amp;자몽D</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>오리엔탈D&amp;요거트D</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>오리엔탈D&amp;크리미양파D</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>오리엔탈D&amp;한라봉D</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>미숫가루</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>바나나</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>발사믹D&amp;딸기요거트D</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>셀프노량진황제컵밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗볶음김치,참치마요옥수수</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗데리야끼양파소스</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>버섯장국</t>
+    <t>그릴치킨&amp;비트쿠스쿠스</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>치킨컬리플라워볶음밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>참치아보카도토마토비빔밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>실곤약야끼소바</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀프에비동</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗쌀밥,새우튀김</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀프오쭈비빔밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗쌀밥,오쭈떡볶음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗초생강절임(채), 맛김가루</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀프장조림버터비빔밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗쌀밥,장조림,스크램블에그</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗오복지,쫑상추</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗맛김가루</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>우동국</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>배추된장국</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>미역국</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>비빔납작지짐만두</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽈배기도너츠</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>어묵국</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>마라탕</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈목살김치찌개</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>우삼겹순두부찌개</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>시래기매운돼지갈비찜</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>마장소스</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>생선가스</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>너비아니엿장조림</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>연유꽃빵튀김</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>계란찜</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>옥수수전</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄산음료</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>파래자반볶음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>청포묵김가루무침</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>천사채샐러드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>백김치/잡곡밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>열무김치/잡곡밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>일식철판돈가스</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡곡밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>반마리마늘통닭&amp;짜파게티</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>불고기김치볶음밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>바싹불고기</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>우동국물</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>간장고추지</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>치킨무</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>소떡소떡</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>배추겉절이</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>콘샐러드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>명동식 칼국수</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>뿌링치즈볼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주식돼지수육해장국</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>연어관자크림리조또</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Fun!629]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>[웰그린데이]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>고기경단조림</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>수제피클</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>깽키여우완까이</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>취나물쉬림프페스토파스타</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>(태국식치킨커리스프&amp;라이스)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>양념깻잎지</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>피자왕춘권</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>석박지</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>발사믹D&amp;참깨D</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>나쵸칩*살사소스</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>오렌지</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>오리엔탈D&amp;망고D</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>오리엔탈D&amp;블루베리D</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>발사믹D&amp;파인애플D</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>오리엔탈D&amp;딸기D</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>유자차</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>매실차</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>┗</t>
+      <t>소고기된장국밥</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <rFont val="나눔고딕"/>
+        <sz val="11"/>
+        <rFont val="나눔고딕 ExtraBold"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>쌀밥,삼겹살볶음,계란지단,비엔나볶음</t>
+      <t>*라면사리</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>생선가스*타르타르s</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>두부장국</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>핫도그*케찹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>돼지고기강정</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>초코라떼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗쌀밥,강된장(밥공기),계란후라이</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>일자: 23.11.6~11.10</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>우엉조림</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>치즈맛알새우칩</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>삼색나물</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="나눔고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(콩나물, 무생채, 유채나물)</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>탄산음료</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>열무김치</t>
+    <t>훈제오리볶음밥*후라이</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>제육치즈덮밥*후라이</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>김치꼬치어묵탕*와사비장</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>춘천식닭갈비</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>갈비만두</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>두부김칫국</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>콩나물국</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>로스팜구이*케찹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>사각어묵볶음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>모짜핫도그*케찹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>비엔나소시지볶음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>채소크로켓</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>파래연근튀김</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>마늘종간장절임</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>단무지무침</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>고구마맛탕</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>깐마늘지</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>도토리묵무침</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1648,15 +1502,55 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>석박지</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>순대찜/단무지</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>★월드셰프★</t>
+    <t>┗숙주양파볶음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>마파두부면</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>계란국</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>멘보샤</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>중국식땅콩볶음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>그린샐러드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>치킨너겟*허니머스터드S</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀프쇠고기곤드레비빔밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗쇠고기곤드레밥,계란후라이</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗부추생채,콩나물무침</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>김치메밀전병</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>오렌지리코타샐러드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>일자: 23.11.13~11.17</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1668,7 +1562,7 @@
     <numFmt numFmtId="176" formatCode="mm&quot;/&quot;dd\ ddd"/>
     <numFmt numFmtId="177" formatCode="##\ &quot;Kcal&quot;"/>
   </numFmts>
-  <fonts count="65">
+  <fonts count="61">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
@@ -2084,23 +1978,8 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF008A3E"/>
-      <name val="나눔고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
-      <color rgb="FFFFFF00"/>
-      <name val="나눔고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
       <color rgb="FFFFFF00"/>
       <name val="나눔고딕"/>
       <family val="3"/>
@@ -2113,18 +1992,6 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="나눔고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="나눔고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="나눔고딕"/>
@@ -2132,14 +1999,13 @@
       <charset val="129"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
+      <sz val="11"/>
       <name val="나눔고딕 ExtraBold"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2179,12 +2045,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2524,7 +2384,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="275">
+  <cellXfs count="276">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3059,9 +2919,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3098,9 +2955,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3122,29 +2976,38 @@
     <xf numFmtId="177" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="44" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="64" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="60" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3197,16 +3060,34 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="40" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3218,6 +3099,78 @@
     <xf numFmtId="177" fontId="40" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="41" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3227,128 +3180,38 @@
     <xf numFmtId="177" fontId="41" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="41" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="41" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="41" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="41" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="41" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="41" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="40" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="40" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="40" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="40" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="40" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="40" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="40" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="40" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="40" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -4393,16 +4256,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>639536</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>326571</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>911678</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>217713</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1551214</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>217712</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1823356</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>136069</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4411,7 +4274,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13185322" y="1034142"/>
+          <a:off x="6613071" y="5851070"/>
           <a:ext cx="911678" cy="898070"/>
           <a:chOff x="5742590" y="551366"/>
           <a:chExt cx="3305011" cy="3309096"/>
@@ -4597,16 +4460,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>710293</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>97970</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1309007</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1578137</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>53507</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>162994</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>107936</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4629,7 +4492,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13256079" y="3771899"/>
+          <a:off x="9024257" y="5785756"/>
           <a:ext cx="867844" cy="935251"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4639,136 +4502,157 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1170213</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>99530</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1768929</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>91607</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="그림 10"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6871606" y="6059459"/>
-          <a:ext cx="598716" cy="645219"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1170213</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>69281</xdr:rowOff>
+      <xdr:colOff>1009650</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>234041</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1891393</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>117651</xdr:rowOff>
+      <xdr:colOff>1921328</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>111575</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="그림 21"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="11" name="그룹 10"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2843892" y="6029210"/>
-          <a:ext cx="721180" cy="701512"/>
+          <a:off x="2683329" y="1581148"/>
+          <a:ext cx="911678" cy="898070"/>
+          <a:chOff x="5742590" y="551366"/>
+          <a:chExt cx="3305011" cy="3309096"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>941613</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>126431</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1662793</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>174801</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="그림 22"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8656863" y="6086360"/>
-          <a:ext cx="721180" cy="701512"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="18" name="그림 17"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+            <a:extLst>
+              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a14:imgLayer r:embed="rId5">
+                    <a14:imgEffect>
+                      <a14:backgroundRemoval t="0" b="100000" l="0" r="100000">
+                        <a14:foregroundMark x1="9486" y1="20534" x2="28261" y2="8848"/>
+                        <a14:foregroundMark x1="43478" y1="43406" x2="58300" y2="44741"/>
+                        <a14:foregroundMark x1="61265" y1="23038" x2="62253" y2="28881"/>
+                        <a14:foregroundMark x1="66798" y1="4174" x2="78063" y2="20033"/>
+                        <a14:foregroundMark x1="50395" y1="12187" x2="70158" y2="13022"/>
+                        <a14:foregroundMark x1="76087" y1="5509" x2="82016" y2="13356"/>
+                        <a14:foregroundMark x1="57312" y1="5843" x2="81621" y2="5008"/>
+                        <a14:foregroundMark x1="6522" y1="18865" x2="17787" y2="9182"/>
+                        <a14:foregroundMark x1="27668" y1="15025" x2="20751" y2="19199"/>
+                        <a14:foregroundMark x1="27668" y1="88982" x2="53360" y2="87646"/>
+                        <a14:foregroundMark x1="18775" y1="86811" x2="32609" y2="83472"/>
+                        <a14:foregroundMark x1="52964" y1="86477" x2="55929" y2="96828"/>
+                        <a14:foregroundMark x1="20356" y1="92321" x2="47431" y2="92321"/>
+                        <a14:foregroundMark x1="15810" y1="91486" x2="21344" y2="80634"/>
+                        <a14:foregroundMark x1="46047" y1="85142" x2="55929" y2="85142"/>
+                        <a14:foregroundMark x1="79051" y1="86811" x2="78063" y2="90651"/>
+                        <a14:foregroundMark x1="78063" y1="90150" x2="66206" y2="95159"/>
+                        <a14:foregroundMark x1="55929" y1="95159" x2="65810" y2="95159"/>
+                        <a14:foregroundMark x1="71739" y1="95993" x2="81028" y2="91820"/>
+                        <a14:foregroundMark x1="80632" y1="90985" x2="78656" y2="83973"/>
+                        <a14:foregroundMark x1="74704" y1="84307" x2="65217" y2="80968"/>
+                        <a14:foregroundMark x1="14427" y1="90985" x2="13834" y2="85142"/>
+                        <a14:foregroundMark x1="8103" y1="11352" x2="15020" y2="8514"/>
+                        <a14:foregroundMark x1="85573" y1="9850" x2="87154" y2="22371"/>
+                        <a14:foregroundMark x1="57905" y1="9850" x2="70356" y2="8681"/>
+                        <a14:foregroundMark x1="11660" y1="89482" x2="14427" y2="92321"/>
+                      </a14:backgroundRemoval>
+                    </a14:imgEffect>
+                  </a14:imgLayer>
+                </a14:imgProps>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6452038" y="787849"/>
+            <a:ext cx="2595563" cy="3072613"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="19" name="그림 18"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+            <a:extLst>
+              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a14:imgLayer r:embed="rId5">
+                    <a14:imgEffect>
+                      <a14:backgroundRemoval t="0" b="29883" l="0" r="36957">
+                        <a14:foregroundMark x1="9486" y1="20534" x2="28261" y2="8848"/>
+                        <a14:foregroundMark x1="43478" y1="43406" x2="58300" y2="44741"/>
+                        <a14:foregroundMark x1="61265" y1="23038" x2="62253" y2="28881"/>
+                        <a14:foregroundMark x1="66798" y1="4174" x2="78063" y2="20033"/>
+                        <a14:foregroundMark x1="50395" y1="12187" x2="70158" y2="13022"/>
+                        <a14:foregroundMark x1="76087" y1="5509" x2="82016" y2="13356"/>
+                        <a14:foregroundMark x1="57312" y1="5843" x2="81621" y2="5008"/>
+                        <a14:foregroundMark x1="6522" y1="18865" x2="17787" y2="9182"/>
+                        <a14:foregroundMark x1="27668" y1="15025" x2="20751" y2="19199"/>
+                        <a14:foregroundMark x1="27668" y1="88982" x2="53360" y2="87646"/>
+                        <a14:foregroundMark x1="18775" y1="86811" x2="32609" y2="83472"/>
+                        <a14:foregroundMark x1="52964" y1="86477" x2="55929" y2="96828"/>
+                        <a14:foregroundMark x1="20356" y1="92321" x2="47431" y2="92321"/>
+                        <a14:foregroundMark x1="15810" y1="91486" x2="21344" y2="80634"/>
+                        <a14:foregroundMark x1="46047" y1="85142" x2="55929" y2="85142"/>
+                        <a14:foregroundMark x1="79051" y1="86811" x2="78063" y2="90651"/>
+                        <a14:foregroundMark x1="78063" y1="90150" x2="66206" y2="95159"/>
+                        <a14:foregroundMark x1="55929" y1="95159" x2="65810" y2="95159"/>
+                        <a14:foregroundMark x1="71739" y1="95993" x2="81028" y2="91820"/>
+                        <a14:foregroundMark x1="80632" y1="90985" x2="78656" y2="83973"/>
+                        <a14:foregroundMark x1="74704" y1="84307" x2="65217" y2="80968"/>
+                        <a14:foregroundMark x1="14427" y1="90985" x2="13834" y2="85142"/>
+                        <a14:foregroundMark x1="8103" y1="11352" x2="15020" y2="8514"/>
+                        <a14:foregroundMark x1="85573" y1="9850" x2="87154" y2="22371"/>
+                        <a14:foregroundMark x1="57905" y1="9850" x2="70356" y2="8681"/>
+                        <a14:foregroundMark x1="11660" y1="89482" x2="14427" y2="92321"/>
+                        <a14:backgroundMark x1="47628" y1="2170" x2="58893" y2="98164"/>
+                      </a14:backgroundRemoval>
+                    </a14:imgEffect>
+                  </a14:imgLayer>
+                </a14:imgProps>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect r="64994" b="71172"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5742590" y="551366"/>
+            <a:ext cx="1745669" cy="1701789"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5209,7 +5093,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="105"/>
       <c r="H2" s="2"/>
-      <c r="J2" s="208" t="s">
+      <c r="J2" s="209" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="32"/>
@@ -5227,7 +5111,7 @@
       <c r="E3" s="12"/>
       <c r="F3" s="106"/>
       <c r="G3" s="11"/>
-      <c r="J3" s="208"/>
+      <c r="J3" s="209"/>
       <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:18" ht="24" customHeight="1">
@@ -5264,7 +5148,7 @@
       <c r="H5" s="84" t="s">
         <v>182</v>
       </c>
-      <c r="J5" s="209" t="s">
+      <c r="J5" s="210" t="s">
         <v>40</v>
       </c>
       <c r="K5" s="48"/>
@@ -5277,7 +5161,7 @@
       <c r="R5" s="2"/>
     </row>
     <row r="6" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B6" s="211" t="s">
+      <c r="B6" s="212" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="20" t="s">
@@ -5298,7 +5182,7 @@
       <c r="H6" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="J6" s="210"/>
+      <c r="J6" s="211"/>
       <c r="K6" s="21"/>
       <c r="L6" s="52"/>
       <c r="M6" s="52"/>
@@ -5309,7 +5193,7 @@
       <c r="R6" s="22"/>
     </row>
     <row r="7" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B7" s="211"/>
+      <c r="B7" s="212"/>
       <c r="C7" s="23" t="s">
         <v>7</v>
       </c>
@@ -5328,7 +5212,7 @@
       <c r="H7" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="210"/>
+      <c r="J7" s="211"/>
       <c r="K7" s="24"/>
       <c r="L7" s="52"/>
       <c r="M7" s="52"/>
@@ -5339,7 +5223,7 @@
       <c r="R7" s="22"/>
     </row>
     <row r="8" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B8" s="211"/>
+      <c r="B8" s="212"/>
       <c r="C8" s="104"/>
       <c r="D8" s="24" t="s">
         <v>185</v>
@@ -5356,7 +5240,7 @@
       <c r="H8" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="J8" s="210"/>
+      <c r="J8" s="211"/>
       <c r="K8" s="24"/>
       <c r="L8" s="16"/>
       <c r="M8" s="52"/>
@@ -5367,7 +5251,7 @@
       <c r="R8" s="22"/>
     </row>
     <row r="9" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B9" s="211"/>
+      <c r="B9" s="212"/>
       <c r="C9" s="104"/>
       <c r="D9" s="24" t="s">
         <v>70</v>
@@ -5384,7 +5268,7 @@
       <c r="H9" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="J9" s="210"/>
+      <c r="J9" s="211"/>
       <c r="K9" s="24"/>
       <c r="L9" s="8"/>
       <c r="M9" s="52"/>
@@ -5395,7 +5279,7 @@
       <c r="R9" s="22"/>
     </row>
     <row r="10" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B10" s="211"/>
+      <c r="B10" s="212"/>
       <c r="C10" s="104"/>
       <c r="D10" s="24" t="s">
         <v>74</v>
@@ -5412,7 +5296,7 @@
       <c r="H10" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="210"/>
+      <c r="J10" s="211"/>
       <c r="K10" s="24"/>
       <c r="L10" s="16"/>
       <c r="M10" s="52"/>
@@ -5423,7 +5307,7 @@
       <c r="R10" s="22"/>
     </row>
     <row r="11" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B11" s="211"/>
+      <c r="B11" s="212"/>
       <c r="C11" s="104"/>
       <c r="D11" s="24" t="s">
         <v>56</v>
@@ -5440,7 +5324,7 @@
       <c r="H11" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="J11" s="210"/>
+      <c r="J11" s="211"/>
       <c r="K11" s="24"/>
       <c r="L11" s="16"/>
       <c r="M11" s="52"/>
@@ -5451,7 +5335,7 @@
       <c r="R11" s="26"/>
     </row>
     <row r="12" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B12" s="211"/>
+      <c r="B12" s="212"/>
       <c r="C12" s="28"/>
       <c r="D12" s="24" t="s">
         <v>53</v>
@@ -5468,7 +5352,7 @@
       <c r="H12" s="34">
         <v>725</v>
       </c>
-      <c r="J12" s="210"/>
+      <c r="J12" s="211"/>
       <c r="K12" s="24"/>
       <c r="L12" s="16"/>
       <c r="M12" s="52"/>
@@ -5479,7 +5363,7 @@
       <c r="R12" s="22"/>
     </row>
     <row r="13" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B13" s="211"/>
+      <c r="B13" s="212"/>
       <c r="C13" s="20" t="s">
         <v>8</v>
       </c>
@@ -5490,7 +5374,7 @@
       <c r="H13" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="J13" s="210"/>
+      <c r="J13" s="211"/>
       <c r="K13" s="21"/>
       <c r="L13" s="16"/>
       <c r="M13" s="52"/>
@@ -5501,7 +5385,7 @@
       <c r="R13" s="22"/>
     </row>
     <row r="14" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B14" s="211"/>
+      <c r="B14" s="212"/>
       <c r="C14" s="23" t="s">
         <v>43</v>
       </c>
@@ -5512,7 +5396,7 @@
       <c r="H14" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="J14" s="210"/>
+      <c r="J14" s="211"/>
       <c r="K14" s="24"/>
       <c r="L14" s="21"/>
       <c r="M14" s="40"/>
@@ -5523,7 +5407,7 @@
       <c r="R14" s="29"/>
     </row>
     <row r="15" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B15" s="211"/>
+      <c r="B15" s="212"/>
       <c r="C15" s="104"/>
       <c r="D15" s="24"/>
       <c r="E15" s="127"/>
@@ -5532,7 +5416,7 @@
       <c r="H15" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="J15" s="210"/>
+      <c r="J15" s="211"/>
       <c r="K15" s="24"/>
       <c r="L15" s="24"/>
       <c r="M15" s="52"/>
@@ -5543,7 +5427,7 @@
       <c r="R15" s="22"/>
     </row>
     <row r="16" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B16" s="211"/>
+      <c r="B16" s="212"/>
       <c r="C16" s="104"/>
       <c r="D16" s="24"/>
       <c r="E16" s="129"/>
@@ -5552,7 +5436,7 @@
       <c r="H16" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="J16" s="210"/>
+      <c r="J16" s="211"/>
       <c r="K16" s="24"/>
       <c r="L16" s="24"/>
       <c r="M16" s="52"/>
@@ -5563,7 +5447,7 @@
       <c r="R16" s="22"/>
     </row>
     <row r="17" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B17" s="211"/>
+      <c r="B17" s="212"/>
       <c r="C17" s="104"/>
       <c r="D17" s="24"/>
       <c r="E17" s="129"/>
@@ -5572,7 +5456,7 @@
       <c r="H17" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="J17" s="210"/>
+      <c r="J17" s="211"/>
       <c r="K17" s="24"/>
       <c r="L17" s="24"/>
       <c r="M17" s="52"/>
@@ -5586,7 +5470,7 @@
       <c r="A18" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="211"/>
+      <c r="B18" s="212"/>
       <c r="C18" s="31"/>
       <c r="D18" s="24"/>
       <c r="E18" s="129"/>
@@ -5595,7 +5479,7 @@
       <c r="H18" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="J18" s="210"/>
+      <c r="J18" s="211"/>
       <c r="K18" s="24"/>
       <c r="L18" s="24"/>
       <c r="M18" s="52"/>
@@ -5606,7 +5490,7 @@
       <c r="R18" s="22"/>
     </row>
     <row r="19" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B19" s="211"/>
+      <c r="B19" s="212"/>
       <c r="C19" s="28"/>
       <c r="D19" s="34">
         <v>1014</v>
@@ -5619,7 +5503,7 @@
       <c r="H19" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="J19" s="210"/>
+      <c r="J19" s="211"/>
       <c r="K19" s="34"/>
       <c r="L19" s="24"/>
       <c r="M19" s="52"/>
@@ -5630,7 +5514,7 @@
       <c r="R19" s="32"/>
     </row>
     <row r="20" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B20" s="211"/>
+      <c r="B20" s="212"/>
       <c r="C20" s="20" t="s">
         <v>44</v>
       </c>
@@ -5645,7 +5529,7 @@
         <v>82</v>
       </c>
       <c r="H20" s="24"/>
-      <c r="J20" s="210"/>
+      <c r="J20" s="211"/>
       <c r="K20" s="24"/>
       <c r="L20" s="32"/>
       <c r="M20" s="52"/>
@@ -5656,7 +5540,7 @@
       <c r="R20" s="22"/>
     </row>
     <row r="21" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B21" s="211"/>
+      <c r="B21" s="212"/>
       <c r="C21" s="23" t="s">
         <v>45</v>
       </c>
@@ -5671,7 +5555,7 @@
         <v>84</v>
       </c>
       <c r="H21" s="24"/>
-      <c r="J21" s="210"/>
+      <c r="J21" s="211"/>
       <c r="K21" s="24"/>
       <c r="L21" s="16"/>
       <c r="M21" s="52"/>
@@ -5682,7 +5566,7 @@
       <c r="R21" s="22"/>
     </row>
     <row r="22" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B22" s="211"/>
+      <c r="B22" s="212"/>
       <c r="C22" s="23"/>
       <c r="D22" s="121" t="s">
         <v>85</v>
@@ -5695,7 +5579,7 @@
         <v>86</v>
       </c>
       <c r="H22" s="24"/>
-      <c r="J22" s="210"/>
+      <c r="J22" s="211"/>
       <c r="K22" s="24"/>
       <c r="L22" s="16"/>
       <c r="M22" s="52"/>
@@ -5706,7 +5590,7 @@
       <c r="R22" s="22"/>
     </row>
     <row r="23" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B23" s="211"/>
+      <c r="B23" s="212"/>
       <c r="C23" s="104"/>
       <c r="D23" s="121" t="s">
         <v>87</v>
@@ -5719,7 +5603,7 @@
         <v>89</v>
       </c>
       <c r="H23" s="24"/>
-      <c r="J23" s="210"/>
+      <c r="J23" s="211"/>
       <c r="K23" s="24"/>
       <c r="L23" s="16"/>
       <c r="M23" s="40"/>
@@ -5730,7 +5614,7 @@
       <c r="R23" s="29"/>
     </row>
     <row r="24" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B24" s="211"/>
+      <c r="B24" s="212"/>
       <c r="C24" s="104"/>
       <c r="D24" s="121" t="s">
         <v>90</v>
@@ -5743,7 +5627,7 @@
         <v>91</v>
       </c>
       <c r="H24" s="24"/>
-      <c r="J24" s="210"/>
+      <c r="J24" s="211"/>
       <c r="K24" s="24"/>
       <c r="L24" s="16"/>
       <c r="M24" s="52"/>
@@ -5754,7 +5638,7 @@
       <c r="R24" s="22"/>
     </row>
     <row r="25" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B25" s="211"/>
+      <c r="B25" s="212"/>
       <c r="C25" s="104"/>
       <c r="D25" s="121" t="s">
         <v>53</v>
@@ -5765,7 +5649,7 @@
         <v>79</v>
       </c>
       <c r="H25" s="24"/>
-      <c r="J25" s="210"/>
+      <c r="J25" s="211"/>
       <c r="K25" s="24"/>
       <c r="L25" s="16"/>
       <c r="M25" s="52"/>
@@ -5776,7 +5660,7 @@
       <c r="R25" s="22"/>
     </row>
     <row r="26" spans="1:18" s="33" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B26" s="211"/>
+      <c r="B26" s="212"/>
       <c r="C26" s="28"/>
       <c r="D26" s="122"/>
       <c r="E26" s="130"/>
@@ -5785,7 +5669,7 @@
       <c r="H26" s="34">
         <v>725</v>
       </c>
-      <c r="J26" s="210"/>
+      <c r="J26" s="211"/>
       <c r="K26" s="85"/>
       <c r="L26" s="66"/>
       <c r="M26" s="35"/>
@@ -5796,8 +5680,8 @@
       <c r="R26" s="30"/>
     </row>
     <row r="27" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B27" s="211"/>
-      <c r="C27" s="219" t="s">
+      <c r="B27" s="212"/>
+      <c r="C27" s="220" t="s">
         <v>46</v>
       </c>
       <c r="D27" s="24" t="s">
@@ -5815,7 +5699,7 @@
       <c r="H27" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="J27" s="210"/>
+      <c r="J27" s="211"/>
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
       <c r="M27" s="66"/>
@@ -5826,8 +5710,8 @@
       <c r="R27" s="26"/>
     </row>
     <row r="28" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B28" s="211"/>
-      <c r="C28" s="222"/>
+      <c r="B28" s="212"/>
+      <c r="C28" s="223"/>
       <c r="D28" s="24" t="s">
         <v>54</v>
       </c>
@@ -5843,7 +5727,7 @@
       <c r="H28" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="J28" s="210"/>
+      <c r="J28" s="211"/>
       <c r="K28" s="16"/>
       <c r="L28" s="16"/>
       <c r="M28" s="66"/>
@@ -5854,8 +5738,8 @@
       <c r="R28" s="26"/>
     </row>
     <row r="29" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B29" s="211"/>
-      <c r="C29" s="223"/>
+      <c r="B29" s="212"/>
+      <c r="C29" s="224"/>
       <c r="D29" s="96" t="s">
         <v>97</v>
       </c>
@@ -5869,7 +5753,7 @@
       <c r="H29" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="J29" s="210"/>
+      <c r="J29" s="211"/>
       <c r="K29" s="16"/>
       <c r="L29" s="16"/>
       <c r="M29" s="66"/>
@@ -5880,7 +5764,7 @@
       <c r="R29" s="26"/>
     </row>
     <row r="30" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B30" s="211"/>
+      <c r="B30" s="212"/>
       <c r="C30" s="20" t="s">
         <v>47</v>
       </c>
@@ -5897,7 +5781,7 @@
       <c r="H30" s="133" t="s">
         <v>100</v>
       </c>
-      <c r="J30" s="210"/>
+      <c r="J30" s="211"/>
       <c r="K30" s="24"/>
       <c r="L30" s="36"/>
       <c r="M30" s="16"/>
@@ -5908,7 +5792,7 @@
       <c r="R30" s="37"/>
     </row>
     <row r="31" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B31" s="211"/>
+      <c r="B31" s="212"/>
       <c r="C31" s="101" t="s">
         <v>48</v>
       </c>
@@ -5925,7 +5809,7 @@
       <c r="H31" s="120" t="s">
         <v>103</v>
       </c>
-      <c r="J31" s="210"/>
+      <c r="J31" s="211"/>
       <c r="K31" s="24"/>
       <c r="L31" s="25"/>
       <c r="M31" s="16"/>
@@ -5936,7 +5820,7 @@
       <c r="R31" s="37"/>
     </row>
     <row r="32" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B32" s="211"/>
+      <c r="B32" s="212"/>
       <c r="C32" s="101" t="s">
         <v>49</v>
       </c>
@@ -5953,7 +5837,7 @@
       <c r="H32" s="121" t="s">
         <v>105</v>
       </c>
-      <c r="J32" s="210"/>
+      <c r="J32" s="211"/>
       <c r="K32" s="24"/>
       <c r="L32" s="16"/>
       <c r="M32" s="16"/>
@@ -5967,7 +5851,7 @@
       <c r="A33" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="211"/>
+      <c r="B33" s="212"/>
       <c r="C33" s="103"/>
       <c r="D33" s="24" t="s">
         <v>106</v>
@@ -5982,7 +5866,7 @@
       <c r="H33" s="121" t="s">
         <v>109</v>
       </c>
-      <c r="J33" s="210"/>
+      <c r="J33" s="211"/>
       <c r="K33" s="16"/>
       <c r="L33" s="32"/>
       <c r="M33" s="16"/>
@@ -5996,7 +5880,7 @@
       <c r="A34" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="211"/>
+      <c r="B34" s="212"/>
       <c r="C34" s="103"/>
       <c r="D34" s="24"/>
       <c r="E34" s="127" t="s">
@@ -6009,7 +5893,7 @@
       <c r="H34" s="121" t="s">
         <v>110</v>
       </c>
-      <c r="J34" s="210"/>
+      <c r="J34" s="211"/>
       <c r="K34" s="38"/>
       <c r="L34" s="32"/>
       <c r="M34" s="16"/>
@@ -6020,7 +5904,7 @@
       <c r="R34" s="39"/>
     </row>
     <row r="35" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B35" s="211"/>
+      <c r="B35" s="212"/>
       <c r="C35" s="104"/>
       <c r="D35" s="24"/>
       <c r="E35" s="127" t="s">
@@ -6031,7 +5915,7 @@
       <c r="H35" s="121" t="s">
         <v>203</v>
       </c>
-      <c r="J35" s="210"/>
+      <c r="J35" s="211"/>
       <c r="K35" s="38"/>
       <c r="L35" s="16"/>
       <c r="M35" s="40"/>
@@ -6042,7 +5926,7 @@
       <c r="R35" s="43"/>
     </row>
     <row r="36" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B36" s="211"/>
+      <c r="B36" s="212"/>
       <c r="C36" s="28"/>
       <c r="D36" s="34"/>
       <c r="E36" s="130"/>
@@ -6051,7 +5935,7 @@
       <c r="H36" s="122" t="s">
         <v>111</v>
       </c>
-      <c r="J36" s="210"/>
+      <c r="J36" s="211"/>
       <c r="K36" s="16"/>
       <c r="L36" s="16"/>
       <c r="M36" s="66"/>
@@ -6062,8 +5946,8 @@
       <c r="R36" s="26"/>
     </row>
     <row r="37" spans="1:18" s="44" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B37" s="211"/>
-      <c r="C37" s="212" t="s">
+      <c r="B37" s="212"/>
+      <c r="C37" s="213" t="s">
         <v>50</v>
       </c>
       <c r="D37" s="98" t="s">
@@ -6079,7 +5963,7 @@
       <c r="H37" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="J37" s="214" t="s">
+      <c r="J37" s="215" t="s">
         <v>17</v>
       </c>
       <c r="K37" s="16"/>
@@ -6092,8 +5976,8 @@
       <c r="R37" s="32"/>
     </row>
     <row r="38" spans="1:18" s="47" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B38" s="211"/>
-      <c r="C38" s="213"/>
+      <c r="B38" s="212"/>
+      <c r="C38" s="214"/>
       <c r="D38" s="124" t="s">
         <v>116</v>
       </c>
@@ -6107,7 +5991,7 @@
       <c r="H38" s="98" t="s">
         <v>119</v>
       </c>
-      <c r="J38" s="215"/>
+      <c r="J38" s="216"/>
       <c r="K38" s="38"/>
       <c r="L38" s="52"/>
       <c r="M38" s="16"/>
@@ -6118,7 +6002,7 @@
       <c r="R38" s="32"/>
     </row>
     <row r="39" spans="1:18" s="47" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B39" s="211"/>
+      <c r="B39" s="212"/>
       <c r="C39" s="103"/>
       <c r="D39" s="98" t="s">
         <v>120</v>
@@ -6133,7 +6017,7 @@
       <c r="H39" s="98" t="s">
         <v>123</v>
       </c>
-      <c r="J39" s="215"/>
+      <c r="J39" s="216"/>
       <c r="K39" s="16"/>
       <c r="L39" s="52"/>
       <c r="M39" s="16"/>
@@ -6144,7 +6028,7 @@
       <c r="R39" s="59"/>
     </row>
     <row r="40" spans="1:18" s="17" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B40" s="211"/>
+      <c r="B40" s="212"/>
       <c r="C40" s="103"/>
       <c r="D40" s="124" t="s">
         <v>124</v>
@@ -6159,7 +6043,7 @@
       <c r="H40" s="98" t="s">
         <v>127</v>
       </c>
-      <c r="J40" s="215"/>
+      <c r="J40" s="216"/>
       <c r="K40" s="16"/>
       <c r="L40" s="40"/>
       <c r="M40" s="16"/>
@@ -6170,7 +6054,7 @@
       <c r="R40" s="69"/>
     </row>
     <row r="41" spans="1:18" s="47" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B41" s="211"/>
+      <c r="B41" s="212"/>
       <c r="C41" s="91"/>
       <c r="D41" s="98" t="s">
         <v>128</v>
@@ -6185,7 +6069,7 @@
       <c r="H41" s="98" t="s">
         <v>131</v>
       </c>
-      <c r="J41" s="215"/>
+      <c r="J41" s="216"/>
       <c r="L41" s="52"/>
       <c r="M41" s="52"/>
       <c r="N41" s="52"/>
@@ -6213,7 +6097,7 @@
       <c r="R42" s="22"/>
     </row>
     <row r="43" spans="1:18" s="17" customFormat="1" ht="26.1" customHeight="1" thickTop="1">
-      <c r="B43" s="216" t="s">
+      <c r="B43" s="217" t="s">
         <v>11</v>
       </c>
       <c r="C43" s="93" t="s">
@@ -6234,7 +6118,7 @@
       <c r="H43" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="J43" s="218" t="s">
+      <c r="J43" s="219" t="s">
         <v>12</v>
       </c>
       <c r="K43" s="52"/>
@@ -6250,7 +6134,7 @@
       <c r="A44" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="211"/>
+      <c r="B44" s="212"/>
       <c r="C44" s="94"/>
       <c r="D44" s="24" t="s">
         <v>134</v>
@@ -6267,7 +6151,7 @@
       <c r="H44" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="J44" s="218"/>
+      <c r="J44" s="219"/>
       <c r="K44" s="50"/>
       <c r="L44" s="16"/>
       <c r="M44" s="52"/>
@@ -6278,7 +6162,7 @@
       <c r="R44" s="22"/>
     </row>
     <row r="45" spans="1:18" s="17" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B45" s="211"/>
+      <c r="B45" s="212"/>
       <c r="C45" s="103"/>
       <c r="D45" s="24" t="s">
         <v>208</v>
@@ -6295,7 +6179,7 @@
       <c r="H45" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="J45" s="218"/>
+      <c r="J45" s="219"/>
       <c r="K45" s="16"/>
       <c r="L45" s="30"/>
       <c r="M45" s="52"/>
@@ -6306,7 +6190,7 @@
       <c r="R45" s="22"/>
     </row>
     <row r="46" spans="1:18" s="17" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B46" s="211"/>
+      <c r="B46" s="212"/>
       <c r="C46" s="103"/>
       <c r="D46" s="24" t="s">
         <v>57</v>
@@ -6323,7 +6207,7 @@
       <c r="H46" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="J46" s="218"/>
+      <c r="J46" s="219"/>
       <c r="K46" s="16"/>
       <c r="L46" s="8"/>
       <c r="M46" s="66"/>
@@ -6334,7 +6218,7 @@
       <c r="R46" s="26"/>
     </row>
     <row r="47" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B47" s="211"/>
+      <c r="B47" s="212"/>
       <c r="C47" s="103"/>
       <c r="D47" s="24" t="s">
         <v>146</v>
@@ -6351,7 +6235,7 @@
       <c r="H47" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="J47" s="218"/>
+      <c r="J47" s="219"/>
       <c r="K47" s="16"/>
       <c r="L47" s="8"/>
       <c r="M47" s="66"/>
@@ -6362,7 +6246,7 @@
       <c r="R47" s="26"/>
     </row>
     <row r="48" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B48" s="211"/>
+      <c r="B48" s="212"/>
       <c r="C48" s="103"/>
       <c r="D48" s="24" t="s">
         <v>151</v>
@@ -6379,7 +6263,7 @@
       <c r="H48" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="J48" s="218"/>
+      <c r="J48" s="219"/>
       <c r="K48" s="30"/>
       <c r="L48" s="8"/>
       <c r="M48" s="30"/>
@@ -6390,7 +6274,7 @@
       <c r="R48" s="26"/>
     </row>
     <row r="49" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B49" s="211"/>
+      <c r="B49" s="212"/>
       <c r="C49" s="86"/>
       <c r="D49" s="34">
         <v>725</v>
@@ -6407,7 +6291,7 @@
       <c r="H49" s="34">
         <v>725</v>
       </c>
-      <c r="J49" s="218"/>
+      <c r="J49" s="219"/>
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
       <c r="M49" s="8"/>
@@ -6415,7 +6299,7 @@
       <c r="R49" s="22"/>
     </row>
     <row r="50" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B50" s="211"/>
+      <c r="B50" s="212"/>
       <c r="C50" s="20" t="s">
         <v>14</v>
       </c>
@@ -6430,14 +6314,14 @@
         <v>158</v>
       </c>
       <c r="H50" s="21"/>
-      <c r="J50" s="218"/>
+      <c r="J50" s="219"/>
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
       <c r="N50" s="52"/>
       <c r="R50" s="22"/>
     </row>
     <row r="51" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B51" s="211"/>
+      <c r="B51" s="212"/>
       <c r="C51" s="23"/>
       <c r="D51" s="24" t="s">
         <v>159</v>
@@ -6450,7 +6334,7 @@
         <v>161</v>
       </c>
       <c r="H51" s="24"/>
-      <c r="J51" s="218"/>
+      <c r="J51" s="219"/>
       <c r="K51" s="21"/>
       <c r="L51" s="21"/>
       <c r="M51" s="8"/>
@@ -6458,7 +6342,7 @@
       <c r="R51" s="22"/>
     </row>
     <row r="52" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B52" s="211"/>
+      <c r="B52" s="212"/>
       <c r="C52" s="20"/>
       <c r="D52" s="24" t="s">
         <v>162</v>
@@ -6471,7 +6355,7 @@
         <v>164</v>
       </c>
       <c r="H52" s="24"/>
-      <c r="J52" s="218"/>
+      <c r="J52" s="219"/>
       <c r="K52" s="24"/>
       <c r="L52" s="24"/>
       <c r="M52" s="8"/>
@@ -6479,7 +6363,7 @@
       <c r="R52" s="22"/>
     </row>
     <row r="53" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B53" s="211"/>
+      <c r="B53" s="212"/>
       <c r="C53" s="20"/>
       <c r="D53" s="24" t="s">
         <v>165</v>
@@ -6492,7 +6376,7 @@
         <v>167</v>
       </c>
       <c r="H53" s="24"/>
-      <c r="J53" s="218"/>
+      <c r="J53" s="219"/>
       <c r="K53" s="24"/>
       <c r="L53" s="24"/>
       <c r="M53" s="8"/>
@@ -6500,7 +6384,7 @@
       <c r="R53" s="22"/>
     </row>
     <row r="54" spans="2:18" s="51" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B54" s="211"/>
+      <c r="B54" s="212"/>
       <c r="C54" s="20"/>
       <c r="D54" s="24" t="s">
         <v>168</v>
@@ -6513,7 +6397,7 @@
         <v>144</v>
       </c>
       <c r="H54" s="24"/>
-      <c r="J54" s="218"/>
+      <c r="J54" s="219"/>
       <c r="K54" s="24"/>
       <c r="L54" s="24"/>
       <c r="M54" s="8"/>
@@ -6524,7 +6408,7 @@
       <c r="R54" s="22"/>
     </row>
     <row r="55" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B55" s="211"/>
+      <c r="B55" s="212"/>
       <c r="C55" s="20"/>
       <c r="D55" s="24" t="s">
         <v>170</v>
@@ -6537,7 +6421,7 @@
         <v>171</v>
       </c>
       <c r="H55" s="24"/>
-      <c r="J55" s="218"/>
+      <c r="J55" s="219"/>
       <c r="K55" s="24"/>
       <c r="L55" s="24"/>
       <c r="M55" s="52"/>
@@ -6545,7 +6429,7 @@
       <c r="R55" s="22"/>
     </row>
     <row r="56" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B56" s="211"/>
+      <c r="B56" s="212"/>
       <c r="C56" s="110"/>
       <c r="D56" s="34">
         <v>725</v>
@@ -6558,7 +6442,7 @@
         <v>905</v>
       </c>
       <c r="H56" s="34"/>
-      <c r="J56" s="218"/>
+      <c r="J56" s="219"/>
       <c r="K56" s="24"/>
       <c r="L56" s="24"/>
       <c r="M56" s="52"/>
@@ -6566,8 +6450,8 @@
       <c r="R56" s="22"/>
     </row>
     <row r="57" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B57" s="211"/>
-      <c r="C57" s="219" t="s">
+      <c r="B57" s="212"/>
+      <c r="C57" s="220" t="s">
         <v>10</v>
       </c>
       <c r="D57" s="24" t="s">
@@ -6585,7 +6469,7 @@
       <c r="H57" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="J57" s="218"/>
+      <c r="J57" s="219"/>
       <c r="K57" s="25"/>
       <c r="L57" s="30"/>
       <c r="M57" s="52"/>
@@ -6593,8 +6477,8 @@
       <c r="R57" s="22"/>
     </row>
     <row r="58" spans="2:18" ht="26.1" customHeight="1" thickBot="1">
-      <c r="B58" s="217"/>
-      <c r="C58" s="220"/>
+      <c r="B58" s="218"/>
+      <c r="C58" s="221"/>
       <c r="D58" s="100" t="s">
         <v>172</v>
       </c>
@@ -6610,7 +6494,7 @@
       <c r="H58" s="100" t="s">
         <v>176</v>
       </c>
-      <c r="J58" s="218"/>
+      <c r="J58" s="219"/>
       <c r="K58" s="16"/>
       <c r="L58" s="8"/>
       <c r="M58" s="52"/>
@@ -6641,7 +6525,7 @@
       <c r="F60" s="24"/>
       <c r="G60" s="32"/>
       <c r="H60" s="32"/>
-      <c r="J60" s="221" t="s">
+      <c r="J60" s="222" t="s">
         <v>15</v>
       </c>
       <c r="K60" s="16"/>
@@ -6662,7 +6546,7 @@
       <c r="F61" s="55"/>
       <c r="G61" s="16"/>
       <c r="H61" s="56"/>
-      <c r="J61" s="221"/>
+      <c r="J61" s="222"/>
       <c r="K61" s="59"/>
       <c r="L61" s="8"/>
       <c r="M61" s="52"/>
@@ -6677,14 +6561,14 @@
       <c r="E62" s="58"/>
       <c r="F62" s="57"/>
       <c r="G62" s="58"/>
-      <c r="H62" s="207"/>
+      <c r="H62" s="208"/>
       <c r="K62" s="16"/>
       <c r="L62" s="16"/>
       <c r="M62" s="52"/>
       <c r="N62" s="52"/>
     </row>
     <row r="63" spans="2:18" ht="14.25" customHeight="1">
-      <c r="H63" s="207"/>
+      <c r="H63" s="208"/>
       <c r="K63" s="52"/>
       <c r="L63" s="16"/>
       <c r="M63" s="52"/>
@@ -7088,7 +6972,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="105"/>
       <c r="H2" s="2"/>
-      <c r="J2" s="208" t="s">
+      <c r="J2" s="209" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="32"/>
@@ -7099,23 +6983,21 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="11"/>
-      <c r="E3" s="226" t="s">
-        <v>295</v>
-      </c>
+      <c r="E3" s="225"/>
       <c r="F3" s="106"/>
       <c r="G3" s="11"/>
-      <c r="J3" s="208"/>
+      <c r="J3" s="209"/>
       <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:18" ht="24" customHeight="1">
       <c r="B4" s="115"/>
       <c r="C4" s="10"/>
       <c r="D4" s="107"/>
-      <c r="E4" s="227"/>
+      <c r="E4" s="226"/>
       <c r="F4" s="45"/>
       <c r="G4" s="108"/>
       <c r="H4" s="15"/>
@@ -7129,21 +7011,21 @@
         <v>42</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="J5" s="209" t="s">
+        <v>235</v>
+      </c>
+      <c r="J5" s="210" t="s">
         <v>40</v>
       </c>
       <c r="K5" s="48"/>
@@ -7156,28 +7038,28 @@
       <c r="R5" s="2"/>
     </row>
     <row r="6" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B6" s="224" t="s">
+      <c r="B6" s="227" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>214</v>
       </c>
       <c r="D6" s="158" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="E6" s="126" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="F6" s="153" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="G6" s="153" t="s">
-        <v>298</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="J6" s="210"/>
+        <v>265</v>
+      </c>
+      <c r="H6" s="153" t="s">
+        <v>266</v>
+      </c>
+      <c r="J6" s="211"/>
       <c r="K6" s="52"/>
       <c r="L6" s="153"/>
       <c r="M6" s="48"/>
@@ -7186,26 +7068,26 @@
       <c r="P6" s="22"/>
     </row>
     <row r="7" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B7" s="211"/>
+      <c r="B7" s="212"/>
       <c r="C7" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="145" t="s">
-        <v>282</v>
+      <c r="D7" s="21" t="s">
+        <v>279</v>
       </c>
       <c r="E7" s="127" t="s">
-        <v>283</v>
-      </c>
-      <c r="F7" s="145" t="s">
-        <v>284</v>
+        <v>267</v>
+      </c>
+      <c r="F7" s="146" t="s">
+        <v>268</v>
       </c>
       <c r="G7" s="145" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="H7" s="145" t="s">
-        <v>286</v>
-      </c>
-      <c r="J7" s="210"/>
+        <v>185</v>
+      </c>
+      <c r="J7" s="211"/>
       <c r="K7" s="52"/>
       <c r="L7" s="145"/>
       <c r="M7" s="48"/>
@@ -7214,24 +7096,24 @@
       <c r="P7" s="22"/>
     </row>
     <row r="8" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B8" s="211"/>
+      <c r="B8" s="212"/>
       <c r="C8" s="177"/>
-      <c r="D8" s="145" t="s">
-        <v>287</v>
+      <c r="D8" s="24" t="s">
+        <v>81</v>
       </c>
       <c r="E8" s="127" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="F8" s="145" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="G8" s="145" t="s">
-        <v>289</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>290</v>
-      </c>
-      <c r="J8" s="210"/>
+        <v>272</v>
+      </c>
+      <c r="H8" s="145" t="s">
+        <v>276</v>
+      </c>
+      <c r="J8" s="211"/>
       <c r="K8" s="52"/>
       <c r="L8" s="145"/>
       <c r="M8" s="48"/>
@@ -7240,24 +7122,24 @@
       <c r="P8" s="22"/>
     </row>
     <row r="9" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B9" s="211"/>
+      <c r="B9" s="212"/>
       <c r="C9" s="177"/>
-      <c r="D9" s="145" t="s">
-        <v>349</v>
+      <c r="D9" s="109" t="s">
+        <v>228</v>
       </c>
       <c r="E9" s="127" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="F9" s="145" t="s">
-        <v>347</v>
+        <v>274</v>
       </c>
       <c r="G9" s="145" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="H9" s="145" t="s">
-        <v>293</v>
-      </c>
-      <c r="J9" s="210"/>
+        <v>149</v>
+      </c>
+      <c r="J9" s="211"/>
       <c r="K9" s="52"/>
       <c r="L9" s="145"/>
       <c r="M9" s="48"/>
@@ -7266,24 +7148,24 @@
       <c r="P9" s="22"/>
     </row>
     <row r="10" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B10" s="211"/>
+      <c r="B10" s="212"/>
       <c r="C10" s="177"/>
-      <c r="D10" s="145" t="s">
-        <v>299</v>
+      <c r="D10" s="109" t="s">
+        <v>280</v>
       </c>
       <c r="E10" s="127" t="s">
+        <v>277</v>
+      </c>
+      <c r="F10" s="145" t="s">
+        <v>278</v>
+      </c>
+      <c r="G10" s="145" t="s">
         <v>153</v>
       </c>
-      <c r="F10" s="145" t="s">
-        <v>294</v>
-      </c>
-      <c r="G10" s="145" t="s">
-        <v>149</v>
-      </c>
       <c r="H10" s="145" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" s="210"/>
+        <v>280</v>
+      </c>
+      <c r="J10" s="211"/>
       <c r="K10" s="52"/>
       <c r="L10" s="145"/>
       <c r="M10" s="48"/>
@@ -7292,9 +7174,9 @@
       <c r="P10" s="22"/>
     </row>
     <row r="11" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B11" s="211"/>
+      <c r="B11" s="212"/>
       <c r="C11" s="177"/>
-      <c r="D11" s="145" t="s">
+      <c r="D11" s="109" t="s">
         <v>53</v>
       </c>
       <c r="E11" s="127" t="s">
@@ -7309,7 +7191,7 @@
       <c r="H11" s="145" t="s">
         <v>53</v>
       </c>
-      <c r="J11" s="210"/>
+      <c r="J11" s="211"/>
       <c r="K11" s="52"/>
       <c r="L11" s="48"/>
       <c r="M11" s="48"/>
@@ -7318,24 +7200,24 @@
       <c r="P11" s="26"/>
     </row>
     <row r="12" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B12" s="211"/>
+      <c r="B12" s="212"/>
       <c r="C12" s="28"/>
       <c r="D12" s="143">
-        <v>1080</v>
+        <v>1316</v>
       </c>
       <c r="E12" s="130">
-        <v>1257</v>
+        <v>1286</v>
       </c>
       <c r="F12" s="143">
-        <v>1132</v>
+        <v>980</v>
       </c>
       <c r="G12" s="143">
-        <v>1177</v>
+        <v>1135</v>
       </c>
       <c r="H12" s="143">
-        <v>1179</v>
-      </c>
-      <c r="J12" s="210"/>
+        <v>1114</v>
+      </c>
+      <c r="J12" s="211"/>
       <c r="K12" s="24"/>
       <c r="L12" s="48"/>
       <c r="M12" s="52"/>
@@ -7346,107 +7228,107 @@
       <c r="R12" s="22"/>
     </row>
     <row r="13" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B13" s="211"/>
+      <c r="B13" s="212"/>
       <c r="C13" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="158" t="s">
-        <v>300</v>
+      <c r="D13" s="153" t="s">
+        <v>290</v>
       </c>
       <c r="E13" s="126" t="s">
-        <v>313</v>
-      </c>
-      <c r="F13" s="158" t="s">
-        <v>301</v>
-      </c>
-      <c r="G13" s="158" t="s">
-        <v>302</v>
+        <v>281</v>
+      </c>
+      <c r="F13" s="153" t="s">
+        <v>334</v>
+      </c>
+      <c r="G13" s="207" t="s">
+        <v>282</v>
       </c>
       <c r="H13" s="21"/>
-      <c r="J13" s="210"/>
+      <c r="J13" s="211"/>
       <c r="K13" s="21"/>
       <c r="L13" s="52"/>
       <c r="M13" s="22"/>
     </row>
     <row r="14" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B14" s="211"/>
+      <c r="B14" s="212"/>
       <c r="C14" s="23" t="s">
         <v>223</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="E14" s="127" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" s="202"/>
-      <c r="J14" s="210"/>
+        <v>335</v>
+      </c>
+      <c r="G14" s="139" t="s">
+        <v>284</v>
+      </c>
+      <c r="H14" s="198"/>
+      <c r="J14" s="211"/>
       <c r="K14" s="24"/>
       <c r="M14" s="29"/>
     </row>
     <row r="15" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B15" s="211"/>
+      <c r="B15" s="212"/>
       <c r="C15" s="177"/>
-      <c r="D15" s="146" t="s">
-        <v>305</v>
+      <c r="D15" s="145" t="s">
+        <v>285</v>
       </c>
       <c r="E15" s="127" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="F15" s="145" t="s">
-        <v>307</v>
+        <v>336</v>
       </c>
       <c r="G15" s="145" t="s">
-        <v>308</v>
-      </c>
-      <c r="H15" s="202"/>
-      <c r="J15" s="210"/>
+        <v>287</v>
+      </c>
+      <c r="H15" s="198"/>
+      <c r="J15" s="211"/>
       <c r="K15" s="24"/>
       <c r="M15" s="22"/>
     </row>
     <row r="16" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B16" s="211"/>
+      <c r="B16" s="212"/>
       <c r="C16" s="177"/>
-      <c r="D16" s="146" t="s">
-        <v>104</v>
+      <c r="D16" s="24" t="s">
+        <v>288</v>
       </c>
       <c r="E16" s="127" t="s">
-        <v>309</v>
-      </c>
-      <c r="F16" s="145" t="s">
-        <v>310</v>
+        <v>273</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>337</v>
       </c>
       <c r="G16" s="145" t="s">
-        <v>311</v>
-      </c>
-      <c r="H16" s="202"/>
-      <c r="J16" s="210"/>
+        <v>289</v>
+      </c>
+      <c r="H16" s="198"/>
+      <c r="J16" s="211"/>
       <c r="K16" s="24"/>
       <c r="M16" s="22"/>
     </row>
     <row r="17" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B17" s="211"/>
+      <c r="B17" s="212"/>
       <c r="C17" s="177"/>
-      <c r="D17" s="139" t="s">
-        <v>149</v>
+      <c r="D17" s="24" t="s">
+        <v>53</v>
       </c>
       <c r="E17" s="127" t="s">
-        <v>312</v>
-      </c>
-      <c r="F17" s="145" t="s">
-        <v>149</v>
+        <v>53</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>104</v>
       </c>
       <c r="G17" s="145" t="s">
-        <v>247</v>
-      </c>
-      <c r="H17" s="202"/>
-      <c r="J17" s="210"/>
+        <v>228</v>
+      </c>
+      <c r="H17" s="198"/>
+      <c r="J17" s="211"/>
       <c r="K17" s="24"/>
       <c r="M17" s="22"/>
     </row>
@@ -7454,241 +7336,231 @@
       <c r="A18" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="211"/>
+      <c r="B18" s="212"/>
       <c r="C18" s="31"/>
-      <c r="D18" s="139" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="127" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="145" t="s">
-        <v>53</v>
+      <c r="D18" s="139"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="139" t="s">
+        <v>338</v>
       </c>
       <c r="G18" s="145" t="s">
         <v>53</v>
       </c>
       <c r="H18" s="145"/>
-      <c r="J18" s="210"/>
+      <c r="J18" s="211"/>
       <c r="K18" s="24"/>
       <c r="M18" s="22"/>
     </row>
     <row r="19" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B19" s="211"/>
+      <c r="B19" s="212"/>
       <c r="C19" s="28"/>
       <c r="D19" s="143">
-        <v>940</v>
+        <v>827</v>
       </c>
       <c r="E19" s="130">
-        <v>1325</v>
+        <v>1255</v>
       </c>
       <c r="F19" s="143">
-        <v>880</v>
+        <v>1104</v>
       </c>
       <c r="G19" s="143">
-        <v>1111</v>
-      </c>
-      <c r="H19" s="188"/>
-      <c r="J19" s="210"/>
+        <v>1168</v>
+      </c>
+      <c r="H19" s="187"/>
+      <c r="J19" s="211"/>
       <c r="K19" s="85"/>
       <c r="L19" s="17"/>
       <c r="M19" s="32"/>
       <c r="N19" s="17"/>
     </row>
     <row r="20" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B20" s="211"/>
+      <c r="B20" s="212"/>
       <c r="C20" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="158" t="s">
-        <v>314</v>
+      <c r="D20" s="21" t="s">
+        <v>292</v>
       </c>
       <c r="E20" s="126" t="s">
-        <v>355</v>
-      </c>
-      <c r="F20" s="189" t="s">
-        <v>315</v>
-      </c>
-      <c r="G20" s="158" t="s">
-        <v>314</v>
+        <v>293</v>
+      </c>
+      <c r="F20" s="158" t="s">
+        <v>294</v>
+      </c>
+      <c r="G20" s="188" t="s">
+        <v>295</v>
       </c>
       <c r="H20" s="153"/>
-      <c r="J20" s="210"/>
+      <c r="J20" s="211"/>
       <c r="K20" s="24"/>
       <c r="M20" s="22"/>
     </row>
     <row r="21" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B21" s="211"/>
+      <c r="B21" s="212"/>
       <c r="C21" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="D21" s="191" t="s">
-        <v>316</v>
-      </c>
-      <c r="E21" s="203" t="s">
-        <v>317</v>
-      </c>
-      <c r="F21" s="191" t="s">
-        <v>318</v>
-      </c>
-      <c r="G21" s="191" t="s">
-        <v>319</v>
+      <c r="D21" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="E21" s="129" t="s">
+        <v>297</v>
+      </c>
+      <c r="F21" s="153" t="s">
+        <v>298</v>
+      </c>
+      <c r="G21" s="206" t="s">
+        <v>299</v>
       </c>
       <c r="H21" s="145"/>
-      <c r="J21" s="210"/>
+      <c r="J21" s="211"/>
       <c r="K21" s="24"/>
       <c r="M21" s="22"/>
       <c r="N21" s="33"/>
     </row>
     <row r="22" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B22" s="211"/>
+      <c r="B22" s="212"/>
       <c r="C22" s="23"/>
-      <c r="D22" s="139" t="s">
-        <v>325</v>
+      <c r="D22" s="109" t="s">
+        <v>167</v>
       </c>
       <c r="E22" s="129" t="s">
-        <v>320</v>
-      </c>
-      <c r="F22" s="204" t="s">
-        <v>321</v>
+        <v>273</v>
+      </c>
+      <c r="F22" s="199" t="s">
+        <v>300</v>
       </c>
       <c r="G22" s="139" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
       <c r="H22" s="145"/>
-      <c r="J22" s="210"/>
+      <c r="J22" s="211"/>
       <c r="K22" s="16"/>
       <c r="L22" s="33"/>
       <c r="N22" s="27"/>
     </row>
     <row r="23" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B23" s="211"/>
+      <c r="B23" s="212"/>
       <c r="C23" s="177"/>
-      <c r="D23" s="139" t="s">
-        <v>327</v>
+      <c r="D23" s="109" t="s">
+        <v>301</v>
       </c>
       <c r="E23" s="129" t="s">
-        <v>323</v>
-      </c>
-      <c r="F23" s="178" t="s">
-        <v>310</v>
+        <v>53</v>
+      </c>
+      <c r="F23" s="139" t="s">
+        <v>302</v>
       </c>
       <c r="G23" s="139" t="s">
-        <v>324</v>
+        <v>273</v>
       </c>
       <c r="H23" s="145"/>
-      <c r="J23" s="210"/>
+      <c r="J23" s="211"/>
       <c r="K23" s="16"/>
       <c r="L23" s="139"/>
       <c r="N23" s="45"/>
     </row>
     <row r="24" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B24" s="211"/>
+      <c r="B24" s="212"/>
       <c r="C24" s="177"/>
-      <c r="D24" s="139" t="s">
-        <v>326</v>
-      </c>
-      <c r="E24" s="129" t="s">
-        <v>194</v>
-      </c>
-      <c r="F24" s="139" t="s">
-        <v>350</v>
-      </c>
-      <c r="G24" s="200" t="s">
-        <v>354</v>
+      <c r="D24" s="109" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="129"/>
+      <c r="F24" s="197" t="s">
+        <v>149</v>
+      </c>
+      <c r="G24" s="197" t="s">
+        <v>53</v>
       </c>
       <c r="H24" s="145"/>
-      <c r="J24" s="210"/>
+      <c r="J24" s="211"/>
       <c r="K24" s="16"/>
       <c r="L24" s="139"/>
       <c r="N24" s="41"/>
     </row>
     <row r="25" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B25" s="211"/>
+      <c r="B25" s="212"/>
       <c r="C25" s="177"/>
-      <c r="D25" s="139" t="s">
+      <c r="D25" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="127" t="s">
+      <c r="E25" s="127"/>
+      <c r="F25" s="146" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="139" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" s="146" t="s">
-        <v>53</v>
-      </c>
+      <c r="G25" s="197"/>
       <c r="H25" s="145"/>
-      <c r="J25" s="210"/>
+      <c r="J25" s="211"/>
       <c r="K25" s="52"/>
       <c r="L25" s="139"/>
       <c r="N25" s="16"/>
     </row>
     <row r="26" spans="1:18" s="33" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B26" s="211"/>
+      <c r="B26" s="212"/>
       <c r="C26" s="28"/>
       <c r="D26" s="139">
-        <v>930</v>
+        <v>1008</v>
       </c>
       <c r="E26" s="130">
-        <v>1150</v>
+        <v>1301</v>
       </c>
       <c r="F26" s="139">
-        <v>1200</v>
+        <v>851</v>
       </c>
       <c r="G26" s="139">
-        <v>1247</v>
+        <v>1332</v>
       </c>
       <c r="H26" s="143"/>
-      <c r="J26" s="210"/>
+      <c r="J26" s="211"/>
       <c r="K26" s="66"/>
       <c r="L26" s="139"/>
       <c r="N26" s="48"/>
     </row>
     <row r="27" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B27" s="211"/>
-      <c r="C27" s="219" t="s">
+      <c r="B27" s="212"/>
+      <c r="C27" s="220" t="s">
         <v>46</v>
       </c>
       <c r="D27" s="138" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="138" t="s">
-        <v>150</v>
+      <c r="E27" s="145" t="s">
+        <v>303</v>
       </c>
       <c r="F27" s="138" t="s">
         <v>55</v>
       </c>
       <c r="G27" s="138" t="s">
-        <v>150</v>
+        <v>303</v>
       </c>
       <c r="H27" s="138" t="s">
         <v>55</v>
       </c>
-      <c r="J27" s="210"/>
+      <c r="J27" s="211"/>
       <c r="K27" s="16"/>
       <c r="L27" s="26"/>
       <c r="N27" s="48"/>
     </row>
     <row r="28" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B28" s="211"/>
-      <c r="C28" s="222"/>
+      <c r="B28" s="212"/>
+      <c r="C28" s="223"/>
       <c r="D28" s="102" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="E28" s="102" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="F28" s="102" t="s">
-        <v>348</v>
+        <v>311</v>
       </c>
       <c r="G28" s="102" t="s">
-        <v>344</v>
+        <v>305</v>
       </c>
       <c r="H28" s="102" t="s">
-        <v>333</v>
-      </c>
-      <c r="J28" s="210"/>
+        <v>306</v>
+      </c>
+      <c r="J28" s="211"/>
       <c r="K28" s="16"/>
       <c r="L28" s="66"/>
       <c r="M28" s="41"/>
@@ -7698,22 +7570,22 @@
       <c r="Q28" s="26"/>
     </row>
     <row r="29" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B29" s="211"/>
-      <c r="C29" s="223"/>
+      <c r="B29" s="212"/>
+      <c r="C29" s="224"/>
       <c r="D29" s="151" t="s">
-        <v>329</v>
-      </c>
-      <c r="E29" s="151"/>
+        <v>307</v>
+      </c>
+      <c r="E29" s="143"/>
       <c r="F29" s="151" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="G29" s="152" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="H29" s="152" t="s">
-        <v>331</v>
-      </c>
-      <c r="J29" s="210"/>
+        <v>310</v>
+      </c>
+      <c r="J29" s="211"/>
       <c r="K29" s="109"/>
       <c r="L29" s="16"/>
       <c r="M29" s="66"/>
@@ -7724,26 +7596,26 @@
       <c r="R29" s="26"/>
     </row>
     <row r="30" spans="1:18" s="44" customFormat="1" ht="30.75" customHeight="1">
-      <c r="B30" s="211"/>
+      <c r="B30" s="212"/>
       <c r="C30" s="175" t="s">
         <v>211</v>
       </c>
       <c r="D30" s="145" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E30" s="145" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H30" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="J30" s="214" t="s">
+        <v>344</v>
+      </c>
+      <c r="J30" s="215" t="s">
         <v>17</v>
       </c>
       <c r="K30" s="16"/>
@@ -7756,24 +7628,24 @@
       <c r="R30" s="32"/>
     </row>
     <row r="31" spans="1:18" s="47" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B31" s="211"/>
+      <c r="B31" s="212"/>
       <c r="C31" s="86"/>
       <c r="D31" s="143">
-        <v>712</v>
+        <v>654</v>
       </c>
       <c r="E31" s="143">
-        <v>768</v>
+        <v>735</v>
       </c>
       <c r="F31" s="143">
-        <v>718</v>
-      </c>
-      <c r="G31" s="196">
-        <v>694</v>
+        <v>748</v>
+      </c>
+      <c r="G31" s="194">
+        <v>764</v>
       </c>
       <c r="H31" s="143">
-        <v>732</v>
-      </c>
-      <c r="J31" s="215"/>
+        <v>638</v>
+      </c>
+      <c r="J31" s="216"/>
       <c r="K31" s="52"/>
       <c r="L31" s="16"/>
       <c r="M31" s="16"/>
@@ -7783,24 +7655,24 @@
       <c r="Q31" s="32"/>
     </row>
     <row r="32" spans="1:18" s="47" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B32" s="211"/>
+      <c r="B32" s="212"/>
       <c r="C32" s="175" t="s">
         <v>219</v>
       </c>
       <c r="D32" s="159" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="E32" s="159" t="s">
-        <v>258</v>
-      </c>
-      <c r="F32" s="159" t="s">
-        <v>257</v>
-      </c>
-      <c r="G32" s="159" t="s">
-        <v>259</v>
+        <v>242</v>
+      </c>
+      <c r="F32" s="200" t="s">
+        <v>241</v>
+      </c>
+      <c r="G32" s="201" t="s">
+        <v>243</v>
       </c>
       <c r="H32" s="154"/>
-      <c r="J32" s="215"/>
+      <c r="J32" s="216"/>
       <c r="K32" s="52"/>
       <c r="L32" s="16"/>
       <c r="M32" s="16"/>
@@ -7810,22 +7682,22 @@
       <c r="Q32" s="59"/>
     </row>
     <row r="33" spans="1:18" s="47" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B33" s="211"/>
+      <c r="B33" s="212"/>
       <c r="C33" s="144"/>
       <c r="D33" s="143">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="E33" s="143">
-        <v>475</v>
+        <v>410</v>
       </c>
       <c r="F33" s="143">
-        <v>330</v>
+        <v>295</v>
       </c>
       <c r="G33" s="143">
-        <v>320</v>
+        <v>460</v>
       </c>
       <c r="H33" s="155"/>
-      <c r="J33" s="215"/>
+      <c r="J33" s="216"/>
       <c r="K33" s="52"/>
       <c r="L33" s="52"/>
       <c r="M33" s="52"/>
@@ -7835,21 +7707,21 @@
       <c r="Q33" s="22"/>
     </row>
     <row r="34" spans="1:18" s="47" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B34" s="211"/>
+      <c r="B34" s="212"/>
       <c r="C34" s="140" t="s">
         <v>218</v>
       </c>
       <c r="D34" s="147" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="E34" s="147" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F34" s="147" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="G34" s="147" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="H34" s="147"/>
       <c r="J34" s="17"/>
@@ -7862,19 +7734,19 @@
       <c r="Q34" s="22"/>
     </row>
     <row r="35" spans="1:18" s="47" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B35" s="211"/>
+      <c r="B35" s="212"/>
       <c r="C35" s="91"/>
       <c r="D35" s="139">
-        <v>472</v>
+        <v>642</v>
       </c>
       <c r="E35" s="139">
-        <v>466</v>
+        <v>634</v>
       </c>
       <c r="F35" s="139">
-        <v>459</v>
+        <v>669</v>
       </c>
       <c r="G35" s="139">
-        <v>762</v>
+        <v>647</v>
       </c>
       <c r="H35" s="156"/>
       <c r="J35" s="17"/>
@@ -7889,8 +7761,8 @@
     <row r="36" spans="1:18" s="47" customFormat="1" ht="9" customHeight="1" thickBot="1">
       <c r="B36" s="49"/>
       <c r="C36" s="92"/>
-      <c r="D36" s="190"/>
-      <c r="E36" s="190"/>
+      <c r="D36" s="189"/>
+      <c r="E36" s="189"/>
       <c r="F36" s="99"/>
       <c r="G36" s="99"/>
       <c r="H36" s="157"/>
@@ -7904,28 +7776,28 @@
       <c r="Q36" s="22"/>
     </row>
     <row r="37" spans="1:18" s="17" customFormat="1" ht="26.1" customHeight="1" thickTop="1">
-      <c r="B37" s="216" t="s">
+      <c r="B37" s="217" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="E37" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="F37" s="201" t="s">
-        <v>262</v>
-      </c>
-      <c r="G37" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="H37" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="J37" s="218" t="s">
+      <c r="D37" s="153" t="s">
+        <v>313</v>
+      </c>
+      <c r="E37" s="153" t="s">
+        <v>314</v>
+      </c>
+      <c r="F37" s="153" t="s">
+        <v>315</v>
+      </c>
+      <c r="G37" s="153" t="s">
+        <v>316</v>
+      </c>
+      <c r="H37" s="153" t="s">
+        <v>317</v>
+      </c>
+      <c r="J37" s="219" t="s">
         <v>12</v>
       </c>
       <c r="K37" s="52"/>
@@ -7941,24 +7813,24 @@
       <c r="A38" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="211"/>
+      <c r="B38" s="212"/>
       <c r="C38" s="23"/>
-      <c r="D38" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="E38" s="24" t="s">
-        <v>266</v>
+      <c r="D38" s="145" t="s">
+        <v>318</v>
+      </c>
+      <c r="E38" s="145" t="s">
+        <v>319</v>
       </c>
       <c r="F38" s="145" t="s">
-        <v>267</v>
+        <v>320</v>
       </c>
       <c r="G38" s="145" t="s">
-        <v>268</v>
+        <v>321</v>
       </c>
       <c r="H38" s="145" t="s">
-        <v>269</v>
-      </c>
-      <c r="J38" s="218"/>
+        <v>320</v>
+      </c>
+      <c r="J38" s="219"/>
       <c r="K38" s="66"/>
       <c r="L38" s="16"/>
       <c r="M38" s="52"/>
@@ -7969,24 +7841,24 @@
       <c r="R38" s="22"/>
     </row>
     <row r="39" spans="1:18" s="17" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B39" s="211"/>
+      <c r="B39" s="212"/>
       <c r="C39" s="176"/>
-      <c r="D39" s="145" t="s">
-        <v>270</v>
+      <c r="D39" s="109" t="s">
+        <v>322</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>271</v>
+        <v>323</v>
       </c>
       <c r="F39" s="145" t="s">
-        <v>272</v>
+        <v>324</v>
       </c>
       <c r="G39" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="H39" s="109" t="s">
-        <v>274</v>
-      </c>
-      <c r="J39" s="218"/>
+        <v>325</v>
+      </c>
+      <c r="H39" s="145" t="s">
+        <v>326</v>
+      </c>
+      <c r="J39" s="219"/>
       <c r="K39" s="66"/>
       <c r="L39" s="30"/>
       <c r="M39" s="52"/>
@@ -7997,24 +7869,24 @@
       <c r="R39" s="22"/>
     </row>
     <row r="40" spans="1:18" s="17" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B40" s="211"/>
+      <c r="B40" s="212"/>
       <c r="C40" s="176"/>
-      <c r="D40" s="145" t="s">
-        <v>275</v>
+      <c r="D40" s="109" t="s">
+        <v>327</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>276</v>
+        <v>328</v>
       </c>
       <c r="F40" s="145" t="s">
-        <v>143</v>
+        <v>329</v>
       </c>
       <c r="G40" s="145" t="s">
-        <v>277</v>
+        <v>330</v>
       </c>
       <c r="H40" s="109" t="s">
-        <v>278</v>
-      </c>
-      <c r="J40" s="218"/>
+        <v>331</v>
+      </c>
+      <c r="J40" s="219"/>
       <c r="K40" s="30"/>
       <c r="L40" s="8"/>
       <c r="M40" s="66"/>
@@ -8025,24 +7897,24 @@
       <c r="R40" s="26"/>
     </row>
     <row r="41" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B41" s="211"/>
+      <c r="B41" s="212"/>
       <c r="C41" s="176"/>
       <c r="D41" s="109" t="s">
-        <v>351</v>
+        <v>228</v>
       </c>
       <c r="E41" s="146" t="s">
-        <v>247</v>
-      </c>
-      <c r="F41" s="146" t="s">
-        <v>247</v>
+        <v>149</v>
+      </c>
+      <c r="F41" s="109" t="s">
+        <v>228</v>
       </c>
       <c r="G41" s="145" t="s">
+        <v>228</v>
+      </c>
+      <c r="H41" s="146" t="s">
         <v>149</v>
       </c>
-      <c r="H41" s="146" t="s">
-        <v>353</v>
-      </c>
-      <c r="J41" s="218"/>
+      <c r="J41" s="219"/>
       <c r="K41" s="52"/>
       <c r="L41" s="8"/>
       <c r="M41" s="66"/>
@@ -8053,24 +7925,18 @@
       <c r="R41" s="26"/>
     </row>
     <row r="42" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B42" s="211"/>
+      <c r="B42" s="212"/>
       <c r="C42" s="176"/>
-      <c r="D42" s="109" t="s">
-        <v>352</v>
-      </c>
-      <c r="E42" s="145" t="s">
-        <v>352</v>
-      </c>
-      <c r="F42" s="145" t="s">
-        <v>352</v>
-      </c>
+      <c r="D42" s="109"/>
+      <c r="E42" s="145"/>
+      <c r="F42" s="145"/>
       <c r="G42" s="145" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="H42" s="145" t="s">
-        <v>352</v>
-      </c>
-      <c r="J42" s="218"/>
+        <v>332</v>
+      </c>
+      <c r="J42" s="219"/>
       <c r="K42" s="52"/>
       <c r="L42" s="8"/>
       <c r="M42" s="30"/>
@@ -8081,24 +7947,24 @@
       <c r="R42" s="26"/>
     </row>
     <row r="43" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B43" s="211"/>
+      <c r="B43" s="212"/>
       <c r="C43" s="86"/>
       <c r="D43" s="143">
-        <v>1145</v>
+        <v>1119</v>
       </c>
       <c r="E43" s="143">
-        <v>964</v>
+        <v>1021</v>
       </c>
       <c r="F43" s="143">
-        <v>1170</v>
+        <v>1317</v>
       </c>
       <c r="G43" s="143">
-        <v>994</v>
+        <v>1232</v>
       </c>
       <c r="H43" s="143">
-        <v>683</v>
-      </c>
-      <c r="J43" s="218"/>
+        <v>1083</v>
+      </c>
+      <c r="J43" s="219"/>
       <c r="K43" s="52"/>
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
@@ -8106,24 +7972,24 @@
       <c r="R43" s="22"/>
     </row>
     <row r="44" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B44" s="211"/>
+      <c r="B44" s="212"/>
       <c r="C44" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D44" s="153" t="s">
-        <v>252</v>
-      </c>
-      <c r="E44" s="153" t="s">
-        <v>335</v>
+      <c r="D44" s="202" t="s">
+        <v>250</v>
+      </c>
+      <c r="E44" s="202" t="s">
+        <v>253</v>
       </c>
       <c r="F44" s="153" t="s">
-        <v>249</v>
-      </c>
-      <c r="G44" s="153" t="s">
-        <v>242</v>
+        <v>340</v>
+      </c>
+      <c r="G44" s="202" t="s">
+        <v>248</v>
       </c>
       <c r="H44" s="153"/>
-      <c r="J44" s="218"/>
+      <c r="J44" s="219"/>
       <c r="K44" s="66"/>
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
@@ -8131,22 +7997,22 @@
       <c r="R44" s="22"/>
     </row>
     <row r="45" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B45" s="211"/>
+      <c r="B45" s="212"/>
       <c r="C45" s="23"/>
-      <c r="D45" s="198" t="s">
-        <v>253</v>
-      </c>
-      <c r="E45" s="198" t="s">
-        <v>339</v>
-      </c>
-      <c r="F45" s="206" t="s">
-        <v>345</v>
-      </c>
-      <c r="G45" s="198" t="s">
-        <v>243</v>
-      </c>
-      <c r="H45" s="198"/>
-      <c r="J45" s="218"/>
+      <c r="D45" s="203" t="s">
+        <v>251</v>
+      </c>
+      <c r="E45" s="203" t="s">
+        <v>254</v>
+      </c>
+      <c r="F45" s="203" t="s">
+        <v>341</v>
+      </c>
+      <c r="G45" s="203" t="s">
+        <v>249</v>
+      </c>
+      <c r="H45" s="196"/>
+      <c r="J45" s="219"/>
       <c r="K45" s="66"/>
       <c r="L45" s="21"/>
       <c r="M45" s="8"/>
@@ -8154,22 +8020,22 @@
       <c r="R45" s="22"/>
     </row>
     <row r="46" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B46" s="211"/>
+      <c r="B46" s="212"/>
       <c r="C46" s="20"/>
-      <c r="D46" s="194" t="s">
+      <c r="D46" s="204" t="s">
         <v>226</v>
       </c>
-      <c r="E46" s="205" t="s">
+      <c r="E46" s="204" t="s">
         <v>226</v>
       </c>
-      <c r="F46" s="194" t="s">
+      <c r="F46" s="204" t="s">
         <v>226</v>
       </c>
-      <c r="G46" s="194" t="s">
+      <c r="G46" s="204" t="s">
         <v>226</v>
       </c>
-      <c r="H46" s="194"/>
-      <c r="J46" s="218"/>
+      <c r="H46" s="192"/>
+      <c r="J46" s="219"/>
       <c r="K46" s="30"/>
       <c r="L46" s="24"/>
       <c r="M46" s="8"/>
@@ -8177,22 +8043,22 @@
       <c r="R46" s="22"/>
     </row>
     <row r="47" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B47" s="211"/>
+      <c r="B47" s="212"/>
       <c r="C47" s="20"/>
-      <c r="D47" s="198" t="s">
-        <v>254</v>
-      </c>
-      <c r="E47" s="198" t="s">
-        <v>254</v>
-      </c>
-      <c r="F47" s="198" t="s">
-        <v>244</v>
-      </c>
-      <c r="G47" s="198" t="s">
-        <v>244</v>
-      </c>
-      <c r="H47" s="198"/>
-      <c r="J47" s="218"/>
+      <c r="D47" s="205" t="s">
+        <v>227</v>
+      </c>
+      <c r="E47" s="205" t="s">
+        <v>255</v>
+      </c>
+      <c r="F47" s="205" t="s">
+        <v>342</v>
+      </c>
+      <c r="G47" s="205" t="s">
+        <v>333</v>
+      </c>
+      <c r="H47" s="196"/>
+      <c r="J47" s="219"/>
       <c r="K47" s="8"/>
       <c r="L47" s="24"/>
       <c r="M47" s="8"/>
@@ -8200,22 +8066,22 @@
       <c r="R47" s="22"/>
     </row>
     <row r="48" spans="1:18" s="51" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B48" s="211"/>
+      <c r="B48" s="212"/>
       <c r="C48" s="20"/>
-      <c r="D48" s="198" t="s">
-        <v>337</v>
-      </c>
-      <c r="E48" s="198" t="s">
-        <v>336</v>
-      </c>
-      <c r="F48" s="198" t="s">
-        <v>250</v>
-      </c>
-      <c r="G48" s="198" t="s">
-        <v>245</v>
-      </c>
-      <c r="H48" s="198"/>
-      <c r="J48" s="218"/>
+      <c r="D48" s="205" t="s">
+        <v>256</v>
+      </c>
+      <c r="E48" s="205" t="s">
+        <v>256</v>
+      </c>
+      <c r="F48" s="205" t="s">
+        <v>256</v>
+      </c>
+      <c r="G48" s="205" t="s">
+        <v>252</v>
+      </c>
+      <c r="H48" s="196"/>
+      <c r="J48" s="219"/>
       <c r="K48" s="8"/>
       <c r="L48" s="24"/>
       <c r="M48" s="8"/>
@@ -8226,22 +8092,22 @@
       <c r="R48" s="22"/>
     </row>
     <row r="49" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B49" s="211"/>
+      <c r="B49" s="212"/>
       <c r="C49" s="20"/>
-      <c r="D49" s="195" t="s">
-        <v>255</v>
-      </c>
-      <c r="E49" s="145" t="s">
-        <v>340</v>
-      </c>
-      <c r="F49" s="199" t="s">
+      <c r="D49" s="193" t="s">
+        <v>339</v>
+      </c>
+      <c r="E49" s="193" t="s">
+        <v>260</v>
+      </c>
+      <c r="F49" s="193" t="s">
         <v>343</v>
       </c>
-      <c r="G49" s="199" t="s">
-        <v>342</v>
-      </c>
-      <c r="H49" s="195"/>
-      <c r="J49" s="218"/>
+      <c r="G49" s="193" t="s">
+        <v>261</v>
+      </c>
+      <c r="H49" s="193"/>
+      <c r="J49" s="219"/>
       <c r="K49" s="8"/>
       <c r="L49" s="24"/>
       <c r="M49" s="52"/>
@@ -8249,22 +8115,22 @@
       <c r="R49" s="22"/>
     </row>
     <row r="50" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B50" s="211"/>
+      <c r="B50" s="212"/>
       <c r="C50" s="20"/>
-      <c r="D50" s="145" t="s">
+      <c r="D50" s="193" t="s">
+        <v>228</v>
+      </c>
+      <c r="E50" s="193" t="s">
+        <v>229</v>
+      </c>
+      <c r="F50" s="145" t="s">
+        <v>228</v>
+      </c>
+      <c r="G50" s="193" t="s">
         <v>149</v>
       </c>
-      <c r="E50" s="145" t="s">
-        <v>149</v>
-      </c>
-      <c r="F50" s="195" t="s">
-        <v>247</v>
-      </c>
-      <c r="G50" s="139" t="s">
-        <v>247</v>
-      </c>
       <c r="H50" s="145"/>
-      <c r="J50" s="218"/>
+      <c r="J50" s="219"/>
       <c r="K50" s="8"/>
       <c r="L50" s="24"/>
       <c r="M50" s="52"/>
@@ -8272,22 +8138,22 @@
       <c r="R50" s="22"/>
     </row>
     <row r="51" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B51" s="211"/>
+      <c r="B51" s="212"/>
       <c r="C51" s="20"/>
-      <c r="D51" s="145" t="s">
-        <v>338</v>
+      <c r="D51" s="193" t="s">
+        <v>258</v>
       </c>
       <c r="E51" s="139" t="s">
-        <v>341</v>
-      </c>
-      <c r="F51" s="195" t="s">
-        <v>251</v>
-      </c>
-      <c r="G51" s="139" t="s">
-        <v>246</v>
+        <v>262</v>
+      </c>
+      <c r="F51" s="145" t="s">
+        <v>259</v>
+      </c>
+      <c r="G51" s="193" t="s">
+        <v>257</v>
       </c>
       <c r="H51" s="145"/>
-      <c r="J51" s="218"/>
+      <c r="J51" s="219"/>
       <c r="K51" s="8"/>
       <c r="L51" s="30"/>
       <c r="M51" s="52"/>
@@ -8295,22 +8161,22 @@
       <c r="R51" s="22"/>
     </row>
     <row r="52" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B52" s="211"/>
+      <c r="B52" s="212"/>
       <c r="C52" s="110"/>
       <c r="D52" s="143">
-        <v>674</v>
+        <v>988</v>
       </c>
       <c r="E52" s="143">
-        <v>1255</v>
+        <v>1163</v>
       </c>
       <c r="F52" s="143">
-        <v>994</v>
+        <v>811</v>
       </c>
       <c r="G52" s="143">
-        <v>1111</v>
+        <v>1250</v>
       </c>
       <c r="H52" s="143"/>
-      <c r="J52" s="218"/>
+      <c r="J52" s="219"/>
       <c r="K52" s="8"/>
       <c r="L52" s="30"/>
       <c r="M52" s="52"/>
@@ -8318,11 +8184,11 @@
       <c r="R52" s="22"/>
     </row>
     <row r="53" spans="2:18" ht="25.5" customHeight="1">
-      <c r="B53" s="211"/>
-      <c r="C53" s="219" t="s">
+      <c r="B53" s="212"/>
+      <c r="C53" s="220" t="s">
         <v>215</v>
       </c>
-      <c r="D53" s="192" t="s">
+      <c r="D53" s="190" t="s">
         <v>225</v>
       </c>
       <c r="E53" s="113" t="s">
@@ -8344,29 +8210,29 @@
       <c r="R53" s="22"/>
     </row>
     <row r="54" spans="2:18" s="57" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B54" s="217"/>
-      <c r="C54" s="220"/>
-      <c r="D54" s="193" t="str">
+      <c r="B54" s="218"/>
+      <c r="C54" s="221"/>
+      <c r="D54" s="191" t="str">
         <f>D29</f>
-        <v>오리엔탈D&amp;요거트D</v>
+        <v>오리엔탈D&amp;망고D</v>
       </c>
       <c r="E54" s="150" t="str">
         <f>E28</f>
-        <v>발사믹D&amp;자몽D</v>
+        <v>발사믹D&amp;참깨D</v>
       </c>
       <c r="F54" s="150" t="str">
         <f>F29</f>
-        <v>오리엔탈D&amp;크리미양파D</v>
-      </c>
-      <c r="G54" s="197" t="str">
+        <v>오리엔탈D&amp;블루베리D</v>
+      </c>
+      <c r="G54" s="195" t="str">
         <f>G29</f>
-        <v>발사믹D&amp;딸기요거트D</v>
-      </c>
-      <c r="H54" s="197" t="str">
+        <v>발사믹D&amp;파인애플D</v>
+      </c>
+      <c r="H54" s="195" t="str">
         <f>H29</f>
-        <v>오리엔탈D&amp;한라봉D</v>
-      </c>
-      <c r="J54" s="221" t="s">
+        <v>오리엔탈D&amp;딸기D</v>
+      </c>
+      <c r="J54" s="222" t="s">
         <v>1</v>
       </c>
       <c r="K54" s="52"/>
@@ -8386,7 +8252,7 @@
       <c r="F55" s="24"/>
       <c r="G55" s="24"/>
       <c r="H55" s="24"/>
-      <c r="J55" s="221"/>
+      <c r="J55" s="222"/>
       <c r="K55" s="59"/>
       <c r="L55" s="8"/>
       <c r="M55" s="52"/>
@@ -8431,7 +8297,7 @@
       <c r="E58" s="134"/>
       <c r="F58" s="135"/>
       <c r="G58" s="134"/>
-      <c r="H58" s="225"/>
+      <c r="H58" s="228"/>
       <c r="K58" s="52"/>
       <c r="L58" s="16"/>
       <c r="M58" s="52"/>
@@ -8441,7 +8307,7 @@
       <c r="E59" s="105"/>
       <c r="F59" s="136"/>
       <c r="G59" s="105"/>
-      <c r="H59" s="225"/>
+      <c r="H59" s="228"/>
       <c r="K59" s="25"/>
       <c r="L59" s="25"/>
       <c r="M59" s="52"/>
@@ -8745,22 +8611,22 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B6:B35"/>
+    <mergeCell ref="J37:J52"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="B37:B54"/>
+    <mergeCell ref="H58:H59"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="J5:J29"/>
     <mergeCell ref="C27:C29"/>
     <mergeCell ref="J30:J33"/>
     <mergeCell ref="C53:C54"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="B6:B35"/>
-    <mergeCell ref="J37:J52"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="B37:B54"/>
-    <mergeCell ref="H58:H59"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="52" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="53" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="57" max="16383" man="1"/>
   </rowBreaks>
@@ -8776,7 +8642,7 @@
   <dimension ref="A1:V84"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="96" workbookViewId="0">
-      <selection activeCell="R55" sqref="R55"/>
+      <selection activeCell="R45" sqref="R45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" customHeight="1"/>
@@ -8804,7 +8670,7 @@
     <row r="1" spans="2:19" ht="12.75" customHeight="1"/>
     <row r="5" spans="2:19" s="17" customFormat="1" ht="24.75" customHeight="1">
       <c r="B5" s="73" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="74"/>
@@ -8881,484 +8747,468 @@
       </c>
     </row>
     <row r="9" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B9" s="254" t="s">
+      <c r="B9" s="253" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="266" t="s">
+      <c r="C9" s="229" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="260" t="s">
+      <c r="D9" s="232" t="s">
         <v>216</v>
       </c>
       <c r="E9" s="87" t="str">
         <f>주간메뉴표!D6</f>
-        <v>청국장찌개 정식</v>
-      </c>
-      <c r="F9" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="G9" s="228">
+        <v>[Fun!629]</v>
+      </c>
+      <c r="F9" s="79"/>
+      <c r="G9" s="235">
         <f>주간메뉴표!D12</f>
-        <v>1080</v>
+        <v>1316</v>
       </c>
       <c r="H9" s="164" t="str">
         <f>주간메뉴표!E6</f>
-        <v>한방갈비탕</v>
+        <v>마라탕</v>
       </c>
       <c r="I9" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="J9" s="228">
+      <c r="J9" s="235">
         <f>주간메뉴표!E12</f>
-        <v>1257</v>
+        <v>1286</v>
       </c>
       <c r="K9" s="164" t="str">
         <f>주간메뉴표!F6</f>
-        <v>사골떡만둣국</v>
+        <v>돈목살김치찌개</v>
       </c>
       <c r="L9" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M9" s="228">
+      <c r="M9" s="235">
         <f>주간메뉴표!F12</f>
-        <v>1132</v>
+        <v>980</v>
       </c>
       <c r="N9" s="164" t="str">
         <f>주간메뉴표!G6</f>
-        <v>전주식비빔밥</v>
+        <v>우삼겹순두부찌개</v>
       </c>
       <c r="O9" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P9" s="231">
+      <c r="P9" s="262">
         <f>주간메뉴표!G12</f>
-        <v>1177</v>
+        <v>1135</v>
       </c>
       <c r="Q9" s="173" t="str">
         <f>주간메뉴표!H6</f>
-        <v>(뚝)묵말랭이들깨수제비</v>
+        <v>시래기매운돼지갈비찜</v>
       </c>
       <c r="R9" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="S9" s="241">
+      <c r="S9" s="255">
         <f>주간메뉴표!H12</f>
-        <v>1179</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="10" spans="2:19" s="17" customFormat="1" ht="19.5" customHeight="1">
-      <c r="B10" s="255"/>
-      <c r="C10" s="267"/>
-      <c r="D10" s="261"/>
+      <c r="B10" s="254"/>
+      <c r="C10" s="230"/>
+      <c r="D10" s="233"/>
       <c r="E10" s="88" t="str">
         <f>주간메뉴표!D7</f>
-        <v>돼지고기고추장볶음</v>
+        <v>일식철판돈가스</v>
       </c>
       <c r="F10" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G10" s="229"/>
+      <c r="G10" s="236"/>
       <c r="H10" s="165" t="str">
         <f>주간메뉴표!E7</f>
-        <v>채소잡채</v>
+        <v>마장소스</v>
       </c>
       <c r="I10" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="J10" s="229"/>
+      <c r="J10" s="236"/>
       <c r="K10" s="165" t="str">
         <f>주간메뉴표!F7</f>
-        <v>동태전</v>
+        <v>생선가스</v>
       </c>
       <c r="L10" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M10" s="229"/>
+      <c r="M10" s="236"/>
       <c r="N10" s="165" t="str">
         <f>주간메뉴표!G7</f>
-        <v>미역국</v>
+        <v>너비아니엿장조림</v>
       </c>
       <c r="O10" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P10" s="232"/>
+      <c r="P10" s="263"/>
       <c r="Q10" s="165" t="str">
         <f>주간메뉴표!H7</f>
-        <v>주꾸미오징어브로콜리숙회</v>
+        <v>메추리알장조림</v>
       </c>
       <c r="R10" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="S10" s="247"/>
+      <c r="S10" s="256"/>
     </row>
     <row r="11" spans="2:19" s="17" customFormat="1" ht="19.5" customHeight="1">
-      <c r="B11" s="255"/>
-      <c r="C11" s="267"/>
-      <c r="D11" s="261"/>
+      <c r="B11" s="254"/>
+      <c r="C11" s="230"/>
+      <c r="D11" s="233"/>
       <c r="E11" s="88" t="str">
         <f>주간메뉴표!D8</f>
-        <v>어묵볶음</v>
+        <v>미소장국</v>
       </c>
       <c r="F11" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G11" s="229"/>
+      <c r="G11" s="236"/>
       <c r="H11" s="165" t="str">
         <f>주간메뉴표!E8</f>
-        <v>해물파전</v>
+        <v>연유꽃빵튀김</v>
       </c>
       <c r="I11" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="J11" s="229"/>
+      <c r="J11" s="236"/>
       <c r="K11" s="165" t="str">
         <f>주간메뉴표!F8</f>
-        <v>쥐어채고추장무침</v>
+        <v>계란찜</v>
       </c>
       <c r="L11" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M11" s="229"/>
+      <c r="M11" s="236"/>
       <c r="N11" s="165" t="str">
         <f>주간메뉴표!G8</f>
-        <v>너비아니&amp;새송이버섯구이</v>
+        <v>옥수수전</v>
       </c>
       <c r="O11" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P11" s="232"/>
+      <c r="P11" s="263"/>
       <c r="Q11" s="165" t="str">
         <f>주간메뉴표!H8</f>
-        <v>미니메밀전병</v>
+        <v>천사채샐러드</v>
       </c>
       <c r="R11" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="S11" s="247"/>
+      <c r="S11" s="256"/>
     </row>
     <row r="12" spans="2:19" s="17" customFormat="1" ht="35.25" customHeight="1">
-      <c r="B12" s="255"/>
-      <c r="C12" s="267"/>
-      <c r="D12" s="261"/>
+      <c r="B12" s="254"/>
+      <c r="C12" s="230"/>
+      <c r="D12" s="233"/>
       <c r="E12" s="88" t="str">
         <f>주간메뉴표!D9</f>
-        <v>삼색나물(콩나물, 무생채, 유채나물)</v>
-      </c>
-      <c r="F12" s="79"/>
-      <c r="G12" s="229"/>
+        <v>깍두기</v>
+      </c>
+      <c r="F12" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="G12" s="236"/>
       <c r="H12" s="165" t="str">
         <f>주간메뉴표!E9</f>
-        <v>양파고추간장절임</v>
-      </c>
-      <c r="I12" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="J12" s="229"/>
+        <v>탄산음료</v>
+      </c>
+      <c r="I12" s="79"/>
+      <c r="J12" s="236"/>
       <c r="K12" s="165" t="str">
         <f>주간메뉴표!F9</f>
-        <v>우엉조림</v>
+        <v>파래자반볶음</v>
       </c>
       <c r="L12" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M12" s="229"/>
+      <c r="M12" s="236"/>
       <c r="N12" s="165" t="str">
         <f>주간메뉴표!G9</f>
-        <v>마늘쫑무침/콘샐러드</v>
+        <v>청포묵김가루무침</v>
       </c>
       <c r="O12" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P12" s="232"/>
+      <c r="P12" s="263"/>
       <c r="Q12" s="165" t="str">
         <f>주간메뉴표!H9</f>
-        <v>잔멸치볶음</v>
+        <v>포기김치</v>
       </c>
       <c r="R12" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="S12" s="247"/>
+      <c r="S12" s="256"/>
     </row>
     <row r="13" spans="2:19" s="27" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B13" s="255"/>
-      <c r="C13" s="267"/>
-      <c r="D13" s="261"/>
+      <c r="B13" s="254"/>
+      <c r="C13" s="230"/>
+      <c r="D13" s="233"/>
       <c r="E13" s="88" t="str">
         <f>주간메뉴표!D10</f>
-        <v>깍두기/보리밥</v>
-      </c>
-      <c r="F13" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="G13" s="229"/>
+        <v>잡곡밥</v>
+      </c>
+      <c r="F13" s="79"/>
+      <c r="G13" s="236"/>
       <c r="H13" s="165" t="str">
         <f>주간메뉴표!E10</f>
-        <v>포기김치/잡곡밥</v>
+        <v>백김치/잡곡밥</v>
       </c>
       <c r="I13" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="J13" s="229"/>
+      <c r="J13" s="236"/>
       <c r="K13" s="165" t="str">
         <f>주간메뉴표!F10</f>
-        <v>배추겉절이/잡곡밥</v>
+        <v>열무김치/잡곡밥</v>
       </c>
       <c r="L13" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M13" s="229"/>
+      <c r="M13" s="236"/>
       <c r="N13" s="165" t="str">
         <f>주간메뉴표!G10</f>
-        <v>포기김치</v>
+        <v>포기김치/잡곡밥</v>
       </c>
       <c r="O13" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P13" s="232"/>
+      <c r="P13" s="263"/>
       <c r="Q13" s="165" t="str">
         <f>주간메뉴표!H10</f>
-        <v>깍두기/잡곡밥</v>
-      </c>
-      <c r="R13" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="S13" s="247"/>
+        <v>잡곡밥</v>
+      </c>
+      <c r="R13" s="79"/>
+      <c r="S13" s="256"/>
     </row>
     <row r="14" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B14" s="255"/>
-      <c r="C14" s="273"/>
-      <c r="D14" s="262"/>
+      <c r="B14" s="254"/>
+      <c r="C14" s="231"/>
+      <c r="D14" s="234"/>
       <c r="E14" s="88" t="str">
         <f>주간메뉴표!D11</f>
         <v>그린샐러드</v>
       </c>
       <c r="F14" s="79"/>
-      <c r="G14" s="230"/>
+      <c r="G14" s="237"/>
       <c r="H14" s="165" t="str">
         <f>주간메뉴표!E11</f>
         <v>그린샐러드</v>
       </c>
       <c r="I14" s="79"/>
-      <c r="J14" s="230"/>
+      <c r="J14" s="237"/>
       <c r="K14" s="165" t="str">
         <f>주간메뉴표!F11</f>
         <v>그린샐러드</v>
       </c>
       <c r="L14" s="79"/>
-      <c r="M14" s="230"/>
+      <c r="M14" s="237"/>
       <c r="N14" s="165" t="str">
         <f>주간메뉴표!G11</f>
         <v>그린샐러드</v>
       </c>
       <c r="O14" s="79"/>
-      <c r="P14" s="233"/>
+      <c r="P14" s="264"/>
       <c r="Q14" s="165" t="str">
         <f>주간메뉴표!H11</f>
         <v>그린샐러드</v>
       </c>
       <c r="R14" s="79"/>
-      <c r="S14" s="242"/>
+      <c r="S14" s="257"/>
     </row>
     <row r="15" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B15" s="255"/>
-      <c r="C15" s="274" t="s">
+      <c r="B15" s="254"/>
+      <c r="C15" s="238" t="s">
         <v>217</v>
       </c>
-      <c r="D15" s="260" t="s">
+      <c r="D15" s="232" t="s">
         <v>32</v>
       </c>
       <c r="E15" s="87" t="str">
         <f>주간메뉴표!D13</f>
-        <v>간자장*계란후라이(2&amp;3)</v>
+        <v>명동식 칼국수</v>
       </c>
       <c r="F15" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G15" s="228">
+      <c r="G15" s="235">
         <f>주간메뉴표!D19</f>
-        <v>940</v>
+        <v>827</v>
       </c>
       <c r="H15" s="166" t="str">
         <f>주간메뉴표!E13</f>
-        <v>비(프)슈(림프)버거 Set</v>
+        <v>반마리마늘통닭&amp;짜파게티</v>
       </c>
       <c r="I15" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="J15" s="228">
+      <c r="J15" s="235">
         <f>주간메뉴표!E19</f>
-        <v>1325</v>
+        <v>1255</v>
       </c>
       <c r="K15" s="173" t="str">
         <f>주간메뉴표!F13</f>
-        <v>토리동</v>
+        <v>마파두부면</v>
       </c>
       <c r="L15" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M15" s="228">
+      <c r="M15" s="235">
         <f>주간메뉴표!F19</f>
-        <v>880</v>
+        <v>1104</v>
       </c>
       <c r="N15" s="164" t="str">
         <f>주간메뉴표!G13</f>
-        <v>소시지커리필라프</v>
+        <v>불고기김치볶음밥</v>
       </c>
       <c r="O15" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P15" s="228">
+      <c r="P15" s="235">
         <f>주간메뉴표!G19</f>
-        <v>1111</v>
-      </c>
-      <c r="Q15" s="179"/>
-      <c r="R15" s="180"/>
-      <c r="S15" s="248"/>
+        <v>1168</v>
+      </c>
+      <c r="Q15" s="178"/>
+      <c r="R15" s="179"/>
+      <c r="S15" s="271"/>
     </row>
     <row r="16" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B16" s="255"/>
-      <c r="C16" s="267"/>
-      <c r="D16" s="261"/>
+      <c r="B16" s="254"/>
+      <c r="C16" s="230"/>
+      <c r="D16" s="233"/>
       <c r="E16" s="88" t="str">
         <f>주간메뉴표!D14</f>
-        <v>짬뽕국물</v>
+        <v>바싹불고기</v>
       </c>
       <c r="F16" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G16" s="229"/>
+      <c r="G16" s="236"/>
       <c r="H16" s="165" t="str">
         <f>주간메뉴표!E14</f>
-        <v>치킨너겟*칠리소스</v>
+        <v>뿌링치즈볼</v>
       </c>
       <c r="I16" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="J16" s="229"/>
+      <c r="J16" s="236"/>
       <c r="K16" s="165" t="str">
         <f>주간메뉴표!F14</f>
-        <v>유부장국</v>
+        <v>계란국</v>
       </c>
       <c r="L16" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M16" s="229"/>
+      <c r="M16" s="236"/>
       <c r="N16" s="165" t="str">
         <f>주간메뉴표!G14</f>
-        <v>미소장국</v>
-      </c>
-      <c r="O16" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="P16" s="229"/>
-      <c r="Q16" s="179"/>
-      <c r="R16" s="180"/>
-      <c r="S16" s="249"/>
+        <v>우동국물</v>
+      </c>
+      <c r="O16" s="79"/>
+      <c r="P16" s="236"/>
+      <c r="Q16" s="178"/>
+      <c r="R16" s="179"/>
+      <c r="S16" s="272"/>
     </row>
     <row r="17" spans="1:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B17" s="255"/>
-      <c r="C17" s="267"/>
-      <c r="D17" s="261"/>
+      <c r="B17" s="254"/>
+      <c r="C17" s="230"/>
+      <c r="D17" s="233"/>
       <c r="E17" s="88" t="str">
         <f>주간메뉴표!D15</f>
-        <v>만두탕수</v>
-      </c>
-      <c r="F17" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="G17" s="229"/>
+        <v>간장고추지</v>
+      </c>
+      <c r="F17" s="79"/>
+      <c r="G17" s="236"/>
       <c r="H17" s="165" t="str">
         <f>주간메뉴표!E15</f>
-        <v>애플파이</v>
-      </c>
-      <c r="I17" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="J17" s="229"/>
+        <v>치킨무</v>
+      </c>
+      <c r="I17" s="79"/>
+      <c r="J17" s="236"/>
       <c r="K17" s="165" t="str">
         <f>주간메뉴표!F15</f>
-        <v>연두부찜*참깨D</v>
+        <v>멘보샤</v>
       </c>
       <c r="L17" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M17" s="229"/>
+      <c r="M17" s="236"/>
       <c r="N17" s="165" t="str">
         <f>주간메뉴표!G15</f>
-        <v>한입콤비네이션피자</v>
-      </c>
-      <c r="O17" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="P17" s="229"/>
-      <c r="Q17" s="179"/>
-      <c r="R17" s="180"/>
-      <c r="S17" s="249"/>
+        <v>소떡소떡</v>
+      </c>
+      <c r="O17" s="79"/>
+      <c r="P17" s="236"/>
+      <c r="Q17" s="178"/>
+      <c r="R17" s="179"/>
+      <c r="S17" s="272"/>
     </row>
     <row r="18" spans="1:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B18" s="255"/>
-      <c r="C18" s="267"/>
-      <c r="D18" s="261"/>
+      <c r="B18" s="254"/>
+      <c r="C18" s="230"/>
+      <c r="D18" s="233"/>
       <c r="E18" s="88" t="str">
         <f>주간메뉴표!D16</f>
-        <v>단무지</v>
+        <v>배추겉절이</v>
       </c>
       <c r="F18" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G18" s="229"/>
+      <c r="G18" s="236"/>
       <c r="H18" s="165" t="str">
         <f>주간메뉴표!E16</f>
-        <v>감자튀김</v>
-      </c>
-      <c r="I18" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="J18" s="229"/>
+        <v>탄산음료</v>
+      </c>
+      <c r="I18" s="79"/>
+      <c r="J18" s="236"/>
       <c r="K18" s="165" t="str">
         <f>주간메뉴표!F16</f>
-        <v>무비트피클</v>
-      </c>
-      <c r="L18" s="79"/>
-      <c r="M18" s="229"/>
+        <v>중국식땅콩볶음</v>
+      </c>
+      <c r="L18" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="M18" s="236"/>
       <c r="N18" s="165" t="str">
         <f>주간메뉴표!G16</f>
-        <v>코올슬로</v>
+        <v>콘샐러드</v>
       </c>
       <c r="O18" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P18" s="229"/>
-      <c r="Q18" s="179"/>
-      <c r="R18" s="180"/>
-      <c r="S18" s="249"/>
+      <c r="P18" s="236"/>
+      <c r="Q18" s="178"/>
+      <c r="R18" s="179"/>
+      <c r="S18" s="272"/>
     </row>
     <row r="19" spans="1:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B19" s="255"/>
-      <c r="C19" s="267"/>
-      <c r="D19" s="261"/>
+      <c r="B19" s="254"/>
+      <c r="C19" s="230"/>
+      <c r="D19" s="233"/>
       <c r="E19" s="88" t="str">
         <f>주간메뉴표!D17</f>
-        <v>포기김치</v>
-      </c>
-      <c r="F19" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="G19" s="229"/>
+        <v>그린샐러드</v>
+      </c>
+      <c r="F19" s="79"/>
+      <c r="G19" s="236"/>
       <c r="H19" s="165" t="str">
         <f>주간메뉴표!E17</f>
-        <v>탄산음료</v>
+        <v>그린샐러드</v>
       </c>
       <c r="I19" s="79"/>
-      <c r="J19" s="229"/>
+      <c r="J19" s="236"/>
       <c r="K19" s="165" t="str">
         <f>주간메뉴표!F17</f>
-        <v>포기김치</v>
+        <v>단무지</v>
       </c>
       <c r="L19" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M19" s="229"/>
+      <c r="M19" s="236"/>
       <c r="N19" s="165" t="str">
         <f>주간메뉴표!G17</f>
         <v>깍두기</v>
@@ -9366,461 +9216,449 @@
       <c r="O19" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P19" s="229"/>
-      <c r="Q19" s="179"/>
-      <c r="R19" s="180"/>
-      <c r="S19" s="249"/>
+      <c r="P19" s="236"/>
+      <c r="Q19" s="178"/>
+      <c r="R19" s="179"/>
+      <c r="S19" s="272"/>
     </row>
     <row r="20" spans="1:19" s="27" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B20" s="255"/>
-      <c r="C20" s="267"/>
-      <c r="D20" s="261"/>
-      <c r="E20" s="88" t="str">
+      <c r="B20" s="254"/>
+      <c r="C20" s="230"/>
+      <c r="D20" s="233"/>
+      <c r="E20" s="88">
         <f>주간메뉴표!D18</f>
-        <v>그린샐러드</v>
+        <v>0</v>
       </c>
       <c r="F20" s="79"/>
-      <c r="G20" s="229"/>
-      <c r="H20" s="165" t="str">
+      <c r="G20" s="236"/>
+      <c r="H20" s="165">
         <f>주간메뉴표!E18</f>
-        <v>그린샐러드</v>
+        <v>0</v>
       </c>
       <c r="I20" s="79"/>
-      <c r="J20" s="229"/>
+      <c r="J20" s="236"/>
       <c r="K20" s="165" t="str">
         <f>주간메뉴표!F18</f>
         <v>그린샐러드</v>
       </c>
       <c r="L20" s="79"/>
-      <c r="M20" s="229"/>
+      <c r="M20" s="236"/>
       <c r="N20" s="165" t="str">
         <f>주간메뉴표!G18</f>
         <v>그린샐러드</v>
       </c>
       <c r="O20" s="79"/>
-      <c r="P20" s="229"/>
-      <c r="Q20" s="179"/>
-      <c r="R20" s="180"/>
-      <c r="S20" s="249"/>
+      <c r="P20" s="236"/>
+      <c r="Q20" s="178"/>
+      <c r="R20" s="179"/>
+      <c r="S20" s="272"/>
     </row>
     <row r="21" spans="1:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B21" s="255"/>
-      <c r="C21" s="266" t="s">
+      <c r="B21" s="254"/>
+      <c r="C21" s="229" t="s">
         <v>221</v>
       </c>
-      <c r="D21" s="260" t="s">
+      <c r="D21" s="232" t="s">
         <v>34</v>
       </c>
       <c r="E21" s="87" t="str">
         <f>주간메뉴표!D20</f>
-        <v>[Fun!629]</v>
-      </c>
-      <c r="F21" s="79"/>
-      <c r="G21" s="228">
+        <v>제주식돼지수육해장국</v>
+      </c>
+      <c r="F21" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="G21" s="235">
         <f>주간메뉴표!D26</f>
-        <v>930</v>
+        <v>1008</v>
       </c>
       <c r="H21" s="164" t="str">
         <f>주간메뉴표!E20</f>
-        <v>★월드셰프★</v>
-      </c>
-      <c r="I21" s="79"/>
-      <c r="J21" s="270">
+        <v>연어관자크림리조또</v>
+      </c>
+      <c r="I21" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="J21" s="239">
         <f>주간메뉴표!E26</f>
-        <v>1150</v>
+        <v>1301</v>
       </c>
       <c r="K21" s="164" t="str">
         <f>주간메뉴표!F20</f>
-        <v>[웰그린데이]</v>
+        <v>[Fun!629]</v>
       </c>
       <c r="L21" s="79"/>
-      <c r="M21" s="228">
+      <c r="M21" s="235">
         <f>주간메뉴표!F26</f>
-        <v>1200</v>
+        <v>851</v>
       </c>
       <c r="N21" s="166" t="str">
         <f>주간메뉴표!G20</f>
-        <v>[Fun!629]</v>
+        <v>[웰그린데이]</v>
       </c>
       <c r="O21" s="79"/>
-      <c r="P21" s="231">
+      <c r="P21" s="262">
         <f>주간메뉴표!G26</f>
-        <v>1247</v>
-      </c>
-      <c r="Q21" s="181"/>
-      <c r="R21" s="180"/>
-      <c r="S21" s="248"/>
+        <v>1332</v>
+      </c>
+      <c r="Q21" s="180"/>
+      <c r="R21" s="179"/>
+      <c r="S21" s="271"/>
     </row>
     <row r="22" spans="1:19" s="17" customFormat="1" ht="33" customHeight="1">
-      <c r="B22" s="255"/>
-      <c r="C22" s="267"/>
-      <c r="D22" s="261"/>
+      <c r="B22" s="254"/>
+      <c r="C22" s="230"/>
+      <c r="D22" s="233"/>
       <c r="E22" s="88" t="str">
         <f>주간메뉴표!D21</f>
-        <v>명란버터비빔우동</v>
+        <v>고기경단조림</v>
       </c>
       <c r="F22" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G22" s="229"/>
+      <c r="G22" s="236"/>
       <c r="H22" s="167" t="str">
         <f>주간메뉴표!E21</f>
-        <v>태국식볶음밥&amp;크리스피치킨</v>
-      </c>
-      <c r="I22" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="J22" s="271"/>
+        <v>수제피클</v>
+      </c>
+      <c r="I22" s="79"/>
+      <c r="J22" s="240"/>
       <c r="K22" s="165" t="str">
         <f>주간메뉴표!F21</f>
-        <v>고사리들기름파스타</v>
+        <v>깽키여우완까이</v>
       </c>
       <c r="L22" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M22" s="229"/>
+      <c r="M22" s="236"/>
       <c r="N22" s="165" t="str">
         <f>주간메뉴표!G21</f>
-        <v>가래떡떡볶이</v>
+        <v>취나물쉬림프페스토파스타</v>
       </c>
       <c r="O22" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P22" s="232"/>
-      <c r="Q22" s="179"/>
-      <c r="R22" s="180"/>
-      <c r="S22" s="249"/>
+      <c r="P22" s="263"/>
+      <c r="Q22" s="178"/>
+      <c r="R22" s="179"/>
+      <c r="S22" s="272"/>
     </row>
     <row r="23" spans="1:19" s="17" customFormat="1" ht="30" customHeight="1">
       <c r="A23" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="255"/>
-      <c r="C23" s="267"/>
-      <c r="D23" s="261"/>
+      <c r="B23" s="254"/>
+      <c r="C23" s="230"/>
+      <c r="D23" s="233"/>
       <c r="E23" s="88" t="str">
         <f>주간메뉴표!D22</f>
-        <v>*간장소스/우동국물</v>
-      </c>
-      <c r="F23" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="G23" s="229"/>
+        <v>미역줄기볶음</v>
+      </c>
+      <c r="F23" s="79"/>
+      <c r="G23" s="236"/>
       <c r="H23" s="167" t="str">
         <f>주간메뉴표!E22</f>
-        <v>&amp;똠양국</v>
-      </c>
-      <c r="I23" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="J23" s="271"/>
+        <v>탄산음료</v>
+      </c>
+      <c r="I23" s="79"/>
+      <c r="J23" s="240"/>
       <c r="K23" s="165" t="str">
         <f>주간메뉴표!F22</f>
-        <v>베지치킨&amp;베지오징어링튀김</v>
-      </c>
-      <c r="L23" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="M23" s="229"/>
+        <v>(태국식치킨커리스프&amp;라이스)</v>
+      </c>
+      <c r="L23" s="79"/>
+      <c r="M23" s="236"/>
       <c r="N23" s="165" t="str">
         <f>주간메뉴표!G22</f>
-        <v>꼬치어묵국</v>
-      </c>
-      <c r="O23" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="P23" s="232"/>
-      <c r="Q23" s="179"/>
-      <c r="R23" s="180"/>
-      <c r="S23" s="249"/>
+        <v>수제피클</v>
+      </c>
+      <c r="O23" s="79"/>
+      <c r="P23" s="263"/>
+      <c r="Q23" s="178"/>
+      <c r="R23" s="179"/>
+      <c r="S23" s="272"/>
     </row>
     <row r="24" spans="1:19" s="17" customFormat="1" ht="28.5" customHeight="1">
-      <c r="B24" s="255"/>
-      <c r="C24" s="267"/>
-      <c r="D24" s="261"/>
+      <c r="B24" s="254"/>
+      <c r="C24" s="230"/>
+      <c r="D24" s="233"/>
       <c r="E24" s="88" t="str">
         <f>주간메뉴표!D23</f>
-        <v>3종교자(새우,랍스터,갈비)</v>
-      </c>
-      <c r="F24" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="G24" s="229"/>
+        <v>양념깻잎지</v>
+      </c>
+      <c r="F24" s="79"/>
+      <c r="G24" s="236"/>
       <c r="H24" s="167" t="str">
         <f>주간메뉴표!E23</f>
-        <v>모둠튀김*느억맘소스</v>
-      </c>
-      <c r="I24" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="J24" s="271"/>
+        <v>그린샐러드</v>
+      </c>
+      <c r="I24" s="79"/>
+      <c r="J24" s="240"/>
       <c r="K24" s="165" t="str">
         <f>주간메뉴표!F23</f>
-        <v>무비트피클</v>
-      </c>
-      <c r="L24" s="79"/>
-      <c r="M24" s="229"/>
+        <v>피자왕춘권</v>
+      </c>
+      <c r="L24" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="M24" s="236"/>
       <c r="N24" s="165" t="str">
         <f>주간메뉴표!G23</f>
-        <v>모둠튀김</v>
-      </c>
-      <c r="O24" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="P24" s="232"/>
-      <c r="Q24" s="179"/>
-      <c r="R24" s="180"/>
-      <c r="S24" s="249"/>
+        <v>탄산음료</v>
+      </c>
+      <c r="O24" s="79"/>
+      <c r="P24" s="263"/>
+      <c r="Q24" s="178"/>
+      <c r="R24" s="179"/>
+      <c r="S24" s="272"/>
     </row>
     <row r="25" spans="1:19" s="17" customFormat="1" ht="30.75" customHeight="1">
-      <c r="B25" s="255"/>
-      <c r="C25" s="267"/>
-      <c r="D25" s="261"/>
+      <c r="B25" s="254"/>
+      <c r="C25" s="230"/>
+      <c r="D25" s="233"/>
       <c r="E25" s="88" t="str">
         <f>주간메뉴표!D24</f>
-        <v>오이탕탕이/포기김치</v>
+        <v>깍두기/잡곡밥</v>
       </c>
       <c r="F25" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G25" s="229"/>
-      <c r="H25" s="167" t="str">
+      <c r="G25" s="236"/>
+      <c r="H25" s="167">
         <f>주간메뉴표!E24</f>
-        <v>양파초절임</v>
+        <v>0</v>
       </c>
       <c r="I25" s="79"/>
-      <c r="J25" s="271"/>
+      <c r="J25" s="240"/>
       <c r="K25" s="165" t="str">
         <f>주간메뉴표!F24</f>
-        <v>탄산음료</v>
-      </c>
-      <c r="L25" s="79"/>
-      <c r="M25" s="229"/>
+        <v>포기김치</v>
+      </c>
+      <c r="L25" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="M25" s="236"/>
       <c r="N25" s="165" t="str">
         <f>주간메뉴표!G24</f>
-        <v>순대찜/단무지</v>
-      </c>
-      <c r="O25" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="P25" s="232"/>
-      <c r="Q25" s="179"/>
-      <c r="R25" s="180"/>
-      <c r="S25" s="249"/>
+        <v>그린샐러드</v>
+      </c>
+      <c r="O25" s="79"/>
+      <c r="P25" s="263"/>
+      <c r="Q25" s="178"/>
+      <c r="R25" s="179"/>
+      <c r="S25" s="272"/>
     </row>
     <row r="26" spans="1:19" s="17" customFormat="1" ht="33.75" customHeight="1">
-      <c r="B26" s="255"/>
-      <c r="C26" s="267"/>
-      <c r="D26" s="261"/>
+      <c r="B26" s="254"/>
+      <c r="C26" s="230"/>
+      <c r="D26" s="233"/>
       <c r="E26" s="88" t="str">
         <f>주간메뉴표!D25</f>
         <v>그린샐러드</v>
       </c>
       <c r="F26" s="79"/>
-      <c r="G26" s="229"/>
-      <c r="H26" s="167" t="str">
+      <c r="G26" s="236"/>
+      <c r="H26" s="167">
         <f>주간메뉴표!E25</f>
-        <v>그린샐러드</v>
+        <v>0</v>
       </c>
       <c r="I26" s="79"/>
-      <c r="J26" s="271"/>
+      <c r="J26" s="240"/>
       <c r="K26" s="165" t="str">
         <f>주간메뉴표!F25</f>
         <v>그린샐러드</v>
       </c>
       <c r="L26" s="79"/>
-      <c r="M26" s="229"/>
-      <c r="N26" s="165" t="str">
+      <c r="M26" s="236"/>
+      <c r="N26" s="165">
         <f>주간메뉴표!G25</f>
-        <v>그린샐러드</v>
-      </c>
-      <c r="O26" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="P26" s="232"/>
-      <c r="Q26" s="179"/>
-      <c r="R26" s="180"/>
-      <c r="S26" s="249"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="79"/>
+      <c r="P26" s="263"/>
+      <c r="Q26" s="178"/>
+      <c r="R26" s="179"/>
+      <c r="S26" s="272"/>
     </row>
     <row r="27" spans="1:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B27" s="255"/>
-      <c r="C27" s="273"/>
-      <c r="D27" s="262"/>
+      <c r="B27" s="254"/>
+      <c r="C27" s="231"/>
+      <c r="D27" s="234"/>
       <c r="E27" s="88" t="e">
         <f>주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="F27" s="79"/>
-      <c r="G27" s="230"/>
+      <c r="G27" s="237"/>
       <c r="H27" s="167" t="e">
         <f>주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="I27" s="79"/>
-      <c r="J27" s="272"/>
+      <c r="J27" s="241"/>
       <c r="K27" s="165" t="e">
         <f>주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="L27" s="79"/>
-      <c r="M27" s="230"/>
+      <c r="M27" s="237"/>
       <c r="N27" s="165" t="e">
         <f>주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="O27" s="79"/>
-      <c r="P27" s="233"/>
-      <c r="Q27" s="179"/>
-      <c r="R27" s="180"/>
-      <c r="S27" s="250"/>
+      <c r="P27" s="264"/>
+      <c r="Q27" s="178"/>
+      <c r="R27" s="179"/>
+      <c r="S27" s="273"/>
     </row>
     <row r="28" spans="1:19" s="44" customFormat="1" ht="20.25" hidden="1" customHeight="1">
-      <c r="B28" s="255"/>
+      <c r="B28" s="254"/>
       <c r="C28" s="148"/>
-      <c r="D28" s="260"/>
+      <c r="D28" s="232"/>
       <c r="E28" s="82"/>
       <c r="F28" s="79"/>
-      <c r="G28" s="228" t="e">
+      <c r="G28" s="235" t="e">
         <f>주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="H28" s="168"/>
       <c r="I28" s="79"/>
-      <c r="J28" s="228" t="e">
+      <c r="J28" s="235" t="e">
         <f>주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="K28" s="164"/>
       <c r="L28" s="79"/>
-      <c r="M28" s="228"/>
+      <c r="M28" s="235"/>
       <c r="N28" s="168"/>
       <c r="O28" s="79"/>
-      <c r="P28" s="231"/>
+      <c r="P28" s="262"/>
       <c r="Q28" s="172" t="e">
         <f>주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="R28" s="79"/>
-      <c r="S28" s="241"/>
+      <c r="S28" s="255"/>
     </row>
     <row r="29" spans="1:19" s="17" customFormat="1" ht="20.25" hidden="1" customHeight="1">
-      <c r="B29" s="255"/>
+      <c r="B29" s="254"/>
       <c r="C29" s="148"/>
-      <c r="D29" s="261"/>
+      <c r="D29" s="233"/>
       <c r="E29" s="89"/>
       <c r="F29" s="79"/>
-      <c r="G29" s="229"/>
+      <c r="G29" s="236"/>
       <c r="H29" s="169"/>
       <c r="I29" s="79"/>
-      <c r="J29" s="229"/>
+      <c r="J29" s="236"/>
       <c r="K29" s="165"/>
       <c r="L29" s="79"/>
-      <c r="M29" s="229"/>
+      <c r="M29" s="236"/>
       <c r="N29" s="169"/>
       <c r="O29" s="79"/>
-      <c r="P29" s="232"/>
+      <c r="P29" s="263"/>
       <c r="Q29" s="169" t="e">
         <f>주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="R29" s="79"/>
-      <c r="S29" s="247"/>
+      <c r="S29" s="256"/>
     </row>
     <row r="30" spans="1:19" s="17" customFormat="1" ht="20.25" hidden="1" customHeight="1">
-      <c r="B30" s="255"/>
+      <c r="B30" s="254"/>
       <c r="C30" s="148"/>
-      <c r="D30" s="261"/>
+      <c r="D30" s="233"/>
       <c r="E30" s="89"/>
       <c r="F30" s="79"/>
-      <c r="G30" s="229"/>
+      <c r="G30" s="236"/>
       <c r="H30" s="169"/>
       <c r="I30" s="79"/>
-      <c r="J30" s="229"/>
+      <c r="J30" s="236"/>
       <c r="K30" s="165"/>
       <c r="L30" s="79"/>
-      <c r="M30" s="229"/>
+      <c r="M30" s="236"/>
       <c r="N30" s="169"/>
       <c r="O30" s="79"/>
-      <c r="P30" s="232"/>
+      <c r="P30" s="263"/>
       <c r="Q30" s="169" t="e">
         <f>주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="R30" s="79"/>
-      <c r="S30" s="247"/>
+      <c r="S30" s="256"/>
     </row>
     <row r="31" spans="1:19" s="17" customFormat="1" ht="20.25" hidden="1" customHeight="1">
-      <c r="B31" s="255"/>
+      <c r="B31" s="254"/>
       <c r="C31" s="148"/>
-      <c r="D31" s="261"/>
+      <c r="D31" s="233"/>
       <c r="E31" s="89"/>
       <c r="F31" s="79"/>
-      <c r="G31" s="229"/>
+      <c r="G31" s="236"/>
       <c r="H31" s="169"/>
       <c r="I31" s="79"/>
-      <c r="J31" s="229"/>
+      <c r="J31" s="236"/>
       <c r="K31" s="165"/>
       <c r="L31" s="79"/>
-      <c r="M31" s="229"/>
+      <c r="M31" s="236"/>
       <c r="N31" s="169"/>
       <c r="O31" s="79"/>
-      <c r="P31" s="232"/>
+      <c r="P31" s="263"/>
       <c r="Q31" s="169" t="e">
         <f>주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="R31" s="79"/>
-      <c r="S31" s="247"/>
+      <c r="S31" s="256"/>
     </row>
     <row r="32" spans="1:19" s="17" customFormat="1" ht="20.25" hidden="1" customHeight="1">
-      <c r="B32" s="255"/>
+      <c r="B32" s="254"/>
       <c r="C32" s="148"/>
-      <c r="D32" s="261"/>
+      <c r="D32" s="233"/>
       <c r="E32" s="89"/>
       <c r="F32" s="79"/>
-      <c r="G32" s="229"/>
+      <c r="G32" s="236"/>
       <c r="H32" s="169"/>
       <c r="I32" s="79"/>
-      <c r="J32" s="229"/>
+      <c r="J32" s="236"/>
       <c r="K32" s="165"/>
       <c r="L32" s="79"/>
-      <c r="M32" s="229"/>
+      <c r="M32" s="236"/>
       <c r="N32" s="169"/>
       <c r="O32" s="79"/>
-      <c r="P32" s="232"/>
+      <c r="P32" s="263"/>
       <c r="Q32" s="169" t="e">
         <f>주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="R32" s="79"/>
-      <c r="S32" s="247"/>
+      <c r="S32" s="256"/>
     </row>
     <row r="33" spans="2:19" s="17" customFormat="1" ht="20.25" hidden="1" customHeight="1">
-      <c r="B33" s="255"/>
+      <c r="B33" s="254"/>
       <c r="C33" s="149"/>
-      <c r="D33" s="262"/>
+      <c r="D33" s="234"/>
       <c r="E33" s="89"/>
       <c r="F33" s="79"/>
-      <c r="G33" s="230"/>
+      <c r="G33" s="237"/>
       <c r="H33" s="169"/>
       <c r="I33" s="79"/>
-      <c r="J33" s="230"/>
+      <c r="J33" s="237"/>
       <c r="K33" s="165"/>
       <c r="L33" s="79"/>
-      <c r="M33" s="230"/>
+      <c r="M33" s="237"/>
       <c r="N33" s="169"/>
       <c r="O33" s="79"/>
-      <c r="P33" s="233"/>
+      <c r="P33" s="264"/>
       <c r="Q33" s="169"/>
       <c r="R33" s="79"/>
-      <c r="S33" s="242"/>
+      <c r="S33" s="257"/>
     </row>
     <row r="34" spans="2:19" s="27" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B34" s="255"/>
-      <c r="C34" s="266" t="s">
+      <c r="B34" s="254"/>
+      <c r="C34" s="229" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="263" t="s">
+      <c r="D34" s="242" t="s">
         <v>36</v>
       </c>
       <c r="E34" s="81" t="str">
@@ -9830,15 +9668,15 @@
       <c r="F34" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G34" s="251"/>
+      <c r="G34" s="244"/>
       <c r="H34" s="170" t="str">
         <f>주간메뉴표!E27</f>
-        <v>백김치</v>
+        <v>석박지</v>
       </c>
       <c r="I34" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="J34" s="251"/>
+      <c r="J34" s="244"/>
       <c r="K34" s="170" t="str">
         <f>주간메뉴표!F27</f>
         <v>볶음김치</v>
@@ -9846,15 +9684,15 @@
       <c r="L34" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M34" s="251"/>
+      <c r="M34" s="244"/>
       <c r="N34" s="170" t="str">
         <f>주간메뉴표!G27</f>
-        <v>백김치</v>
+        <v>석박지</v>
       </c>
       <c r="O34" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P34" s="251"/>
+      <c r="P34" s="244"/>
       <c r="Q34" s="170" t="str">
         <f>주간메뉴표!H27</f>
         <v>볶음김치</v>
@@ -9862,88 +9700,84 @@
       <c r="R34" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="S34" s="263"/>
+      <c r="S34" s="242"/>
     </row>
     <row r="35" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B35" s="255"/>
-      <c r="C35" s="267"/>
-      <c r="D35" s="264"/>
+      <c r="B35" s="254"/>
+      <c r="C35" s="230"/>
+      <c r="D35" s="243"/>
       <c r="E35" s="81" t="str">
         <f>주간메뉴표!D28</f>
-        <v>미숫가루</v>
-      </c>
-      <c r="F35" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="G35" s="252"/>
+        <v>매실차</v>
+      </c>
+      <c r="F35" s="79"/>
+      <c r="G35" s="245"/>
       <c r="H35" s="170" t="str">
         <f>주간메뉴표!E28</f>
-        <v>발사믹D&amp;자몽D</v>
+        <v>발사믹D&amp;참깨D</v>
       </c>
       <c r="I35" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="J35" s="252"/>
+      <c r="J35" s="245"/>
       <c r="K35" s="170" t="str">
         <f>주간메뉴표!F28</f>
-        <v>치즈맛알새우칩</v>
-      </c>
-      <c r="L35" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="M35" s="252"/>
+        <v>유자차</v>
+      </c>
+      <c r="L35" s="79"/>
+      <c r="M35" s="245"/>
       <c r="N35" s="170" t="str">
         <f>주간메뉴표!G28</f>
-        <v>초코라떼</v>
+        <v>나쵸칩*살사소스</v>
       </c>
       <c r="O35" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P35" s="252"/>
+      <c r="P35" s="245"/>
       <c r="Q35" s="170" t="str">
         <f>주간메뉴표!H28</f>
-        <v>바나나</v>
+        <v>오렌지</v>
       </c>
       <c r="R35" s="79"/>
-      <c r="S35" s="264"/>
+      <c r="S35" s="243"/>
     </row>
     <row r="36" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B36" s="255"/>
-      <c r="C36" s="267"/>
-      <c r="D36" s="264"/>
+      <c r="B36" s="254"/>
+      <c r="C36" s="230"/>
+      <c r="D36" s="243"/>
       <c r="E36" s="81" t="str">
         <f>주간메뉴표!D29</f>
-        <v>오리엔탈D&amp;요거트D</v>
+        <v>오리엔탈D&amp;망고D</v>
       </c>
       <c r="F36" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G36" s="253"/>
+      <c r="G36" s="246"/>
       <c r="H36" s="170">
         <f>주간메뉴표!E29</f>
         <v>0</v>
       </c>
       <c r="I36" s="79"/>
-      <c r="J36" s="253"/>
+      <c r="J36" s="246"/>
       <c r="K36" s="170" t="str">
         <f>주간메뉴표!F29</f>
-        <v>오리엔탈D&amp;크리미양파D</v>
+        <v>오리엔탈D&amp;블루베리D</v>
       </c>
       <c r="L36" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M36" s="253"/>
+      <c r="M36" s="246"/>
       <c r="N36" s="170" t="str">
         <f>주간메뉴표!G29</f>
-        <v>발사믹D&amp;딸기요거트D</v>
+        <v>발사믹D&amp;파인애플D</v>
       </c>
       <c r="O36" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P36" s="253"/>
+      <c r="P36" s="246"/>
       <c r="Q36" s="170" t="str">
         <f>주간메뉴표!H29</f>
-        <v>오리엔탈D&amp;한라봉D</v>
+        <v>오리엔탈D&amp;딸기D</v>
       </c>
       <c r="R36" s="79" t="s">
         <v>220</v>
@@ -9951,98 +9785,98 @@
       <c r="S36" s="265"/>
     </row>
     <row r="37" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B37" s="255"/>
-      <c r="C37" s="266" t="s">
+      <c r="B37" s="254"/>
+      <c r="C37" s="229" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="263" t="s">
+      <c r="D37" s="242" t="s">
         <v>211</v>
       </c>
-      <c r="E37" s="268" t="str">
+      <c r="E37" s="247" t="str">
         <f>주간메뉴표!D30</f>
-        <v>비프나쵸샐러드</v>
-      </c>
-      <c r="F37" s="245" t="s">
-        <v>220</v>
-      </c>
-      <c r="G37" s="228">
+        <v>훈제오리단호박샐러드</v>
+      </c>
+      <c r="F37" s="249" t="s">
+        <v>220</v>
+      </c>
+      <c r="G37" s="235">
         <f>주간메뉴표!D31</f>
-        <v>712</v>
-      </c>
-      <c r="H37" s="243" t="str">
+        <v>654</v>
+      </c>
+      <c r="H37" s="251" t="str">
         <f>주간메뉴표!E30</f>
-        <v>크림새우샐러드</v>
-      </c>
-      <c r="I37" s="245" t="s">
-        <v>220</v>
-      </c>
-      <c r="J37" s="228">
+        <v>풀드포크샐러드</v>
+      </c>
+      <c r="I37" s="249" t="s">
+        <v>220</v>
+      </c>
+      <c r="J37" s="235">
         <f>주간메뉴표!E31</f>
-        <v>768</v>
-      </c>
-      <c r="K37" s="243" t="str">
+        <v>735</v>
+      </c>
+      <c r="K37" s="251" t="str">
         <f>주간메뉴표!F30</f>
-        <v>꽃맛살아보카도샐러드</v>
-      </c>
-      <c r="L37" s="245" t="s">
-        <v>220</v>
-      </c>
-      <c r="M37" s="228">
+        <v>불고기포케샐러드</v>
+      </c>
+      <c r="L37" s="249" t="s">
+        <v>220</v>
+      </c>
+      <c r="M37" s="235">
         <f>주간메뉴표!F31</f>
-        <v>718</v>
-      </c>
-      <c r="N37" s="243" t="str">
+        <v>748</v>
+      </c>
+      <c r="N37" s="251" t="str">
         <f>주간메뉴표!G30</f>
-        <v>베이컨루꼴라샐러드</v>
-      </c>
-      <c r="O37" s="245" t="s">
-        <v>220</v>
-      </c>
-      <c r="P37" s="228">
+        <v>크림치킨어니언샐러드</v>
+      </c>
+      <c r="O37" s="249" t="s">
+        <v>220</v>
+      </c>
+      <c r="P37" s="235">
         <f>주간메뉴표!G31</f>
-        <v>694</v>
-      </c>
-      <c r="Q37" s="243" t="str">
+        <v>764</v>
+      </c>
+      <c r="Q37" s="251" t="str">
         <f>주간메뉴표!H30</f>
-        <v>케이준치킨샐러드</v>
-      </c>
-      <c r="R37" s="245" t="s">
-        <v>220</v>
-      </c>
-      <c r="S37" s="241">
+        <v>오렌지리코타샐러드</v>
+      </c>
+      <c r="R37" s="249" t="s">
+        <v>220</v>
+      </c>
+      <c r="S37" s="255">
         <f>주간메뉴표!H31</f>
-        <v>732</v>
+        <v>638</v>
       </c>
     </row>
     <row r="38" spans="2:19" s="17" customFormat="1" ht="36" customHeight="1">
-      <c r="B38" s="255"/>
-      <c r="C38" s="267"/>
-      <c r="D38" s="264"/>
-      <c r="E38" s="269"/>
-      <c r="F38" s="246"/>
-      <c r="G38" s="229"/>
-      <c r="H38" s="244"/>
-      <c r="I38" s="246"/>
-      <c r="J38" s="229"/>
-      <c r="K38" s="244"/>
-      <c r="L38" s="246"/>
-      <c r="M38" s="229"/>
-      <c r="N38" s="244"/>
-      <c r="O38" s="246"/>
-      <c r="P38" s="229"/>
-      <c r="Q38" s="244"/>
-      <c r="R38" s="246"/>
-      <c r="S38" s="242"/>
+      <c r="B38" s="254"/>
+      <c r="C38" s="230"/>
+      <c r="D38" s="243"/>
+      <c r="E38" s="248"/>
+      <c r="F38" s="250"/>
+      <c r="G38" s="236"/>
+      <c r="H38" s="252"/>
+      <c r="I38" s="250"/>
+      <c r="J38" s="236"/>
+      <c r="K38" s="252"/>
+      <c r="L38" s="250"/>
+      <c r="M38" s="236"/>
+      <c r="N38" s="252"/>
+      <c r="O38" s="250"/>
+      <c r="P38" s="236"/>
+      <c r="Q38" s="252"/>
+      <c r="R38" s="250"/>
+      <c r="S38" s="257"/>
     </row>
     <row r="39" spans="2:19" s="44" customFormat="1" ht="33.75" customHeight="1">
-      <c r="B39" s="255"/>
-      <c r="C39" s="267"/>
+      <c r="B39" s="254"/>
+      <c r="C39" s="230"/>
       <c r="D39" s="141" t="s">
         <v>213</v>
       </c>
       <c r="E39" s="80" t="str">
         <f>주간메뉴표!D32</f>
-        <v>하프시그니쳐클럽샌드위치
+        <v>단호박&amp;로제치킨샌드위치
 &amp;과일2종</v>
       </c>
       <c r="F39" s="79" t="s">
@@ -10050,11 +9884,11 @@
       </c>
       <c r="G39" s="161">
         <f>주간메뉴표!D33</f>
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="H39" s="171" t="str">
         <f>주간메뉴표!E32</f>
-        <v>에그햄치즈페스트리샌드위치
+        <v>콘참치모닝샌드위치
 &amp;과일2종</v>
       </c>
       <c r="I39" s="79" t="s">
@@ -10062,11 +9896,11 @@
       </c>
       <c r="J39" s="161">
         <f>주간메뉴표!E33</f>
-        <v>475</v>
+        <v>410</v>
       </c>
       <c r="K39" s="171" t="str">
         <f>주간메뉴표!F32</f>
-        <v>하프시그니처디럭스샌드위치
+        <v>루꼴라갈릭치즈베이글샌드위치
 &amp;과일2종</v>
       </c>
       <c r="L39" s="79" t="s">
@@ -10074,11 +9908,11 @@
       </c>
       <c r="M39" s="161">
         <f>주간메뉴표!F33</f>
-        <v>330</v>
+        <v>295</v>
       </c>
       <c r="N39" s="171" t="str">
         <f>주간메뉴표!G32</f>
-        <v>올리브살라미치즈샌드위치
+        <v>통밀프리미엄에그디럭스샌드위치
 &amp;과일2종</v>
       </c>
       <c r="O39" s="79" t="s">
@@ -10086,283 +9920,277 @@
       </c>
       <c r="P39" s="161">
         <f>주간메뉴표!G33</f>
-        <v>320</v>
-      </c>
-      <c r="Q39" s="182"/>
-      <c r="R39" s="180"/>
-      <c r="S39" s="183"/>
+        <v>460</v>
+      </c>
+      <c r="Q39" s="181"/>
+      <c r="R39" s="179"/>
+      <c r="S39" s="182"/>
     </row>
     <row r="40" spans="2:19" s="17" customFormat="1" ht="30.75" customHeight="1">
-      <c r="B40" s="255"/>
-      <c r="C40" s="267"/>
+      <c r="B40" s="254"/>
+      <c r="C40" s="230"/>
       <c r="D40" s="142" t="s">
         <v>212</v>
       </c>
       <c r="E40" s="80" t="str">
         <f>주간메뉴표!D34</f>
-        <v>N 그릴치킨보리밥</v>
+        <v>그릴치킨&amp;비트쿠스쿠스</v>
       </c>
       <c r="F40" s="79" t="s">
         <v>220</v>
       </c>
       <c r="G40" s="162">
         <f>주간메뉴표!D35</f>
-        <v>472</v>
+        <v>642</v>
       </c>
       <c r="H40" s="171" t="str">
         <f>주간메뉴표!E34</f>
-        <v>훈제오리귀리라이스</v>
+        <v>치킨컬리플라워볶음밥</v>
       </c>
       <c r="I40" s="79" t="s">
         <v>220</v>
       </c>
       <c r="J40" s="162">
         <f>주간메뉴표!E35</f>
-        <v>466</v>
+        <v>634</v>
       </c>
       <c r="K40" s="171" t="str">
         <f>주간메뉴표!F34</f>
-        <v>N 닭가슴살콘샐러드</v>
+        <v>참치아보카도토마토비빔밥</v>
       </c>
       <c r="L40" s="79" t="s">
         <v>220</v>
       </c>
       <c r="M40" s="162">
         <f>주간메뉴표!F35</f>
-        <v>459</v>
+        <v>669</v>
       </c>
       <c r="N40" s="171" t="str">
         <f>주간메뉴표!G34</f>
-        <v>파프리카새우라이스</v>
+        <v>실곤약야끼소바</v>
       </c>
       <c r="O40" s="79" t="s">
         <v>220</v>
       </c>
       <c r="P40" s="162">
         <f>주간메뉴표!G35</f>
-        <v>762</v>
-      </c>
-      <c r="Q40" s="182"/>
-      <c r="R40" s="180"/>
-      <c r="S40" s="184"/>
+        <v>647</v>
+      </c>
+      <c r="Q40" s="181"/>
+      <c r="R40" s="179"/>
+      <c r="S40" s="183"/>
     </row>
     <row r="41" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B41" s="254" t="s">
+      <c r="B41" s="253" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="256"/>
-      <c r="D41" s="260" t="s">
+      <c r="C41" s="258"/>
+      <c r="D41" s="232" t="s">
         <v>39</v>
       </c>
       <c r="E41" s="97" t="str">
         <f>주간메뉴표!D37</f>
-        <v>참치김치찌개</v>
+        <v>소고기된장국밥*라면사리</v>
       </c>
       <c r="F41" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G41" s="228">
+      <c r="G41" s="235">
         <f>주간메뉴표!D43</f>
-        <v>1145</v>
+        <v>1119</v>
       </c>
       <c r="H41" s="168" t="str">
         <f>주간메뉴표!E37</f>
-        <v>얼큰소고기장터국밥</v>
+        <v>훈제오리볶음밥*후라이</v>
       </c>
       <c r="I41" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="J41" s="228">
+      <c r="J41" s="235">
         <f>주간메뉴표!E43</f>
-        <v>964</v>
+        <v>1021</v>
       </c>
       <c r="K41" s="168" t="str">
         <f>주간메뉴표!F37</f>
-        <v>짜글이고추장돼지불고기</v>
+        <v>제육치즈덮밥*후라이</v>
       </c>
       <c r="L41" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M41" s="228">
+      <c r="M41" s="235">
         <f>주간메뉴표!F43</f>
-        <v>1170</v>
+        <v>1317</v>
       </c>
       <c r="N41" s="168" t="str">
         <f>주간메뉴표!G37</f>
-        <v>북어해장국</v>
+        <v>김치꼬치어묵탕*와사비장</v>
       </c>
       <c r="O41" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P41" s="236">
+      <c r="P41" s="268">
         <f>주간메뉴표!G43</f>
-        <v>994</v>
+        <v>1232</v>
       </c>
       <c r="Q41" s="168" t="str">
         <f>주간메뉴표!H37</f>
-        <v>(뚝)추어탕*소면사리</v>
+        <v>춘천식닭갈비</v>
       </c>
       <c r="R41" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="S41" s="241">
+      <c r="S41" s="255">
         <f>주간메뉴표!H43</f>
-        <v>683</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="42" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B42" s="255"/>
-      <c r="C42" s="257"/>
-      <c r="D42" s="261"/>
+      <c r="B42" s="254"/>
+      <c r="C42" s="259"/>
+      <c r="D42" s="233"/>
       <c r="E42" s="90" t="str">
         <f>주간메뉴표!D38</f>
-        <v>로스팜구이*케찹</v>
+        <v>갈비만두</v>
       </c>
       <c r="F42" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G42" s="229"/>
+      <c r="G42" s="236"/>
       <c r="H42" s="169" t="str">
         <f>주간메뉴표!E38</f>
-        <v>돼지고기메추리알장조림</v>
+        <v>두부김칫국</v>
       </c>
       <c r="I42" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="J42" s="229"/>
+      <c r="J42" s="236"/>
       <c r="K42" s="169" t="str">
         <f>주간메뉴표!F38</f>
-        <v>유채된장국</v>
-      </c>
-      <c r="L42" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="M42" s="229"/>
+        <v>콩나물국</v>
+      </c>
+      <c r="L42" s="79"/>
+      <c r="M42" s="236"/>
       <c r="N42" s="169" t="str">
         <f>주간메뉴표!G38</f>
-        <v>깻잎완자전</v>
+        <v>로스팜구이*케찹</v>
       </c>
       <c r="O42" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P42" s="237"/>
+      <c r="P42" s="269"/>
       <c r="Q42" s="169" t="str">
         <f>주간메뉴표!H38</f>
-        <v>고기경단조림</v>
-      </c>
-      <c r="R42" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="S42" s="247"/>
+        <v>콩나물국</v>
+      </c>
+      <c r="R42" s="79"/>
+      <c r="S42" s="256"/>
     </row>
     <row r="43" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B43" s="255"/>
-      <c r="C43" s="257"/>
-      <c r="D43" s="261"/>
+      <c r="B43" s="254"/>
+      <c r="C43" s="259"/>
+      <c r="D43" s="233"/>
       <c r="E43" s="90" t="str">
         <f>주간메뉴표!D39</f>
-        <v>계란찜</v>
+        <v>사각어묵볶음</v>
       </c>
       <c r="F43" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G43" s="229"/>
+      <c r="G43" s="236"/>
       <c r="H43" s="169" t="str">
         <f>주간메뉴표!E39</f>
-        <v>두부조림</v>
+        <v>모짜핫도그*케찹</v>
       </c>
       <c r="I43" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="J43" s="229"/>
+      <c r="J43" s="236"/>
       <c r="K43" s="169" t="str">
         <f>주간메뉴표!F39</f>
-        <v>호박새우젓볶음</v>
+        <v>비엔나소시지볶음</v>
       </c>
       <c r="L43" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M43" s="229"/>
+      <c r="M43" s="236"/>
       <c r="N43" s="169" t="str">
         <f>주간메뉴표!G39</f>
-        <v>감자채햄볶음</v>
+        <v>채소크로켓</v>
       </c>
       <c r="O43" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P43" s="237"/>
+      <c r="P43" s="269"/>
       <c r="Q43" s="169" t="str">
         <f>주간메뉴표!H39</f>
-        <v>부추생채</v>
+        <v>파래연근튀김</v>
       </c>
       <c r="R43" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="S43" s="247"/>
+      <c r="S43" s="256"/>
     </row>
     <row r="44" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B44" s="255"/>
-      <c r="C44" s="257"/>
-      <c r="D44" s="261"/>
+      <c r="B44" s="254"/>
+      <c r="C44" s="259"/>
+      <c r="D44" s="233"/>
       <c r="E44" s="90" t="str">
         <f>주간메뉴표!D40</f>
-        <v>도시락김</v>
-      </c>
-      <c r="F44" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="G44" s="229"/>
+        <v>마늘종간장절임</v>
+      </c>
+      <c r="F44" s="79"/>
+      <c r="G44" s="236"/>
       <c r="H44" s="169" t="str">
         <f>주간메뉴표!E40</f>
-        <v>미역줄기버섯볶음</v>
+        <v>단무지무침</v>
       </c>
       <c r="I44" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="J44" s="229"/>
+      <c r="J44" s="236"/>
       <c r="K44" s="169" t="str">
         <f>주간메뉴표!F40</f>
-        <v>땅콩조림</v>
+        <v>고구마맛탕</v>
       </c>
       <c r="L44" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M44" s="229"/>
+      <c r="M44" s="236"/>
       <c r="N44" s="169" t="str">
         <f>주간메뉴표!G40</f>
-        <v>명란젓*참기름</v>
+        <v>깐마늘지</v>
       </c>
       <c r="O44" s="79"/>
-      <c r="P44" s="237"/>
+      <c r="P44" s="269"/>
       <c r="Q44" s="169" t="str">
         <f>주간메뉴표!H40</f>
-        <v>간장고추지</v>
+        <v>도토리묵무침</v>
       </c>
       <c r="R44" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="S44" s="247"/>
+      <c r="S44" s="256"/>
     </row>
     <row r="45" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B45" s="255"/>
-      <c r="C45" s="257"/>
-      <c r="D45" s="261"/>
+      <c r="B45" s="254"/>
+      <c r="C45" s="259"/>
+      <c r="D45" s="233"/>
       <c r="E45" s="90" t="str">
         <f>주간메뉴표!D41</f>
-        <v>열무김치</v>
+        <v>깍두기</v>
       </c>
       <c r="F45" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G45" s="229"/>
+      <c r="G45" s="236"/>
       <c r="H45" s="169" t="str">
         <f>주간메뉴표!E41</f>
-        <v>깍두기</v>
+        <v>포기김치</v>
       </c>
       <c r="I45" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="J45" s="229"/>
+      <c r="J45" s="236"/>
       <c r="K45" s="169" t="str">
         <f>주간메뉴표!F41</f>
         <v>깍두기</v>
@@ -10370,305 +10198,311 @@
       <c r="L45" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M45" s="229"/>
+      <c r="M45" s="236"/>
       <c r="N45" s="169" t="str">
         <f>주간메뉴표!G41</f>
-        <v>포기김치</v>
+        <v>깍두기</v>
       </c>
       <c r="O45" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P45" s="237"/>
+      <c r="P45" s="269"/>
       <c r="Q45" s="169" t="str">
         <f>주간메뉴표!H41</f>
-        <v>석박지</v>
+        <v>포기김치</v>
       </c>
       <c r="R45" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="S45" s="247"/>
+      <c r="S45" s="256"/>
     </row>
     <row r="46" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B46" s="255"/>
-      <c r="C46" s="257"/>
-      <c r="D46" s="262"/>
-      <c r="E46" s="90" t="str">
+      <c r="B46" s="254"/>
+      <c r="C46" s="259"/>
+      <c r="D46" s="234"/>
+      <c r="E46" s="90">
         <f>주간메뉴표!D42</f>
-        <v>잡곡밥</v>
+        <v>0</v>
       </c>
       <c r="F46" s="79"/>
-      <c r="G46" s="230"/>
-      <c r="H46" s="169" t="str">
+      <c r="G46" s="237"/>
+      <c r="H46" s="169">
         <f>주간메뉴표!E42</f>
-        <v>잡곡밥</v>
+        <v>0</v>
       </c>
       <c r="I46" s="79"/>
-      <c r="J46" s="230"/>
-      <c r="K46" s="169" t="str">
+      <c r="J46" s="237"/>
+      <c r="K46" s="169">
         <f>주간메뉴표!F42</f>
-        <v>잡곡밥</v>
+        <v>0</v>
       </c>
       <c r="L46" s="79"/>
-      <c r="M46" s="230"/>
+      <c r="M46" s="237"/>
       <c r="N46" s="169" t="str">
         <f>주간메뉴표!G42</f>
         <v>잡곡밥</v>
       </c>
       <c r="O46" s="79"/>
-      <c r="P46" s="238"/>
+      <c r="P46" s="270"/>
       <c r="Q46" s="169" t="str">
         <f>주간메뉴표!H42</f>
         <v>잡곡밥</v>
       </c>
       <c r="R46" s="79"/>
-      <c r="S46" s="242"/>
+      <c r="S46" s="257"/>
     </row>
     <row r="47" spans="2:19" ht="20.25" customHeight="1">
-      <c r="B47" s="255"/>
-      <c r="C47" s="257"/>
-      <c r="D47" s="260" t="s">
+      <c r="B47" s="254"/>
+      <c r="C47" s="259"/>
+      <c r="D47" s="232" t="s">
         <v>31</v>
       </c>
       <c r="E47" s="97" t="str">
         <f>주간메뉴표!D44</f>
-        <v>셀프치킨마요덮밥</v>
+        <v>셀프오쭈비빔밥</v>
       </c>
       <c r="F47" s="79"/>
-      <c r="G47" s="228">
+      <c r="G47" s="235">
         <f>주간메뉴표!D52</f>
-        <v>674</v>
+        <v>988</v>
       </c>
       <c r="H47" s="172" t="str">
         <f>주간메뉴표!E44</f>
-        <v>셀프노량진황제컵밥</v>
+        <v>셀프장조림버터비빔밥</v>
       </c>
       <c r="I47" s="79"/>
-      <c r="J47" s="228">
+      <c r="J47" s="235">
         <f>주간메뉴표!E52</f>
-        <v>1255</v>
+        <v>1163</v>
       </c>
       <c r="K47" s="172" t="str">
         <f>주간메뉴표!F44</f>
-        <v>셀프우렁강된장비빔밥</v>
+        <v>셀프쇠고기곤드레비빔밥</v>
       </c>
       <c r="L47" s="79"/>
-      <c r="M47" s="231">
+      <c r="M47" s="262">
         <f>주간메뉴표!F52</f>
-        <v>994</v>
+        <v>811</v>
       </c>
       <c r="N47" s="174" t="str">
         <f>주간메뉴표!G44</f>
-        <v>셀프제육비빔밥</v>
+        <v>셀프에비동</v>
       </c>
       <c r="O47" s="79"/>
-      <c r="P47" s="236">
+      <c r="P47" s="268">
         <f>주간메뉴표!G52</f>
-        <v>1111</v>
-      </c>
-      <c r="Q47" s="185"/>
-      <c r="R47" s="180"/>
-      <c r="S47" s="186"/>
+        <v>1250</v>
+      </c>
+      <c r="Q47" s="184"/>
+      <c r="R47" s="179"/>
+      <c r="S47" s="185"/>
     </row>
     <row r="48" spans="2:19" ht="33" customHeight="1">
-      <c r="B48" s="255"/>
-      <c r="C48" s="257"/>
-      <c r="D48" s="261"/>
+      <c r="B48" s="254"/>
+      <c r="C48" s="259"/>
+      <c r="D48" s="233"/>
       <c r="E48" s="90" t="str">
         <f>주간메뉴표!D45</f>
-        <v>┗쌀밥,치킨,계란지단</v>
+        <v>┗쌀밥,오쭈떡볶음</v>
       </c>
       <c r="F48" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G48" s="229"/>
+      <c r="G48" s="236"/>
       <c r="H48" s="169" t="str">
         <f>주간메뉴표!E45</f>
-        <v>┗쌀밥,삼겹살볶음,계란지단,비엔나볶음</v>
+        <v>┗쌀밥,장조림,스크램블에그</v>
       </c>
       <c r="I48" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="J48" s="229"/>
+      <c r="J48" s="236"/>
       <c r="K48" s="169" t="str">
         <f>주간메뉴표!F45</f>
-        <v>┗쌀밥,강된장(밥공기),계란후라이</v>
+        <v>┗쇠고기곤드레밥,계란후라이</v>
       </c>
       <c r="L48" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M48" s="232"/>
+      <c r="M48" s="263"/>
       <c r="N48" s="167" t="str">
         <f>주간메뉴표!G45</f>
-        <v>┗쌀밥,제육볶음,계란후라이</v>
+        <v>┗쌀밥,새우튀김</v>
       </c>
       <c r="O48" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P48" s="237"/>
-      <c r="Q48" s="182"/>
-      <c r="R48" s="180"/>
-      <c r="S48" s="186"/>
+      <c r="P48" s="269"/>
+      <c r="Q48" s="181"/>
+      <c r="R48" s="179"/>
+      <c r="S48" s="185"/>
     </row>
     <row r="49" spans="2:19" ht="20.25" customHeight="1">
-      <c r="B49" s="255"/>
-      <c r="C49" s="257"/>
-      <c r="D49" s="261"/>
+      <c r="B49" s="254"/>
+      <c r="C49" s="259"/>
+      <c r="D49" s="233"/>
       <c r="E49" s="90" t="str">
         <f>주간메뉴표!D46</f>
         <v>셀프토핑</v>
       </c>
       <c r="F49" s="79"/>
-      <c r="G49" s="229"/>
+      <c r="G49" s="236"/>
       <c r="H49" s="169" t="str">
         <f>주간메뉴표!E46</f>
         <v>셀프토핑</v>
       </c>
       <c r="I49" s="79"/>
-      <c r="J49" s="229"/>
+      <c r="J49" s="236"/>
       <c r="K49" s="169" t="str">
         <f>주간메뉴표!F46</f>
         <v>셀프토핑</v>
       </c>
       <c r="L49" s="79"/>
-      <c r="M49" s="232"/>
+      <c r="M49" s="263"/>
       <c r="N49" s="167" t="str">
         <f>주간메뉴표!G46</f>
         <v>셀프토핑</v>
       </c>
       <c r="O49" s="79"/>
-      <c r="P49" s="237"/>
-      <c r="Q49" s="182"/>
-      <c r="R49" s="180"/>
-      <c r="S49" s="186"/>
+      <c r="P49" s="269"/>
+      <c r="Q49" s="181"/>
+      <c r="R49" s="179"/>
+      <c r="S49" s="185"/>
     </row>
     <row r="50" spans="2:19" ht="30.75" customHeight="1">
-      <c r="B50" s="255"/>
-      <c r="C50" s="257"/>
-      <c r="D50" s="261"/>
+      <c r="B50" s="254"/>
+      <c r="C50" s="259"/>
+      <c r="D50" s="233"/>
       <c r="E50" s="90" t="str">
         <f>주간메뉴표!D47</f>
-        <v>┗쫑상추,맛김가루</v>
+        <v>┗쫑상추,콩나물무침</v>
       </c>
       <c r="F50" s="79"/>
-      <c r="G50" s="229"/>
+      <c r="G50" s="236"/>
       <c r="H50" s="169" t="str">
         <f>주간메뉴표!E47</f>
-        <v>┗쫑상추,맛김가루</v>
-      </c>
-      <c r="I50" s="79"/>
-      <c r="J50" s="229"/>
+        <v>┗오복지,쫑상추</v>
+      </c>
+      <c r="I50" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="J50" s="236"/>
       <c r="K50" s="169" t="str">
         <f>주간메뉴표!F47</f>
-        <v>┗쫑상추,콩나물무침</v>
+        <v>┗부추생채,콩나물무침</v>
       </c>
       <c r="L50" s="79"/>
-      <c r="M50" s="232"/>
+      <c r="M50" s="263"/>
       <c r="N50" s="167" t="str">
         <f>주간메뉴표!G47</f>
-        <v>┗쫑상추,콩나물무침</v>
+        <v>┗숙주양파볶음</v>
       </c>
       <c r="O50" s="79"/>
-      <c r="P50" s="237"/>
-      <c r="Q50" s="182"/>
-      <c r="R50" s="180"/>
-      <c r="S50" s="186"/>
+      <c r="P50" s="269"/>
+      <c r="Q50" s="181"/>
+      <c r="R50" s="179"/>
+      <c r="S50" s="185"/>
     </row>
     <row r="51" spans="2:19" ht="20.25" customHeight="1">
-      <c r="B51" s="255"/>
-      <c r="C51" s="257"/>
-      <c r="D51" s="261"/>
+      <c r="B51" s="254"/>
+      <c r="C51" s="259"/>
+      <c r="D51" s="233"/>
       <c r="E51" s="90" t="str">
         <f>주간메뉴표!D48</f>
-        <v>┗데리야끼양파소스</v>
-      </c>
-      <c r="F51" s="79"/>
-      <c r="G51" s="229"/>
+        <v>┗맛김가루</v>
+      </c>
+      <c r="F51" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="G51" s="236"/>
       <c r="H51" s="169" t="str">
         <f>주간메뉴표!E48</f>
-        <v>┗볶음김치,참치마요옥수수</v>
+        <v>┗맛김가루</v>
       </c>
       <c r="I51" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="J51" s="229"/>
+      <c r="J51" s="236"/>
       <c r="K51" s="169" t="str">
         <f>주간메뉴표!F48</f>
-        <v>┗무생채,맛김가루</v>
-      </c>
-      <c r="L51" s="79"/>
-      <c r="M51" s="232"/>
+        <v>┗맛김가루</v>
+      </c>
+      <c r="L51" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="M51" s="263"/>
       <c r="N51" s="167" t="str">
         <f>주간메뉴표!G48</f>
-        <v>┗맛김가루,무들깨볶음</v>
+        <v>┗초생강절임(채), 맛김가루</v>
       </c>
       <c r="O51" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P51" s="237"/>
-      <c r="Q51" s="182"/>
-      <c r="R51" s="180"/>
-      <c r="S51" s="186"/>
+      <c r="P51" s="269"/>
+      <c r="Q51" s="181"/>
+      <c r="R51" s="179"/>
+      <c r="S51" s="185"/>
     </row>
     <row r="52" spans="2:19" ht="20.25" customHeight="1">
-      <c r="B52" s="255"/>
-      <c r="C52" s="257"/>
-      <c r="D52" s="261"/>
+      <c r="B52" s="254"/>
+      <c r="C52" s="259"/>
+      <c r="D52" s="233"/>
       <c r="E52" s="90" t="str">
         <f>주간메뉴표!D49</f>
-        <v>매콤떡볶이</v>
+        <v>치킨너겟*허니머스터드S</v>
       </c>
       <c r="F52" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G52" s="229"/>
+      <c r="G52" s="236"/>
       <c r="H52" s="169" t="str">
         <f>주간메뉴표!E49</f>
-        <v>생선가스*타르타르s</v>
+        <v>비빔납작지짐만두</v>
       </c>
       <c r="I52" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="J52" s="229"/>
+      <c r="J52" s="236"/>
       <c r="K52" s="169" t="str">
         <f>주간메뉴표!F49</f>
-        <v>돼지고기강정</v>
+        <v>김치메밀전병</v>
       </c>
       <c r="L52" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M52" s="232"/>
+      <c r="M52" s="263"/>
       <c r="N52" s="167" t="str">
         <f>주간메뉴표!G49</f>
-        <v>핫도그*케찹</v>
+        <v>꽈배기도너츠</v>
       </c>
       <c r="O52" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P52" s="237"/>
-      <c r="Q52" s="182"/>
-      <c r="R52" s="180"/>
-      <c r="S52" s="186"/>
+      <c r="P52" s="269"/>
+      <c r="Q52" s="181"/>
+      <c r="R52" s="179"/>
+      <c r="S52" s="185"/>
     </row>
     <row r="53" spans="2:19" ht="20.25" customHeight="1">
-      <c r="B53" s="255"/>
-      <c r="C53" s="257"/>
-      <c r="D53" s="261"/>
+      <c r="B53" s="254"/>
+      <c r="C53" s="259"/>
+      <c r="D53" s="233"/>
       <c r="E53" s="90" t="str">
         <f>주간메뉴표!D50</f>
-        <v>포기김치</v>
+        <v>깍두기</v>
       </c>
       <c r="F53" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G53" s="229"/>
+      <c r="G53" s="236"/>
       <c r="H53" s="169" t="str">
         <f>주간메뉴표!E50</f>
-        <v>포기김치</v>
+        <v>열무김치</v>
       </c>
       <c r="I53" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="J53" s="229"/>
+      <c r="J53" s="236"/>
       <c r="K53" s="169" t="str">
         <f>주간메뉴표!F50</f>
         <v>깍두기</v>
@@ -10676,63 +10510,61 @@
       <c r="L53" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M53" s="232"/>
+      <c r="M53" s="263"/>
       <c r="N53" s="167" t="str">
         <f>주간메뉴표!G50</f>
-        <v>깍두기</v>
+        <v>포기김치</v>
       </c>
       <c r="O53" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P53" s="237"/>
-      <c r="Q53" s="182"/>
-      <c r="R53" s="180"/>
-      <c r="S53" s="186"/>
+      <c r="P53" s="269"/>
+      <c r="Q53" s="181"/>
+      <c r="R53" s="179"/>
+      <c r="S53" s="185"/>
     </row>
     <row r="54" spans="2:19" ht="20.25" customHeight="1">
-      <c r="B54" s="255"/>
-      <c r="C54" s="257"/>
-      <c r="D54" s="262"/>
+      <c r="B54" s="254"/>
+      <c r="C54" s="259"/>
+      <c r="D54" s="234"/>
       <c r="E54" s="90" t="str">
         <f>주간메뉴표!D51</f>
-        <v>버섯장국</v>
+        <v>배추된장국</v>
       </c>
       <c r="F54" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G54" s="230"/>
+      <c r="G54" s="237"/>
       <c r="H54" s="169" t="str">
         <f>주간메뉴표!E51</f>
-        <v>두부장국</v>
+        <v>어묵국</v>
       </c>
       <c r="I54" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="J54" s="230"/>
+      <c r="J54" s="237"/>
       <c r="K54" s="169" t="str">
         <f>주간메뉴표!F51</f>
-        <v>감자수제비국</v>
-      </c>
-      <c r="L54" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="M54" s="233"/>
+        <v>미역국</v>
+      </c>
+      <c r="L54" s="79"/>
+      <c r="M54" s="264"/>
       <c r="N54" s="167" t="str">
         <f>주간메뉴표!G51</f>
-        <v>얼갈이된장국</v>
+        <v>우동국</v>
       </c>
       <c r="O54" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P54" s="238"/>
-      <c r="Q54" s="182"/>
-      <c r="R54" s="180"/>
-      <c r="S54" s="187"/>
+      <c r="P54" s="270"/>
+      <c r="Q54" s="181"/>
+      <c r="R54" s="179"/>
+      <c r="S54" s="186"/>
     </row>
     <row r="55" spans="2:19" ht="20.25" customHeight="1">
-      <c r="B55" s="255"/>
-      <c r="C55" s="257"/>
-      <c r="D55" s="263" t="s">
+      <c r="B55" s="254"/>
+      <c r="C55" s="259"/>
+      <c r="D55" s="242" t="s">
         <v>36</v>
       </c>
       <c r="E55" s="80" t="str">
@@ -10740,76 +10572,76 @@
         <v>그린샐러드</v>
       </c>
       <c r="F55" s="79"/>
-      <c r="G55" s="239"/>
+      <c r="G55" s="266"/>
       <c r="H55" s="169" t="str">
         <f>주간메뉴표!E53</f>
         <v>그린샐러드</v>
       </c>
       <c r="I55" s="79"/>
-      <c r="J55" s="239"/>
+      <c r="J55" s="266"/>
       <c r="K55" s="171" t="str">
         <f>주간메뉴표!F53</f>
         <v>그린샐러드</v>
       </c>
       <c r="L55" s="79"/>
-      <c r="M55" s="239"/>
+      <c r="M55" s="266"/>
       <c r="N55" s="171" t="str">
         <f>주간메뉴표!G53</f>
         <v>그린샐러드</v>
       </c>
       <c r="O55" s="79"/>
-      <c r="P55" s="239"/>
+      <c r="P55" s="266"/>
       <c r="Q55" s="171" t="str">
         <f>주간메뉴표!H53</f>
         <v>그린샐러드</v>
       </c>
       <c r="R55" s="79"/>
-      <c r="S55" s="234"/>
+      <c r="S55" s="274"/>
     </row>
     <row r="56" spans="2:19" s="51" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B56" s="258"/>
-      <c r="C56" s="259"/>
+      <c r="B56" s="260"/>
+      <c r="C56" s="261"/>
       <c r="D56" s="265"/>
       <c r="E56" s="80" t="str">
         <f>주간메뉴표!D54</f>
-        <v>오리엔탈D&amp;요거트D</v>
+        <v>오리엔탈D&amp;망고D</v>
       </c>
       <c r="F56" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G56" s="240"/>
+      <c r="G56" s="267"/>
       <c r="H56" s="169" t="str">
         <f>주간메뉴표!E54</f>
-        <v>발사믹D&amp;자몽D</v>
+        <v>발사믹D&amp;참깨D</v>
       </c>
       <c r="I56" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="J56" s="240"/>
+      <c r="J56" s="267"/>
       <c r="K56" s="171" t="str">
         <f>주간메뉴표!F54</f>
-        <v>오리엔탈D&amp;크리미양파D</v>
+        <v>오리엔탈D&amp;블루베리D</v>
       </c>
       <c r="L56" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M56" s="240"/>
+      <c r="M56" s="267"/>
       <c r="N56" s="171" t="str">
         <f>주간메뉴표!G54</f>
-        <v>발사믹D&amp;딸기요거트D</v>
+        <v>발사믹D&amp;파인애플D</v>
       </c>
       <c r="O56" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P56" s="240"/>
+      <c r="P56" s="267"/>
       <c r="Q56" s="171" t="str">
         <f>주간메뉴표!H54</f>
-        <v>오리엔탈D&amp;한라봉D</v>
+        <v>오리엔탈D&amp;딸기D</v>
       </c>
       <c r="R56" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="S56" s="235"/>
+      <c r="S56" s="275"/>
     </row>
     <row r="57" spans="2:19" ht="20.25" customHeight="1">
       <c r="E57" s="70"/>
@@ -10950,34 +10782,32 @@
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="C21:C27"/>
-    <mergeCell ref="D9:D14"/>
-    <mergeCell ref="G9:G14"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="J9:J14"/>
-    <mergeCell ref="M9:M14"/>
-    <mergeCell ref="M21:M27"/>
-    <mergeCell ref="D21:D27"/>
-    <mergeCell ref="G21:G27"/>
-    <mergeCell ref="J21:J27"/>
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="G15:G20"/>
-    <mergeCell ref="J15:J20"/>
-    <mergeCell ref="M15:M20"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="J34:J36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D28:D33"/>
-    <mergeCell ref="G28:G33"/>
-    <mergeCell ref="J28:J33"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="M28:M33"/>
+    <mergeCell ref="P28:P33"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="S55:S56"/>
+    <mergeCell ref="P47:P54"/>
+    <mergeCell ref="P55:P56"/>
+    <mergeCell ref="S37:S38"/>
+    <mergeCell ref="Q37:Q38"/>
+    <mergeCell ref="R37:R38"/>
+    <mergeCell ref="S9:S14"/>
+    <mergeCell ref="P21:P27"/>
+    <mergeCell ref="S21:S27"/>
+    <mergeCell ref="S28:S33"/>
+    <mergeCell ref="P9:P14"/>
+    <mergeCell ref="P15:P20"/>
+    <mergeCell ref="S15:S20"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="P41:P46"/>
+    <mergeCell ref="M34:M36"/>
+    <mergeCell ref="P34:P36"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="O37:O38"/>
     <mergeCell ref="B9:B40"/>
     <mergeCell ref="S41:S46"/>
     <mergeCell ref="B41:C56"/>
@@ -10994,32 +10824,34 @@
     <mergeCell ref="C34:C36"/>
     <mergeCell ref="D55:D56"/>
     <mergeCell ref="G55:G56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="P41:P46"/>
-    <mergeCell ref="M34:M36"/>
-    <mergeCell ref="P34:P36"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="S9:S14"/>
-    <mergeCell ref="P21:P27"/>
-    <mergeCell ref="S21:S27"/>
-    <mergeCell ref="S28:S33"/>
-    <mergeCell ref="P9:P14"/>
-    <mergeCell ref="P15:P20"/>
-    <mergeCell ref="S15:S20"/>
-    <mergeCell ref="M28:M33"/>
-    <mergeCell ref="P28:P33"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="P37:P38"/>
-    <mergeCell ref="S55:S56"/>
-    <mergeCell ref="P47:P54"/>
-    <mergeCell ref="P55:P56"/>
-    <mergeCell ref="S37:S38"/>
-    <mergeCell ref="Q37:Q38"/>
-    <mergeCell ref="R37:R38"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="J34:J36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D28:D33"/>
+    <mergeCell ref="G28:G33"/>
+    <mergeCell ref="J28:J33"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J9:J14"/>
+    <mergeCell ref="M9:M14"/>
+    <mergeCell ref="M21:M27"/>
+    <mergeCell ref="D21:D27"/>
+    <mergeCell ref="G21:G27"/>
+    <mergeCell ref="J21:J27"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="G15:G20"/>
+    <mergeCell ref="J15:J20"/>
+    <mergeCell ref="M15:M20"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="C21:C27"/>
+    <mergeCell ref="D9:D14"/>
+    <mergeCell ref="G9:G14"/>
+    <mergeCell ref="C15:C20"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lunch.xlsx
+++ b/lunch.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="347">
   <si>
     <t>작성 가이드</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -1048,11 +1048,145 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>2023.11.20~2023.11.24</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>월 11/20</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>화 11/21</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>수 11/22</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>목 11/23</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>금 11/24</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>씨푸드파스타샐러드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>베이컨닭가슴살샐러드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠스쿠스닭다리살샐러드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>에그마요샐러드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>목살스테이크샐러드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀴노아아보카도샐러드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF009644"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 베지순두부비빔밥</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF009644"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 베지마제두부면</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>제육컬리플라워흑미덮밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>쉬림프치즈랩샌드위치
+&amp;과일2종</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>햄치즈크라상샌드위치
+&amp;과일2종</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>어니언치킨샐러드랩
+&amp;과일2종</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>불고기랩샌드위치
+&amp;과일2종</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>셀프토핑</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>┗쫑상추,콩나물무침</t>
+    <t>셀프우삼겹숙주비빔밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗맛김가루</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>유부장국</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗쌀밥,우삼겹볶음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗부추생채,숙주양파볶음</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1060,138 +1194,153 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>열무김치</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.11.13~2023.11.17</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>월 11/13</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>화 11/14</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>수 11/15</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>목 11/16</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>금 11/17</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>훈제오리단호박샐러드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>풀드포크샐러드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>불고기포케샐러드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>크림치킨어니언샐러드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>단호박&amp;로제치킨샌드위치
-&amp;과일2종</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>루꼴라갈릭치즈베이글샌드위치
-&amp;과일2종</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>콘참치모닝샌드위치
-&amp;과일2종</t>
+    <t>꼬마돈가스*케찹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀프추억의도시락</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">통밀프리미엄에그디럭스샌드위치
-</t>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF008A3E"/>
+        <rFont val="나눔고딕 ExtraBold"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>N</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="나눔고딕"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="나눔고딕 ExtraBold"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>&amp;과일2종</t>
+      <t xml:space="preserve"> </t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>그릴치킨&amp;비트쿠스쿠스</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>치킨컬리플라워볶음밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>참치아보카도토마토비빔밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>실곤약야끼소바</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>셀프에비동</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗쌀밥,새우튀김</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>셀프오쭈비빔밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗쌀밥,오쭈떡볶음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗초생강절임(채), 맛김가루</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>셀프장조림버터비빔밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗쌀밥,장조림,스크램블에그</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗오복지,쫑상추</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗맛김가루</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>우동국</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>배추된장국</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="나눔고딕 ExtraBold"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>셀프명란마요아보카도비빔밥</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗비엔나소시지,볶음김치</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>어묵국</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>돼지고기장조림</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>오징어가스*스위트칠리S</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>놀부부대찌개*우동사리</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(철판)미나리목</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="나눔고딕 ExtraBold"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(살)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="나눔고딕 ExtraBold"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>반삼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="나눔고딕 ExtraBold"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(겹)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="나눔고딕 ExtraBold"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>반</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭도리탕</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>뚝배기돼지불고기</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>우삼겹고추장찌개</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>생선가스*타르타르s</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>환어묵볶음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼갈이된장국</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔멸치볶음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>*두부김치</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>콩나물무침</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>채소잡채</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>후랑크소시지볶음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>도시락김</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1199,47 +1348,90 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>비빔납작지짐만두</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>꽈배기도너츠</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>어묵국</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>마라탕</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>돈목살김치찌개</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>우삼겹순두부찌개</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>시래기매운돼지갈비찜</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>마장소스</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>생선가스</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>너비아니엿장조림</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>연유꽃빵튀김</t>
+    <t>오이맛고추쌈장무침</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁채절임</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>쌈무/쌈장(마늘고추)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡곡밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>양지쌀국수</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>안동국시</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>육칼(육개장칼국수)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>새우롤*고구마롤</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>고추잡채군만두</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>동태전</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>떡갈비구이*부추생채</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>파인애플볶음밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>짜사이채</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>배추겉절이</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Fun!629]</t>
+  </si>
+  <si>
+    <t>피쉬앤칩스</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>고깃집볶음밥*후라이</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>참치회덮밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>버섯장국</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄산음료</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>된장찌개</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>수제오이피클</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1247,172 +1439,20 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>옥수수전</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>탄산음료</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>파래자반볶음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>청포묵김가루무침</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>천사채샐러드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>백김치/잡곡밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>열무김치/잡곡밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>일식철판돈가스</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>잡곡밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>반마리마늘통닭&amp;짜파게티</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>불고기김치볶음밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>바싹불고기</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>우동국물</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>간장고추지</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>치킨무</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>소떡소떡</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>배추겉절이</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>콘샐러드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>명동식 칼국수</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>뿌링치즈볼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>제주식돼지수육해장국</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>연어관자크림리조또</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Fun!629]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>[웰그린데이]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>고기경단조림</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>수제피클</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>깽키여우완까이</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>취나물쉬림프페스토파스타</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>(태국식치킨커리스프&amp;라이스)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>양념깻잎지</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>피자왕춘권</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>석박지</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>발사믹D&amp;참깨D</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>나쵸칩*살사소스</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>오렌지</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>오리엔탈D&amp;망고D</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>오리엔탈D&amp;블루베리D</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>발사믹D&amp;파인애플D</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>오리엔탈D&amp;딸기D</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>유자차</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>매실차</t>
+    <t>갓김치</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>일식간장불고기솥밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>베이컨갈릭볶음밥*후라이</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>소고기된장국밥</t>
+      <t>(뚝)전주식콩나물국밥</t>
     </r>
     <r>
       <rPr>
@@ -1421,84 +1461,139 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>*라면사리</t>
+      <t>*수란</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>훈제오리볶음밥*후라이</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>제육치즈덮밥*후라이</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>김치꼬치어묵탕*와사비장</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>춘천식닭갈비</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>갈비만두</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>두부김칫국</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>콩나물국</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>로스팜구이*케찹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>사각어묵볶음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>모짜핫도그*케찹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>비엔나소시지볶음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>채소크로켓</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>파래연근튀김</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>마늘종간장절임</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>단무지무침</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>고구마맛탕</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>깐마늘지</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>도토리묵무침</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>잡곡밥</t>
+    <t>밀양돼지국밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>매생이굴국밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>*비빔반숙란&amp;쯔유소스</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>순대볶음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>돼지고기강정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>새우가스*타르타르s</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>부추장떡</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>알감자조림</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>고구마크로켓</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>단호박샐러드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>우엉조림</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>진미채고추장무침</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>간장고추지</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>콘샐러드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>석박지</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>그린샐러드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>과카몰리에그오픈샌드위치</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>우육탕면</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀프치킨데리야끼덮밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗쌀밥,닭다리살볶음,스크램블에그</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>양파링튀김</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>우동국물</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>*로제소스</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>함박오므라이스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="나눔고딕 ExtraBold"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(버섯치즈라이스)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>단호박전</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗쌀밥,계란후라이,멸치볶음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗맛김가루,콩자반</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗쫑상추,맛김가루</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>*명란마요소스</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗쌀밥,아보카도,계란후라이</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1506,19 +1601,51 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>마파두부면</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>계란국</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>멘보샤</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>중국식땅콩볶음</t>
+    <t>손만두찜</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>발사믹D&amp;자몽D</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>오리엔탈D&amp;요거트D</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>오리엔탈D&amp;크리미양파D</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>발사믹D&amp;딸기요거트D</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>오리엔탈D&amp;한라봉D</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>자몽차</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>율무차</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>녹차라떼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>요거트*씨리얼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>메밀전병</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>천사채샐러드</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1526,31 +1653,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>치킨너겟*허니머스터드S</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>셀프쇠고기곤드레비빔밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗쇠고기곤드레밥,계란후라이</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗부추생채,콩나물무침</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>김치메밀전병</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>오렌지리코타샐러드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>일자: 23.11.13~11.17</t>
+    <t>일자: 23.11.20~11.24</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1562,7 +1669,7 @@
     <numFmt numFmtId="176" formatCode="mm&quot;/&quot;dd\ ddd"/>
     <numFmt numFmtId="177" formatCode="##\ &quot;Kcal&quot;"/>
   </numFmts>
-  <fonts count="61">
+  <fonts count="63">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
@@ -1972,12 +2079,6 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="14"/>
-      <name val="나눔스퀘어 ExtraBold"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color rgb="FFFFFF00"/>
@@ -1986,21 +2087,41 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="14"/>
+      <color rgb="FF009644"/>
       <name val="나눔고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="나눔고딕"/>
+      <name val="나눔고딕 ExtraBold"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="나눔고딕 ExtraBold"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="나눔고딕 ExtraBold"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="나눔고딕 ExtraBold"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="나눔스퀘어 ExtraBold"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -2384,7 +2505,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="276">
+  <cellXfs count="274">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2949,9 +3070,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2961,9 +3079,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2973,40 +3088,40 @@
     <xf numFmtId="0" fontId="24" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3060,158 +3175,158 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="41" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="41" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="41" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="41" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="41" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="40" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="40" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="40" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="40" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="40" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="40" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="40" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="40" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="40" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="41" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="41" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="41" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="41" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="41" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="40" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="40" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="40" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -4254,159 +4369,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>911678</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>217713</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1823356</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>136069</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="14" name="그룹 13"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="6613071" y="5851070"/>
-          <a:ext cx="911678" cy="898070"/>
-          <a:chOff x="5742590" y="551366"/>
-          <a:chExt cx="3305011" cy="3309096"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="15" name="그림 14"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-            <a:extLst>
-              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a14:imgLayer r:embed="rId5">
-                    <a14:imgEffect>
-                      <a14:backgroundRemoval t="0" b="100000" l="0" r="100000">
-                        <a14:foregroundMark x1="9486" y1="20534" x2="28261" y2="8848"/>
-                        <a14:foregroundMark x1="43478" y1="43406" x2="58300" y2="44741"/>
-                        <a14:foregroundMark x1="61265" y1="23038" x2="62253" y2="28881"/>
-                        <a14:foregroundMark x1="66798" y1="4174" x2="78063" y2="20033"/>
-                        <a14:foregroundMark x1="50395" y1="12187" x2="70158" y2="13022"/>
-                        <a14:foregroundMark x1="76087" y1="5509" x2="82016" y2="13356"/>
-                        <a14:foregroundMark x1="57312" y1="5843" x2="81621" y2="5008"/>
-                        <a14:foregroundMark x1="6522" y1="18865" x2="17787" y2="9182"/>
-                        <a14:foregroundMark x1="27668" y1="15025" x2="20751" y2="19199"/>
-                        <a14:foregroundMark x1="27668" y1="88982" x2="53360" y2="87646"/>
-                        <a14:foregroundMark x1="18775" y1="86811" x2="32609" y2="83472"/>
-                        <a14:foregroundMark x1="52964" y1="86477" x2="55929" y2="96828"/>
-                        <a14:foregroundMark x1="20356" y1="92321" x2="47431" y2="92321"/>
-                        <a14:foregroundMark x1="15810" y1="91486" x2="21344" y2="80634"/>
-                        <a14:foregroundMark x1="46047" y1="85142" x2="55929" y2="85142"/>
-                        <a14:foregroundMark x1="79051" y1="86811" x2="78063" y2="90651"/>
-                        <a14:foregroundMark x1="78063" y1="90150" x2="66206" y2="95159"/>
-                        <a14:foregroundMark x1="55929" y1="95159" x2="65810" y2="95159"/>
-                        <a14:foregroundMark x1="71739" y1="95993" x2="81028" y2="91820"/>
-                        <a14:foregroundMark x1="80632" y1="90985" x2="78656" y2="83973"/>
-                        <a14:foregroundMark x1="74704" y1="84307" x2="65217" y2="80968"/>
-                        <a14:foregroundMark x1="14427" y1="90985" x2="13834" y2="85142"/>
-                        <a14:foregroundMark x1="8103" y1="11352" x2="15020" y2="8514"/>
-                        <a14:foregroundMark x1="85573" y1="9850" x2="87154" y2="22371"/>
-                        <a14:foregroundMark x1="57905" y1="9850" x2="70356" y2="8681"/>
-                        <a14:foregroundMark x1="11660" y1="89482" x2="14427" y2="92321"/>
-                      </a14:backgroundRemoval>
-                    </a14:imgEffect>
-                  </a14:imgLayer>
-                </a14:imgProps>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6452038" y="787849"/>
-            <a:ext cx="2595563" cy="3072613"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="16" name="그림 15"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-            <a:extLst>
-              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a14:imgLayer r:embed="rId5">
-                    <a14:imgEffect>
-                      <a14:backgroundRemoval t="0" b="29883" l="0" r="36957">
-                        <a14:foregroundMark x1="9486" y1="20534" x2="28261" y2="8848"/>
-                        <a14:foregroundMark x1="43478" y1="43406" x2="58300" y2="44741"/>
-                        <a14:foregroundMark x1="61265" y1="23038" x2="62253" y2="28881"/>
-                        <a14:foregroundMark x1="66798" y1="4174" x2="78063" y2="20033"/>
-                        <a14:foregroundMark x1="50395" y1="12187" x2="70158" y2="13022"/>
-                        <a14:foregroundMark x1="76087" y1="5509" x2="82016" y2="13356"/>
-                        <a14:foregroundMark x1="57312" y1="5843" x2="81621" y2="5008"/>
-                        <a14:foregroundMark x1="6522" y1="18865" x2="17787" y2="9182"/>
-                        <a14:foregroundMark x1="27668" y1="15025" x2="20751" y2="19199"/>
-                        <a14:foregroundMark x1="27668" y1="88982" x2="53360" y2="87646"/>
-                        <a14:foregroundMark x1="18775" y1="86811" x2="32609" y2="83472"/>
-                        <a14:foregroundMark x1="52964" y1="86477" x2="55929" y2="96828"/>
-                        <a14:foregroundMark x1="20356" y1="92321" x2="47431" y2="92321"/>
-                        <a14:foregroundMark x1="15810" y1="91486" x2="21344" y2="80634"/>
-                        <a14:foregroundMark x1="46047" y1="85142" x2="55929" y2="85142"/>
-                        <a14:foregroundMark x1="79051" y1="86811" x2="78063" y2="90651"/>
-                        <a14:foregroundMark x1="78063" y1="90150" x2="66206" y2="95159"/>
-                        <a14:foregroundMark x1="55929" y1="95159" x2="65810" y2="95159"/>
-                        <a14:foregroundMark x1="71739" y1="95993" x2="81028" y2="91820"/>
-                        <a14:foregroundMark x1="80632" y1="90985" x2="78656" y2="83973"/>
-                        <a14:foregroundMark x1="74704" y1="84307" x2="65217" y2="80968"/>
-                        <a14:foregroundMark x1="14427" y1="90985" x2="13834" y2="85142"/>
-                        <a14:foregroundMark x1="8103" y1="11352" x2="15020" y2="8514"/>
-                        <a14:foregroundMark x1="85573" y1="9850" x2="87154" y2="22371"/>
-                        <a14:foregroundMark x1="57905" y1="9850" x2="70356" y2="8681"/>
-                        <a14:foregroundMark x1="11660" y1="89482" x2="14427" y2="92321"/>
-                        <a14:backgroundMark x1="47628" y1="2170" x2="58893" y2="98164"/>
-                      </a14:backgroundRemoval>
-                    </a14:imgEffect>
-                  </a14:imgLayer>
-                </a14:imgProps>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect r="64994" b="71172"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5742590" y="551366"/>
-            <a:ext cx="1745669" cy="1701789"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
@@ -4428,7 +4390,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4456,203 +4418,6 @@
         </a:effectLst>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1309007</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>162994</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>107936</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="그림 11"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9024257" y="5785756"/>
-          <a:ext cx="867844" cy="935251"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1009650</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>234041</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1921328</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>111575</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="11" name="그룹 10"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="2683329" y="1581148"/>
-          <a:ext cx="911678" cy="898070"/>
-          <a:chOff x="5742590" y="551366"/>
-          <a:chExt cx="3305011" cy="3309096"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="18" name="그림 17"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-            <a:extLst>
-              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a14:imgLayer r:embed="rId5">
-                    <a14:imgEffect>
-                      <a14:backgroundRemoval t="0" b="100000" l="0" r="100000">
-                        <a14:foregroundMark x1="9486" y1="20534" x2="28261" y2="8848"/>
-                        <a14:foregroundMark x1="43478" y1="43406" x2="58300" y2="44741"/>
-                        <a14:foregroundMark x1="61265" y1="23038" x2="62253" y2="28881"/>
-                        <a14:foregroundMark x1="66798" y1="4174" x2="78063" y2="20033"/>
-                        <a14:foregroundMark x1="50395" y1="12187" x2="70158" y2="13022"/>
-                        <a14:foregroundMark x1="76087" y1="5509" x2="82016" y2="13356"/>
-                        <a14:foregroundMark x1="57312" y1="5843" x2="81621" y2="5008"/>
-                        <a14:foregroundMark x1="6522" y1="18865" x2="17787" y2="9182"/>
-                        <a14:foregroundMark x1="27668" y1="15025" x2="20751" y2="19199"/>
-                        <a14:foregroundMark x1="27668" y1="88982" x2="53360" y2="87646"/>
-                        <a14:foregroundMark x1="18775" y1="86811" x2="32609" y2="83472"/>
-                        <a14:foregroundMark x1="52964" y1="86477" x2="55929" y2="96828"/>
-                        <a14:foregroundMark x1="20356" y1="92321" x2="47431" y2="92321"/>
-                        <a14:foregroundMark x1="15810" y1="91486" x2="21344" y2="80634"/>
-                        <a14:foregroundMark x1="46047" y1="85142" x2="55929" y2="85142"/>
-                        <a14:foregroundMark x1="79051" y1="86811" x2="78063" y2="90651"/>
-                        <a14:foregroundMark x1="78063" y1="90150" x2="66206" y2="95159"/>
-                        <a14:foregroundMark x1="55929" y1="95159" x2="65810" y2="95159"/>
-                        <a14:foregroundMark x1="71739" y1="95993" x2="81028" y2="91820"/>
-                        <a14:foregroundMark x1="80632" y1="90985" x2="78656" y2="83973"/>
-                        <a14:foregroundMark x1="74704" y1="84307" x2="65217" y2="80968"/>
-                        <a14:foregroundMark x1="14427" y1="90985" x2="13834" y2="85142"/>
-                        <a14:foregroundMark x1="8103" y1="11352" x2="15020" y2="8514"/>
-                        <a14:foregroundMark x1="85573" y1="9850" x2="87154" y2="22371"/>
-                        <a14:foregroundMark x1="57905" y1="9850" x2="70356" y2="8681"/>
-                        <a14:foregroundMark x1="11660" y1="89482" x2="14427" y2="92321"/>
-                      </a14:backgroundRemoval>
-                    </a14:imgEffect>
-                  </a14:imgLayer>
-                </a14:imgProps>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6452038" y="787849"/>
-            <a:ext cx="2595563" cy="3072613"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="19" name="그림 18"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-            <a:extLst>
-              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a14:imgLayer r:embed="rId5">
-                    <a14:imgEffect>
-                      <a14:backgroundRemoval t="0" b="29883" l="0" r="36957">
-                        <a14:foregroundMark x1="9486" y1="20534" x2="28261" y2="8848"/>
-                        <a14:foregroundMark x1="43478" y1="43406" x2="58300" y2="44741"/>
-                        <a14:foregroundMark x1="61265" y1="23038" x2="62253" y2="28881"/>
-                        <a14:foregroundMark x1="66798" y1="4174" x2="78063" y2="20033"/>
-                        <a14:foregroundMark x1="50395" y1="12187" x2="70158" y2="13022"/>
-                        <a14:foregroundMark x1="76087" y1="5509" x2="82016" y2="13356"/>
-                        <a14:foregroundMark x1="57312" y1="5843" x2="81621" y2="5008"/>
-                        <a14:foregroundMark x1="6522" y1="18865" x2="17787" y2="9182"/>
-                        <a14:foregroundMark x1="27668" y1="15025" x2="20751" y2="19199"/>
-                        <a14:foregroundMark x1="27668" y1="88982" x2="53360" y2="87646"/>
-                        <a14:foregroundMark x1="18775" y1="86811" x2="32609" y2="83472"/>
-                        <a14:foregroundMark x1="52964" y1="86477" x2="55929" y2="96828"/>
-                        <a14:foregroundMark x1="20356" y1="92321" x2="47431" y2="92321"/>
-                        <a14:foregroundMark x1="15810" y1="91486" x2="21344" y2="80634"/>
-                        <a14:foregroundMark x1="46047" y1="85142" x2="55929" y2="85142"/>
-                        <a14:foregroundMark x1="79051" y1="86811" x2="78063" y2="90651"/>
-                        <a14:foregroundMark x1="78063" y1="90150" x2="66206" y2="95159"/>
-                        <a14:foregroundMark x1="55929" y1="95159" x2="65810" y2="95159"/>
-                        <a14:foregroundMark x1="71739" y1="95993" x2="81028" y2="91820"/>
-                        <a14:foregroundMark x1="80632" y1="90985" x2="78656" y2="83973"/>
-                        <a14:foregroundMark x1="74704" y1="84307" x2="65217" y2="80968"/>
-                        <a14:foregroundMark x1="14427" y1="90985" x2="13834" y2="85142"/>
-                        <a14:foregroundMark x1="8103" y1="11352" x2="15020" y2="8514"/>
-                        <a14:foregroundMark x1="85573" y1="9850" x2="87154" y2="22371"/>
-                        <a14:foregroundMark x1="57905" y1="9850" x2="70356" y2="8681"/>
-                        <a14:foregroundMark x1="11660" y1="89482" x2="14427" y2="92321"/>
-                        <a14:backgroundMark x1="47628" y1="2170" x2="58893" y2="98164"/>
-                      </a14:backgroundRemoval>
-                    </a14:imgEffect>
-                  </a14:imgLayer>
-                </a14:imgProps>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect r="64994" b="71172"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5742590" y="551366"/>
-            <a:ext cx="1745669" cy="1701789"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5093,7 +4858,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="105"/>
       <c r="H2" s="2"/>
-      <c r="J2" s="209" t="s">
+      <c r="J2" s="207" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="32"/>
@@ -5111,7 +4876,7 @@
       <c r="E3" s="12"/>
       <c r="F3" s="106"/>
       <c r="G3" s="11"/>
-      <c r="J3" s="209"/>
+      <c r="J3" s="207"/>
       <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:18" ht="24" customHeight="1">
@@ -5148,7 +4913,7 @@
       <c r="H5" s="84" t="s">
         <v>182</v>
       </c>
-      <c r="J5" s="210" t="s">
+      <c r="J5" s="208" t="s">
         <v>40</v>
       </c>
       <c r="K5" s="48"/>
@@ -5161,7 +4926,7 @@
       <c r="R5" s="2"/>
     </row>
     <row r="6" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B6" s="212" t="s">
+      <c r="B6" s="210" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="20" t="s">
@@ -5182,7 +4947,7 @@
       <c r="H6" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="J6" s="211"/>
+      <c r="J6" s="209"/>
       <c r="K6" s="21"/>
       <c r="L6" s="52"/>
       <c r="M6" s="52"/>
@@ -5193,7 +4958,7 @@
       <c r="R6" s="22"/>
     </row>
     <row r="7" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B7" s="212"/>
+      <c r="B7" s="210"/>
       <c r="C7" s="23" t="s">
         <v>7</v>
       </c>
@@ -5212,7 +4977,7 @@
       <c r="H7" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="211"/>
+      <c r="J7" s="209"/>
       <c r="K7" s="24"/>
       <c r="L7" s="52"/>
       <c r="M7" s="52"/>
@@ -5223,7 +4988,7 @@
       <c r="R7" s="22"/>
     </row>
     <row r="8" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B8" s="212"/>
+      <c r="B8" s="210"/>
       <c r="C8" s="104"/>
       <c r="D8" s="24" t="s">
         <v>185</v>
@@ -5240,7 +5005,7 @@
       <c r="H8" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="J8" s="211"/>
+      <c r="J8" s="209"/>
       <c r="K8" s="24"/>
       <c r="L8" s="16"/>
       <c r="M8" s="52"/>
@@ -5251,7 +5016,7 @@
       <c r="R8" s="22"/>
     </row>
     <row r="9" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B9" s="212"/>
+      <c r="B9" s="210"/>
       <c r="C9" s="104"/>
       <c r="D9" s="24" t="s">
         <v>70</v>
@@ -5268,7 +5033,7 @@
       <c r="H9" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="J9" s="211"/>
+      <c r="J9" s="209"/>
       <c r="K9" s="24"/>
       <c r="L9" s="8"/>
       <c r="M9" s="52"/>
@@ -5279,7 +5044,7 @@
       <c r="R9" s="22"/>
     </row>
     <row r="10" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B10" s="212"/>
+      <c r="B10" s="210"/>
       <c r="C10" s="104"/>
       <c r="D10" s="24" t="s">
         <v>74</v>
@@ -5296,7 +5061,7 @@
       <c r="H10" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="211"/>
+      <c r="J10" s="209"/>
       <c r="K10" s="24"/>
       <c r="L10" s="16"/>
       <c r="M10" s="52"/>
@@ -5307,7 +5072,7 @@
       <c r="R10" s="22"/>
     </row>
     <row r="11" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B11" s="212"/>
+      <c r="B11" s="210"/>
       <c r="C11" s="104"/>
       <c r="D11" s="24" t="s">
         <v>56</v>
@@ -5324,7 +5089,7 @@
       <c r="H11" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="J11" s="211"/>
+      <c r="J11" s="209"/>
       <c r="K11" s="24"/>
       <c r="L11" s="16"/>
       <c r="M11" s="52"/>
@@ -5335,7 +5100,7 @@
       <c r="R11" s="26"/>
     </row>
     <row r="12" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B12" s="212"/>
+      <c r="B12" s="210"/>
       <c r="C12" s="28"/>
       <c r="D12" s="24" t="s">
         <v>53</v>
@@ -5352,7 +5117,7 @@
       <c r="H12" s="34">
         <v>725</v>
       </c>
-      <c r="J12" s="211"/>
+      <c r="J12" s="209"/>
       <c r="K12" s="24"/>
       <c r="L12" s="16"/>
       <c r="M12" s="52"/>
@@ -5363,7 +5128,7 @@
       <c r="R12" s="22"/>
     </row>
     <row r="13" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B13" s="212"/>
+      <c r="B13" s="210"/>
       <c r="C13" s="20" t="s">
         <v>8</v>
       </c>
@@ -5374,7 +5139,7 @@
       <c r="H13" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="J13" s="211"/>
+      <c r="J13" s="209"/>
       <c r="K13" s="21"/>
       <c r="L13" s="16"/>
       <c r="M13" s="52"/>
@@ -5385,7 +5150,7 @@
       <c r="R13" s="22"/>
     </row>
     <row r="14" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B14" s="212"/>
+      <c r="B14" s="210"/>
       <c r="C14" s="23" t="s">
         <v>43</v>
       </c>
@@ -5396,7 +5161,7 @@
       <c r="H14" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="J14" s="211"/>
+      <c r="J14" s="209"/>
       <c r="K14" s="24"/>
       <c r="L14" s="21"/>
       <c r="M14" s="40"/>
@@ -5407,7 +5172,7 @@
       <c r="R14" s="29"/>
     </row>
     <row r="15" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B15" s="212"/>
+      <c r="B15" s="210"/>
       <c r="C15" s="104"/>
       <c r="D15" s="24"/>
       <c r="E15" s="127"/>
@@ -5416,7 +5181,7 @@
       <c r="H15" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="J15" s="211"/>
+      <c r="J15" s="209"/>
       <c r="K15" s="24"/>
       <c r="L15" s="24"/>
       <c r="M15" s="52"/>
@@ -5427,7 +5192,7 @@
       <c r="R15" s="22"/>
     </row>
     <row r="16" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B16" s="212"/>
+      <c r="B16" s="210"/>
       <c r="C16" s="104"/>
       <c r="D16" s="24"/>
       <c r="E16" s="129"/>
@@ -5436,7 +5201,7 @@
       <c r="H16" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="J16" s="211"/>
+      <c r="J16" s="209"/>
       <c r="K16" s="24"/>
       <c r="L16" s="24"/>
       <c r="M16" s="52"/>
@@ -5447,7 +5212,7 @@
       <c r="R16" s="22"/>
     </row>
     <row r="17" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B17" s="212"/>
+      <c r="B17" s="210"/>
       <c r="C17" s="104"/>
       <c r="D17" s="24"/>
       <c r="E17" s="129"/>
@@ -5456,7 +5221,7 @@
       <c r="H17" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="J17" s="211"/>
+      <c r="J17" s="209"/>
       <c r="K17" s="24"/>
       <c r="L17" s="24"/>
       <c r="M17" s="52"/>
@@ -5470,7 +5235,7 @@
       <c r="A18" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="212"/>
+      <c r="B18" s="210"/>
       <c r="C18" s="31"/>
       <c r="D18" s="24"/>
       <c r="E18" s="129"/>
@@ -5479,7 +5244,7 @@
       <c r="H18" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="J18" s="211"/>
+      <c r="J18" s="209"/>
       <c r="K18" s="24"/>
       <c r="L18" s="24"/>
       <c r="M18" s="52"/>
@@ -5490,7 +5255,7 @@
       <c r="R18" s="22"/>
     </row>
     <row r="19" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B19" s="212"/>
+      <c r="B19" s="210"/>
       <c r="C19" s="28"/>
       <c r="D19" s="34">
         <v>1014</v>
@@ -5503,7 +5268,7 @@
       <c r="H19" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="J19" s="211"/>
+      <c r="J19" s="209"/>
       <c r="K19" s="34"/>
       <c r="L19" s="24"/>
       <c r="M19" s="52"/>
@@ -5514,7 +5279,7 @@
       <c r="R19" s="32"/>
     </row>
     <row r="20" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B20" s="212"/>
+      <c r="B20" s="210"/>
       <c r="C20" s="20" t="s">
         <v>44</v>
       </c>
@@ -5529,7 +5294,7 @@
         <v>82</v>
       </c>
       <c r="H20" s="24"/>
-      <c r="J20" s="211"/>
+      <c r="J20" s="209"/>
       <c r="K20" s="24"/>
       <c r="L20" s="32"/>
       <c r="M20" s="52"/>
@@ -5540,7 +5305,7 @@
       <c r="R20" s="22"/>
     </row>
     <row r="21" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B21" s="212"/>
+      <c r="B21" s="210"/>
       <c r="C21" s="23" t="s">
         <v>45</v>
       </c>
@@ -5555,7 +5320,7 @@
         <v>84</v>
       </c>
       <c r="H21" s="24"/>
-      <c r="J21" s="211"/>
+      <c r="J21" s="209"/>
       <c r="K21" s="24"/>
       <c r="L21" s="16"/>
       <c r="M21" s="52"/>
@@ -5566,7 +5331,7 @@
       <c r="R21" s="22"/>
     </row>
     <row r="22" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B22" s="212"/>
+      <c r="B22" s="210"/>
       <c r="C22" s="23"/>
       <c r="D22" s="121" t="s">
         <v>85</v>
@@ -5579,7 +5344,7 @@
         <v>86</v>
       </c>
       <c r="H22" s="24"/>
-      <c r="J22" s="211"/>
+      <c r="J22" s="209"/>
       <c r="K22" s="24"/>
       <c r="L22" s="16"/>
       <c r="M22" s="52"/>
@@ -5590,7 +5355,7 @@
       <c r="R22" s="22"/>
     </row>
     <row r="23" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B23" s="212"/>
+      <c r="B23" s="210"/>
       <c r="C23" s="104"/>
       <c r="D23" s="121" t="s">
         <v>87</v>
@@ -5603,7 +5368,7 @@
         <v>89</v>
       </c>
       <c r="H23" s="24"/>
-      <c r="J23" s="211"/>
+      <c r="J23" s="209"/>
       <c r="K23" s="24"/>
       <c r="L23" s="16"/>
       <c r="M23" s="40"/>
@@ -5614,7 +5379,7 @@
       <c r="R23" s="29"/>
     </row>
     <row r="24" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B24" s="212"/>
+      <c r="B24" s="210"/>
       <c r="C24" s="104"/>
       <c r="D24" s="121" t="s">
         <v>90</v>
@@ -5627,7 +5392,7 @@
         <v>91</v>
       </c>
       <c r="H24" s="24"/>
-      <c r="J24" s="211"/>
+      <c r="J24" s="209"/>
       <c r="K24" s="24"/>
       <c r="L24" s="16"/>
       <c r="M24" s="52"/>
@@ -5638,7 +5403,7 @@
       <c r="R24" s="22"/>
     </row>
     <row r="25" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B25" s="212"/>
+      <c r="B25" s="210"/>
       <c r="C25" s="104"/>
       <c r="D25" s="121" t="s">
         <v>53</v>
@@ -5649,7 +5414,7 @@
         <v>79</v>
       </c>
       <c r="H25" s="24"/>
-      <c r="J25" s="211"/>
+      <c r="J25" s="209"/>
       <c r="K25" s="24"/>
       <c r="L25" s="16"/>
       <c r="M25" s="52"/>
@@ -5660,7 +5425,7 @@
       <c r="R25" s="22"/>
     </row>
     <row r="26" spans="1:18" s="33" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B26" s="212"/>
+      <c r="B26" s="210"/>
       <c r="C26" s="28"/>
       <c r="D26" s="122"/>
       <c r="E26" s="130"/>
@@ -5669,7 +5434,7 @@
       <c r="H26" s="34">
         <v>725</v>
       </c>
-      <c r="J26" s="211"/>
+      <c r="J26" s="209"/>
       <c r="K26" s="85"/>
       <c r="L26" s="66"/>
       <c r="M26" s="35"/>
@@ -5680,8 +5445,8 @@
       <c r="R26" s="30"/>
     </row>
     <row r="27" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B27" s="212"/>
-      <c r="C27" s="220" t="s">
+      <c r="B27" s="210"/>
+      <c r="C27" s="218" t="s">
         <v>46</v>
       </c>
       <c r="D27" s="24" t="s">
@@ -5699,7 +5464,7 @@
       <c r="H27" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="J27" s="211"/>
+      <c r="J27" s="209"/>
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
       <c r="M27" s="66"/>
@@ -5710,8 +5475,8 @@
       <c r="R27" s="26"/>
     </row>
     <row r="28" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B28" s="212"/>
-      <c r="C28" s="223"/>
+      <c r="B28" s="210"/>
+      <c r="C28" s="221"/>
       <c r="D28" s="24" t="s">
         <v>54</v>
       </c>
@@ -5727,7 +5492,7 @@
       <c r="H28" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="J28" s="211"/>
+      <c r="J28" s="209"/>
       <c r="K28" s="16"/>
       <c r="L28" s="16"/>
       <c r="M28" s="66"/>
@@ -5738,8 +5503,8 @@
       <c r="R28" s="26"/>
     </row>
     <row r="29" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B29" s="212"/>
-      <c r="C29" s="224"/>
+      <c r="B29" s="210"/>
+      <c r="C29" s="222"/>
       <c r="D29" s="96" t="s">
         <v>97</v>
       </c>
@@ -5753,7 +5518,7 @@
       <c r="H29" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="J29" s="211"/>
+      <c r="J29" s="209"/>
       <c r="K29" s="16"/>
       <c r="L29" s="16"/>
       <c r="M29" s="66"/>
@@ -5764,7 +5529,7 @@
       <c r="R29" s="26"/>
     </row>
     <row r="30" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B30" s="212"/>
+      <c r="B30" s="210"/>
       <c r="C30" s="20" t="s">
         <v>47</v>
       </c>
@@ -5781,7 +5546,7 @@
       <c r="H30" s="133" t="s">
         <v>100</v>
       </c>
-      <c r="J30" s="211"/>
+      <c r="J30" s="209"/>
       <c r="K30" s="24"/>
       <c r="L30" s="36"/>
       <c r="M30" s="16"/>
@@ -5792,7 +5557,7 @@
       <c r="R30" s="37"/>
     </row>
     <row r="31" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B31" s="212"/>
+      <c r="B31" s="210"/>
       <c r="C31" s="101" t="s">
         <v>48</v>
       </c>
@@ -5809,7 +5574,7 @@
       <c r="H31" s="120" t="s">
         <v>103</v>
       </c>
-      <c r="J31" s="211"/>
+      <c r="J31" s="209"/>
       <c r="K31" s="24"/>
       <c r="L31" s="25"/>
       <c r="M31" s="16"/>
@@ -5820,7 +5585,7 @@
       <c r="R31" s="37"/>
     </row>
     <row r="32" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B32" s="212"/>
+      <c r="B32" s="210"/>
       <c r="C32" s="101" t="s">
         <v>49</v>
       </c>
@@ -5837,7 +5602,7 @@
       <c r="H32" s="121" t="s">
         <v>105</v>
       </c>
-      <c r="J32" s="211"/>
+      <c r="J32" s="209"/>
       <c r="K32" s="24"/>
       <c r="L32" s="16"/>
       <c r="M32" s="16"/>
@@ -5851,7 +5616,7 @@
       <c r="A33" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="212"/>
+      <c r="B33" s="210"/>
       <c r="C33" s="103"/>
       <c r="D33" s="24" t="s">
         <v>106</v>
@@ -5866,7 +5631,7 @@
       <c r="H33" s="121" t="s">
         <v>109</v>
       </c>
-      <c r="J33" s="211"/>
+      <c r="J33" s="209"/>
       <c r="K33" s="16"/>
       <c r="L33" s="32"/>
       <c r="M33" s="16"/>
@@ -5880,7 +5645,7 @@
       <c r="A34" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="212"/>
+      <c r="B34" s="210"/>
       <c r="C34" s="103"/>
       <c r="D34" s="24"/>
       <c r="E34" s="127" t="s">
@@ -5893,7 +5658,7 @@
       <c r="H34" s="121" t="s">
         <v>110</v>
       </c>
-      <c r="J34" s="211"/>
+      <c r="J34" s="209"/>
       <c r="K34" s="38"/>
       <c r="L34" s="32"/>
       <c r="M34" s="16"/>
@@ -5904,7 +5669,7 @@
       <c r="R34" s="39"/>
     </row>
     <row r="35" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B35" s="212"/>
+      <c r="B35" s="210"/>
       <c r="C35" s="104"/>
       <c r="D35" s="24"/>
       <c r="E35" s="127" t="s">
@@ -5915,7 +5680,7 @@
       <c r="H35" s="121" t="s">
         <v>203</v>
       </c>
-      <c r="J35" s="211"/>
+      <c r="J35" s="209"/>
       <c r="K35" s="38"/>
       <c r="L35" s="16"/>
       <c r="M35" s="40"/>
@@ -5926,7 +5691,7 @@
       <c r="R35" s="43"/>
     </row>
     <row r="36" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B36" s="212"/>
+      <c r="B36" s="210"/>
       <c r="C36" s="28"/>
       <c r="D36" s="34"/>
       <c r="E36" s="130"/>
@@ -5935,7 +5700,7 @@
       <c r="H36" s="122" t="s">
         <v>111</v>
       </c>
-      <c r="J36" s="211"/>
+      <c r="J36" s="209"/>
       <c r="K36" s="16"/>
       <c r="L36" s="16"/>
       <c r="M36" s="66"/>
@@ -5946,8 +5711,8 @@
       <c r="R36" s="26"/>
     </row>
     <row r="37" spans="1:18" s="44" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B37" s="212"/>
-      <c r="C37" s="213" t="s">
+      <c r="B37" s="210"/>
+      <c r="C37" s="211" t="s">
         <v>50</v>
       </c>
       <c r="D37" s="98" t="s">
@@ -5963,7 +5728,7 @@
       <c r="H37" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="J37" s="215" t="s">
+      <c r="J37" s="213" t="s">
         <v>17</v>
       </c>
       <c r="K37" s="16"/>
@@ -5976,8 +5741,8 @@
       <c r="R37" s="32"/>
     </row>
     <row r="38" spans="1:18" s="47" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B38" s="212"/>
-      <c r="C38" s="214"/>
+      <c r="B38" s="210"/>
+      <c r="C38" s="212"/>
       <c r="D38" s="124" t="s">
         <v>116</v>
       </c>
@@ -5991,7 +5756,7 @@
       <c r="H38" s="98" t="s">
         <v>119</v>
       </c>
-      <c r="J38" s="216"/>
+      <c r="J38" s="214"/>
       <c r="K38" s="38"/>
       <c r="L38" s="52"/>
       <c r="M38" s="16"/>
@@ -6002,7 +5767,7 @@
       <c r="R38" s="32"/>
     </row>
     <row r="39" spans="1:18" s="47" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B39" s="212"/>
+      <c r="B39" s="210"/>
       <c r="C39" s="103"/>
       <c r="D39" s="98" t="s">
         <v>120</v>
@@ -6017,7 +5782,7 @@
       <c r="H39" s="98" t="s">
         <v>123</v>
       </c>
-      <c r="J39" s="216"/>
+      <c r="J39" s="214"/>
       <c r="K39" s="16"/>
       <c r="L39" s="52"/>
       <c r="M39" s="16"/>
@@ -6028,7 +5793,7 @@
       <c r="R39" s="59"/>
     </row>
     <row r="40" spans="1:18" s="17" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B40" s="212"/>
+      <c r="B40" s="210"/>
       <c r="C40" s="103"/>
       <c r="D40" s="124" t="s">
         <v>124</v>
@@ -6043,7 +5808,7 @@
       <c r="H40" s="98" t="s">
         <v>127</v>
       </c>
-      <c r="J40" s="216"/>
+      <c r="J40" s="214"/>
       <c r="K40" s="16"/>
       <c r="L40" s="40"/>
       <c r="M40" s="16"/>
@@ -6054,7 +5819,7 @@
       <c r="R40" s="69"/>
     </row>
     <row r="41" spans="1:18" s="47" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B41" s="212"/>
+      <c r="B41" s="210"/>
       <c r="C41" s="91"/>
       <c r="D41" s="98" t="s">
         <v>128</v>
@@ -6069,7 +5834,7 @@
       <c r="H41" s="98" t="s">
         <v>131</v>
       </c>
-      <c r="J41" s="216"/>
+      <c r="J41" s="214"/>
       <c r="L41" s="52"/>
       <c r="M41" s="52"/>
       <c r="N41" s="52"/>
@@ -6097,7 +5862,7 @@
       <c r="R42" s="22"/>
     </row>
     <row r="43" spans="1:18" s="17" customFormat="1" ht="26.1" customHeight="1" thickTop="1">
-      <c r="B43" s="217" t="s">
+      <c r="B43" s="215" t="s">
         <v>11</v>
       </c>
       <c r="C43" s="93" t="s">
@@ -6118,7 +5883,7 @@
       <c r="H43" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="J43" s="219" t="s">
+      <c r="J43" s="217" t="s">
         <v>12</v>
       </c>
       <c r="K43" s="52"/>
@@ -6134,7 +5899,7 @@
       <c r="A44" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="212"/>
+      <c r="B44" s="210"/>
       <c r="C44" s="94"/>
       <c r="D44" s="24" t="s">
         <v>134</v>
@@ -6151,7 +5916,7 @@
       <c r="H44" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="J44" s="219"/>
+      <c r="J44" s="217"/>
       <c r="K44" s="50"/>
       <c r="L44" s="16"/>
       <c r="M44" s="52"/>
@@ -6162,7 +5927,7 @@
       <c r="R44" s="22"/>
     </row>
     <row r="45" spans="1:18" s="17" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B45" s="212"/>
+      <c r="B45" s="210"/>
       <c r="C45" s="103"/>
       <c r="D45" s="24" t="s">
         <v>208</v>
@@ -6179,7 +5944,7 @@
       <c r="H45" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="J45" s="219"/>
+      <c r="J45" s="217"/>
       <c r="K45" s="16"/>
       <c r="L45" s="30"/>
       <c r="M45" s="52"/>
@@ -6190,7 +5955,7 @@
       <c r="R45" s="22"/>
     </row>
     <row r="46" spans="1:18" s="17" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B46" s="212"/>
+      <c r="B46" s="210"/>
       <c r="C46" s="103"/>
       <c r="D46" s="24" t="s">
         <v>57</v>
@@ -6207,7 +5972,7 @@
       <c r="H46" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="J46" s="219"/>
+      <c r="J46" s="217"/>
       <c r="K46" s="16"/>
       <c r="L46" s="8"/>
       <c r="M46" s="66"/>
@@ -6218,7 +5983,7 @@
       <c r="R46" s="26"/>
     </row>
     <row r="47" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B47" s="212"/>
+      <c r="B47" s="210"/>
       <c r="C47" s="103"/>
       <c r="D47" s="24" t="s">
         <v>146</v>
@@ -6235,7 +6000,7 @@
       <c r="H47" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="J47" s="219"/>
+      <c r="J47" s="217"/>
       <c r="K47" s="16"/>
       <c r="L47" s="8"/>
       <c r="M47" s="66"/>
@@ -6246,7 +6011,7 @@
       <c r="R47" s="26"/>
     </row>
     <row r="48" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B48" s="212"/>
+      <c r="B48" s="210"/>
       <c r="C48" s="103"/>
       <c r="D48" s="24" t="s">
         <v>151</v>
@@ -6263,7 +6028,7 @@
       <c r="H48" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="J48" s="219"/>
+      <c r="J48" s="217"/>
       <c r="K48" s="30"/>
       <c r="L48" s="8"/>
       <c r="M48" s="30"/>
@@ -6274,7 +6039,7 @@
       <c r="R48" s="26"/>
     </row>
     <row r="49" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B49" s="212"/>
+      <c r="B49" s="210"/>
       <c r="C49" s="86"/>
       <c r="D49" s="34">
         <v>725</v>
@@ -6291,7 +6056,7 @@
       <c r="H49" s="34">
         <v>725</v>
       </c>
-      <c r="J49" s="219"/>
+      <c r="J49" s="217"/>
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
       <c r="M49" s="8"/>
@@ -6299,7 +6064,7 @@
       <c r="R49" s="22"/>
     </row>
     <row r="50" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B50" s="212"/>
+      <c r="B50" s="210"/>
       <c r="C50" s="20" t="s">
         <v>14</v>
       </c>
@@ -6314,14 +6079,14 @@
         <v>158</v>
       </c>
       <c r="H50" s="21"/>
-      <c r="J50" s="219"/>
+      <c r="J50" s="217"/>
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
       <c r="N50" s="52"/>
       <c r="R50" s="22"/>
     </row>
     <row r="51" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B51" s="212"/>
+      <c r="B51" s="210"/>
       <c r="C51" s="23"/>
       <c r="D51" s="24" t="s">
         <v>159</v>
@@ -6334,7 +6099,7 @@
         <v>161</v>
       </c>
       <c r="H51" s="24"/>
-      <c r="J51" s="219"/>
+      <c r="J51" s="217"/>
       <c r="K51" s="21"/>
       <c r="L51" s="21"/>
       <c r="M51" s="8"/>
@@ -6342,7 +6107,7 @@
       <c r="R51" s="22"/>
     </row>
     <row r="52" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B52" s="212"/>
+      <c r="B52" s="210"/>
       <c r="C52" s="20"/>
       <c r="D52" s="24" t="s">
         <v>162</v>
@@ -6355,7 +6120,7 @@
         <v>164</v>
       </c>
       <c r="H52" s="24"/>
-      <c r="J52" s="219"/>
+      <c r="J52" s="217"/>
       <c r="K52" s="24"/>
       <c r="L52" s="24"/>
       <c r="M52" s="8"/>
@@ -6363,7 +6128,7 @@
       <c r="R52" s="22"/>
     </row>
     <row r="53" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B53" s="212"/>
+      <c r="B53" s="210"/>
       <c r="C53" s="20"/>
       <c r="D53" s="24" t="s">
         <v>165</v>
@@ -6376,7 +6141,7 @@
         <v>167</v>
       </c>
       <c r="H53" s="24"/>
-      <c r="J53" s="219"/>
+      <c r="J53" s="217"/>
       <c r="K53" s="24"/>
       <c r="L53" s="24"/>
       <c r="M53" s="8"/>
@@ -6384,7 +6149,7 @@
       <c r="R53" s="22"/>
     </row>
     <row r="54" spans="2:18" s="51" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B54" s="212"/>
+      <c r="B54" s="210"/>
       <c r="C54" s="20"/>
       <c r="D54" s="24" t="s">
         <v>168</v>
@@ -6397,7 +6162,7 @@
         <v>144</v>
       </c>
       <c r="H54" s="24"/>
-      <c r="J54" s="219"/>
+      <c r="J54" s="217"/>
       <c r="K54" s="24"/>
       <c r="L54" s="24"/>
       <c r="M54" s="8"/>
@@ -6408,7 +6173,7 @@
       <c r="R54" s="22"/>
     </row>
     <row r="55" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B55" s="212"/>
+      <c r="B55" s="210"/>
       <c r="C55" s="20"/>
       <c r="D55" s="24" t="s">
         <v>170</v>
@@ -6421,7 +6186,7 @@
         <v>171</v>
       </c>
       <c r="H55" s="24"/>
-      <c r="J55" s="219"/>
+      <c r="J55" s="217"/>
       <c r="K55" s="24"/>
       <c r="L55" s="24"/>
       <c r="M55" s="52"/>
@@ -6429,7 +6194,7 @@
       <c r="R55" s="22"/>
     </row>
     <row r="56" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B56" s="212"/>
+      <c r="B56" s="210"/>
       <c r="C56" s="110"/>
       <c r="D56" s="34">
         <v>725</v>
@@ -6442,7 +6207,7 @@
         <v>905</v>
       </c>
       <c r="H56" s="34"/>
-      <c r="J56" s="219"/>
+      <c r="J56" s="217"/>
       <c r="K56" s="24"/>
       <c r="L56" s="24"/>
       <c r="M56" s="52"/>
@@ -6450,8 +6215,8 @@
       <c r="R56" s="22"/>
     </row>
     <row r="57" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B57" s="212"/>
-      <c r="C57" s="220" t="s">
+      <c r="B57" s="210"/>
+      <c r="C57" s="218" t="s">
         <v>10</v>
       </c>
       <c r="D57" s="24" t="s">
@@ -6469,7 +6234,7 @@
       <c r="H57" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="J57" s="219"/>
+      <c r="J57" s="217"/>
       <c r="K57" s="25"/>
       <c r="L57" s="30"/>
       <c r="M57" s="52"/>
@@ -6477,8 +6242,8 @@
       <c r="R57" s="22"/>
     </row>
     <row r="58" spans="2:18" ht="26.1" customHeight="1" thickBot="1">
-      <c r="B58" s="218"/>
-      <c r="C58" s="221"/>
+      <c r="B58" s="216"/>
+      <c r="C58" s="219"/>
       <c r="D58" s="100" t="s">
         <v>172</v>
       </c>
@@ -6494,7 +6259,7 @@
       <c r="H58" s="100" t="s">
         <v>176</v>
       </c>
-      <c r="J58" s="219"/>
+      <c r="J58" s="217"/>
       <c r="K58" s="16"/>
       <c r="L58" s="8"/>
       <c r="M58" s="52"/>
@@ -6525,7 +6290,7 @@
       <c r="F60" s="24"/>
       <c r="G60" s="32"/>
       <c r="H60" s="32"/>
-      <c r="J60" s="222" t="s">
+      <c r="J60" s="220" t="s">
         <v>15</v>
       </c>
       <c r="K60" s="16"/>
@@ -6546,7 +6311,7 @@
       <c r="F61" s="55"/>
       <c r="G61" s="16"/>
       <c r="H61" s="56"/>
-      <c r="J61" s="222"/>
+      <c r="J61" s="220"/>
       <c r="K61" s="59"/>
       <c r="L61" s="8"/>
       <c r="M61" s="52"/>
@@ -6561,14 +6326,14 @@
       <c r="E62" s="58"/>
       <c r="F62" s="57"/>
       <c r="G62" s="58"/>
-      <c r="H62" s="208"/>
+      <c r="H62" s="206"/>
       <c r="K62" s="16"/>
       <c r="L62" s="16"/>
       <c r="M62" s="52"/>
       <c r="N62" s="52"/>
     </row>
     <row r="63" spans="2:18" ht="14.25" customHeight="1">
-      <c r="H63" s="208"/>
+      <c r="H63" s="206"/>
       <c r="K63" s="52"/>
       <c r="L63" s="16"/>
       <c r="M63" s="52"/>
@@ -6929,8 +6694,8 @@
   </sheetPr>
   <dimension ref="A1:R861"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="96" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H59"/>
+    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="96" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -6972,7 +6737,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="105"/>
       <c r="H2" s="2"/>
-      <c r="J2" s="209" t="s">
+      <c r="J2" s="207" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="32"/>
@@ -6983,14 +6748,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="11"/>
       <c r="E3" s="225"/>
       <c r="F3" s="106"/>
       <c r="G3" s="11"/>
-      <c r="J3" s="209"/>
+      <c r="J3" s="207"/>
       <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:18" ht="24" customHeight="1">
@@ -7011,21 +6776,21 @@
         <v>42</v>
       </c>
       <c r="D5" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="H5" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="E5" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="J5" s="210" t="s">
+      <c r="J5" s="208" t="s">
         <v>40</v>
       </c>
       <c r="K5" s="48"/>
@@ -7038,28 +6803,28 @@
       <c r="R5" s="2"/>
     </row>
     <row r="6" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B6" s="227" t="s">
+      <c r="B6" s="223" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="D6" s="158" t="s">
-        <v>294</v>
+      <c r="D6" s="21" t="s">
+        <v>259</v>
       </c>
       <c r="E6" s="126" t="s">
+        <v>260</v>
+      </c>
+      <c r="F6" s="153" t="s">
+        <v>261</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="H6" s="198" t="s">
         <v>263</v>
       </c>
-      <c r="F6" s="153" t="s">
-        <v>264</v>
-      </c>
-      <c r="G6" s="153" t="s">
-        <v>265</v>
-      </c>
-      <c r="H6" s="153" t="s">
-        <v>266</v>
-      </c>
-      <c r="J6" s="211"/>
+      <c r="J6" s="209"/>
       <c r="K6" s="52"/>
       <c r="L6" s="153"/>
       <c r="M6" s="48"/>
@@ -7068,26 +6833,26 @@
       <c r="P6" s="22"/>
     </row>
     <row r="7" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B7" s="212"/>
+      <c r="B7" s="210"/>
       <c r="C7" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>279</v>
+      <c r="D7" s="145" t="s">
+        <v>264</v>
       </c>
       <c r="E7" s="127" t="s">
-        <v>267</v>
-      </c>
-      <c r="F7" s="146" t="s">
         <v>268</v>
       </c>
-      <c r="G7" s="145" t="s">
-        <v>269</v>
-      </c>
-      <c r="H7" s="145" t="s">
-        <v>185</v>
-      </c>
-      <c r="J7" s="211"/>
+      <c r="F7" s="201" t="s">
+        <v>265</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="H7" s="139" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="209"/>
       <c r="K7" s="52"/>
       <c r="L7" s="145"/>
       <c r="M7" s="48"/>
@@ -7096,24 +6861,24 @@
       <c r="P7" s="22"/>
     </row>
     <row r="8" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B8" s="212"/>
+      <c r="B8" s="210"/>
       <c r="C8" s="177"/>
       <c r="D8" s="24" t="s">
-        <v>81</v>
+        <v>267</v>
       </c>
       <c r="E8" s="127" t="s">
+        <v>273</v>
+      </c>
+      <c r="F8" s="201" t="s">
+        <v>269</v>
+      </c>
+      <c r="G8" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="F8" s="145" t="s">
+      <c r="H8" s="145" t="s">
         <v>271</v>
       </c>
-      <c r="G8" s="145" t="s">
-        <v>272</v>
-      </c>
-      <c r="H8" s="145" t="s">
-        <v>276</v>
-      </c>
-      <c r="J8" s="211"/>
+      <c r="J8" s="209"/>
       <c r="K8" s="52"/>
       <c r="L8" s="145"/>
       <c r="M8" s="48"/>
@@ -7122,24 +6887,24 @@
       <c r="P8" s="22"/>
     </row>
     <row r="9" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B9" s="212"/>
+      <c r="B9" s="210"/>
       <c r="C9" s="177"/>
-      <c r="D9" s="109" t="s">
-        <v>228</v>
+      <c r="D9" s="145" t="s">
+        <v>272</v>
       </c>
       <c r="E9" s="127" t="s">
-        <v>273</v>
-      </c>
-      <c r="F9" s="145" t="s">
+        <v>276</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="G9" s="145" t="s">
         <v>274</v>
       </c>
-      <c r="G9" s="145" t="s">
+      <c r="H9" s="145" t="s">
         <v>275</v>
       </c>
-      <c r="H9" s="145" t="s">
-        <v>149</v>
-      </c>
-      <c r="J9" s="211"/>
+      <c r="J9" s="209"/>
       <c r="K9" s="52"/>
       <c r="L9" s="145"/>
       <c r="M9" s="48"/>
@@ -7148,24 +6913,24 @@
       <c r="P9" s="22"/>
     </row>
     <row r="10" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B10" s="212"/>
+      <c r="B10" s="210"/>
       <c r="C10" s="177"/>
-      <c r="D10" s="109" t="s">
-        <v>280</v>
+      <c r="D10" s="145" t="s">
+        <v>153</v>
       </c>
       <c r="E10" s="127" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="146" t="s">
         <v>277</v>
       </c>
-      <c r="F10" s="145" t="s">
-        <v>278</v>
-      </c>
       <c r="G10" s="145" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="145" t="s">
         <v>153</v>
       </c>
-      <c r="H10" s="145" t="s">
-        <v>280</v>
-      </c>
-      <c r="J10" s="211"/>
+      <c r="J10" s="209"/>
       <c r="K10" s="52"/>
       <c r="L10" s="145"/>
       <c r="M10" s="48"/>
@@ -7174,9 +6939,9 @@
       <c r="P10" s="22"/>
     </row>
     <row r="11" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B11" s="212"/>
+      <c r="B11" s="210"/>
       <c r="C11" s="177"/>
-      <c r="D11" s="109" t="s">
+      <c r="D11" s="145" t="s">
         <v>53</v>
       </c>
       <c r="E11" s="127" t="s">
@@ -7191,7 +6956,7 @@
       <c r="H11" s="145" t="s">
         <v>53</v>
       </c>
-      <c r="J11" s="211"/>
+      <c r="J11" s="209"/>
       <c r="K11" s="52"/>
       <c r="L11" s="48"/>
       <c r="M11" s="48"/>
@@ -7200,24 +6965,24 @@
       <c r="P11" s="26"/>
     </row>
     <row r="12" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B12" s="212"/>
+      <c r="B12" s="210"/>
       <c r="C12" s="28"/>
       <c r="D12" s="143">
-        <v>1316</v>
+        <v>1103</v>
       </c>
       <c r="E12" s="130">
-        <v>1286</v>
+        <v>1120</v>
       </c>
       <c r="F12" s="143">
-        <v>980</v>
+        <v>1260</v>
       </c>
       <c r="G12" s="143">
-        <v>1135</v>
+        <v>1181</v>
       </c>
       <c r="H12" s="143">
-        <v>1114</v>
-      </c>
-      <c r="J12" s="211"/>
+        <v>1238</v>
+      </c>
+      <c r="J12" s="209"/>
       <c r="K12" s="24"/>
       <c r="L12" s="48"/>
       <c r="M12" s="52"/>
@@ -7228,339 +6993,333 @@
       <c r="R12" s="22"/>
     </row>
     <row r="13" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B13" s="212"/>
+      <c r="B13" s="210"/>
       <c r="C13" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="153" t="s">
-        <v>290</v>
+      <c r="D13" s="205" t="s">
+        <v>278</v>
       </c>
       <c r="E13" s="126" t="s">
-        <v>281</v>
-      </c>
-      <c r="F13" s="153" t="s">
-        <v>334</v>
-      </c>
-      <c r="G13" s="207" t="s">
-        <v>282</v>
-      </c>
-      <c r="H13" s="21"/>
-      <c r="J13" s="211"/>
+        <v>318</v>
+      </c>
+      <c r="F13" s="158" t="s">
+        <v>279</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="H13" s="153"/>
+      <c r="J13" s="209"/>
       <c r="K13" s="21"/>
       <c r="L13" s="52"/>
       <c r="M13" s="22"/>
     </row>
     <row r="14" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B14" s="212"/>
+      <c r="B14" s="210"/>
       <c r="C14" s="23" t="s">
         <v>223</v>
       </c>
       <c r="D14" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="E14" s="127" t="s">
+        <v>282</v>
+      </c>
+      <c r="F14" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="E14" s="127" t="s">
-        <v>291</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>335</v>
-      </c>
-      <c r="G14" s="139" t="s">
+      <c r="G14" s="24" t="s">
         <v>284</v>
       </c>
-      <c r="H14" s="198"/>
-      <c r="J14" s="211"/>
+      <c r="H14" s="145"/>
+      <c r="J14" s="209"/>
       <c r="K14" s="24"/>
       <c r="M14" s="29"/>
     </row>
     <row r="15" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B15" s="212"/>
+      <c r="B15" s="210"/>
       <c r="C15" s="177"/>
-      <c r="D15" s="145" t="s">
+      <c r="D15" s="139" t="s">
         <v>285</v>
       </c>
       <c r="E15" s="127" t="s">
         <v>286</v>
       </c>
-      <c r="F15" s="145" t="s">
-        <v>336</v>
-      </c>
-      <c r="G15" s="145" t="s">
+      <c r="F15" s="146" t="s">
         <v>287</v>
       </c>
-      <c r="H15" s="198"/>
-      <c r="J15" s="211"/>
+      <c r="G15" s="146" t="s">
+        <v>287</v>
+      </c>
+      <c r="H15" s="24"/>
+      <c r="J15" s="209"/>
       <c r="K15" s="24"/>
       <c r="M15" s="22"/>
     </row>
     <row r="16" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B16" s="212"/>
+      <c r="B16" s="210"/>
       <c r="C16" s="177"/>
-      <c r="D16" s="24" t="s">
-        <v>288</v>
+      <c r="D16" s="139" t="s">
+        <v>194</v>
       </c>
       <c r="E16" s="127" t="s">
-        <v>273</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>337</v>
-      </c>
-      <c r="G16" s="145" t="s">
-        <v>289</v>
-      </c>
-      <c r="H16" s="198"/>
-      <c r="J16" s="211"/>
+        <v>287</v>
+      </c>
+      <c r="F16" s="146" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="146" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="145"/>
+      <c r="J16" s="209"/>
       <c r="K16" s="24"/>
       <c r="M16" s="22"/>
     </row>
-    <row r="17" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B17" s="212"/>
+    <row r="17" spans="2:18" s="17" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B17" s="210"/>
       <c r="C17" s="177"/>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="139" t="s">
         <v>53</v>
       </c>
       <c r="E17" s="127" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="G17" s="145" t="s">
-        <v>228</v>
-      </c>
-      <c r="H17" s="198"/>
-      <c r="J17" s="211"/>
+      <c r="F17" s="146"/>
+      <c r="G17" s="146"/>
+      <c r="H17" s="145"/>
+      <c r="J17" s="209"/>
       <c r="K17" s="24"/>
       <c r="M17" s="22"/>
     </row>
-    <row r="18" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A18" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="212"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="139"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="139" t="s">
-        <v>338</v>
-      </c>
-      <c r="G18" s="145" t="s">
-        <v>53</v>
-      </c>
-      <c r="H18" s="145"/>
-      <c r="J18" s="211"/>
-      <c r="K18" s="24"/>
-      <c r="M18" s="22"/>
-    </row>
-    <row r="19" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B19" s="212"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="143">
-        <v>827</v>
-      </c>
-      <c r="E19" s="130">
-        <v>1255</v>
-      </c>
-      <c r="F19" s="143">
-        <v>1104</v>
-      </c>
-      <c r="G19" s="143">
-        <v>1168</v>
-      </c>
-      <c r="H19" s="187"/>
-      <c r="J19" s="211"/>
-      <c r="K19" s="85"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="17"/>
-    </row>
-    <row r="20" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B20" s="212"/>
-      <c r="C20" s="20" t="s">
+    <row r="18" spans="2:18" s="27" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B18" s="210"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="143">
+        <v>975</v>
+      </c>
+      <c r="E18" s="130">
+        <v>881</v>
+      </c>
+      <c r="F18" s="143">
+        <v>1111</v>
+      </c>
+      <c r="G18" s="143">
+        <v>795</v>
+      </c>
+      <c r="H18" s="187"/>
+      <c r="J18" s="209"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="17"/>
+    </row>
+    <row r="19" spans="2:18" s="17" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B19" s="210"/>
+      <c r="C19" s="20" t="s">
         <v>47</v>
       </c>
+      <c r="D19" s="158" t="s">
+        <v>288</v>
+      </c>
+      <c r="E19" s="126" t="s">
+        <v>289</v>
+      </c>
+      <c r="F19" s="158" t="s">
+        <v>288</v>
+      </c>
+      <c r="G19" s="158" t="s">
+        <v>288</v>
+      </c>
+      <c r="H19" s="153"/>
+      <c r="J19" s="209"/>
+      <c r="K19" s="24"/>
+      <c r="M19" s="22"/>
+    </row>
+    <row r="20" spans="2:18" s="17" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B20" s="210"/>
+      <c r="C20" s="23" t="s">
+        <v>224</v>
+      </c>
       <c r="D20" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="E20" s="126" t="s">
-        <v>293</v>
-      </c>
-      <c r="F20" s="158" t="s">
-        <v>294</v>
-      </c>
-      <c r="G20" s="188" t="s">
-        <v>295</v>
-      </c>
-      <c r="H20" s="153"/>
-      <c r="J20" s="211"/>
+        <v>324</v>
+      </c>
+      <c r="E20" s="127" t="s">
+        <v>317</v>
+      </c>
+      <c r="F20" s="199" t="s">
+        <v>290</v>
+      </c>
+      <c r="G20" s="199" t="s">
+        <v>291</v>
+      </c>
+      <c r="H20" s="145"/>
+      <c r="J20" s="209"/>
       <c r="K20" s="24"/>
       <c r="M20" s="22"/>
-    </row>
-    <row r="21" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B21" s="212"/>
-      <c r="C21" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>296</v>
-      </c>
-      <c r="E21" s="129" t="s">
-        <v>297</v>
-      </c>
-      <c r="F21" s="153" t="s">
-        <v>298</v>
-      </c>
-      <c r="G21" s="206" t="s">
-        <v>299</v>
+      <c r="N20" s="33"/>
+    </row>
+    <row r="21" spans="2:18" s="17" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B21" s="210"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="139" t="s">
+        <v>323</v>
+      </c>
+      <c r="E21" s="127" t="s">
+        <v>293</v>
+      </c>
+      <c r="F21" s="146" t="s">
+        <v>294</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>266</v>
       </c>
       <c r="H21" s="145"/>
-      <c r="J21" s="211"/>
-      <c r="K21" s="24"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="33"/>
-    </row>
-    <row r="22" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B22" s="212"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="109" t="s">
-        <v>167</v>
-      </c>
-      <c r="E22" s="129" t="s">
-        <v>273</v>
-      </c>
-      <c r="F22" s="199" t="s">
-        <v>300</v>
-      </c>
-      <c r="G22" s="139" t="s">
-        <v>297</v>
+      <c r="J21" s="209"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="33"/>
+      <c r="N21" s="27"/>
+    </row>
+    <row r="22" spans="2:18" s="17" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B22" s="210"/>
+      <c r="C22" s="177"/>
+      <c r="D22" s="139" t="s">
+        <v>292</v>
+      </c>
+      <c r="E22" s="127" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="146" t="s">
+        <v>342</v>
+      </c>
+      <c r="G22" s="146" t="s">
+        <v>332</v>
       </c>
       <c r="H22" s="145"/>
-      <c r="J22" s="211"/>
+      <c r="J22" s="209"/>
       <c r="K22" s="16"/>
-      <c r="L22" s="33"/>
-      <c r="N22" s="27"/>
-    </row>
-    <row r="23" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B23" s="212"/>
+      <c r="L22" s="139"/>
+      <c r="N22" s="45"/>
+    </row>
+    <row r="23" spans="2:18" s="17" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B23" s="210"/>
       <c r="C23" s="177"/>
-      <c r="D23" s="109" t="s">
-        <v>301</v>
-      </c>
-      <c r="E23" s="129" t="s">
-        <v>53</v>
-      </c>
-      <c r="F23" s="139" t="s">
-        <v>302</v>
-      </c>
-      <c r="G23" s="139" t="s">
-        <v>273</v>
+      <c r="D23" s="202" t="s">
+        <v>295</v>
+      </c>
+      <c r="E23" s="127"/>
+      <c r="F23" s="202" t="s">
+        <v>343</v>
+      </c>
+      <c r="G23" s="202" t="s">
+        <v>251</v>
       </c>
       <c r="H23" s="145"/>
-      <c r="J23" s="211"/>
+      <c r="J23" s="209"/>
       <c r="K23" s="16"/>
       <c r="L23" s="139"/>
-      <c r="N23" s="45"/>
-    </row>
-    <row r="24" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B24" s="212"/>
+      <c r="N23" s="41"/>
+    </row>
+    <row r="24" spans="2:18" s="17" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B24" s="210"/>
       <c r="C24" s="177"/>
-      <c r="D24" s="109" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="129"/>
-      <c r="F24" s="197" t="s">
-        <v>149</v>
-      </c>
-      <c r="G24" s="197" t="s">
+      <c r="D24" s="146" t="s">
         <v>53</v>
       </c>
+      <c r="E24" s="127"/>
+      <c r="F24" s="202" t="s">
+        <v>251</v>
+      </c>
+      <c r="G24" s="202" t="s">
+        <v>316</v>
+      </c>
       <c r="H24" s="145"/>
-      <c r="J24" s="211"/>
-      <c r="K24" s="16"/>
+      <c r="J24" s="209"/>
+      <c r="K24" s="52"/>
       <c r="L24" s="139"/>
-      <c r="N24" s="41"/>
-    </row>
-    <row r="25" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B25" s="212"/>
-      <c r="C25" s="177"/>
-      <c r="D25" s="109" t="s">
-        <v>53</v>
-      </c>
+      <c r="N24" s="16"/>
+    </row>
+    <row r="25" spans="2:18" s="17" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B25" s="210"/>
+      <c r="C25" s="203"/>
+      <c r="D25" s="146"/>
       <c r="E25" s="127"/>
-      <c r="F25" s="146" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" s="197"/>
+      <c r="F25" s="202" t="s">
+        <v>344</v>
+      </c>
+      <c r="G25" s="202"/>
       <c r="H25" s="145"/>
-      <c r="J25" s="211"/>
+      <c r="J25" s="209"/>
       <c r="K25" s="52"/>
       <c r="L25" s="139"/>
       <c r="N25" s="16"/>
     </row>
-    <row r="26" spans="1:18" s="33" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B26" s="212"/>
+    <row r="26" spans="2:18" s="33" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B26" s="210"/>
       <c r="C26" s="28"/>
       <c r="D26" s="139">
-        <v>1008</v>
+        <v>1143</v>
       </c>
       <c r="E26" s="130">
-        <v>1301</v>
+        <v>1151</v>
       </c>
       <c r="F26" s="139">
-        <v>851</v>
+        <v>1139</v>
       </c>
       <c r="G26" s="139">
-        <v>1332</v>
+        <v>783</v>
       </c>
       <c r="H26" s="143"/>
-      <c r="J26" s="211"/>
+      <c r="J26" s="209"/>
       <c r="K26" s="66"/>
       <c r="L26" s="139"/>
       <c r="N26" s="48"/>
     </row>
-    <row r="27" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B27" s="212"/>
-      <c r="C27" s="220" t="s">
+    <row r="27" spans="2:18" s="27" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B27" s="210"/>
+      <c r="C27" s="218" t="s">
         <v>46</v>
       </c>
       <c r="D27" s="138" t="s">
         <v>55</v>
       </c>
       <c r="E27" s="145" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F27" s="138" t="s">
         <v>55</v>
       </c>
       <c r="G27" s="138" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="H27" s="138" t="s">
         <v>55</v>
       </c>
-      <c r="J27" s="211"/>
+      <c r="J27" s="209"/>
       <c r="K27" s="16"/>
       <c r="L27" s="26"/>
       <c r="N27" s="48"/>
     </row>
-    <row r="28" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B28" s="212"/>
-      <c r="C28" s="223"/>
+    <row r="28" spans="2:18" s="27" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B28" s="210"/>
+      <c r="C28" s="221"/>
       <c r="D28" s="102" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="E28" s="102" t="s">
-        <v>304</v>
+        <v>333</v>
       </c>
       <c r="F28" s="102" t="s">
-        <v>311</v>
+        <v>339</v>
       </c>
       <c r="G28" s="102" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="H28" s="102" t="s">
-        <v>306</v>
-      </c>
-      <c r="J28" s="211"/>
+        <v>341</v>
+      </c>
+      <c r="J28" s="209"/>
       <c r="K28" s="16"/>
       <c r="L28" s="66"/>
       <c r="M28" s="41"/>
@@ -7569,23 +7328,23 @@
       <c r="P28" s="45"/>
       <c r="Q28" s="26"/>
     </row>
-    <row r="29" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B29" s="212"/>
-      <c r="C29" s="224"/>
+    <row r="29" spans="2:18" s="27" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B29" s="210"/>
+      <c r="C29" s="222"/>
       <c r="D29" s="151" t="s">
-        <v>307</v>
-      </c>
-      <c r="E29" s="143"/>
+        <v>334</v>
+      </c>
+      <c r="E29" s="151"/>
       <c r="F29" s="151" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
       <c r="G29" s="152" t="s">
-        <v>309</v>
+        <v>336</v>
       </c>
       <c r="H29" s="152" t="s">
-        <v>310</v>
-      </c>
-      <c r="J29" s="211"/>
+        <v>337</v>
+      </c>
+      <c r="J29" s="209"/>
       <c r="K29" s="109"/>
       <c r="L29" s="16"/>
       <c r="M29" s="66"/>
@@ -7595,27 +7354,27 @@
       <c r="Q29" s="45"/>
       <c r="R29" s="26"/>
     </row>
-    <row r="30" spans="1:18" s="44" customFormat="1" ht="30.75" customHeight="1">
-      <c r="B30" s="212"/>
+    <row r="30" spans="2:18" s="44" customFormat="1" ht="30.75" customHeight="1">
+      <c r="B30" s="210"/>
       <c r="C30" s="175" t="s">
         <v>211</v>
       </c>
       <c r="D30" s="145" t="s">
+        <v>232</v>
+      </c>
+      <c r="E30" s="145" t="s">
+        <v>233</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="H30" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="E30" s="145" t="s">
-        <v>237</v>
-      </c>
-      <c r="F30" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="G30" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="H30" s="24" t="s">
-        <v>344</v>
-      </c>
-      <c r="J30" s="215" t="s">
+      <c r="J30" s="213" t="s">
         <v>17</v>
       </c>
       <c r="K30" s="16"/>
@@ -7627,25 +7386,25 @@
       <c r="Q30" s="48"/>
       <c r="R30" s="32"/>
     </row>
-    <row r="31" spans="1:18" s="47" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B31" s="212"/>
+    <row r="31" spans="2:18" s="47" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B31" s="210"/>
       <c r="C31" s="86"/>
       <c r="D31" s="143">
-        <v>654</v>
+        <v>674</v>
       </c>
       <c r="E31" s="143">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="F31" s="143">
-        <v>748</v>
-      </c>
-      <c r="G31" s="194">
-        <v>764</v>
+        <v>698</v>
+      </c>
+      <c r="G31" s="192">
+        <v>712</v>
       </c>
       <c r="H31" s="143">
-        <v>638</v>
-      </c>
-      <c r="J31" s="216"/>
+        <v>769</v>
+      </c>
+      <c r="J31" s="214"/>
       <c r="K31" s="52"/>
       <c r="L31" s="16"/>
       <c r="M31" s="16"/>
@@ -7654,25 +7413,25 @@
       <c r="P31" s="48"/>
       <c r="Q31" s="32"/>
     </row>
-    <row r="32" spans="1:18" s="47" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B32" s="212"/>
+    <row r="32" spans="2:18" s="47" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B32" s="210"/>
       <c r="C32" s="175" t="s">
         <v>219</v>
       </c>
       <c r="D32" s="159" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E32" s="159" t="s">
         <v>242</v>
       </c>
-      <c r="F32" s="200" t="s">
-        <v>241</v>
-      </c>
-      <c r="G32" s="201" t="s">
+      <c r="F32" s="159" t="s">
+        <v>244</v>
+      </c>
+      <c r="G32" s="159" t="s">
         <v>243</v>
       </c>
       <c r="H32" s="154"/>
-      <c r="J32" s="216"/>
+      <c r="J32" s="214"/>
       <c r="K32" s="52"/>
       <c r="L32" s="16"/>
       <c r="M32" s="16"/>
@@ -7682,22 +7441,22 @@
       <c r="Q32" s="59"/>
     </row>
     <row r="33" spans="1:18" s="47" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B33" s="212"/>
+      <c r="B33" s="210"/>
       <c r="C33" s="144"/>
       <c r="D33" s="143">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="E33" s="143">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="F33" s="143">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="G33" s="143">
         <v>460</v>
       </c>
       <c r="H33" s="155"/>
-      <c r="J33" s="216"/>
+      <c r="J33" s="214"/>
       <c r="K33" s="52"/>
       <c r="L33" s="52"/>
       <c r="M33" s="52"/>
@@ -7707,21 +7466,21 @@
       <c r="Q33" s="22"/>
     </row>
     <row r="34" spans="1:18" s="47" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B34" s="212"/>
+      <c r="B34" s="210"/>
       <c r="C34" s="140" t="s">
         <v>218</v>
       </c>
       <c r="D34" s="147" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E34" s="147" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F34" s="147" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G34" s="147" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="H34" s="147"/>
       <c r="J34" s="17"/>
@@ -7734,19 +7493,19 @@
       <c r="Q34" s="22"/>
     </row>
     <row r="35" spans="1:18" s="47" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B35" s="212"/>
+      <c r="B35" s="210"/>
       <c r="C35" s="91"/>
       <c r="D35" s="139">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="E35" s="139">
-        <v>634</v>
+        <v>576</v>
       </c>
       <c r="F35" s="139">
-        <v>669</v>
+        <v>528</v>
       </c>
       <c r="G35" s="139">
-        <v>647</v>
+        <v>553</v>
       </c>
       <c r="H35" s="156"/>
       <c r="J35" s="17"/>
@@ -7761,8 +7520,8 @@
     <row r="36" spans="1:18" s="47" customFormat="1" ht="9" customHeight="1" thickBot="1">
       <c r="B36" s="49"/>
       <c r="C36" s="92"/>
-      <c r="D36" s="189"/>
-      <c r="E36" s="189"/>
+      <c r="D36" s="188"/>
+      <c r="E36" s="188"/>
       <c r="F36" s="99"/>
       <c r="G36" s="99"/>
       <c r="H36" s="157"/>
@@ -7776,28 +7535,28 @@
       <c r="Q36" s="22"/>
     </row>
     <row r="37" spans="1:18" s="17" customFormat="1" ht="26.1" customHeight="1" thickTop="1">
-      <c r="B37" s="217" t="s">
+      <c r="B37" s="215" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="153" t="s">
-        <v>313</v>
+      <c r="D37" s="21" t="s">
+        <v>298</v>
       </c>
       <c r="E37" s="153" t="s">
-        <v>314</v>
-      </c>
-      <c r="F37" s="153" t="s">
-        <v>315</v>
-      </c>
-      <c r="G37" s="153" t="s">
-        <v>316</v>
-      </c>
-      <c r="H37" s="153" t="s">
-        <v>317</v>
-      </c>
-      <c r="J37" s="219" t="s">
+        <v>299</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="H37" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="J37" s="217" t="s">
         <v>12</v>
       </c>
       <c r="K37" s="52"/>
@@ -7813,24 +7572,24 @@
       <c r="A38" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="212"/>
+      <c r="B38" s="210"/>
       <c r="C38" s="23"/>
       <c r="D38" s="145" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="E38" s="145" t="s">
-        <v>319</v>
-      </c>
-      <c r="F38" s="145" t="s">
-        <v>320</v>
+        <v>248</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>252</v>
       </c>
       <c r="G38" s="145" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="H38" s="145" t="s">
-        <v>320</v>
-      </c>
-      <c r="J38" s="219"/>
+        <v>305</v>
+      </c>
+      <c r="J38" s="217"/>
       <c r="K38" s="66"/>
       <c r="L38" s="16"/>
       <c r="M38" s="52"/>
@@ -7841,24 +7600,24 @@
       <c r="R38" s="22"/>
     </row>
     <row r="39" spans="1:18" s="17" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B39" s="212"/>
+      <c r="B39" s="210"/>
       <c r="C39" s="176"/>
-      <c r="D39" s="109" t="s">
-        <v>322</v>
+      <c r="D39" s="145" t="s">
+        <v>256</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="F39" s="145" t="s">
-        <v>324</v>
-      </c>
-      <c r="G39" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="G39" s="109" t="s">
+        <v>308</v>
+      </c>
+      <c r="H39" s="109" t="s">
         <v>325</v>
       </c>
-      <c r="H39" s="145" t="s">
-        <v>326</v>
-      </c>
-      <c r="J39" s="219"/>
+      <c r="J39" s="217"/>
       <c r="K39" s="66"/>
       <c r="L39" s="30"/>
       <c r="M39" s="52"/>
@@ -7869,24 +7628,24 @@
       <c r="R39" s="22"/>
     </row>
     <row r="40" spans="1:18" s="17" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B40" s="212"/>
+      <c r="B40" s="210"/>
       <c r="C40" s="176"/>
       <c r="D40" s="109" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="F40" s="145" t="s">
-        <v>329</v>
-      </c>
-      <c r="G40" s="145" t="s">
-        <v>330</v>
+        <v>311</v>
+      </c>
+      <c r="G40" s="109" t="s">
+        <v>312</v>
       </c>
       <c r="H40" s="109" t="s">
-        <v>331</v>
-      </c>
-      <c r="J40" s="219"/>
+        <v>313</v>
+      </c>
+      <c r="J40" s="217"/>
       <c r="K40" s="30"/>
       <c r="L40" s="8"/>
       <c r="M40" s="66"/>
@@ -7897,24 +7656,24 @@
       <c r="R40" s="26"/>
     </row>
     <row r="41" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B41" s="212"/>
+      <c r="B41" s="210"/>
       <c r="C41" s="176"/>
       <c r="D41" s="109" t="s">
-        <v>228</v>
+        <v>314</v>
       </c>
       <c r="E41" s="146" t="s">
         <v>149</v>
       </c>
-      <c r="F41" s="109" t="s">
-        <v>228</v>
-      </c>
-      <c r="G41" s="145" t="s">
-        <v>228</v>
+      <c r="F41" s="145" t="s">
+        <v>251</v>
+      </c>
+      <c r="G41" s="146" t="s">
+        <v>315</v>
       </c>
       <c r="H41" s="146" t="s">
-        <v>149</v>
-      </c>
-      <c r="J41" s="219"/>
+        <v>251</v>
+      </c>
+      <c r="J41" s="217"/>
       <c r="K41" s="52"/>
       <c r="L41" s="8"/>
       <c r="M41" s="66"/>
@@ -7925,18 +7684,22 @@
       <c r="R41" s="26"/>
     </row>
     <row r="42" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B42" s="212"/>
+      <c r="B42" s="210"/>
       <c r="C42" s="176"/>
-      <c r="D42" s="109"/>
+      <c r="D42" s="109" t="s">
+        <v>251</v>
+      </c>
       <c r="E42" s="145"/>
-      <c r="F42" s="145"/>
+      <c r="F42" s="145" t="s">
+        <v>277</v>
+      </c>
       <c r="G42" s="145" t="s">
-        <v>332</v>
+        <v>277</v>
       </c>
       <c r="H42" s="145" t="s">
-        <v>332</v>
-      </c>
-      <c r="J42" s="219"/>
+        <v>277</v>
+      </c>
+      <c r="J42" s="217"/>
       <c r="K42" s="52"/>
       <c r="L42" s="8"/>
       <c r="M42" s="30"/>
@@ -7947,24 +7710,24 @@
       <c r="R42" s="26"/>
     </row>
     <row r="43" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B43" s="212"/>
+      <c r="B43" s="210"/>
       <c r="C43" s="86"/>
       <c r="D43" s="143">
-        <v>1119</v>
+        <v>1248</v>
       </c>
       <c r="E43" s="143">
-        <v>1021</v>
+        <v>1051</v>
       </c>
       <c r="F43" s="143">
-        <v>1317</v>
+        <v>1332</v>
       </c>
       <c r="G43" s="143">
-        <v>1232</v>
+        <v>1125</v>
       </c>
       <c r="H43" s="143">
-        <v>1083</v>
-      </c>
-      <c r="J43" s="219"/>
+        <v>1027</v>
+      </c>
+      <c r="J43" s="217"/>
       <c r="K43" s="52"/>
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
@@ -7972,24 +7735,24 @@
       <c r="R43" s="22"/>
     </row>
     <row r="44" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B44" s="212"/>
+      <c r="B44" s="210"/>
       <c r="C44" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D44" s="202" t="s">
-        <v>250</v>
-      </c>
-      <c r="E44" s="202" t="s">
+      <c r="D44" s="194" t="s">
         <v>253</v>
       </c>
-      <c r="F44" s="153" t="s">
-        <v>340</v>
-      </c>
-      <c r="G44" s="202" t="s">
-        <v>248</v>
-      </c>
-      <c r="H44" s="153"/>
-      <c r="J44" s="219"/>
+      <c r="E44" s="194" t="s">
+        <v>246</v>
+      </c>
+      <c r="F44" s="200" t="s">
+        <v>254</v>
+      </c>
+      <c r="G44" s="198" t="s">
+        <v>319</v>
+      </c>
+      <c r="H44" s="66"/>
+      <c r="J44" s="217"/>
       <c r="K44" s="66"/>
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
@@ -7997,22 +7760,22 @@
       <c r="R44" s="22"/>
     </row>
     <row r="45" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B45" s="212"/>
+      <c r="B45" s="210"/>
       <c r="C45" s="23"/>
-      <c r="D45" s="203" t="s">
-        <v>251</v>
-      </c>
-      <c r="E45" s="203" t="s">
-        <v>254</v>
-      </c>
-      <c r="F45" s="203" t="s">
-        <v>341</v>
-      </c>
-      <c r="G45" s="203" t="s">
+      <c r="D45" s="195" t="s">
+        <v>326</v>
+      </c>
+      <c r="E45" s="195" t="s">
         <v>249</v>
       </c>
-      <c r="H45" s="196"/>
-      <c r="J45" s="219"/>
+      <c r="F45" s="195" t="s">
+        <v>330</v>
+      </c>
+      <c r="G45" s="204" t="s">
+        <v>320</v>
+      </c>
+      <c r="H45" s="66"/>
+      <c r="J45" s="217"/>
       <c r="K45" s="66"/>
       <c r="L45" s="21"/>
       <c r="M45" s="8"/>
@@ -8020,22 +7783,22 @@
       <c r="R45" s="22"/>
     </row>
     <row r="46" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B46" s="212"/>
+      <c r="B46" s="210"/>
       <c r="C46" s="20"/>
-      <c r="D46" s="204" t="s">
-        <v>226</v>
-      </c>
-      <c r="E46" s="204" t="s">
-        <v>226</v>
-      </c>
-      <c r="F46" s="204" t="s">
-        <v>226</v>
-      </c>
-      <c r="G46" s="204" t="s">
-        <v>226</v>
-      </c>
-      <c r="H46" s="192"/>
-      <c r="J46" s="219"/>
+      <c r="D46" s="195" t="s">
+        <v>255</v>
+      </c>
+      <c r="E46" s="196" t="s">
+        <v>245</v>
+      </c>
+      <c r="F46" s="196" t="s">
+        <v>245</v>
+      </c>
+      <c r="G46" s="198" t="s">
+        <v>245</v>
+      </c>
+      <c r="H46" s="30"/>
+      <c r="J46" s="217"/>
       <c r="K46" s="30"/>
       <c r="L46" s="24"/>
       <c r="M46" s="8"/>
@@ -8043,22 +7806,22 @@
       <c r="R46" s="22"/>
     </row>
     <row r="47" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B47" s="212"/>
+      <c r="B47" s="210"/>
       <c r="C47" s="20"/>
-      <c r="D47" s="205" t="s">
-        <v>227</v>
-      </c>
-      <c r="E47" s="205" t="s">
-        <v>255</v>
-      </c>
-      <c r="F47" s="205" t="s">
-        <v>342</v>
-      </c>
-      <c r="G47" s="205" t="s">
-        <v>333</v>
-      </c>
-      <c r="H47" s="196"/>
-      <c r="J47" s="219"/>
+      <c r="D47" s="196" t="s">
+        <v>245</v>
+      </c>
+      <c r="E47" s="197" t="s">
+        <v>250</v>
+      </c>
+      <c r="F47" s="197" t="s">
+        <v>328</v>
+      </c>
+      <c r="G47" s="204" t="s">
+        <v>331</v>
+      </c>
+      <c r="H47" s="8"/>
+      <c r="J47" s="217"/>
       <c r="K47" s="8"/>
       <c r="L47" s="24"/>
       <c r="M47" s="8"/>
@@ -8066,22 +7829,22 @@
       <c r="R47" s="22"/>
     </row>
     <row r="48" spans="1:18" s="51" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B48" s="212"/>
+      <c r="B48" s="210"/>
       <c r="C48" s="20"/>
-      <c r="D48" s="205" t="s">
-        <v>256</v>
-      </c>
-      <c r="E48" s="205" t="s">
-        <v>256</v>
-      </c>
-      <c r="F48" s="205" t="s">
-        <v>256</v>
-      </c>
-      <c r="G48" s="205" t="s">
-        <v>252</v>
-      </c>
-      <c r="H48" s="196"/>
-      <c r="J48" s="219"/>
+      <c r="D48" s="197" t="s">
+        <v>327</v>
+      </c>
+      <c r="E48" s="197" t="s">
+        <v>247</v>
+      </c>
+      <c r="F48" s="197" t="s">
+        <v>329</v>
+      </c>
+      <c r="G48" s="195" t="s">
+        <v>328</v>
+      </c>
+      <c r="H48" s="8"/>
+      <c r="J48" s="217"/>
       <c r="K48" s="8"/>
       <c r="L48" s="24"/>
       <c r="M48" s="8"/>
@@ -8092,22 +7855,21 @@
       <c r="R48" s="22"/>
     </row>
     <row r="49" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B49" s="212"/>
+      <c r="B49" s="210"/>
       <c r="C49" s="20"/>
-      <c r="D49" s="193" t="s">
-        <v>339</v>
-      </c>
-      <c r="E49" s="193" t="s">
-        <v>260</v>
-      </c>
-      <c r="F49" s="193" t="s">
-        <v>343</v>
-      </c>
-      <c r="G49" s="193" t="s">
-        <v>261</v>
-      </c>
-      <c r="H49" s="193"/>
-      <c r="J49" s="219"/>
+      <c r="D49" s="191" t="s">
+        <v>258</v>
+      </c>
+      <c r="E49" s="191" t="s">
+        <v>296</v>
+      </c>
+      <c r="F49" s="191" t="s">
+        <v>257</v>
+      </c>
+      <c r="G49" s="139" t="s">
+        <v>321</v>
+      </c>
+      <c r="J49" s="217"/>
       <c r="K49" s="8"/>
       <c r="L49" s="24"/>
       <c r="M49" s="52"/>
@@ -8115,22 +7877,22 @@
       <c r="R49" s="22"/>
     </row>
     <row r="50" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B50" s="212"/>
+      <c r="B50" s="210"/>
       <c r="C50" s="20"/>
-      <c r="D50" s="193" t="s">
-        <v>228</v>
-      </c>
-      <c r="E50" s="193" t="s">
-        <v>229</v>
+      <c r="D50" s="191" t="s">
+        <v>315</v>
+      </c>
+      <c r="E50" s="191" t="s">
+        <v>149</v>
       </c>
       <c r="F50" s="145" t="s">
-        <v>228</v>
-      </c>
-      <c r="G50" s="193" t="s">
-        <v>149</v>
-      </c>
-      <c r="H50" s="145"/>
-      <c r="J50" s="219"/>
+        <v>251</v>
+      </c>
+      <c r="G50" s="139" t="s">
+        <v>251</v>
+      </c>
+      <c r="H50" s="191"/>
+      <c r="J50" s="217"/>
       <c r="K50" s="8"/>
       <c r="L50" s="24"/>
       <c r="M50" s="52"/>
@@ -8138,22 +7900,22 @@
       <c r="R50" s="22"/>
     </row>
     <row r="51" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B51" s="212"/>
+      <c r="B51" s="210"/>
       <c r="C51" s="20"/>
-      <c r="D51" s="193" t="s">
-        <v>258</v>
-      </c>
-      <c r="E51" s="139" t="s">
-        <v>262</v>
+      <c r="D51" s="191" t="s">
+        <v>256</v>
+      </c>
+      <c r="E51" s="191" t="s">
+        <v>248</v>
       </c>
       <c r="F51" s="145" t="s">
-        <v>259</v>
-      </c>
-      <c r="G51" s="193" t="s">
-        <v>257</v>
-      </c>
-      <c r="H51" s="145"/>
-      <c r="J51" s="219"/>
+        <v>155</v>
+      </c>
+      <c r="G51" s="191" t="s">
+        <v>322</v>
+      </c>
+      <c r="H51" s="191"/>
+      <c r="J51" s="217"/>
       <c r="K51" s="8"/>
       <c r="L51" s="30"/>
       <c r="M51" s="52"/>
@@ -8161,22 +7923,22 @@
       <c r="R51" s="22"/>
     </row>
     <row r="52" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B52" s="212"/>
+      <c r="B52" s="210"/>
       <c r="C52" s="110"/>
       <c r="D52" s="143">
-        <v>988</v>
+        <v>1001</v>
       </c>
       <c r="E52" s="143">
-        <v>1163</v>
+        <v>840</v>
       </c>
       <c r="F52" s="143">
-        <v>811</v>
+        <v>867</v>
       </c>
       <c r="G52" s="143">
-        <v>1250</v>
+        <v>942</v>
       </c>
       <c r="H52" s="143"/>
-      <c r="J52" s="219"/>
+      <c r="J52" s="217"/>
       <c r="K52" s="8"/>
       <c r="L52" s="30"/>
       <c r="M52" s="52"/>
@@ -8184,11 +7946,11 @@
       <c r="R52" s="22"/>
     </row>
     <row r="53" spans="2:18" ht="25.5" customHeight="1">
-      <c r="B53" s="212"/>
-      <c r="C53" s="220" t="s">
+      <c r="B53" s="210"/>
+      <c r="C53" s="218" t="s">
         <v>215</v>
       </c>
-      <c r="D53" s="190" t="s">
+      <c r="D53" s="189" t="s">
         <v>225</v>
       </c>
       <c r="E53" s="113" t="s">
@@ -8210,29 +7972,29 @@
       <c r="R53" s="22"/>
     </row>
     <row r="54" spans="2:18" s="57" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B54" s="218"/>
-      <c r="C54" s="221"/>
-      <c r="D54" s="191" t="str">
+      <c r="B54" s="216"/>
+      <c r="C54" s="219"/>
+      <c r="D54" s="190" t="str">
         <f>D29</f>
-        <v>오리엔탈D&amp;망고D</v>
+        <v>오리엔탈D&amp;요거트D</v>
       </c>
       <c r="E54" s="150" t="str">
         <f>E28</f>
-        <v>발사믹D&amp;참깨D</v>
+        <v>발사믹D&amp;자몽D</v>
       </c>
       <c r="F54" s="150" t="str">
         <f>F29</f>
-        <v>오리엔탈D&amp;블루베리D</v>
-      </c>
-      <c r="G54" s="195" t="str">
+        <v>오리엔탈D&amp;크리미양파D</v>
+      </c>
+      <c r="G54" s="193" t="str">
         <f>G29</f>
-        <v>발사믹D&amp;파인애플D</v>
-      </c>
-      <c r="H54" s="195" t="str">
+        <v>발사믹D&amp;딸기요거트D</v>
+      </c>
+      <c r="H54" s="193" t="str">
         <f>H29</f>
-        <v>오리엔탈D&amp;딸기D</v>
-      </c>
-      <c r="J54" s="222" t="s">
+        <v>오리엔탈D&amp;한라봉D</v>
+      </c>
+      <c r="J54" s="220" t="s">
         <v>1</v>
       </c>
       <c r="K54" s="52"/>
@@ -8252,7 +8014,7 @@
       <c r="F55" s="24"/>
       <c r="G55" s="24"/>
       <c r="H55" s="24"/>
-      <c r="J55" s="222"/>
+      <c r="J55" s="220"/>
       <c r="K55" s="59"/>
       <c r="L55" s="8"/>
       <c r="M55" s="52"/>
@@ -8297,7 +8059,7 @@
       <c r="E58" s="134"/>
       <c r="F58" s="135"/>
       <c r="G58" s="134"/>
-      <c r="H58" s="228"/>
+      <c r="H58" s="224"/>
       <c r="K58" s="52"/>
       <c r="L58" s="16"/>
       <c r="M58" s="52"/>
@@ -8307,7 +8069,7 @@
       <c r="E59" s="105"/>
       <c r="F59" s="136"/>
       <c r="G59" s="105"/>
-      <c r="H59" s="228"/>
+      <c r="H59" s="224"/>
       <c r="K59" s="25"/>
       <c r="L59" s="25"/>
       <c r="M59" s="52"/>
@@ -8611,17 +8373,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B6:B35"/>
-    <mergeCell ref="J37:J52"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="B37:B54"/>
-    <mergeCell ref="H58:H59"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="J5:J29"/>
     <mergeCell ref="C27:C29"/>
     <mergeCell ref="J30:J33"/>
     <mergeCell ref="C53:C54"/>
     <mergeCell ref="E3:E4"/>
+    <mergeCell ref="B6:B35"/>
+    <mergeCell ref="J37:J52"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="B37:B54"/>
+    <mergeCell ref="H58:H59"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -8642,7 +8404,7 @@
   <dimension ref="A1:V84"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="96" workbookViewId="0">
-      <selection activeCell="R45" sqref="R45"/>
+      <selection activeCell="R59" sqref="R59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" customHeight="1"/>
@@ -8750,915 +8512,931 @@
       <c r="B9" s="253" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="229" t="s">
+      <c r="C9" s="265" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="232" t="s">
+      <c r="D9" s="259" t="s">
         <v>216</v>
       </c>
       <c r="E9" s="87" t="str">
         <f>주간메뉴표!D6</f>
-        <v>[Fun!629]</v>
-      </c>
-      <c r="F9" s="79"/>
-      <c r="G9" s="235">
+        <v>놀부부대찌개*우동사리</v>
+      </c>
+      <c r="F9" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="G9" s="227">
         <f>주간메뉴표!D12</f>
-        <v>1316</v>
+        <v>1103</v>
       </c>
       <c r="H9" s="164" t="str">
         <f>주간메뉴표!E6</f>
-        <v>마라탕</v>
+        <v>(철판)미나리목(살)반삼(겹)반</v>
       </c>
       <c r="I9" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="J9" s="235">
+      <c r="J9" s="227">
         <f>주간메뉴표!E12</f>
-        <v>1286</v>
+        <v>1120</v>
       </c>
       <c r="K9" s="164" t="str">
         <f>주간메뉴표!F6</f>
-        <v>돈목살김치찌개</v>
+        <v>닭도리탕</v>
       </c>
       <c r="L9" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M9" s="235">
+      <c r="M9" s="227">
         <f>주간메뉴표!F12</f>
-        <v>980</v>
+        <v>1260</v>
       </c>
       <c r="N9" s="164" t="str">
         <f>주간메뉴표!G6</f>
-        <v>우삼겹순두부찌개</v>
+        <v>뚝배기돼지불고기</v>
       </c>
       <c r="O9" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P9" s="262">
+      <c r="P9" s="230">
         <f>주간메뉴표!G12</f>
-        <v>1135</v>
+        <v>1181</v>
       </c>
       <c r="Q9" s="173" t="str">
         <f>주간메뉴표!H6</f>
-        <v>시래기매운돼지갈비찜</v>
+        <v>우삼겹고추장찌개</v>
       </c>
       <c r="R9" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="S9" s="255">
+      <c r="S9" s="240">
         <f>주간메뉴표!H12</f>
-        <v>1114</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="10" spans="2:19" s="17" customFormat="1" ht="19.5" customHeight="1">
       <c r="B10" s="254"/>
-      <c r="C10" s="230"/>
-      <c r="D10" s="233"/>
+      <c r="C10" s="266"/>
+      <c r="D10" s="260"/>
       <c r="E10" s="88" t="str">
         <f>주간메뉴표!D7</f>
-        <v>일식철판돈가스</v>
+        <v>생선가스*타르타르s</v>
       </c>
       <c r="F10" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G10" s="236"/>
+      <c r="G10" s="228"/>
       <c r="H10" s="165" t="str">
         <f>주간메뉴표!E7</f>
-        <v>마장소스</v>
+        <v>*두부김치</v>
       </c>
       <c r="I10" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="J10" s="236"/>
+      <c r="J10" s="228"/>
       <c r="K10" s="165" t="str">
         <f>주간메뉴표!F7</f>
-        <v>생선가스</v>
+        <v>환어묵볶음</v>
       </c>
       <c r="L10" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M10" s="236"/>
+      <c r="M10" s="228"/>
       <c r="N10" s="165" t="str">
         <f>주간메뉴표!G7</f>
-        <v>너비아니엿장조림</v>
+        <v>얼갈이된장국</v>
       </c>
       <c r="O10" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P10" s="263"/>
+      <c r="P10" s="231"/>
       <c r="Q10" s="165" t="str">
         <f>주간메뉴표!H7</f>
-        <v>메추리알장조림</v>
+        <v>두부계란전</v>
       </c>
       <c r="R10" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="S10" s="256"/>
+      <c r="S10" s="246"/>
     </row>
     <row r="11" spans="2:19" s="17" customFormat="1" ht="19.5" customHeight="1">
       <c r="B11" s="254"/>
-      <c r="C11" s="230"/>
-      <c r="D11" s="233"/>
+      <c r="C11" s="266"/>
+      <c r="D11" s="260"/>
       <c r="E11" s="88" t="str">
         <f>주간메뉴표!D8</f>
-        <v>미소장국</v>
+        <v>잔멸치볶음</v>
       </c>
       <c r="F11" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G11" s="236"/>
+      <c r="G11" s="228"/>
       <c r="H11" s="165" t="str">
         <f>주간메뉴표!E8</f>
-        <v>연유꽃빵튀김</v>
+        <v>미역국</v>
       </c>
       <c r="I11" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="J11" s="236"/>
+        <v>346</v>
+      </c>
+      <c r="J11" s="228"/>
       <c r="K11" s="165" t="str">
         <f>주간메뉴표!F8</f>
-        <v>계란찜</v>
-      </c>
-      <c r="L11" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="M11" s="236"/>
+        <v>콩나물무침</v>
+      </c>
+      <c r="L11" s="79"/>
+      <c r="M11" s="228"/>
       <c r="N11" s="165" t="str">
         <f>주간메뉴표!G8</f>
-        <v>옥수수전</v>
+        <v>채소잡채</v>
       </c>
       <c r="O11" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P11" s="263"/>
+      <c r="P11" s="231"/>
       <c r="Q11" s="165" t="str">
         <f>주간메뉴표!H8</f>
-        <v>천사채샐러드</v>
+        <v>후랑크소시지볶음</v>
       </c>
       <c r="R11" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="S11" s="256"/>
+      <c r="S11" s="246"/>
     </row>
     <row r="12" spans="2:19" s="17" customFormat="1" ht="35.25" customHeight="1">
       <c r="B12" s="254"/>
-      <c r="C12" s="230"/>
-      <c r="D12" s="233"/>
+      <c r="C12" s="266"/>
+      <c r="D12" s="260"/>
       <c r="E12" s="88" t="str">
         <f>주간메뉴표!D9</f>
-        <v>깍두기</v>
+        <v>도시락김</v>
       </c>
       <c r="F12" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G12" s="236"/>
+      <c r="G12" s="228"/>
       <c r="H12" s="165" t="str">
         <f>주간메뉴표!E9</f>
-        <v>탄산음료</v>
-      </c>
-      <c r="I12" s="79"/>
-      <c r="J12" s="236"/>
+        <v>쌈무/쌈장(마늘고추)</v>
+      </c>
+      <c r="I12" s="79" t="s">
+        <v>346</v>
+      </c>
+      <c r="J12" s="228"/>
       <c r="K12" s="165" t="str">
         <f>주간메뉴표!F9</f>
-        <v>파래자반볶음</v>
+        <v>깍두기</v>
       </c>
       <c r="L12" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M12" s="236"/>
+      <c r="M12" s="228"/>
       <c r="N12" s="165" t="str">
         <f>주간메뉴표!G9</f>
-        <v>청포묵김가루무침</v>
+        <v>오이맛고추쌈장무침</v>
       </c>
       <c r="O12" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P12" s="263"/>
+      <c r="P12" s="231"/>
       <c r="Q12" s="165" t="str">
         <f>주간메뉴표!H9</f>
-        <v>포기김치</v>
+        <v>궁채절임</v>
       </c>
       <c r="R12" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="S12" s="256"/>
+      <c r="S12" s="246"/>
     </row>
     <row r="13" spans="2:19" s="27" customFormat="1" ht="20.25" customHeight="1">
       <c r="B13" s="254"/>
-      <c r="C13" s="230"/>
-      <c r="D13" s="233"/>
+      <c r="C13" s="266"/>
+      <c r="D13" s="260"/>
       <c r="E13" s="88" t="str">
         <f>주간메뉴표!D10</f>
-        <v>잡곡밥</v>
-      </c>
-      <c r="F13" s="79"/>
-      <c r="G13" s="236"/>
+        <v>포기김치/잡곡밥</v>
+      </c>
+      <c r="F13" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="G13" s="228"/>
       <c r="H13" s="165" t="str">
         <f>주간메뉴표!E10</f>
-        <v>백김치/잡곡밥</v>
+        <v>깍두기/잡곡밥</v>
       </c>
       <c r="I13" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="J13" s="236"/>
+      <c r="J13" s="228"/>
       <c r="K13" s="165" t="str">
         <f>주간메뉴표!F10</f>
-        <v>열무김치/잡곡밥</v>
-      </c>
-      <c r="L13" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="M13" s="236"/>
+        <v>잡곡밥</v>
+      </c>
+      <c r="L13" s="79"/>
+      <c r="M13" s="228"/>
       <c r="N13" s="165" t="str">
         <f>주간메뉴표!G10</f>
-        <v>포기김치/잡곡밥</v>
+        <v>깍두기/잡곡밥</v>
       </c>
       <c r="O13" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P13" s="263"/>
+      <c r="P13" s="231"/>
       <c r="Q13" s="165" t="str">
         <f>주간메뉴표!H10</f>
-        <v>잡곡밥</v>
-      </c>
-      <c r="R13" s="79"/>
-      <c r="S13" s="256"/>
+        <v>포기김치/잡곡밥</v>
+      </c>
+      <c r="R13" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="S13" s="246"/>
     </row>
     <row r="14" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
       <c r="B14" s="254"/>
-      <c r="C14" s="231"/>
-      <c r="D14" s="234"/>
+      <c r="C14" s="272"/>
+      <c r="D14" s="261"/>
       <c r="E14" s="88" t="str">
         <f>주간메뉴표!D11</f>
         <v>그린샐러드</v>
       </c>
       <c r="F14" s="79"/>
-      <c r="G14" s="237"/>
+      <c r="G14" s="229"/>
       <c r="H14" s="165" t="str">
         <f>주간메뉴표!E11</f>
         <v>그린샐러드</v>
       </c>
       <c r="I14" s="79"/>
-      <c r="J14" s="237"/>
+      <c r="J14" s="229"/>
       <c r="K14" s="165" t="str">
         <f>주간메뉴표!F11</f>
         <v>그린샐러드</v>
       </c>
       <c r="L14" s="79"/>
-      <c r="M14" s="237"/>
+      <c r="M14" s="229"/>
       <c r="N14" s="165" t="str">
         <f>주간메뉴표!G11</f>
         <v>그린샐러드</v>
       </c>
       <c r="O14" s="79"/>
-      <c r="P14" s="264"/>
+      <c r="P14" s="232"/>
       <c r="Q14" s="165" t="str">
         <f>주간메뉴표!H11</f>
         <v>그린샐러드</v>
       </c>
       <c r="R14" s="79"/>
-      <c r="S14" s="257"/>
+      <c r="S14" s="241"/>
     </row>
     <row r="15" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
       <c r="B15" s="254"/>
-      <c r="C15" s="238" t="s">
+      <c r="C15" s="273" t="s">
         <v>217</v>
       </c>
-      <c r="D15" s="232" t="s">
+      <c r="D15" s="259" t="s">
         <v>32</v>
       </c>
       <c r="E15" s="87" t="str">
         <f>주간메뉴표!D13</f>
-        <v>명동식 칼국수</v>
+        <v>양지쌀국수</v>
       </c>
       <c r="F15" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G15" s="235">
-        <f>주간메뉴표!D19</f>
-        <v>827</v>
+      <c r="G15" s="227">
+        <f>주간메뉴표!D18</f>
+        <v>975</v>
       </c>
       <c r="H15" s="166" t="str">
         <f>주간메뉴표!E13</f>
-        <v>반마리마늘통닭&amp;짜파게티</v>
+        <v>우육탕면</v>
       </c>
       <c r="I15" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="J15" s="235">
-        <f>주간메뉴표!E19</f>
-        <v>1255</v>
+      <c r="J15" s="227">
+        <f>주간메뉴표!E18</f>
+        <v>881</v>
       </c>
       <c r="K15" s="173" t="str">
         <f>주간메뉴표!F13</f>
-        <v>마파두부면</v>
+        <v>안동국시</v>
       </c>
       <c r="L15" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M15" s="235">
-        <f>주간메뉴표!F19</f>
-        <v>1104</v>
+      <c r="M15" s="227">
+        <f>주간메뉴표!F18</f>
+        <v>1111</v>
       </c>
       <c r="N15" s="164" t="str">
         <f>주간메뉴표!G13</f>
-        <v>불고기김치볶음밥</v>
+        <v>육칼(육개장칼국수)</v>
       </c>
       <c r="O15" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P15" s="235">
-        <f>주간메뉴표!G19</f>
-        <v>1168</v>
+      <c r="P15" s="227">
+        <f>주간메뉴표!G18</f>
+        <v>795</v>
       </c>
       <c r="Q15" s="178"/>
       <c r="R15" s="179"/>
-      <c r="S15" s="271"/>
+      <c r="S15" s="247"/>
     </row>
     <row r="16" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
       <c r="B16" s="254"/>
-      <c r="C16" s="230"/>
-      <c r="D16" s="233"/>
+      <c r="C16" s="266"/>
+      <c r="D16" s="260"/>
       <c r="E16" s="88" t="str">
         <f>주간메뉴표!D14</f>
-        <v>바싹불고기</v>
+        <v>새우롤*고구마롤</v>
       </c>
       <c r="F16" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G16" s="236"/>
+      <c r="G16" s="228"/>
       <c r="H16" s="165" t="str">
         <f>주간메뉴표!E14</f>
-        <v>뿌링치즈볼</v>
+        <v>고추잡채군만두</v>
       </c>
       <c r="I16" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="J16" s="236"/>
+      <c r="J16" s="228"/>
       <c r="K16" s="165" t="str">
         <f>주간메뉴표!F14</f>
-        <v>계란국</v>
+        <v>동태전</v>
       </c>
       <c r="L16" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M16" s="236"/>
+      <c r="M16" s="228"/>
       <c r="N16" s="165" t="str">
         <f>주간메뉴표!G14</f>
-        <v>우동국물</v>
-      </c>
-      <c r="O16" s="79"/>
-      <c r="P16" s="236"/>
+        <v>떡갈비구이*부추생채</v>
+      </c>
+      <c r="O16" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="P16" s="228"/>
       <c r="Q16" s="178"/>
       <c r="R16" s="179"/>
-      <c r="S16" s="272"/>
+      <c r="S16" s="248"/>
     </row>
     <row r="17" spans="1:19" s="17" customFormat="1" ht="20.25" customHeight="1">
       <c r="B17" s="254"/>
-      <c r="C17" s="230"/>
-      <c r="D17" s="233"/>
+      <c r="C17" s="266"/>
+      <c r="D17" s="260"/>
       <c r="E17" s="88" t="str">
         <f>주간메뉴표!D15</f>
-        <v>간장고추지</v>
-      </c>
-      <c r="F17" s="79"/>
-      <c r="G17" s="236"/>
+        <v>파인애플볶음밥</v>
+      </c>
+      <c r="F17" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="G17" s="228"/>
       <c r="H17" s="165" t="str">
         <f>주간메뉴표!E15</f>
-        <v>치킨무</v>
+        <v>짜사이채</v>
       </c>
       <c r="I17" s="79"/>
-      <c r="J17" s="236"/>
+      <c r="J17" s="228"/>
       <c r="K17" s="165" t="str">
         <f>주간메뉴표!F15</f>
-        <v>멘보샤</v>
+        <v>배추겉절이</v>
       </c>
       <c r="L17" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M17" s="236"/>
+      <c r="M17" s="228"/>
       <c r="N17" s="165" t="str">
         <f>주간메뉴표!G15</f>
-        <v>소떡소떡</v>
-      </c>
-      <c r="O17" s="79"/>
-      <c r="P17" s="236"/>
+        <v>배추겉절이</v>
+      </c>
+      <c r="O17" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="P17" s="228"/>
       <c r="Q17" s="178"/>
       <c r="R17" s="179"/>
-      <c r="S17" s="272"/>
+      <c r="S17" s="248"/>
     </row>
     <row r="18" spans="1:19" s="17" customFormat="1" ht="20.25" customHeight="1">
       <c r="B18" s="254"/>
-      <c r="C18" s="230"/>
-      <c r="D18" s="233"/>
+      <c r="C18" s="266"/>
+      <c r="D18" s="260"/>
       <c r="E18" s="88" t="str">
         <f>주간메뉴표!D16</f>
-        <v>배추겉절이</v>
+        <v>양파초절임</v>
       </c>
       <c r="F18" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G18" s="236"/>
+      <c r="G18" s="228"/>
       <c r="H18" s="165" t="str">
         <f>주간메뉴표!E16</f>
-        <v>탄산음료</v>
-      </c>
-      <c r="I18" s="79"/>
-      <c r="J18" s="236"/>
+        <v>배추겉절이</v>
+      </c>
+      <c r="I18" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="J18" s="228"/>
       <c r="K18" s="165" t="str">
         <f>주간메뉴표!F16</f>
-        <v>중국식땅콩볶음</v>
-      </c>
-      <c r="L18" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="M18" s="236"/>
+        <v>그린샐러드</v>
+      </c>
+      <c r="L18" s="79"/>
+      <c r="M18" s="228"/>
       <c r="N18" s="165" t="str">
         <f>주간메뉴표!G16</f>
-        <v>콘샐러드</v>
-      </c>
-      <c r="O18" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="P18" s="236"/>
+        <v>그린샐러드</v>
+      </c>
+      <c r="O18" s="79"/>
+      <c r="P18" s="228"/>
       <c r="Q18" s="178"/>
       <c r="R18" s="179"/>
-      <c r="S18" s="272"/>
+      <c r="S18" s="248"/>
     </row>
     <row r="19" spans="1:19" s="17" customFormat="1" ht="20.25" customHeight="1">
       <c r="B19" s="254"/>
-      <c r="C19" s="230"/>
-      <c r="D19" s="233"/>
+      <c r="C19" s="266"/>
+      <c r="D19" s="260"/>
       <c r="E19" s="88" t="str">
         <f>주간메뉴표!D17</f>
         <v>그린샐러드</v>
       </c>
       <c r="F19" s="79"/>
-      <c r="G19" s="236"/>
+      <c r="G19" s="228"/>
       <c r="H19" s="165" t="str">
         <f>주간메뉴표!E17</f>
         <v>그린샐러드</v>
       </c>
       <c r="I19" s="79"/>
-      <c r="J19" s="236"/>
-      <c r="K19" s="165" t="str">
+      <c r="J19" s="228"/>
+      <c r="K19" s="165">
         <f>주간메뉴표!F17</f>
-        <v>단무지</v>
-      </c>
-      <c r="L19" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="M19" s="236"/>
-      <c r="N19" s="165" t="str">
+        <v>0</v>
+      </c>
+      <c r="L19" s="79"/>
+      <c r="M19" s="228"/>
+      <c r="N19" s="165">
         <f>주간메뉴표!G17</f>
-        <v>깍두기</v>
-      </c>
-      <c r="O19" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="P19" s="236"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="79"/>
+      <c r="P19" s="228"/>
       <c r="Q19" s="178"/>
       <c r="R19" s="179"/>
-      <c r="S19" s="272"/>
+      <c r="S19" s="248"/>
     </row>
     <row r="20" spans="1:19" s="27" customFormat="1" ht="20.25" customHeight="1">
       <c r="B20" s="254"/>
-      <c r="C20" s="230"/>
-      <c r="D20" s="233"/>
-      <c r="E20" s="88">
-        <f>주간메뉴표!D18</f>
-        <v>0</v>
+      <c r="C20" s="266"/>
+      <c r="D20" s="260"/>
+      <c r="E20" s="88" t="e">
+        <f>주간메뉴표!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F20" s="79"/>
-      <c r="G20" s="236"/>
-      <c r="H20" s="165">
-        <f>주간메뉴표!E18</f>
-        <v>0</v>
+      <c r="G20" s="228"/>
+      <c r="H20" s="165" t="e">
+        <f>주간메뉴표!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="I20" s="79"/>
-      <c r="J20" s="236"/>
-      <c r="K20" s="165" t="str">
-        <f>주간메뉴표!F18</f>
-        <v>그린샐러드</v>
+      <c r="J20" s="228"/>
+      <c r="K20" s="165" t="e">
+        <f>주간메뉴표!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="L20" s="79"/>
-      <c r="M20" s="236"/>
-      <c r="N20" s="165" t="str">
-        <f>주간메뉴표!G18</f>
-        <v>그린샐러드</v>
+      <c r="M20" s="228"/>
+      <c r="N20" s="165" t="e">
+        <f>주간메뉴표!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="O20" s="79"/>
-      <c r="P20" s="236"/>
+      <c r="P20" s="228"/>
       <c r="Q20" s="178"/>
       <c r="R20" s="179"/>
-      <c r="S20" s="272"/>
+      <c r="S20" s="248"/>
     </row>
     <row r="21" spans="1:19" s="17" customFormat="1" ht="20.25" customHeight="1">
       <c r="B21" s="254"/>
-      <c r="C21" s="229" t="s">
+      <c r="C21" s="265" t="s">
         <v>221</v>
       </c>
-      <c r="D21" s="232" t="s">
+      <c r="D21" s="259" t="s">
         <v>34</v>
       </c>
       <c r="E21" s="87" t="str">
-        <f>주간메뉴표!D20</f>
-        <v>제주식돼지수육해장국</v>
-      </c>
-      <c r="F21" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="G21" s="235">
+        <f>주간메뉴표!D19</f>
+        <v>[Fun!629]</v>
+      </c>
+      <c r="F21" s="79"/>
+      <c r="G21" s="227">
         <f>주간메뉴표!D26</f>
-        <v>1008</v>
+        <v>1143</v>
       </c>
       <c r="H21" s="164" t="str">
-        <f>주간메뉴표!E20</f>
-        <v>연어관자크림리조또</v>
+        <f>주간메뉴표!E19</f>
+        <v>피쉬앤칩스</v>
       </c>
       <c r="I21" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="J21" s="239">
+      <c r="J21" s="269">
         <f>주간메뉴표!E26</f>
-        <v>1301</v>
+        <v>1151</v>
       </c>
       <c r="K21" s="164" t="str">
-        <f>주간메뉴표!F20</f>
+        <f>주간메뉴표!F19</f>
         <v>[Fun!629]</v>
       </c>
       <c r="L21" s="79"/>
-      <c r="M21" s="235">
+      <c r="M21" s="227">
         <f>주간메뉴표!F26</f>
-        <v>851</v>
+        <v>1139</v>
       </c>
       <c r="N21" s="166" t="str">
-        <f>주간메뉴표!G20</f>
-        <v>[웰그린데이]</v>
+        <f>주간메뉴표!G19</f>
+        <v>[Fun!629]</v>
       </c>
       <c r="O21" s="79"/>
-      <c r="P21" s="262">
+      <c r="P21" s="230">
         <f>주간메뉴표!G26</f>
-        <v>1332</v>
+        <v>783</v>
       </c>
       <c r="Q21" s="180"/>
       <c r="R21" s="179"/>
-      <c r="S21" s="271"/>
+      <c r="S21" s="247"/>
     </row>
     <row r="22" spans="1:19" s="17" customFormat="1" ht="33" customHeight="1">
       <c r="B22" s="254"/>
-      <c r="C22" s="230"/>
-      <c r="D22" s="233"/>
+      <c r="C22" s="266"/>
+      <c r="D22" s="260"/>
       <c r="E22" s="88" t="str">
-        <f>주간메뉴표!D21</f>
-        <v>고기경단조림</v>
+        <f>주간메뉴표!D20</f>
+        <v>함박오므라이스(버섯치즈라이스)</v>
       </c>
       <c r="F22" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G22" s="236"/>
+      <c r="G22" s="228"/>
       <c r="H22" s="167" t="str">
-        <f>주간메뉴표!E21</f>
-        <v>수제피클</v>
-      </c>
-      <c r="I22" s="79"/>
-      <c r="J22" s="240"/>
+        <f>주간메뉴표!E20</f>
+        <v>과카몰리에그오픈샌드위치</v>
+      </c>
+      <c r="I22" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="J22" s="270"/>
       <c r="K22" s="165" t="str">
-        <f>주간메뉴표!F21</f>
-        <v>깽키여우완까이</v>
+        <f>주간메뉴표!F20</f>
+        <v>고깃집볶음밥*후라이</v>
       </c>
       <c r="L22" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M22" s="236"/>
+      <c r="M22" s="228"/>
       <c r="N22" s="165" t="str">
-        <f>주간메뉴표!G21</f>
-        <v>취나물쉬림프페스토파스타</v>
+        <f>주간메뉴표!G20</f>
+        <v>참치회덮밥</v>
       </c>
       <c r="O22" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P22" s="263"/>
+      <c r="P22" s="231"/>
       <c r="Q22" s="178"/>
       <c r="R22" s="179"/>
-      <c r="S22" s="272"/>
+      <c r="S22" s="248"/>
     </row>
     <row r="23" spans="1:19" s="17" customFormat="1" ht="30" customHeight="1">
       <c r="A23" s="17" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="254"/>
-      <c r="C23" s="230"/>
-      <c r="D23" s="233"/>
+      <c r="C23" s="266"/>
+      <c r="D23" s="260"/>
       <c r="E23" s="88" t="str">
-        <f>주간메뉴표!D22</f>
-        <v>미역줄기볶음</v>
-      </c>
-      <c r="F23" s="79"/>
-      <c r="G23" s="236"/>
+        <f>주간메뉴표!D21</f>
+        <v>*로제소스</v>
+      </c>
+      <c r="F23" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="G23" s="228"/>
       <c r="H23" s="167" t="str">
-        <f>주간메뉴표!E22</f>
+        <f>주간메뉴표!E21</f>
         <v>탄산음료</v>
       </c>
       <c r="I23" s="79"/>
-      <c r="J23" s="240"/>
+      <c r="J23" s="270"/>
       <c r="K23" s="165" t="str">
-        <f>주간메뉴표!F22</f>
-        <v>(태국식치킨커리스프&amp;라이스)</v>
-      </c>
-      <c r="L23" s="79"/>
-      <c r="M23" s="236"/>
+        <f>주간메뉴표!F21</f>
+        <v>된장찌개</v>
+      </c>
+      <c r="L23" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="M23" s="228"/>
       <c r="N23" s="165" t="str">
-        <f>주간메뉴표!G22</f>
-        <v>수제피클</v>
-      </c>
-      <c r="O23" s="79"/>
-      <c r="P23" s="263"/>
+        <f>주간메뉴표!G21</f>
+        <v>얼갈이된장국</v>
+      </c>
+      <c r="O23" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="P23" s="231"/>
       <c r="Q23" s="178"/>
       <c r="R23" s="179"/>
-      <c r="S23" s="272"/>
+      <c r="S23" s="248"/>
     </row>
     <row r="24" spans="1:19" s="17" customFormat="1" ht="28.5" customHeight="1">
       <c r="B24" s="254"/>
-      <c r="C24" s="230"/>
-      <c r="D24" s="233"/>
+      <c r="C24" s="266"/>
+      <c r="D24" s="260"/>
       <c r="E24" s="88" t="str">
-        <f>주간메뉴표!D23</f>
-        <v>양념깻잎지</v>
-      </c>
-      <c r="F24" s="79"/>
-      <c r="G24" s="236"/>
+        <f>주간메뉴표!D22</f>
+        <v>버섯장국</v>
+      </c>
+      <c r="F24" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="G24" s="228"/>
       <c r="H24" s="167" t="str">
-        <f>주간메뉴표!E23</f>
+        <f>주간메뉴표!E22</f>
         <v>그린샐러드</v>
       </c>
       <c r="I24" s="79"/>
-      <c r="J24" s="240"/>
+      <c r="J24" s="270"/>
       <c r="K24" s="165" t="str">
-        <f>주간메뉴표!F23</f>
-        <v>피자왕춘권</v>
+        <f>주간메뉴표!F22</f>
+        <v>메밀전병</v>
       </c>
       <c r="L24" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M24" s="236"/>
+      <c r="M24" s="228"/>
       <c r="N24" s="165" t="str">
-        <f>주간메뉴표!G23</f>
-        <v>탄산음료</v>
-      </c>
-      <c r="O24" s="79"/>
-      <c r="P24" s="263"/>
+        <f>주간메뉴표!G22</f>
+        <v>손만두찜</v>
+      </c>
+      <c r="O24" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="P24" s="231"/>
       <c r="Q24" s="178"/>
       <c r="R24" s="179"/>
-      <c r="S24" s="272"/>
+      <c r="S24" s="248"/>
     </row>
     <row r="25" spans="1:19" s="17" customFormat="1" ht="30.75" customHeight="1">
       <c r="B25" s="254"/>
-      <c r="C25" s="230"/>
-      <c r="D25" s="233"/>
+      <c r="C25" s="266"/>
+      <c r="D25" s="260"/>
       <c r="E25" s="88" t="str">
+        <f>주간메뉴표!D23</f>
+        <v>수제오이피클</v>
+      </c>
+      <c r="F25" s="79"/>
+      <c r="G25" s="228"/>
+      <c r="H25" s="167">
+        <f>주간메뉴표!E23</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="79"/>
+      <c r="J25" s="270"/>
+      <c r="K25" s="165" t="str">
+        <f>주간메뉴표!F23</f>
+        <v>천사채샐러드</v>
+      </c>
+      <c r="L25" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="M25" s="228"/>
+      <c r="N25" s="165" t="str">
+        <f>주간메뉴표!G23</f>
+        <v>깍두기</v>
+      </c>
+      <c r="O25" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="P25" s="231"/>
+      <c r="Q25" s="178"/>
+      <c r="R25" s="179"/>
+      <c r="S25" s="248"/>
+    </row>
+    <row r="26" spans="1:19" s="17" customFormat="1" ht="33.75" customHeight="1">
+      <c r="B26" s="254"/>
+      <c r="C26" s="266"/>
+      <c r="D26" s="260"/>
+      <c r="E26" s="88" t="str">
         <f>주간메뉴표!D24</f>
-        <v>깍두기/잡곡밥</v>
-      </c>
-      <c r="F25" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="G25" s="236"/>
-      <c r="H25" s="167">
+        <v>그린샐러드</v>
+      </c>
+      <c r="F26" s="79"/>
+      <c r="G26" s="228"/>
+      <c r="H26" s="167">
         <f>주간메뉴표!E24</f>
         <v>0</v>
       </c>
-      <c r="I25" s="79"/>
-      <c r="J25" s="240"/>
-      <c r="K25" s="165" t="str">
+      <c r="I26" s="79"/>
+      <c r="J26" s="270"/>
+      <c r="K26" s="165" t="str">
         <f>주간메뉴표!F24</f>
-        <v>포기김치</v>
-      </c>
-      <c r="L25" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="M25" s="236"/>
-      <c r="N25" s="165" t="str">
+        <v>깍두기</v>
+      </c>
+      <c r="L26" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="M26" s="228"/>
+      <c r="N26" s="165" t="str">
         <f>주간메뉴표!G24</f>
         <v>그린샐러드</v>
       </c>
-      <c r="O25" s="79"/>
-      <c r="P25" s="263"/>
-      <c r="Q25" s="178"/>
-      <c r="R25" s="179"/>
-      <c r="S25" s="272"/>
-    </row>
-    <row r="26" spans="1:19" s="17" customFormat="1" ht="33.75" customHeight="1">
-      <c r="B26" s="254"/>
-      <c r="C26" s="230"/>
-      <c r="D26" s="233"/>
-      <c r="E26" s="88" t="str">
-        <f>주간메뉴표!D25</f>
-        <v>그린샐러드</v>
-      </c>
-      <c r="F26" s="79"/>
-      <c r="G26" s="236"/>
-      <c r="H26" s="167">
-        <f>주간메뉴표!E25</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="79"/>
-      <c r="J26" s="240"/>
-      <c r="K26" s="165" t="str">
-        <f>주간메뉴표!F25</f>
-        <v>그린샐러드</v>
-      </c>
-      <c r="L26" s="79"/>
-      <c r="M26" s="236"/>
-      <c r="N26" s="165">
-        <f>주간메뉴표!G25</f>
-        <v>0</v>
-      </c>
       <c r="O26" s="79"/>
-      <c r="P26" s="263"/>
+      <c r="P26" s="231"/>
       <c r="Q26" s="178"/>
       <c r="R26" s="179"/>
-      <c r="S26" s="272"/>
+      <c r="S26" s="248"/>
     </row>
     <row r="27" spans="1:19" s="17" customFormat="1" ht="20.25" customHeight="1">
       <c r="B27" s="254"/>
-      <c r="C27" s="231"/>
-      <c r="D27" s="234"/>
+      <c r="C27" s="272"/>
+      <c r="D27" s="261"/>
       <c r="E27" s="88" t="e">
         <f>주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="F27" s="79"/>
-      <c r="G27" s="237"/>
+      <c r="G27" s="229"/>
       <c r="H27" s="167" t="e">
         <f>주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="I27" s="79"/>
-      <c r="J27" s="241"/>
+      <c r="J27" s="271"/>
       <c r="K27" s="165" t="e">
         <f>주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="L27" s="79"/>
-      <c r="M27" s="237"/>
+      <c r="M27" s="229"/>
       <c r="N27" s="165" t="e">
         <f>주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="O27" s="79"/>
-      <c r="P27" s="264"/>
+      <c r="P27" s="232"/>
       <c r="Q27" s="178"/>
       <c r="R27" s="179"/>
-      <c r="S27" s="273"/>
+      <c r="S27" s="249"/>
     </row>
     <row r="28" spans="1:19" s="44" customFormat="1" ht="20.25" hidden="1" customHeight="1">
       <c r="B28" s="254"/>
       <c r="C28" s="148"/>
-      <c r="D28" s="232"/>
+      <c r="D28" s="259"/>
       <c r="E28" s="82"/>
       <c r="F28" s="79"/>
-      <c r="G28" s="235" t="e">
+      <c r="G28" s="227" t="e">
         <f>주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="H28" s="168"/>
       <c r="I28" s="79"/>
-      <c r="J28" s="235" t="e">
+      <c r="J28" s="227" t="e">
         <f>주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="K28" s="164"/>
       <c r="L28" s="79"/>
-      <c r="M28" s="235"/>
+      <c r="M28" s="227"/>
       <c r="N28" s="168"/>
       <c r="O28" s="79"/>
-      <c r="P28" s="262"/>
+      <c r="P28" s="230"/>
       <c r="Q28" s="172" t="e">
         <f>주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="R28" s="79"/>
-      <c r="S28" s="255"/>
+      <c r="S28" s="240"/>
     </row>
     <row r="29" spans="1:19" s="17" customFormat="1" ht="20.25" hidden="1" customHeight="1">
       <c r="B29" s="254"/>
       <c r="C29" s="148"/>
-      <c r="D29" s="233"/>
+      <c r="D29" s="260"/>
       <c r="E29" s="89"/>
       <c r="F29" s="79"/>
-      <c r="G29" s="236"/>
+      <c r="G29" s="228"/>
       <c r="H29" s="169"/>
       <c r="I29" s="79"/>
-      <c r="J29" s="236"/>
+      <c r="J29" s="228"/>
       <c r="K29" s="165"/>
       <c r="L29" s="79"/>
-      <c r="M29" s="236"/>
+      <c r="M29" s="228"/>
       <c r="N29" s="169"/>
       <c r="O29" s="79"/>
-      <c r="P29" s="263"/>
+      <c r="P29" s="231"/>
       <c r="Q29" s="169" t="e">
         <f>주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="R29" s="79"/>
-      <c r="S29" s="256"/>
+      <c r="S29" s="246"/>
     </row>
     <row r="30" spans="1:19" s="17" customFormat="1" ht="20.25" hidden="1" customHeight="1">
       <c r="B30" s="254"/>
       <c r="C30" s="148"/>
-      <c r="D30" s="233"/>
+      <c r="D30" s="260"/>
       <c r="E30" s="89"/>
       <c r="F30" s="79"/>
-      <c r="G30" s="236"/>
+      <c r="G30" s="228"/>
       <c r="H30" s="169"/>
       <c r="I30" s="79"/>
-      <c r="J30" s="236"/>
+      <c r="J30" s="228"/>
       <c r="K30" s="165"/>
       <c r="L30" s="79"/>
-      <c r="M30" s="236"/>
+      <c r="M30" s="228"/>
       <c r="N30" s="169"/>
       <c r="O30" s="79"/>
-      <c r="P30" s="263"/>
+      <c r="P30" s="231"/>
       <c r="Q30" s="169" t="e">
         <f>주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="R30" s="79"/>
-      <c r="S30" s="256"/>
+      <c r="S30" s="246"/>
     </row>
     <row r="31" spans="1:19" s="17" customFormat="1" ht="20.25" hidden="1" customHeight="1">
       <c r="B31" s="254"/>
       <c r="C31" s="148"/>
-      <c r="D31" s="233"/>
+      <c r="D31" s="260"/>
       <c r="E31" s="89"/>
       <c r="F31" s="79"/>
-      <c r="G31" s="236"/>
+      <c r="G31" s="228"/>
       <c r="H31" s="169"/>
       <c r="I31" s="79"/>
-      <c r="J31" s="236"/>
+      <c r="J31" s="228"/>
       <c r="K31" s="165"/>
       <c r="L31" s="79"/>
-      <c r="M31" s="236"/>
+      <c r="M31" s="228"/>
       <c r="N31" s="169"/>
       <c r="O31" s="79"/>
-      <c r="P31" s="263"/>
+      <c r="P31" s="231"/>
       <c r="Q31" s="169" t="e">
         <f>주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="R31" s="79"/>
-      <c r="S31" s="256"/>
+      <c r="S31" s="246"/>
     </row>
     <row r="32" spans="1:19" s="17" customFormat="1" ht="20.25" hidden="1" customHeight="1">
       <c r="B32" s="254"/>
       <c r="C32" s="148"/>
-      <c r="D32" s="233"/>
+      <c r="D32" s="260"/>
       <c r="E32" s="89"/>
       <c r="F32" s="79"/>
-      <c r="G32" s="236"/>
+      <c r="G32" s="228"/>
       <c r="H32" s="169"/>
       <c r="I32" s="79"/>
-      <c r="J32" s="236"/>
+      <c r="J32" s="228"/>
       <c r="K32" s="165"/>
       <c r="L32" s="79"/>
-      <c r="M32" s="236"/>
+      <c r="M32" s="228"/>
       <c r="N32" s="169"/>
       <c r="O32" s="79"/>
-      <c r="P32" s="263"/>
+      <c r="P32" s="231"/>
       <c r="Q32" s="169" t="e">
         <f>주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="R32" s="79"/>
-      <c r="S32" s="256"/>
+      <c r="S32" s="246"/>
     </row>
     <row r="33" spans="2:19" s="17" customFormat="1" ht="20.25" hidden="1" customHeight="1">
       <c r="B33" s="254"/>
       <c r="C33" s="149"/>
-      <c r="D33" s="234"/>
+      <c r="D33" s="261"/>
       <c r="E33" s="89"/>
       <c r="F33" s="79"/>
-      <c r="G33" s="237"/>
+      <c r="G33" s="229"/>
       <c r="H33" s="169"/>
       <c r="I33" s="79"/>
-      <c r="J33" s="237"/>
+      <c r="J33" s="229"/>
       <c r="K33" s="165"/>
       <c r="L33" s="79"/>
-      <c r="M33" s="237"/>
+      <c r="M33" s="229"/>
       <c r="N33" s="169"/>
       <c r="O33" s="79"/>
-      <c r="P33" s="264"/>
+      <c r="P33" s="232"/>
       <c r="Q33" s="169"/>
       <c r="R33" s="79"/>
-      <c r="S33" s="257"/>
+      <c r="S33" s="241"/>
     </row>
     <row r="34" spans="2:19" s="27" customFormat="1" ht="20.25" customHeight="1">
       <c r="B34" s="254"/>
-      <c r="C34" s="229" t="s">
+      <c r="C34" s="265" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="242" t="s">
+      <c r="D34" s="262" t="s">
         <v>36</v>
       </c>
       <c r="E34" s="81" t="str">
@@ -9668,15 +9446,15 @@
       <c r="F34" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G34" s="244"/>
+      <c r="G34" s="250"/>
       <c r="H34" s="170" t="str">
         <f>주간메뉴표!E27</f>
-        <v>석박지</v>
+        <v>갓김치</v>
       </c>
       <c r="I34" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="J34" s="244"/>
+      <c r="J34" s="250"/>
       <c r="K34" s="170" t="str">
         <f>주간메뉴표!F27</f>
         <v>볶음김치</v>
@@ -9684,15 +9462,15 @@
       <c r="L34" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M34" s="244"/>
+      <c r="M34" s="250"/>
       <c r="N34" s="170" t="str">
         <f>주간메뉴표!G27</f>
-        <v>석박지</v>
+        <v>갓김치</v>
       </c>
       <c r="O34" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P34" s="244"/>
+      <c r="P34" s="250"/>
       <c r="Q34" s="170" t="str">
         <f>주간메뉴표!H27</f>
         <v>볶음김치</v>
@@ -9700,183 +9478,187 @@
       <c r="R34" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="S34" s="242"/>
+      <c r="S34" s="262"/>
     </row>
     <row r="35" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
       <c r="B35" s="254"/>
-      <c r="C35" s="230"/>
-      <c r="D35" s="243"/>
+      <c r="C35" s="266"/>
+      <c r="D35" s="263"/>
       <c r="E35" s="81" t="str">
         <f>주간메뉴표!D28</f>
-        <v>매실차</v>
+        <v>자몽차</v>
       </c>
       <c r="F35" s="79"/>
-      <c r="G35" s="245"/>
+      <c r="G35" s="251"/>
       <c r="H35" s="170" t="str">
         <f>주간메뉴표!E28</f>
-        <v>발사믹D&amp;참깨D</v>
+        <v>발사믹D&amp;자몽D</v>
       </c>
       <c r="I35" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="J35" s="245"/>
+      <c r="J35" s="251"/>
       <c r="K35" s="170" t="str">
         <f>주간메뉴표!F28</f>
-        <v>유자차</v>
-      </c>
-      <c r="L35" s="79"/>
-      <c r="M35" s="245"/>
+        <v>율무차</v>
+      </c>
+      <c r="L35" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="M35" s="251"/>
       <c r="N35" s="170" t="str">
         <f>주간메뉴표!G28</f>
-        <v>나쵸칩*살사소스</v>
+        <v>녹차라떼</v>
       </c>
       <c r="O35" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P35" s="245"/>
+      <c r="P35" s="251"/>
       <c r="Q35" s="170" t="str">
         <f>주간메뉴표!H28</f>
-        <v>오렌지</v>
-      </c>
-      <c r="R35" s="79"/>
-      <c r="S35" s="243"/>
+        <v>요거트*씨리얼</v>
+      </c>
+      <c r="R35" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="S35" s="263"/>
     </row>
     <row r="36" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
       <c r="B36" s="254"/>
-      <c r="C36" s="230"/>
-      <c r="D36" s="243"/>
+      <c r="C36" s="266"/>
+      <c r="D36" s="263"/>
       <c r="E36" s="81" t="str">
         <f>주간메뉴표!D29</f>
-        <v>오리엔탈D&amp;망고D</v>
+        <v>오리엔탈D&amp;요거트D</v>
       </c>
       <c r="F36" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G36" s="246"/>
+      <c r="G36" s="252"/>
       <c r="H36" s="170">
         <f>주간메뉴표!E29</f>
         <v>0</v>
       </c>
       <c r="I36" s="79"/>
-      <c r="J36" s="246"/>
+      <c r="J36" s="252"/>
       <c r="K36" s="170" t="str">
         <f>주간메뉴표!F29</f>
-        <v>오리엔탈D&amp;블루베리D</v>
+        <v>오리엔탈D&amp;크리미양파D</v>
       </c>
       <c r="L36" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M36" s="246"/>
+      <c r="M36" s="252"/>
       <c r="N36" s="170" t="str">
         <f>주간메뉴표!G29</f>
-        <v>발사믹D&amp;파인애플D</v>
+        <v>발사믹D&amp;딸기요거트D</v>
       </c>
       <c r="O36" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P36" s="246"/>
+      <c r="P36" s="252"/>
       <c r="Q36" s="170" t="str">
         <f>주간메뉴표!H29</f>
-        <v>오리엔탈D&amp;딸기D</v>
+        <v>오리엔탈D&amp;한라봉D</v>
       </c>
       <c r="R36" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="S36" s="265"/>
+      <c r="S36" s="264"/>
     </row>
     <row r="37" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
       <c r="B37" s="254"/>
-      <c r="C37" s="229" t="s">
+      <c r="C37" s="265" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="242" t="s">
+      <c r="D37" s="262" t="s">
         <v>211</v>
       </c>
-      <c r="E37" s="247" t="str">
+      <c r="E37" s="267" t="str">
         <f>주간메뉴표!D30</f>
-        <v>훈제오리단호박샐러드</v>
-      </c>
-      <c r="F37" s="249" t="s">
-        <v>220</v>
-      </c>
-      <c r="G37" s="235">
+        <v>씨푸드파스타샐러드</v>
+      </c>
+      <c r="F37" s="244" t="s">
+        <v>220</v>
+      </c>
+      <c r="G37" s="227">
         <f>주간메뉴표!D31</f>
-        <v>654</v>
-      </c>
-      <c r="H37" s="251" t="str">
+        <v>674</v>
+      </c>
+      <c r="H37" s="242" t="str">
         <f>주간메뉴표!E30</f>
-        <v>풀드포크샐러드</v>
-      </c>
-      <c r="I37" s="249" t="s">
-        <v>220</v>
-      </c>
-      <c r="J37" s="235">
+        <v>베이컨닭가슴살샐러드</v>
+      </c>
+      <c r="I37" s="244" t="s">
+        <v>220</v>
+      </c>
+      <c r="J37" s="227">
         <f>주간메뉴표!E31</f>
-        <v>735</v>
-      </c>
-      <c r="K37" s="251" t="str">
+        <v>725</v>
+      </c>
+      <c r="K37" s="242" t="str">
         <f>주간메뉴표!F30</f>
-        <v>불고기포케샐러드</v>
-      </c>
-      <c r="L37" s="249" t="s">
-        <v>220</v>
-      </c>
-      <c r="M37" s="235">
+        <v>쿠스쿠스닭다리살샐러드</v>
+      </c>
+      <c r="L37" s="244" t="s">
+        <v>220</v>
+      </c>
+      <c r="M37" s="227">
         <f>주간메뉴표!F31</f>
-        <v>748</v>
-      </c>
-      <c r="N37" s="251" t="str">
+        <v>698</v>
+      </c>
+      <c r="N37" s="242" t="str">
         <f>주간메뉴표!G30</f>
-        <v>크림치킨어니언샐러드</v>
-      </c>
-      <c r="O37" s="249" t="s">
-        <v>220</v>
-      </c>
-      <c r="P37" s="235">
+        <v>에그마요샐러드</v>
+      </c>
+      <c r="O37" s="244" t="s">
+        <v>220</v>
+      </c>
+      <c r="P37" s="227">
         <f>주간메뉴표!G31</f>
-        <v>764</v>
-      </c>
-      <c r="Q37" s="251" t="str">
+        <v>712</v>
+      </c>
+      <c r="Q37" s="242" t="str">
         <f>주간메뉴표!H30</f>
-        <v>오렌지리코타샐러드</v>
-      </c>
-      <c r="R37" s="249" t="s">
-        <v>220</v>
-      </c>
-      <c r="S37" s="255">
+        <v>목살스테이크샐러드</v>
+      </c>
+      <c r="R37" s="244" t="s">
+        <v>220</v>
+      </c>
+      <c r="S37" s="240">
         <f>주간메뉴표!H31</f>
-        <v>638</v>
+        <v>769</v>
       </c>
     </row>
     <row r="38" spans="2:19" s="17" customFormat="1" ht="36" customHeight="1">
       <c r="B38" s="254"/>
-      <c r="C38" s="230"/>
-      <c r="D38" s="243"/>
-      <c r="E38" s="248"/>
-      <c r="F38" s="250"/>
-      <c r="G38" s="236"/>
-      <c r="H38" s="252"/>
-      <c r="I38" s="250"/>
-      <c r="J38" s="236"/>
-      <c r="K38" s="252"/>
-      <c r="L38" s="250"/>
-      <c r="M38" s="236"/>
-      <c r="N38" s="252"/>
-      <c r="O38" s="250"/>
-      <c r="P38" s="236"/>
-      <c r="Q38" s="252"/>
-      <c r="R38" s="250"/>
-      <c r="S38" s="257"/>
+      <c r="C38" s="266"/>
+      <c r="D38" s="263"/>
+      <c r="E38" s="268"/>
+      <c r="F38" s="245"/>
+      <c r="G38" s="228"/>
+      <c r="H38" s="243"/>
+      <c r="I38" s="245"/>
+      <c r="J38" s="228"/>
+      <c r="K38" s="243"/>
+      <c r="L38" s="245"/>
+      <c r="M38" s="228"/>
+      <c r="N38" s="243"/>
+      <c r="O38" s="245"/>
+      <c r="P38" s="228"/>
+      <c r="Q38" s="243"/>
+      <c r="R38" s="245"/>
+      <c r="S38" s="241"/>
     </row>
     <row r="39" spans="2:19" s="44" customFormat="1" ht="33.75" customHeight="1">
       <c r="B39" s="254"/>
-      <c r="C39" s="230"/>
+      <c r="C39" s="266"/>
       <c r="D39" s="141" t="s">
         <v>213</v>
       </c>
       <c r="E39" s="80" t="str">
         <f>주간메뉴표!D32</f>
-        <v>단호박&amp;로제치킨샌드위치
+        <v>쉬림프치즈랩샌드위치
 &amp;과일2종</v>
       </c>
       <c r="F39" s="79" t="s">
@@ -9884,11 +9666,11 @@
       </c>
       <c r="G39" s="161">
         <f>주간메뉴표!D33</f>
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="H39" s="171" t="str">
         <f>주간메뉴표!E32</f>
-        <v>콘참치모닝샌드위치
+        <v>햄치즈크라상샌드위치
 &amp;과일2종</v>
       </c>
       <c r="I39" s="79" t="s">
@@ -9896,11 +9678,11 @@
       </c>
       <c r="J39" s="161">
         <f>주간메뉴표!E33</f>
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="K39" s="171" t="str">
         <f>주간메뉴표!F32</f>
-        <v>루꼴라갈릭치즈베이글샌드위치
+        <v>불고기랩샌드위치
 &amp;과일2종</v>
       </c>
       <c r="L39" s="79" t="s">
@@ -9908,11 +9690,11 @@
       </c>
       <c r="M39" s="161">
         <f>주간메뉴표!F33</f>
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="N39" s="171" t="str">
         <f>주간메뉴표!G32</f>
-        <v>통밀프리미엄에그디럭스샌드위치
+        <v>어니언치킨샐러드랩
 &amp;과일2종</v>
       </c>
       <c r="O39" s="79" t="s">
@@ -9928,53 +9710,53 @@
     </row>
     <row r="40" spans="2:19" s="17" customFormat="1" ht="30.75" customHeight="1">
       <c r="B40" s="254"/>
-      <c r="C40" s="230"/>
+      <c r="C40" s="266"/>
       <c r="D40" s="142" t="s">
         <v>212</v>
       </c>
       <c r="E40" s="80" t="str">
         <f>주간메뉴표!D34</f>
-        <v>그릴치킨&amp;비트쿠스쿠스</v>
+        <v>퀴노아아보카도샐러드</v>
       </c>
       <c r="F40" s="79" t="s">
         <v>220</v>
       </c>
       <c r="G40" s="162">
         <f>주간메뉴표!D35</f>
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="H40" s="171" t="str">
         <f>주간메뉴표!E34</f>
-        <v>치킨컬리플라워볶음밥</v>
+        <v>N 베지순두부비빔밥</v>
       </c>
       <c r="I40" s="79" t="s">
         <v>220</v>
       </c>
       <c r="J40" s="162">
         <f>주간메뉴표!E35</f>
-        <v>634</v>
+        <v>576</v>
       </c>
       <c r="K40" s="171" t="str">
         <f>주간메뉴표!F34</f>
-        <v>참치아보카도토마토비빔밥</v>
+        <v>제육컬리플라워흑미덮밥</v>
       </c>
       <c r="L40" s="79" t="s">
         <v>220</v>
       </c>
       <c r="M40" s="162">
         <f>주간메뉴표!F35</f>
-        <v>669</v>
+        <v>528</v>
       </c>
       <c r="N40" s="171" t="str">
         <f>주간메뉴표!G34</f>
-        <v>실곤약야끼소바</v>
+        <v>N 베지마제두부면</v>
       </c>
       <c r="O40" s="79" t="s">
         <v>220</v>
       </c>
       <c r="P40" s="162">
         <f>주간메뉴표!G35</f>
-        <v>647</v>
+        <v>553</v>
       </c>
       <c r="Q40" s="181"/>
       <c r="R40" s="179"/>
@@ -9984,205 +9766,213 @@
       <c r="B41" s="253" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="258"/>
-      <c r="D41" s="232" t="s">
+      <c r="C41" s="255"/>
+      <c r="D41" s="259" t="s">
         <v>39</v>
       </c>
       <c r="E41" s="97" t="str">
         <f>주간메뉴표!D37</f>
-        <v>소고기된장국밥*라면사리</v>
+        <v>일식간장불고기솥밥</v>
       </c>
       <c r="F41" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G41" s="235">
+      <c r="G41" s="227">
         <f>주간메뉴표!D43</f>
-        <v>1119</v>
+        <v>1248</v>
       </c>
       <c r="H41" s="168" t="str">
         <f>주간메뉴표!E37</f>
-        <v>훈제오리볶음밥*후라이</v>
+        <v>베이컨갈릭볶음밥*후라이</v>
       </c>
       <c r="I41" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="J41" s="235">
+      <c r="J41" s="227">
         <f>주간메뉴표!E43</f>
-        <v>1021</v>
+        <v>1051</v>
       </c>
       <c r="K41" s="168" t="str">
         <f>주간메뉴표!F37</f>
-        <v>제육치즈덮밥*후라이</v>
+        <v>(뚝)전주식콩나물국밥*수란</v>
       </c>
       <c r="L41" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M41" s="235">
+      <c r="M41" s="227">
         <f>주간메뉴표!F43</f>
-        <v>1317</v>
+        <v>1332</v>
       </c>
       <c r="N41" s="168" t="str">
         <f>주간메뉴표!G37</f>
-        <v>김치꼬치어묵탕*와사비장</v>
+        <v>밀양돼지국밥</v>
       </c>
       <c r="O41" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P41" s="268">
+      <c r="P41" s="235">
         <f>주간메뉴표!G43</f>
-        <v>1232</v>
+        <v>1125</v>
       </c>
       <c r="Q41" s="168" t="str">
         <f>주간메뉴표!H37</f>
-        <v>춘천식닭갈비</v>
+        <v>매생이굴국밥</v>
       </c>
       <c r="R41" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="S41" s="255">
+      <c r="S41" s="240">
         <f>주간메뉴표!H43</f>
-        <v>1083</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="42" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
       <c r="B42" s="254"/>
-      <c r="C42" s="259"/>
-      <c r="D42" s="233"/>
+      <c r="C42" s="256"/>
+      <c r="D42" s="260"/>
       <c r="E42" s="90" t="str">
         <f>주간메뉴표!D38</f>
-        <v>갈비만두</v>
+        <v>*비빔반숙란&amp;쯔유소스</v>
       </c>
       <c r="F42" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G42" s="236"/>
+      <c r="G42" s="228"/>
       <c r="H42" s="169" t="str">
         <f>주간메뉴표!E38</f>
-        <v>두부김칫국</v>
+        <v>유부장국</v>
       </c>
       <c r="I42" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="J42" s="236"/>
+      <c r="J42" s="228"/>
       <c r="K42" s="169" t="str">
         <f>주간메뉴표!F38</f>
-        <v>콩나물국</v>
-      </c>
-      <c r="L42" s="79"/>
-      <c r="M42" s="236"/>
+        <v>꼬마돈가스*케찹</v>
+      </c>
+      <c r="L42" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="M42" s="228"/>
       <c r="N42" s="169" t="str">
         <f>주간메뉴표!G38</f>
-        <v>로스팜구이*케찹</v>
+        <v>순대볶음</v>
       </c>
       <c r="O42" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P42" s="269"/>
+      <c r="P42" s="236"/>
       <c r="Q42" s="169" t="str">
         <f>주간메뉴표!H38</f>
-        <v>콩나물국</v>
-      </c>
-      <c r="R42" s="79"/>
-      <c r="S42" s="256"/>
+        <v>돼지고기강정</v>
+      </c>
+      <c r="R42" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="S42" s="246"/>
     </row>
     <row r="43" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
       <c r="B43" s="254"/>
-      <c r="C43" s="259"/>
-      <c r="D43" s="233"/>
+      <c r="C43" s="256"/>
+      <c r="D43" s="260"/>
       <c r="E43" s="90" t="str">
         <f>주간메뉴표!D39</f>
-        <v>사각어묵볶음</v>
+        <v>어묵국</v>
       </c>
       <c r="F43" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G43" s="236"/>
+      <c r="G43" s="228"/>
       <c r="H43" s="169" t="str">
         <f>주간메뉴표!E39</f>
-        <v>모짜핫도그*케찹</v>
+        <v>새우가스*타르타르s</v>
       </c>
       <c r="I43" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="J43" s="236"/>
+      <c r="J43" s="228"/>
       <c r="K43" s="169" t="str">
         <f>주간메뉴표!F39</f>
-        <v>비엔나소시지볶음</v>
+        <v>부추장떡</v>
       </c>
       <c r="L43" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M43" s="236"/>
+      <c r="M43" s="228"/>
       <c r="N43" s="169" t="str">
         <f>주간메뉴표!G39</f>
-        <v>채소크로켓</v>
+        <v>알감자조림</v>
       </c>
       <c r="O43" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P43" s="269"/>
+      <c r="P43" s="236"/>
       <c r="Q43" s="169" t="str">
         <f>주간메뉴표!H39</f>
-        <v>파래연근튀김</v>
+        <v>단호박전</v>
       </c>
       <c r="R43" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="S43" s="256"/>
+      <c r="S43" s="246"/>
     </row>
     <row r="44" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
       <c r="B44" s="254"/>
-      <c r="C44" s="259"/>
-      <c r="D44" s="233"/>
+      <c r="C44" s="256"/>
+      <c r="D44" s="260"/>
       <c r="E44" s="90" t="str">
         <f>주간메뉴표!D40</f>
-        <v>마늘종간장절임</v>
-      </c>
-      <c r="F44" s="79"/>
-      <c r="G44" s="236"/>
+        <v>고구마크로켓</v>
+      </c>
+      <c r="F44" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="G44" s="228"/>
       <c r="H44" s="169" t="str">
         <f>주간메뉴표!E40</f>
-        <v>단무지무침</v>
+        <v>단호박샐러드</v>
       </c>
       <c r="I44" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="J44" s="236"/>
+      <c r="J44" s="228"/>
       <c r="K44" s="169" t="str">
         <f>주간메뉴표!F40</f>
-        <v>고구마맛탕</v>
+        <v>우엉조림</v>
       </c>
       <c r="L44" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M44" s="236"/>
+      <c r="M44" s="228"/>
       <c r="N44" s="169" t="str">
         <f>주간메뉴표!G40</f>
-        <v>깐마늘지</v>
-      </c>
-      <c r="O44" s="79"/>
-      <c r="P44" s="269"/>
+        <v>진미채고추장무침</v>
+      </c>
+      <c r="O44" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="P44" s="236"/>
       <c r="Q44" s="169" t="str">
         <f>주간메뉴표!H40</f>
-        <v>도토리묵무침</v>
+        <v>간장고추지</v>
       </c>
       <c r="R44" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="S44" s="256"/>
+      <c r="S44" s="246"/>
     </row>
     <row r="45" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
       <c r="B45" s="254"/>
-      <c r="C45" s="259"/>
-      <c r="D45" s="233"/>
+      <c r="C45" s="256"/>
+      <c r="D45" s="260"/>
       <c r="E45" s="90" t="str">
         <f>주간메뉴표!D41</f>
-        <v>깍두기</v>
+        <v>콘샐러드</v>
       </c>
       <c r="F45" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G45" s="236"/>
+      <c r="G45" s="228"/>
       <c r="H45" s="169" t="str">
         <f>주간메뉴표!E41</f>
         <v>포기김치</v>
@@ -10190,7 +9980,7 @@
       <c r="I45" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="J45" s="236"/>
+      <c r="J45" s="228"/>
       <c r="K45" s="169" t="str">
         <f>주간메뉴표!F41</f>
         <v>깍두기</v>
@@ -10198,100 +9988,102 @@
       <c r="L45" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M45" s="236"/>
+      <c r="M45" s="228"/>
       <c r="N45" s="169" t="str">
         <f>주간메뉴표!G41</f>
-        <v>깍두기</v>
+        <v>석박지</v>
       </c>
       <c r="O45" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P45" s="269"/>
+      <c r="P45" s="236"/>
       <c r="Q45" s="169" t="str">
         <f>주간메뉴표!H41</f>
-        <v>포기김치</v>
+        <v>깍두기</v>
       </c>
       <c r="R45" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="S45" s="256"/>
+      <c r="S45" s="246"/>
     </row>
     <row r="46" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
       <c r="B46" s="254"/>
-      <c r="C46" s="259"/>
-      <c r="D46" s="234"/>
-      <c r="E46" s="90">
+      <c r="C46" s="256"/>
+      <c r="D46" s="261"/>
+      <c r="E46" s="90" t="str">
         <f>주간메뉴표!D42</f>
-        <v>0</v>
-      </c>
-      <c r="F46" s="79"/>
-      <c r="G46" s="237"/>
+        <v>깍두기</v>
+      </c>
+      <c r="F46" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="G46" s="229"/>
       <c r="H46" s="169">
         <f>주간메뉴표!E42</f>
         <v>0</v>
       </c>
       <c r="I46" s="79"/>
-      <c r="J46" s="237"/>
-      <c r="K46" s="169">
+      <c r="J46" s="229"/>
+      <c r="K46" s="169" t="str">
         <f>주간메뉴표!F42</f>
-        <v>0</v>
+        <v>잡곡밥</v>
       </c>
       <c r="L46" s="79"/>
-      <c r="M46" s="237"/>
+      <c r="M46" s="229"/>
       <c r="N46" s="169" t="str">
         <f>주간메뉴표!G42</f>
         <v>잡곡밥</v>
       </c>
       <c r="O46" s="79"/>
-      <c r="P46" s="270"/>
+      <c r="P46" s="237"/>
       <c r="Q46" s="169" t="str">
         <f>주간메뉴표!H42</f>
         <v>잡곡밥</v>
       </c>
       <c r="R46" s="79"/>
-      <c r="S46" s="257"/>
+      <c r="S46" s="241"/>
     </row>
     <row r="47" spans="2:19" ht="20.25" customHeight="1">
       <c r="B47" s="254"/>
-      <c r="C47" s="259"/>
-      <c r="D47" s="232" t="s">
+      <c r="C47" s="256"/>
+      <c r="D47" s="259" t="s">
         <v>31</v>
       </c>
       <c r="E47" s="97" t="str">
         <f>주간메뉴표!D44</f>
-        <v>셀프오쭈비빔밥</v>
+        <v>셀프추억의도시락</v>
       </c>
       <c r="F47" s="79"/>
-      <c r="G47" s="235">
+      <c r="G47" s="227">
         <f>주간메뉴표!D52</f>
-        <v>988</v>
+        <v>1001</v>
       </c>
       <c r="H47" s="172" t="str">
         <f>주간메뉴표!E44</f>
-        <v>셀프장조림버터비빔밥</v>
+        <v>셀프우삼겹숙주비빔밥</v>
       </c>
       <c r="I47" s="79"/>
-      <c r="J47" s="235">
+      <c r="J47" s="227">
         <f>주간메뉴표!E52</f>
-        <v>1163</v>
+        <v>840</v>
       </c>
       <c r="K47" s="172" t="str">
         <f>주간메뉴표!F44</f>
-        <v>셀프쇠고기곤드레비빔밥</v>
+        <v>N 셀프명란마요아보카도비빔밥</v>
       </c>
       <c r="L47" s="79"/>
-      <c r="M47" s="262">
+      <c r="M47" s="230">
         <f>주간메뉴표!F52</f>
-        <v>811</v>
+        <v>867</v>
       </c>
       <c r="N47" s="174" t="str">
         <f>주간메뉴표!G44</f>
-        <v>셀프에비동</v>
+        <v>셀프치킨데리야끼덮밥</v>
       </c>
       <c r="O47" s="79"/>
-      <c r="P47" s="268">
+      <c r="P47" s="235">
         <f>주간메뉴표!G52</f>
-        <v>1250</v>
+        <v>942</v>
       </c>
       <c r="Q47" s="184"/>
       <c r="R47" s="179"/>
@@ -10299,210 +10091,210 @@
     </row>
     <row r="48" spans="2:19" ht="33" customHeight="1">
       <c r="B48" s="254"/>
-      <c r="C48" s="259"/>
-      <c r="D48" s="233"/>
+      <c r="C48" s="256"/>
+      <c r="D48" s="260"/>
       <c r="E48" s="90" t="str">
         <f>주간메뉴표!D45</f>
-        <v>┗쌀밥,오쭈떡볶음</v>
+        <v>┗쌀밥,계란후라이,멸치볶음</v>
       </c>
       <c r="F48" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G48" s="236"/>
+      <c r="G48" s="228"/>
       <c r="H48" s="169" t="str">
         <f>주간메뉴표!E45</f>
-        <v>┗쌀밥,장조림,스크램블에그</v>
+        <v>┗쌀밥,우삼겹볶음</v>
       </c>
       <c r="I48" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="J48" s="236"/>
+      <c r="J48" s="228"/>
       <c r="K48" s="169" t="str">
         <f>주간메뉴표!F45</f>
-        <v>┗쇠고기곤드레밥,계란후라이</v>
+        <v>┗쌀밥,아보카도,계란후라이</v>
       </c>
       <c r="L48" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M48" s="263"/>
+      <c r="M48" s="231"/>
       <c r="N48" s="167" t="str">
         <f>주간메뉴표!G45</f>
-        <v>┗쌀밥,새우튀김</v>
+        <v>┗쌀밥,닭다리살볶음,스크램블에그</v>
       </c>
       <c r="O48" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P48" s="269"/>
+      <c r="P48" s="236"/>
       <c r="Q48" s="181"/>
       <c r="R48" s="179"/>
       <c r="S48" s="185"/>
     </row>
     <row r="49" spans="2:19" ht="20.25" customHeight="1">
       <c r="B49" s="254"/>
-      <c r="C49" s="259"/>
-      <c r="D49" s="233"/>
+      <c r="C49" s="256"/>
+      <c r="D49" s="260"/>
       <c r="E49" s="90" t="str">
         <f>주간메뉴표!D46</f>
-        <v>셀프토핑</v>
-      </c>
-      <c r="F49" s="79"/>
-      <c r="G49" s="236"/>
+        <v>┗비엔나소시지,볶음김치</v>
+      </c>
+      <c r="F49" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="G49" s="228"/>
       <c r="H49" s="169" t="str">
         <f>주간메뉴표!E46</f>
         <v>셀프토핑</v>
       </c>
       <c r="I49" s="79"/>
-      <c r="J49" s="236"/>
+      <c r="J49" s="228"/>
       <c r="K49" s="169" t="str">
         <f>주간메뉴표!F46</f>
         <v>셀프토핑</v>
       </c>
       <c r="L49" s="79"/>
-      <c r="M49" s="263"/>
+      <c r="M49" s="231"/>
       <c r="N49" s="167" t="str">
         <f>주간메뉴표!G46</f>
         <v>셀프토핑</v>
       </c>
       <c r="O49" s="79"/>
-      <c r="P49" s="269"/>
+      <c r="P49" s="236"/>
       <c r="Q49" s="181"/>
       <c r="R49" s="179"/>
       <c r="S49" s="185"/>
     </row>
     <row r="50" spans="2:19" ht="30.75" customHeight="1">
       <c r="B50" s="254"/>
-      <c r="C50" s="259"/>
-      <c r="D50" s="233"/>
+      <c r="C50" s="256"/>
+      <c r="D50" s="260"/>
       <c r="E50" s="90" t="str">
         <f>주간메뉴표!D47</f>
-        <v>┗쫑상추,콩나물무침</v>
+        <v>셀프토핑</v>
       </c>
       <c r="F50" s="79"/>
-      <c r="G50" s="236"/>
+      <c r="G50" s="228"/>
       <c r="H50" s="169" t="str">
         <f>주간메뉴표!E47</f>
-        <v>┗오복지,쫑상추</v>
+        <v>┗부추생채,숙주양파볶음</v>
       </c>
       <c r="I50" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="J50" s="236"/>
+      <c r="J50" s="228"/>
       <c r="K50" s="169" t="str">
         <f>주간메뉴표!F47</f>
-        <v>┗부추생채,콩나물무침</v>
+        <v>┗쫑상추,맛김가루</v>
       </c>
       <c r="L50" s="79"/>
-      <c r="M50" s="263"/>
+      <c r="M50" s="231"/>
       <c r="N50" s="167" t="str">
         <f>주간메뉴표!G47</f>
         <v>┗숙주양파볶음</v>
       </c>
       <c r="O50" s="79"/>
-      <c r="P50" s="269"/>
+      <c r="P50" s="236"/>
       <c r="Q50" s="181"/>
       <c r="R50" s="179"/>
       <c r="S50" s="185"/>
     </row>
     <row r="51" spans="2:19" ht="20.25" customHeight="1">
       <c r="B51" s="254"/>
-      <c r="C51" s="259"/>
-      <c r="D51" s="233"/>
+      <c r="C51" s="256"/>
+      <c r="D51" s="260"/>
       <c r="E51" s="90" t="str">
         <f>주간메뉴표!D48</f>
-        <v>┗맛김가루</v>
+        <v>┗맛김가루,콩자반</v>
       </c>
       <c r="F51" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G51" s="236"/>
+      <c r="G51" s="228"/>
       <c r="H51" s="169" t="str">
         <f>주간메뉴표!E48</f>
         <v>┗맛김가루</v>
       </c>
-      <c r="I51" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="J51" s="236"/>
+      <c r="I51" s="79"/>
+      <c r="J51" s="228"/>
       <c r="K51" s="169" t="str">
         <f>주간메뉴표!F48</f>
-        <v>┗맛김가루</v>
+        <v>*명란마요소스</v>
       </c>
       <c r="L51" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M51" s="263"/>
+      <c r="M51" s="231"/>
       <c r="N51" s="167" t="str">
         <f>주간메뉴표!G48</f>
-        <v>┗초생강절임(채), 맛김가루</v>
+        <v>┗쫑상추,맛김가루</v>
       </c>
       <c r="O51" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P51" s="269"/>
+      <c r="P51" s="236"/>
       <c r="Q51" s="181"/>
       <c r="R51" s="179"/>
       <c r="S51" s="185"/>
     </row>
     <row r="52" spans="2:19" ht="20.25" customHeight="1">
       <c r="B52" s="254"/>
-      <c r="C52" s="259"/>
-      <c r="D52" s="233"/>
+      <c r="C52" s="256"/>
+      <c r="D52" s="260"/>
       <c r="E52" s="90" t="str">
         <f>주간메뉴표!D49</f>
-        <v>치킨너겟*허니머스터드S</v>
+        <v>오징어가스*스위트칠리S</v>
       </c>
       <c r="F52" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G52" s="236"/>
+      <c r="G52" s="228"/>
       <c r="H52" s="169" t="str">
         <f>주간메뉴표!E49</f>
-        <v>비빔납작지짐만두</v>
+        <v>계란찜</v>
       </c>
       <c r="I52" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="J52" s="236"/>
+      <c r="J52" s="228"/>
       <c r="K52" s="169" t="str">
         <f>주간메뉴표!F49</f>
-        <v>김치메밀전병</v>
+        <v>돼지고기장조림</v>
       </c>
       <c r="L52" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M52" s="263"/>
+      <c r="M52" s="231"/>
       <c r="N52" s="167" t="str">
         <f>주간메뉴표!G49</f>
-        <v>꽈배기도너츠</v>
+        <v>양파링튀김</v>
       </c>
       <c r="O52" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P52" s="269"/>
+      <c r="P52" s="236"/>
       <c r="Q52" s="181"/>
       <c r="R52" s="179"/>
       <c r="S52" s="185"/>
     </row>
     <row r="53" spans="2:19" ht="20.25" customHeight="1">
       <c r="B53" s="254"/>
-      <c r="C53" s="259"/>
-      <c r="D53" s="233"/>
+      <c r="C53" s="256"/>
+      <c r="D53" s="260"/>
       <c r="E53" s="90" t="str">
         <f>주간메뉴표!D50</f>
-        <v>깍두기</v>
+        <v>석박지</v>
       </c>
       <c r="F53" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G53" s="236"/>
+      <c r="G53" s="228"/>
       <c r="H53" s="169" t="str">
         <f>주간메뉴표!E50</f>
-        <v>열무김치</v>
+        <v>포기김치</v>
       </c>
       <c r="I53" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="J53" s="236"/>
+      <c r="J53" s="228"/>
       <c r="K53" s="169" t="str">
         <f>주간메뉴표!F50</f>
         <v>깍두기</v>
@@ -10510,61 +10302,63 @@
       <c r="L53" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M53" s="263"/>
+      <c r="M53" s="231"/>
       <c r="N53" s="167" t="str">
         <f>주간메뉴표!G50</f>
-        <v>포기김치</v>
+        <v>깍두기</v>
       </c>
       <c r="O53" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P53" s="269"/>
+      <c r="P53" s="236"/>
       <c r="Q53" s="181"/>
       <c r="R53" s="179"/>
       <c r="S53" s="185"/>
     </row>
     <row r="54" spans="2:19" ht="20.25" customHeight="1">
       <c r="B54" s="254"/>
-      <c r="C54" s="259"/>
-      <c r="D54" s="234"/>
+      <c r="C54" s="256"/>
+      <c r="D54" s="261"/>
       <c r="E54" s="90" t="str">
         <f>주간메뉴표!D51</f>
-        <v>배추된장국</v>
+        <v>어묵국</v>
       </c>
       <c r="F54" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G54" s="237"/>
+      <c r="G54" s="229"/>
       <c r="H54" s="169" t="str">
         <f>주간메뉴표!E51</f>
-        <v>어묵국</v>
+        <v>유부장국</v>
       </c>
       <c r="I54" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="J54" s="237"/>
+      <c r="J54" s="229"/>
       <c r="K54" s="169" t="str">
         <f>주간메뉴표!F51</f>
-        <v>미역국</v>
-      </c>
-      <c r="L54" s="79"/>
-      <c r="M54" s="264"/>
+        <v>두부장국</v>
+      </c>
+      <c r="L54" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="M54" s="232"/>
       <c r="N54" s="167" t="str">
         <f>주간메뉴표!G51</f>
-        <v>우동국</v>
+        <v>우동국물</v>
       </c>
       <c r="O54" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P54" s="270"/>
+      <c r="P54" s="237"/>
       <c r="Q54" s="181"/>
       <c r="R54" s="179"/>
       <c r="S54" s="186"/>
     </row>
     <row r="55" spans="2:19" ht="20.25" customHeight="1">
       <c r="B55" s="254"/>
-      <c r="C55" s="259"/>
-      <c r="D55" s="242" t="s">
+      <c r="C55" s="256"/>
+      <c r="D55" s="262" t="s">
         <v>36</v>
       </c>
       <c r="E55" s="80" t="str">
@@ -10572,76 +10366,76 @@
         <v>그린샐러드</v>
       </c>
       <c r="F55" s="79"/>
-      <c r="G55" s="266"/>
+      <c r="G55" s="238"/>
       <c r="H55" s="169" t="str">
         <f>주간메뉴표!E53</f>
         <v>그린샐러드</v>
       </c>
       <c r="I55" s="79"/>
-      <c r="J55" s="266"/>
+      <c r="J55" s="238"/>
       <c r="K55" s="171" t="str">
         <f>주간메뉴표!F53</f>
         <v>그린샐러드</v>
       </c>
       <c r="L55" s="79"/>
-      <c r="M55" s="266"/>
+      <c r="M55" s="238"/>
       <c r="N55" s="171" t="str">
         <f>주간메뉴표!G53</f>
         <v>그린샐러드</v>
       </c>
       <c r="O55" s="79"/>
-      <c r="P55" s="266"/>
+      <c r="P55" s="238"/>
       <c r="Q55" s="171" t="str">
         <f>주간메뉴표!H53</f>
         <v>그린샐러드</v>
       </c>
       <c r="R55" s="79"/>
-      <c r="S55" s="274"/>
+      <c r="S55" s="233"/>
     </row>
     <row r="56" spans="2:19" s="51" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B56" s="260"/>
-      <c r="C56" s="261"/>
-      <c r="D56" s="265"/>
+      <c r="B56" s="257"/>
+      <c r="C56" s="258"/>
+      <c r="D56" s="264"/>
       <c r="E56" s="80" t="str">
         <f>주간메뉴표!D54</f>
-        <v>오리엔탈D&amp;망고D</v>
+        <v>오리엔탈D&amp;요거트D</v>
       </c>
       <c r="F56" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G56" s="267"/>
+      <c r="G56" s="239"/>
       <c r="H56" s="169" t="str">
         <f>주간메뉴표!E54</f>
-        <v>발사믹D&amp;참깨D</v>
+        <v>발사믹D&amp;자몽D</v>
       </c>
       <c r="I56" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="J56" s="267"/>
+      <c r="J56" s="239"/>
       <c r="K56" s="171" t="str">
         <f>주간메뉴표!F54</f>
-        <v>오리엔탈D&amp;블루베리D</v>
+        <v>오리엔탈D&amp;크리미양파D</v>
       </c>
       <c r="L56" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M56" s="267"/>
+      <c r="M56" s="239"/>
       <c r="N56" s="171" t="str">
         <f>주간메뉴표!G54</f>
-        <v>발사믹D&amp;파인애플D</v>
+        <v>발사믹D&amp;딸기요거트D</v>
       </c>
       <c r="O56" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P56" s="267"/>
+      <c r="P56" s="239"/>
       <c r="Q56" s="171" t="str">
         <f>주간메뉴표!H54</f>
-        <v>오리엔탈D&amp;딸기D</v>
+        <v>오리엔탈D&amp;한라봉D</v>
       </c>
       <c r="R56" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="S56" s="275"/>
+      <c r="S56" s="234"/>
     </row>
     <row r="57" spans="2:19" ht="20.25" customHeight="1">
       <c r="E57" s="70"/>
@@ -10782,32 +10576,34 @@
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="M28:M33"/>
-    <mergeCell ref="P28:P33"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="P37:P38"/>
-    <mergeCell ref="S55:S56"/>
-    <mergeCell ref="P47:P54"/>
-    <mergeCell ref="P55:P56"/>
-    <mergeCell ref="S37:S38"/>
-    <mergeCell ref="Q37:Q38"/>
-    <mergeCell ref="R37:R38"/>
-    <mergeCell ref="S9:S14"/>
-    <mergeCell ref="P21:P27"/>
-    <mergeCell ref="S21:S27"/>
-    <mergeCell ref="S28:S33"/>
-    <mergeCell ref="P9:P14"/>
-    <mergeCell ref="P15:P20"/>
-    <mergeCell ref="S15:S20"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="P41:P46"/>
-    <mergeCell ref="M34:M36"/>
-    <mergeCell ref="P34:P36"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="C21:C27"/>
+    <mergeCell ref="D9:D14"/>
+    <mergeCell ref="G9:G14"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="J9:J14"/>
+    <mergeCell ref="M9:M14"/>
+    <mergeCell ref="M21:M27"/>
+    <mergeCell ref="D21:D27"/>
+    <mergeCell ref="G21:G27"/>
+    <mergeCell ref="J21:J27"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="G15:G20"/>
+    <mergeCell ref="J15:J20"/>
+    <mergeCell ref="M15:M20"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="J34:J36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D28:D33"/>
+    <mergeCell ref="G28:G33"/>
+    <mergeCell ref="J28:J33"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
     <mergeCell ref="B9:B40"/>
     <mergeCell ref="S41:S46"/>
     <mergeCell ref="B41:C56"/>
@@ -10824,34 +10620,32 @@
     <mergeCell ref="C34:C36"/>
     <mergeCell ref="D55:D56"/>
     <mergeCell ref="G55:G56"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="J34:J36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D28:D33"/>
-    <mergeCell ref="G28:G33"/>
-    <mergeCell ref="J28:J33"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J9:J14"/>
-    <mergeCell ref="M9:M14"/>
-    <mergeCell ref="M21:M27"/>
-    <mergeCell ref="D21:D27"/>
-    <mergeCell ref="G21:G27"/>
-    <mergeCell ref="J21:J27"/>
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="G15:G20"/>
-    <mergeCell ref="J15:J20"/>
-    <mergeCell ref="M15:M20"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="C21:C27"/>
-    <mergeCell ref="D9:D14"/>
-    <mergeCell ref="G9:G14"/>
-    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="P41:P46"/>
+    <mergeCell ref="M34:M36"/>
+    <mergeCell ref="P34:P36"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="S9:S14"/>
+    <mergeCell ref="P21:P27"/>
+    <mergeCell ref="S21:S27"/>
+    <mergeCell ref="S28:S33"/>
+    <mergeCell ref="P9:P14"/>
+    <mergeCell ref="P15:P20"/>
+    <mergeCell ref="S15:S20"/>
+    <mergeCell ref="M28:M33"/>
+    <mergeCell ref="P28:P33"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="S55:S56"/>
+    <mergeCell ref="P47:P54"/>
+    <mergeCell ref="P55:P56"/>
+    <mergeCell ref="S37:S38"/>
+    <mergeCell ref="Q37:Q38"/>
+    <mergeCell ref="R37:R38"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lunch.xlsx
+++ b/lunch.xlsx
@@ -13,9 +13,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'월,목ver1_주간메뉴표'!$K$49:$K$50</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">주간메뉴표!$K$43:$K$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">주간메뉴표!$K$44:$K$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'월,목ver1_주간메뉴표'!$B$2:$H$64</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">주간메뉴표!$B$2:$H$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">주간메뉴표!$B$2:$H$59</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">칼로리및알레르기공시!#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="345">
   <si>
     <t>작성 가이드</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -1048,58 +1048,241 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2023.11.20~2023.11.24</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>월 11/20</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>화 11/21</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>수 11/22</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>목 11/23</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>금 11/24</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>씨푸드파스타샐러드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>베이컨닭가슴살샐러드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>쿠스쿠스닭다리살샐러드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>에그마요샐러드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>목살스테이크샐러드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>퀴노아아보카도샐러드</t>
+    <t>┗맛김가루</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>깍두기</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>미역장국</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>배추겉절이</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>우동국</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>계란찜</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>감자채햄볶음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>배추김치</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>[시즌프로모션_겨울]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>김치전</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌자반볶음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>열무김치</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡곡밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>사골떡만둣국</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>두부마늘보쌈</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>쇠고기콩나물밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>영양밥*양념장</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>(뚝)참치김치찌개</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>양파고추간장절임</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>치킨너겟/어묵볶음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>고기경단조림</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>비엔나소시지볶음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>오징어젓무침</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>냉이된장국</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>알감자조림</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>마카로니샐러드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>마늘쫑지/포기김치</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spicy 토리동_일본가정식st</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>간자장*후라이</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>물쫄면(온면)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>유부장국</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭봉구이&amp;해물짜조</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>짬뽕국물</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>김구이</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>깐풍기</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>[웰그린데이]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>일식스프카레&amp;장각구이</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>고사리들기름파스타</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>치즈밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>베지치킨&amp;베지오징어링튀김</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>에그타르트</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>빠에야</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="나눔고딕 ExtraBold"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(피홍합,피새우,오징어)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>무비트피클</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>락교&amp;초생강&amp;산고추절임</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>채소크로켓</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>훈제연어스테이크샐러드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>바질파스타샐러드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>코코넛쉬림프샐러드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>케이준치킨&amp;크랩타블렉샐러드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>포크커틀렛샐러드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>하프오리엔탈치킨샌드위치
+&amp;과일2종</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>간장불고기샐러드랩
+&amp;과일2종</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>케이준치킨샐러드랩
+&amp;과일2종</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>쉬림프치즈랩샌드위치
+&amp;과일2종</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="14"/>
-        <color rgb="FF009644"/>
+        <color rgb="FF00B050"/>
         <rFont val="나눔고딕"/>
         <family val="3"/>
         <charset val="129"/>
@@ -1114,15 +1297,19 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve"> 베지순두부비빔밥</t>
+      <t>라구두부면파스타</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>풀드포크누들샐러드</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="14"/>
-        <color rgb="FF009644"/>
+        <color rgb="FF00B050"/>
         <rFont val="나눔고딕"/>
         <family val="3"/>
         <charset val="129"/>
@@ -1137,32 +1324,76 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve"> 베지마제두부면</t>
+      <t>아보카도베지키마카레</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>제육컬리플라워흑미덮밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>쉬림프치즈랩샌드위치
-&amp;과일2종</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>햄치즈크라상샌드위치
-&amp;과일2종</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>어니언치킨샐러드랩
-&amp;과일2종</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>불고기랩샌드위치
-&amp;과일2종</t>
+    <t>얼큰장터국밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>소시지커리필라프</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>(뚝)닭곰탕</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>짜글이고추장돼지불고기</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>백순대볶음*양념장</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>한입콤비네이션피자</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>두부구이</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>다시마숙회*초고추장</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>코올슬로</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀프오쭈비빔밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀프우렁강된장비빔밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀프노량진황제컵밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀프에비동</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗쌀밥,오쭈떡볶음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗쌀밥,강된장,계란후라이</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗쌀밥,삼겹살,후라이,비엔나</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗쌀밥,새우튀김</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1170,71 +1401,35 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>셀프우삼겹숙주비빔밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗맛김가루</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>유부장국</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗쌀밥,우삼겹볶음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗부추생채,숙주양파볶음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>깍두기</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>꼬마돈가스*케찹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>셀프추억의도시락</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF008A3E"/>
-        <rFont val="나눔고딕 ExtraBold"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>N</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="나눔고딕 ExtraBold"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="나눔고딕 ExtraBold"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>셀프명란마요아보카도비빔밥</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗비엔나소시지,볶음김치</t>
+    <t>┗쫑상추,콩나물무침</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗쫑상추,맛김가루</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗숙주양파볶음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗무생채,맛김가루</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗볶음김치,참치마요옥수수</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗초생강절임(채), 맛김가루</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>시금치된장국</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>감자수제비국</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1242,184 +1437,71 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>돼지고기장조림</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>오징어가스*스위트칠리S</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>놀부부대찌개*우동사리</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>(철판)미나리목</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="나눔고딕 ExtraBold"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(살)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="나눔고딕 ExtraBold"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>반삼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="나눔고딕 ExtraBold"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(겹)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="나눔고딕 ExtraBold"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>반</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>닭도리탕</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>뚝배기돼지불고기</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>우삼겹고추장찌개</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>생선가스*타르타르s</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>환어묵볶음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>얼갈이된장국</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>잔멸치볶음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>*두부김치</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>콩나물무침</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>채소잡채</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>후랑크소시지볶음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>도시락김</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>미역국</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>오이맛고추쌈장무침</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>궁채절임</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>쌈무/쌈장(마늘고추)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>잡곡밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>양지쌀국수</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>안동국시</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>육칼(육개장칼국수)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>새우롤*고구마롤</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>고추잡채군만두</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>동태전</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>떡갈비구이*부추생채</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>파인애플볶음밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>짜사이채</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>배추겉절이</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Fun!629]</t>
-  </si>
-  <si>
-    <t>피쉬앤칩스</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>고깃집볶음밥*후라이</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>참치회덮밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>버섯장국</t>
+    <t>매실차(Hot)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>발사믹D&amp;참깨D</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>유자차(hot)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>나쵸칩*살사소스</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>오리엔탈D&amp;망고D</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>오리엔탈D&amp;블루베리D</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>발사믹D&amp;파인애플D</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>오리엔탈D&amp;딸기D</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>사과</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Fun!629]_1&amp;2코너</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>무비트피클/탄산음료</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>전주식비빔밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>모듬전</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>모듬채소전</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍왕갈비쌀국수</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>충무김밥&amp;오징어숙회무침</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>쇠고기버섯잡채</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1427,237 +1509,71 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>된장찌개</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>수제오이피클</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>계란찜</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>갓김치</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>일식간장불고기솥밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>베이컨갈릭볶음밥*후라이</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>(뚝)전주식콩나물국밥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="나눔고딕 ExtraBold"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>*수란</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>밀양돼지국밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>매생이굴국밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>*비빔반숙란&amp;쯔유소스</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>순대볶음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>돼지고기강정</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>새우가스*타르타르s</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>부추장떡</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>알감자조림</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>고구마크로켓</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>단호박샐러드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>우엉조림</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>진미채고추장무침</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>간장고추지</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>콘샐러드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>석박지</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>그린샐러드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>과카몰리에그오픈샌드위치</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>우육탕면</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>셀프치킨데리야끼덮밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗쌀밥,닭다리살볶음,스크램블에그</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>양파링튀김</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>우동국물</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>*로제소스</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>함박오므라이스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="나눔고딕 ExtraBold"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(버섯치즈라이스)</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>단호박전</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗쌀밥,계란후라이,멸치볶음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗맛김가루,콩자반</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗쫑상추,맛김가루</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>*명란마요소스</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗쌀밥,아보카도,계란후라이</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗숙주양파볶음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>손만두찜</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>발사믹D&amp;자몽D</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>오리엔탈D&amp;요거트D</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>오리엔탈D&amp;크리미양파D</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>발사믹D&amp;딸기요거트D</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>오리엔탈D&amp;한라봉D</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>자몽차</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>율무차</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>녹차라떼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>요거트*씨리얼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>메밀전병</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>천사채샐러드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>그린샐러드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>일자: 23.11.20~11.24</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
+    <t>해물된장찌개</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>비빔채소만두</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>유채된장국</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼬마돈가스강정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>깻잎주먹완자전</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>사모사*칠리s</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니애플파이</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.12.11~2023.12.15</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>월 12/11</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>화 12/12</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>수 12/13</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>목 12/14</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>금 12/15</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>일식철판돈가스</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>(뚝)대구매운탕</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>라후테덮밥(차슈ST)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>일자: 23.12.11~12.15</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1669,7 +1585,7 @@
     <numFmt numFmtId="176" formatCode="mm&quot;/&quot;dd\ ddd"/>
     <numFmt numFmtId="177" formatCode="##\ &quot;Kcal&quot;"/>
   </numFmts>
-  <fonts count="63">
+  <fonts count="61">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
@@ -2073,8 +1989,7 @@
     </font>
     <font>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="나눔고딕"/>
+      <name val="나눔스퀘어 ExtraBold"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -2087,41 +2002,29 @@
       <charset val="129"/>
     </font>
     <font>
+      <b/>
       <sz val="14"/>
-      <color rgb="FF009644"/>
+      <name val="나눔고딕 ExtraBold"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="나눔고딕 ExtraBold"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="나눔고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="나눔고딕 ExtraBold"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="나눔고딕 ExtraBold"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="나눔고딕 ExtraBold"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="나눔고딕 ExtraBold"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
-      <name val="나눔스퀘어 ExtraBold"/>
+      <color rgb="FF00B050"/>
+      <name val="나눔고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -2170,7 +2073,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -2460,17 +2363,8 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2504,8 +2398,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="274">
+  <cellXfs count="286">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2947,9 +2844,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2968,68 +2862,215 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="4" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="23" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="43" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="57" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="40" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="40" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3037,141 +3078,33 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="40" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="40" fillId="4" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3329,9 +3262,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="12">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1"/>
+    <cellStyle name="표준 2 2" xfId="11"/>
     <cellStyle name="표준 3" xfId="2"/>
     <cellStyle name="표준 3 2" xfId="3"/>
     <cellStyle name="표준 4" xfId="4"/>
@@ -4236,7 +4170,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1953863</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>37024</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1054552" cy="247269"/>
@@ -4280,7 +4214,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1953863</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>37024</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1054552" cy="247269"/>
@@ -4322,75 +4256,26 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>609938</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>253068</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>966107</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1632857</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>299356</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1786824</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="그림 12"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId3">
-                  <a14:imgEffect>
-                    <a14:backgroundRemoval t="9155" b="91549" l="4321" r="96914"/>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="3787" t="19591" r="7575" b="11268"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13155724" y="1967568"/>
-          <a:ext cx="1022919" cy="699431"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>557891</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>204106</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1684182</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>217714</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="그림 16"/>
+        <xdr:cNvPr id="6" name="그림 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4403,23 +4288,214 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13103677" y="2898320"/>
-          <a:ext cx="1126291" cy="666751"/>
+          <a:off x="2639786" y="7320643"/>
+          <a:ext cx="820717" cy="884464"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="28000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>693964</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>3646</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="966107" cy="939760"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8409214" y="2371289"/>
+          <a:ext cx="966107" cy="939760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1660071</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>258535</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2435680" cy="2286001"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="그림 41"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId5">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="0" b="96946" l="0" r="97578">
+                      <a14:foregroundMark x1="14187" y1="9562" x2="84429" y2="9031"/>
+                      <a14:foregroundMark x1="12976" y1="13015" x2="81488" y2="12882"/>
+                      <a14:foregroundMark x1="9170" y1="13679" x2="13841" y2="13413"/>
+                      <a14:foregroundMark x1="85294" y1="13280" x2="91522" y2="13147"/>
+                      <a14:foregroundMark x1="8131" y1="13015" x2="11073" y2="12882"/>
+                      <a14:foregroundMark x1="10900" y1="35591" x2="11246" y2="90837"/>
+                      <a14:foregroundMark x1="80450" y1="89641" x2="89446" y2="62683"/>
+                      <a14:foregroundMark x1="77336" y1="74104" x2="77509" y2="74369"/>
+                      <a14:foregroundMark x1="76644" y1="75299" x2="86159" y2="77424"/>
+                      <a14:foregroundMark x1="76990" y1="75299" x2="85467" y2="72908"/>
+                      <a14:foregroundMark x1="75260" y1="81673" x2="73875" y2="90571"/>
+                      <a14:foregroundMark x1="88062" y1="80345" x2="86159" y2="90704"/>
+                      <a14:foregroundMark x1="89792" y1="85126" x2="92215" y2="92165"/>
+                      <a14:foregroundMark x1="91003" y1="81142" x2="91522" y2="89907"/>
+                      <a14:foregroundMark x1="89619" y1="82205" x2="94118" y2="86587"/>
+                      <a14:foregroundMark x1="2422" y1="46746" x2="16955" y2="46879"/>
+                      <a14:foregroundMark x1="4325" y1="50996" x2="13322" y2="50996"/>
+                      <a14:foregroundMark x1="5017" y1="59230" x2="16609" y2="65339"/>
+                      <a14:foregroundMark x1="4671" y1="64807" x2="12111" y2="64807"/>
+                      <a14:foregroundMark x1="4671" y1="66268" x2="13149" y2="66135"/>
+                      <a14:foregroundMark x1="3633" y1="69190" x2="7612" y2="69721"/>
+                      <a14:foregroundMark x1="9343" y1="74104" x2="9689" y2="76096"/>
+                      <a14:foregroundMark x1="78720" y1="71580" x2="77336" y2="82603"/>
+                      <a14:foregroundMark x1="76471" y1="72908" x2="77509" y2="84197"/>
+                      <a14:foregroundMark x1="74394" y1="73705" x2="77855" y2="90571"/>
+                      <a14:foregroundMark x1="72664" y1="79416" x2="71626" y2="90837"/>
+                      <a14:foregroundMark x1="74221" y1="77291" x2="73875" y2="81673"/>
+                      <a14:foregroundMark x1="38581" y1="7039" x2="54498" y2="5578"/>
+                      <a14:foregroundMark x1="6228" y1="35989" x2="11419" y2="34927"/>
+                      <a14:foregroundMark x1="5363" y1="36653" x2="8651" y2="35724"/>
+                      <a14:foregroundMark x1="7093" y1="35458" x2="9170" y2="34396"/>
+                      <a14:foregroundMark x1="15917" y1="44754" x2="15744" y2="46348"/>
+                      <a14:foregroundMark x1="8651" y1="44356" x2="8651" y2="47809"/>
+                      <a14:foregroundMark x1="7785" y1="45551" x2="9689" y2="45020"/>
+                      <a14:foregroundMark x1="8478" y1="75166" x2="8478" y2="77424"/>
+                      <a14:foregroundMark x1="73356" y1="73971" x2="87716" y2="69987"/>
+                      <a14:foregroundMark x1="6228" y1="37716" x2="6228" y2="40637"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="1133" r="2170" b="6415"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5347607" y="6218464"/>
+          <a:ext cx="2435680" cy="2286001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1088571</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1364786</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>2571</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="그림 43"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6789964" y="7293429"/>
+          <a:ext cx="276215" cy="301928"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>693964</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>3646</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="966107" cy="939760"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="그림 38"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8390164" y="2356321"/>
+          <a:ext cx="966107" cy="939760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4858,7 +4934,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="105"/>
       <c r="H2" s="2"/>
-      <c r="J2" s="207" t="s">
+      <c r="J2" s="219" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="32"/>
@@ -4876,7 +4952,7 @@
       <c r="E3" s="12"/>
       <c r="F3" s="106"/>
       <c r="G3" s="11"/>
-      <c r="J3" s="207"/>
+      <c r="J3" s="219"/>
       <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:18" ht="24" customHeight="1">
@@ -4913,7 +4989,7 @@
       <c r="H5" s="84" t="s">
         <v>182</v>
       </c>
-      <c r="J5" s="208" t="s">
+      <c r="J5" s="220" t="s">
         <v>40</v>
       </c>
       <c r="K5" s="48"/>
@@ -4926,7 +5002,7 @@
       <c r="R5" s="2"/>
     </row>
     <row r="6" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B6" s="210" t="s">
+      <c r="B6" s="222" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="20" t="s">
@@ -4947,7 +5023,7 @@
       <c r="H6" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="J6" s="209"/>
+      <c r="J6" s="221"/>
       <c r="K6" s="21"/>
       <c r="L6" s="52"/>
       <c r="M6" s="52"/>
@@ -4958,7 +5034,7 @@
       <c r="R6" s="22"/>
     </row>
     <row r="7" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B7" s="210"/>
+      <c r="B7" s="222"/>
       <c r="C7" s="23" t="s">
         <v>7</v>
       </c>
@@ -4977,7 +5053,7 @@
       <c r="H7" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="209"/>
+      <c r="J7" s="221"/>
       <c r="K7" s="24"/>
       <c r="L7" s="52"/>
       <c r="M7" s="52"/>
@@ -4988,7 +5064,7 @@
       <c r="R7" s="22"/>
     </row>
     <row r="8" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B8" s="210"/>
+      <c r="B8" s="222"/>
       <c r="C8" s="104"/>
       <c r="D8" s="24" t="s">
         <v>185</v>
@@ -5005,7 +5081,7 @@
       <c r="H8" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="J8" s="209"/>
+      <c r="J8" s="221"/>
       <c r="K8" s="24"/>
       <c r="L8" s="16"/>
       <c r="M8" s="52"/>
@@ -5016,7 +5092,7 @@
       <c r="R8" s="22"/>
     </row>
     <row r="9" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B9" s="210"/>
+      <c r="B9" s="222"/>
       <c r="C9" s="104"/>
       <c r="D9" s="24" t="s">
         <v>70</v>
@@ -5033,7 +5109,7 @@
       <c r="H9" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="J9" s="209"/>
+      <c r="J9" s="221"/>
       <c r="K9" s="24"/>
       <c r="L9" s="8"/>
       <c r="M9" s="52"/>
@@ -5044,7 +5120,7 @@
       <c r="R9" s="22"/>
     </row>
     <row r="10" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B10" s="210"/>
+      <c r="B10" s="222"/>
       <c r="C10" s="104"/>
       <c r="D10" s="24" t="s">
         <v>74</v>
@@ -5061,7 +5137,7 @@
       <c r="H10" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="209"/>
+      <c r="J10" s="221"/>
       <c r="K10" s="24"/>
       <c r="L10" s="16"/>
       <c r="M10" s="52"/>
@@ -5072,7 +5148,7 @@
       <c r="R10" s="22"/>
     </row>
     <row r="11" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B11" s="210"/>
+      <c r="B11" s="222"/>
       <c r="C11" s="104"/>
       <c r="D11" s="24" t="s">
         <v>56</v>
@@ -5089,7 +5165,7 @@
       <c r="H11" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="J11" s="209"/>
+      <c r="J11" s="221"/>
       <c r="K11" s="24"/>
       <c r="L11" s="16"/>
       <c r="M11" s="52"/>
@@ -5100,7 +5176,7 @@
       <c r="R11" s="26"/>
     </row>
     <row r="12" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B12" s="210"/>
+      <c r="B12" s="222"/>
       <c r="C12" s="28"/>
       <c r="D12" s="24" t="s">
         <v>53</v>
@@ -5117,7 +5193,7 @@
       <c r="H12" s="34">
         <v>725</v>
       </c>
-      <c r="J12" s="209"/>
+      <c r="J12" s="221"/>
       <c r="K12" s="24"/>
       <c r="L12" s="16"/>
       <c r="M12" s="52"/>
@@ -5128,7 +5204,7 @@
       <c r="R12" s="22"/>
     </row>
     <row r="13" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B13" s="210"/>
+      <c r="B13" s="222"/>
       <c r="C13" s="20" t="s">
         <v>8</v>
       </c>
@@ -5139,7 +5215,7 @@
       <c r="H13" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="J13" s="209"/>
+      <c r="J13" s="221"/>
       <c r="K13" s="21"/>
       <c r="L13" s="16"/>
       <c r="M13" s="52"/>
@@ -5150,7 +5226,7 @@
       <c r="R13" s="22"/>
     </row>
     <row r="14" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B14" s="210"/>
+      <c r="B14" s="222"/>
       <c r="C14" s="23" t="s">
         <v>43</v>
       </c>
@@ -5161,7 +5237,7 @@
       <c r="H14" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="J14" s="209"/>
+      <c r="J14" s="221"/>
       <c r="K14" s="24"/>
       <c r="L14" s="21"/>
       <c r="M14" s="40"/>
@@ -5172,7 +5248,7 @@
       <c r="R14" s="29"/>
     </row>
     <row r="15" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B15" s="210"/>
+      <c r="B15" s="222"/>
       <c r="C15" s="104"/>
       <c r="D15" s="24"/>
       <c r="E15" s="127"/>
@@ -5181,7 +5257,7 @@
       <c r="H15" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="J15" s="209"/>
+      <c r="J15" s="221"/>
       <c r="K15" s="24"/>
       <c r="L15" s="24"/>
       <c r="M15" s="52"/>
@@ -5192,7 +5268,7 @@
       <c r="R15" s="22"/>
     </row>
     <row r="16" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B16" s="210"/>
+      <c r="B16" s="222"/>
       <c r="C16" s="104"/>
       <c r="D16" s="24"/>
       <c r="E16" s="129"/>
@@ -5201,7 +5277,7 @@
       <c r="H16" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="J16" s="209"/>
+      <c r="J16" s="221"/>
       <c r="K16" s="24"/>
       <c r="L16" s="24"/>
       <c r="M16" s="52"/>
@@ -5212,7 +5288,7 @@
       <c r="R16" s="22"/>
     </row>
     <row r="17" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B17" s="210"/>
+      <c r="B17" s="222"/>
       <c r="C17" s="104"/>
       <c r="D17" s="24"/>
       <c r="E17" s="129"/>
@@ -5221,7 +5297,7 @@
       <c r="H17" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="J17" s="209"/>
+      <c r="J17" s="221"/>
       <c r="K17" s="24"/>
       <c r="L17" s="24"/>
       <c r="M17" s="52"/>
@@ -5235,7 +5311,7 @@
       <c r="A18" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="210"/>
+      <c r="B18" s="222"/>
       <c r="C18" s="31"/>
       <c r="D18" s="24"/>
       <c r="E18" s="129"/>
@@ -5244,7 +5320,7 @@
       <c r="H18" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="J18" s="209"/>
+      <c r="J18" s="221"/>
       <c r="K18" s="24"/>
       <c r="L18" s="24"/>
       <c r="M18" s="52"/>
@@ -5255,7 +5331,7 @@
       <c r="R18" s="22"/>
     </row>
     <row r="19" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B19" s="210"/>
+      <c r="B19" s="222"/>
       <c r="C19" s="28"/>
       <c r="D19" s="34">
         <v>1014</v>
@@ -5268,7 +5344,7 @@
       <c r="H19" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="J19" s="209"/>
+      <c r="J19" s="221"/>
       <c r="K19" s="34"/>
       <c r="L19" s="24"/>
       <c r="M19" s="52"/>
@@ -5279,7 +5355,7 @@
       <c r="R19" s="32"/>
     </row>
     <row r="20" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B20" s="210"/>
+      <c r="B20" s="222"/>
       <c r="C20" s="20" t="s">
         <v>44</v>
       </c>
@@ -5294,7 +5370,7 @@
         <v>82</v>
       </c>
       <c r="H20" s="24"/>
-      <c r="J20" s="209"/>
+      <c r="J20" s="221"/>
       <c r="K20" s="24"/>
       <c r="L20" s="32"/>
       <c r="M20" s="52"/>
@@ -5305,7 +5381,7 @@
       <c r="R20" s="22"/>
     </row>
     <row r="21" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B21" s="210"/>
+      <c r="B21" s="222"/>
       <c r="C21" s="23" t="s">
         <v>45</v>
       </c>
@@ -5320,7 +5396,7 @@
         <v>84</v>
       </c>
       <c r="H21" s="24"/>
-      <c r="J21" s="209"/>
+      <c r="J21" s="221"/>
       <c r="K21" s="24"/>
       <c r="L21" s="16"/>
       <c r="M21" s="52"/>
@@ -5331,7 +5407,7 @@
       <c r="R21" s="22"/>
     </row>
     <row r="22" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B22" s="210"/>
+      <c r="B22" s="222"/>
       <c r="C22" s="23"/>
       <c r="D22" s="121" t="s">
         <v>85</v>
@@ -5344,7 +5420,7 @@
         <v>86</v>
       </c>
       <c r="H22" s="24"/>
-      <c r="J22" s="209"/>
+      <c r="J22" s="221"/>
       <c r="K22" s="24"/>
       <c r="L22" s="16"/>
       <c r="M22" s="52"/>
@@ -5355,7 +5431,7 @@
       <c r="R22" s="22"/>
     </row>
     <row r="23" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B23" s="210"/>
+      <c r="B23" s="222"/>
       <c r="C23" s="104"/>
       <c r="D23" s="121" t="s">
         <v>87</v>
@@ -5368,7 +5444,7 @@
         <v>89</v>
       </c>
       <c r="H23" s="24"/>
-      <c r="J23" s="209"/>
+      <c r="J23" s="221"/>
       <c r="K23" s="24"/>
       <c r="L23" s="16"/>
       <c r="M23" s="40"/>
@@ -5379,7 +5455,7 @@
       <c r="R23" s="29"/>
     </row>
     <row r="24" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B24" s="210"/>
+      <c r="B24" s="222"/>
       <c r="C24" s="104"/>
       <c r="D24" s="121" t="s">
         <v>90</v>
@@ -5392,7 +5468,7 @@
         <v>91</v>
       </c>
       <c r="H24" s="24"/>
-      <c r="J24" s="209"/>
+      <c r="J24" s="221"/>
       <c r="K24" s="24"/>
       <c r="L24" s="16"/>
       <c r="M24" s="52"/>
@@ -5403,7 +5479,7 @@
       <c r="R24" s="22"/>
     </row>
     <row r="25" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B25" s="210"/>
+      <c r="B25" s="222"/>
       <c r="C25" s="104"/>
       <c r="D25" s="121" t="s">
         <v>53</v>
@@ -5414,7 +5490,7 @@
         <v>79</v>
       </c>
       <c r="H25" s="24"/>
-      <c r="J25" s="209"/>
+      <c r="J25" s="221"/>
       <c r="K25" s="24"/>
       <c r="L25" s="16"/>
       <c r="M25" s="52"/>
@@ -5425,7 +5501,7 @@
       <c r="R25" s="22"/>
     </row>
     <row r="26" spans="1:18" s="33" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B26" s="210"/>
+      <c r="B26" s="222"/>
       <c r="C26" s="28"/>
       <c r="D26" s="122"/>
       <c r="E26" s="130"/>
@@ -5434,7 +5510,7 @@
       <c r="H26" s="34">
         <v>725</v>
       </c>
-      <c r="J26" s="209"/>
+      <c r="J26" s="221"/>
       <c r="K26" s="85"/>
       <c r="L26" s="66"/>
       <c r="M26" s="35"/>
@@ -5445,8 +5521,8 @@
       <c r="R26" s="30"/>
     </row>
     <row r="27" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B27" s="210"/>
-      <c r="C27" s="218" t="s">
+      <c r="B27" s="222"/>
+      <c r="C27" s="230" t="s">
         <v>46</v>
       </c>
       <c r="D27" s="24" t="s">
@@ -5464,7 +5540,7 @@
       <c r="H27" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="J27" s="209"/>
+      <c r="J27" s="221"/>
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
       <c r="M27" s="66"/>
@@ -5475,8 +5551,8 @@
       <c r="R27" s="26"/>
     </row>
     <row r="28" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B28" s="210"/>
-      <c r="C28" s="221"/>
+      <c r="B28" s="222"/>
+      <c r="C28" s="233"/>
       <c r="D28" s="24" t="s">
         <v>54</v>
       </c>
@@ -5492,7 +5568,7 @@
       <c r="H28" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="J28" s="209"/>
+      <c r="J28" s="221"/>
       <c r="K28" s="16"/>
       <c r="L28" s="16"/>
       <c r="M28" s="66"/>
@@ -5503,8 +5579,8 @@
       <c r="R28" s="26"/>
     </row>
     <row r="29" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B29" s="210"/>
-      <c r="C29" s="222"/>
+      <c r="B29" s="222"/>
+      <c r="C29" s="234"/>
       <c r="D29" s="96" t="s">
         <v>97</v>
       </c>
@@ -5518,7 +5594,7 @@
       <c r="H29" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="J29" s="209"/>
+      <c r="J29" s="221"/>
       <c r="K29" s="16"/>
       <c r="L29" s="16"/>
       <c r="M29" s="66"/>
@@ -5529,7 +5605,7 @@
       <c r="R29" s="26"/>
     </row>
     <row r="30" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B30" s="210"/>
+      <c r="B30" s="222"/>
       <c r="C30" s="20" t="s">
         <v>47</v>
       </c>
@@ -5546,7 +5622,7 @@
       <c r="H30" s="133" t="s">
         <v>100</v>
       </c>
-      <c r="J30" s="209"/>
+      <c r="J30" s="221"/>
       <c r="K30" s="24"/>
       <c r="L30" s="36"/>
       <c r="M30" s="16"/>
@@ -5557,7 +5633,7 @@
       <c r="R30" s="37"/>
     </row>
     <row r="31" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B31" s="210"/>
+      <c r="B31" s="222"/>
       <c r="C31" s="101" t="s">
         <v>48</v>
       </c>
@@ -5574,7 +5650,7 @@
       <c r="H31" s="120" t="s">
         <v>103</v>
       </c>
-      <c r="J31" s="209"/>
+      <c r="J31" s="221"/>
       <c r="K31" s="24"/>
       <c r="L31" s="25"/>
       <c r="M31" s="16"/>
@@ -5585,7 +5661,7 @@
       <c r="R31" s="37"/>
     </row>
     <row r="32" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B32" s="210"/>
+      <c r="B32" s="222"/>
       <c r="C32" s="101" t="s">
         <v>49</v>
       </c>
@@ -5602,7 +5678,7 @@
       <c r="H32" s="121" t="s">
         <v>105</v>
       </c>
-      <c r="J32" s="209"/>
+      <c r="J32" s="221"/>
       <c r="K32" s="24"/>
       <c r="L32" s="16"/>
       <c r="M32" s="16"/>
@@ -5616,7 +5692,7 @@
       <c r="A33" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="210"/>
+      <c r="B33" s="222"/>
       <c r="C33" s="103"/>
       <c r="D33" s="24" t="s">
         <v>106</v>
@@ -5631,7 +5707,7 @@
       <c r="H33" s="121" t="s">
         <v>109</v>
       </c>
-      <c r="J33" s="209"/>
+      <c r="J33" s="221"/>
       <c r="K33" s="16"/>
       <c r="L33" s="32"/>
       <c r="M33" s="16"/>
@@ -5645,7 +5721,7 @@
       <c r="A34" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="210"/>
+      <c r="B34" s="222"/>
       <c r="C34" s="103"/>
       <c r="D34" s="24"/>
       <c r="E34" s="127" t="s">
@@ -5658,7 +5734,7 @@
       <c r="H34" s="121" t="s">
         <v>110</v>
       </c>
-      <c r="J34" s="209"/>
+      <c r="J34" s="221"/>
       <c r="K34" s="38"/>
       <c r="L34" s="32"/>
       <c r="M34" s="16"/>
@@ -5669,7 +5745,7 @@
       <c r="R34" s="39"/>
     </row>
     <row r="35" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B35" s="210"/>
+      <c r="B35" s="222"/>
       <c r="C35" s="104"/>
       <c r="D35" s="24"/>
       <c r="E35" s="127" t="s">
@@ -5680,7 +5756,7 @@
       <c r="H35" s="121" t="s">
         <v>203</v>
       </c>
-      <c r="J35" s="209"/>
+      <c r="J35" s="221"/>
       <c r="K35" s="38"/>
       <c r="L35" s="16"/>
       <c r="M35" s="40"/>
@@ -5691,7 +5767,7 @@
       <c r="R35" s="43"/>
     </row>
     <row r="36" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B36" s="210"/>
+      <c r="B36" s="222"/>
       <c r="C36" s="28"/>
       <c r="D36" s="34"/>
       <c r="E36" s="130"/>
@@ -5700,7 +5776,7 @@
       <c r="H36" s="122" t="s">
         <v>111</v>
       </c>
-      <c r="J36" s="209"/>
+      <c r="J36" s="221"/>
       <c r="K36" s="16"/>
       <c r="L36" s="16"/>
       <c r="M36" s="66"/>
@@ -5711,8 +5787,8 @@
       <c r="R36" s="26"/>
     </row>
     <row r="37" spans="1:18" s="44" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B37" s="210"/>
-      <c r="C37" s="211" t="s">
+      <c r="B37" s="222"/>
+      <c r="C37" s="223" t="s">
         <v>50</v>
       </c>
       <c r="D37" s="98" t="s">
@@ -5728,7 +5804,7 @@
       <c r="H37" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="J37" s="213" t="s">
+      <c r="J37" s="225" t="s">
         <v>17</v>
       </c>
       <c r="K37" s="16"/>
@@ -5741,8 +5817,8 @@
       <c r="R37" s="32"/>
     </row>
     <row r="38" spans="1:18" s="47" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B38" s="210"/>
-      <c r="C38" s="212"/>
+      <c r="B38" s="222"/>
+      <c r="C38" s="224"/>
       <c r="D38" s="124" t="s">
         <v>116</v>
       </c>
@@ -5756,7 +5832,7 @@
       <c r="H38" s="98" t="s">
         <v>119</v>
       </c>
-      <c r="J38" s="214"/>
+      <c r="J38" s="226"/>
       <c r="K38" s="38"/>
       <c r="L38" s="52"/>
       <c r="M38" s="16"/>
@@ -5767,7 +5843,7 @@
       <c r="R38" s="32"/>
     </row>
     <row r="39" spans="1:18" s="47" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B39" s="210"/>
+      <c r="B39" s="222"/>
       <c r="C39" s="103"/>
       <c r="D39" s="98" t="s">
         <v>120</v>
@@ -5782,7 +5858,7 @@
       <c r="H39" s="98" t="s">
         <v>123</v>
       </c>
-      <c r="J39" s="214"/>
+      <c r="J39" s="226"/>
       <c r="K39" s="16"/>
       <c r="L39" s="52"/>
       <c r="M39" s="16"/>
@@ -5793,7 +5869,7 @@
       <c r="R39" s="59"/>
     </row>
     <row r="40" spans="1:18" s="17" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B40" s="210"/>
+      <c r="B40" s="222"/>
       <c r="C40" s="103"/>
       <c r="D40" s="124" t="s">
         <v>124</v>
@@ -5808,7 +5884,7 @@
       <c r="H40" s="98" t="s">
         <v>127</v>
       </c>
-      <c r="J40" s="214"/>
+      <c r="J40" s="226"/>
       <c r="K40" s="16"/>
       <c r="L40" s="40"/>
       <c r="M40" s="16"/>
@@ -5819,7 +5895,7 @@
       <c r="R40" s="69"/>
     </row>
     <row r="41" spans="1:18" s="47" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B41" s="210"/>
+      <c r="B41" s="222"/>
       <c r="C41" s="91"/>
       <c r="D41" s="98" t="s">
         <v>128</v>
@@ -5834,7 +5910,7 @@
       <c r="H41" s="98" t="s">
         <v>131</v>
       </c>
-      <c r="J41" s="214"/>
+      <c r="J41" s="226"/>
       <c r="L41" s="52"/>
       <c r="M41" s="52"/>
       <c r="N41" s="52"/>
@@ -5862,7 +5938,7 @@
       <c r="R42" s="22"/>
     </row>
     <row r="43" spans="1:18" s="17" customFormat="1" ht="26.1" customHeight="1" thickTop="1">
-      <c r="B43" s="215" t="s">
+      <c r="B43" s="227" t="s">
         <v>11</v>
       </c>
       <c r="C43" s="93" t="s">
@@ -5883,7 +5959,7 @@
       <c r="H43" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="J43" s="217" t="s">
+      <c r="J43" s="229" t="s">
         <v>12</v>
       </c>
       <c r="K43" s="52"/>
@@ -5899,7 +5975,7 @@
       <c r="A44" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="210"/>
+      <c r="B44" s="222"/>
       <c r="C44" s="94"/>
       <c r="D44" s="24" t="s">
         <v>134</v>
@@ -5916,7 +5992,7 @@
       <c r="H44" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="J44" s="217"/>
+      <c r="J44" s="229"/>
       <c r="K44" s="50"/>
       <c r="L44" s="16"/>
       <c r="M44" s="52"/>
@@ -5927,7 +6003,7 @@
       <c r="R44" s="22"/>
     </row>
     <row r="45" spans="1:18" s="17" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B45" s="210"/>
+      <c r="B45" s="222"/>
       <c r="C45" s="103"/>
       <c r="D45" s="24" t="s">
         <v>208</v>
@@ -5944,7 +6020,7 @@
       <c r="H45" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="J45" s="217"/>
+      <c r="J45" s="229"/>
       <c r="K45" s="16"/>
       <c r="L45" s="30"/>
       <c r="M45" s="52"/>
@@ -5955,7 +6031,7 @@
       <c r="R45" s="22"/>
     </row>
     <row r="46" spans="1:18" s="17" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B46" s="210"/>
+      <c r="B46" s="222"/>
       <c r="C46" s="103"/>
       <c r="D46" s="24" t="s">
         <v>57</v>
@@ -5972,7 +6048,7 @@
       <c r="H46" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="J46" s="217"/>
+      <c r="J46" s="229"/>
       <c r="K46" s="16"/>
       <c r="L46" s="8"/>
       <c r="M46" s="66"/>
@@ -5983,7 +6059,7 @@
       <c r="R46" s="26"/>
     </row>
     <row r="47" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B47" s="210"/>
+      <c r="B47" s="222"/>
       <c r="C47" s="103"/>
       <c r="D47" s="24" t="s">
         <v>146</v>
@@ -6000,7 +6076,7 @@
       <c r="H47" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="J47" s="217"/>
+      <c r="J47" s="229"/>
       <c r="K47" s="16"/>
       <c r="L47" s="8"/>
       <c r="M47" s="66"/>
@@ -6011,7 +6087,7 @@
       <c r="R47" s="26"/>
     </row>
     <row r="48" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B48" s="210"/>
+      <c r="B48" s="222"/>
       <c r="C48" s="103"/>
       <c r="D48" s="24" t="s">
         <v>151</v>
@@ -6028,7 +6104,7 @@
       <c r="H48" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="J48" s="217"/>
+      <c r="J48" s="229"/>
       <c r="K48" s="30"/>
       <c r="L48" s="8"/>
       <c r="M48" s="30"/>
@@ -6039,7 +6115,7 @@
       <c r="R48" s="26"/>
     </row>
     <row r="49" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B49" s="210"/>
+      <c r="B49" s="222"/>
       <c r="C49" s="86"/>
       <c r="D49" s="34">
         <v>725</v>
@@ -6056,7 +6132,7 @@
       <c r="H49" s="34">
         <v>725</v>
       </c>
-      <c r="J49" s="217"/>
+      <c r="J49" s="229"/>
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
       <c r="M49" s="8"/>
@@ -6064,7 +6140,7 @@
       <c r="R49" s="22"/>
     </row>
     <row r="50" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B50" s="210"/>
+      <c r="B50" s="222"/>
       <c r="C50" s="20" t="s">
         <v>14</v>
       </c>
@@ -6079,14 +6155,14 @@
         <v>158</v>
       </c>
       <c r="H50" s="21"/>
-      <c r="J50" s="217"/>
+      <c r="J50" s="229"/>
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
       <c r="N50" s="52"/>
       <c r="R50" s="22"/>
     </row>
     <row r="51" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B51" s="210"/>
+      <c r="B51" s="222"/>
       <c r="C51" s="23"/>
       <c r="D51" s="24" t="s">
         <v>159</v>
@@ -6099,7 +6175,7 @@
         <v>161</v>
       </c>
       <c r="H51" s="24"/>
-      <c r="J51" s="217"/>
+      <c r="J51" s="229"/>
       <c r="K51" s="21"/>
       <c r="L51" s="21"/>
       <c r="M51" s="8"/>
@@ -6107,7 +6183,7 @@
       <c r="R51" s="22"/>
     </row>
     <row r="52" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B52" s="210"/>
+      <c r="B52" s="222"/>
       <c r="C52" s="20"/>
       <c r="D52" s="24" t="s">
         <v>162</v>
@@ -6120,7 +6196,7 @@
         <v>164</v>
       </c>
       <c r="H52" s="24"/>
-      <c r="J52" s="217"/>
+      <c r="J52" s="229"/>
       <c r="K52" s="24"/>
       <c r="L52" s="24"/>
       <c r="M52" s="8"/>
@@ -6128,7 +6204,7 @@
       <c r="R52" s="22"/>
     </row>
     <row r="53" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B53" s="210"/>
+      <c r="B53" s="222"/>
       <c r="C53" s="20"/>
       <c r="D53" s="24" t="s">
         <v>165</v>
@@ -6141,7 +6217,7 @@
         <v>167</v>
       </c>
       <c r="H53" s="24"/>
-      <c r="J53" s="217"/>
+      <c r="J53" s="229"/>
       <c r="K53" s="24"/>
       <c r="L53" s="24"/>
       <c r="M53" s="8"/>
@@ -6149,7 +6225,7 @@
       <c r="R53" s="22"/>
     </row>
     <row r="54" spans="2:18" s="51" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B54" s="210"/>
+      <c r="B54" s="222"/>
       <c r="C54" s="20"/>
       <c r="D54" s="24" t="s">
         <v>168</v>
@@ -6162,7 +6238,7 @@
         <v>144</v>
       </c>
       <c r="H54" s="24"/>
-      <c r="J54" s="217"/>
+      <c r="J54" s="229"/>
       <c r="K54" s="24"/>
       <c r="L54" s="24"/>
       <c r="M54" s="8"/>
@@ -6173,7 +6249,7 @@
       <c r="R54" s="22"/>
     </row>
     <row r="55" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B55" s="210"/>
+      <c r="B55" s="222"/>
       <c r="C55" s="20"/>
       <c r="D55" s="24" t="s">
         <v>170</v>
@@ -6186,7 +6262,7 @@
         <v>171</v>
       </c>
       <c r="H55" s="24"/>
-      <c r="J55" s="217"/>
+      <c r="J55" s="229"/>
       <c r="K55" s="24"/>
       <c r="L55" s="24"/>
       <c r="M55" s="52"/>
@@ -6194,7 +6270,7 @@
       <c r="R55" s="22"/>
     </row>
     <row r="56" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B56" s="210"/>
+      <c r="B56" s="222"/>
       <c r="C56" s="110"/>
       <c r="D56" s="34">
         <v>725</v>
@@ -6207,7 +6283,7 @@
         <v>905</v>
       </c>
       <c r="H56" s="34"/>
-      <c r="J56" s="217"/>
+      <c r="J56" s="229"/>
       <c r="K56" s="24"/>
       <c r="L56" s="24"/>
       <c r="M56" s="52"/>
@@ -6215,8 +6291,8 @@
       <c r="R56" s="22"/>
     </row>
     <row r="57" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B57" s="210"/>
-      <c r="C57" s="218" t="s">
+      <c r="B57" s="222"/>
+      <c r="C57" s="230" t="s">
         <v>10</v>
       </c>
       <c r="D57" s="24" t="s">
@@ -6234,7 +6310,7 @@
       <c r="H57" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="J57" s="217"/>
+      <c r="J57" s="229"/>
       <c r="K57" s="25"/>
       <c r="L57" s="30"/>
       <c r="M57" s="52"/>
@@ -6242,8 +6318,8 @@
       <c r="R57" s="22"/>
     </row>
     <row r="58" spans="2:18" ht="26.1" customHeight="1" thickBot="1">
-      <c r="B58" s="216"/>
-      <c r="C58" s="219"/>
+      <c r="B58" s="228"/>
+      <c r="C58" s="231"/>
       <c r="D58" s="100" t="s">
         <v>172</v>
       </c>
@@ -6259,7 +6335,7 @@
       <c r="H58" s="100" t="s">
         <v>176</v>
       </c>
-      <c r="J58" s="217"/>
+      <c r="J58" s="229"/>
       <c r="K58" s="16"/>
       <c r="L58" s="8"/>
       <c r="M58" s="52"/>
@@ -6290,7 +6366,7 @@
       <c r="F60" s="24"/>
       <c r="G60" s="32"/>
       <c r="H60" s="32"/>
-      <c r="J60" s="220" t="s">
+      <c r="J60" s="232" t="s">
         <v>15</v>
       </c>
       <c r="K60" s="16"/>
@@ -6311,7 +6387,7 @@
       <c r="F61" s="55"/>
       <c r="G61" s="16"/>
       <c r="H61" s="56"/>
-      <c r="J61" s="220"/>
+      <c r="J61" s="232"/>
       <c r="K61" s="59"/>
       <c r="L61" s="8"/>
       <c r="M61" s="52"/>
@@ -6326,14 +6402,14 @@
       <c r="E62" s="58"/>
       <c r="F62" s="57"/>
       <c r="G62" s="58"/>
-      <c r="H62" s="206"/>
+      <c r="H62" s="218"/>
       <c r="K62" s="16"/>
       <c r="L62" s="16"/>
       <c r="M62" s="52"/>
       <c r="N62" s="52"/>
     </row>
     <row r="63" spans="2:18" ht="14.25" customHeight="1">
-      <c r="H63" s="206"/>
+      <c r="H63" s="218"/>
       <c r="K63" s="52"/>
       <c r="L63" s="16"/>
       <c r="M63" s="52"/>
@@ -6692,10 +6768,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R861"/>
+  <dimension ref="A1:R862"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="96" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="96" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -6737,7 +6813,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="105"/>
       <c r="H2" s="2"/>
-      <c r="J2" s="207" t="s">
+      <c r="J2" s="219" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="32"/>
@@ -6748,21 +6824,21 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>226</v>
+        <v>335</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="11"/>
-      <c r="E3" s="225"/>
+      <c r="E3" s="237"/>
       <c r="F3" s="106"/>
       <c r="G3" s="11"/>
-      <c r="J3" s="207"/>
+      <c r="J3" s="219"/>
       <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:18" ht="24" customHeight="1">
       <c r="B4" s="115"/>
       <c r="C4" s="10"/>
       <c r="D4" s="107"/>
-      <c r="E4" s="226"/>
+      <c r="E4" s="238"/>
       <c r="F4" s="45"/>
       <c r="G4" s="108"/>
       <c r="H4" s="15"/>
@@ -6776,21 +6852,21 @@
         <v>42</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>227</v>
+        <v>336</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>228</v>
+        <v>337</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>229</v>
+        <v>338</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>230</v>
+        <v>339</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="J5" s="208" t="s">
+        <v>340</v>
+      </c>
+      <c r="J5" s="220" t="s">
         <v>40</v>
       </c>
       <c r="K5" s="48"/>
@@ -6803,56 +6879,56 @@
       <c r="R5" s="2"/>
     </row>
     <row r="6" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B6" s="223" t="s">
+      <c r="B6" s="235" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>259</v>
+      <c r="D6" s="152" t="s">
+        <v>239</v>
       </c>
       <c r="E6" s="126" t="s">
-        <v>260</v>
-      </c>
-      <c r="F6" s="153" t="s">
-        <v>261</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="H6" s="198" t="s">
-        <v>263</v>
-      </c>
-      <c r="J6" s="209"/>
+        <v>240</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="G6" s="155" t="s">
+        <v>319</v>
+      </c>
+      <c r="H6" s="152" t="s">
+        <v>321</v>
+      </c>
+      <c r="J6" s="221"/>
       <c r="K6" s="52"/>
-      <c r="L6" s="153"/>
+      <c r="L6" s="152"/>
       <c r="M6" s="48"/>
       <c r="N6" s="48"/>
       <c r="O6" s="48"/>
       <c r="P6" s="22"/>
     </row>
     <row r="7" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B7" s="210"/>
+      <c r="B7" s="222"/>
       <c r="C7" s="23" t="s">
         <v>222</v>
       </c>
       <c r="D7" s="145" t="s">
-        <v>264</v>
+        <v>322</v>
       </c>
       <c r="E7" s="127" t="s">
-        <v>268</v>
-      </c>
-      <c r="F7" s="201" t="s">
-        <v>265</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>266</v>
-      </c>
-      <c r="H7" s="139" t="s">
-        <v>66</v>
-      </c>
-      <c r="J7" s="209"/>
+        <v>242</v>
+      </c>
+      <c r="F7" s="146" t="s">
+        <v>243</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="H7" s="145" t="s">
+        <v>228</v>
+      </c>
+      <c r="J7" s="221"/>
       <c r="K7" s="52"/>
       <c r="L7" s="145"/>
       <c r="M7" s="48"/>
@@ -6861,24 +6937,24 @@
       <c r="P7" s="22"/>
     </row>
     <row r="8" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B8" s="210"/>
-      <c r="C8" s="177"/>
-      <c r="D8" s="24" t="s">
-        <v>267</v>
+      <c r="B8" s="222"/>
+      <c r="C8" s="173"/>
+      <c r="D8" s="145" t="s">
+        <v>244</v>
       </c>
       <c r="E8" s="127" t="s">
-        <v>273</v>
-      </c>
-      <c r="F8" s="201" t="s">
-        <v>269</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>270</v>
+        <v>323</v>
+      </c>
+      <c r="F8" s="145" t="s">
+        <v>245</v>
+      </c>
+      <c r="G8" s="191" t="s">
+        <v>155</v>
       </c>
       <c r="H8" s="145" t="s">
-        <v>271</v>
-      </c>
-      <c r="J8" s="209"/>
+        <v>246</v>
+      </c>
+      <c r="J8" s="221"/>
       <c r="K8" s="52"/>
       <c r="L8" s="145"/>
       <c r="M8" s="48"/>
@@ -6887,24 +6963,24 @@
       <c r="P8" s="22"/>
     </row>
     <row r="9" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B9" s="210"/>
-      <c r="C9" s="177"/>
+      <c r="B9" s="222"/>
+      <c r="C9" s="173"/>
       <c r="D9" s="145" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="E9" s="127" t="s">
-        <v>276</v>
-      </c>
-      <c r="F9" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="F9" s="145" t="s">
+        <v>250</v>
+      </c>
+      <c r="G9" s="191" t="s">
+        <v>227</v>
+      </c>
+      <c r="H9" s="145" t="s">
         <v>251</v>
       </c>
-      <c r="G9" s="145" t="s">
-        <v>274</v>
-      </c>
-      <c r="H9" s="145" t="s">
-        <v>275</v>
-      </c>
-      <c r="J9" s="209"/>
+      <c r="J9" s="221"/>
       <c r="K9" s="52"/>
       <c r="L9" s="145"/>
       <c r="M9" s="48"/>
@@ -6913,24 +6989,24 @@
       <c r="P9" s="22"/>
     </row>
     <row r="10" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B10" s="210"/>
-      <c r="C10" s="177"/>
+      <c r="B10" s="222"/>
+      <c r="C10" s="173"/>
       <c r="D10" s="145" t="s">
         <v>153</v>
       </c>
       <c r="E10" s="127" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="146" t="s">
-        <v>277</v>
-      </c>
-      <c r="G10" s="145" t="s">
-        <v>56</v>
+        <v>229</v>
+      </c>
+      <c r="F10" s="145" t="s">
+        <v>237</v>
+      </c>
+      <c r="G10" s="191" t="s">
+        <v>238</v>
       </c>
       <c r="H10" s="145" t="s">
-        <v>153</v>
-      </c>
-      <c r="J10" s="209"/>
+        <v>252</v>
+      </c>
+      <c r="J10" s="221"/>
       <c r="K10" s="52"/>
       <c r="L10" s="145"/>
       <c r="M10" s="48"/>
@@ -6939,8 +7015,8 @@
       <c r="P10" s="22"/>
     </row>
     <row r="11" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B11" s="210"/>
-      <c r="C11" s="177"/>
+      <c r="B11" s="222"/>
+      <c r="C11" s="173"/>
       <c r="D11" s="145" t="s">
         <v>53</v>
       </c>
@@ -6950,13 +7026,13 @@
       <c r="F11" s="145" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="145" t="s">
+      <c r="G11" s="191" t="s">
         <v>53</v>
       </c>
       <c r="H11" s="145" t="s">
         <v>53</v>
       </c>
-      <c r="J11" s="209"/>
+      <c r="J11" s="221"/>
       <c r="K11" s="52"/>
       <c r="L11" s="48"/>
       <c r="M11" s="48"/>
@@ -6965,24 +7041,24 @@
       <c r="P11" s="26"/>
     </row>
     <row r="12" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B12" s="210"/>
+      <c r="B12" s="222"/>
       <c r="C12" s="28"/>
       <c r="D12" s="143">
-        <v>1103</v>
+        <v>1151</v>
       </c>
       <c r="E12" s="130">
+        <v>1257</v>
+      </c>
+      <c r="F12" s="143">
         <v>1120</v>
       </c>
-      <c r="F12" s="143">
-        <v>1260</v>
-      </c>
       <c r="G12" s="143">
-        <v>1181</v>
+        <v>1371</v>
       </c>
       <c r="H12" s="143">
-        <v>1238</v>
-      </c>
-      <c r="J12" s="209"/>
+        <v>1052</v>
+      </c>
+      <c r="J12" s="221"/>
       <c r="K12" s="24"/>
       <c r="L12" s="48"/>
       <c r="M12" s="52"/>
@@ -6993,497 +7069,488 @@
       <c r="R12" s="22"/>
     </row>
     <row r="13" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B13" s="210"/>
+      <c r="B13" s="222"/>
       <c r="C13" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="205" t="s">
-        <v>278</v>
-      </c>
-      <c r="E13" s="126" t="s">
-        <v>318</v>
-      </c>
-      <c r="F13" s="158" t="s">
-        <v>279</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="H13" s="153"/>
-      <c r="J13" s="209"/>
+      <c r="D13" s="155" t="s">
+        <v>253</v>
+      </c>
+      <c r="E13" s="197" t="s">
+        <v>324</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="G13" s="155" t="s">
+        <v>255</v>
+      </c>
+      <c r="H13" s="152"/>
+      <c r="J13" s="221"/>
       <c r="K13" s="21"/>
       <c r="L13" s="52"/>
       <c r="M13" s="22"/>
     </row>
     <row r="14" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B14" s="210"/>
+      <c r="B14" s="222"/>
       <c r="C14" s="23" t="s">
         <v>223</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>281</v>
-      </c>
-      <c r="E14" s="127" t="s">
-        <v>282</v>
+        <v>256</v>
+      </c>
+      <c r="E14" s="198" t="s">
+        <v>257</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>283</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>284</v>
+        <v>258</v>
+      </c>
+      <c r="G14" s="191" t="s">
+        <v>325</v>
       </c>
       <c r="H14" s="145"/>
-      <c r="J14" s="209"/>
+      <c r="J14" s="221"/>
       <c r="K14" s="24"/>
       <c r="M14" s="29"/>
     </row>
     <row r="15" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B15" s="210"/>
-      <c r="C15" s="177"/>
+      <c r="B15" s="222"/>
+      <c r="C15" s="173"/>
       <c r="D15" s="139" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="E15" s="127" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="F15" s="146" t="s">
-        <v>287</v>
-      </c>
-      <c r="G15" s="146" t="s">
-        <v>287</v>
-      </c>
-      <c r="H15" s="24"/>
-      <c r="J15" s="209"/>
+        <v>260</v>
+      </c>
+      <c r="G15" s="191" t="s">
+        <v>104</v>
+      </c>
+      <c r="H15" s="145"/>
+      <c r="J15" s="221"/>
       <c r="K15" s="24"/>
       <c r="M15" s="22"/>
     </row>
     <row r="16" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B16" s="210"/>
-      <c r="C16" s="177"/>
+      <c r="B16" s="222"/>
+      <c r="C16" s="173"/>
       <c r="D16" s="139" t="s">
-        <v>194</v>
+        <v>58</v>
       </c>
       <c r="E16" s="127" t="s">
-        <v>287</v>
+        <v>53</v>
       </c>
       <c r="F16" s="146" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="146" t="s">
-        <v>53</v>
+        <v>104</v>
+      </c>
+      <c r="G16" s="191" t="s">
+        <v>229</v>
       </c>
       <c r="H16" s="145"/>
-      <c r="J16" s="209"/>
+      <c r="J16" s="221"/>
       <c r="K16" s="24"/>
       <c r="M16" s="22"/>
     </row>
-    <row r="17" spans="2:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B17" s="210"/>
-      <c r="C17" s="177"/>
+    <row r="17" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B17" s="222"/>
+      <c r="C17" s="173"/>
       <c r="D17" s="139" t="s">
+        <v>150</v>
+      </c>
+      <c r="E17" s="127"/>
+      <c r="F17" s="146" t="s">
+        <v>233</v>
+      </c>
+      <c r="G17" s="191" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="127" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="146"/>
-      <c r="G17" s="146"/>
       <c r="H17" s="145"/>
-      <c r="J17" s="209"/>
+      <c r="J17" s="221"/>
       <c r="K17" s="24"/>
       <c r="M17" s="22"/>
     </row>
-    <row r="18" spans="2:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B18" s="210"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="143">
-        <v>975</v>
-      </c>
-      <c r="E18" s="130">
-        <v>881</v>
-      </c>
-      <c r="F18" s="143">
-        <v>1111</v>
-      </c>
-      <c r="G18" s="143">
-        <v>795</v>
-      </c>
-      <c r="H18" s="187"/>
-      <c r="J18" s="209"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="17"/>
-    </row>
-    <row r="19" spans="2:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B19" s="210"/>
-      <c r="C19" s="20" t="s">
+    <row r="18" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A18" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="222"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="139" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="127"/>
+      <c r="F18" s="146" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="146"/>
+      <c r="H18" s="145"/>
+      <c r="J18" s="221"/>
+      <c r="K18" s="24"/>
+      <c r="M18" s="22"/>
+    </row>
+    <row r="19" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B19" s="222"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="143">
+        <v>908</v>
+      </c>
+      <c r="E19" s="130">
+        <v>1130</v>
+      </c>
+      <c r="F19" s="143">
+        <v>1182</v>
+      </c>
+      <c r="G19" s="143">
+        <v>964</v>
+      </c>
+      <c r="H19" s="143"/>
+      <c r="J19" s="221"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="17"/>
+    </row>
+    <row r="20" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B20" s="222"/>
+      <c r="C20" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="158" t="s">
-        <v>288</v>
-      </c>
-      <c r="E19" s="126" t="s">
-        <v>289</v>
-      </c>
-      <c r="F19" s="158" t="s">
-        <v>288</v>
-      </c>
-      <c r="G19" s="158" t="s">
-        <v>288</v>
-      </c>
-      <c r="H19" s="153"/>
-      <c r="J19" s="209"/>
-      <c r="K19" s="24"/>
-      <c r="M19" s="22"/>
-    </row>
-    <row r="20" spans="2:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B20" s="210"/>
-      <c r="C20" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>324</v>
-      </c>
-      <c r="E20" s="127" t="s">
-        <v>317</v>
-      </c>
-      <c r="F20" s="199" t="s">
-        <v>290</v>
-      </c>
-      <c r="G20" s="199" t="s">
-        <v>291</v>
-      </c>
-      <c r="H20" s="145"/>
-      <c r="J20" s="209"/>
+      <c r="D20" s="183" t="s">
+        <v>261</v>
+      </c>
+      <c r="E20" s="126" t="s">
+        <v>262</v>
+      </c>
+      <c r="G20" s="152" t="s">
+        <v>328</v>
+      </c>
+      <c r="H20" s="183"/>
+      <c r="J20" s="221"/>
       <c r="K20" s="24"/>
       <c r="M20" s="22"/>
-      <c r="N20" s="33"/>
-    </row>
-    <row r="21" spans="2:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B21" s="210"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="139" t="s">
-        <v>323</v>
+    </row>
+    <row r="21" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B21" s="222"/>
+      <c r="C21" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="D21" s="217" t="s">
+        <v>263</v>
       </c>
       <c r="E21" s="127" t="s">
-        <v>293</v>
-      </c>
-      <c r="F21" s="146" t="s">
-        <v>294</v>
+        <v>264</v>
+      </c>
+      <c r="F21" s="183" t="s">
+        <v>234</v>
       </c>
       <c r="G21" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="H21" s="183"/>
+      <c r="J21" s="221"/>
+      <c r="K21" s="24"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="33"/>
+    </row>
+    <row r="22" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B22" s="222"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="215" t="s">
+        <v>265</v>
+      </c>
+      <c r="E22" s="127" t="s">
         <v>266</v>
       </c>
-      <c r="H21" s="145"/>
-      <c r="J21" s="209"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="33"/>
-      <c r="N21" s="27"/>
-    </row>
-    <row r="22" spans="2:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B22" s="210"/>
-      <c r="C22" s="177"/>
-      <c r="D22" s="139" t="s">
-        <v>292</v>
-      </c>
-      <c r="E22" s="127" t="s">
-        <v>53</v>
-      </c>
-      <c r="F22" s="146" t="s">
-        <v>342</v>
-      </c>
-      <c r="G22" s="146" t="s">
-        <v>332</v>
-      </c>
-      <c r="H22" s="145"/>
-      <c r="J22" s="209"/>
+      <c r="F22" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="H22" s="21"/>
+      <c r="J22" s="221"/>
       <c r="K22" s="16"/>
-      <c r="L22" s="139"/>
-      <c r="N22" s="45"/>
-    </row>
-    <row r="23" spans="2:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B23" s="210"/>
-      <c r="C23" s="177"/>
-      <c r="D23" s="202" t="s">
-        <v>295</v>
-      </c>
-      <c r="E23" s="127"/>
-      <c r="F23" s="202" t="s">
-        <v>343</v>
-      </c>
-      <c r="G23" s="202" t="s">
-        <v>251</v>
-      </c>
-      <c r="H23" s="145"/>
-      <c r="J23" s="209"/>
+      <c r="L22" s="33"/>
+      <c r="N22" s="27"/>
+    </row>
+    <row r="23" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B23" s="222"/>
+      <c r="C23" s="173"/>
+      <c r="D23" s="191" t="s">
+        <v>268</v>
+      </c>
+      <c r="E23" s="216" t="s">
+        <v>269</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="G23" s="145" t="s">
+        <v>143</v>
+      </c>
+      <c r="H23" s="191"/>
+      <c r="J23" s="221"/>
       <c r="K23" s="16"/>
       <c r="L23" s="139"/>
-      <c r="N23" s="41"/>
-    </row>
-    <row r="24" spans="2:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B24" s="210"/>
-      <c r="C24" s="177"/>
-      <c r="D24" s="146" t="s">
+      <c r="N23" s="45"/>
+    </row>
+    <row r="24" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B24" s="222"/>
+      <c r="C24" s="173"/>
+      <c r="D24" s="139" t="s">
+        <v>327</v>
+      </c>
+      <c r="E24" s="127" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="127"/>
-      <c r="F24" s="202" t="s">
-        <v>251</v>
-      </c>
-      <c r="G24" s="202" t="s">
-        <v>316</v>
-      </c>
-      <c r="H24" s="145"/>
-      <c r="J24" s="209"/>
-      <c r="K24" s="52"/>
+      <c r="F24" s="146" t="s">
+        <v>320</v>
+      </c>
+      <c r="G24" s="145" t="s">
+        <v>153</v>
+      </c>
+      <c r="H24" s="191"/>
+      <c r="J24" s="221"/>
+      <c r="K24" s="16"/>
       <c r="L24" s="139"/>
-      <c r="N24" s="16"/>
-    </row>
-    <row r="25" spans="2:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B25" s="210"/>
-      <c r="C25" s="203"/>
-      <c r="D25" s="146"/>
+      <c r="N24" s="41"/>
+    </row>
+    <row r="25" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B25" s="222"/>
+      <c r="C25" s="173"/>
+      <c r="D25" s="145" t="s">
+        <v>53</v>
+      </c>
       <c r="E25" s="127"/>
-      <c r="F25" s="202" t="s">
-        <v>344</v>
-      </c>
-      <c r="G25" s="202"/>
-      <c r="H25" s="145"/>
-      <c r="J25" s="209"/>
+      <c r="F25" s="146" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="145" t="s">
+        <v>53</v>
+      </c>
+      <c r="H25" s="191"/>
+      <c r="J25" s="221"/>
       <c r="K25" s="52"/>
       <c r="L25" s="139"/>
       <c r="N25" s="16"/>
     </row>
-    <row r="26" spans="2:18" s="33" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B26" s="210"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="139">
+    <row r="26" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B26" s="222"/>
+      <c r="C26" s="214"/>
+      <c r="D26" s="145"/>
+      <c r="E26" s="127"/>
+      <c r="F26" s="146"/>
+      <c r="G26" s="145"/>
+      <c r="H26" s="191"/>
+      <c r="J26" s="221"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="139"/>
+      <c r="N26" s="16"/>
+    </row>
+    <row r="27" spans="1:18" s="33" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B27" s="222"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="143">
+        <v>1170</v>
+      </c>
+      <c r="E27" s="130">
         <v>1143</v>
       </c>
-      <c r="E26" s="130">
-        <v>1151</v>
-      </c>
-      <c r="F26" s="139">
-        <v>1139</v>
-      </c>
-      <c r="G26" s="139">
-        <v>783</v>
-      </c>
-      <c r="H26" s="143"/>
-      <c r="J26" s="209"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="139"/>
-      <c r="N26" s="48"/>
-    </row>
-    <row r="27" spans="2:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B27" s="210"/>
-      <c r="C27" s="218" t="s">
+      <c r="F27" s="143">
+        <v>868</v>
+      </c>
+      <c r="G27" s="143">
+        <v>1101</v>
+      </c>
+      <c r="H27" s="191"/>
+      <c r="J27" s="221"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="139"/>
+      <c r="N27" s="48"/>
+    </row>
+    <row r="28" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B28" s="222"/>
+      <c r="C28" s="230" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="138" t="s">
+      <c r="D28" s="138" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="145" t="s">
-        <v>297</v>
-      </c>
-      <c r="F27" s="138" t="s">
+      <c r="E28" s="145" t="s">
+        <v>150</v>
+      </c>
+      <c r="F28" s="138" t="s">
         <v>55</v>
       </c>
-      <c r="G27" s="138" t="s">
-        <v>297</v>
-      </c>
-      <c r="H27" s="138" t="s">
+      <c r="G28" s="138" t="s">
+        <v>150</v>
+      </c>
+      <c r="H28" s="138" t="s">
         <v>55</v>
       </c>
-      <c r="J27" s="209"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="26"/>
-      <c r="N27" s="48"/>
-    </row>
-    <row r="28" spans="2:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B28" s="210"/>
-      <c r="C28" s="221"/>
-      <c r="D28" s="102" t="s">
-        <v>338</v>
-      </c>
-      <c r="E28" s="102" t="s">
-        <v>333</v>
-      </c>
-      <c r="F28" s="102" t="s">
-        <v>339</v>
-      </c>
-      <c r="G28" s="102" t="s">
-        <v>340</v>
-      </c>
-      <c r="H28" s="102" t="s">
-        <v>341</v>
-      </c>
-      <c r="J28" s="209"/>
+      <c r="J28" s="221"/>
       <c r="K28" s="16"/>
-      <c r="L28" s="66"/>
-      <c r="M28" s="41"/>
+      <c r="L28" s="26"/>
       <c r="N28" s="48"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="26"/>
-    </row>
-    <row r="29" spans="2:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B29" s="210"/>
-      <c r="C29" s="222"/>
-      <c r="D29" s="151" t="s">
-        <v>334</v>
-      </c>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151" t="s">
-        <v>335</v>
-      </c>
-      <c r="G29" s="152" t="s">
-        <v>336</v>
-      </c>
-      <c r="H29" s="152" t="s">
-        <v>337</v>
-      </c>
-      <c r="J29" s="209"/>
-      <c r="K29" s="109"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="66"/>
+    </row>
+    <row r="29" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B29" s="222"/>
+      <c r="C29" s="233"/>
+      <c r="D29" s="102" t="s">
+        <v>310</v>
+      </c>
+      <c r="E29" s="102" t="s">
+        <v>311</v>
+      </c>
+      <c r="F29" s="102" t="s">
+        <v>312</v>
+      </c>
+      <c r="G29" s="102" t="s">
+        <v>313</v>
+      </c>
+      <c r="H29" s="102" t="s">
+        <v>318</v>
+      </c>
+      <c r="J29" s="221"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="66"/>
+      <c r="M29" s="41"/>
       <c r="N29" s="48"/>
       <c r="O29" s="45"/>
       <c r="P29" s="45"/>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="26"/>
-    </row>
-    <row r="30" spans="2:18" s="44" customFormat="1" ht="30.75" customHeight="1">
-      <c r="B30" s="210"/>
-      <c r="C30" s="175" t="s">
+      <c r="Q29" s="26"/>
+    </row>
+    <row r="30" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B30" s="222"/>
+      <c r="C30" s="234"/>
+      <c r="D30" s="150" t="s">
+        <v>314</v>
+      </c>
+      <c r="E30" s="143"/>
+      <c r="F30" s="150" t="s">
+        <v>315</v>
+      </c>
+      <c r="G30" s="151" t="s">
+        <v>316</v>
+      </c>
+      <c r="H30" s="151" t="s">
+        <v>317</v>
+      </c>
+      <c r="J30" s="221"/>
+      <c r="K30" s="109"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="66"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="45"/>
+      <c r="P30" s="45"/>
+      <c r="Q30" s="45"/>
+      <c r="R30" s="26"/>
+    </row>
+    <row r="31" spans="1:18" s="44" customFormat="1" ht="30.75" customHeight="1">
+      <c r="B31" s="222"/>
+      <c r="C31" s="171" t="s">
         <v>211</v>
       </c>
-      <c r="D30" s="145" t="s">
-        <v>232</v>
-      </c>
-      <c r="E30" s="145" t="s">
-        <v>233</v>
-      </c>
-      <c r="F30" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="G30" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="H30" s="24" t="s">
-        <v>236</v>
-      </c>
-      <c r="J30" s="213" t="s">
+      <c r="D31" s="145" t="s">
+        <v>271</v>
+      </c>
+      <c r="E31" s="145" t="s">
+        <v>272</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="G31" s="199" t="s">
+        <v>274</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="J31" s="225" t="s">
         <v>17</v>
       </c>
-      <c r="K30" s="16"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="48"/>
-      <c r="R30" s="32"/>
-    </row>
-    <row r="31" spans="2:18" s="47" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B31" s="210"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="143">
-        <v>674</v>
-      </c>
-      <c r="E31" s="143">
-        <v>725</v>
-      </c>
-      <c r="F31" s="143">
-        <v>698</v>
-      </c>
-      <c r="G31" s="192">
-        <v>712</v>
-      </c>
-      <c r="H31" s="143">
-        <v>769</v>
-      </c>
-      <c r="J31" s="214"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="52"/>
       <c r="M31" s="16"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="48"/>
-      <c r="Q31" s="32"/>
-    </row>
-    <row r="32" spans="2:18" s="47" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B32" s="210"/>
-      <c r="C32" s="175" t="s">
-        <v>219</v>
-      </c>
-      <c r="D32" s="159" t="s">
-        <v>241</v>
-      </c>
-      <c r="E32" s="159" t="s">
-        <v>242</v>
-      </c>
-      <c r="F32" s="159" t="s">
-        <v>244</v>
-      </c>
-      <c r="G32" s="159" t="s">
-        <v>243</v>
-      </c>
-      <c r="H32" s="154"/>
-      <c r="J32" s="214"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="32"/>
+    </row>
+    <row r="32" spans="1:18" s="47" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B32" s="222"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="143">
+        <v>629</v>
+      </c>
+      <c r="E32" s="143">
+        <v>642</v>
+      </c>
+      <c r="F32" s="143">
+        <v>777</v>
+      </c>
+      <c r="G32" s="143">
+        <v>458</v>
+      </c>
+      <c r="H32" s="143">
+        <v>699</v>
+      </c>
+      <c r="J32" s="226"/>
       <c r="K32" s="52"/>
       <c r="L32" s="16"/>
       <c r="M32" s="16"/>
       <c r="N32" s="24"/>
       <c r="O32" s="8"/>
       <c r="P32" s="48"/>
-      <c r="Q32" s="59"/>
-    </row>
-    <row r="33" spans="1:18" s="47" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B33" s="210"/>
-      <c r="C33" s="144"/>
-      <c r="D33" s="143">
-        <v>550</v>
-      </c>
-      <c r="E33" s="143">
-        <v>420</v>
-      </c>
-      <c r="F33" s="143">
-        <v>325</v>
-      </c>
-      <c r="G33" s="143">
-        <v>460</v>
-      </c>
-      <c r="H33" s="155"/>
-      <c r="J33" s="214"/>
+      <c r="Q32" s="32"/>
+    </row>
+    <row r="33" spans="1:18" s="47" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B33" s="222"/>
+      <c r="C33" s="171" t="s">
+        <v>219</v>
+      </c>
+      <c r="D33" s="200" t="s">
+        <v>276</v>
+      </c>
+      <c r="E33" s="200" t="s">
+        <v>277</v>
+      </c>
+      <c r="F33" s="200" t="s">
+        <v>278</v>
+      </c>
+      <c r="G33" s="200" t="s">
+        <v>279</v>
+      </c>
+      <c r="H33" s="201"/>
+      <c r="J33" s="226"/>
       <c r="K33" s="52"/>
-      <c r="L33" s="52"/>
-      <c r="M33" s="52"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
       <c r="N33" s="24"/>
-      <c r="O33" s="48"/>
+      <c r="O33" s="8"/>
       <c r="P33" s="48"/>
-      <c r="Q33" s="22"/>
+      <c r="Q33" s="59"/>
     </row>
     <row r="34" spans="1:18" s="47" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B34" s="210"/>
-      <c r="C34" s="140" t="s">
-        <v>218</v>
-      </c>
-      <c r="D34" s="147" t="s">
-        <v>237</v>
-      </c>
-      <c r="E34" s="147" t="s">
-        <v>238</v>
-      </c>
-      <c r="F34" s="147" t="s">
-        <v>240</v>
-      </c>
-      <c r="G34" s="147" t="s">
-        <v>239</v>
-      </c>
-      <c r="H34" s="147"/>
-      <c r="J34" s="17"/>
+      <c r="B34" s="222"/>
+      <c r="C34" s="144"/>
+      <c r="D34" s="143">
+        <v>315</v>
+      </c>
+      <c r="E34" s="143">
+        <v>480</v>
+      </c>
+      <c r="F34" s="143">
+        <v>455</v>
+      </c>
+      <c r="G34" s="143">
+        <v>691</v>
+      </c>
+      <c r="H34" s="202"/>
+      <c r="J34" s="226"/>
       <c r="K34" s="52"/>
       <c r="L34" s="52"/>
       <c r="M34" s="52"/>
@@ -7493,21 +7560,23 @@
       <c r="Q34" s="22"/>
     </row>
     <row r="35" spans="1:18" s="47" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B35" s="210"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="139">
-        <v>638</v>
-      </c>
-      <c r="E35" s="139">
-        <v>576</v>
-      </c>
-      <c r="F35" s="139">
-        <v>528</v>
-      </c>
-      <c r="G35" s="139">
-        <v>553</v>
-      </c>
-      <c r="H35" s="156"/>
+      <c r="B35" s="222"/>
+      <c r="C35" s="140" t="s">
+        <v>218</v>
+      </c>
+      <c r="D35" s="203" t="s">
+        <v>343</v>
+      </c>
+      <c r="E35" s="203" t="s">
+        <v>280</v>
+      </c>
+      <c r="F35" s="203" t="s">
+        <v>281</v>
+      </c>
+      <c r="G35" s="203" t="s">
+        <v>282</v>
+      </c>
+      <c r="H35" s="203"/>
       <c r="J35" s="17"/>
       <c r="K35" s="52"/>
       <c r="L35" s="52"/>
@@ -7517,80 +7586,74 @@
       <c r="P35" s="48"/>
       <c r="Q35" s="22"/>
     </row>
-    <row r="36" spans="1:18" s="47" customFormat="1" ht="9" customHeight="1" thickBot="1">
-      <c r="B36" s="49"/>
-      <c r="C36" s="92"/>
-      <c r="D36" s="188"/>
-      <c r="E36" s="188"/>
-      <c r="F36" s="99"/>
-      <c r="G36" s="99"/>
-      <c r="H36" s="157"/>
+    <row r="36" spans="1:18" s="47" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B36" s="222"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="139">
+        <v>679</v>
+      </c>
+      <c r="E36" s="139">
+        <v>588</v>
+      </c>
+      <c r="F36" s="139">
+        <v>546</v>
+      </c>
+      <c r="G36" s="139">
+        <v>777</v>
+      </c>
+      <c r="H36" s="153"/>
       <c r="J36" s="17"/>
       <c r="K36" s="52"/>
       <c r="L36" s="52"/>
       <c r="M36" s="52"/>
-      <c r="N36" s="52"/>
+      <c r="N36" s="24"/>
       <c r="O36" s="48"/>
       <c r="P36" s="48"/>
       <c r="Q36" s="22"/>
     </row>
-    <row r="37" spans="1:18" s="17" customFormat="1" ht="26.1" customHeight="1" thickTop="1">
-      <c r="B37" s="215" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="93" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="E37" s="153" t="s">
-        <v>299</v>
-      </c>
-      <c r="F37" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="G37" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="H37" s="21" t="s">
-        <v>302</v>
-      </c>
-      <c r="J37" s="217" t="s">
-        <v>12</v>
-      </c>
+    <row r="37" spans="1:18" s="47" customFormat="1" ht="9" customHeight="1" thickBot="1">
+      <c r="B37" s="49"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="184"/>
+      <c r="E37" s="184"/>
+      <c r="F37" s="99"/>
+      <c r="G37" s="99"/>
+      <c r="H37" s="154"/>
+      <c r="J37" s="17"/>
       <c r="K37" s="52"/>
-      <c r="L37" s="16"/>
+      <c r="L37" s="52"/>
       <c r="M37" s="52"/>
       <c r="N37" s="52"/>
       <c r="O37" s="48"/>
       <c r="P37" s="48"/>
-      <c r="Q37" s="48"/>
-      <c r="R37" s="22"/>
-    </row>
-    <row r="38" spans="1:18" s="17" customFormat="1" ht="26.1" customHeight="1">
-      <c r="A38" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="210"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="145" t="s">
-        <v>303</v>
-      </c>
-      <c r="E38" s="145" t="s">
-        <v>248</v>
-      </c>
-      <c r="F38" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="G38" s="145" t="s">
-        <v>304</v>
-      </c>
-      <c r="H38" s="145" t="s">
-        <v>305</v>
-      </c>
-      <c r="J38" s="217"/>
-      <c r="K38" s="66"/>
+      <c r="Q37" s="22"/>
+    </row>
+    <row r="38" spans="1:18" s="17" customFormat="1" ht="26.1" customHeight="1" thickTop="1">
+      <c r="B38" s="227" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="E38" s="155" t="s">
+        <v>284</v>
+      </c>
+      <c r="F38" s="152" t="s">
+        <v>285</v>
+      </c>
+      <c r="G38" s="204" t="s">
+        <v>286</v>
+      </c>
+      <c r="H38" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="J38" s="229" t="s">
+        <v>12</v>
+      </c>
+      <c r="K38" s="52"/>
       <c r="L38" s="16"/>
       <c r="M38" s="52"/>
       <c r="N38" s="52"/>
@@ -7600,26 +7663,29 @@
       <c r="R38" s="22"/>
     </row>
     <row r="39" spans="1:18" s="17" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B39" s="210"/>
-      <c r="C39" s="176"/>
-      <c r="D39" s="145" t="s">
-        <v>256</v>
+      <c r="A39" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="222"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="146" t="s">
+        <v>287</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>306</v>
+        <v>81</v>
       </c>
       <c r="F39" s="145" t="s">
-        <v>307</v>
-      </c>
-      <c r="G39" s="109" t="s">
-        <v>308</v>
-      </c>
-      <c r="H39" s="109" t="s">
-        <v>325</v>
-      </c>
-      <c r="J39" s="217"/>
+        <v>329</v>
+      </c>
+      <c r="G39" s="145" t="s">
+        <v>330</v>
+      </c>
+      <c r="H39" s="146" t="s">
+        <v>331</v>
+      </c>
+      <c r="J39" s="229"/>
       <c r="K39" s="66"/>
-      <c r="L39" s="30"/>
+      <c r="L39" s="16"/>
       <c r="M39" s="52"/>
       <c r="N39" s="52"/>
       <c r="O39" s="48"/>
@@ -7628,53 +7694,53 @@
       <c r="R39" s="22"/>
     </row>
     <row r="40" spans="1:18" s="17" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B40" s="210"/>
-      <c r="C40" s="176"/>
-      <c r="D40" s="109" t="s">
-        <v>309</v>
-      </c>
-      <c r="E40" s="24" t="s">
-        <v>310</v>
+      <c r="B40" s="222"/>
+      <c r="C40" s="172"/>
+      <c r="D40" s="145" t="s">
+        <v>231</v>
+      </c>
+      <c r="E40" s="145" t="s">
+        <v>288</v>
       </c>
       <c r="F40" s="145" t="s">
-        <v>311</v>
-      </c>
-      <c r="G40" s="109" t="s">
-        <v>312</v>
+        <v>235</v>
+      </c>
+      <c r="G40" s="145" t="s">
+        <v>289</v>
       </c>
       <c r="H40" s="109" t="s">
-        <v>313</v>
-      </c>
-      <c r="J40" s="217"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="66"/>
+        <v>232</v>
+      </c>
+      <c r="J40" s="229"/>
+      <c r="K40" s="66"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="52"/>
       <c r="N40" s="52"/>
-      <c r="O40" s="45"/>
-      <c r="P40" s="45"/>
-      <c r="Q40" s="45"/>
-      <c r="R40" s="26"/>
-    </row>
-    <row r="41" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B41" s="210"/>
-      <c r="C41" s="176"/>
-      <c r="D41" s="109" t="s">
-        <v>314</v>
-      </c>
-      <c r="E41" s="146" t="s">
-        <v>149</v>
+      <c r="O40" s="48"/>
+      <c r="P40" s="48"/>
+      <c r="Q40" s="48"/>
+      <c r="R40" s="22"/>
+    </row>
+    <row r="41" spans="1:18" s="17" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B41" s="222"/>
+      <c r="C41" s="172"/>
+      <c r="D41" s="145" t="s">
+        <v>290</v>
+      </c>
+      <c r="E41" s="145" t="s">
+        <v>291</v>
       </c>
       <c r="F41" s="145" t="s">
-        <v>251</v>
-      </c>
-      <c r="G41" s="146" t="s">
-        <v>315</v>
-      </c>
-      <c r="H41" s="146" t="s">
-        <v>251</v>
-      </c>
-      <c r="J41" s="217"/>
-      <c r="K41" s="52"/>
+        <v>166</v>
+      </c>
+      <c r="G41" s="109" t="s">
+        <v>236</v>
+      </c>
+      <c r="H41" s="109" t="s">
+        <v>71</v>
+      </c>
+      <c r="J41" s="229"/>
+      <c r="K41" s="30"/>
       <c r="L41" s="8"/>
       <c r="M41" s="66"/>
       <c r="N41" s="52"/>
@@ -7684,25 +7750,27 @@
       <c r="R41" s="26"/>
     </row>
     <row r="42" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B42" s="210"/>
-      <c r="C42" s="176"/>
-      <c r="D42" s="109" t="s">
-        <v>251</v>
-      </c>
-      <c r="E42" s="145"/>
+      <c r="B42" s="222"/>
+      <c r="C42" s="172"/>
+      <c r="D42" s="145" t="s">
+        <v>227</v>
+      </c>
+      <c r="E42" s="145" t="s">
+        <v>227</v>
+      </c>
       <c r="F42" s="145" t="s">
-        <v>277</v>
-      </c>
-      <c r="G42" s="145" t="s">
-        <v>277</v>
-      </c>
-      <c r="H42" s="145" t="s">
-        <v>277</v>
-      </c>
-      <c r="J42" s="217"/>
+        <v>227</v>
+      </c>
+      <c r="G42" s="146" t="s">
+        <v>149</v>
+      </c>
+      <c r="H42" s="146" t="s">
+        <v>227</v>
+      </c>
+      <c r="J42" s="229"/>
       <c r="K42" s="52"/>
       <c r="L42" s="8"/>
-      <c r="M42" s="30"/>
+      <c r="M42" s="66"/>
       <c r="N42" s="52"/>
       <c r="O42" s="45"/>
       <c r="P42" s="45"/>
@@ -7710,189 +7778,193 @@
       <c r="R42" s="26"/>
     </row>
     <row r="43" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B43" s="210"/>
-      <c r="C43" s="86"/>
-      <c r="D43" s="143">
-        <v>1248</v>
-      </c>
-      <c r="E43" s="143">
-        <v>1051</v>
-      </c>
-      <c r="F43" s="143">
-        <v>1332</v>
-      </c>
-      <c r="G43" s="143">
-        <v>1125</v>
-      </c>
-      <c r="H43" s="143">
-        <v>1027</v>
-      </c>
-      <c r="J43" s="217"/>
+      <c r="B43" s="222"/>
+      <c r="C43" s="172"/>
+      <c r="D43" s="145" t="s">
+        <v>238</v>
+      </c>
+      <c r="E43" s="145"/>
+      <c r="F43" s="145" t="s">
+        <v>238</v>
+      </c>
+      <c r="G43" s="145" t="s">
+        <v>238</v>
+      </c>
+      <c r="H43" s="145" t="s">
+        <v>238</v>
+      </c>
+      <c r="J43" s="229"/>
       <c r="K43" s="52"/>
       <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
+      <c r="M43" s="30"/>
       <c r="N43" s="52"/>
-      <c r="R43" s="22"/>
+      <c r="O43" s="45"/>
+      <c r="P43" s="45"/>
+      <c r="Q43" s="45"/>
+      <c r="R43" s="26"/>
     </row>
     <row r="44" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B44" s="210"/>
-      <c r="C44" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" s="194" t="s">
-        <v>253</v>
-      </c>
-      <c r="E44" s="194" t="s">
-        <v>246</v>
-      </c>
-      <c r="F44" s="200" t="s">
-        <v>254</v>
-      </c>
-      <c r="G44" s="198" t="s">
-        <v>319</v>
-      </c>
-      <c r="H44" s="66"/>
-      <c r="J44" s="217"/>
-      <c r="K44" s="66"/>
+      <c r="B44" s="222"/>
+      <c r="C44" s="86"/>
+      <c r="D44" s="143">
+        <v>1004</v>
+      </c>
+      <c r="E44" s="143">
+        <v>1110</v>
+      </c>
+      <c r="F44" s="143">
+        <v>1333</v>
+      </c>
+      <c r="G44" s="143">
+        <v>1142</v>
+      </c>
+      <c r="H44" s="143">
+        <v>1036</v>
+      </c>
+      <c r="J44" s="229"/>
+      <c r="K44" s="52"/>
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
       <c r="N44" s="52"/>
       <c r="R44" s="22"/>
     </row>
     <row r="45" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B45" s="210"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="195" t="s">
-        <v>326</v>
-      </c>
-      <c r="E45" s="195" t="s">
-        <v>249</v>
-      </c>
-      <c r="F45" s="195" t="s">
-        <v>330</v>
-      </c>
-      <c r="G45" s="204" t="s">
-        <v>320</v>
-      </c>
-      <c r="H45" s="66"/>
-      <c r="J45" s="217"/>
+      <c r="B45" s="222"/>
+      <c r="C45" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="152" t="s">
+        <v>292</v>
+      </c>
+      <c r="E45" s="189" t="s">
+        <v>293</v>
+      </c>
+      <c r="F45" s="189" t="s">
+        <v>294</v>
+      </c>
+      <c r="G45" s="205" t="s">
+        <v>295</v>
+      </c>
+      <c r="H45" s="152"/>
+      <c r="J45" s="229"/>
       <c r="K45" s="66"/>
-      <c r="L45" s="21"/>
+      <c r="L45" s="8"/>
       <c r="M45" s="8"/>
       <c r="N45" s="52"/>
       <c r="R45" s="22"/>
     </row>
     <row r="46" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B46" s="210"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="195" t="s">
-        <v>255</v>
-      </c>
-      <c r="E46" s="196" t="s">
-        <v>245</v>
-      </c>
-      <c r="F46" s="196" t="s">
-        <v>245</v>
-      </c>
-      <c r="G46" s="198" t="s">
-        <v>245</v>
-      </c>
-      <c r="H46" s="30"/>
-      <c r="J46" s="217"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="24"/>
+      <c r="B46" s="222"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="193" t="s">
+        <v>296</v>
+      </c>
+      <c r="E46" s="206" t="s">
+        <v>297</v>
+      </c>
+      <c r="F46" s="207" t="s">
+        <v>298</v>
+      </c>
+      <c r="G46" s="193" t="s">
+        <v>299</v>
+      </c>
+      <c r="H46" s="195"/>
+      <c r="J46" s="229"/>
+      <c r="K46" s="66"/>
+      <c r="L46" s="21"/>
       <c r="M46" s="8"/>
       <c r="N46" s="52"/>
       <c r="R46" s="22"/>
     </row>
     <row r="47" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B47" s="210"/>
+      <c r="B47" s="222"/>
       <c r="C47" s="20"/>
-      <c r="D47" s="196" t="s">
-        <v>245</v>
-      </c>
-      <c r="E47" s="197" t="s">
-        <v>250</v>
-      </c>
-      <c r="F47" s="197" t="s">
-        <v>328</v>
-      </c>
-      <c r="G47" s="204" t="s">
-        <v>331</v>
-      </c>
-      <c r="H47" s="8"/>
-      <c r="J47" s="217"/>
-      <c r="K47" s="8"/>
+      <c r="D47" s="208" t="s">
+        <v>300</v>
+      </c>
+      <c r="E47" s="194" t="s">
+        <v>300</v>
+      </c>
+      <c r="F47" s="209" t="s">
+        <v>300</v>
+      </c>
+      <c r="G47" s="208" t="s">
+        <v>300</v>
+      </c>
+      <c r="H47" s="196"/>
+      <c r="J47" s="229"/>
+      <c r="K47" s="30"/>
       <c r="L47" s="24"/>
       <c r="M47" s="8"/>
       <c r="N47" s="52"/>
       <c r="R47" s="22"/>
     </row>
-    <row r="48" spans="1:18" s="51" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B48" s="210"/>
+    <row r="48" spans="1:18" ht="26.1" customHeight="1">
+      <c r="B48" s="222"/>
       <c r="C48" s="20"/>
-      <c r="D48" s="197" t="s">
-        <v>327</v>
-      </c>
-      <c r="E48" s="197" t="s">
-        <v>247</v>
-      </c>
-      <c r="F48" s="197" t="s">
-        <v>329</v>
-      </c>
-      <c r="G48" s="195" t="s">
-        <v>328</v>
-      </c>
-      <c r="H48" s="8"/>
-      <c r="J48" s="217"/>
+      <c r="D48" s="210" t="s">
+        <v>301</v>
+      </c>
+      <c r="E48" s="206" t="s">
+        <v>301</v>
+      </c>
+      <c r="F48" s="206" t="s">
+        <v>302</v>
+      </c>
+      <c r="G48" s="210" t="s">
+        <v>303</v>
+      </c>
+      <c r="H48" s="190"/>
+      <c r="J48" s="229"/>
       <c r="K48" s="8"/>
       <c r="L48" s="24"/>
       <c r="M48" s="8"/>
       <c r="N48" s="52"/>
-      <c r="O48" s="48"/>
-      <c r="P48" s="48"/>
-      <c r="Q48" s="48"/>
       <c r="R48" s="22"/>
     </row>
-    <row r="49" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B49" s="210"/>
+    <row r="49" spans="2:18" s="51" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B49" s="222"/>
       <c r="C49" s="20"/>
-      <c r="D49" s="191" t="s">
-        <v>258</v>
-      </c>
-      <c r="E49" s="191" t="s">
-        <v>296</v>
-      </c>
-      <c r="F49" s="191" t="s">
-        <v>257</v>
-      </c>
-      <c r="G49" s="139" t="s">
-        <v>321</v>
-      </c>
-      <c r="J49" s="217"/>
+      <c r="D49" s="210" t="s">
+        <v>226</v>
+      </c>
+      <c r="E49" s="206" t="s">
+        <v>304</v>
+      </c>
+      <c r="F49" s="206" t="s">
+        <v>305</v>
+      </c>
+      <c r="G49" s="210" t="s">
+        <v>306</v>
+      </c>
+      <c r="H49" s="190"/>
+      <c r="J49" s="229"/>
       <c r="K49" s="8"/>
       <c r="L49" s="24"/>
-      <c r="M49" s="52"/>
+      <c r="M49" s="8"/>
       <c r="N49" s="52"/>
+      <c r="O49" s="48"/>
+      <c r="P49" s="48"/>
+      <c r="Q49" s="48"/>
       <c r="R49" s="22"/>
     </row>
     <row r="50" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B50" s="210"/>
+      <c r="B50" s="222"/>
       <c r="C50" s="20"/>
-      <c r="D50" s="191" t="s">
-        <v>315</v>
-      </c>
-      <c r="E50" s="191" t="s">
-        <v>149</v>
-      </c>
-      <c r="F50" s="145" t="s">
-        <v>251</v>
-      </c>
-      <c r="G50" s="139" t="s">
-        <v>251</v>
-      </c>
-      <c r="H50" s="191"/>
-      <c r="J50" s="217"/>
+      <c r="D50" s="211" t="s">
+        <v>332</v>
+      </c>
+      <c r="E50" s="212" t="s">
+        <v>67</v>
+      </c>
+      <c r="F50" s="187" t="s">
+        <v>333</v>
+      </c>
+      <c r="G50" s="211" t="s">
+        <v>334</v>
+      </c>
+      <c r="H50" s="145"/>
+      <c r="J50" s="229"/>
       <c r="K50" s="8"/>
       <c r="L50" s="24"/>
       <c r="M50" s="52"/>
@@ -7900,210 +7972,223 @@
       <c r="R50" s="22"/>
     </row>
     <row r="51" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B51" s="210"/>
+      <c r="B51" s="222"/>
       <c r="C51" s="20"/>
-      <c r="D51" s="191" t="s">
-        <v>256</v>
-      </c>
-      <c r="E51" s="191" t="s">
-        <v>248</v>
-      </c>
-      <c r="F51" s="145" t="s">
-        <v>155</v>
-      </c>
-      <c r="G51" s="191" t="s">
-        <v>322</v>
-      </c>
-      <c r="H51" s="191"/>
-      <c r="J51" s="217"/>
+      <c r="D51" s="211" t="s">
+        <v>227</v>
+      </c>
+      <c r="E51" s="211" t="s">
+        <v>149</v>
+      </c>
+      <c r="F51" s="187" t="s">
+        <v>237</v>
+      </c>
+      <c r="G51" s="211" t="s">
+        <v>149</v>
+      </c>
+      <c r="H51" s="145"/>
+      <c r="J51" s="229"/>
       <c r="K51" s="8"/>
-      <c r="L51" s="30"/>
+      <c r="L51" s="24"/>
       <c r="M51" s="52"/>
       <c r="N51" s="52"/>
       <c r="R51" s="22"/>
     </row>
     <row r="52" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B52" s="210"/>
-      <c r="C52" s="110"/>
-      <c r="D52" s="143">
-        <v>1001</v>
-      </c>
-      <c r="E52" s="143">
-        <v>840</v>
-      </c>
-      <c r="F52" s="143">
-        <v>867</v>
-      </c>
-      <c r="G52" s="143">
-        <v>942</v>
-      </c>
-      <c r="H52" s="143"/>
-      <c r="J52" s="217"/>
+      <c r="B52" s="222"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="211" t="s">
+        <v>307</v>
+      </c>
+      <c r="E52" s="211" t="s">
+        <v>308</v>
+      </c>
+      <c r="F52" s="213" t="s">
+        <v>309</v>
+      </c>
+      <c r="G52" s="211" t="s">
+        <v>230</v>
+      </c>
+      <c r="H52" s="145"/>
+      <c r="J52" s="229"/>
       <c r="K52" s="8"/>
       <c r="L52" s="30"/>
       <c r="M52" s="52"/>
       <c r="N52" s="52"/>
       <c r="R52" s="22"/>
     </row>
-    <row r="53" spans="2:18" ht="25.5" customHeight="1">
-      <c r="B53" s="210"/>
-      <c r="C53" s="218" t="s">
-        <v>215</v>
-      </c>
-      <c r="D53" s="189" t="s">
-        <v>225</v>
-      </c>
-      <c r="E53" s="113" t="s">
-        <v>53</v>
-      </c>
-      <c r="F53" s="113" t="s">
-        <v>53</v>
-      </c>
-      <c r="G53" s="113" t="s">
-        <v>53</v>
-      </c>
-      <c r="H53" s="113" t="s">
-        <v>53</v>
-      </c>
-      <c r="K53" s="52"/>
-      <c r="L53" s="8"/>
+    <row r="53" spans="2:18" ht="26.1" customHeight="1">
+      <c r="B53" s="222"/>
+      <c r="C53" s="110"/>
+      <c r="D53" s="143">
+        <v>778</v>
+      </c>
+      <c r="E53" s="143">
+        <v>702</v>
+      </c>
+      <c r="F53" s="143">
+        <v>1177</v>
+      </c>
+      <c r="G53" s="143">
+        <v>817</v>
+      </c>
+      <c r="H53" s="143"/>
+      <c r="J53" s="229"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="30"/>
       <c r="M53" s="52"/>
       <c r="N53" s="52"/>
       <c r="R53" s="22"/>
     </row>
-    <row r="54" spans="2:18" s="57" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B54" s="216"/>
-      <c r="C54" s="219"/>
-      <c r="D54" s="190" t="str">
-        <f>D29</f>
-        <v>오리엔탈D&amp;요거트D</v>
-      </c>
-      <c r="E54" s="150" t="str">
-        <f>E28</f>
-        <v>발사믹D&amp;자몽D</v>
-      </c>
-      <c r="F54" s="150" t="str">
-        <f>F29</f>
-        <v>오리엔탈D&amp;크리미양파D</v>
-      </c>
-      <c r="G54" s="193" t="str">
-        <f>G29</f>
-        <v>발사믹D&amp;딸기요거트D</v>
-      </c>
-      <c r="H54" s="193" t="str">
-        <f>H29</f>
-        <v>오리엔탈D&amp;한라봉D</v>
-      </c>
-      <c r="J54" s="220" t="s">
-        <v>1</v>
+    <row r="54" spans="2:18" ht="25.5" customHeight="1">
+      <c r="B54" s="222"/>
+      <c r="C54" s="230" t="s">
+        <v>215</v>
+      </c>
+      <c r="D54" s="185" t="s">
+        <v>225</v>
+      </c>
+      <c r="E54" s="113" t="s">
+        <v>53</v>
+      </c>
+      <c r="F54" s="113" t="s">
+        <v>53</v>
+      </c>
+      <c r="G54" s="113" t="s">
+        <v>53</v>
+      </c>
+      <c r="H54" s="113" t="s">
+        <v>53</v>
       </c>
       <c r="K54" s="52"/>
       <c r="L54" s="8"/>
       <c r="M54" s="52"/>
-      <c r="N54" s="48"/>
-      <c r="O54" s="48"/>
-      <c r="P54" s="48"/>
-      <c r="Q54" s="48"/>
+      <c r="N54" s="52"/>
       <c r="R54" s="22"/>
     </row>
-    <row r="55" spans="2:18" s="57" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B55" s="10"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
-      <c r="J55" s="220"/>
-      <c r="K55" s="59"/>
+    <row r="55" spans="2:18" s="57" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
+      <c r="B55" s="228"/>
+      <c r="C55" s="231"/>
+      <c r="D55" s="186" t="str">
+        <f>D30</f>
+        <v>오리엔탈D&amp;망고D</v>
+      </c>
+      <c r="E55" s="149" t="str">
+        <f>E29</f>
+        <v>발사믹D&amp;참깨D</v>
+      </c>
+      <c r="F55" s="149" t="str">
+        <f>F30</f>
+        <v>오리엔탈D&amp;블루베리D</v>
+      </c>
+      <c r="G55" s="188" t="str">
+        <f>G30</f>
+        <v>발사믹D&amp;파인애플D</v>
+      </c>
+      <c r="H55" s="192" t="str">
+        <f>H30</f>
+        <v>오리엔탈D&amp;딸기D</v>
+      </c>
+      <c r="J55" s="232" t="s">
+        <v>1</v>
+      </c>
+      <c r="K55" s="52"/>
       <c r="L55" s="8"/>
       <c r="M55" s="52"/>
       <c r="N55" s="48"/>
       <c r="O55" s="48"/>
       <c r="P55" s="48"/>
       <c r="Q55" s="48"/>
-      <c r="R55" s="2"/>
-    </row>
-    <row r="56" spans="2:18" ht="24" customHeight="1">
-      <c r="B56" s="54" t="s">
+      <c r="R55" s="22"/>
+    </row>
+    <row r="56" spans="2:18" s="57" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B56" s="10"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="J56" s="232"/>
+      <c r="K56" s="59"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="52"/>
+      <c r="N56" s="48"/>
+      <c r="O56" s="48"/>
+      <c r="P56" s="48"/>
+      <c r="Q56" s="48"/>
+      <c r="R56" s="2"/>
+    </row>
+    <row r="57" spans="2:18" ht="24" customHeight="1">
+      <c r="B57" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="C56" s="46"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="32"/>
-      <c r="K56" s="16"/>
-      <c r="L56" s="16"/>
-      <c r="M56" s="52"/>
-      <c r="N56" s="55"/>
-    </row>
-    <row r="57" spans="2:18" ht="14.25" customHeight="1">
-      <c r="B57" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57" s="57"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="55"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="134"/>
-      <c r="K57" s="52"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
+      <c r="K57" s="16"/>
       <c r="L57" s="16"/>
       <c r="M57" s="52"/>
       <c r="N57" s="55"/>
     </row>
-    <row r="58" spans="2:18" ht="24.95" customHeight="1">
-      <c r="D58" s="134"/>
-      <c r="E58" s="134"/>
-      <c r="F58" s="135"/>
-      <c r="G58" s="134"/>
-      <c r="H58" s="224"/>
+    <row r="58" spans="2:18" ht="14.25" customHeight="1">
+      <c r="B58" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="57"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="55"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="134"/>
       <c r="K58" s="52"/>
       <c r="L58" s="16"/>
       <c r="M58" s="52"/>
+      <c r="N58" s="55"/>
     </row>
     <row r="59" spans="2:18" ht="24.95" customHeight="1">
-      <c r="D59" s="105"/>
-      <c r="E59" s="105"/>
-      <c r="F59" s="136"/>
-      <c r="G59" s="105"/>
-      <c r="H59" s="224"/>
-      <c r="K59" s="25"/>
-      <c r="L59" s="25"/>
+      <c r="D59" s="134"/>
+      <c r="E59" s="134"/>
+      <c r="F59" s="135"/>
+      <c r="G59" s="134"/>
+      <c r="H59" s="236"/>
+      <c r="K59" s="52"/>
+      <c r="L59" s="16"/>
       <c r="M59" s="52"/>
     </row>
     <row r="60" spans="2:18" ht="24.95" customHeight="1">
-      <c r="B60" s="52"/>
-      <c r="C60" s="52"/>
       <c r="D60" s="105"/>
       <c r="E60" s="105"/>
       <c r="F60" s="136"/>
       <c r="G60" s="105"/>
-      <c r="H60" s="105"/>
+      <c r="H60" s="236"/>
       <c r="K60" s="25"/>
-      <c r="L60" s="52"/>
+      <c r="L60" s="25"/>
       <c r="M60" s="52"/>
     </row>
     <row r="61" spans="2:18" ht="24.95" customHeight="1">
-      <c r="B61" s="109"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
-      <c r="K61" s="16"/>
+      <c r="B61" s="52"/>
+      <c r="C61" s="52"/>
+      <c r="D61" s="105"/>
+      <c r="E61" s="105"/>
+      <c r="F61" s="136"/>
+      <c r="G61" s="105"/>
+      <c r="H61" s="105"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="52"/>
+      <c r="M61" s="52"/>
     </row>
     <row r="62" spans="2:18" ht="24.95" customHeight="1">
-      <c r="B62" s="24"/>
+      <c r="B62" s="109"/>
       <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
       <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
       <c r="K62" s="16"/>
     </row>
     <row r="63" spans="2:18" ht="24.95" customHeight="1">
@@ -8115,12 +8200,6 @@
       <c r="G63" s="24"/>
       <c r="H63" s="24"/>
       <c r="K63" s="16"/>
-      <c r="L63" s="55"/>
-      <c r="M63" s="55"/>
-      <c r="O63" s="55"/>
-      <c r="P63" s="55"/>
-      <c r="Q63" s="55"/>
-      <c r="R63" s="58"/>
     </row>
     <row r="64" spans="2:18" ht="24.95" customHeight="1">
       <c r="B64" s="24"/>
@@ -8129,7 +8208,7 @@
       <c r="E64" s="24"/>
       <c r="F64" s="24"/>
       <c r="G64" s="24"/>
-      <c r="H64" s="21"/>
+      <c r="H64" s="24"/>
       <c r="K64" s="16"/>
       <c r="L64" s="55"/>
       <c r="M64" s="55"/>
@@ -8138,17 +8217,23 @@
       <c r="Q64" s="55"/>
       <c r="R64" s="58"/>
     </row>
-    <row r="65" spans="2:11" ht="24.95" customHeight="1">
+    <row r="65" spans="2:18" ht="24.95" customHeight="1">
       <c r="B65" s="24"/>
       <c r="C65" s="24"/>
-      <c r="D65" s="85"/>
+      <c r="D65" s="24"/>
       <c r="E65" s="24"/>
       <c r="F65" s="24"/>
       <c r="G65" s="24"/>
-      <c r="H65" s="24"/>
+      <c r="H65" s="21"/>
       <c r="K65" s="16"/>
-    </row>
-    <row r="66" spans="2:11" ht="24.95" customHeight="1">
+      <c r="L65" s="55"/>
+      <c r="M65" s="55"/>
+      <c r="O65" s="55"/>
+      <c r="P65" s="55"/>
+      <c r="Q65" s="55"/>
+      <c r="R65" s="58"/>
+    </row>
+    <row r="66" spans="2:18" ht="24.95" customHeight="1">
       <c r="B66" s="24"/>
       <c r="C66" s="24"/>
       <c r="D66" s="85"/>
@@ -8158,97 +8243,97 @@
       <c r="H66" s="24"/>
       <c r="K66" s="16"/>
     </row>
-    <row r="67" spans="2:11" ht="24.95" customHeight="1">
+    <row r="67" spans="2:18" ht="24.95" customHeight="1">
       <c r="B67" s="24"/>
       <c r="C67" s="24"/>
       <c r="D67" s="85"/>
-      <c r="E67" s="85"/>
+      <c r="E67" s="24"/>
       <c r="F67" s="24"/>
-      <c r="G67" s="102"/>
+      <c r="G67" s="24"/>
       <c r="H67" s="24"/>
       <c r="K67" s="16"/>
     </row>
-    <row r="68" spans="2:11" ht="24.95" customHeight="1">
+    <row r="68" spans="2:18" ht="24.95" customHeight="1">
       <c r="B68" s="24"/>
       <c r="C68" s="24"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="95"/>
-      <c r="F68" s="21"/>
+      <c r="D68" s="85"/>
+      <c r="E68" s="85"/>
+      <c r="F68" s="24"/>
       <c r="G68" s="102"/>
-      <c r="H68" s="21"/>
-      <c r="K68" s="25"/>
-    </row>
-    <row r="69" spans="2:11" ht="18">
+      <c r="H68" s="24"/>
+      <c r="K68" s="16"/>
+    </row>
+    <row r="69" spans="2:18" ht="24.95" customHeight="1">
       <c r="B69" s="24"/>
       <c r="C69" s="24"/>
-      <c r="D69" s="109"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="113"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="109"/>
-      <c r="K69" s="16"/>
-    </row>
-    <row r="70" spans="2:11" ht="18">
-      <c r="B70" s="48"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="95"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="102"/>
+      <c r="H69" s="21"/>
+      <c r="K69" s="25"/>
+    </row>
+    <row r="70" spans="2:18" ht="18">
+      <c r="B70" s="24"/>
       <c r="C70" s="24"/>
-      <c r="D70" s="113"/>
+      <c r="D70" s="109"/>
       <c r="E70" s="24"/>
-      <c r="F70" s="85"/>
+      <c r="F70" s="113"/>
       <c r="G70" s="24"/>
-      <c r="H70" s="85"/>
+      <c r="H70" s="109"/>
       <c r="K70" s="16"/>
     </row>
-    <row r="71" spans="2:11" ht="18">
+    <row r="71" spans="2:18" ht="18">
       <c r="B71" s="48"/>
       <c r="C71" s="24"/>
-      <c r="D71" s="109"/>
+      <c r="D71" s="113"/>
       <c r="E71" s="24"/>
       <c r="F71" s="85"/>
       <c r="G71" s="24"/>
       <c r="H71" s="85"/>
       <c r="K71" s="16"/>
     </row>
-    <row r="72" spans="2:11" ht="18">
+    <row r="72" spans="2:18" ht="18">
       <c r="B72" s="48"/>
       <c r="C72" s="24"/>
-      <c r="D72" s="85"/>
+      <c r="D72" s="109"/>
       <c r="E72" s="24"/>
       <c r="F72" s="85"/>
       <c r="G72" s="24"/>
       <c r="H72" s="85"/>
       <c r="K72" s="16"/>
     </row>
-    <row r="73" spans="2:11" ht="18">
+    <row r="73" spans="2:18" ht="18">
       <c r="B73" s="48"/>
-      <c r="C73" s="48"/>
-      <c r="D73" s="32"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="85"/>
       <c r="E73" s="24"/>
       <c r="F73" s="85"/>
       <c r="G73" s="24"/>
       <c r="H73" s="85"/>
       <c r="K73" s="16"/>
     </row>
-    <row r="74" spans="2:11" ht="18">
+    <row r="74" spans="2:18" ht="18">
       <c r="B74" s="48"/>
       <c r="C74" s="48"/>
       <c r="D74" s="32"/>
-      <c r="E74" s="85"/>
-      <c r="F74" s="48"/>
-      <c r="G74" s="32"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="85"/>
+      <c r="G74" s="24"/>
       <c r="H74" s="85"/>
-      <c r="K74" s="63"/>
-    </row>
-    <row r="75" spans="2:11" ht="18">
+      <c r="K74" s="16"/>
+    </row>
+    <row r="75" spans="2:18" ht="18">
       <c r="B75" s="48"/>
       <c r="C75" s="48"/>
       <c r="D75" s="32"/>
-      <c r="E75" s="32"/>
+      <c r="E75" s="85"/>
       <c r="F75" s="48"/>
       <c r="G75" s="32"/>
-      <c r="H75" s="24"/>
-      <c r="K75" s="25"/>
-    </row>
-    <row r="76" spans="2:11" ht="18">
+      <c r="H75" s="85"/>
+      <c r="K75" s="63"/>
+    </row>
+    <row r="76" spans="2:18" ht="18">
       <c r="B76" s="48"/>
       <c r="C76" s="48"/>
       <c r="D76" s="32"/>
@@ -8256,9 +8341,11 @@
       <c r="F76" s="48"/>
       <c r="G76" s="32"/>
       <c r="H76" s="24"/>
-      <c r="K76" s="16"/>
-    </row>
-    <row r="77" spans="2:11" ht="18">
+      <c r="K76" s="25"/>
+    </row>
+    <row r="77" spans="2:18" ht="18">
+      <c r="B77" s="48"/>
+      <c r="C77" s="48"/>
       <c r="D77" s="32"/>
       <c r="E77" s="32"/>
       <c r="F77" s="48"/>
@@ -8266,18 +8353,23 @@
       <c r="H77" s="24"/>
       <c r="K77" s="16"/>
     </row>
-    <row r="78" spans="2:11">
-      <c r="G78" s="105"/>
-      <c r="K78" s="25"/>
-    </row>
-    <row r="79" spans="2:11">
-      <c r="K79" s="16"/>
-    </row>
-    <row r="80" spans="2:11">
-      <c r="K80" s="64"/>
+    <row r="78" spans="2:18" ht="18">
+      <c r="D78" s="32"/>
+      <c r="E78" s="32"/>
+      <c r="F78" s="48"/>
+      <c r="G78" s="32"/>
+      <c r="H78" s="24"/>
+      <c r="K78" s="16"/>
+    </row>
+    <row r="79" spans="2:18">
+      <c r="G79" s="105"/>
+      <c r="K79" s="25"/>
+    </row>
+    <row r="80" spans="2:18">
+      <c r="K80" s="16"/>
     </row>
     <row r="81" spans="11:11">
-      <c r="K81" s="8"/>
+      <c r="K81" s="64"/>
     </row>
     <row r="82" spans="11:11">
       <c r="K82" s="8"/>
@@ -8286,25 +8378,25 @@
       <c r="K83" s="8"/>
     </row>
     <row r="84" spans="11:11">
-      <c r="K84" s="62"/>
+      <c r="K84" s="8"/>
     </row>
     <row r="85" spans="11:11">
-      <c r="K85" s="65"/>
+      <c r="K85" s="62"/>
     </row>
     <row r="86" spans="11:11">
       <c r="K86" s="65"/>
     </row>
     <row r="87" spans="11:11">
-      <c r="K87" s="25"/>
+      <c r="K87" s="65"/>
     </row>
     <row r="88" spans="11:11">
-      <c r="K88" s="8"/>
+      <c r="K88" s="25"/>
     </row>
     <row r="89" spans="11:11">
-      <c r="K89" s="64"/>
+      <c r="K89" s="8"/>
     </row>
     <row r="90" spans="11:11">
-      <c r="K90" s="8"/>
+      <c r="K90" s="64"/>
     </row>
     <row r="91" spans="11:11">
       <c r="K91" s="8"/>
@@ -8313,46 +8405,46 @@
       <c r="K92" s="8"/>
     </row>
     <row r="93" spans="11:11">
-      <c r="K93" s="62"/>
+      <c r="K93" s="8"/>
     </row>
     <row r="94" spans="11:11">
-      <c r="K94" s="65"/>
+      <c r="K94" s="62"/>
     </row>
     <row r="95" spans="11:11">
       <c r="K95" s="65"/>
     </row>
     <row r="96" spans="11:11">
-      <c r="K96" s="25"/>
+      <c r="K96" s="65"/>
     </row>
     <row r="97" spans="11:11">
-      <c r="K97" s="16"/>
+      <c r="K97" s="25"/>
     </row>
     <row r="98" spans="11:11">
       <c r="K98" s="16"/>
     </row>
     <row r="99" spans="11:11">
-      <c r="K99" s="8"/>
+      <c r="K99" s="16"/>
     </row>
     <row r="100" spans="11:11">
       <c r="K100" s="8"/>
     </row>
     <row r="101" spans="11:11">
-      <c r="K101" s="16"/>
+      <c r="K101" s="8"/>
     </row>
     <row r="102" spans="11:11">
-      <c r="K102" s="62"/>
+      <c r="K102" s="16"/>
     </row>
     <row r="103" spans="11:11">
-      <c r="K103" s="63"/>
+      <c r="K103" s="62"/>
     </row>
     <row r="104" spans="11:11">
       <c r="K104" s="63"/>
     </row>
     <row r="105" spans="11:11">
-      <c r="K105" s="32"/>
+      <c r="K105" s="63"/>
     </row>
     <row r="106" spans="11:11">
-      <c r="K106" s="16"/>
+      <c r="K106" s="32"/>
     </row>
     <row r="107" spans="11:11">
       <c r="K107" s="16"/>
@@ -8366,31 +8458,34 @@
     <row r="110" spans="11:11">
       <c r="K110" s="16"/>
     </row>
-    <row r="861" spans="2:2">
-      <c r="B861" s="114" t="s">
+    <row r="111" spans="11:11">
+      <c r="K111" s="16"/>
+    </row>
+    <row r="862" spans="2:2">
+      <c r="B862" s="114" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="J2:J3"/>
-    <mergeCell ref="J5:J29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="J30:J33"/>
-    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="J5:J30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="J31:J34"/>
+    <mergeCell ref="C54:C55"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="B6:B35"/>
-    <mergeCell ref="J37:J52"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="B37:B54"/>
-    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="B6:B36"/>
+    <mergeCell ref="J38:J53"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="B38:B55"/>
+    <mergeCell ref="H59:H60"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="53" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="52" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="57" max="16383" man="1"/>
+    <brk id="58" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -8404,7 +8499,7 @@
   <dimension ref="A1:V84"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="96" workbookViewId="0">
-      <selection activeCell="R59" sqref="R59"/>
+      <selection activeCell="R45" sqref="R45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" customHeight="1"/>
@@ -8432,7 +8527,7 @@
     <row r="1" spans="2:19" ht="12.75" customHeight="1"/>
     <row r="5" spans="2:19" s="17" customFormat="1" ht="24.75" customHeight="1">
       <c r="B5" s="73" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="74"/>
@@ -8468,37 +8563,37 @@
       <c r="F8" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="160" t="s">
+      <c r="G8" s="156" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="163" t="s">
+      <c r="H8" s="159" t="s">
         <v>25</v>
       </c>
       <c r="I8" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="160" t="s">
+      <c r="J8" s="156" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="163" t="s">
+      <c r="K8" s="159" t="s">
         <v>26</v>
       </c>
       <c r="L8" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="160" t="s">
+      <c r="M8" s="156" t="s">
         <v>24</v>
       </c>
-      <c r="N8" s="163" t="s">
+      <c r="N8" s="159" t="s">
         <v>27</v>
       </c>
       <c r="O8" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="P8" s="160" t="s">
+      <c r="P8" s="156" t="s">
         <v>24</v>
       </c>
-      <c r="Q8" s="163" t="s">
+      <c r="Q8" s="159" t="s">
         <v>28</v>
       </c>
       <c r="R8" s="78" t="s">
@@ -8509,208 +8604,204 @@
       </c>
     </row>
     <row r="9" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B9" s="253" t="s">
+      <c r="B9" s="265" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="265" t="s">
+      <c r="C9" s="277" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="259" t="s">
+      <c r="D9" s="271" t="s">
         <v>216</v>
       </c>
       <c r="E9" s="87" t="str">
         <f>주간메뉴표!D6</f>
-        <v>놀부부대찌개*우동사리</v>
+        <v>사골떡만둣국</v>
       </c>
       <c r="F9" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G9" s="227">
+      <c r="G9" s="239">
         <f>주간메뉴표!D12</f>
-        <v>1103</v>
-      </c>
-      <c r="H9" s="164" t="str">
+        <v>1151</v>
+      </c>
+      <c r="H9" s="160" t="str">
         <f>주간메뉴표!E6</f>
-        <v>(철판)미나리목(살)반삼(겹)반</v>
+        <v>두부마늘보쌈</v>
       </c>
       <c r="I9" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="J9" s="227">
+      <c r="J9" s="239">
         <f>주간메뉴표!E12</f>
+        <v>1257</v>
+      </c>
+      <c r="K9" s="160" t="str">
+        <f>주간메뉴표!F6</f>
+        <v>쇠고기콩나물밥</v>
+      </c>
+      <c r="L9" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="M9" s="239">
+        <f>주간메뉴표!F12</f>
         <v>1120</v>
       </c>
-      <c r="K9" s="164" t="str">
-        <f>주간메뉴표!F6</f>
-        <v>닭도리탕</v>
-      </c>
-      <c r="L9" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="M9" s="227">
-        <f>주간메뉴표!F12</f>
-        <v>1260</v>
-      </c>
-      <c r="N9" s="164" t="str">
+      <c r="N9" s="160" t="str">
         <f>주간메뉴표!G6</f>
-        <v>뚝배기돼지불고기</v>
-      </c>
-      <c r="O9" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="P9" s="230">
+        <v>[Fun!629]_1&amp;2코너</v>
+      </c>
+      <c r="O9" s="79"/>
+      <c r="P9" s="242">
         <f>주간메뉴표!G12</f>
-        <v>1181</v>
-      </c>
-      <c r="Q9" s="173" t="str">
+        <v>1371</v>
+      </c>
+      <c r="Q9" s="169" t="str">
         <f>주간메뉴표!H6</f>
-        <v>우삼겹고추장찌개</v>
+        <v>전주식비빔밥</v>
       </c>
       <c r="R9" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="S9" s="240">
+      <c r="S9" s="252">
         <f>주간메뉴표!H12</f>
-        <v>1238</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="10" spans="2:19" s="17" customFormat="1" ht="19.5" customHeight="1">
-      <c r="B10" s="254"/>
-      <c r="C10" s="266"/>
-      <c r="D10" s="260"/>
+      <c r="B10" s="266"/>
+      <c r="C10" s="278"/>
+      <c r="D10" s="272"/>
       <c r="E10" s="88" t="str">
         <f>주간메뉴표!D7</f>
-        <v>생선가스*타르타르s</v>
+        <v>모듬전</v>
       </c>
       <c r="F10" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G10" s="228"/>
-      <c r="H10" s="165" t="str">
+      <c r="G10" s="240"/>
+      <c r="H10" s="161" t="str">
         <f>주간메뉴표!E7</f>
-        <v>*두부김치</v>
-      </c>
-      <c r="I10" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="J10" s="228"/>
-      <c r="K10" s="165" t="str">
+        <v>영양밥*양념장</v>
+      </c>
+      <c r="I10" s="79"/>
+      <c r="J10" s="240"/>
+      <c r="K10" s="161" t="str">
         <f>주간메뉴표!F7</f>
-        <v>환어묵볶음</v>
+        <v>(뚝)참치김치찌개</v>
       </c>
       <c r="L10" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M10" s="228"/>
-      <c r="N10" s="165" t="str">
+      <c r="M10" s="240"/>
+      <c r="N10" s="161" t="str">
         <f>주간메뉴표!G7</f>
-        <v>얼갈이된장국</v>
+        <v>일식철판돈가스</v>
       </c>
       <c r="O10" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P10" s="231"/>
-      <c r="Q10" s="165" t="str">
+      <c r="P10" s="243"/>
+      <c r="Q10" s="161" t="str">
         <f>주간메뉴표!H7</f>
-        <v>두부계란전</v>
+        <v>미역장국</v>
       </c>
       <c r="R10" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="S10" s="246"/>
+      <c r="S10" s="258"/>
     </row>
     <row r="11" spans="2:19" s="17" customFormat="1" ht="19.5" customHeight="1">
-      <c r="B11" s="254"/>
-      <c r="C11" s="266"/>
-      <c r="D11" s="260"/>
+      <c r="B11" s="266"/>
+      <c r="C11" s="278"/>
+      <c r="D11" s="272"/>
       <c r="E11" s="88" t="str">
         <f>주간메뉴표!D8</f>
-        <v>잔멸치볶음</v>
-      </c>
-      <c r="F11" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="G11" s="228"/>
-      <c r="H11" s="165" t="str">
+        <v>양파고추간장절임</v>
+      </c>
+      <c r="F11" s="79"/>
+      <c r="G11" s="240"/>
+      <c r="H11" s="161" t="str">
         <f>주간메뉴표!E8</f>
-        <v>미역국</v>
+        <v>모듬채소전</v>
       </c>
       <c r="I11" s="79" t="s">
-        <v>346</v>
-      </c>
-      <c r="J11" s="228"/>
-      <c r="K11" s="165" t="str">
+        <v>220</v>
+      </c>
+      <c r="J11" s="240"/>
+      <c r="K11" s="161" t="str">
         <f>주간메뉴표!F8</f>
-        <v>콩나물무침</v>
-      </c>
-      <c r="L11" s="79"/>
-      <c r="M11" s="228"/>
-      <c r="N11" s="165" t="str">
+        <v>치킨너겟/어묵볶음</v>
+      </c>
+      <c r="L11" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="M11" s="240"/>
+      <c r="N11" s="161" t="str">
         <f>주간메뉴표!G8</f>
-        <v>채소잡채</v>
+        <v>두부장국</v>
       </c>
       <c r="O11" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P11" s="231"/>
-      <c r="Q11" s="165" t="str">
+      <c r="P11" s="243"/>
+      <c r="Q11" s="161" t="str">
         <f>주간메뉴표!H8</f>
-        <v>후랑크소시지볶음</v>
+        <v>고기경단조림</v>
       </c>
       <c r="R11" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="S11" s="246"/>
+      <c r="S11" s="258"/>
     </row>
     <row r="12" spans="2:19" s="17" customFormat="1" ht="35.25" customHeight="1">
-      <c r="B12" s="254"/>
-      <c r="C12" s="266"/>
-      <c r="D12" s="260"/>
+      <c r="B12" s="266"/>
+      <c r="C12" s="278"/>
+      <c r="D12" s="272"/>
       <c r="E12" s="88" t="str">
         <f>주간메뉴표!D9</f>
-        <v>도시락김</v>
+        <v>오징어젓무침</v>
       </c>
       <c r="F12" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G12" s="228"/>
-      <c r="H12" s="165" t="str">
+      <c r="G12" s="240"/>
+      <c r="H12" s="161" t="str">
         <f>주간메뉴표!E9</f>
-        <v>쌈무/쌈장(마늘고추)</v>
+        <v>냉이된장국</v>
       </c>
       <c r="I12" s="79" t="s">
-        <v>346</v>
-      </c>
-      <c r="J12" s="228"/>
-      <c r="K12" s="165" t="str">
+        <v>220</v>
+      </c>
+      <c r="J12" s="240"/>
+      <c r="K12" s="161" t="str">
         <f>주간메뉴표!F9</f>
+        <v>알감자조림</v>
+      </c>
+      <c r="L12" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="M12" s="240"/>
+      <c r="N12" s="161" t="str">
+        <f>주간메뉴표!G9</f>
         <v>깍두기</v>
       </c>
-      <c r="L12" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="M12" s="228"/>
-      <c r="N12" s="165" t="str">
-        <f>주간메뉴표!G9</f>
-        <v>오이맛고추쌈장무침</v>
-      </c>
       <c r="O12" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P12" s="231"/>
-      <c r="Q12" s="165" t="str">
+      <c r="P12" s="243"/>
+      <c r="Q12" s="161" t="str">
         <f>주간메뉴표!H9</f>
-        <v>궁채절임</v>
+        <v>마카로니샐러드</v>
       </c>
       <c r="R12" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="S12" s="246"/>
+      <c r="S12" s="258"/>
     </row>
     <row r="13" spans="2:19" s="27" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B13" s="254"/>
-      <c r="C13" s="266"/>
-      <c r="D13" s="260"/>
+      <c r="B13" s="266"/>
+      <c r="C13" s="278"/>
+      <c r="D13" s="272"/>
       <c r="E13" s="88" t="str">
         <f>주간메뉴표!D10</f>
         <v>포기김치/잡곡밥</v>
@@ -8718,1724 +8809,1714 @@
       <c r="F13" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G13" s="228"/>
-      <c r="H13" s="165" t="str">
+      <c r="G13" s="240"/>
+      <c r="H13" s="161" t="str">
         <f>주간메뉴표!E10</f>
-        <v>깍두기/잡곡밥</v>
+        <v>배추겉절이</v>
       </c>
       <c r="I13" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="J13" s="228"/>
-      <c r="K13" s="165" t="str">
+      <c r="J13" s="240"/>
+      <c r="K13" s="161" t="str">
         <f>주간메뉴표!F10</f>
+        <v>열무김치</v>
+      </c>
+      <c r="L13" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="M13" s="240"/>
+      <c r="N13" s="161" t="str">
+        <f>주간메뉴표!G10</f>
         <v>잡곡밥</v>
       </c>
-      <c r="L13" s="79"/>
-      <c r="M13" s="228"/>
-      <c r="N13" s="165" t="str">
-        <f>주간메뉴표!G10</f>
-        <v>깍두기/잡곡밥</v>
-      </c>
-      <c r="O13" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="P13" s="231"/>
-      <c r="Q13" s="165" t="str">
+      <c r="O13" s="79"/>
+      <c r="P13" s="243"/>
+      <c r="Q13" s="161" t="str">
         <f>주간메뉴표!H10</f>
-        <v>포기김치/잡곡밥</v>
+        <v>마늘쫑지/포기김치</v>
       </c>
       <c r="R13" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="S13" s="246"/>
+      <c r="S13" s="258"/>
     </row>
     <row r="14" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B14" s="254"/>
-      <c r="C14" s="272"/>
-      <c r="D14" s="261"/>
+      <c r="B14" s="266"/>
+      <c r="C14" s="284"/>
+      <c r="D14" s="273"/>
       <c r="E14" s="88" t="str">
         <f>주간메뉴표!D11</f>
         <v>그린샐러드</v>
       </c>
       <c r="F14" s="79"/>
-      <c r="G14" s="229"/>
-      <c r="H14" s="165" t="str">
+      <c r="G14" s="241"/>
+      <c r="H14" s="161" t="str">
         <f>주간메뉴표!E11</f>
         <v>그린샐러드</v>
       </c>
       <c r="I14" s="79"/>
-      <c r="J14" s="229"/>
-      <c r="K14" s="165" t="str">
+      <c r="J14" s="241"/>
+      <c r="K14" s="161" t="str">
         <f>주간메뉴표!F11</f>
         <v>그린샐러드</v>
       </c>
       <c r="L14" s="79"/>
-      <c r="M14" s="229"/>
-      <c r="N14" s="165" t="str">
+      <c r="M14" s="241"/>
+      <c r="N14" s="161" t="str">
         <f>주간메뉴표!G11</f>
         <v>그린샐러드</v>
       </c>
       <c r="O14" s="79"/>
-      <c r="P14" s="232"/>
-      <c r="Q14" s="165" t="str">
+      <c r="P14" s="244"/>
+      <c r="Q14" s="161" t="str">
         <f>주간메뉴표!H11</f>
         <v>그린샐러드</v>
       </c>
       <c r="R14" s="79"/>
-      <c r="S14" s="241"/>
+      <c r="S14" s="253"/>
     </row>
     <row r="15" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B15" s="254"/>
-      <c r="C15" s="273" t="s">
+      <c r="B15" s="266"/>
+      <c r="C15" s="285" t="s">
         <v>217</v>
       </c>
-      <c r="D15" s="259" t="s">
+      <c r="D15" s="271" t="s">
         <v>32</v>
       </c>
       <c r="E15" s="87" t="str">
         <f>주간메뉴표!D13</f>
-        <v>양지쌀국수</v>
+        <v>Spicy 토리동_일본가정식st</v>
       </c>
       <c r="F15" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G15" s="227">
-        <f>주간메뉴표!D18</f>
-        <v>975</v>
-      </c>
-      <c r="H15" s="166" t="str">
+      <c r="G15" s="239">
+        <f>주간메뉴표!D19</f>
+        <v>908</v>
+      </c>
+      <c r="H15" s="162" t="str">
         <f>주간메뉴표!E13</f>
-        <v>우육탕면</v>
+        <v>홍왕갈비쌀국수</v>
       </c>
       <c r="I15" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="J15" s="227">
-        <f>주간메뉴표!E18</f>
-        <v>881</v>
-      </c>
-      <c r="K15" s="173" t="str">
+      <c r="J15" s="239">
+        <f>주간메뉴표!E19</f>
+        <v>1130</v>
+      </c>
+      <c r="K15" s="169" t="str">
         <f>주간메뉴표!F13</f>
-        <v>안동국시</v>
+        <v>간자장*후라이</v>
       </c>
       <c r="L15" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M15" s="227">
-        <f>주간메뉴표!F18</f>
-        <v>1111</v>
-      </c>
-      <c r="N15" s="164" t="str">
+      <c r="M15" s="239">
+        <f>주간메뉴표!F19</f>
+        <v>1182</v>
+      </c>
+      <c r="N15" s="160" t="str">
         <f>주간메뉴표!G13</f>
-        <v>육칼(육개장칼국수)</v>
+        <v>물쫄면(온면)</v>
       </c>
       <c r="O15" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P15" s="227">
-        <f>주간메뉴표!G18</f>
-        <v>795</v>
-      </c>
-      <c r="Q15" s="178"/>
-      <c r="R15" s="179"/>
-      <c r="S15" s="247"/>
+      <c r="P15" s="239">
+        <f>주간메뉴표!G19</f>
+        <v>964</v>
+      </c>
+      <c r="Q15" s="174"/>
+      <c r="R15" s="175"/>
+      <c r="S15" s="259"/>
     </row>
     <row r="16" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B16" s="254"/>
-      <c r="C16" s="266"/>
-      <c r="D16" s="260"/>
+      <c r="B16" s="266"/>
+      <c r="C16" s="278"/>
+      <c r="D16" s="272"/>
       <c r="E16" s="88" t="str">
         <f>주간메뉴표!D14</f>
-        <v>새우롤*고구마롤</v>
+        <v>유부장국</v>
       </c>
       <c r="F16" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G16" s="228"/>
-      <c r="H16" s="165" t="str">
+      <c r="G16" s="240"/>
+      <c r="H16" s="161" t="str">
         <f>주간메뉴표!E14</f>
-        <v>고추잡채군만두</v>
+        <v>닭봉구이&amp;해물짜조</v>
       </c>
       <c r="I16" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="J16" s="228"/>
-      <c r="K16" s="165" t="str">
+      <c r="J16" s="240"/>
+      <c r="K16" s="161" t="str">
         <f>주간메뉴표!F14</f>
-        <v>동태전</v>
+        <v>짬뽕국물</v>
       </c>
       <c r="L16" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M16" s="228"/>
-      <c r="N16" s="165" t="str">
+      <c r="M16" s="240"/>
+      <c r="N16" s="161" t="str">
         <f>주간메뉴표!G14</f>
-        <v>떡갈비구이*부추생채</v>
+        <v>충무김밥&amp;오징어숙회무침</v>
       </c>
       <c r="O16" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P16" s="228"/>
-      <c r="Q16" s="178"/>
-      <c r="R16" s="179"/>
-      <c r="S16" s="248"/>
+      <c r="P16" s="240"/>
+      <c r="Q16" s="174"/>
+      <c r="R16" s="175"/>
+      <c r="S16" s="260"/>
     </row>
     <row r="17" spans="1:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B17" s="254"/>
-      <c r="C17" s="266"/>
-      <c r="D17" s="260"/>
+      <c r="B17" s="266"/>
+      <c r="C17" s="278"/>
+      <c r="D17" s="272"/>
       <c r="E17" s="88" t="str">
         <f>주간메뉴표!D15</f>
-        <v>파인애플볶음밥</v>
-      </c>
-      <c r="F17" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="G17" s="228"/>
-      <c r="H17" s="165" t="str">
+        <v>김구이</v>
+      </c>
+      <c r="F17" s="79"/>
+      <c r="G17" s="240"/>
+      <c r="H17" s="161" t="str">
         <f>주간메뉴표!E15</f>
-        <v>짜사이채</v>
+        <v>양파초절임</v>
       </c>
       <c r="I17" s="79"/>
-      <c r="J17" s="228"/>
-      <c r="K17" s="165" t="str">
+      <c r="J17" s="240"/>
+      <c r="K17" s="161" t="str">
         <f>주간메뉴표!F15</f>
-        <v>배추겉절이</v>
+        <v>깐풍기</v>
       </c>
       <c r="L17" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M17" s="228"/>
-      <c r="N17" s="165" t="str">
+      <c r="M17" s="240"/>
+      <c r="N17" s="161" t="str">
         <f>주간메뉴표!G15</f>
-        <v>배추겉절이</v>
+        <v>단무지</v>
       </c>
       <c r="O17" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P17" s="228"/>
-      <c r="Q17" s="178"/>
-      <c r="R17" s="179"/>
-      <c r="S17" s="248"/>
+      <c r="P17" s="240"/>
+      <c r="Q17" s="174"/>
+      <c r="R17" s="175"/>
+      <c r="S17" s="260"/>
     </row>
     <row r="18" spans="1:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B18" s="254"/>
-      <c r="C18" s="266"/>
-      <c r="D18" s="260"/>
+      <c r="B18" s="266"/>
+      <c r="C18" s="278"/>
+      <c r="D18" s="272"/>
       <c r="E18" s="88" t="str">
         <f>주간메뉴표!D16</f>
-        <v>양파초절임</v>
-      </c>
-      <c r="F18" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="G18" s="228"/>
-      <c r="H18" s="165" t="str">
+        <v>오렌지</v>
+      </c>
+      <c r="F18" s="79"/>
+      <c r="G18" s="240"/>
+      <c r="H18" s="161" t="str">
         <f>주간메뉴표!E16</f>
+        <v>그린샐러드</v>
+      </c>
+      <c r="I18" s="79"/>
+      <c r="J18" s="240"/>
+      <c r="K18" s="161" t="str">
+        <f>주간메뉴표!F16</f>
+        <v>단무지</v>
+      </c>
+      <c r="L18" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="M18" s="240"/>
+      <c r="N18" s="161" t="str">
+        <f>주간메뉴표!G16</f>
         <v>배추겉절이</v>
       </c>
-      <c r="I18" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="J18" s="228"/>
-      <c r="K18" s="165" t="str">
-        <f>주간메뉴표!F16</f>
-        <v>그린샐러드</v>
-      </c>
-      <c r="L18" s="79"/>
-      <c r="M18" s="228"/>
-      <c r="N18" s="165" t="str">
-        <f>주간메뉴표!G16</f>
-        <v>그린샐러드</v>
-      </c>
-      <c r="O18" s="79"/>
-      <c r="P18" s="228"/>
-      <c r="Q18" s="178"/>
-      <c r="R18" s="179"/>
-      <c r="S18" s="248"/>
+      <c r="O18" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="P18" s="240"/>
+      <c r="Q18" s="174"/>
+      <c r="R18" s="175"/>
+      <c r="S18" s="260"/>
     </row>
     <row r="19" spans="1:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B19" s="254"/>
-      <c r="C19" s="266"/>
-      <c r="D19" s="260"/>
+      <c r="B19" s="266"/>
+      <c r="C19" s="278"/>
+      <c r="D19" s="272"/>
       <c r="E19" s="88" t="str">
         <f>주간메뉴표!D17</f>
+        <v>백김치</v>
+      </c>
+      <c r="F19" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="G19" s="240"/>
+      <c r="H19" s="161">
+        <f>주간메뉴표!E17</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="79"/>
+      <c r="J19" s="240"/>
+      <c r="K19" s="161" t="str">
+        <f>주간메뉴표!F17</f>
+        <v>배추김치</v>
+      </c>
+      <c r="L19" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="M19" s="240"/>
+      <c r="N19" s="161" t="str">
+        <f>주간메뉴표!G17</f>
         <v>그린샐러드</v>
       </c>
-      <c r="F19" s="79"/>
-      <c r="G19" s="228"/>
-      <c r="H19" s="165" t="str">
-        <f>주간메뉴표!E17</f>
+      <c r="O19" s="79"/>
+      <c r="P19" s="240"/>
+      <c r="Q19" s="174"/>
+      <c r="R19" s="175"/>
+      <c r="S19" s="260"/>
+    </row>
+    <row r="20" spans="1:19" s="27" customFormat="1" ht="20.25" customHeight="1">
+      <c r="B20" s="266"/>
+      <c r="C20" s="278"/>
+      <c r="D20" s="272"/>
+      <c r="E20" s="88" t="str">
+        <f>주간메뉴표!D18</f>
         <v>그린샐러드</v>
       </c>
-      <c r="I19" s="79"/>
-      <c r="J19" s="228"/>
-      <c r="K19" s="165">
-        <f>주간메뉴표!F17</f>
+      <c r="F20" s="79"/>
+      <c r="G20" s="240"/>
+      <c r="H20" s="161">
+        <f>주간메뉴표!E18</f>
         <v>0</v>
       </c>
-      <c r="L19" s="79"/>
-      <c r="M19" s="228"/>
-      <c r="N19" s="165">
-        <f>주간메뉴표!G17</f>
+      <c r="I20" s="79"/>
+      <c r="J20" s="240"/>
+      <c r="K20" s="161" t="str">
+        <f>주간메뉴표!F18</f>
+        <v>그린샐러드</v>
+      </c>
+      <c r="L20" s="79"/>
+      <c r="M20" s="240"/>
+      <c r="N20" s="161">
+        <f>주간메뉴표!G18</f>
         <v>0</v>
       </c>
-      <c r="O19" s="79"/>
-      <c r="P19" s="228"/>
-      <c r="Q19" s="178"/>
-      <c r="R19" s="179"/>
-      <c r="S19" s="248"/>
-    </row>
-    <row r="20" spans="1:19" s="27" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B20" s="254"/>
-      <c r="C20" s="266"/>
-      <c r="D20" s="260"/>
-      <c r="E20" s="88" t="e">
-        <f>주간메뉴표!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F20" s="79"/>
-      <c r="G20" s="228"/>
-      <c r="H20" s="165" t="e">
-        <f>주간메뉴표!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I20" s="79"/>
-      <c r="J20" s="228"/>
-      <c r="K20" s="165" t="e">
-        <f>주간메뉴표!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L20" s="79"/>
-      <c r="M20" s="228"/>
-      <c r="N20" s="165" t="e">
-        <f>주간메뉴표!#REF!</f>
-        <v>#REF!</v>
-      </c>
       <c r="O20" s="79"/>
-      <c r="P20" s="228"/>
-      <c r="Q20" s="178"/>
-      <c r="R20" s="179"/>
-      <c r="S20" s="248"/>
+      <c r="P20" s="240"/>
+      <c r="Q20" s="174"/>
+      <c r="R20" s="175"/>
+      <c r="S20" s="260"/>
     </row>
     <row r="21" spans="1:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B21" s="254"/>
-      <c r="C21" s="265" t="s">
+      <c r="B21" s="266"/>
+      <c r="C21" s="277" t="s">
         <v>221</v>
       </c>
-      <c r="D21" s="259" t="s">
+      <c r="D21" s="271" t="s">
         <v>34</v>
       </c>
       <c r="E21" s="87" t="str">
-        <f>주간메뉴표!D19</f>
-        <v>[Fun!629]</v>
+        <f>주간메뉴표!D20</f>
+        <v>[웰그린데이]</v>
       </c>
       <c r="F21" s="79"/>
-      <c r="G21" s="227">
-        <f>주간메뉴표!D26</f>
+      <c r="G21" s="239">
+        <f>주간메뉴표!D27</f>
+        <v>1170</v>
+      </c>
+      <c r="H21" s="160" t="str">
+        <f>주간메뉴표!E20</f>
+        <v>일식스프카레&amp;장각구이</v>
+      </c>
+      <c r="I21" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="J21" s="281">
+        <f>주간메뉴표!E27</f>
         <v>1143</v>
       </c>
-      <c r="H21" s="164" t="str">
-        <f>주간메뉴표!E19</f>
-        <v>피쉬앤칩스</v>
-      </c>
-      <c r="I21" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="J21" s="269">
-        <f>주간메뉴표!E26</f>
-        <v>1151</v>
-      </c>
-      <c r="K21" s="164" t="str">
-        <f>주간메뉴표!F19</f>
-        <v>[Fun!629]</v>
+      <c r="K21" s="160">
+        <f>주간메뉴표!F20</f>
+        <v>0</v>
       </c>
       <c r="L21" s="79"/>
-      <c r="M21" s="227">
-        <f>주간메뉴표!F26</f>
-        <v>1139</v>
-      </c>
-      <c r="N21" s="166" t="str">
-        <f>주간메뉴표!G19</f>
-        <v>[Fun!629]</v>
-      </c>
-      <c r="O21" s="79"/>
-      <c r="P21" s="230">
-        <f>주간메뉴표!G26</f>
-        <v>783</v>
-      </c>
-      <c r="Q21" s="180"/>
-      <c r="R21" s="179"/>
-      <c r="S21" s="247"/>
+      <c r="M21" s="239">
+        <f>주간메뉴표!F27</f>
+        <v>868</v>
+      </c>
+      <c r="N21" s="162" t="str">
+        <f>주간메뉴표!G20</f>
+        <v>해물된장찌개</v>
+      </c>
+      <c r="O21" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="P21" s="242">
+        <f>주간메뉴표!G27</f>
+        <v>1101</v>
+      </c>
+      <c r="Q21" s="176"/>
+      <c r="R21" s="175"/>
+      <c r="S21" s="259"/>
     </row>
     <row r="22" spans="1:19" s="17" customFormat="1" ht="33" customHeight="1">
-      <c r="B22" s="254"/>
-      <c r="C22" s="266"/>
-      <c r="D22" s="260"/>
+      <c r="B22" s="266"/>
+      <c r="C22" s="278"/>
+      <c r="D22" s="272"/>
       <c r="E22" s="88" t="str">
-        <f>주간메뉴표!D20</f>
-        <v>함박오므라이스(버섯치즈라이스)</v>
+        <f>주간메뉴표!D21</f>
+        <v>고사리들기름파스타</v>
       </c>
       <c r="F22" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G22" s="228"/>
-      <c r="H22" s="167" t="str">
-        <f>주간메뉴표!E20</f>
-        <v>과카몰리에그오픈샌드위치</v>
+      <c r="G22" s="240"/>
+      <c r="H22" s="163" t="str">
+        <f>주간메뉴표!E21</f>
+        <v>치즈밥</v>
       </c>
       <c r="I22" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="J22" s="270"/>
-      <c r="K22" s="165" t="str">
-        <f>주간메뉴표!F20</f>
-        <v>고깃집볶음밥*후라이</v>
-      </c>
-      <c r="L22" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="M22" s="228"/>
-      <c r="N22" s="165" t="str">
-        <f>주간메뉴표!G20</f>
-        <v>참치회덮밥</v>
+      <c r="J22" s="282"/>
+      <c r="K22" s="161" t="str">
+        <f>주간메뉴표!F21</f>
+        <v>[시즌프로모션_겨울]</v>
+      </c>
+      <c r="L22" s="79"/>
+      <c r="M22" s="240"/>
+      <c r="N22" s="161" t="str">
+        <f>주간메뉴표!G21</f>
+        <v>쇠고기버섯잡채</v>
       </c>
       <c r="O22" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P22" s="231"/>
-      <c r="Q22" s="178"/>
-      <c r="R22" s="179"/>
-      <c r="S22" s="248"/>
+      <c r="P22" s="243"/>
+      <c r="Q22" s="174"/>
+      <c r="R22" s="175"/>
+      <c r="S22" s="260"/>
     </row>
     <row r="23" spans="1:19" s="17" customFormat="1" ht="30" customHeight="1">
       <c r="A23" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="254"/>
-      <c r="C23" s="266"/>
-      <c r="D23" s="260"/>
+      <c r="B23" s="266"/>
+      <c r="C23" s="278"/>
+      <c r="D23" s="272"/>
       <c r="E23" s="88" t="str">
-        <f>주간메뉴표!D21</f>
-        <v>*로제소스</v>
+        <f>주간메뉴표!D22</f>
+        <v>베지치킨&amp;베지오징어링튀김</v>
       </c>
       <c r="F23" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G23" s="228"/>
-      <c r="H23" s="167" t="str">
-        <f>주간메뉴표!E21</f>
+      <c r="G23" s="240"/>
+      <c r="H23" s="163" t="str">
+        <f>주간메뉴표!E22</f>
+        <v>에그타르트</v>
+      </c>
+      <c r="I23" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="J23" s="282"/>
+      <c r="K23" s="161" t="str">
+        <f>주간메뉴표!F22</f>
+        <v>빠에야(피홍합,피새우,오징어)</v>
+      </c>
+      <c r="L23" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="M23" s="240"/>
+      <c r="N23" s="161" t="str">
+        <f>주간메뉴표!G22</f>
+        <v>비엔나소시지볶음</v>
+      </c>
+      <c r="O23" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="P23" s="243"/>
+      <c r="Q23" s="174"/>
+      <c r="R23" s="175"/>
+      <c r="S23" s="260"/>
+    </row>
+    <row r="24" spans="1:19" s="17" customFormat="1" ht="28.5" customHeight="1">
+      <c r="B24" s="266"/>
+      <c r="C24" s="278"/>
+      <c r="D24" s="272"/>
+      <c r="E24" s="88" t="str">
+        <f>주간메뉴표!D23</f>
+        <v>무비트피클</v>
+      </c>
+      <c r="F24" s="79"/>
+      <c r="G24" s="240"/>
+      <c r="H24" s="163" t="str">
+        <f>주간메뉴표!E23</f>
+        <v>락교&amp;초생강&amp;산고추절임</v>
+      </c>
+      <c r="I24" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="J24" s="282"/>
+      <c r="K24" s="161" t="str">
+        <f>주간메뉴표!F23</f>
+        <v>채소크로켓</v>
+      </c>
+      <c r="L24" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="M24" s="240"/>
+      <c r="N24" s="161" t="str">
+        <f>주간메뉴표!G23</f>
+        <v>땅콩조림</v>
+      </c>
+      <c r="O24" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="P24" s="243"/>
+      <c r="Q24" s="174"/>
+      <c r="R24" s="175"/>
+      <c r="S24" s="260"/>
+    </row>
+    <row r="25" spans="1:19" s="17" customFormat="1" ht="30.75" customHeight="1">
+      <c r="B25" s="266"/>
+      <c r="C25" s="278"/>
+      <c r="D25" s="272"/>
+      <c r="E25" s="88" t="str">
+        <f>주간메뉴표!D24</f>
         <v>탄산음료</v>
       </c>
-      <c r="I23" s="79"/>
-      <c r="J23" s="270"/>
-      <c r="K23" s="165" t="str">
-        <f>주간메뉴표!F21</f>
-        <v>된장찌개</v>
-      </c>
-      <c r="L23" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="M23" s="228"/>
-      <c r="N23" s="165" t="str">
-        <f>주간메뉴표!G21</f>
-        <v>얼갈이된장국</v>
-      </c>
-      <c r="O23" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="P23" s="231"/>
-      <c r="Q23" s="178"/>
-      <c r="R23" s="179"/>
-      <c r="S23" s="248"/>
-    </row>
-    <row r="24" spans="1:19" s="17" customFormat="1" ht="28.5" customHeight="1">
-      <c r="B24" s="254"/>
-      <c r="C24" s="266"/>
-      <c r="D24" s="260"/>
-      <c r="E24" s="88" t="str">
-        <f>주간메뉴표!D22</f>
-        <v>버섯장국</v>
-      </c>
-      <c r="F24" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="G24" s="228"/>
-      <c r="H24" s="167" t="str">
-        <f>주간메뉴표!E22</f>
+      <c r="F25" s="79"/>
+      <c r="G25" s="240"/>
+      <c r="H25" s="163" t="str">
+        <f>주간메뉴표!E24</f>
         <v>그린샐러드</v>
       </c>
-      <c r="I24" s="79"/>
-      <c r="J24" s="270"/>
-      <c r="K24" s="165" t="str">
-        <f>주간메뉴표!F22</f>
-        <v>메밀전병</v>
-      </c>
-      <c r="L24" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="M24" s="228"/>
-      <c r="N24" s="165" t="str">
-        <f>주간메뉴표!G22</f>
-        <v>손만두찜</v>
-      </c>
-      <c r="O24" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="P24" s="231"/>
-      <c r="Q24" s="178"/>
-      <c r="R24" s="179"/>
-      <c r="S24" s="248"/>
-    </row>
-    <row r="25" spans="1:19" s="17" customFormat="1" ht="30.75" customHeight="1">
-      <c r="B25" s="254"/>
-      <c r="C25" s="266"/>
-      <c r="D25" s="260"/>
-      <c r="E25" s="88" t="str">
-        <f>주간메뉴표!D23</f>
-        <v>수제오이피클</v>
-      </c>
-      <c r="F25" s="79"/>
-      <c r="G25" s="228"/>
-      <c r="H25" s="167">
-        <f>주간메뉴표!E23</f>
+      <c r="I25" s="79"/>
+      <c r="J25" s="282"/>
+      <c r="K25" s="161" t="str">
+        <f>주간메뉴표!F24</f>
+        <v>무비트피클/탄산음료</v>
+      </c>
+      <c r="L25" s="79"/>
+      <c r="M25" s="240"/>
+      <c r="N25" s="161" t="str">
+        <f>주간메뉴표!G24</f>
+        <v>포기김치/잡곡밥</v>
+      </c>
+      <c r="O25" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="P25" s="243"/>
+      <c r="Q25" s="174"/>
+      <c r="R25" s="175"/>
+      <c r="S25" s="260"/>
+    </row>
+    <row r="26" spans="1:19" s="17" customFormat="1" ht="33.75" customHeight="1">
+      <c r="B26" s="266"/>
+      <c r="C26" s="278"/>
+      <c r="D26" s="272"/>
+      <c r="E26" s="88" t="str">
+        <f>주간메뉴표!D25</f>
+        <v>그린샐러드</v>
+      </c>
+      <c r="F26" s="79"/>
+      <c r="G26" s="240"/>
+      <c r="H26" s="163">
+        <f>주간메뉴표!E25</f>
         <v>0</v>
       </c>
-      <c r="I25" s="79"/>
-      <c r="J25" s="270"/>
-      <c r="K25" s="165" t="str">
-        <f>주간메뉴표!F23</f>
-        <v>천사채샐러드</v>
-      </c>
-      <c r="L25" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="M25" s="228"/>
-      <c r="N25" s="165" t="str">
-        <f>주간메뉴표!G23</f>
-        <v>깍두기</v>
-      </c>
-      <c r="O25" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="P25" s="231"/>
-      <c r="Q25" s="178"/>
-      <c r="R25" s="179"/>
-      <c r="S25" s="248"/>
-    </row>
-    <row r="26" spans="1:19" s="17" customFormat="1" ht="33.75" customHeight="1">
-      <c r="B26" s="254"/>
-      <c r="C26" s="266"/>
-      <c r="D26" s="260"/>
-      <c r="E26" s="88" t="str">
-        <f>주간메뉴표!D24</f>
+      <c r="I26" s="79"/>
+      <c r="J26" s="282"/>
+      <c r="K26" s="161" t="str">
+        <f>주간메뉴표!F25</f>
         <v>그린샐러드</v>
       </c>
-      <c r="F26" s="79"/>
-      <c r="G26" s="228"/>
-      <c r="H26" s="167">
-        <f>주간메뉴표!E24</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="79"/>
-      <c r="J26" s="270"/>
-      <c r="K26" s="165" t="str">
-        <f>주간메뉴표!F24</f>
-        <v>깍두기</v>
-      </c>
-      <c r="L26" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="M26" s="228"/>
-      <c r="N26" s="165" t="str">
-        <f>주간메뉴표!G24</f>
+      <c r="L26" s="79"/>
+      <c r="M26" s="240"/>
+      <c r="N26" s="161" t="str">
+        <f>주간메뉴표!G25</f>
         <v>그린샐러드</v>
       </c>
       <c r="O26" s="79"/>
-      <c r="P26" s="231"/>
-      <c r="Q26" s="178"/>
-      <c r="R26" s="179"/>
-      <c r="S26" s="248"/>
+      <c r="P26" s="243"/>
+      <c r="Q26" s="174"/>
+      <c r="R26" s="175"/>
+      <c r="S26" s="260"/>
     </row>
     <row r="27" spans="1:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B27" s="254"/>
-      <c r="C27" s="272"/>
-      <c r="D27" s="261"/>
+      <c r="B27" s="266"/>
+      <c r="C27" s="284"/>
+      <c r="D27" s="273"/>
       <c r="E27" s="88" t="e">
         <f>주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="F27" s="79"/>
-      <c r="G27" s="229"/>
-      <c r="H27" s="167" t="e">
+      <c r="G27" s="241"/>
+      <c r="H27" s="163" t="e">
         <f>주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="I27" s="79"/>
-      <c r="J27" s="271"/>
-      <c r="K27" s="165" t="e">
+      <c r="J27" s="283"/>
+      <c r="K27" s="161" t="e">
         <f>주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="L27" s="79"/>
-      <c r="M27" s="229"/>
-      <c r="N27" s="165" t="e">
+      <c r="M27" s="241"/>
+      <c r="N27" s="161" t="e">
         <f>주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="O27" s="79"/>
-      <c r="P27" s="232"/>
-      <c r="Q27" s="178"/>
-      <c r="R27" s="179"/>
-      <c r="S27" s="249"/>
+      <c r="P27" s="244"/>
+      <c r="Q27" s="174"/>
+      <c r="R27" s="175"/>
+      <c r="S27" s="261"/>
     </row>
     <row r="28" spans="1:19" s="44" customFormat="1" ht="20.25" hidden="1" customHeight="1">
-      <c r="B28" s="254"/>
-      <c r="C28" s="148"/>
-      <c r="D28" s="259"/>
+      <c r="B28" s="266"/>
+      <c r="C28" s="147"/>
+      <c r="D28" s="271"/>
       <c r="E28" s="82"/>
       <c r="F28" s="79"/>
-      <c r="G28" s="227" t="e">
+      <c r="G28" s="239" t="e">
         <f>주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="H28" s="168"/>
+      <c r="H28" s="164"/>
       <c r="I28" s="79"/>
-      <c r="J28" s="227" t="e">
+      <c r="J28" s="239" t="e">
         <f>주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K28" s="164"/>
+      <c r="K28" s="160"/>
       <c r="L28" s="79"/>
-      <c r="M28" s="227"/>
-      <c r="N28" s="168"/>
+      <c r="M28" s="239"/>
+      <c r="N28" s="164"/>
       <c r="O28" s="79"/>
-      <c r="P28" s="230"/>
-      <c r="Q28" s="172" t="e">
+      <c r="P28" s="242"/>
+      <c r="Q28" s="168" t="e">
         <f>주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="R28" s="79"/>
-      <c r="S28" s="240"/>
+      <c r="S28" s="252"/>
     </row>
     <row r="29" spans="1:19" s="17" customFormat="1" ht="20.25" hidden="1" customHeight="1">
-      <c r="B29" s="254"/>
-      <c r="C29" s="148"/>
-      <c r="D29" s="260"/>
+      <c r="B29" s="266"/>
+      <c r="C29" s="147"/>
+      <c r="D29" s="272"/>
       <c r="E29" s="89"/>
       <c r="F29" s="79"/>
-      <c r="G29" s="228"/>
-      <c r="H29" s="169"/>
+      <c r="G29" s="240"/>
+      <c r="H29" s="165"/>
       <c r="I29" s="79"/>
-      <c r="J29" s="228"/>
-      <c r="K29" s="165"/>
+      <c r="J29" s="240"/>
+      <c r="K29" s="161"/>
       <c r="L29" s="79"/>
-      <c r="M29" s="228"/>
-      <c r="N29" s="169"/>
+      <c r="M29" s="240"/>
+      <c r="N29" s="165"/>
       <c r="O29" s="79"/>
-      <c r="P29" s="231"/>
-      <c r="Q29" s="169" t="e">
+      <c r="P29" s="243"/>
+      <c r="Q29" s="165" t="e">
         <f>주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="R29" s="79"/>
-      <c r="S29" s="246"/>
+      <c r="S29" s="258"/>
     </row>
     <row r="30" spans="1:19" s="17" customFormat="1" ht="20.25" hidden="1" customHeight="1">
-      <c r="B30" s="254"/>
-      <c r="C30" s="148"/>
-      <c r="D30" s="260"/>
+      <c r="B30" s="266"/>
+      <c r="C30" s="147"/>
+      <c r="D30" s="272"/>
       <c r="E30" s="89"/>
       <c r="F30" s="79"/>
-      <c r="G30" s="228"/>
-      <c r="H30" s="169"/>
+      <c r="G30" s="240"/>
+      <c r="H30" s="165"/>
       <c r="I30" s="79"/>
-      <c r="J30" s="228"/>
-      <c r="K30" s="165"/>
+      <c r="J30" s="240"/>
+      <c r="K30" s="161"/>
       <c r="L30" s="79"/>
-      <c r="M30" s="228"/>
-      <c r="N30" s="169"/>
+      <c r="M30" s="240"/>
+      <c r="N30" s="165"/>
       <c r="O30" s="79"/>
-      <c r="P30" s="231"/>
-      <c r="Q30" s="169" t="e">
+      <c r="P30" s="243"/>
+      <c r="Q30" s="165" t="e">
         <f>주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="R30" s="79"/>
-      <c r="S30" s="246"/>
+      <c r="S30" s="258"/>
     </row>
     <row r="31" spans="1:19" s="17" customFormat="1" ht="20.25" hidden="1" customHeight="1">
-      <c r="B31" s="254"/>
-      <c r="C31" s="148"/>
-      <c r="D31" s="260"/>
+      <c r="B31" s="266"/>
+      <c r="C31" s="147"/>
+      <c r="D31" s="272"/>
       <c r="E31" s="89"/>
       <c r="F31" s="79"/>
-      <c r="G31" s="228"/>
-      <c r="H31" s="169"/>
+      <c r="G31" s="240"/>
+      <c r="H31" s="165"/>
       <c r="I31" s="79"/>
-      <c r="J31" s="228"/>
-      <c r="K31" s="165"/>
+      <c r="J31" s="240"/>
+      <c r="K31" s="161"/>
       <c r="L31" s="79"/>
-      <c r="M31" s="228"/>
-      <c r="N31" s="169"/>
+      <c r="M31" s="240"/>
+      <c r="N31" s="165"/>
       <c r="O31" s="79"/>
-      <c r="P31" s="231"/>
-      <c r="Q31" s="169" t="e">
+      <c r="P31" s="243"/>
+      <c r="Q31" s="165" t="e">
         <f>주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="R31" s="79"/>
-      <c r="S31" s="246"/>
+      <c r="S31" s="258"/>
     </row>
     <row r="32" spans="1:19" s="17" customFormat="1" ht="20.25" hidden="1" customHeight="1">
-      <c r="B32" s="254"/>
-      <c r="C32" s="148"/>
-      <c r="D32" s="260"/>
+      <c r="B32" s="266"/>
+      <c r="C32" s="147"/>
+      <c r="D32" s="272"/>
       <c r="E32" s="89"/>
       <c r="F32" s="79"/>
-      <c r="G32" s="228"/>
-      <c r="H32" s="169"/>
+      <c r="G32" s="240"/>
+      <c r="H32" s="165"/>
       <c r="I32" s="79"/>
-      <c r="J32" s="228"/>
-      <c r="K32" s="165"/>
+      <c r="J32" s="240"/>
+      <c r="K32" s="161"/>
       <c r="L32" s="79"/>
-      <c r="M32" s="228"/>
-      <c r="N32" s="169"/>
+      <c r="M32" s="240"/>
+      <c r="N32" s="165"/>
       <c r="O32" s="79"/>
-      <c r="P32" s="231"/>
-      <c r="Q32" s="169" t="e">
+      <c r="P32" s="243"/>
+      <c r="Q32" s="165" t="e">
         <f>주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="R32" s="79"/>
-      <c r="S32" s="246"/>
+      <c r="S32" s="258"/>
     </row>
     <row r="33" spans="2:19" s="17" customFormat="1" ht="20.25" hidden="1" customHeight="1">
-      <c r="B33" s="254"/>
-      <c r="C33" s="149"/>
-      <c r="D33" s="261"/>
+      <c r="B33" s="266"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="273"/>
       <c r="E33" s="89"/>
       <c r="F33" s="79"/>
-      <c r="G33" s="229"/>
-      <c r="H33" s="169"/>
+      <c r="G33" s="241"/>
+      <c r="H33" s="165"/>
       <c r="I33" s="79"/>
-      <c r="J33" s="229"/>
-      <c r="K33" s="165"/>
+      <c r="J33" s="241"/>
+      <c r="K33" s="161"/>
       <c r="L33" s="79"/>
-      <c r="M33" s="229"/>
-      <c r="N33" s="169"/>
+      <c r="M33" s="241"/>
+      <c r="N33" s="165"/>
       <c r="O33" s="79"/>
-      <c r="P33" s="232"/>
-      <c r="Q33" s="169"/>
+      <c r="P33" s="244"/>
+      <c r="Q33" s="165"/>
       <c r="R33" s="79"/>
-      <c r="S33" s="241"/>
+      <c r="S33" s="253"/>
     </row>
     <row r="34" spans="2:19" s="27" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B34" s="254"/>
-      <c r="C34" s="265" t="s">
+      <c r="B34" s="266"/>
+      <c r="C34" s="277" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="262" t="s">
+      <c r="D34" s="274" t="s">
         <v>36</v>
       </c>
       <c r="E34" s="81" t="str">
-        <f>주간메뉴표!D27</f>
+        <f>주간메뉴표!D28</f>
         <v>볶음김치</v>
       </c>
       <c r="F34" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G34" s="250"/>
-      <c r="H34" s="170" t="str">
-        <f>주간메뉴표!E27</f>
-        <v>갓김치</v>
+      <c r="G34" s="262"/>
+      <c r="H34" s="166" t="str">
+        <f>주간메뉴표!E28</f>
+        <v>백김치</v>
       </c>
       <c r="I34" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="J34" s="250"/>
-      <c r="K34" s="170" t="str">
-        <f>주간메뉴표!F27</f>
+      <c r="J34" s="262"/>
+      <c r="K34" s="166" t="str">
+        <f>주간메뉴표!F28</f>
         <v>볶음김치</v>
       </c>
       <c r="L34" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M34" s="250"/>
-      <c r="N34" s="170" t="str">
-        <f>주간메뉴표!G27</f>
-        <v>갓김치</v>
+      <c r="M34" s="262"/>
+      <c r="N34" s="166" t="str">
+        <f>주간메뉴표!G28</f>
+        <v>백김치</v>
       </c>
       <c r="O34" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P34" s="250"/>
-      <c r="Q34" s="170" t="str">
-        <f>주간메뉴표!H27</f>
+      <c r="P34" s="262"/>
+      <c r="Q34" s="166" t="str">
+        <f>주간메뉴표!H28</f>
         <v>볶음김치</v>
       </c>
       <c r="R34" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="S34" s="262"/>
+      <c r="S34" s="274"/>
     </row>
     <row r="35" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B35" s="254"/>
-      <c r="C35" s="266"/>
-      <c r="D35" s="263"/>
+      <c r="B35" s="266"/>
+      <c r="C35" s="278"/>
+      <c r="D35" s="275"/>
       <c r="E35" s="81" t="str">
-        <f>주간메뉴표!D28</f>
-        <v>자몽차</v>
+        <f>주간메뉴표!D29</f>
+        <v>매실차(Hot)</v>
       </c>
       <c r="F35" s="79"/>
-      <c r="G35" s="251"/>
-      <c r="H35" s="170" t="str">
-        <f>주간메뉴표!E28</f>
-        <v>발사믹D&amp;자몽D</v>
+      <c r="G35" s="263"/>
+      <c r="H35" s="166" t="str">
+        <f>주간메뉴표!E29</f>
+        <v>발사믹D&amp;참깨D</v>
       </c>
       <c r="I35" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="J35" s="251"/>
-      <c r="K35" s="170" t="str">
-        <f>주간메뉴표!F28</f>
-        <v>율무차</v>
-      </c>
-      <c r="L35" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="M35" s="251"/>
-      <c r="N35" s="170" t="str">
-        <f>주간메뉴표!G28</f>
-        <v>녹차라떼</v>
+      <c r="J35" s="263"/>
+      <c r="K35" s="166" t="str">
+        <f>주간메뉴표!F29</f>
+        <v>유자차(hot)</v>
+      </c>
+      <c r="L35" s="79"/>
+      <c r="M35" s="263"/>
+      <c r="N35" s="166" t="str">
+        <f>주간메뉴표!G29</f>
+        <v>나쵸칩*살사소스</v>
       </c>
       <c r="O35" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P35" s="251"/>
-      <c r="Q35" s="170" t="str">
-        <f>주간메뉴표!H28</f>
-        <v>요거트*씨리얼</v>
-      </c>
-      <c r="R35" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="S35" s="263"/>
+      <c r="P35" s="263"/>
+      <c r="Q35" s="166" t="str">
+        <f>주간메뉴표!H29</f>
+        <v>사과</v>
+      </c>
+      <c r="R35" s="79"/>
+      <c r="S35" s="275"/>
     </row>
     <row r="36" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B36" s="254"/>
-      <c r="C36" s="266"/>
-      <c r="D36" s="263"/>
+      <c r="B36" s="266"/>
+      <c r="C36" s="278"/>
+      <c r="D36" s="275"/>
       <c r="E36" s="81" t="str">
-        <f>주간메뉴표!D29</f>
-        <v>오리엔탈D&amp;요거트D</v>
+        <f>주간메뉴표!D30</f>
+        <v>오리엔탈D&amp;망고D</v>
       </c>
       <c r="F36" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G36" s="252"/>
-      <c r="H36" s="170">
-        <f>주간메뉴표!E29</f>
+      <c r="G36" s="264"/>
+      <c r="H36" s="166">
+        <f>주간메뉴표!E30</f>
         <v>0</v>
       </c>
       <c r="I36" s="79"/>
-      <c r="J36" s="252"/>
-      <c r="K36" s="170" t="str">
-        <f>주간메뉴표!F29</f>
-        <v>오리엔탈D&amp;크리미양파D</v>
+      <c r="J36" s="264"/>
+      <c r="K36" s="166" t="str">
+        <f>주간메뉴표!F30</f>
+        <v>오리엔탈D&amp;블루베리D</v>
       </c>
       <c r="L36" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M36" s="252"/>
-      <c r="N36" s="170" t="str">
-        <f>주간메뉴표!G29</f>
-        <v>발사믹D&amp;딸기요거트D</v>
+      <c r="M36" s="264"/>
+      <c r="N36" s="166" t="str">
+        <f>주간메뉴표!G30</f>
+        <v>발사믹D&amp;파인애플D</v>
       </c>
       <c r="O36" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P36" s="252"/>
-      <c r="Q36" s="170" t="str">
-        <f>주간메뉴표!H29</f>
-        <v>오리엔탈D&amp;한라봉D</v>
+      <c r="P36" s="264"/>
+      <c r="Q36" s="166" t="str">
+        <f>주간메뉴표!H30</f>
+        <v>오리엔탈D&amp;딸기D</v>
       </c>
       <c r="R36" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="S36" s="264"/>
+      <c r="S36" s="276"/>
     </row>
     <row r="37" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B37" s="254"/>
-      <c r="C37" s="265" t="s">
+      <c r="B37" s="266"/>
+      <c r="C37" s="277" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="262" t="s">
+      <c r="D37" s="274" t="s">
         <v>211</v>
       </c>
-      <c r="E37" s="267" t="str">
-        <f>주간메뉴표!D30</f>
-        <v>씨푸드파스타샐러드</v>
-      </c>
-      <c r="F37" s="244" t="s">
-        <v>220</v>
-      </c>
-      <c r="G37" s="227">
+      <c r="E37" s="279" t="str">
         <f>주간메뉴표!D31</f>
-        <v>674</v>
-      </c>
-      <c r="H37" s="242" t="str">
-        <f>주간메뉴표!E30</f>
-        <v>베이컨닭가슴살샐러드</v>
-      </c>
-      <c r="I37" s="244" t="s">
-        <v>220</v>
-      </c>
-      <c r="J37" s="227">
+        <v>훈제연어스테이크샐러드</v>
+      </c>
+      <c r="F37" s="256" t="s">
+        <v>220</v>
+      </c>
+      <c r="G37" s="239">
+        <f>주간메뉴표!D32</f>
+        <v>629</v>
+      </c>
+      <c r="H37" s="254" t="str">
         <f>주간메뉴표!E31</f>
-        <v>725</v>
-      </c>
-      <c r="K37" s="242" t="str">
-        <f>주간메뉴표!F30</f>
-        <v>쿠스쿠스닭다리살샐러드</v>
-      </c>
-      <c r="L37" s="244" t="s">
-        <v>220</v>
-      </c>
-      <c r="M37" s="227">
+        <v>바질파스타샐러드</v>
+      </c>
+      <c r="I37" s="256" t="s">
+        <v>220</v>
+      </c>
+      <c r="J37" s="239">
+        <f>주간메뉴표!E32</f>
+        <v>642</v>
+      </c>
+      <c r="K37" s="254" t="str">
         <f>주간메뉴표!F31</f>
-        <v>698</v>
-      </c>
-      <c r="N37" s="242" t="str">
-        <f>주간메뉴표!G30</f>
-        <v>에그마요샐러드</v>
-      </c>
-      <c r="O37" s="244" t="s">
-        <v>220</v>
-      </c>
-      <c r="P37" s="227">
+        <v>코코넛쉬림프샐러드</v>
+      </c>
+      <c r="L37" s="256" t="s">
+        <v>220</v>
+      </c>
+      <c r="M37" s="239">
+        <f>주간메뉴표!F32</f>
+        <v>777</v>
+      </c>
+      <c r="N37" s="254" t="str">
         <f>주간메뉴표!G31</f>
-        <v>712</v>
-      </c>
-      <c r="Q37" s="242" t="str">
-        <f>주간메뉴표!H30</f>
-        <v>목살스테이크샐러드</v>
-      </c>
-      <c r="R37" s="244" t="s">
-        <v>220</v>
-      </c>
-      <c r="S37" s="240">
+        <v>케이준치킨&amp;크랩타블렉샐러드</v>
+      </c>
+      <c r="O37" s="256" t="s">
+        <v>220</v>
+      </c>
+      <c r="P37" s="239">
+        <f>주간메뉴표!G32</f>
+        <v>458</v>
+      </c>
+      <c r="Q37" s="254" t="str">
         <f>주간메뉴표!H31</f>
-        <v>769</v>
+        <v>포크커틀렛샐러드</v>
+      </c>
+      <c r="R37" s="256" t="s">
+        <v>220</v>
+      </c>
+      <c r="S37" s="252">
+        <f>주간메뉴표!H32</f>
+        <v>699</v>
       </c>
     </row>
     <row r="38" spans="2:19" s="17" customFormat="1" ht="36" customHeight="1">
-      <c r="B38" s="254"/>
-      <c r="C38" s="266"/>
-      <c r="D38" s="263"/>
-      <c r="E38" s="268"/>
-      <c r="F38" s="245"/>
-      <c r="G38" s="228"/>
-      <c r="H38" s="243"/>
-      <c r="I38" s="245"/>
-      <c r="J38" s="228"/>
-      <c r="K38" s="243"/>
-      <c r="L38" s="245"/>
-      <c r="M38" s="228"/>
-      <c r="N38" s="243"/>
-      <c r="O38" s="245"/>
-      <c r="P38" s="228"/>
-      <c r="Q38" s="243"/>
-      <c r="R38" s="245"/>
-      <c r="S38" s="241"/>
+      <c r="B38" s="266"/>
+      <c r="C38" s="278"/>
+      <c r="D38" s="275"/>
+      <c r="E38" s="280"/>
+      <c r="F38" s="257"/>
+      <c r="G38" s="240"/>
+      <c r="H38" s="255"/>
+      <c r="I38" s="257"/>
+      <c r="J38" s="240"/>
+      <c r="K38" s="255"/>
+      <c r="L38" s="257"/>
+      <c r="M38" s="240"/>
+      <c r="N38" s="255"/>
+      <c r="O38" s="257"/>
+      <c r="P38" s="240"/>
+      <c r="Q38" s="255"/>
+      <c r="R38" s="257"/>
+      <c r="S38" s="253"/>
     </row>
     <row r="39" spans="2:19" s="44" customFormat="1" ht="33.75" customHeight="1">
-      <c r="B39" s="254"/>
-      <c r="C39" s="266"/>
+      <c r="B39" s="266"/>
+      <c r="C39" s="278"/>
       <c r="D39" s="141" t="s">
         <v>213</v>
       </c>
       <c r="E39" s="80" t="str">
-        <f>주간메뉴표!D32</f>
+        <f>주간메뉴표!D33</f>
+        <v>하프오리엔탈치킨샌드위치
+&amp;과일2종</v>
+      </c>
+      <c r="F39" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="G39" s="157">
+        <f>주간메뉴표!D34</f>
+        <v>315</v>
+      </c>
+      <c r="H39" s="167" t="str">
+        <f>주간메뉴표!E33</f>
+        <v>간장불고기샐러드랩
+&amp;과일2종</v>
+      </c>
+      <c r="I39" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="J39" s="157">
+        <f>주간메뉴표!E34</f>
+        <v>480</v>
+      </c>
+      <c r="K39" s="167" t="str">
+        <f>주간메뉴표!F33</f>
+        <v>케이준치킨샐러드랩
+&amp;과일2종</v>
+      </c>
+      <c r="L39" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="M39" s="157">
+        <f>주간메뉴표!F34</f>
+        <v>455</v>
+      </c>
+      <c r="N39" s="167" t="str">
+        <f>주간메뉴표!G33</f>
         <v>쉬림프치즈랩샌드위치
 &amp;과일2종</v>
       </c>
-      <c r="F39" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="G39" s="161">
-        <f>주간메뉴표!D33</f>
-        <v>550</v>
-      </c>
-      <c r="H39" s="171" t="str">
-        <f>주간메뉴표!E32</f>
-        <v>햄치즈크라상샌드위치
-&amp;과일2종</v>
-      </c>
-      <c r="I39" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="J39" s="161">
-        <f>주간메뉴표!E33</f>
-        <v>420</v>
-      </c>
-      <c r="K39" s="171" t="str">
-        <f>주간메뉴표!F32</f>
-        <v>불고기랩샌드위치
-&amp;과일2종</v>
-      </c>
-      <c r="L39" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="M39" s="161">
-        <f>주간메뉴표!F33</f>
-        <v>325</v>
-      </c>
-      <c r="N39" s="171" t="str">
-        <f>주간메뉴표!G32</f>
-        <v>어니언치킨샐러드랩
-&amp;과일2종</v>
-      </c>
       <c r="O39" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P39" s="161">
-        <f>주간메뉴표!G33</f>
-        <v>460</v>
-      </c>
-      <c r="Q39" s="181"/>
-      <c r="R39" s="179"/>
-      <c r="S39" s="182"/>
+      <c r="P39" s="157">
+        <f>주간메뉴표!G34</f>
+        <v>691</v>
+      </c>
+      <c r="Q39" s="177"/>
+      <c r="R39" s="175"/>
+      <c r="S39" s="178"/>
     </row>
     <row r="40" spans="2:19" s="17" customFormat="1" ht="30.75" customHeight="1">
-      <c r="B40" s="254"/>
-      <c r="C40" s="266"/>
+      <c r="B40" s="266"/>
+      <c r="C40" s="278"/>
       <c r="D40" s="142" t="s">
         <v>212</v>
       </c>
       <c r="E40" s="80" t="str">
-        <f>주간메뉴표!D34</f>
-        <v>퀴노아아보카도샐러드</v>
+        <f>주간메뉴표!D35</f>
+        <v>라후테덮밥(차슈ST)</v>
       </c>
       <c r="F40" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G40" s="162">
-        <f>주간메뉴표!D35</f>
-        <v>638</v>
-      </c>
-      <c r="H40" s="171" t="str">
-        <f>주간메뉴표!E34</f>
-        <v>N 베지순두부비빔밥</v>
+      <c r="G40" s="158">
+        <f>주간메뉴표!D36</f>
+        <v>679</v>
+      </c>
+      <c r="H40" s="167" t="str">
+        <f>주간메뉴표!E35</f>
+        <v>N라구두부면파스타</v>
       </c>
       <c r="I40" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="J40" s="162">
-        <f>주간메뉴표!E35</f>
-        <v>576</v>
-      </c>
-      <c r="K40" s="171" t="str">
-        <f>주간메뉴표!F34</f>
-        <v>제육컬리플라워흑미덮밥</v>
+      <c r="J40" s="158">
+        <f>주간메뉴표!E36</f>
+        <v>588</v>
+      </c>
+      <c r="K40" s="167" t="str">
+        <f>주간메뉴표!F35</f>
+        <v>풀드포크누들샐러드</v>
       </c>
       <c r="L40" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M40" s="162">
-        <f>주간메뉴표!F35</f>
-        <v>528</v>
-      </c>
-      <c r="N40" s="171" t="str">
-        <f>주간메뉴표!G34</f>
-        <v>N 베지마제두부면</v>
+      <c r="M40" s="158">
+        <f>주간메뉴표!F36</f>
+        <v>546</v>
+      </c>
+      <c r="N40" s="167" t="str">
+        <f>주간메뉴표!G35</f>
+        <v>N아보카도베지키마카레</v>
       </c>
       <c r="O40" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P40" s="162">
-        <f>주간메뉴표!G35</f>
-        <v>553</v>
-      </c>
-      <c r="Q40" s="181"/>
-      <c r="R40" s="179"/>
-      <c r="S40" s="183"/>
+      <c r="P40" s="158">
+        <f>주간메뉴표!G36</f>
+        <v>777</v>
+      </c>
+      <c r="Q40" s="177"/>
+      <c r="R40" s="175"/>
+      <c r="S40" s="179"/>
     </row>
     <row r="41" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B41" s="253" t="s">
+      <c r="B41" s="265" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="255"/>
-      <c r="D41" s="259" t="s">
+      <c r="C41" s="267"/>
+      <c r="D41" s="271" t="s">
         <v>39</v>
       </c>
       <c r="E41" s="97" t="str">
-        <f>주간메뉴표!D37</f>
-        <v>일식간장불고기솥밥</v>
+        <f>주간메뉴표!D38</f>
+        <v>얼큰장터국밥</v>
       </c>
       <c r="F41" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G41" s="227">
-        <f>주간메뉴표!D43</f>
-        <v>1248</v>
-      </c>
-      <c r="H41" s="168" t="str">
-        <f>주간메뉴표!E37</f>
-        <v>베이컨갈릭볶음밥*후라이</v>
+      <c r="G41" s="239">
+        <f>주간메뉴표!D44</f>
+        <v>1004</v>
+      </c>
+      <c r="H41" s="164" t="str">
+        <f>주간메뉴표!E38</f>
+        <v>소시지커리필라프</v>
       </c>
       <c r="I41" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="J41" s="227">
-        <f>주간메뉴표!E43</f>
-        <v>1051</v>
-      </c>
-      <c r="K41" s="168" t="str">
-        <f>주간메뉴표!F37</f>
-        <v>(뚝)전주식콩나물국밥*수란</v>
+      <c r="J41" s="239">
+        <f>주간메뉴표!E44</f>
+        <v>1110</v>
+      </c>
+      <c r="K41" s="164" t="str">
+        <f>주간메뉴표!F38</f>
+        <v>(뚝)닭곰탕</v>
       </c>
       <c r="L41" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M41" s="227">
-        <f>주간메뉴표!F43</f>
-        <v>1332</v>
-      </c>
-      <c r="N41" s="168" t="str">
-        <f>주간메뉴표!G37</f>
-        <v>밀양돼지국밥</v>
+      <c r="M41" s="239">
+        <f>주간메뉴표!F44</f>
+        <v>1333</v>
+      </c>
+      <c r="N41" s="164" t="str">
+        <f>주간메뉴표!G38</f>
+        <v>짜글이고추장돼지불고기</v>
       </c>
       <c r="O41" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P41" s="235">
-        <f>주간메뉴표!G43</f>
-        <v>1125</v>
-      </c>
-      <c r="Q41" s="168" t="str">
-        <f>주간메뉴표!H37</f>
-        <v>매생이굴국밥</v>
+      <c r="P41" s="247">
+        <f>주간메뉴표!G44</f>
+        <v>1142</v>
+      </c>
+      <c r="Q41" s="164" t="str">
+        <f>주간메뉴표!H38</f>
+        <v>(뚝)대구매운탕</v>
       </c>
       <c r="R41" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="S41" s="240">
-        <f>주간메뉴표!H43</f>
-        <v>1027</v>
+      <c r="S41" s="252">
+        <f>주간메뉴표!H44</f>
+        <v>1036</v>
       </c>
     </row>
     <row r="42" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B42" s="254"/>
-      <c r="C42" s="256"/>
-      <c r="D42" s="260"/>
+      <c r="B42" s="266"/>
+      <c r="C42" s="268"/>
+      <c r="D42" s="272"/>
       <c r="E42" s="90" t="str">
-        <f>주간메뉴표!D38</f>
-        <v>*비빔반숙란&amp;쯔유소스</v>
+        <f>주간메뉴표!D39</f>
+        <v>백순대볶음*양념장</v>
       </c>
       <c r="F42" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G42" s="228"/>
-      <c r="H42" s="169" t="str">
-        <f>주간메뉴표!E38</f>
-        <v>유부장국</v>
+      <c r="G42" s="240"/>
+      <c r="H42" s="165" t="str">
+        <f>주간메뉴표!E39</f>
+        <v>미소장국</v>
       </c>
       <c r="I42" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="J42" s="228"/>
-      <c r="K42" s="169" t="str">
-        <f>주간메뉴표!F38</f>
-        <v>꼬마돈가스*케찹</v>
+      <c r="J42" s="240"/>
+      <c r="K42" s="165" t="str">
+        <f>주간메뉴표!F39</f>
+        <v>비빔채소만두</v>
       </c>
       <c r="L42" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M42" s="228"/>
-      <c r="N42" s="169" t="str">
-        <f>주간메뉴표!G38</f>
-        <v>순대볶음</v>
+      <c r="M42" s="240"/>
+      <c r="N42" s="165" t="str">
+        <f>주간메뉴표!G39</f>
+        <v>유채된장국</v>
       </c>
       <c r="O42" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P42" s="236"/>
-      <c r="Q42" s="169" t="str">
-        <f>주간메뉴표!H38</f>
-        <v>돼지고기강정</v>
+      <c r="P42" s="248"/>
+      <c r="Q42" s="165" t="str">
+        <f>주간메뉴표!H39</f>
+        <v>꼬마돈가스강정</v>
       </c>
       <c r="R42" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="S42" s="246"/>
+      <c r="S42" s="258"/>
     </row>
     <row r="43" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B43" s="254"/>
-      <c r="C43" s="256"/>
-      <c r="D43" s="260"/>
+      <c r="B43" s="266"/>
+      <c r="C43" s="268"/>
+      <c r="D43" s="272"/>
       <c r="E43" s="90" t="str">
-        <f>주간메뉴표!D39</f>
-        <v>어묵국</v>
+        <f>주간메뉴표!D40</f>
+        <v>계란찜</v>
       </c>
       <c r="F43" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G43" s="228"/>
-      <c r="H43" s="169" t="str">
-        <f>주간메뉴표!E39</f>
-        <v>새우가스*타르타르s</v>
+      <c r="G43" s="240"/>
+      <c r="H43" s="165" t="str">
+        <f>주간메뉴표!E40</f>
+        <v>한입콤비네이션피자</v>
       </c>
       <c r="I43" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="J43" s="228"/>
-      <c r="K43" s="169" t="str">
-        <f>주간메뉴표!F39</f>
-        <v>부추장떡</v>
+      <c r="J43" s="240"/>
+      <c r="K43" s="165" t="str">
+        <f>주간메뉴표!F40</f>
+        <v>김치전</v>
       </c>
       <c r="L43" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M43" s="228"/>
-      <c r="N43" s="169" t="str">
-        <f>주간메뉴표!G39</f>
-        <v>알감자조림</v>
+      <c r="M43" s="240"/>
+      <c r="N43" s="165" t="str">
+        <f>주간메뉴표!G40</f>
+        <v>두부구이</v>
       </c>
       <c r="O43" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P43" s="236"/>
-      <c r="Q43" s="169" t="str">
-        <f>주간메뉴표!H39</f>
-        <v>단호박전</v>
+      <c r="P43" s="248"/>
+      <c r="Q43" s="165" t="str">
+        <f>주간메뉴표!H40</f>
+        <v>감자채햄볶음</v>
       </c>
       <c r="R43" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="S43" s="246"/>
+      <c r="S43" s="258"/>
     </row>
     <row r="44" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B44" s="254"/>
-      <c r="C44" s="256"/>
-      <c r="D44" s="260"/>
+      <c r="B44" s="266"/>
+      <c r="C44" s="268"/>
+      <c r="D44" s="272"/>
       <c r="E44" s="90" t="str">
-        <f>주간메뉴표!D40</f>
-        <v>고구마크로켓</v>
+        <f>주간메뉴표!D41</f>
+        <v>다시마숙회*초고추장</v>
       </c>
       <c r="F44" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G44" s="228"/>
-      <c r="H44" s="169" t="str">
-        <f>주간메뉴표!E40</f>
-        <v>단호박샐러드</v>
+      <c r="G44" s="240"/>
+      <c r="H44" s="165" t="str">
+        <f>주간메뉴표!E41</f>
+        <v>코올슬로</v>
       </c>
       <c r="I44" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="J44" s="228"/>
-      <c r="K44" s="169" t="str">
-        <f>주간메뉴표!F40</f>
-        <v>우엉조림</v>
+      <c r="J44" s="240"/>
+      <c r="K44" s="165" t="str">
+        <f>주간메뉴표!F41</f>
+        <v>도토리묵*양념장</v>
       </c>
       <c r="L44" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M44" s="228"/>
-      <c r="N44" s="169" t="str">
-        <f>주간메뉴표!G40</f>
-        <v>진미채고추장무침</v>
+      <c r="M44" s="240"/>
+      <c r="N44" s="165" t="str">
+        <f>주간메뉴표!G41</f>
+        <v>돌자반볶음</v>
       </c>
       <c r="O44" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P44" s="236"/>
-      <c r="Q44" s="169" t="str">
-        <f>주간메뉴표!H40</f>
-        <v>간장고추지</v>
+      <c r="P44" s="248"/>
+      <c r="Q44" s="165" t="str">
+        <f>주간메뉴표!H41</f>
+        <v>깻잎지무침</v>
       </c>
       <c r="R44" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="S44" s="246"/>
+      <c r="S44" s="258"/>
     </row>
     <row r="45" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B45" s="254"/>
-      <c r="C45" s="256"/>
-      <c r="D45" s="260"/>
+      <c r="B45" s="266"/>
+      <c r="C45" s="268"/>
+      <c r="D45" s="272"/>
       <c r="E45" s="90" t="str">
-        <f>주간메뉴표!D41</f>
-        <v>콘샐러드</v>
-      </c>
-      <c r="F45" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="G45" s="228"/>
-      <c r="H45" s="169" t="str">
-        <f>주간메뉴표!E41</f>
-        <v>포기김치</v>
-      </c>
-      <c r="I45" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="J45" s="228"/>
-      <c r="K45" s="169" t="str">
-        <f>주간메뉴표!F41</f>
-        <v>깍두기</v>
-      </c>
-      <c r="L45" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="M45" s="228"/>
-      <c r="N45" s="169" t="str">
-        <f>주간메뉴표!G41</f>
-        <v>석박지</v>
-      </c>
-      <c r="O45" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="P45" s="236"/>
-      <c r="Q45" s="169" t="str">
-        <f>주간메뉴표!H41</f>
-        <v>깍두기</v>
-      </c>
-      <c r="R45" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="S45" s="246"/>
-    </row>
-    <row r="46" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B46" s="254"/>
-      <c r="C46" s="256"/>
-      <c r="D46" s="261"/>
-      <c r="E46" s="90" t="str">
         <f>주간메뉴표!D42</f>
         <v>깍두기</v>
       </c>
-      <c r="F46" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="G46" s="229"/>
-      <c r="H46" s="169">
+      <c r="F45" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="G45" s="240"/>
+      <c r="H45" s="165" t="str">
         <f>주간메뉴표!E42</f>
+        <v>깍두기</v>
+      </c>
+      <c r="I45" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="J45" s="240"/>
+      <c r="K45" s="165" t="str">
+        <f>주간메뉴표!F42</f>
+        <v>깍두기</v>
+      </c>
+      <c r="L45" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="M45" s="240"/>
+      <c r="N45" s="165" t="str">
+        <f>주간메뉴표!G42</f>
+        <v>포기김치</v>
+      </c>
+      <c r="O45" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="P45" s="248"/>
+      <c r="Q45" s="165" t="str">
+        <f>주간메뉴표!H42</f>
+        <v>깍두기</v>
+      </c>
+      <c r="R45" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="S45" s="258"/>
+    </row>
+    <row r="46" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
+      <c r="B46" s="266"/>
+      <c r="C46" s="268"/>
+      <c r="D46" s="273"/>
+      <c r="E46" s="90" t="str">
+        <f>주간메뉴표!D43</f>
+        <v>잡곡밥</v>
+      </c>
+      <c r="F46" s="79"/>
+      <c r="G46" s="241"/>
+      <c r="H46" s="165">
+        <f>주간메뉴표!E43</f>
         <v>0</v>
       </c>
       <c r="I46" s="79"/>
-      <c r="J46" s="229"/>
-      <c r="K46" s="169" t="str">
-        <f>주간메뉴표!F42</f>
+      <c r="J46" s="241"/>
+      <c r="K46" s="165" t="str">
+        <f>주간메뉴표!F43</f>
         <v>잡곡밥</v>
       </c>
       <c r="L46" s="79"/>
-      <c r="M46" s="229"/>
-      <c r="N46" s="169" t="str">
-        <f>주간메뉴표!G42</f>
+      <c r="M46" s="241"/>
+      <c r="N46" s="165" t="str">
+        <f>주간메뉴표!G43</f>
         <v>잡곡밥</v>
       </c>
       <c r="O46" s="79"/>
-      <c r="P46" s="237"/>
-      <c r="Q46" s="169" t="str">
-        <f>주간메뉴표!H42</f>
+      <c r="P46" s="249"/>
+      <c r="Q46" s="165" t="str">
+        <f>주간메뉴표!H43</f>
         <v>잡곡밥</v>
       </c>
       <c r="R46" s="79"/>
-      <c r="S46" s="241"/>
+      <c r="S46" s="253"/>
     </row>
     <row r="47" spans="2:19" ht="20.25" customHeight="1">
-      <c r="B47" s="254"/>
-      <c r="C47" s="256"/>
-      <c r="D47" s="259" t="s">
+      <c r="B47" s="266"/>
+      <c r="C47" s="268"/>
+      <c r="D47" s="271" t="s">
         <v>31</v>
       </c>
       <c r="E47" s="97" t="str">
-        <f>주간메뉴표!D44</f>
-        <v>셀프추억의도시락</v>
+        <f>주간메뉴표!D45</f>
+        <v>셀프오쭈비빔밥</v>
       </c>
       <c r="F47" s="79"/>
-      <c r="G47" s="227">
-        <f>주간메뉴표!D52</f>
-        <v>1001</v>
-      </c>
-      <c r="H47" s="172" t="str">
-        <f>주간메뉴표!E44</f>
-        <v>셀프우삼겹숙주비빔밥</v>
+      <c r="G47" s="239">
+        <f>주간메뉴표!D53</f>
+        <v>778</v>
+      </c>
+      <c r="H47" s="168" t="str">
+        <f>주간메뉴표!E45</f>
+        <v>셀프우렁강된장비빔밥</v>
       </c>
       <c r="I47" s="79"/>
-      <c r="J47" s="227">
-        <f>주간메뉴표!E52</f>
-        <v>840</v>
-      </c>
-      <c r="K47" s="172" t="str">
-        <f>주간메뉴표!F44</f>
-        <v>N 셀프명란마요아보카도비빔밥</v>
+      <c r="J47" s="239">
+        <f>주간메뉴표!E53</f>
+        <v>702</v>
+      </c>
+      <c r="K47" s="168" t="str">
+        <f>주간메뉴표!F45</f>
+        <v>셀프노량진황제컵밥</v>
       </c>
       <c r="L47" s="79"/>
-      <c r="M47" s="230">
-        <f>주간메뉴표!F52</f>
-        <v>867</v>
-      </c>
-      <c r="N47" s="174" t="str">
-        <f>주간메뉴표!G44</f>
-        <v>셀프치킨데리야끼덮밥</v>
+      <c r="M47" s="242">
+        <f>주간메뉴표!F53</f>
+        <v>1177</v>
+      </c>
+      <c r="N47" s="170" t="str">
+        <f>주간메뉴표!G45</f>
+        <v>셀프에비동</v>
       </c>
       <c r="O47" s="79"/>
-      <c r="P47" s="235">
-        <f>주간메뉴표!G52</f>
-        <v>942</v>
-      </c>
-      <c r="Q47" s="184"/>
-      <c r="R47" s="179"/>
-      <c r="S47" s="185"/>
+      <c r="P47" s="247">
+        <f>주간메뉴표!G53</f>
+        <v>817</v>
+      </c>
+      <c r="Q47" s="180"/>
+      <c r="R47" s="175"/>
+      <c r="S47" s="181"/>
     </row>
     <row r="48" spans="2:19" ht="33" customHeight="1">
-      <c r="B48" s="254"/>
-      <c r="C48" s="256"/>
-      <c r="D48" s="260"/>
+      <c r="B48" s="266"/>
+      <c r="C48" s="268"/>
+      <c r="D48" s="272"/>
       <c r="E48" s="90" t="str">
-        <f>주간메뉴표!D45</f>
-        <v>┗쌀밥,계란후라이,멸치볶음</v>
+        <f>주간메뉴표!D46</f>
+        <v>┗쌀밥,오쭈떡볶음</v>
       </c>
       <c r="F48" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G48" s="228"/>
-      <c r="H48" s="169" t="str">
-        <f>주간메뉴표!E45</f>
-        <v>┗쌀밥,우삼겹볶음</v>
+      <c r="G48" s="240"/>
+      <c r="H48" s="165" t="str">
+        <f>주간메뉴표!E46</f>
+        <v>┗쌀밥,강된장,계란후라이</v>
       </c>
       <c r="I48" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="J48" s="228"/>
-      <c r="K48" s="169" t="str">
-        <f>주간메뉴표!F45</f>
-        <v>┗쌀밥,아보카도,계란후라이</v>
+      <c r="J48" s="240"/>
+      <c r="K48" s="165" t="str">
+        <f>주간메뉴표!F46</f>
+        <v>┗쌀밥,삼겹살,후라이,비엔나</v>
       </c>
       <c r="L48" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M48" s="231"/>
-      <c r="N48" s="167" t="str">
-        <f>주간메뉴표!G45</f>
-        <v>┗쌀밥,닭다리살볶음,스크램블에그</v>
+      <c r="M48" s="243"/>
+      <c r="N48" s="163" t="str">
+        <f>주간메뉴표!G46</f>
+        <v>┗쌀밥,새우튀김</v>
       </c>
       <c r="O48" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P48" s="236"/>
-      <c r="Q48" s="181"/>
-      <c r="R48" s="179"/>
-      <c r="S48" s="185"/>
+      <c r="P48" s="248"/>
+      <c r="Q48" s="177"/>
+      <c r="R48" s="175"/>
+      <c r="S48" s="181"/>
     </row>
     <row r="49" spans="2:19" ht="20.25" customHeight="1">
-      <c r="B49" s="254"/>
-      <c r="C49" s="256"/>
-      <c r="D49" s="260"/>
+      <c r="B49" s="266"/>
+      <c r="C49" s="268"/>
+      <c r="D49" s="272"/>
       <c r="E49" s="90" t="str">
-        <f>주간메뉴표!D46</f>
-        <v>┗비엔나소시지,볶음김치</v>
-      </c>
-      <c r="F49" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="G49" s="228"/>
-      <c r="H49" s="169" t="str">
-        <f>주간메뉴표!E46</f>
-        <v>셀프토핑</v>
-      </c>
-      <c r="I49" s="79"/>
-      <c r="J49" s="228"/>
-      <c r="K49" s="169" t="str">
-        <f>주간메뉴표!F46</f>
-        <v>셀프토핑</v>
-      </c>
-      <c r="L49" s="79"/>
-      <c r="M49" s="231"/>
-      <c r="N49" s="167" t="str">
-        <f>주간메뉴표!G46</f>
-        <v>셀프토핑</v>
-      </c>
-      <c r="O49" s="79"/>
-      <c r="P49" s="236"/>
-      <c r="Q49" s="181"/>
-      <c r="R49" s="179"/>
-      <c r="S49" s="185"/>
-    </row>
-    <row r="50" spans="2:19" ht="30.75" customHeight="1">
-      <c r="B50" s="254"/>
-      <c r="C50" s="256"/>
-      <c r="D50" s="260"/>
-      <c r="E50" s="90" t="str">
         <f>주간메뉴표!D47</f>
         <v>셀프토핑</v>
       </c>
+      <c r="F49" s="79"/>
+      <c r="G49" s="240"/>
+      <c r="H49" s="165" t="str">
+        <f>주간메뉴표!E47</f>
+        <v>셀프토핑</v>
+      </c>
+      <c r="I49" s="79"/>
+      <c r="J49" s="240"/>
+      <c r="K49" s="165" t="str">
+        <f>주간메뉴표!F47</f>
+        <v>셀프토핑</v>
+      </c>
+      <c r="L49" s="79"/>
+      <c r="M49" s="243"/>
+      <c r="N49" s="163" t="str">
+        <f>주간메뉴표!G47</f>
+        <v>셀프토핑</v>
+      </c>
+      <c r="O49" s="79"/>
+      <c r="P49" s="248"/>
+      <c r="Q49" s="177"/>
+      <c r="R49" s="175"/>
+      <c r="S49" s="181"/>
+    </row>
+    <row r="50" spans="2:19" ht="30.75" customHeight="1">
+      <c r="B50" s="266"/>
+      <c r="C50" s="268"/>
+      <c r="D50" s="272"/>
+      <c r="E50" s="90" t="str">
+        <f>주간메뉴표!D48</f>
+        <v>┗쫑상추,콩나물무침</v>
+      </c>
       <c r="F50" s="79"/>
-      <c r="G50" s="228"/>
-      <c r="H50" s="169" t="str">
-        <f>주간메뉴표!E47</f>
-        <v>┗부추생채,숙주양파볶음</v>
-      </c>
-      <c r="I50" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="J50" s="228"/>
-      <c r="K50" s="169" t="str">
-        <f>주간메뉴표!F47</f>
+      <c r="G50" s="240"/>
+      <c r="H50" s="165" t="str">
+        <f>주간메뉴표!E48</f>
+        <v>┗쫑상추,콩나물무침</v>
+      </c>
+      <c r="I50" s="79"/>
+      <c r="J50" s="240"/>
+      <c r="K50" s="165" t="str">
+        <f>주간메뉴표!F48</f>
         <v>┗쫑상추,맛김가루</v>
       </c>
       <c r="L50" s="79"/>
-      <c r="M50" s="231"/>
-      <c r="N50" s="167" t="str">
-        <f>주간메뉴표!G47</f>
+      <c r="M50" s="243"/>
+      <c r="N50" s="163" t="str">
+        <f>주간메뉴표!G48</f>
         <v>┗숙주양파볶음</v>
       </c>
       <c r="O50" s="79"/>
-      <c r="P50" s="236"/>
-      <c r="Q50" s="181"/>
-      <c r="R50" s="179"/>
-      <c r="S50" s="185"/>
+      <c r="P50" s="248"/>
+      <c r="Q50" s="177"/>
+      <c r="R50" s="175"/>
+      <c r="S50" s="181"/>
     </row>
     <row r="51" spans="2:19" ht="20.25" customHeight="1">
-      <c r="B51" s="254"/>
-      <c r="C51" s="256"/>
-      <c r="D51" s="260"/>
+      <c r="B51" s="266"/>
+      <c r="C51" s="268"/>
+      <c r="D51" s="272"/>
       <c r="E51" s="90" t="str">
-        <f>주간메뉴표!D48</f>
-        <v>┗맛김가루,콩자반</v>
+        <f>주간메뉴표!D49</f>
+        <v>┗맛김가루</v>
       </c>
       <c r="F51" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G51" s="228"/>
-      <c r="H51" s="169" t="str">
-        <f>주간메뉴표!E48</f>
-        <v>┗맛김가루</v>
-      </c>
-      <c r="I51" s="79"/>
-      <c r="J51" s="228"/>
-      <c r="K51" s="169" t="str">
-        <f>주간메뉴표!F48</f>
-        <v>*명란마요소스</v>
+      <c r="G51" s="240"/>
+      <c r="H51" s="165" t="str">
+        <f>주간메뉴표!E49</f>
+        <v>┗무생채,맛김가루</v>
+      </c>
+      <c r="I51" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="J51" s="240"/>
+      <c r="K51" s="165" t="str">
+        <f>주간메뉴표!F49</f>
+        <v>┗볶음김치,참치마요옥수수</v>
       </c>
       <c r="L51" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M51" s="231"/>
-      <c r="N51" s="167" t="str">
-        <f>주간메뉴표!G48</f>
-        <v>┗쫑상추,맛김가루</v>
-      </c>
-      <c r="O51" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="P51" s="236"/>
-      <c r="Q51" s="181"/>
-      <c r="R51" s="179"/>
-      <c r="S51" s="185"/>
+      <c r="M51" s="243"/>
+      <c r="N51" s="163" t="str">
+        <f>주간메뉴표!G49</f>
+        <v>┗초생강절임(채), 맛김가루</v>
+      </c>
+      <c r="O51" s="79"/>
+      <c r="P51" s="248"/>
+      <c r="Q51" s="177"/>
+      <c r="R51" s="175"/>
+      <c r="S51" s="181"/>
     </row>
     <row r="52" spans="2:19" ht="20.25" customHeight="1">
-      <c r="B52" s="254"/>
-      <c r="C52" s="256"/>
-      <c r="D52" s="260"/>
+      <c r="B52" s="266"/>
+      <c r="C52" s="268"/>
+      <c r="D52" s="272"/>
       <c r="E52" s="90" t="str">
-        <f>주간메뉴표!D49</f>
-        <v>오징어가스*스위트칠리S</v>
+        <f>주간메뉴표!D50</f>
+        <v>깻잎주먹완자전</v>
       </c>
       <c r="F52" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G52" s="228"/>
-      <c r="H52" s="169" t="str">
-        <f>주간메뉴표!E49</f>
-        <v>계란찜</v>
+      <c r="G52" s="240"/>
+      <c r="H52" s="165" t="str">
+        <f>주간메뉴표!E50</f>
+        <v>녹두전</v>
       </c>
       <c r="I52" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="J52" s="228"/>
-      <c r="K52" s="169" t="str">
-        <f>주간메뉴표!F49</f>
-        <v>돼지고기장조림</v>
+      <c r="J52" s="240"/>
+      <c r="K52" s="165" t="str">
+        <f>주간메뉴표!F50</f>
+        <v>사모사*칠리s</v>
       </c>
       <c r="L52" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M52" s="231"/>
-      <c r="N52" s="167" t="str">
-        <f>주간메뉴표!G49</f>
-        <v>양파링튀김</v>
+      <c r="M52" s="243"/>
+      <c r="N52" s="163" t="str">
+        <f>주간메뉴표!G50</f>
+        <v>미니애플파이</v>
       </c>
       <c r="O52" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P52" s="236"/>
-      <c r="Q52" s="181"/>
-      <c r="R52" s="179"/>
-      <c r="S52" s="185"/>
+      <c r="P52" s="248"/>
+      <c r="Q52" s="177"/>
+      <c r="R52" s="175"/>
+      <c r="S52" s="181"/>
     </row>
     <row r="53" spans="2:19" ht="20.25" customHeight="1">
-      <c r="B53" s="254"/>
-      <c r="C53" s="256"/>
-      <c r="D53" s="260"/>
+      <c r="B53" s="266"/>
+      <c r="C53" s="268"/>
+      <c r="D53" s="272"/>
       <c r="E53" s="90" t="str">
-        <f>주간메뉴표!D50</f>
-        <v>석박지</v>
+        <f>주간메뉴표!D51</f>
+        <v>깍두기</v>
       </c>
       <c r="F53" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G53" s="228"/>
-      <c r="H53" s="169" t="str">
-        <f>주간메뉴표!E50</f>
+      <c r="G53" s="240"/>
+      <c r="H53" s="165" t="str">
+        <f>주간메뉴표!E51</f>
         <v>포기김치</v>
       </c>
       <c r="I53" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="J53" s="228"/>
-      <c r="K53" s="169" t="str">
-        <f>주간메뉴표!F50</f>
-        <v>깍두기</v>
+      <c r="J53" s="240"/>
+      <c r="K53" s="165" t="str">
+        <f>주간메뉴표!F51</f>
+        <v>열무김치</v>
       </c>
       <c r="L53" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M53" s="231"/>
-      <c r="N53" s="167" t="str">
-        <f>주간메뉴표!G50</f>
-        <v>깍두기</v>
+      <c r="M53" s="243"/>
+      <c r="N53" s="163" t="str">
+        <f>주간메뉴표!G51</f>
+        <v>포기김치</v>
       </c>
       <c r="O53" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P53" s="236"/>
-      <c r="Q53" s="181"/>
-      <c r="R53" s="179"/>
-      <c r="S53" s="185"/>
+      <c r="P53" s="248"/>
+      <c r="Q53" s="177"/>
+      <c r="R53" s="175"/>
+      <c r="S53" s="181"/>
     </row>
     <row r="54" spans="2:19" ht="20.25" customHeight="1">
-      <c r="B54" s="254"/>
-      <c r="C54" s="256"/>
-      <c r="D54" s="261"/>
+      <c r="B54" s="266"/>
+      <c r="C54" s="268"/>
+      <c r="D54" s="273"/>
       <c r="E54" s="90" t="str">
-        <f>주간메뉴표!D51</f>
+        <f>주간메뉴표!D52</f>
+        <v>시금치된장국</v>
+      </c>
+      <c r="F54" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="G54" s="241"/>
+      <c r="H54" s="165" t="str">
+        <f>주간메뉴표!E52</f>
+        <v>감자수제비국</v>
+      </c>
+      <c r="I54" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="J54" s="241"/>
+      <c r="K54" s="165" t="str">
+        <f>주간메뉴표!F52</f>
         <v>어묵국</v>
       </c>
-      <c r="F54" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="G54" s="229"/>
-      <c r="H54" s="169" t="str">
-        <f>주간메뉴표!E51</f>
-        <v>유부장국</v>
-      </c>
-      <c r="I54" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="J54" s="229"/>
-      <c r="K54" s="169" t="str">
-        <f>주간메뉴표!F51</f>
-        <v>두부장국</v>
-      </c>
       <c r="L54" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M54" s="232"/>
-      <c r="N54" s="167" t="str">
-        <f>주간메뉴표!G51</f>
-        <v>우동국물</v>
+      <c r="M54" s="244"/>
+      <c r="N54" s="163" t="str">
+        <f>주간메뉴표!G52</f>
+        <v>우동국</v>
       </c>
       <c r="O54" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P54" s="237"/>
-      <c r="Q54" s="181"/>
-      <c r="R54" s="179"/>
-      <c r="S54" s="186"/>
+      <c r="P54" s="249"/>
+      <c r="Q54" s="177"/>
+      <c r="R54" s="175"/>
+      <c r="S54" s="182"/>
     </row>
     <row r="55" spans="2:19" ht="20.25" customHeight="1">
-      <c r="B55" s="254"/>
-      <c r="C55" s="256"/>
-      <c r="D55" s="262" t="s">
+      <c r="B55" s="266"/>
+      <c r="C55" s="268"/>
+      <c r="D55" s="274" t="s">
         <v>36</v>
       </c>
       <c r="E55" s="80" t="str">
-        <f>주간메뉴표!D53</f>
+        <f>주간메뉴표!D54</f>
         <v>그린샐러드</v>
       </c>
       <c r="F55" s="79"/>
-      <c r="G55" s="238"/>
-      <c r="H55" s="169" t="str">
-        <f>주간메뉴표!E53</f>
+      <c r="G55" s="250"/>
+      <c r="H55" s="165" t="str">
+        <f>주간메뉴표!E54</f>
         <v>그린샐러드</v>
       </c>
       <c r="I55" s="79"/>
-      <c r="J55" s="238"/>
-      <c r="K55" s="171" t="str">
-        <f>주간메뉴표!F53</f>
+      <c r="J55" s="250"/>
+      <c r="K55" s="167" t="str">
+        <f>주간메뉴표!F54</f>
         <v>그린샐러드</v>
       </c>
       <c r="L55" s="79"/>
-      <c r="M55" s="238"/>
-      <c r="N55" s="171" t="str">
-        <f>주간메뉴표!G53</f>
+      <c r="M55" s="250"/>
+      <c r="N55" s="167" t="str">
+        <f>주간메뉴표!G54</f>
         <v>그린샐러드</v>
       </c>
       <c r="O55" s="79"/>
-      <c r="P55" s="238"/>
-      <c r="Q55" s="171" t="str">
-        <f>주간메뉴표!H53</f>
+      <c r="P55" s="250"/>
+      <c r="Q55" s="167" t="str">
+        <f>주간메뉴표!H54</f>
         <v>그린샐러드</v>
       </c>
       <c r="R55" s="79"/>
-      <c r="S55" s="233"/>
+      <c r="S55" s="245"/>
     </row>
     <row r="56" spans="2:19" s="51" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B56" s="257"/>
-      <c r="C56" s="258"/>
-      <c r="D56" s="264"/>
+      <c r="B56" s="269"/>
+      <c r="C56" s="270"/>
+      <c r="D56" s="276"/>
       <c r="E56" s="80" t="str">
-        <f>주간메뉴표!D54</f>
-        <v>오리엔탈D&amp;요거트D</v>
+        <f>주간메뉴표!D55</f>
+        <v>오리엔탈D&amp;망고D</v>
       </c>
       <c r="F56" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G56" s="239"/>
-      <c r="H56" s="169" t="str">
-        <f>주간메뉴표!E54</f>
-        <v>발사믹D&amp;자몽D</v>
+      <c r="G56" s="251"/>
+      <c r="H56" s="165" t="str">
+        <f>주간메뉴표!E55</f>
+        <v>발사믹D&amp;참깨D</v>
       </c>
       <c r="I56" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="J56" s="239"/>
-      <c r="K56" s="171" t="str">
-        <f>주간메뉴표!F54</f>
-        <v>오리엔탈D&amp;크리미양파D</v>
+      <c r="J56" s="251"/>
+      <c r="K56" s="167" t="str">
+        <f>주간메뉴표!F55</f>
+        <v>오리엔탈D&amp;블루베리D</v>
       </c>
       <c r="L56" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M56" s="239"/>
-      <c r="N56" s="171" t="str">
-        <f>주간메뉴표!G54</f>
-        <v>발사믹D&amp;딸기요거트D</v>
+      <c r="M56" s="251"/>
+      <c r="N56" s="167" t="str">
+        <f>주간메뉴표!G55</f>
+        <v>발사믹D&amp;파인애플D</v>
       </c>
       <c r="O56" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P56" s="239"/>
-      <c r="Q56" s="171" t="str">
-        <f>주간메뉴표!H54</f>
-        <v>오리엔탈D&amp;한라봉D</v>
+      <c r="P56" s="251"/>
+      <c r="Q56" s="167" t="str">
+        <f>주간메뉴표!H55</f>
+        <v>오리엔탈D&amp;딸기D</v>
       </c>
       <c r="R56" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="S56" s="234"/>
+      <c r="S56" s="246"/>
     </row>
     <row r="57" spans="2:19" ht="20.25" customHeight="1">
       <c r="E57" s="70"/>

--- a/lunch.xlsx
+++ b/lunch.xlsx
@@ -13,17 +13,17 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'월,목ver1_주간메뉴표'!$K$49:$K$50</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">주간메뉴표!$K$44:$K$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">주간메뉴표!$K$42:$K$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'월,목ver1_주간메뉴표'!$B$2:$H$64</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">주간메뉴표!$B$2:$H$59</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">주간메뉴표!$B$2:$H$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">칼로리및알레르기공시!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="361">
   <si>
     <t>작성 가이드</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -1044,87 +1044,103 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>그린샐러드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗맛김가루</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>깍두기</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>배추겉절이</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡곡밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>배추김치</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>계란찜</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>열무김치</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>미역장국</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>배추겉절이</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>우동국</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>계란찜</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>감자채햄볶음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>배추김치</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>[시즌프로모션_겨울]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>김치전</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>돌자반볶음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>열무김치</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>잡곡밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>사골떡만둣국</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>두부마늘보쌈</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>쇠고기콩나물밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>영양밥*양념장</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>(뚝)참치김치찌개</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>양파고추간장절임</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>치킨너겟/어묵볶음</t>
+    <t>콩나물무침</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀프토핑</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>콘샐러드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>콩자반</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗숙주양파볶음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>팽이버섯장국</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.1.22~2024.1.26</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>월 1/22</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>화 1/23</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>수 1/24</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>목 1/25</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>금 1/26</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>나주곰탕*당면사리</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>철판석갈비</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>돼지고기김치찌개</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>시래기매운돼지찜</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>해물파전</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗돈LA갈비*목살양념구이</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1132,158 +1148,55 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>비엔나소시지볶음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>오징어젓무침</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>냉이된장국</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>알감자조림</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>마카로니샐러드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>마늘쫑지/포기김치</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spicy 토리동_일본가정식st</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>간자장*후라이</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>물쫄면(온면)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>유부장국</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>닭봉구이&amp;해물짜조</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>짬뽕국물</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>김구이</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>깐풍기</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>[웰그린데이]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>일식스프카레&amp;장각구이</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>고사리들기름파스타</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>치즈밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>베지치킨&amp;베지오징어링튀김</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>에그타르트</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>빠에야</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="나눔고딕 ExtraBold"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(피홍합,피새우,오징어)</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>무비트피클</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>락교&amp;초생강&amp;산고추절임</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>채소크로켓</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>훈제연어스테이크샐러드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>바질파스타샐러드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>코코넛쉬림프샐러드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>케이준치킨&amp;크랩타블렉샐러드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>포크커틀렛샐러드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>하프오리엔탈치킨샌드위치
-&amp;과일2종</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>간장불고기샐러드랩
-&amp;과일2종</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>케이준치킨샐러드랩
-&amp;과일2종</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>쉬림프치즈랩샌드위치
-&amp;과일2종</t>
+    <t>옥수수전</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>호박버섯볶음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>취나물밥*양념장</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>시래기된장조림</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>햄맛살마요샐러드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>쌈무/명이나물</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>파래자반볶음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>포기김치/시금치된장국</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼큰김치우동</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>카가와카레라이스</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>들기름메밀막국수</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="나눔고딕"/>
+        <color rgb="FF009644"/>
+        <rFont val="나눔고딕 ExtraBold"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
@@ -1292,288 +1205,435 @@
     <r>
       <rPr>
         <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="나눔고딕"/>
+        <rFont val="나눔고딕 ExtraBold"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>라구두부면파스타</t>
+      <t>우삼겹비빔국수</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>풀드포크누들샐러드</t>
+    <t>나가사끼라멘</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>마늘닭강정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>매운족발</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>치킨커틀렛*소스</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>깐풍기</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>일식장국</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>멸치육수</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>일본가정식_Spicy토리동</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>즉석파송송계란탁라면</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>통인시장_엽전도시락ST</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>중화잡채덮밥*계란후라이</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>한그릇불낙철판볶음밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>고구마고로케*케찹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>기름떡볶이/마약김밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>물만두찜</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>수제계란말이</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>산고추&amp;락교</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>양배추샐러드*케요S</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭강정/곰돌이가츠</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>치킨무</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>채소잡채/어묵국</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>감잣국</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>짬뽕국</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>그린샐러드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>석박지</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>우유미숫가루</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>발사믹&amp;자몽D</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿀레몬차</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>녹차라떼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>복숭아아이스티</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>오리엔탈&amp;요거트D</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>오리엔탈&amp;딸기요거트D</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>발사믹&amp;한라봉D</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>오리엔탈&amp;사우전아일랜드D</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>불고기포케샐러드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>렌틸콩닭가슴살샐러드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>목살스테이크샐러드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>유자치킨텐더샐러드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>구운버섯두부샐러드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>케이준치킨샐러드랩
+&amp;과일2종</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>햄치즈크라상샌드위치
+&amp;과일2종</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>불고기랩샌드위치
+&amp;과일2종</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>어니언치킨샐러드랩
+&amp;과일2종</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>아보카도귀리라이스</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>연어구이보리라이스</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>라구두부면파스타</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>라후테덮밥(차슈ST)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>아보카도베지키마카레</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>우삼겹고추장찌개</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>고깃집볶음밥*계란후라이</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>뚝배기황태해장국</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>뚝배기돼지불백정식</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>명란알탕</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>두부구이*양념장</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>생선가스*타르타르s</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>너비아니*부추생채</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>햄계란전*케찹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>체리요거트</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>버섯잡채</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>들깨미역국</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄지새송이버섯볶음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>명엽채볶음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>매콤두부조림</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>양념깻잎지</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>건새우배추된장국</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀프스팸마요덮밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀프닭갈비비빔밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀프맥적열무보리비빔밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀프명란아보카도비빔밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀프규동</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗쌀밥,스팸구이,스크램블에그</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗쌀밥,닭갈비,계란후라이</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗보리밥,맥적구이,열무김치</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗쌀밥,아보카도</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗쌀밥,소불고기볶음,참나물</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗계란후라이,명란마요소스</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗상추,숙주양파볶음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗상추,부추</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗부추생채,무생채</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗맛김가루,데리야끼양파소스</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗콩나물무침,맛김가루</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗맛김가루,고추장소스</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗쫑상추,맛김가루,양파볶음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗적색강초절임,맛김가루</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕교자만두찜*간장</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼬마돈가스*케찹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>새우가스*스위트칠리s</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>양파링튀김</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>유부장국</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>다시마뭇국</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼갈이된장국</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>우동국</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="나눔고딕"/>
+        <sz val="11"/>
+        <rFont val="나눔고딕 ExtraBold"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>N</t>
+      <t>&amp;</t>
     </r>
     <r>
       <rPr>
         <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="나눔고딕"/>
+        <rFont val="나눔고딕 ExtraBold"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>아보카도베지키마카레</t>
+      <t>반마리통닭오븐구이</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>얼큰장터국밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>소시지커리필라프</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>(뚝)닭곰탕</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>짜글이고추장돼지불고기</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>백순대볶음*양념장</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>한입콤비네이션피자</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>두부구이</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>다시마숙회*초고추장</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>코올슬로</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>셀프오쭈비빔밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>셀프우렁강된장비빔밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>셀프노량진황제컵밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>셀프에비동</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗쌀밥,오쭈떡볶음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗쌀밥,강된장,계란후라이</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗쌀밥,삼겹살,후라이,비엔나</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗쌀밥,새우튀김</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>셀프토핑</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗쫑상추,콩나물무침</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗쫑상추,맛김가루</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗숙주양파볶음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗무생채,맛김가루</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗볶음김치,참치마요옥수수</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗초생강절임(채), 맛김가루</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>시금치된장국</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>감자수제비국</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>어묵국</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>매실차(Hot)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>발사믹D&amp;참깨D</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>유자차(hot)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>나쵸칩*살사소스</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>오리엔탈D&amp;망고D</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>오리엔탈D&amp;블루베리D</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>발사믹D&amp;파인애플D</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>오리엔탈D&amp;딸기D</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>사과</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Fun!629]_1&amp;2코너</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>무비트피클/탄산음료</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>전주식비빔밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>모듬전</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>모듬채소전</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍왕갈비쌀국수</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>충무김밥&amp;오징어숙회무침</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>쇠고기버섯잡채</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>탄산음료</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>해물된장찌개</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>비빔채소만두</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>유채된장국</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>꼬마돈가스강정</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>깻잎주먹완자전</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>사모사*칠리s</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>미니애플파이</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.12.11~2023.12.15</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>월 12/11</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>화 12/12</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>수 12/13</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>목 12/14</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>금 12/15</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>일식철판돈가스</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>(뚝)대구매운탕</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>라후테덮밥(차슈ST)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>일자: 23.12.11~12.15</t>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="나눔고딕 ExtraBold"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>*파무침</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>상추&amp;깻잎쌈</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>감자전</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>쉬림프치즈랩샌드위치
+&amp;과일2종</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>일자: 24.01.22~01.26</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔멸치견과류조림</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1585,7 +1645,7 @@
     <numFmt numFmtId="176" formatCode="mm&quot;/&quot;dd\ ddd"/>
     <numFmt numFmtId="177" formatCode="##\ &quot;Kcal&quot;"/>
   </numFmts>
-  <fonts count="61">
+  <fonts count="57">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
@@ -1894,13 +1954,6 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="12.5"/>
-      <color theme="0"/>
-      <name val="나눔고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <sz val="13"/>
       <name val="나눔고딕"/>
       <family val="3"/>
@@ -1974,43 +2027,8 @@
     </font>
     <font>
       <b/>
-      <sz val="26"/>
-      <color rgb="FF00B0F0"/>
-      <name val="DX상장체B"/>
-      <family val="1"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <name val="나눔고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="나눔스퀘어 ExtraBold"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color rgb="FFFFFF00"/>
-      <name val="나눔고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="나눔고딕 ExtraBold"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="나눔고딕 ExtraBold"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -2023,8 +2041,20 @@
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FF00B050"/>
-      <name val="나눔고딕"/>
+      <color rgb="FF009644"/>
+      <name val="나눔고딕 ExtraBold"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="나눔고딕 ExtraBold"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="나눔고딕 ExtraBold"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -2402,7 +2432,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="271">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2664,7 +2694,7 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2694,10 +2724,10 @@
     <xf numFmtId="0" fontId="24" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2706,7 +2736,7 @@
     <xf numFmtId="0" fontId="24" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2721,13 +2751,13 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2748,10 +2778,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2760,7 +2790,7 @@
     <xf numFmtId="0" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2772,10 +2802,10 @@
     <xf numFmtId="177" fontId="24" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2814,16 +2844,13 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2862,59 +2889,152 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="23" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="11" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="40" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="40" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2922,189 +3042,33 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="40" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="40" fillId="4" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="23" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="43" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="57" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3114,12 +3078,6 @@
     <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="40" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3138,9 +3096,6 @@
     <xf numFmtId="177" fontId="41" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3180,15 +3135,6 @@
     <xf numFmtId="177" fontId="40" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="40" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="40" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="40" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3260,6 +3206,45 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="41" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="41" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="41" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -4170,7 +4155,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1953863</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>37024</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1054552" cy="247269"/>
@@ -4214,7 +4199,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1953863</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>37024</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1054552" cy="247269"/>
@@ -4246,248 +4231,6 @@
         <a:xfrm>
           <a:off x="5630513" y="16124749"/>
           <a:ext cx="1054552" cy="247269"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>966107</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1786824</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="그림 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2639786" y="7320643"/>
-          <a:ext cx="820717" cy="884464"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>693964</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>3646</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="966107" cy="939760"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="그림 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8409214" y="2371289"/>
-          <a:ext cx="966107" cy="939760"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1660071</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>258535</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2435680" cy="2286001"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="그림 41"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId5">
-                  <a14:imgEffect>
-                    <a14:backgroundRemoval t="0" b="96946" l="0" r="97578">
-                      <a14:foregroundMark x1="14187" y1="9562" x2="84429" y2="9031"/>
-                      <a14:foregroundMark x1="12976" y1="13015" x2="81488" y2="12882"/>
-                      <a14:foregroundMark x1="9170" y1="13679" x2="13841" y2="13413"/>
-                      <a14:foregroundMark x1="85294" y1="13280" x2="91522" y2="13147"/>
-                      <a14:foregroundMark x1="8131" y1="13015" x2="11073" y2="12882"/>
-                      <a14:foregroundMark x1="10900" y1="35591" x2="11246" y2="90837"/>
-                      <a14:foregroundMark x1="80450" y1="89641" x2="89446" y2="62683"/>
-                      <a14:foregroundMark x1="77336" y1="74104" x2="77509" y2="74369"/>
-                      <a14:foregroundMark x1="76644" y1="75299" x2="86159" y2="77424"/>
-                      <a14:foregroundMark x1="76990" y1="75299" x2="85467" y2="72908"/>
-                      <a14:foregroundMark x1="75260" y1="81673" x2="73875" y2="90571"/>
-                      <a14:foregroundMark x1="88062" y1="80345" x2="86159" y2="90704"/>
-                      <a14:foregroundMark x1="89792" y1="85126" x2="92215" y2="92165"/>
-                      <a14:foregroundMark x1="91003" y1="81142" x2="91522" y2="89907"/>
-                      <a14:foregroundMark x1="89619" y1="82205" x2="94118" y2="86587"/>
-                      <a14:foregroundMark x1="2422" y1="46746" x2="16955" y2="46879"/>
-                      <a14:foregroundMark x1="4325" y1="50996" x2="13322" y2="50996"/>
-                      <a14:foregroundMark x1="5017" y1="59230" x2="16609" y2="65339"/>
-                      <a14:foregroundMark x1="4671" y1="64807" x2="12111" y2="64807"/>
-                      <a14:foregroundMark x1="4671" y1="66268" x2="13149" y2="66135"/>
-                      <a14:foregroundMark x1="3633" y1="69190" x2="7612" y2="69721"/>
-                      <a14:foregroundMark x1="9343" y1="74104" x2="9689" y2="76096"/>
-                      <a14:foregroundMark x1="78720" y1="71580" x2="77336" y2="82603"/>
-                      <a14:foregroundMark x1="76471" y1="72908" x2="77509" y2="84197"/>
-                      <a14:foregroundMark x1="74394" y1="73705" x2="77855" y2="90571"/>
-                      <a14:foregroundMark x1="72664" y1="79416" x2="71626" y2="90837"/>
-                      <a14:foregroundMark x1="74221" y1="77291" x2="73875" y2="81673"/>
-                      <a14:foregroundMark x1="38581" y1="7039" x2="54498" y2="5578"/>
-                      <a14:foregroundMark x1="6228" y1="35989" x2="11419" y2="34927"/>
-                      <a14:foregroundMark x1="5363" y1="36653" x2="8651" y2="35724"/>
-                      <a14:foregroundMark x1="7093" y1="35458" x2="9170" y2="34396"/>
-                      <a14:foregroundMark x1="15917" y1="44754" x2="15744" y2="46348"/>
-                      <a14:foregroundMark x1="8651" y1="44356" x2="8651" y2="47809"/>
-                      <a14:foregroundMark x1="7785" y1="45551" x2="9689" y2="45020"/>
-                      <a14:foregroundMark x1="8478" y1="75166" x2="8478" y2="77424"/>
-                      <a14:foregroundMark x1="73356" y1="73971" x2="87716" y2="69987"/>
-                      <a14:foregroundMark x1="6228" y1="37716" x2="6228" y2="40637"/>
-                    </a14:backgroundRemoval>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect t="1133" r="2170" b="6415"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5347607" y="6218464"/>
-          <a:ext cx="2435680" cy="2286001"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1088571</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>27215</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1364786</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>2571</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="그림 43"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6789964" y="7293429"/>
-          <a:ext cx="276215" cy="301928"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>693964</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>3646</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="966107" cy="939760"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="그림 38"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8390164" y="2356321"/>
-          <a:ext cx="966107" cy="939760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4934,7 +4677,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="105"/>
       <c r="H2" s="2"/>
-      <c r="J2" s="219" t="s">
+      <c r="J2" s="197" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="32"/>
@@ -4952,7 +4695,7 @@
       <c r="E3" s="12"/>
       <c r="F3" s="106"/>
       <c r="G3" s="11"/>
-      <c r="J3" s="219"/>
+      <c r="J3" s="197"/>
       <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:18" ht="24" customHeight="1">
@@ -4989,7 +4732,7 @@
       <c r="H5" s="84" t="s">
         <v>182</v>
       </c>
-      <c r="J5" s="220" t="s">
+      <c r="J5" s="198" t="s">
         <v>40</v>
       </c>
       <c r="K5" s="48"/>
@@ -5002,7 +4745,7 @@
       <c r="R5" s="2"/>
     </row>
     <row r="6" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B6" s="222" t="s">
+      <c r="B6" s="200" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="20" t="s">
@@ -5023,7 +4766,7 @@
       <c r="H6" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="J6" s="221"/>
+      <c r="J6" s="199"/>
       <c r="K6" s="21"/>
       <c r="L6" s="52"/>
       <c r="M6" s="52"/>
@@ -5034,7 +4777,7 @@
       <c r="R6" s="22"/>
     </row>
     <row r="7" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B7" s="222"/>
+      <c r="B7" s="200"/>
       <c r="C7" s="23" t="s">
         <v>7</v>
       </c>
@@ -5053,7 +4796,7 @@
       <c r="H7" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="221"/>
+      <c r="J7" s="199"/>
       <c r="K7" s="24"/>
       <c r="L7" s="52"/>
       <c r="M7" s="52"/>
@@ -5064,7 +4807,7 @@
       <c r="R7" s="22"/>
     </row>
     <row r="8" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B8" s="222"/>
+      <c r="B8" s="200"/>
       <c r="C8" s="104"/>
       <c r="D8" s="24" t="s">
         <v>185</v>
@@ -5081,7 +4824,7 @@
       <c r="H8" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="J8" s="221"/>
+      <c r="J8" s="199"/>
       <c r="K8" s="24"/>
       <c r="L8" s="16"/>
       <c r="M8" s="52"/>
@@ -5092,7 +4835,7 @@
       <c r="R8" s="22"/>
     </row>
     <row r="9" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B9" s="222"/>
+      <c r="B9" s="200"/>
       <c r="C9" s="104"/>
       <c r="D9" s="24" t="s">
         <v>70</v>
@@ -5109,7 +4852,7 @@
       <c r="H9" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="J9" s="221"/>
+      <c r="J9" s="199"/>
       <c r="K9" s="24"/>
       <c r="L9" s="8"/>
       <c r="M9" s="52"/>
@@ -5120,7 +4863,7 @@
       <c r="R9" s="22"/>
     </row>
     <row r="10" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B10" s="222"/>
+      <c r="B10" s="200"/>
       <c r="C10" s="104"/>
       <c r="D10" s="24" t="s">
         <v>74</v>
@@ -5137,7 +4880,7 @@
       <c r="H10" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="221"/>
+      <c r="J10" s="199"/>
       <c r="K10" s="24"/>
       <c r="L10" s="16"/>
       <c r="M10" s="52"/>
@@ -5148,7 +4891,7 @@
       <c r="R10" s="22"/>
     </row>
     <row r="11" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B11" s="222"/>
+      <c r="B11" s="200"/>
       <c r="C11" s="104"/>
       <c r="D11" s="24" t="s">
         <v>56</v>
@@ -5165,7 +4908,7 @@
       <c r="H11" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="J11" s="221"/>
+      <c r="J11" s="199"/>
       <c r="K11" s="24"/>
       <c r="L11" s="16"/>
       <c r="M11" s="52"/>
@@ -5176,7 +4919,7 @@
       <c r="R11" s="26"/>
     </row>
     <row r="12" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B12" s="222"/>
+      <c r="B12" s="200"/>
       <c r="C12" s="28"/>
       <c r="D12" s="24" t="s">
         <v>53</v>
@@ -5193,7 +4936,7 @@
       <c r="H12" s="34">
         <v>725</v>
       </c>
-      <c r="J12" s="221"/>
+      <c r="J12" s="199"/>
       <c r="K12" s="24"/>
       <c r="L12" s="16"/>
       <c r="M12" s="52"/>
@@ -5204,7 +4947,7 @@
       <c r="R12" s="22"/>
     </row>
     <row r="13" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B13" s="222"/>
+      <c r="B13" s="200"/>
       <c r="C13" s="20" t="s">
         <v>8</v>
       </c>
@@ -5215,7 +4958,7 @@
       <c r="H13" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="J13" s="221"/>
+      <c r="J13" s="199"/>
       <c r="K13" s="21"/>
       <c r="L13" s="16"/>
       <c r="M13" s="52"/>
@@ -5226,7 +4969,7 @@
       <c r="R13" s="22"/>
     </row>
     <row r="14" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B14" s="222"/>
+      <c r="B14" s="200"/>
       <c r="C14" s="23" t="s">
         <v>43</v>
       </c>
@@ -5237,7 +4980,7 @@
       <c r="H14" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="J14" s="221"/>
+      <c r="J14" s="199"/>
       <c r="K14" s="24"/>
       <c r="L14" s="21"/>
       <c r="M14" s="40"/>
@@ -5248,7 +4991,7 @@
       <c r="R14" s="29"/>
     </row>
     <row r="15" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B15" s="222"/>
+      <c r="B15" s="200"/>
       <c r="C15" s="104"/>
       <c r="D15" s="24"/>
       <c r="E15" s="127"/>
@@ -5257,7 +5000,7 @@
       <c r="H15" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="J15" s="221"/>
+      <c r="J15" s="199"/>
       <c r="K15" s="24"/>
       <c r="L15" s="24"/>
       <c r="M15" s="52"/>
@@ -5268,7 +5011,7 @@
       <c r="R15" s="22"/>
     </row>
     <row r="16" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B16" s="222"/>
+      <c r="B16" s="200"/>
       <c r="C16" s="104"/>
       <c r="D16" s="24"/>
       <c r="E16" s="129"/>
@@ -5277,7 +5020,7 @@
       <c r="H16" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="J16" s="221"/>
+      <c r="J16" s="199"/>
       <c r="K16" s="24"/>
       <c r="L16" s="24"/>
       <c r="M16" s="52"/>
@@ -5288,7 +5031,7 @@
       <c r="R16" s="22"/>
     </row>
     <row r="17" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B17" s="222"/>
+      <c r="B17" s="200"/>
       <c r="C17" s="104"/>
       <c r="D17" s="24"/>
       <c r="E17" s="129"/>
@@ -5297,7 +5040,7 @@
       <c r="H17" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="J17" s="221"/>
+      <c r="J17" s="199"/>
       <c r="K17" s="24"/>
       <c r="L17" s="24"/>
       <c r="M17" s="52"/>
@@ -5311,7 +5054,7 @@
       <c r="A18" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="222"/>
+      <c r="B18" s="200"/>
       <c r="C18" s="31"/>
       <c r="D18" s="24"/>
       <c r="E18" s="129"/>
@@ -5320,7 +5063,7 @@
       <c r="H18" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="J18" s="221"/>
+      <c r="J18" s="199"/>
       <c r="K18" s="24"/>
       <c r="L18" s="24"/>
       <c r="M18" s="52"/>
@@ -5331,7 +5074,7 @@
       <c r="R18" s="22"/>
     </row>
     <row r="19" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B19" s="222"/>
+      <c r="B19" s="200"/>
       <c r="C19" s="28"/>
       <c r="D19" s="34">
         <v>1014</v>
@@ -5344,7 +5087,7 @@
       <c r="H19" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="J19" s="221"/>
+      <c r="J19" s="199"/>
       <c r="K19" s="34"/>
       <c r="L19" s="24"/>
       <c r="M19" s="52"/>
@@ -5355,7 +5098,7 @@
       <c r="R19" s="32"/>
     </row>
     <row r="20" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B20" s="222"/>
+      <c r="B20" s="200"/>
       <c r="C20" s="20" t="s">
         <v>44</v>
       </c>
@@ -5370,7 +5113,7 @@
         <v>82</v>
       </c>
       <c r="H20" s="24"/>
-      <c r="J20" s="221"/>
+      <c r="J20" s="199"/>
       <c r="K20" s="24"/>
       <c r="L20" s="32"/>
       <c r="M20" s="52"/>
@@ -5381,7 +5124,7 @@
       <c r="R20" s="22"/>
     </row>
     <row r="21" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B21" s="222"/>
+      <c r="B21" s="200"/>
       <c r="C21" s="23" t="s">
         <v>45</v>
       </c>
@@ -5396,7 +5139,7 @@
         <v>84</v>
       </c>
       <c r="H21" s="24"/>
-      <c r="J21" s="221"/>
+      <c r="J21" s="199"/>
       <c r="K21" s="24"/>
       <c r="L21" s="16"/>
       <c r="M21" s="52"/>
@@ -5407,7 +5150,7 @@
       <c r="R21" s="22"/>
     </row>
     <row r="22" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B22" s="222"/>
+      <c r="B22" s="200"/>
       <c r="C22" s="23"/>
       <c r="D22" s="121" t="s">
         <v>85</v>
@@ -5420,7 +5163,7 @@
         <v>86</v>
       </c>
       <c r="H22" s="24"/>
-      <c r="J22" s="221"/>
+      <c r="J22" s="199"/>
       <c r="K22" s="24"/>
       <c r="L22" s="16"/>
       <c r="M22" s="52"/>
@@ -5431,7 +5174,7 @@
       <c r="R22" s="22"/>
     </row>
     <row r="23" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B23" s="222"/>
+      <c r="B23" s="200"/>
       <c r="C23" s="104"/>
       <c r="D23" s="121" t="s">
         <v>87</v>
@@ -5444,7 +5187,7 @@
         <v>89</v>
       </c>
       <c r="H23" s="24"/>
-      <c r="J23" s="221"/>
+      <c r="J23" s="199"/>
       <c r="K23" s="24"/>
       <c r="L23" s="16"/>
       <c r="M23" s="40"/>
@@ -5455,7 +5198,7 @@
       <c r="R23" s="29"/>
     </row>
     <row r="24" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B24" s="222"/>
+      <c r="B24" s="200"/>
       <c r="C24" s="104"/>
       <c r="D24" s="121" t="s">
         <v>90</v>
@@ -5468,7 +5211,7 @@
         <v>91</v>
       </c>
       <c r="H24" s="24"/>
-      <c r="J24" s="221"/>
+      <c r="J24" s="199"/>
       <c r="K24" s="24"/>
       <c r="L24" s="16"/>
       <c r="M24" s="52"/>
@@ -5479,7 +5222,7 @@
       <c r="R24" s="22"/>
     </row>
     <row r="25" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B25" s="222"/>
+      <c r="B25" s="200"/>
       <c r="C25" s="104"/>
       <c r="D25" s="121" t="s">
         <v>53</v>
@@ -5490,7 +5233,7 @@
         <v>79</v>
       </c>
       <c r="H25" s="24"/>
-      <c r="J25" s="221"/>
+      <c r="J25" s="199"/>
       <c r="K25" s="24"/>
       <c r="L25" s="16"/>
       <c r="M25" s="52"/>
@@ -5501,7 +5244,7 @@
       <c r="R25" s="22"/>
     </row>
     <row r="26" spans="1:18" s="33" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B26" s="222"/>
+      <c r="B26" s="200"/>
       <c r="C26" s="28"/>
       <c r="D26" s="122"/>
       <c r="E26" s="130"/>
@@ -5510,7 +5253,7 @@
       <c r="H26" s="34">
         <v>725</v>
       </c>
-      <c r="J26" s="221"/>
+      <c r="J26" s="199"/>
       <c r="K26" s="85"/>
       <c r="L26" s="66"/>
       <c r="M26" s="35"/>
@@ -5521,8 +5264,8 @@
       <c r="R26" s="30"/>
     </row>
     <row r="27" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B27" s="222"/>
-      <c r="C27" s="230" t="s">
+      <c r="B27" s="200"/>
+      <c r="C27" s="208" t="s">
         <v>46</v>
       </c>
       <c r="D27" s="24" t="s">
@@ -5540,7 +5283,7 @@
       <c r="H27" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="J27" s="221"/>
+      <c r="J27" s="199"/>
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
       <c r="M27" s="66"/>
@@ -5551,8 +5294,8 @@
       <c r="R27" s="26"/>
     </row>
     <row r="28" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B28" s="222"/>
-      <c r="C28" s="233"/>
+      <c r="B28" s="200"/>
+      <c r="C28" s="211"/>
       <c r="D28" s="24" t="s">
         <v>54</v>
       </c>
@@ -5568,7 +5311,7 @@
       <c r="H28" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="J28" s="221"/>
+      <c r="J28" s="199"/>
       <c r="K28" s="16"/>
       <c r="L28" s="16"/>
       <c r="M28" s="66"/>
@@ -5579,8 +5322,8 @@
       <c r="R28" s="26"/>
     </row>
     <row r="29" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B29" s="222"/>
-      <c r="C29" s="234"/>
+      <c r="B29" s="200"/>
+      <c r="C29" s="212"/>
       <c r="D29" s="96" t="s">
         <v>97</v>
       </c>
@@ -5594,7 +5337,7 @@
       <c r="H29" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="J29" s="221"/>
+      <c r="J29" s="199"/>
       <c r="K29" s="16"/>
       <c r="L29" s="16"/>
       <c r="M29" s="66"/>
@@ -5605,7 +5348,7 @@
       <c r="R29" s="26"/>
     </row>
     <row r="30" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B30" s="222"/>
+      <c r="B30" s="200"/>
       <c r="C30" s="20" t="s">
         <v>47</v>
       </c>
@@ -5622,7 +5365,7 @@
       <c r="H30" s="133" t="s">
         <v>100</v>
       </c>
-      <c r="J30" s="221"/>
+      <c r="J30" s="199"/>
       <c r="K30" s="24"/>
       <c r="L30" s="36"/>
       <c r="M30" s="16"/>
@@ -5633,7 +5376,7 @@
       <c r="R30" s="37"/>
     </row>
     <row r="31" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B31" s="222"/>
+      <c r="B31" s="200"/>
       <c r="C31" s="101" t="s">
         <v>48</v>
       </c>
@@ -5650,7 +5393,7 @@
       <c r="H31" s="120" t="s">
         <v>103</v>
       </c>
-      <c r="J31" s="221"/>
+      <c r="J31" s="199"/>
       <c r="K31" s="24"/>
       <c r="L31" s="25"/>
       <c r="M31" s="16"/>
@@ -5661,7 +5404,7 @@
       <c r="R31" s="37"/>
     </row>
     <row r="32" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B32" s="222"/>
+      <c r="B32" s="200"/>
       <c r="C32" s="101" t="s">
         <v>49</v>
       </c>
@@ -5678,7 +5421,7 @@
       <c r="H32" s="121" t="s">
         <v>105</v>
       </c>
-      <c r="J32" s="221"/>
+      <c r="J32" s="199"/>
       <c r="K32" s="24"/>
       <c r="L32" s="16"/>
       <c r="M32" s="16"/>
@@ -5692,7 +5435,7 @@
       <c r="A33" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="222"/>
+      <c r="B33" s="200"/>
       <c r="C33" s="103"/>
       <c r="D33" s="24" t="s">
         <v>106</v>
@@ -5707,7 +5450,7 @@
       <c r="H33" s="121" t="s">
         <v>109</v>
       </c>
-      <c r="J33" s="221"/>
+      <c r="J33" s="199"/>
       <c r="K33" s="16"/>
       <c r="L33" s="32"/>
       <c r="M33" s="16"/>
@@ -5721,7 +5464,7 @@
       <c r="A34" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="222"/>
+      <c r="B34" s="200"/>
       <c r="C34" s="103"/>
       <c r="D34" s="24"/>
       <c r="E34" s="127" t="s">
@@ -5734,7 +5477,7 @@
       <c r="H34" s="121" t="s">
         <v>110</v>
       </c>
-      <c r="J34" s="221"/>
+      <c r="J34" s="199"/>
       <c r="K34" s="38"/>
       <c r="L34" s="32"/>
       <c r="M34" s="16"/>
@@ -5745,7 +5488,7 @@
       <c r="R34" s="39"/>
     </row>
     <row r="35" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B35" s="222"/>
+      <c r="B35" s="200"/>
       <c r="C35" s="104"/>
       <c r="D35" s="24"/>
       <c r="E35" s="127" t="s">
@@ -5756,7 +5499,7 @@
       <c r="H35" s="121" t="s">
         <v>203</v>
       </c>
-      <c r="J35" s="221"/>
+      <c r="J35" s="199"/>
       <c r="K35" s="38"/>
       <c r="L35" s="16"/>
       <c r="M35" s="40"/>
@@ -5767,7 +5510,7 @@
       <c r="R35" s="43"/>
     </row>
     <row r="36" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B36" s="222"/>
+      <c r="B36" s="200"/>
       <c r="C36" s="28"/>
       <c r="D36" s="34"/>
       <c r="E36" s="130"/>
@@ -5776,7 +5519,7 @@
       <c r="H36" s="122" t="s">
         <v>111</v>
       </c>
-      <c r="J36" s="221"/>
+      <c r="J36" s="199"/>
       <c r="K36" s="16"/>
       <c r="L36" s="16"/>
       <c r="M36" s="66"/>
@@ -5787,8 +5530,8 @@
       <c r="R36" s="26"/>
     </row>
     <row r="37" spans="1:18" s="44" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B37" s="222"/>
-      <c r="C37" s="223" t="s">
+      <c r="B37" s="200"/>
+      <c r="C37" s="201" t="s">
         <v>50</v>
       </c>
       <c r="D37" s="98" t="s">
@@ -5804,7 +5547,7 @@
       <c r="H37" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="J37" s="225" t="s">
+      <c r="J37" s="203" t="s">
         <v>17</v>
       </c>
       <c r="K37" s="16"/>
@@ -5817,8 +5560,8 @@
       <c r="R37" s="32"/>
     </row>
     <row r="38" spans="1:18" s="47" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B38" s="222"/>
-      <c r="C38" s="224"/>
+      <c r="B38" s="200"/>
+      <c r="C38" s="202"/>
       <c r="D38" s="124" t="s">
         <v>116</v>
       </c>
@@ -5832,7 +5575,7 @@
       <c r="H38" s="98" t="s">
         <v>119</v>
       </c>
-      <c r="J38" s="226"/>
+      <c r="J38" s="204"/>
       <c r="K38" s="38"/>
       <c r="L38" s="52"/>
       <c r="M38" s="16"/>
@@ -5843,7 +5586,7 @@
       <c r="R38" s="32"/>
     </row>
     <row r="39" spans="1:18" s="47" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B39" s="222"/>
+      <c r="B39" s="200"/>
       <c r="C39" s="103"/>
       <c r="D39" s="98" t="s">
         <v>120</v>
@@ -5858,7 +5601,7 @@
       <c r="H39" s="98" t="s">
         <v>123</v>
       </c>
-      <c r="J39" s="226"/>
+      <c r="J39" s="204"/>
       <c r="K39" s="16"/>
       <c r="L39" s="52"/>
       <c r="M39" s="16"/>
@@ -5869,7 +5612,7 @@
       <c r="R39" s="59"/>
     </row>
     <row r="40" spans="1:18" s="17" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B40" s="222"/>
+      <c r="B40" s="200"/>
       <c r="C40" s="103"/>
       <c r="D40" s="124" t="s">
         <v>124</v>
@@ -5884,7 +5627,7 @@
       <c r="H40" s="98" t="s">
         <v>127</v>
       </c>
-      <c r="J40" s="226"/>
+      <c r="J40" s="204"/>
       <c r="K40" s="16"/>
       <c r="L40" s="40"/>
       <c r="M40" s="16"/>
@@ -5895,7 +5638,7 @@
       <c r="R40" s="69"/>
     </row>
     <row r="41" spans="1:18" s="47" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B41" s="222"/>
+      <c r="B41" s="200"/>
       <c r="C41" s="91"/>
       <c r="D41" s="98" t="s">
         <v>128</v>
@@ -5910,7 +5653,7 @@
       <c r="H41" s="98" t="s">
         <v>131</v>
       </c>
-      <c r="J41" s="226"/>
+      <c r="J41" s="204"/>
       <c r="L41" s="52"/>
       <c r="M41" s="52"/>
       <c r="N41" s="52"/>
@@ -5938,7 +5681,7 @@
       <c r="R42" s="22"/>
     </row>
     <row r="43" spans="1:18" s="17" customFormat="1" ht="26.1" customHeight="1" thickTop="1">
-      <c r="B43" s="227" t="s">
+      <c r="B43" s="205" t="s">
         <v>11</v>
       </c>
       <c r="C43" s="93" t="s">
@@ -5959,7 +5702,7 @@
       <c r="H43" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="J43" s="229" t="s">
+      <c r="J43" s="207" t="s">
         <v>12</v>
       </c>
       <c r="K43" s="52"/>
@@ -5975,7 +5718,7 @@
       <c r="A44" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="222"/>
+      <c r="B44" s="200"/>
       <c r="C44" s="94"/>
       <c r="D44" s="24" t="s">
         <v>134</v>
@@ -5992,7 +5735,7 @@
       <c r="H44" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="J44" s="229"/>
+      <c r="J44" s="207"/>
       <c r="K44" s="50"/>
       <c r="L44" s="16"/>
       <c r="M44" s="52"/>
@@ -6003,7 +5746,7 @@
       <c r="R44" s="22"/>
     </row>
     <row r="45" spans="1:18" s="17" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B45" s="222"/>
+      <c r="B45" s="200"/>
       <c r="C45" s="103"/>
       <c r="D45" s="24" t="s">
         <v>208</v>
@@ -6020,7 +5763,7 @@
       <c r="H45" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="J45" s="229"/>
+      <c r="J45" s="207"/>
       <c r="K45" s="16"/>
       <c r="L45" s="30"/>
       <c r="M45" s="52"/>
@@ -6031,7 +5774,7 @@
       <c r="R45" s="22"/>
     </row>
     <row r="46" spans="1:18" s="17" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B46" s="222"/>
+      <c r="B46" s="200"/>
       <c r="C46" s="103"/>
       <c r="D46" s="24" t="s">
         <v>57</v>
@@ -6048,7 +5791,7 @@
       <c r="H46" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="J46" s="229"/>
+      <c r="J46" s="207"/>
       <c r="K46" s="16"/>
       <c r="L46" s="8"/>
       <c r="M46" s="66"/>
@@ -6059,7 +5802,7 @@
       <c r="R46" s="26"/>
     </row>
     <row r="47" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B47" s="222"/>
+      <c r="B47" s="200"/>
       <c r="C47" s="103"/>
       <c r="D47" s="24" t="s">
         <v>146</v>
@@ -6076,7 +5819,7 @@
       <c r="H47" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="J47" s="229"/>
+      <c r="J47" s="207"/>
       <c r="K47" s="16"/>
       <c r="L47" s="8"/>
       <c r="M47" s="66"/>
@@ -6087,7 +5830,7 @@
       <c r="R47" s="26"/>
     </row>
     <row r="48" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B48" s="222"/>
+      <c r="B48" s="200"/>
       <c r="C48" s="103"/>
       <c r="D48" s="24" t="s">
         <v>151</v>
@@ -6104,7 +5847,7 @@
       <c r="H48" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="J48" s="229"/>
+      <c r="J48" s="207"/>
       <c r="K48" s="30"/>
       <c r="L48" s="8"/>
       <c r="M48" s="30"/>
@@ -6115,7 +5858,7 @@
       <c r="R48" s="26"/>
     </row>
     <row r="49" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B49" s="222"/>
+      <c r="B49" s="200"/>
       <c r="C49" s="86"/>
       <c r="D49" s="34">
         <v>725</v>
@@ -6132,7 +5875,7 @@
       <c r="H49" s="34">
         <v>725</v>
       </c>
-      <c r="J49" s="229"/>
+      <c r="J49" s="207"/>
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
       <c r="M49" s="8"/>
@@ -6140,7 +5883,7 @@
       <c r="R49" s="22"/>
     </row>
     <row r="50" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B50" s="222"/>
+      <c r="B50" s="200"/>
       <c r="C50" s="20" t="s">
         <v>14</v>
       </c>
@@ -6155,14 +5898,14 @@
         <v>158</v>
       </c>
       <c r="H50" s="21"/>
-      <c r="J50" s="229"/>
+      <c r="J50" s="207"/>
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
       <c r="N50" s="52"/>
       <c r="R50" s="22"/>
     </row>
     <row r="51" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B51" s="222"/>
+      <c r="B51" s="200"/>
       <c r="C51" s="23"/>
       <c r="D51" s="24" t="s">
         <v>159</v>
@@ -6175,7 +5918,7 @@
         <v>161</v>
       </c>
       <c r="H51" s="24"/>
-      <c r="J51" s="229"/>
+      <c r="J51" s="207"/>
       <c r="K51" s="21"/>
       <c r="L51" s="21"/>
       <c r="M51" s="8"/>
@@ -6183,7 +5926,7 @@
       <c r="R51" s="22"/>
     </row>
     <row r="52" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B52" s="222"/>
+      <c r="B52" s="200"/>
       <c r="C52" s="20"/>
       <c r="D52" s="24" t="s">
         <v>162</v>
@@ -6196,7 +5939,7 @@
         <v>164</v>
       </c>
       <c r="H52" s="24"/>
-      <c r="J52" s="229"/>
+      <c r="J52" s="207"/>
       <c r="K52" s="24"/>
       <c r="L52" s="24"/>
       <c r="M52" s="8"/>
@@ -6204,7 +5947,7 @@
       <c r="R52" s="22"/>
     </row>
     <row r="53" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B53" s="222"/>
+      <c r="B53" s="200"/>
       <c r="C53" s="20"/>
       <c r="D53" s="24" t="s">
         <v>165</v>
@@ -6217,7 +5960,7 @@
         <v>167</v>
       </c>
       <c r="H53" s="24"/>
-      <c r="J53" s="229"/>
+      <c r="J53" s="207"/>
       <c r="K53" s="24"/>
       <c r="L53" s="24"/>
       <c r="M53" s="8"/>
@@ -6225,7 +5968,7 @@
       <c r="R53" s="22"/>
     </row>
     <row r="54" spans="2:18" s="51" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B54" s="222"/>
+      <c r="B54" s="200"/>
       <c r="C54" s="20"/>
       <c r="D54" s="24" t="s">
         <v>168</v>
@@ -6238,7 +5981,7 @@
         <v>144</v>
       </c>
       <c r="H54" s="24"/>
-      <c r="J54" s="229"/>
+      <c r="J54" s="207"/>
       <c r="K54" s="24"/>
       <c r="L54" s="24"/>
       <c r="M54" s="8"/>
@@ -6249,7 +5992,7 @@
       <c r="R54" s="22"/>
     </row>
     <row r="55" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B55" s="222"/>
+      <c r="B55" s="200"/>
       <c r="C55" s="20"/>
       <c r="D55" s="24" t="s">
         <v>170</v>
@@ -6262,7 +6005,7 @@
         <v>171</v>
       </c>
       <c r="H55" s="24"/>
-      <c r="J55" s="229"/>
+      <c r="J55" s="207"/>
       <c r="K55" s="24"/>
       <c r="L55" s="24"/>
       <c r="M55" s="52"/>
@@ -6270,7 +6013,7 @@
       <c r="R55" s="22"/>
     </row>
     <row r="56" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B56" s="222"/>
+      <c r="B56" s="200"/>
       <c r="C56" s="110"/>
       <c r="D56" s="34">
         <v>725</v>
@@ -6283,7 +6026,7 @@
         <v>905</v>
       </c>
       <c r="H56" s="34"/>
-      <c r="J56" s="229"/>
+      <c r="J56" s="207"/>
       <c r="K56" s="24"/>
       <c r="L56" s="24"/>
       <c r="M56" s="52"/>
@@ -6291,8 +6034,8 @@
       <c r="R56" s="22"/>
     </row>
     <row r="57" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B57" s="222"/>
-      <c r="C57" s="230" t="s">
+      <c r="B57" s="200"/>
+      <c r="C57" s="208" t="s">
         <v>10</v>
       </c>
       <c r="D57" s="24" t="s">
@@ -6310,7 +6053,7 @@
       <c r="H57" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="J57" s="229"/>
+      <c r="J57" s="207"/>
       <c r="K57" s="25"/>
       <c r="L57" s="30"/>
       <c r="M57" s="52"/>
@@ -6318,8 +6061,8 @@
       <c r="R57" s="22"/>
     </row>
     <row r="58" spans="2:18" ht="26.1" customHeight="1" thickBot="1">
-      <c r="B58" s="228"/>
-      <c r="C58" s="231"/>
+      <c r="B58" s="206"/>
+      <c r="C58" s="209"/>
       <c r="D58" s="100" t="s">
         <v>172</v>
       </c>
@@ -6335,7 +6078,7 @@
       <c r="H58" s="100" t="s">
         <v>176</v>
       </c>
-      <c r="J58" s="229"/>
+      <c r="J58" s="207"/>
       <c r="K58" s="16"/>
       <c r="L58" s="8"/>
       <c r="M58" s="52"/>
@@ -6366,7 +6109,7 @@
       <c r="F60" s="24"/>
       <c r="G60" s="32"/>
       <c r="H60" s="32"/>
-      <c r="J60" s="232" t="s">
+      <c r="J60" s="210" t="s">
         <v>15</v>
       </c>
       <c r="K60" s="16"/>
@@ -6387,7 +6130,7 @@
       <c r="F61" s="55"/>
       <c r="G61" s="16"/>
       <c r="H61" s="56"/>
-      <c r="J61" s="232"/>
+      <c r="J61" s="210"/>
       <c r="K61" s="59"/>
       <c r="L61" s="8"/>
       <c r="M61" s="52"/>
@@ -6402,14 +6145,14 @@
       <c r="E62" s="58"/>
       <c r="F62" s="57"/>
       <c r="G62" s="58"/>
-      <c r="H62" s="218"/>
+      <c r="H62" s="196"/>
       <c r="K62" s="16"/>
       <c r="L62" s="16"/>
       <c r="M62" s="52"/>
       <c r="N62" s="52"/>
     </row>
     <row r="63" spans="2:18" ht="14.25" customHeight="1">
-      <c r="H63" s="218"/>
+      <c r="H63" s="196"/>
       <c r="K63" s="52"/>
       <c r="L63" s="16"/>
       <c r="M63" s="52"/>
@@ -6768,10 +6511,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R862"/>
+  <dimension ref="A1:R860"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="96" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H60"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="96" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -6809,11 +6552,11 @@
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="137"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="14"/>
       <c r="G2" s="105"/>
       <c r="H2" s="2"/>
-      <c r="J2" s="219" t="s">
+      <c r="J2" s="197" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="32"/>
@@ -6824,21 +6567,21 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>335</v>
+        <v>238</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="11"/>
-      <c r="E3" s="237"/>
+      <c r="E3" s="106"/>
       <c r="F3" s="106"/>
       <c r="G3" s="11"/>
-      <c r="J3" s="219"/>
+      <c r="J3" s="197"/>
       <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:18" ht="24" customHeight="1">
       <c r="B4" s="115"/>
       <c r="C4" s="10"/>
       <c r="D4" s="107"/>
-      <c r="E4" s="238"/>
+      <c r="E4" s="45"/>
       <c r="F4" s="45"/>
       <c r="G4" s="108"/>
       <c r="H4" s="15"/>
@@ -6851,22 +6594,22 @@
       <c r="C5" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>336</v>
+      <c r="D5" s="178" t="s">
+        <v>239</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>337</v>
+        <v>240</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>338</v>
+        <v>241</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>339</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="J5" s="220" t="s">
+        <v>242</v>
+      </c>
+      <c r="H5" s="178" t="s">
+        <v>243</v>
+      </c>
+      <c r="J5" s="198" t="s">
         <v>40</v>
       </c>
       <c r="K5" s="48"/>
@@ -6879,160 +6622,160 @@
       <c r="R5" s="2"/>
     </row>
     <row r="6" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B6" s="235" t="s">
+      <c r="B6" s="213" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="D6" s="152" t="s">
-        <v>239</v>
-      </c>
-      <c r="E6" s="126" t="s">
-        <v>240</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="G6" s="155" t="s">
-        <v>319</v>
-      </c>
-      <c r="H6" s="152" t="s">
-        <v>321</v>
-      </c>
-      <c r="J6" s="221"/>
+      <c r="D6" s="190" t="s">
+        <v>244</v>
+      </c>
+      <c r="E6" s="191" t="s">
+        <v>245</v>
+      </c>
+      <c r="F6" s="190" t="s">
+        <v>246</v>
+      </c>
+      <c r="G6" s="190" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="192" t="s">
+        <v>247</v>
+      </c>
+      <c r="J6" s="199"/>
       <c r="K6" s="52"/>
-      <c r="L6" s="152"/>
+      <c r="L6" s="151"/>
       <c r="M6" s="48"/>
       <c r="N6" s="48"/>
       <c r="O6" s="48"/>
       <c r="P6" s="22"/>
     </row>
     <row r="7" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B7" s="222"/>
+      <c r="B7" s="200"/>
       <c r="C7" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="145" t="s">
-        <v>322</v>
-      </c>
-      <c r="E7" s="127" t="s">
-        <v>242</v>
-      </c>
-      <c r="F7" s="146" t="s">
-        <v>243</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>341</v>
-      </c>
-      <c r="H7" s="145" t="s">
-        <v>228</v>
-      </c>
-      <c r="J7" s="221"/>
+      <c r="D7" s="144" t="s">
+        <v>248</v>
+      </c>
+      <c r="E7" s="126" t="s">
+        <v>249</v>
+      </c>
+      <c r="F7" s="144" t="s">
+        <v>229</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="J7" s="199"/>
       <c r="K7" s="52"/>
-      <c r="L7" s="145"/>
+      <c r="L7" s="144"/>
       <c r="M7" s="48"/>
       <c r="N7" s="48"/>
       <c r="O7" s="48"/>
       <c r="P7" s="22"/>
     </row>
     <row r="8" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B8" s="222"/>
-      <c r="C8" s="173"/>
-      <c r="D8" s="145" t="s">
-        <v>244</v>
+      <c r="B8" s="200"/>
+      <c r="C8" s="169"/>
+      <c r="D8" s="144" t="s">
+        <v>252</v>
       </c>
       <c r="E8" s="127" t="s">
-        <v>323</v>
-      </c>
-      <c r="F8" s="145" t="s">
-        <v>245</v>
-      </c>
-      <c r="G8" s="191" t="s">
-        <v>155</v>
-      </c>
-      <c r="H8" s="145" t="s">
-        <v>246</v>
-      </c>
-      <c r="J8" s="221"/>
+        <v>253</v>
+      </c>
+      <c r="F8" s="144" t="s">
+        <v>254</v>
+      </c>
+      <c r="G8" s="144" t="s">
+        <v>255</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="J8" s="199"/>
       <c r="K8" s="52"/>
-      <c r="L8" s="145"/>
+      <c r="L8" s="144"/>
       <c r="M8" s="48"/>
       <c r="N8" s="45"/>
       <c r="O8" s="48"/>
       <c r="P8" s="22"/>
     </row>
     <row r="9" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B9" s="222"/>
-      <c r="C9" s="173"/>
-      <c r="D9" s="145" t="s">
-        <v>248</v>
+      <c r="B9" s="200"/>
+      <c r="C9" s="169"/>
+      <c r="D9" s="144" t="s">
+        <v>232</v>
       </c>
       <c r="E9" s="127" t="s">
-        <v>249</v>
-      </c>
-      <c r="F9" s="145" t="s">
-        <v>250</v>
-      </c>
-      <c r="G9" s="191" t="s">
-        <v>227</v>
-      </c>
-      <c r="H9" s="145" t="s">
-        <v>251</v>
-      </c>
-      <c r="J9" s="221"/>
+        <v>256</v>
+      </c>
+      <c r="F9" s="144" t="s">
+        <v>257</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="J9" s="199"/>
       <c r="K9" s="52"/>
-      <c r="L9" s="145"/>
+      <c r="L9" s="144"/>
       <c r="M9" s="48"/>
       <c r="N9" s="45"/>
       <c r="O9" s="48"/>
       <c r="P9" s="22"/>
     </row>
     <row r="10" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B10" s="222"/>
-      <c r="C10" s="173"/>
-      <c r="D10" s="145" t="s">
-        <v>153</v>
+      <c r="B10" s="200"/>
+      <c r="C10" s="169"/>
+      <c r="D10" s="144" t="s">
+        <v>56</v>
       </c>
       <c r="E10" s="127" t="s">
-        <v>229</v>
-      </c>
-      <c r="F10" s="145" t="s">
-        <v>237</v>
-      </c>
-      <c r="G10" s="191" t="s">
-        <v>238</v>
-      </c>
-      <c r="H10" s="145" t="s">
-        <v>252</v>
-      </c>
-      <c r="J10" s="221"/>
+        <v>258</v>
+      </c>
+      <c r="F10" s="144" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="144" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="144" t="s">
+        <v>227</v>
+      </c>
+      <c r="J10" s="199"/>
       <c r="K10" s="52"/>
-      <c r="L10" s="145"/>
+      <c r="L10" s="144"/>
       <c r="M10" s="48"/>
       <c r="N10" s="48"/>
       <c r="O10" s="48"/>
       <c r="P10" s="22"/>
     </row>
     <row r="11" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B11" s="222"/>
-      <c r="C11" s="173"/>
-      <c r="D11" s="145" t="s">
+      <c r="B11" s="200"/>
+      <c r="C11" s="169"/>
+      <c r="D11" s="144" t="s">
         <v>53</v>
       </c>
       <c r="E11" s="127" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="145" t="s">
+      <c r="F11" s="144" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="191" t="s">
+      <c r="G11" s="144" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="145" t="s">
+      <c r="H11" s="144" t="s">
         <v>53</v>
       </c>
-      <c r="J11" s="221"/>
+      <c r="J11" s="199"/>
       <c r="K11" s="52"/>
       <c r="L11" s="48"/>
       <c r="M11" s="48"/>
@@ -7041,24 +6784,24 @@
       <c r="P11" s="26"/>
     </row>
     <row r="12" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B12" s="222"/>
+      <c r="B12" s="200"/>
       <c r="C12" s="28"/>
-      <c r="D12" s="143">
-        <v>1151</v>
+      <c r="D12" s="142">
+        <v>808</v>
       </c>
       <c r="E12" s="130">
-        <v>1257</v>
-      </c>
-      <c r="F12" s="143">
-        <v>1120</v>
-      </c>
-      <c r="G12" s="143">
-        <v>1371</v>
-      </c>
-      <c r="H12" s="143">
-        <v>1052</v>
-      </c>
-      <c r="J12" s="221"/>
+        <v>1319</v>
+      </c>
+      <c r="F12" s="142">
+        <v>1155</v>
+      </c>
+      <c r="G12" s="142">
+        <v>1051</v>
+      </c>
+      <c r="H12" s="142">
+        <v>1142</v>
+      </c>
+      <c r="J12" s="199"/>
       <c r="K12" s="24"/>
       <c r="L12" s="48"/>
       <c r="M12" s="52"/>
@@ -7069,488 +6812,547 @@
       <c r="R12" s="22"/>
     </row>
     <row r="13" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B13" s="222"/>
+      <c r="B13" s="200"/>
       <c r="C13" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="155" t="s">
-        <v>253</v>
-      </c>
-      <c r="E13" s="197" t="s">
-        <v>324</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="G13" s="155" t="s">
-        <v>255</v>
-      </c>
-      <c r="H13" s="152"/>
-      <c r="J13" s="221"/>
+      <c r="D13" s="184" t="s">
+        <v>259</v>
+      </c>
+      <c r="E13" s="126" t="s">
+        <v>260</v>
+      </c>
+      <c r="F13" s="183" t="s">
+        <v>261</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="H13" s="184" t="s">
+        <v>263</v>
+      </c>
+      <c r="J13" s="199"/>
       <c r="K13" s="21"/>
       <c r="L13" s="52"/>
       <c r="M13" s="22"/>
     </row>
     <row r="14" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B14" s="222"/>
+      <c r="B14" s="200"/>
       <c r="C14" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="D14" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="E14" s="198" t="s">
-        <v>257</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="G14" s="191" t="s">
-        <v>325</v>
-      </c>
-      <c r="H14" s="145"/>
-      <c r="J14" s="221"/>
+      <c r="D14" s="138" t="s">
+        <v>264</v>
+      </c>
+      <c r="E14" s="127" t="s">
+        <v>234</v>
+      </c>
+      <c r="F14" s="138" t="s">
+        <v>265</v>
+      </c>
+      <c r="G14" s="138" t="s">
+        <v>266</v>
+      </c>
+      <c r="H14" s="138" t="s">
+        <v>267</v>
+      </c>
+      <c r="J14" s="199"/>
       <c r="K14" s="24"/>
       <c r="M14" s="29"/>
     </row>
     <row r="15" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B15" s="222"/>
-      <c r="C15" s="173"/>
-      <c r="D15" s="139" t="s">
-        <v>259</v>
+      <c r="B15" s="200"/>
+      <c r="C15" s="169"/>
+      <c r="D15" s="138" t="s">
+        <v>104</v>
       </c>
       <c r="E15" s="127" t="s">
-        <v>194</v>
-      </c>
-      <c r="F15" s="146" t="s">
-        <v>260</v>
-      </c>
-      <c r="G15" s="191" t="s">
+        <v>225</v>
+      </c>
+      <c r="F15" s="138" t="s">
+        <v>230</v>
+      </c>
+      <c r="G15" s="138" t="s">
+        <v>226</v>
+      </c>
+      <c r="H15" s="138" t="s">
         <v>104</v>
       </c>
-      <c r="H15" s="145"/>
-      <c r="J15" s="221"/>
+      <c r="J15" s="199"/>
       <c r="K15" s="24"/>
       <c r="M15" s="22"/>
     </row>
     <row r="16" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B16" s="222"/>
-      <c r="C16" s="173"/>
-      <c r="D16" s="139" t="s">
-        <v>58</v>
+      <c r="B16" s="200"/>
+      <c r="C16" s="169"/>
+      <c r="D16" s="138" t="s">
+        <v>230</v>
       </c>
       <c r="E16" s="127" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="146" t="s">
-        <v>104</v>
-      </c>
-      <c r="G16" s="191" t="s">
-        <v>229</v>
-      </c>
-      <c r="H16" s="145"/>
-      <c r="J16" s="221"/>
+        <v>268</v>
+      </c>
+      <c r="F16" s="138" t="s">
+        <v>155</v>
+      </c>
+      <c r="G16" s="145" t="s">
+        <v>269</v>
+      </c>
+      <c r="H16" s="138" t="s">
+        <v>228</v>
+      </c>
+      <c r="J16" s="199"/>
       <c r="K16" s="24"/>
       <c r="M16" s="22"/>
     </row>
-    <row r="17" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B17" s="222"/>
-      <c r="C17" s="173"/>
-      <c r="D17" s="139" t="s">
-        <v>150</v>
-      </c>
-      <c r="E17" s="127"/>
-      <c r="F17" s="146" t="s">
-        <v>233</v>
-      </c>
-      <c r="G17" s="191" t="s">
+    <row r="17" spans="2:18" s="17" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B17" s="200"/>
+      <c r="C17" s="169"/>
+      <c r="D17" s="138" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="145"/>
-      <c r="J17" s="221"/>
+      <c r="E17" s="127" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="145" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="144" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="145" t="s">
+        <v>53</v>
+      </c>
+      <c r="J17" s="199"/>
       <c r="K17" s="24"/>
       <c r="M17" s="22"/>
     </row>
-    <row r="18" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A18" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="222"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="139" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="127"/>
-      <c r="F18" s="146" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" s="146"/>
-      <c r="H18" s="145"/>
-      <c r="J18" s="221"/>
-      <c r="K18" s="24"/>
-      <c r="M18" s="22"/>
-    </row>
-    <row r="19" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B19" s="222"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="143">
-        <v>908</v>
-      </c>
-      <c r="E19" s="130">
-        <v>1130</v>
-      </c>
-      <c r="F19" s="143">
-        <v>1182</v>
-      </c>
-      <c r="G19" s="143">
-        <v>964</v>
-      </c>
-      <c r="H19" s="143"/>
-      <c r="J19" s="221"/>
-      <c r="K19" s="85"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="17"/>
-    </row>
-    <row r="20" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B20" s="222"/>
-      <c r="C20" s="20" t="s">
+    <row r="18" spans="2:18" s="27" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B18" s="200"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="142">
+        <v>797</v>
+      </c>
+      <c r="E18" s="130">
+        <v>830</v>
+      </c>
+      <c r="F18" s="142">
+        <v>890</v>
+      </c>
+      <c r="G18" s="142">
+        <v>1058</v>
+      </c>
+      <c r="H18" s="142">
+        <v>859</v>
+      </c>
+      <c r="J18" s="199"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="17"/>
+    </row>
+    <row r="19" spans="2:18" s="17" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B19" s="200"/>
+      <c r="C19" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="183" t="s">
-        <v>261</v>
+      <c r="D19" s="184" t="s">
+        <v>270</v>
+      </c>
+      <c r="E19" s="126" t="s">
+        <v>271</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="J19" s="199"/>
+      <c r="K19" s="24"/>
+      <c r="M19" s="22"/>
+    </row>
+    <row r="20" spans="2:18" s="17" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B20" s="200"/>
+      <c r="C20" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="D20" s="186" t="s">
+        <v>275</v>
       </c>
       <c r="E20" s="126" t="s">
-        <v>262</v>
-      </c>
-      <c r="G20" s="152" t="s">
-        <v>328</v>
-      </c>
-      <c r="H20" s="183"/>
-      <c r="J20" s="221"/>
+        <v>355</v>
+      </c>
+      <c r="F20" s="138" t="s">
+        <v>276</v>
+      </c>
+      <c r="G20" s="138" t="s">
+        <v>277</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="J20" s="199"/>
       <c r="K20" s="24"/>
       <c r="M20" s="22"/>
-    </row>
-    <row r="21" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B21" s="222"/>
-      <c r="C21" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="D21" s="217" t="s">
-        <v>263</v>
+      <c r="N20" s="33"/>
+    </row>
+    <row r="21" spans="2:18" s="17" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B21" s="200"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="186" t="s">
+        <v>279</v>
       </c>
       <c r="E21" s="127" t="s">
-        <v>264</v>
-      </c>
-      <c r="F21" s="183" t="s">
-        <v>234</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>326</v>
-      </c>
-      <c r="H21" s="183"/>
-      <c r="J21" s="221"/>
-      <c r="K21" s="24"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="33"/>
-    </row>
-    <row r="22" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B22" s="222"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="215" t="s">
-        <v>265</v>
+        <v>280</v>
+      </c>
+      <c r="F21" s="138" t="s">
+        <v>281</v>
+      </c>
+      <c r="G21" s="138" t="s">
+        <v>104</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="J21" s="199"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="33"/>
+      <c r="N21" s="27"/>
+    </row>
+    <row r="22" spans="2:18" s="17" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B22" s="200"/>
+      <c r="C22" s="169"/>
+      <c r="D22" s="186" t="s">
+        <v>150</v>
       </c>
       <c r="E22" s="127" t="s">
-        <v>266</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="H22" s="21"/>
-      <c r="J22" s="221"/>
+        <v>282</v>
+      </c>
+      <c r="F22" s="138" t="s">
+        <v>283</v>
+      </c>
+      <c r="G22" s="138" t="s">
+        <v>149</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="J22" s="199"/>
       <c r="K22" s="16"/>
-      <c r="L22" s="33"/>
-      <c r="N22" s="27"/>
-    </row>
-    <row r="23" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B23" s="222"/>
-      <c r="C23" s="173"/>
-      <c r="D23" s="191" t="s">
-        <v>268</v>
-      </c>
-      <c r="E23" s="216" t="s">
-        <v>269</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>270</v>
+      <c r="L22" s="138"/>
+      <c r="N22" s="45"/>
+    </row>
+    <row r="23" spans="2:18" s="17" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B23" s="200"/>
+      <c r="C23" s="169"/>
+      <c r="D23" s="145" t="s">
+        <v>231</v>
+      </c>
+      <c r="E23" s="127" t="s">
+        <v>228</v>
+      </c>
+      <c r="F23" s="145" t="s">
+        <v>149</v>
       </c>
       <c r="G23" s="145" t="s">
-        <v>143</v>
-      </c>
-      <c r="H23" s="191"/>
-      <c r="J23" s="221"/>
+        <v>285</v>
+      </c>
+      <c r="H23" s="144" t="s">
+        <v>53</v>
+      </c>
+      <c r="J23" s="199"/>
       <c r="K23" s="16"/>
-      <c r="L23" s="139"/>
-      <c r="N23" s="45"/>
-    </row>
-    <row r="24" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B24" s="222"/>
-      <c r="C24" s="173"/>
-      <c r="D24" s="139" t="s">
-        <v>327</v>
+      <c r="L23" s="138"/>
+      <c r="N23" s="41"/>
+    </row>
+    <row r="24" spans="2:18" s="17" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B24" s="200"/>
+      <c r="C24" s="169"/>
+      <c r="D24" s="145" t="s">
+        <v>53</v>
       </c>
       <c r="E24" s="127" t="s">
+        <v>286</v>
+      </c>
+      <c r="F24" s="144" t="s">
         <v>53</v>
       </c>
-      <c r="F24" s="146" t="s">
-        <v>320</v>
-      </c>
-      <c r="G24" s="145" t="s">
-        <v>153</v>
-      </c>
-      <c r="H24" s="191"/>
-      <c r="J24" s="221"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="139"/>
-      <c r="N24" s="41"/>
-    </row>
-    <row r="25" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B25" s="222"/>
-      <c r="C25" s="173"/>
-      <c r="D25" s="145" t="s">
+      <c r="G24" s="144" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="127"/>
-      <c r="F25" s="146" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" s="145" t="s">
-        <v>53</v>
-      </c>
-      <c r="H25" s="191"/>
-      <c r="J25" s="221"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="139"/>
-      <c r="N25" s="16"/>
-    </row>
-    <row r="26" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B26" s="222"/>
-      <c r="C26" s="214"/>
-      <c r="D26" s="145"/>
-      <c r="E26" s="127"/>
-      <c r="F26" s="146"/>
-      <c r="G26" s="145"/>
-      <c r="H26" s="191"/>
-      <c r="J26" s="221"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="139"/>
-      <c r="N26" s="16"/>
-    </row>
-    <row r="27" spans="1:18" s="33" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B27" s="222"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="143">
-        <v>1170</v>
-      </c>
-      <c r="E27" s="130">
-        <v>1143</v>
-      </c>
-      <c r="F27" s="143">
-        <v>868</v>
-      </c>
-      <c r="G27" s="143">
-        <v>1101</v>
-      </c>
-      <c r="H27" s="191"/>
-      <c r="J27" s="221"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="139"/>
+      <c r="H24" s="145"/>
+      <c r="J24" s="199"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="138"/>
+      <c r="N24" s="16"/>
+    </row>
+    <row r="25" spans="2:18" s="33" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B25" s="200"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="142">
+        <v>1151</v>
+      </c>
+      <c r="E25" s="130">
+        <v>1153</v>
+      </c>
+      <c r="F25" s="142">
+        <v>1275</v>
+      </c>
+      <c r="G25" s="142">
+        <v>1135</v>
+      </c>
+      <c r="H25" s="142">
+        <v>911</v>
+      </c>
+      <c r="J25" s="199"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="138"/>
+      <c r="N25" s="48"/>
+    </row>
+    <row r="26" spans="2:18" s="27" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B26" s="200"/>
+      <c r="C26" s="208" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="137" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="137" t="s">
+        <v>287</v>
+      </c>
+      <c r="F26" s="137" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="137" t="s">
+        <v>287</v>
+      </c>
+      <c r="H26" s="137" t="s">
+        <v>55</v>
+      </c>
+      <c r="J26" s="199"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="26"/>
+      <c r="N26" s="48"/>
+    </row>
+    <row r="27" spans="2:18" s="27" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B27" s="200"/>
+      <c r="C27" s="211"/>
+      <c r="D27" s="102" t="s">
+        <v>288</v>
+      </c>
+      <c r="E27" s="102" t="s">
+        <v>289</v>
+      </c>
+      <c r="F27" s="102" t="s">
+        <v>290</v>
+      </c>
+      <c r="G27" s="102" t="s">
+        <v>291</v>
+      </c>
+      <c r="H27" s="102" t="s">
+        <v>292</v>
+      </c>
+      <c r="J27" s="199"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="41"/>
       <c r="N27" s="48"/>
-    </row>
-    <row r="28" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B28" s="222"/>
-      <c r="C28" s="230" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="138" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="145" t="s">
-        <v>150</v>
-      </c>
-      <c r="F28" s="138" t="s">
-        <v>55</v>
-      </c>
-      <c r="G28" s="138" t="s">
-        <v>150</v>
-      </c>
-      <c r="H28" s="138" t="s">
-        <v>55</v>
-      </c>
-      <c r="J28" s="221"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="26"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="45"/>
+      <c r="Q27" s="26"/>
+    </row>
+    <row r="28" spans="2:18" s="27" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B28" s="200"/>
+      <c r="C28" s="212"/>
+      <c r="D28" s="149" t="s">
+        <v>293</v>
+      </c>
+      <c r="E28" s="142"/>
+      <c r="F28" s="149" t="s">
+        <v>294</v>
+      </c>
+      <c r="G28" s="150" t="s">
+        <v>295</v>
+      </c>
+      <c r="H28" s="193" t="s">
+        <v>296</v>
+      </c>
+      <c r="J28" s="199"/>
+      <c r="K28" s="109"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="66"/>
       <c r="N28" s="48"/>
-    </row>
-    <row r="29" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B29" s="222"/>
-      <c r="C29" s="233"/>
-      <c r="D29" s="102" t="s">
+      <c r="O28" s="45"/>
+      <c r="P28" s="45"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="26"/>
+    </row>
+    <row r="29" spans="2:18" s="44" customFormat="1" ht="30.75" customHeight="1">
+      <c r="B29" s="200"/>
+      <c r="C29" s="167" t="s">
+        <v>211</v>
+      </c>
+      <c r="D29" s="185" t="s">
+        <v>297</v>
+      </c>
+      <c r="E29" s="137" t="s">
+        <v>298</v>
+      </c>
+      <c r="F29" s="185" t="s">
+        <v>299</v>
+      </c>
+      <c r="G29" s="185" t="s">
+        <v>300</v>
+      </c>
+      <c r="H29" s="137" t="s">
+        <v>301</v>
+      </c>
+      <c r="J29" s="203" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29" s="16"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="32"/>
+    </row>
+    <row r="30" spans="2:18" s="47" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B30" s="200"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="142">
+        <v>748</v>
+      </c>
+      <c r="E30" s="142">
+        <v>667</v>
+      </c>
+      <c r="F30" s="142">
+        <v>769</v>
+      </c>
+      <c r="G30" s="142">
+        <v>688</v>
+      </c>
+      <c r="H30" s="142">
+        <v>684</v>
+      </c>
+      <c r="J30" s="204"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="32"/>
+    </row>
+    <row r="31" spans="2:18" s="47" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B31" s="200"/>
+      <c r="C31" s="167" t="s">
+        <v>219</v>
+      </c>
+      <c r="D31" s="187" t="s">
+        <v>302</v>
+      </c>
+      <c r="E31" s="187" t="s">
+        <v>358</v>
+      </c>
+      <c r="F31" s="194" t="s">
+        <v>303</v>
+      </c>
+      <c r="G31" s="194" t="s">
+        <v>304</v>
+      </c>
+      <c r="H31" s="194" t="s">
+        <v>305</v>
+      </c>
+      <c r="J31" s="204"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="59"/>
+    </row>
+    <row r="32" spans="2:18" s="47" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B32" s="200"/>
+      <c r="C32" s="143"/>
+      <c r="D32" s="179">
+        <v>455</v>
+      </c>
+      <c r="E32" s="179">
+        <v>560</v>
+      </c>
+      <c r="F32" s="179">
+        <v>420</v>
+      </c>
+      <c r="G32" s="179">
+        <v>325</v>
+      </c>
+      <c r="H32" s="179">
+        <v>460</v>
+      </c>
+      <c r="J32" s="204"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="22"/>
+    </row>
+    <row r="33" spans="1:18" s="47" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B33" s="200"/>
+      <c r="C33" s="139" t="s">
+        <v>218</v>
+      </c>
+      <c r="D33" s="188" t="s">
+        <v>306</v>
+      </c>
+      <c r="E33" s="188" t="s">
+        <v>307</v>
+      </c>
+      <c r="F33" s="188" t="s">
+        <v>308</v>
+      </c>
+      <c r="G33" s="188" t="s">
+        <v>309</v>
+      </c>
+      <c r="H33" s="174" t="s">
         <v>310</v>
       </c>
-      <c r="E29" s="102" t="s">
-        <v>311</v>
-      </c>
-      <c r="F29" s="102" t="s">
-        <v>312</v>
-      </c>
-      <c r="G29" s="102" t="s">
-        <v>313</v>
-      </c>
-      <c r="H29" s="102" t="s">
-        <v>318</v>
-      </c>
-      <c r="J29" s="221"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="66"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="45"/>
-      <c r="P29" s="45"/>
-      <c r="Q29" s="26"/>
-    </row>
-    <row r="30" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B30" s="222"/>
-      <c r="C30" s="234"/>
-      <c r="D30" s="150" t="s">
-        <v>314</v>
-      </c>
-      <c r="E30" s="143"/>
-      <c r="F30" s="150" t="s">
-        <v>315</v>
-      </c>
-      <c r="G30" s="151" t="s">
-        <v>316</v>
-      </c>
-      <c r="H30" s="151" t="s">
-        <v>317</v>
-      </c>
-      <c r="J30" s="221"/>
-      <c r="K30" s="109"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="66"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="45"/>
-      <c r="P30" s="45"/>
-      <c r="Q30" s="45"/>
-      <c r="R30" s="26"/>
-    </row>
-    <row r="31" spans="1:18" s="44" customFormat="1" ht="30.75" customHeight="1">
-      <c r="B31" s="222"/>
-      <c r="C31" s="171" t="s">
-        <v>211</v>
-      </c>
-      <c r="D31" s="145" t="s">
-        <v>271</v>
-      </c>
-      <c r="E31" s="145" t="s">
-        <v>272</v>
-      </c>
-      <c r="F31" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="G31" s="199" t="s">
-        <v>274</v>
-      </c>
-      <c r="H31" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="J31" s="225" t="s">
-        <v>17</v>
-      </c>
-      <c r="K31" s="16"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="48"/>
-      <c r="R31" s="32"/>
-    </row>
-    <row r="32" spans="1:18" s="47" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B32" s="222"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="143">
-        <v>629</v>
-      </c>
-      <c r="E32" s="143">
-        <v>642</v>
-      </c>
-      <c r="F32" s="143">
+      <c r="J33" s="17"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="48"/>
+      <c r="P33" s="48"/>
+      <c r="Q33" s="22"/>
+    </row>
+    <row r="34" spans="1:18" s="47" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B34" s="200"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="138">
+        <v>627</v>
+      </c>
+      <c r="E34" s="138">
+        <v>478</v>
+      </c>
+      <c r="F34" s="138">
+        <v>588</v>
+      </c>
+      <c r="G34" s="138">
+        <v>679</v>
+      </c>
+      <c r="H34" s="138">
         <v>777</v>
       </c>
-      <c r="G32" s="143">
-        <v>458</v>
-      </c>
-      <c r="H32" s="143">
-        <v>699</v>
-      </c>
-      <c r="J32" s="226"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="48"/>
-      <c r="Q32" s="32"/>
-    </row>
-    <row r="33" spans="1:18" s="47" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B33" s="222"/>
-      <c r="C33" s="171" t="s">
-        <v>219</v>
-      </c>
-      <c r="D33" s="200" t="s">
-        <v>276</v>
-      </c>
-      <c r="E33" s="200" t="s">
-        <v>277</v>
-      </c>
-      <c r="F33" s="200" t="s">
-        <v>278</v>
-      </c>
-      <c r="G33" s="200" t="s">
-        <v>279</v>
-      </c>
-      <c r="H33" s="201"/>
-      <c r="J33" s="226"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="48"/>
-      <c r="Q33" s="59"/>
-    </row>
-    <row r="34" spans="1:18" s="47" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B34" s="222"/>
-      <c r="C34" s="144"/>
-      <c r="D34" s="143">
-        <v>315</v>
-      </c>
-      <c r="E34" s="143">
-        <v>480</v>
-      </c>
-      <c r="F34" s="143">
-        <v>455</v>
-      </c>
-      <c r="G34" s="143">
-        <v>691</v>
-      </c>
-      <c r="H34" s="202"/>
-      <c r="J34" s="226"/>
+      <c r="J34" s="17"/>
       <c r="K34" s="52"/>
       <c r="L34" s="52"/>
       <c r="M34" s="52"/>
@@ -7559,102 +7361,109 @@
       <c r="P34" s="48"/>
       <c r="Q34" s="22"/>
     </row>
-    <row r="35" spans="1:18" s="47" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B35" s="222"/>
-      <c r="C35" s="140" t="s">
-        <v>218</v>
-      </c>
-      <c r="D35" s="203" t="s">
-        <v>343</v>
-      </c>
-      <c r="E35" s="203" t="s">
-        <v>280</v>
-      </c>
-      <c r="F35" s="203" t="s">
-        <v>281</v>
-      </c>
-      <c r="G35" s="203" t="s">
-        <v>282</v>
-      </c>
-      <c r="H35" s="203"/>
+    <row r="35" spans="1:18" s="47" customFormat="1" ht="9" customHeight="1" thickBot="1">
+      <c r="B35" s="49"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="170"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="99"/>
+      <c r="H35" s="180"/>
       <c r="J35" s="17"/>
       <c r="K35" s="52"/>
       <c r="L35" s="52"/>
       <c r="M35" s="52"/>
-      <c r="N35" s="24"/>
+      <c r="N35" s="52"/>
       <c r="O35" s="48"/>
       <c r="P35" s="48"/>
       <c r="Q35" s="22"/>
     </row>
-    <row r="36" spans="1:18" s="47" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B36" s="222"/>
-      <c r="C36" s="91"/>
-      <c r="D36" s="139">
-        <v>679</v>
-      </c>
-      <c r="E36" s="139">
-        <v>588</v>
-      </c>
-      <c r="F36" s="139">
-        <v>546</v>
-      </c>
-      <c r="G36" s="139">
-        <v>777</v>
-      </c>
-      <c r="H36" s="153"/>
-      <c r="J36" s="17"/>
+    <row r="36" spans="1:18" s="17" customFormat="1" ht="26.1" customHeight="1" thickTop="1">
+      <c r="B36" s="205" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="195" t="s">
+        <v>311</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="F36" s="151" t="s">
+        <v>313</v>
+      </c>
+      <c r="G36" s="151" t="s">
+        <v>314</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="J36" s="207" t="s">
+        <v>12</v>
+      </c>
       <c r="K36" s="52"/>
-      <c r="L36" s="52"/>
+      <c r="L36" s="16"/>
       <c r="M36" s="52"/>
-      <c r="N36" s="24"/>
+      <c r="N36" s="52"/>
       <c r="O36" s="48"/>
       <c r="P36" s="48"/>
-      <c r="Q36" s="22"/>
-    </row>
-    <row r="37" spans="1:18" s="47" customFormat="1" ht="9" customHeight="1" thickBot="1">
-      <c r="B37" s="49"/>
-      <c r="C37" s="92"/>
-      <c r="D37" s="184"/>
-      <c r="E37" s="184"/>
-      <c r="F37" s="99"/>
-      <c r="G37" s="99"/>
-      <c r="H37" s="154"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="52"/>
-      <c r="L37" s="52"/>
+      <c r="Q36" s="48"/>
+      <c r="R36" s="22"/>
+    </row>
+    <row r="37" spans="1:18" s="17" customFormat="1" ht="26.1" customHeight="1">
+      <c r="A37" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="200"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="144" t="s">
+        <v>316</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="F37" s="144" t="s">
+        <v>318</v>
+      </c>
+      <c r="G37" s="144" t="s">
+        <v>356</v>
+      </c>
+      <c r="H37" s="24" t="s">
+        <v>319</v>
+      </c>
+      <c r="J37" s="207"/>
+      <c r="K37" s="66"/>
+      <c r="L37" s="16"/>
       <c r="M37" s="52"/>
       <c r="N37" s="52"/>
       <c r="O37" s="48"/>
       <c r="P37" s="48"/>
-      <c r="Q37" s="22"/>
-    </row>
-    <row r="38" spans="1:18" s="17" customFormat="1" ht="26.1" customHeight="1" thickTop="1">
-      <c r="B38" s="227" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="93" t="s">
-        <v>39</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="E38" s="155" t="s">
-        <v>284</v>
-      </c>
-      <c r="F38" s="152" t="s">
-        <v>285</v>
-      </c>
-      <c r="G38" s="204" t="s">
-        <v>286</v>
-      </c>
-      <c r="H38" s="21" t="s">
-        <v>342</v>
-      </c>
-      <c r="J38" s="229" t="s">
-        <v>12</v>
-      </c>
-      <c r="K38" s="52"/>
-      <c r="L38" s="16"/>
+      <c r="Q37" s="48"/>
+      <c r="R37" s="22"/>
+    </row>
+    <row r="38" spans="1:18" s="17" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B38" s="200"/>
+      <c r="C38" s="168"/>
+      <c r="D38" s="144" t="s">
+        <v>185</v>
+      </c>
+      <c r="E38" s="138" t="s">
+        <v>320</v>
+      </c>
+      <c r="F38" s="144" t="s">
+        <v>321</v>
+      </c>
+      <c r="G38" s="109" t="s">
+        <v>322</v>
+      </c>
+      <c r="H38" s="24" t="s">
+        <v>323</v>
+      </c>
+      <c r="J38" s="207"/>
+      <c r="K38" s="66"/>
+      <c r="L38" s="30"/>
       <c r="M38" s="52"/>
       <c r="N38" s="52"/>
       <c r="O38" s="48"/>
@@ -7663,86 +7472,81 @@
       <c r="R38" s="22"/>
     </row>
     <row r="39" spans="1:18" s="17" customFormat="1" ht="26.1" customHeight="1">
-      <c r="A39" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" s="222"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="146" t="s">
-        <v>287</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="F39" s="145" t="s">
-        <v>329</v>
-      </c>
-      <c r="G39" s="145" t="s">
-        <v>330</v>
-      </c>
-      <c r="H39" s="146" t="s">
-        <v>331</v>
-      </c>
-      <c r="J39" s="229"/>
-      <c r="K39" s="66"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="52"/>
+      <c r="B39" s="200"/>
+      <c r="C39" s="168"/>
+      <c r="D39" s="144" t="s">
+        <v>167</v>
+      </c>
+      <c r="E39" s="144" t="s">
+        <v>225</v>
+      </c>
+      <c r="F39" s="144" t="s">
+        <v>324</v>
+      </c>
+      <c r="G39" s="109" t="s">
+        <v>325</v>
+      </c>
+      <c r="H39" s="144" t="s">
+        <v>326</v>
+      </c>
+      <c r="J39" s="207"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="66"/>
       <c r="N39" s="52"/>
-      <c r="O39" s="48"/>
-      <c r="P39" s="48"/>
-      <c r="Q39" s="48"/>
-      <c r="R39" s="22"/>
-    </row>
-    <row r="40" spans="1:18" s="17" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B40" s="222"/>
-      <c r="C40" s="172"/>
-      <c r="D40" s="145" t="s">
-        <v>231</v>
-      </c>
-      <c r="E40" s="145" t="s">
-        <v>288</v>
-      </c>
-      <c r="F40" s="145" t="s">
-        <v>235</v>
+      <c r="O39" s="45"/>
+      <c r="P39" s="45"/>
+      <c r="Q39" s="45"/>
+      <c r="R39" s="26"/>
+    </row>
+    <row r="40" spans="1:18" ht="26.1" customHeight="1">
+      <c r="B40" s="200"/>
+      <c r="C40" s="168"/>
+      <c r="D40" s="144" t="s">
+        <v>225</v>
+      </c>
+      <c r="E40" s="144" t="s">
+        <v>327</v>
+      </c>
+      <c r="F40" s="144" t="s">
+        <v>230</v>
       </c>
       <c r="G40" s="145" t="s">
-        <v>289</v>
-      </c>
-      <c r="H40" s="109" t="s">
-        <v>232</v>
-      </c>
-      <c r="J40" s="229"/>
-      <c r="K40" s="66"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="52"/>
+        <v>149</v>
+      </c>
+      <c r="H40" s="144" t="s">
+        <v>225</v>
+      </c>
+      <c r="J40" s="207"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="66"/>
       <c r="N40" s="52"/>
-      <c r="O40" s="48"/>
-      <c r="P40" s="48"/>
-      <c r="Q40" s="48"/>
-      <c r="R40" s="22"/>
-    </row>
-    <row r="41" spans="1:18" s="17" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B41" s="222"/>
-      <c r="C41" s="172"/>
-      <c r="D41" s="145" t="s">
-        <v>290</v>
-      </c>
-      <c r="E41" s="145" t="s">
-        <v>291</v>
-      </c>
-      <c r="F41" s="145" t="s">
-        <v>166</v>
-      </c>
-      <c r="G41" s="109" t="s">
-        <v>236</v>
-      </c>
-      <c r="H41" s="109" t="s">
-        <v>71</v>
-      </c>
-      <c r="J41" s="229"/>
-      <c r="K41" s="30"/>
+      <c r="O40" s="45"/>
+      <c r="P40" s="45"/>
+      <c r="Q40" s="45"/>
+      <c r="R40" s="26"/>
+    </row>
+    <row r="41" spans="1:18" ht="26.1" customHeight="1">
+      <c r="B41" s="200"/>
+      <c r="C41" s="168"/>
+      <c r="D41" s="144" t="s">
+        <v>227</v>
+      </c>
+      <c r="E41" s="144"/>
+      <c r="F41" s="144" t="s">
+        <v>227</v>
+      </c>
+      <c r="G41" s="144" t="s">
+        <v>227</v>
+      </c>
+      <c r="H41" s="144" t="s">
+        <v>227</v>
+      </c>
+      <c r="J41" s="207"/>
+      <c r="K41" s="52"/>
       <c r="L41" s="8"/>
-      <c r="M41" s="66"/>
+      <c r="M41" s="30"/>
       <c r="N41" s="52"/>
       <c r="O41" s="45"/>
       <c r="P41" s="45"/>
@@ -7750,446 +7554,436 @@
       <c r="R41" s="26"/>
     </row>
     <row r="42" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B42" s="222"/>
-      <c r="C42" s="172"/>
-      <c r="D42" s="145" t="s">
-        <v>227</v>
-      </c>
-      <c r="E42" s="145" t="s">
-        <v>227</v>
-      </c>
-      <c r="F42" s="145" t="s">
-        <v>227</v>
-      </c>
-      <c r="G42" s="146" t="s">
-        <v>149</v>
-      </c>
-      <c r="H42" s="146" t="s">
-        <v>227</v>
-      </c>
-      <c r="J42" s="229"/>
+      <c r="B42" s="200"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="142">
+        <v>932</v>
+      </c>
+      <c r="E42" s="142">
+        <v>1311</v>
+      </c>
+      <c r="F42" s="142">
+        <v>1107</v>
+      </c>
+      <c r="G42" s="142">
+        <v>983</v>
+      </c>
+      <c r="H42" s="142">
+        <v>897</v>
+      </c>
+      <c r="J42" s="207"/>
       <c r="K42" s="52"/>
       <c r="L42" s="8"/>
-      <c r="M42" s="66"/>
+      <c r="M42" s="8"/>
       <c r="N42" s="52"/>
-      <c r="O42" s="45"/>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="45"/>
-      <c r="R42" s="26"/>
+      <c r="R42" s="22"/>
     </row>
     <row r="43" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B43" s="222"/>
-      <c r="C43" s="172"/>
-      <c r="D43" s="145" t="s">
-        <v>238</v>
-      </c>
-      <c r="E43" s="145"/>
-      <c r="F43" s="145" t="s">
-        <v>238</v>
-      </c>
-      <c r="G43" s="145" t="s">
-        <v>238</v>
-      </c>
-      <c r="H43" s="145" t="s">
-        <v>238</v>
-      </c>
-      <c r="J43" s="229"/>
-      <c r="K43" s="52"/>
+      <c r="B43" s="200"/>
+      <c r="C43" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="175" t="s">
+        <v>328</v>
+      </c>
+      <c r="E43" s="175" t="s">
+        <v>329</v>
+      </c>
+      <c r="F43" s="175" t="s">
+        <v>330</v>
+      </c>
+      <c r="G43" s="175" t="s">
+        <v>331</v>
+      </c>
+      <c r="H43" s="175" t="s">
+        <v>332</v>
+      </c>
+      <c r="J43" s="207"/>
+      <c r="K43" s="66"/>
       <c r="L43" s="8"/>
-      <c r="M43" s="30"/>
+      <c r="M43" s="8"/>
       <c r="N43" s="52"/>
-      <c r="O43" s="45"/>
-      <c r="P43" s="45"/>
-      <c r="Q43" s="45"/>
-      <c r="R43" s="26"/>
+      <c r="R43" s="22"/>
     </row>
     <row r="44" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B44" s="222"/>
-      <c r="C44" s="86"/>
-      <c r="D44" s="143">
-        <v>1004</v>
-      </c>
-      <c r="E44" s="143">
-        <v>1110</v>
-      </c>
-      <c r="F44" s="143">
-        <v>1333</v>
-      </c>
-      <c r="G44" s="143">
-        <v>1142</v>
-      </c>
-      <c r="H44" s="143">
-        <v>1036</v>
-      </c>
-      <c r="J44" s="229"/>
-      <c r="K44" s="52"/>
-      <c r="L44" s="8"/>
+      <c r="B44" s="200"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="176" t="s">
+        <v>333</v>
+      </c>
+      <c r="E44" s="176" t="s">
+        <v>334</v>
+      </c>
+      <c r="F44" s="176" t="s">
+        <v>335</v>
+      </c>
+      <c r="G44" s="176" t="s">
+        <v>336</v>
+      </c>
+      <c r="H44" s="176" t="s">
+        <v>337</v>
+      </c>
+      <c r="J44" s="207"/>
+      <c r="K44" s="66"/>
+      <c r="L44" s="21"/>
       <c r="M44" s="8"/>
       <c r="N44" s="52"/>
       <c r="R44" s="22"/>
     </row>
     <row r="45" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B45" s="222"/>
-      <c r="C45" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="152" t="s">
-        <v>292</v>
-      </c>
-      <c r="E45" s="189" t="s">
-        <v>293</v>
-      </c>
-      <c r="F45" s="189" t="s">
-        <v>294</v>
-      </c>
-      <c r="G45" s="205" t="s">
-        <v>295</v>
-      </c>
-      <c r="H45" s="152"/>
-      <c r="J45" s="229"/>
-      <c r="K45" s="66"/>
-      <c r="L45" s="8"/>
+      <c r="B45" s="200"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="173" t="s">
+        <v>233</v>
+      </c>
+      <c r="E45" s="173" t="s">
+        <v>233</v>
+      </c>
+      <c r="F45" s="173" t="s">
+        <v>233</v>
+      </c>
+      <c r="G45" s="176" t="s">
+        <v>338</v>
+      </c>
+      <c r="H45" s="173" t="s">
+        <v>233</v>
+      </c>
+      <c r="J45" s="207"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="24"/>
       <c r="M45" s="8"/>
       <c r="N45" s="52"/>
       <c r="R45" s="22"/>
     </row>
     <row r="46" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B46" s="222"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="193" t="s">
-        <v>296</v>
-      </c>
-      <c r="E46" s="206" t="s">
-        <v>297</v>
-      </c>
-      <c r="F46" s="207" t="s">
-        <v>298</v>
-      </c>
-      <c r="G46" s="193" t="s">
-        <v>299</v>
-      </c>
-      <c r="H46" s="195"/>
-      <c r="J46" s="229"/>
-      <c r="K46" s="66"/>
-      <c r="L46" s="21"/>
+      <c r="B46" s="200"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="176" t="s">
+        <v>339</v>
+      </c>
+      <c r="E46" s="176" t="s">
+        <v>340</v>
+      </c>
+      <c r="F46" s="176" t="s">
+        <v>341</v>
+      </c>
+      <c r="G46" s="173" t="s">
+        <v>233</v>
+      </c>
+      <c r="H46" s="176" t="s">
+        <v>236</v>
+      </c>
+      <c r="J46" s="207"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="24"/>
       <c r="M46" s="8"/>
       <c r="N46" s="52"/>
       <c r="R46" s="22"/>
     </row>
-    <row r="47" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B47" s="222"/>
+    <row r="47" spans="1:18" s="51" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B47" s="200"/>
       <c r="C47" s="20"/>
-      <c r="D47" s="208" t="s">
-        <v>300</v>
-      </c>
-      <c r="E47" s="194" t="s">
-        <v>300</v>
-      </c>
-      <c r="F47" s="209" t="s">
-        <v>300</v>
-      </c>
-      <c r="G47" s="208" t="s">
-        <v>300</v>
-      </c>
-      <c r="H47" s="196"/>
-      <c r="J47" s="229"/>
-      <c r="K47" s="30"/>
+      <c r="D47" s="176" t="s">
+        <v>342</v>
+      </c>
+      <c r="E47" s="176" t="s">
+        <v>343</v>
+      </c>
+      <c r="F47" s="176" t="s">
+        <v>344</v>
+      </c>
+      <c r="G47" s="176" t="s">
+        <v>345</v>
+      </c>
+      <c r="H47" s="176" t="s">
+        <v>346</v>
+      </c>
+      <c r="J47" s="207"/>
+      <c r="K47" s="8"/>
       <c r="L47" s="24"/>
       <c r="M47" s="8"/>
       <c r="N47" s="52"/>
+      <c r="O47" s="48"/>
+      <c r="P47" s="48"/>
+      <c r="Q47" s="48"/>
       <c r="R47" s="22"/>
     </row>
     <row r="48" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B48" s="222"/>
+      <c r="B48" s="200"/>
       <c r="C48" s="20"/>
-      <c r="D48" s="210" t="s">
-        <v>301</v>
-      </c>
-      <c r="E48" s="206" t="s">
-        <v>301</v>
-      </c>
-      <c r="F48" s="206" t="s">
-        <v>302</v>
-      </c>
-      <c r="G48" s="210" t="s">
-        <v>303</v>
-      </c>
-      <c r="H48" s="190"/>
-      <c r="J48" s="229"/>
+      <c r="D48" s="181" t="s">
+        <v>347</v>
+      </c>
+      <c r="E48" s="177" t="s">
+        <v>348</v>
+      </c>
+      <c r="F48" s="177" t="s">
+        <v>357</v>
+      </c>
+      <c r="G48" s="177" t="s">
+        <v>349</v>
+      </c>
+      <c r="H48" s="177" t="s">
+        <v>350</v>
+      </c>
+      <c r="J48" s="207"/>
       <c r="K48" s="8"/>
       <c r="L48" s="24"/>
-      <c r="M48" s="8"/>
+      <c r="M48" s="52"/>
       <c r="N48" s="52"/>
       <c r="R48" s="22"/>
     </row>
-    <row r="49" spans="2:18" s="51" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B49" s="222"/>
+    <row r="49" spans="2:18" ht="26.1" customHeight="1">
+      <c r="B49" s="200"/>
       <c r="C49" s="20"/>
-      <c r="D49" s="210" t="s">
-        <v>226</v>
-      </c>
-      <c r="E49" s="206" t="s">
-        <v>304</v>
-      </c>
-      <c r="F49" s="206" t="s">
-        <v>305</v>
-      </c>
-      <c r="G49" s="210" t="s">
-        <v>306</v>
-      </c>
-      <c r="H49" s="190"/>
-      <c r="J49" s="229"/>
+      <c r="D49" s="181" t="s">
+        <v>149</v>
+      </c>
+      <c r="E49" s="177" t="s">
+        <v>230</v>
+      </c>
+      <c r="F49" s="177" t="s">
+        <v>225</v>
+      </c>
+      <c r="G49" s="177" t="s">
+        <v>149</v>
+      </c>
+      <c r="H49" s="177" t="s">
+        <v>149</v>
+      </c>
+      <c r="J49" s="207"/>
       <c r="K49" s="8"/>
       <c r="L49" s="24"/>
-      <c r="M49" s="8"/>
+      <c r="M49" s="52"/>
       <c r="N49" s="52"/>
-      <c r="O49" s="48"/>
-      <c r="P49" s="48"/>
-      <c r="Q49" s="48"/>
       <c r="R49" s="22"/>
     </row>
     <row r="50" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B50" s="222"/>
+      <c r="B50" s="200"/>
       <c r="C50" s="20"/>
-      <c r="D50" s="211" t="s">
-        <v>332</v>
-      </c>
-      <c r="E50" s="212" t="s">
-        <v>67</v>
-      </c>
-      <c r="F50" s="187" t="s">
-        <v>333</v>
-      </c>
-      <c r="G50" s="211" t="s">
-        <v>334</v>
-      </c>
-      <c r="H50" s="145"/>
-      <c r="J50" s="229"/>
+      <c r="D50" s="177" t="s">
+        <v>351</v>
+      </c>
+      <c r="E50" s="177" t="s">
+        <v>352</v>
+      </c>
+      <c r="F50" s="177" t="s">
+        <v>353</v>
+      </c>
+      <c r="G50" s="177" t="s">
+        <v>237</v>
+      </c>
+      <c r="H50" s="189" t="s">
+        <v>354</v>
+      </c>
+      <c r="J50" s="207"/>
       <c r="K50" s="8"/>
-      <c r="L50" s="24"/>
+      <c r="L50" s="30"/>
       <c r="M50" s="52"/>
       <c r="N50" s="52"/>
       <c r="R50" s="22"/>
     </row>
     <row r="51" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B51" s="222"/>
+      <c r="B51" s="200"/>
       <c r="C51" s="20"/>
-      <c r="D51" s="211" t="s">
-        <v>227</v>
-      </c>
-      <c r="E51" s="211" t="s">
-        <v>149</v>
-      </c>
-      <c r="F51" s="187" t="s">
-        <v>237</v>
-      </c>
-      <c r="G51" s="211" t="s">
-        <v>149</v>
-      </c>
-      <c r="H51" s="145"/>
-      <c r="J51" s="229"/>
+      <c r="D51" s="142">
+        <v>1074</v>
+      </c>
+      <c r="E51" s="142">
+        <v>949</v>
+      </c>
+      <c r="F51" s="142">
+        <v>852</v>
+      </c>
+      <c r="G51" s="142">
+        <v>1186</v>
+      </c>
+      <c r="H51" s="142">
+        <v>940</v>
+      </c>
+      <c r="J51" s="17"/>
       <c r="K51" s="8"/>
-      <c r="L51" s="24"/>
+      <c r="L51" s="30"/>
       <c r="M51" s="52"/>
       <c r="N51" s="52"/>
       <c r="R51" s="22"/>
     </row>
-    <row r="52" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B52" s="222"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="211" t="s">
-        <v>307</v>
-      </c>
-      <c r="E52" s="211" t="s">
-        <v>308</v>
-      </c>
-      <c r="F52" s="213" t="s">
-        <v>309</v>
-      </c>
-      <c r="G52" s="211" t="s">
-        <v>230</v>
-      </c>
-      <c r="H52" s="145"/>
-      <c r="J52" s="229"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="30"/>
+    <row r="52" spans="2:18" ht="25.5" customHeight="1">
+      <c r="B52" s="200"/>
+      <c r="C52" s="208" t="s">
+        <v>215</v>
+      </c>
+      <c r="D52" s="171" t="s">
+        <v>53</v>
+      </c>
+      <c r="E52" s="171" t="s">
+        <v>53</v>
+      </c>
+      <c r="F52" s="171" t="s">
+        <v>53</v>
+      </c>
+      <c r="G52" s="171" t="s">
+        <v>53</v>
+      </c>
+      <c r="H52" s="171" t="s">
+        <v>53</v>
+      </c>
+      <c r="K52" s="52"/>
+      <c r="L52" s="8"/>
       <c r="M52" s="52"/>
       <c r="N52" s="52"/>
       <c r="R52" s="22"/>
     </row>
-    <row r="53" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B53" s="222"/>
-      <c r="C53" s="110"/>
-      <c r="D53" s="143">
-        <v>778</v>
-      </c>
-      <c r="E53" s="143">
-        <v>702</v>
-      </c>
-      <c r="F53" s="143">
-        <v>1177</v>
-      </c>
-      <c r="G53" s="143">
-        <v>817</v>
-      </c>
-      <c r="H53" s="143"/>
-      <c r="J53" s="229"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="30"/>
+    <row r="53" spans="2:18" s="57" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
+      <c r="B53" s="206"/>
+      <c r="C53" s="209"/>
+      <c r="D53" s="148" t="str">
+        <f>D28</f>
+        <v>오리엔탈&amp;요거트D</v>
+      </c>
+      <c r="E53" s="148" t="str">
+        <f>E27</f>
+        <v>발사믹&amp;자몽D</v>
+      </c>
+      <c r="F53" s="148" t="str">
+        <f>F28</f>
+        <v>오리엔탈&amp;딸기요거트D</v>
+      </c>
+      <c r="G53" s="172" t="str">
+        <f>G28</f>
+        <v>발사믹&amp;한라봉D</v>
+      </c>
+      <c r="H53" s="182" t="str">
+        <f>H28</f>
+        <v>오리엔탈&amp;사우전아일랜드D</v>
+      </c>
+      <c r="J53" s="210" t="s">
+        <v>1</v>
+      </c>
+      <c r="K53" s="52"/>
+      <c r="L53" s="8"/>
       <c r="M53" s="52"/>
-      <c r="N53" s="52"/>
+      <c r="N53" s="48"/>
+      <c r="O53" s="48"/>
+      <c r="P53" s="48"/>
+      <c r="Q53" s="48"/>
       <c r="R53" s="22"/>
     </row>
-    <row r="54" spans="2:18" ht="25.5" customHeight="1">
-      <c r="B54" s="222"/>
-      <c r="C54" s="230" t="s">
-        <v>215</v>
-      </c>
-      <c r="D54" s="185" t="s">
-        <v>225</v>
-      </c>
-      <c r="E54" s="113" t="s">
-        <v>53</v>
-      </c>
-      <c r="F54" s="113" t="s">
-        <v>53</v>
-      </c>
-      <c r="G54" s="113" t="s">
-        <v>53</v>
-      </c>
-      <c r="H54" s="113" t="s">
-        <v>53</v>
-      </c>
-      <c r="K54" s="52"/>
+    <row r="54" spans="2:18" s="57" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B54" s="10"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="J54" s="210"/>
+      <c r="K54" s="59"/>
       <c r="L54" s="8"/>
       <c r="M54" s="52"/>
-      <c r="N54" s="52"/>
-      <c r="R54" s="22"/>
-    </row>
-    <row r="55" spans="2:18" s="57" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B55" s="228"/>
-      <c r="C55" s="231"/>
-      <c r="D55" s="186" t="str">
-        <f>D30</f>
-        <v>오리엔탈D&amp;망고D</v>
-      </c>
-      <c r="E55" s="149" t="str">
-        <f>E29</f>
-        <v>발사믹D&amp;참깨D</v>
-      </c>
-      <c r="F55" s="149" t="str">
-        <f>F30</f>
-        <v>오리엔탈D&amp;블루베리D</v>
-      </c>
-      <c r="G55" s="188" t="str">
-        <f>G30</f>
-        <v>발사믹D&amp;파인애플D</v>
-      </c>
-      <c r="H55" s="192" t="str">
-        <f>H30</f>
-        <v>오리엔탈D&amp;딸기D</v>
-      </c>
-      <c r="J55" s="232" t="s">
-        <v>1</v>
-      </c>
-      <c r="K55" s="52"/>
-      <c r="L55" s="8"/>
+      <c r="N54" s="48"/>
+      <c r="O54" s="48"/>
+      <c r="P54" s="48"/>
+      <c r="Q54" s="48"/>
+      <c r="R54" s="2"/>
+    </row>
+    <row r="55" spans="2:18" ht="24" customHeight="1">
+      <c r="B55" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" s="46"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
       <c r="M55" s="52"/>
-      <c r="N55" s="48"/>
-      <c r="O55" s="48"/>
-      <c r="P55" s="48"/>
-      <c r="Q55" s="48"/>
-      <c r="R55" s="22"/>
-    </row>
-    <row r="56" spans="2:18" s="57" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B56" s="10"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24"/>
-      <c r="J56" s="232"/>
-      <c r="K56" s="59"/>
-      <c r="L56" s="8"/>
+      <c r="N55" s="55"/>
+    </row>
+    <row r="56" spans="2:18" ht="14.25" customHeight="1">
+      <c r="B56" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="57"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="134"/>
+      <c r="K56" s="52"/>
+      <c r="L56" s="16"/>
       <c r="M56" s="52"/>
-      <c r="N56" s="48"/>
-      <c r="O56" s="48"/>
-      <c r="P56" s="48"/>
-      <c r="Q56" s="48"/>
-      <c r="R56" s="2"/>
-    </row>
-    <row r="57" spans="2:18" ht="24" customHeight="1">
-      <c r="B57" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="C57" s="46"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="32"/>
-      <c r="K57" s="16"/>
+      <c r="N56" s="55"/>
+    </row>
+    <row r="57" spans="2:18" ht="24.95" customHeight="1">
+      <c r="D57" s="134"/>
+      <c r="E57" s="134"/>
+      <c r="F57" s="135"/>
+      <c r="G57" s="134"/>
+      <c r="H57" s="214"/>
+      <c r="K57" s="52"/>
       <c r="L57" s="16"/>
       <c r="M57" s="52"/>
-      <c r="N57" s="55"/>
-    </row>
-    <row r="58" spans="2:18" ht="14.25" customHeight="1">
-      <c r="B58" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="C58" s="57"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="55"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="134"/>
-      <c r="K58" s="52"/>
-      <c r="L58" s="16"/>
+    </row>
+    <row r="58" spans="2:18" ht="24.95" customHeight="1">
+      <c r="D58" s="105"/>
+      <c r="E58" s="105"/>
+      <c r="F58" s="136"/>
+      <c r="G58" s="105"/>
+      <c r="H58" s="214"/>
+      <c r="K58" s="25"/>
+      <c r="L58" s="25"/>
       <c r="M58" s="52"/>
-      <c r="N58" s="55"/>
     </row>
     <row r="59" spans="2:18" ht="24.95" customHeight="1">
-      <c r="D59" s="134"/>
-      <c r="E59" s="134"/>
-      <c r="F59" s="135"/>
-      <c r="G59" s="134"/>
-      <c r="H59" s="236"/>
-      <c r="K59" s="52"/>
-      <c r="L59" s="16"/>
+      <c r="B59" s="52"/>
+      <c r="C59" s="52"/>
+      <c r="D59" s="105"/>
+      <c r="E59" s="105"/>
+      <c r="F59" s="136"/>
+      <c r="G59" s="105"/>
+      <c r="H59" s="105"/>
+      <c r="K59" s="25"/>
+      <c r="L59" s="52"/>
       <c r="M59" s="52"/>
     </row>
     <row r="60" spans="2:18" ht="24.95" customHeight="1">
-      <c r="D60" s="105"/>
-      <c r="E60" s="105"/>
-      <c r="F60" s="136"/>
-      <c r="G60" s="105"/>
-      <c r="H60" s="236"/>
-      <c r="K60" s="25"/>
-      <c r="L60" s="25"/>
-      <c r="M60" s="52"/>
+      <c r="B60" s="109"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="K60" s="16"/>
     </row>
     <row r="61" spans="2:18" ht="24.95" customHeight="1">
-      <c r="B61" s="52"/>
-      <c r="C61" s="52"/>
-      <c r="D61" s="105"/>
-      <c r="E61" s="105"/>
-      <c r="F61" s="136"/>
-      <c r="G61" s="105"/>
-      <c r="H61" s="105"/>
-      <c r="K61" s="25"/>
-      <c r="L61" s="52"/>
-      <c r="M61" s="52"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="24"/>
+      <c r="K61" s="16"/>
     </row>
     <row r="62" spans="2:18" ht="24.95" customHeight="1">
-      <c r="B62" s="109"/>
+      <c r="B62" s="24"/>
       <c r="C62" s="24"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
       <c r="F62" s="24"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="21"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
       <c r="K62" s="16"/>
+      <c r="L62" s="55"/>
+      <c r="M62" s="55"/>
+      <c r="O62" s="55"/>
+      <c r="P62" s="55"/>
+      <c r="Q62" s="55"/>
+      <c r="R62" s="58"/>
     </row>
     <row r="63" spans="2:18" ht="24.95" customHeight="1">
       <c r="B63" s="24"/>
@@ -8198,253 +7992,233 @@
       <c r="E63" s="24"/>
       <c r="F63" s="24"/>
       <c r="G63" s="24"/>
-      <c r="H63" s="24"/>
+      <c r="H63" s="21"/>
       <c r="K63" s="16"/>
+      <c r="L63" s="55"/>
+      <c r="M63" s="55"/>
+      <c r="O63" s="55"/>
+      <c r="P63" s="55"/>
+      <c r="Q63" s="55"/>
+      <c r="R63" s="58"/>
     </row>
     <row r="64" spans="2:18" ht="24.95" customHeight="1">
       <c r="B64" s="24"/>
       <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
+      <c r="D64" s="85"/>
       <c r="E64" s="24"/>
       <c r="F64" s="24"/>
       <c r="G64" s="24"/>
       <c r="H64" s="24"/>
       <c r="K64" s="16"/>
-      <c r="L64" s="55"/>
-      <c r="M64" s="55"/>
-      <c r="O64" s="55"/>
-      <c r="P64" s="55"/>
-      <c r="Q64" s="55"/>
-      <c r="R64" s="58"/>
-    </row>
-    <row r="65" spans="2:18" ht="24.95" customHeight="1">
+    </row>
+    <row r="65" spans="2:11" ht="24.95" customHeight="1">
       <c r="B65" s="24"/>
       <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
+      <c r="D65" s="85"/>
       <c r="E65" s="24"/>
       <c r="F65" s="24"/>
       <c r="G65" s="24"/>
-      <c r="H65" s="21"/>
+      <c r="H65" s="24"/>
       <c r="K65" s="16"/>
-      <c r="L65" s="55"/>
-      <c r="M65" s="55"/>
-      <c r="O65" s="55"/>
-      <c r="P65" s="55"/>
-      <c r="Q65" s="55"/>
-      <c r="R65" s="58"/>
-    </row>
-    <row r="66" spans="2:18" ht="24.95" customHeight="1">
+    </row>
+    <row r="66" spans="2:11" ht="24.95" customHeight="1">
       <c r="B66" s="24"/>
       <c r="C66" s="24"/>
       <c r="D66" s="85"/>
-      <c r="E66" s="24"/>
+      <c r="E66" s="85"/>
       <c r="F66" s="24"/>
-      <c r="G66" s="24"/>
+      <c r="G66" s="102"/>
       <c r="H66" s="24"/>
       <c r="K66" s="16"/>
     </row>
-    <row r="67" spans="2:18" ht="24.95" customHeight="1">
+    <row r="67" spans="2:11" ht="24.95" customHeight="1">
       <c r="B67" s="24"/>
       <c r="C67" s="24"/>
-      <c r="D67" s="85"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="24"/>
-      <c r="H67" s="24"/>
-      <c r="K67" s="16"/>
-    </row>
-    <row r="68" spans="2:18" ht="24.95" customHeight="1">
+      <c r="D67" s="21"/>
+      <c r="E67" s="95"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="102"/>
+      <c r="H67" s="21"/>
+      <c r="K67" s="25"/>
+    </row>
+    <row r="68" spans="2:11" ht="18">
       <c r="B68" s="24"/>
       <c r="C68" s="24"/>
-      <c r="D68" s="85"/>
-      <c r="E68" s="85"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="102"/>
-      <c r="H68" s="24"/>
+      <c r="D68" s="109"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="113"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="109"/>
       <c r="K68" s="16"/>
     </row>
-    <row r="69" spans="2:18" ht="24.95" customHeight="1">
-      <c r="B69" s="24"/>
+    <row r="69" spans="2:11" ht="18">
+      <c r="B69" s="48"/>
       <c r="C69" s="24"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="95"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="102"/>
-      <c r="H69" s="21"/>
-      <c r="K69" s="25"/>
-    </row>
-    <row r="70" spans="2:18" ht="18">
-      <c r="B70" s="24"/>
+      <c r="D69" s="113"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="85"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="85"/>
+      <c r="K69" s="16"/>
+    </row>
+    <row r="70" spans="2:11" ht="18">
+      <c r="B70" s="48"/>
       <c r="C70" s="24"/>
       <c r="D70" s="109"/>
       <c r="E70" s="24"/>
-      <c r="F70" s="113"/>
+      <c r="F70" s="85"/>
       <c r="G70" s="24"/>
-      <c r="H70" s="109"/>
+      <c r="H70" s="85"/>
       <c r="K70" s="16"/>
     </row>
-    <row r="71" spans="2:18" ht="18">
+    <row r="71" spans="2:11" ht="18">
       <c r="B71" s="48"/>
       <c r="C71" s="24"/>
-      <c r="D71" s="113"/>
+      <c r="D71" s="85"/>
       <c r="E71" s="24"/>
       <c r="F71" s="85"/>
       <c r="G71" s="24"/>
       <c r="H71" s="85"/>
       <c r="K71" s="16"/>
     </row>
-    <row r="72" spans="2:18" ht="18">
+    <row r="72" spans="2:11" ht="18">
       <c r="B72" s="48"/>
-      <c r="C72" s="24"/>
-      <c r="D72" s="109"/>
+      <c r="C72" s="48"/>
+      <c r="D72" s="32"/>
       <c r="E72" s="24"/>
       <c r="F72" s="85"/>
       <c r="G72" s="24"/>
       <c r="H72" s="85"/>
       <c r="K72" s="16"/>
     </row>
-    <row r="73" spans="2:18" ht="18">
+    <row r="73" spans="2:11" ht="18">
       <c r="B73" s="48"/>
-      <c r="C73" s="24"/>
-      <c r="D73" s="85"/>
-      <c r="E73" s="24"/>
-      <c r="F73" s="85"/>
-      <c r="G73" s="24"/>
+      <c r="C73" s="48"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="85"/>
+      <c r="F73" s="48"/>
+      <c r="G73" s="32"/>
       <c r="H73" s="85"/>
-      <c r="K73" s="16"/>
-    </row>
-    <row r="74" spans="2:18" ht="18">
+      <c r="K73" s="63"/>
+    </row>
+    <row r="74" spans="2:11" ht="18">
       <c r="B74" s="48"/>
       <c r="C74" s="48"/>
       <c r="D74" s="32"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="85"/>
-      <c r="G74" s="24"/>
-      <c r="H74" s="85"/>
-      <c r="K74" s="16"/>
-    </row>
-    <row r="75" spans="2:18" ht="18">
+      <c r="E74" s="32"/>
+      <c r="F74" s="48"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="24"/>
+      <c r="K74" s="25"/>
+    </row>
+    <row r="75" spans="2:11" ht="18">
       <c r="B75" s="48"/>
       <c r="C75" s="48"/>
       <c r="D75" s="32"/>
-      <c r="E75" s="85"/>
+      <c r="E75" s="32"/>
       <c r="F75" s="48"/>
       <c r="G75" s="32"/>
-      <c r="H75" s="85"/>
-      <c r="K75" s="63"/>
-    </row>
-    <row r="76" spans="2:18" ht="18">
-      <c r="B76" s="48"/>
-      <c r="C76" s="48"/>
+      <c r="H75" s="24"/>
+      <c r="K75" s="16"/>
+    </row>
+    <row r="76" spans="2:11" ht="18">
       <c r="D76" s="32"/>
       <c r="E76" s="32"/>
       <c r="F76" s="48"/>
       <c r="G76" s="32"/>
       <c r="H76" s="24"/>
-      <c r="K76" s="25"/>
-    </row>
-    <row r="77" spans="2:18" ht="18">
-      <c r="B77" s="48"/>
-      <c r="C77" s="48"/>
-      <c r="D77" s="32"/>
-      <c r="E77" s="32"/>
-      <c r="F77" s="48"/>
-      <c r="G77" s="32"/>
-      <c r="H77" s="24"/>
-      <c r="K77" s="16"/>
-    </row>
-    <row r="78" spans="2:18" ht="18">
-      <c r="D78" s="32"/>
-      <c r="E78" s="32"/>
-      <c r="F78" s="48"/>
-      <c r="G78" s="32"/>
-      <c r="H78" s="24"/>
+      <c r="K76" s="16"/>
+    </row>
+    <row r="77" spans="2:11">
+      <c r="G77" s="105"/>
+      <c r="K77" s="25"/>
+    </row>
+    <row r="78" spans="2:11">
       <c r="K78" s="16"/>
     </row>
-    <row r="79" spans="2:18">
-      <c r="G79" s="105"/>
-      <c r="K79" s="25"/>
-    </row>
-    <row r="80" spans="2:18">
-      <c r="K80" s="16"/>
+    <row r="79" spans="2:11">
+      <c r="K79" s="64"/>
+    </row>
+    <row r="80" spans="2:11">
+      <c r="K80" s="8"/>
     </row>
     <row r="81" spans="11:11">
-      <c r="K81" s="64"/>
+      <c r="K81" s="8"/>
     </row>
     <row r="82" spans="11:11">
       <c r="K82" s="8"/>
     </row>
     <row r="83" spans="11:11">
-      <c r="K83" s="8"/>
+      <c r="K83" s="62"/>
     </row>
     <row r="84" spans="11:11">
-      <c r="K84" s="8"/>
+      <c r="K84" s="65"/>
     </row>
     <row r="85" spans="11:11">
-      <c r="K85" s="62"/>
+      <c r="K85" s="65"/>
     </row>
     <row r="86" spans="11:11">
-      <c r="K86" s="65"/>
+      <c r="K86" s="25"/>
     </row>
     <row r="87" spans="11:11">
-      <c r="K87" s="65"/>
+      <c r="K87" s="8"/>
     </row>
     <row r="88" spans="11:11">
-      <c r="K88" s="25"/>
+      <c r="K88" s="64"/>
     </row>
     <row r="89" spans="11:11">
       <c r="K89" s="8"/>
     </row>
     <row r="90" spans="11:11">
-      <c r="K90" s="64"/>
+      <c r="K90" s="8"/>
     </row>
     <row r="91" spans="11:11">
       <c r="K91" s="8"/>
     </row>
     <row r="92" spans="11:11">
-      <c r="K92" s="8"/>
+      <c r="K92" s="62"/>
     </row>
     <row r="93" spans="11:11">
-      <c r="K93" s="8"/>
+      <c r="K93" s="65"/>
     </row>
     <row r="94" spans="11:11">
-      <c r="K94" s="62"/>
+      <c r="K94" s="65"/>
     </row>
     <row r="95" spans="11:11">
-      <c r="K95" s="65"/>
+      <c r="K95" s="25"/>
     </row>
     <row r="96" spans="11:11">
-      <c r="K96" s="65"/>
+      <c r="K96" s="16"/>
     </row>
     <row r="97" spans="11:11">
-      <c r="K97" s="25"/>
+      <c r="K97" s="16"/>
     </row>
     <row r="98" spans="11:11">
-      <c r="K98" s="16"/>
+      <c r="K98" s="8"/>
     </row>
     <row r="99" spans="11:11">
-      <c r="K99" s="16"/>
+      <c r="K99" s="8"/>
     </row>
     <row r="100" spans="11:11">
-      <c r="K100" s="8"/>
+      <c r="K100" s="16"/>
     </row>
     <row r="101" spans="11:11">
-      <c r="K101" s="8"/>
+      <c r="K101" s="62"/>
     </row>
     <row r="102" spans="11:11">
-      <c r="K102" s="16"/>
+      <c r="K102" s="63"/>
     </row>
     <row r="103" spans="11:11">
-      <c r="K103" s="62"/>
+      <c r="K103" s="63"/>
     </row>
     <row r="104" spans="11:11">
-      <c r="K104" s="63"/>
+      <c r="K104" s="32"/>
     </row>
     <row r="105" spans="11:11">
-      <c r="K105" s="63"/>
+      <c r="K105" s="16"/>
     </row>
     <row r="106" spans="11:11">
-      <c r="K106" s="32"/>
+      <c r="K106" s="16"/>
     </row>
     <row r="107" spans="11:11">
       <c r="K107" s="16"/>
@@ -8455,37 +8229,30 @@
     <row r="109" spans="11:11">
       <c r="K109" s="16"/>
     </row>
-    <row r="110" spans="11:11">
-      <c r="K110" s="16"/>
-    </row>
-    <row r="111" spans="11:11">
-      <c r="K111" s="16"/>
-    </row>
-    <row r="862" spans="2:2">
-      <c r="B862" s="114" t="s">
+    <row r="860" spans="2:2">
+      <c r="B860" s="114" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="10">
     <mergeCell ref="J2:J3"/>
-    <mergeCell ref="J5:J30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="J31:J34"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="B6:B36"/>
-    <mergeCell ref="J38:J53"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="B38:B55"/>
-    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="J5:J28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="J29:J32"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="B6:B34"/>
+    <mergeCell ref="J36:J50"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="B36:B53"/>
+    <mergeCell ref="H57:H58"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="52" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="53" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="58" max="16383" man="1"/>
+    <brk id="56" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -8499,7 +8266,7 @@
   <dimension ref="A1:V84"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="96" workbookViewId="0">
-      <selection activeCell="R45" sqref="R45"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" customHeight="1"/>
@@ -8527,7 +8294,7 @@
     <row r="1" spans="2:19" ht="12.75" customHeight="1"/>
     <row r="5" spans="2:19" s="17" customFormat="1" ht="24.75" customHeight="1">
       <c r="B5" s="73" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="74"/>
@@ -8563,37 +8330,37 @@
       <c r="F8" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="156" t="s">
+      <c r="G8" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="159" t="s">
+      <c r="H8" s="155" t="s">
         <v>25</v>
       </c>
       <c r="I8" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="156" t="s">
+      <c r="J8" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="159" t="s">
+      <c r="K8" s="155" t="s">
         <v>26</v>
       </c>
       <c r="L8" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="156" t="s">
+      <c r="M8" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="N8" s="159" t="s">
+      <c r="N8" s="155" t="s">
         <v>27</v>
       </c>
       <c r="O8" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="P8" s="156" t="s">
+      <c r="P8" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="Q8" s="159" t="s">
+      <c r="Q8" s="155" t="s">
         <v>28</v>
       </c>
       <c r="R8" s="78" t="s">
@@ -8604,1919 +8371,2029 @@
       </c>
     </row>
     <row r="9" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B9" s="265" t="s">
+      <c r="B9" s="237" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="277" t="s">
+      <c r="C9" s="249" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="271" t="s">
+      <c r="D9" s="243" t="s">
         <v>216</v>
       </c>
       <c r="E9" s="87" t="str">
         <f>주간메뉴표!D6</f>
-        <v>사골떡만둣국</v>
+        <v>나주곰탕*당면사리</v>
       </c>
       <c r="F9" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G9" s="239">
+      <c r="G9" s="215">
         <f>주간메뉴표!D12</f>
-        <v>1151</v>
-      </c>
-      <c r="H9" s="160" t="str">
+        <v>808</v>
+      </c>
+      <c r="H9" s="156" t="str">
         <f>주간메뉴표!E6</f>
-        <v>두부마늘보쌈</v>
-      </c>
-      <c r="I9" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="J9" s="239">
+        <v>철판석갈비</v>
+      </c>
+      <c r="I9" s="79"/>
+      <c r="J9" s="215">
         <f>주간메뉴표!E12</f>
-        <v>1257</v>
-      </c>
-      <c r="K9" s="160" t="str">
+        <v>1319</v>
+      </c>
+      <c r="K9" s="156" t="str">
         <f>주간메뉴표!F6</f>
-        <v>쇠고기콩나물밥</v>
+        <v>돼지고기김치찌개</v>
       </c>
       <c r="L9" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M9" s="239">
+      <c r="M9" s="215">
         <f>주간메뉴표!F12</f>
-        <v>1120</v>
-      </c>
-      <c r="N9" s="160" t="str">
+        <v>1155</v>
+      </c>
+      <c r="N9" s="156" t="str">
         <f>주간메뉴표!G6</f>
-        <v>[Fun!629]_1&amp;2코너</v>
-      </c>
-      <c r="O9" s="79"/>
-      <c r="P9" s="242">
+        <v>대파육개장</v>
+      </c>
+      <c r="O9" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="P9" s="218">
         <f>주간메뉴표!G12</f>
-        <v>1371</v>
-      </c>
-      <c r="Q9" s="169" t="str">
+        <v>1051</v>
+      </c>
+      <c r="Q9" s="165" t="str">
         <f>주간메뉴표!H6</f>
-        <v>전주식비빔밥</v>
+        <v>시래기매운돼지찜</v>
       </c>
       <c r="R9" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="S9" s="252">
+      <c r="S9" s="227">
         <f>주간메뉴표!H12</f>
-        <v>1052</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="10" spans="2:19" s="17" customFormat="1" ht="19.5" customHeight="1">
-      <c r="B10" s="266"/>
-      <c r="C10" s="278"/>
-      <c r="D10" s="272"/>
+      <c r="B10" s="238"/>
+      <c r="C10" s="250"/>
+      <c r="D10" s="244"/>
       <c r="E10" s="88" t="str">
         <f>주간메뉴표!D7</f>
-        <v>모듬전</v>
+        <v>해물파전</v>
       </c>
       <c r="F10" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G10" s="240"/>
-      <c r="H10" s="161" t="str">
+      <c r="G10" s="216"/>
+      <c r="H10" s="157" t="str">
         <f>주간메뉴표!E7</f>
-        <v>영양밥*양념장</v>
-      </c>
-      <c r="I10" s="79"/>
-      <c r="J10" s="240"/>
-      <c r="K10" s="161" t="str">
+        <v>┗돈LA갈비*목살양념구이</v>
+      </c>
+      <c r="I10" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="J10" s="216"/>
+      <c r="K10" s="157" t="str">
         <f>주간메뉴표!F7</f>
-        <v>(뚝)참치김치찌개</v>
+        <v>계란찜</v>
       </c>
       <c r="L10" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M10" s="240"/>
-      <c r="N10" s="161" t="str">
+      <c r="M10" s="216"/>
+      <c r="N10" s="157" t="str">
         <f>주간메뉴표!G7</f>
-        <v>일식철판돈가스</v>
+        <v>고기경단조림</v>
       </c>
       <c r="O10" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P10" s="243"/>
-      <c r="Q10" s="161" t="str">
+      <c r="P10" s="219"/>
+      <c r="Q10" s="157" t="str">
         <f>주간메뉴표!H7</f>
-        <v>미역장국</v>
+        <v>옥수수전</v>
       </c>
       <c r="R10" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="S10" s="258"/>
+      <c r="S10" s="233"/>
     </row>
     <row r="11" spans="2:19" s="17" customFormat="1" ht="19.5" customHeight="1">
-      <c r="B11" s="266"/>
-      <c r="C11" s="278"/>
-      <c r="D11" s="272"/>
+      <c r="B11" s="238"/>
+      <c r="C11" s="250"/>
+      <c r="D11" s="244"/>
       <c r="E11" s="88" t="str">
         <f>주간메뉴표!D8</f>
-        <v>양파고추간장절임</v>
+        <v>호박버섯볶음</v>
       </c>
       <c r="F11" s="79"/>
-      <c r="G11" s="240"/>
-      <c r="H11" s="161" t="str">
+      <c r="G11" s="216"/>
+      <c r="H11" s="157" t="str">
         <f>주간메뉴표!E8</f>
-        <v>모듬채소전</v>
+        <v>취나물밥*양념장</v>
       </c>
       <c r="I11" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="J11" s="240"/>
-      <c r="K11" s="161" t="str">
+      <c r="J11" s="216"/>
+      <c r="K11" s="157" t="str">
         <f>주간메뉴표!F8</f>
-        <v>치킨너겟/어묵볶음</v>
+        <v>시래기된장조림</v>
       </c>
       <c r="L11" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M11" s="240"/>
-      <c r="N11" s="161" t="str">
+      <c r="M11" s="216"/>
+      <c r="N11" s="157" t="str">
         <f>주간메뉴표!G8</f>
-        <v>두부장국</v>
+        <v>햄맛살마요샐러드</v>
       </c>
       <c r="O11" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P11" s="243"/>
-      <c r="Q11" s="161" t="str">
+      <c r="P11" s="219"/>
+      <c r="Q11" s="157" t="str">
         <f>주간메뉴표!H8</f>
-        <v>고기경단조림</v>
+        <v>잔멸치견과류조림</v>
       </c>
       <c r="R11" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="S11" s="258"/>
+      <c r="S11" s="233"/>
     </row>
     <row r="12" spans="2:19" s="17" customFormat="1" ht="35.25" customHeight="1">
-      <c r="B12" s="266"/>
-      <c r="C12" s="278"/>
-      <c r="D12" s="272"/>
+      <c r="B12" s="238"/>
+      <c r="C12" s="250"/>
+      <c r="D12" s="244"/>
       <c r="E12" s="88" t="str">
         <f>주간메뉴표!D9</f>
-        <v>오징어젓무침</v>
-      </c>
-      <c r="F12" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="G12" s="240"/>
-      <c r="H12" s="161" t="str">
+        <v>콩나물무침</v>
+      </c>
+      <c r="F12" s="79"/>
+      <c r="G12" s="216"/>
+      <c r="H12" s="157" t="str">
         <f>주간메뉴표!E9</f>
-        <v>냉이된장국</v>
+        <v>쌈무/명이나물</v>
       </c>
       <c r="I12" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="J12" s="240"/>
-      <c r="K12" s="161" t="str">
+      <c r="J12" s="216"/>
+      <c r="K12" s="157" t="str">
         <f>주간메뉴표!F9</f>
-        <v>알감자조림</v>
+        <v>파래자반볶음</v>
       </c>
       <c r="L12" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M12" s="240"/>
-      <c r="N12" s="161" t="str">
+      <c r="M12" s="216"/>
+      <c r="N12" s="157" t="str">
         <f>주간메뉴표!G9</f>
+        <v>콩자반</v>
+      </c>
+      <c r="O12" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="P12" s="219"/>
+      <c r="Q12" s="157" t="str">
+        <f>주간메뉴표!H9</f>
         <v>깍두기</v>
       </c>
-      <c r="O12" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="P12" s="243"/>
-      <c r="Q12" s="161" t="str">
-        <f>주간메뉴표!H9</f>
-        <v>마카로니샐러드</v>
-      </c>
       <c r="R12" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="S12" s="258"/>
+      <c r="S12" s="233"/>
     </row>
     <row r="13" spans="2:19" s="27" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B13" s="266"/>
-      <c r="C13" s="278"/>
-      <c r="D13" s="272"/>
+      <c r="B13" s="238"/>
+      <c r="C13" s="250"/>
+      <c r="D13" s="244"/>
       <c r="E13" s="88" t="str">
         <f>주간메뉴표!D10</f>
-        <v>포기김치/잡곡밥</v>
+        <v>깍두기/잡곡밥</v>
       </c>
       <c r="F13" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G13" s="240"/>
-      <c r="H13" s="161" t="str">
+      <c r="G13" s="216"/>
+      <c r="H13" s="157" t="str">
         <f>주간메뉴표!E10</f>
-        <v>배추겉절이</v>
+        <v>포기김치/시금치된장국</v>
       </c>
       <c r="I13" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="J13" s="240"/>
-      <c r="K13" s="161" t="str">
+      <c r="J13" s="216"/>
+      <c r="K13" s="157" t="str">
         <f>주간메뉴표!F10</f>
-        <v>열무김치</v>
+        <v>깍두기/잡곡밥</v>
       </c>
       <c r="L13" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M13" s="240"/>
-      <c r="N13" s="161" t="str">
+      <c r="M13" s="216"/>
+      <c r="N13" s="157" t="str">
         <f>주간메뉴표!G10</f>
+        <v>깍두기/잡곡밥</v>
+      </c>
+      <c r="O13" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="P13" s="219"/>
+      <c r="Q13" s="157" t="str">
+        <f>주간메뉴표!H10</f>
         <v>잡곡밥</v>
       </c>
-      <c r="O13" s="79"/>
-      <c r="P13" s="243"/>
-      <c r="Q13" s="161" t="str">
-        <f>주간메뉴표!H10</f>
-        <v>마늘쫑지/포기김치</v>
-      </c>
-      <c r="R13" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="S13" s="258"/>
+      <c r="R13" s="79"/>
+      <c r="S13" s="233"/>
     </row>
     <row r="14" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B14" s="266"/>
-      <c r="C14" s="284"/>
-      <c r="D14" s="273"/>
+      <c r="B14" s="238"/>
+      <c r="C14" s="256"/>
+      <c r="D14" s="245"/>
       <c r="E14" s="88" t="str">
         <f>주간메뉴표!D11</f>
         <v>그린샐러드</v>
       </c>
       <c r="F14" s="79"/>
-      <c r="G14" s="241"/>
-      <c r="H14" s="161" t="str">
+      <c r="G14" s="217"/>
+      <c r="H14" s="157" t="str">
         <f>주간메뉴표!E11</f>
         <v>그린샐러드</v>
       </c>
       <c r="I14" s="79"/>
-      <c r="J14" s="241"/>
-      <c r="K14" s="161" t="str">
+      <c r="J14" s="217"/>
+      <c r="K14" s="157" t="str">
         <f>주간메뉴표!F11</f>
         <v>그린샐러드</v>
       </c>
       <c r="L14" s="79"/>
-      <c r="M14" s="241"/>
-      <c r="N14" s="161" t="str">
+      <c r="M14" s="217"/>
+      <c r="N14" s="157" t="str">
         <f>주간메뉴표!G11</f>
         <v>그린샐러드</v>
       </c>
       <c r="O14" s="79"/>
-      <c r="P14" s="244"/>
-      <c r="Q14" s="161" t="str">
+      <c r="P14" s="220"/>
+      <c r="Q14" s="157" t="str">
         <f>주간메뉴표!H11</f>
         <v>그린샐러드</v>
       </c>
       <c r="R14" s="79"/>
-      <c r="S14" s="253"/>
+      <c r="S14" s="228"/>
     </row>
     <row r="15" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B15" s="266"/>
-      <c r="C15" s="285" t="s">
+      <c r="B15" s="238"/>
+      <c r="C15" s="257" t="s">
         <v>217</v>
       </c>
-      <c r="D15" s="271" t="s">
+      <c r="D15" s="243" t="s">
         <v>32</v>
       </c>
       <c r="E15" s="87" t="str">
         <f>주간메뉴표!D13</f>
-        <v>Spicy 토리동_일본가정식st</v>
+        <v>얼큰김치우동</v>
       </c>
       <c r="F15" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G15" s="239">
-        <f>주간메뉴표!D19</f>
-        <v>908</v>
-      </c>
-      <c r="H15" s="162" t="str">
+      <c r="G15" s="215">
+        <f>주간메뉴표!D18</f>
+        <v>797</v>
+      </c>
+      <c r="H15" s="158" t="str">
         <f>주간메뉴표!E13</f>
-        <v>홍왕갈비쌀국수</v>
+        <v>카가와카레라이스</v>
       </c>
       <c r="I15" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="J15" s="239">
-        <f>주간메뉴표!E19</f>
-        <v>1130</v>
-      </c>
-      <c r="K15" s="169" t="str">
+      <c r="J15" s="215">
+        <f>주간메뉴표!E18</f>
+        <v>830</v>
+      </c>
+      <c r="K15" s="165" t="str">
         <f>주간메뉴표!F13</f>
-        <v>간자장*후라이</v>
+        <v>들기름메밀막국수</v>
       </c>
       <c r="L15" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M15" s="239">
-        <f>주간메뉴표!F19</f>
-        <v>1182</v>
-      </c>
-      <c r="N15" s="160" t="str">
+      <c r="M15" s="215">
+        <f>주간메뉴표!F18</f>
+        <v>890</v>
+      </c>
+      <c r="N15" s="156" t="str">
         <f>주간메뉴표!G13</f>
-        <v>물쫄면(온면)</v>
+        <v>N우삼겹비빔국수</v>
       </c>
       <c r="O15" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P15" s="239">
-        <f>주간메뉴표!G19</f>
-        <v>964</v>
-      </c>
-      <c r="Q15" s="174"/>
-      <c r="R15" s="175"/>
-      <c r="S15" s="259"/>
+      <c r="P15" s="215">
+        <f>주간메뉴표!G18</f>
+        <v>1058</v>
+      </c>
+      <c r="Q15" s="159" t="str">
+        <f>주간메뉴표!H13</f>
+        <v>나가사끼라멘</v>
+      </c>
+      <c r="R15" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="S15" s="259">
+        <f>주간메뉴표!H18</f>
+        <v>859</v>
+      </c>
     </row>
     <row r="16" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B16" s="266"/>
-      <c r="C16" s="278"/>
-      <c r="D16" s="272"/>
+      <c r="B16" s="238"/>
+      <c r="C16" s="250"/>
+      <c r="D16" s="244"/>
       <c r="E16" s="88" t="str">
         <f>주간메뉴표!D14</f>
-        <v>유부장국</v>
+        <v>마늘닭강정</v>
       </c>
       <c r="F16" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G16" s="240"/>
-      <c r="H16" s="161" t="str">
+      <c r="G16" s="216"/>
+      <c r="H16" s="157" t="str">
         <f>주간메뉴표!E14</f>
-        <v>닭봉구이&amp;해물짜조</v>
+        <v>콘샐러드</v>
       </c>
       <c r="I16" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="J16" s="240"/>
-      <c r="K16" s="161" t="str">
+      <c r="J16" s="216"/>
+      <c r="K16" s="157" t="str">
         <f>주간메뉴표!F14</f>
-        <v>짬뽕국물</v>
+        <v>매운족발</v>
       </c>
       <c r="L16" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M16" s="240"/>
-      <c r="N16" s="161" t="str">
+      <c r="M16" s="216"/>
+      <c r="N16" s="157" t="str">
         <f>주간메뉴표!G14</f>
-        <v>충무김밥&amp;오징어숙회무침</v>
+        <v>치킨커틀렛*소스</v>
       </c>
       <c r="O16" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P16" s="240"/>
-      <c r="Q16" s="174"/>
-      <c r="R16" s="175"/>
+      <c r="P16" s="216"/>
+      <c r="Q16" s="159" t="str">
+        <f>주간메뉴표!H14</f>
+        <v>깐풍기</v>
+      </c>
+      <c r="R16" s="79" t="s">
+        <v>220</v>
+      </c>
       <c r="S16" s="260"/>
     </row>
     <row r="17" spans="1:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B17" s="266"/>
-      <c r="C17" s="278"/>
-      <c r="D17" s="272"/>
+      <c r="B17" s="238"/>
+      <c r="C17" s="250"/>
+      <c r="D17" s="244"/>
       <c r="E17" s="88" t="str">
         <f>주간메뉴표!D15</f>
-        <v>김구이</v>
-      </c>
-      <c r="F17" s="79"/>
-      <c r="G17" s="240"/>
-      <c r="H17" s="161" t="str">
+        <v>단무지</v>
+      </c>
+      <c r="F17" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="G17" s="216"/>
+      <c r="H17" s="157" t="str">
         <f>주간메뉴표!E15</f>
-        <v>양파초절임</v>
-      </c>
-      <c r="I17" s="79"/>
-      <c r="J17" s="240"/>
-      <c r="K17" s="161" t="str">
+        <v>깍두기</v>
+      </c>
+      <c r="I17" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="J17" s="216"/>
+      <c r="K17" s="157" t="str">
         <f>주간메뉴표!F15</f>
-        <v>깐풍기</v>
+        <v>열무김치</v>
       </c>
       <c r="L17" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M17" s="240"/>
-      <c r="N17" s="161" t="str">
+      <c r="M17" s="216"/>
+      <c r="N17" s="157" t="str">
         <f>주간메뉴표!G15</f>
+        <v>배추겉절이</v>
+      </c>
+      <c r="O17" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="P17" s="216"/>
+      <c r="Q17" s="159" t="str">
+        <f>주간메뉴표!H15</f>
         <v>단무지</v>
       </c>
-      <c r="O17" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="P17" s="240"/>
-      <c r="Q17" s="174"/>
-      <c r="R17" s="175"/>
+      <c r="R17" s="79" t="s">
+        <v>220</v>
+      </c>
       <c r="S17" s="260"/>
     </row>
     <row r="18" spans="1:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B18" s="266"/>
-      <c r="C18" s="278"/>
-      <c r="D18" s="272"/>
+      <c r="B18" s="238"/>
+      <c r="C18" s="250"/>
+      <c r="D18" s="244"/>
       <c r="E18" s="88" t="str">
         <f>주간메뉴표!D16</f>
-        <v>오렌지</v>
-      </c>
-      <c r="F18" s="79"/>
-      <c r="G18" s="240"/>
-      <c r="H18" s="161" t="str">
+        <v>열무김치</v>
+      </c>
+      <c r="F18" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="G18" s="216"/>
+      <c r="H18" s="157" t="str">
         <f>주간메뉴표!E16</f>
-        <v>그린샐러드</v>
-      </c>
-      <c r="I18" s="79"/>
-      <c r="J18" s="240"/>
-      <c r="K18" s="161" t="str">
+        <v>일식장국</v>
+      </c>
+      <c r="I18" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="J18" s="216"/>
+      <c r="K18" s="157" t="str">
         <f>주간메뉴표!F16</f>
-        <v>단무지</v>
+        <v>두부장국</v>
       </c>
       <c r="L18" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M18" s="240"/>
-      <c r="N18" s="161" t="str">
+      <c r="M18" s="216"/>
+      <c r="N18" s="157" t="str">
         <f>주간메뉴표!G16</f>
-        <v>배추겉절이</v>
-      </c>
-      <c r="O18" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="P18" s="240"/>
-      <c r="Q18" s="174"/>
-      <c r="R18" s="175"/>
+        <v>멸치육수</v>
+      </c>
+      <c r="O18" s="79"/>
+      <c r="P18" s="216"/>
+      <c r="Q18" s="159" t="str">
+        <f>주간메뉴표!H16</f>
+        <v>배추김치</v>
+      </c>
+      <c r="R18" s="79" t="s">
+        <v>220</v>
+      </c>
       <c r="S18" s="260"/>
     </row>
     <row r="19" spans="1:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B19" s="266"/>
-      <c r="C19" s="278"/>
-      <c r="D19" s="272"/>
+      <c r="B19" s="238"/>
+      <c r="C19" s="250"/>
+      <c r="D19" s="244"/>
       <c r="E19" s="88" t="str">
         <f>주간메뉴표!D17</f>
-        <v>백김치</v>
-      </c>
-      <c r="F19" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="G19" s="240"/>
-      <c r="H19" s="161">
+        <v>그린샐러드</v>
+      </c>
+      <c r="F19" s="79"/>
+      <c r="G19" s="216"/>
+      <c r="H19" s="157" t="str">
         <f>주간메뉴표!E17</f>
-        <v>0</v>
+        <v>그린샐러드</v>
       </c>
       <c r="I19" s="79"/>
-      <c r="J19" s="240"/>
-      <c r="K19" s="161" t="str">
+      <c r="J19" s="216"/>
+      <c r="K19" s="157" t="str">
         <f>주간메뉴표!F17</f>
-        <v>배추김치</v>
-      </c>
-      <c r="L19" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="M19" s="240"/>
-      <c r="N19" s="161" t="str">
+        <v>그린샐러드</v>
+      </c>
+      <c r="L19" s="79"/>
+      <c r="M19" s="216"/>
+      <c r="N19" s="157" t="str">
         <f>주간메뉴표!G17</f>
         <v>그린샐러드</v>
       </c>
       <c r="O19" s="79"/>
-      <c r="P19" s="240"/>
-      <c r="Q19" s="174"/>
-      <c r="R19" s="175"/>
+      <c r="P19" s="216"/>
+      <c r="Q19" s="159" t="str">
+        <f>주간메뉴표!H17</f>
+        <v>그린샐러드</v>
+      </c>
+      <c r="R19" s="258"/>
       <c r="S19" s="260"/>
     </row>
     <row r="20" spans="1:19" s="27" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B20" s="266"/>
-      <c r="C20" s="278"/>
-      <c r="D20" s="272"/>
-      <c r="E20" s="88" t="str">
-        <f>주간메뉴표!D18</f>
-        <v>그린샐러드</v>
+      <c r="B20" s="238"/>
+      <c r="C20" s="250"/>
+      <c r="D20" s="244"/>
+      <c r="E20" s="88" t="e">
+        <f>주간메뉴표!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F20" s="79"/>
-      <c r="G20" s="240"/>
-      <c r="H20" s="161">
-        <f>주간메뉴표!E18</f>
-        <v>0</v>
+      <c r="G20" s="216"/>
+      <c r="H20" s="157" t="e">
+        <f>주간메뉴표!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="I20" s="79"/>
-      <c r="J20" s="240"/>
-      <c r="K20" s="161" t="str">
-        <f>주간메뉴표!F18</f>
-        <v>그린샐러드</v>
+      <c r="J20" s="216"/>
+      <c r="K20" s="157" t="e">
+        <f>주간메뉴표!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="L20" s="79"/>
-      <c r="M20" s="240"/>
-      <c r="N20" s="161">
-        <f>주간메뉴표!G18</f>
-        <v>0</v>
+      <c r="M20" s="216"/>
+      <c r="N20" s="157" t="e">
+        <f>주간메뉴표!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="O20" s="79"/>
-      <c r="P20" s="240"/>
-      <c r="Q20" s="174"/>
-      <c r="R20" s="175"/>
+      <c r="P20" s="216"/>
+      <c r="Q20" s="159"/>
+      <c r="R20" s="258"/>
       <c r="S20" s="260"/>
     </row>
     <row r="21" spans="1:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B21" s="266"/>
-      <c r="C21" s="277" t="s">
+      <c r="B21" s="238"/>
+      <c r="C21" s="249" t="s">
         <v>221</v>
       </c>
-      <c r="D21" s="271" t="s">
+      <c r="D21" s="243" t="s">
         <v>34</v>
       </c>
       <c r="E21" s="87" t="str">
+        <f>주간메뉴표!D19</f>
+        <v>일본가정식_Spicy토리동</v>
+      </c>
+      <c r="F21" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="G21" s="215">
+        <f>주간메뉴표!D25</f>
+        <v>1151</v>
+      </c>
+      <c r="H21" s="156" t="str">
+        <f>주간메뉴표!E19</f>
+        <v>즉석파송송계란탁라면</v>
+      </c>
+      <c r="I21" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="J21" s="253">
+        <f>주간메뉴표!E25</f>
+        <v>1153</v>
+      </c>
+      <c r="K21" s="156" t="str">
+        <f>주간메뉴표!F19</f>
+        <v>통인시장_엽전도시락ST</v>
+      </c>
+      <c r="L21" s="79"/>
+      <c r="M21" s="215">
+        <f>주간메뉴표!F25</f>
+        <v>1275</v>
+      </c>
+      <c r="N21" s="158" t="str">
+        <f>주간메뉴표!G19</f>
+        <v>중화잡채덮밥*계란후라이</v>
+      </c>
+      <c r="O21" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="P21" s="218">
+        <f>주간메뉴표!G25</f>
+        <v>1135</v>
+      </c>
+      <c r="Q21" s="166" t="str">
+        <f>주간메뉴표!H19</f>
+        <v>한그릇불낙철판볶음밥</v>
+      </c>
+      <c r="R21" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="S21" s="259">
+        <f>주간메뉴표!H25</f>
+        <v>911</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" s="17" customFormat="1" ht="33" customHeight="1">
+      <c r="B22" s="238"/>
+      <c r="C22" s="250"/>
+      <c r="D22" s="244"/>
+      <c r="E22" s="88" t="str">
         <f>주간메뉴표!D20</f>
-        <v>[웰그린데이]</v>
-      </c>
-      <c r="F21" s="79"/>
-      <c r="G21" s="239">
-        <f>주간메뉴표!D27</f>
-        <v>1170</v>
-      </c>
-      <c r="H21" s="160" t="str">
+        <v>고구마고로케*케찹</v>
+      </c>
+      <c r="F22" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="G22" s="216"/>
+      <c r="H22" s="159" t="str">
         <f>주간메뉴표!E20</f>
-        <v>일식스프카레&amp;장각구이</v>
-      </c>
-      <c r="I21" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="J21" s="281">
-        <f>주간메뉴표!E27</f>
-        <v>1143</v>
-      </c>
-      <c r="K21" s="160">
+        <v>&amp;반마리통닭오븐구이*파무침</v>
+      </c>
+      <c r="I22" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="J22" s="254"/>
+      <c r="K22" s="157" t="str">
         <f>주간메뉴표!F20</f>
-        <v>0</v>
-      </c>
-      <c r="L21" s="79"/>
-      <c r="M21" s="239">
-        <f>주간메뉴표!F27</f>
-        <v>868</v>
-      </c>
-      <c r="N21" s="162" t="str">
+        <v>기름떡볶이/마약김밥</v>
+      </c>
+      <c r="L22" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="M22" s="216"/>
+      <c r="N22" s="157" t="str">
         <f>주간메뉴표!G20</f>
-        <v>해물된장찌개</v>
-      </c>
-      <c r="O21" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="P21" s="242">
-        <f>주간메뉴표!G27</f>
-        <v>1101</v>
-      </c>
-      <c r="Q21" s="176"/>
-      <c r="R21" s="175"/>
-      <c r="S21" s="259"/>
-    </row>
-    <row r="22" spans="1:19" s="17" customFormat="1" ht="33" customHeight="1">
-      <c r="B22" s="266"/>
-      <c r="C22" s="278"/>
-      <c r="D22" s="272"/>
-      <c r="E22" s="88" t="str">
-        <f>주간메뉴표!D21</f>
-        <v>고사리들기름파스타</v>
-      </c>
-      <c r="F22" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="G22" s="240"/>
-      <c r="H22" s="163" t="str">
-        <f>주간메뉴표!E21</f>
-        <v>치즈밥</v>
-      </c>
-      <c r="I22" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="J22" s="282"/>
-      <c r="K22" s="161" t="str">
-        <f>주간메뉴표!F21</f>
-        <v>[시즌프로모션_겨울]</v>
-      </c>
-      <c r="L22" s="79"/>
-      <c r="M22" s="240"/>
-      <c r="N22" s="161" t="str">
-        <f>주간메뉴표!G21</f>
-        <v>쇠고기버섯잡채</v>
+        <v>물만두찜</v>
       </c>
       <c r="O22" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P22" s="243"/>
-      <c r="Q22" s="174"/>
-      <c r="R22" s="175"/>
+      <c r="P22" s="219"/>
+      <c r="Q22" s="159" t="str">
+        <f>주간메뉴표!H20</f>
+        <v>수제계란말이</v>
+      </c>
+      <c r="R22" s="79" t="s">
+        <v>220</v>
+      </c>
       <c r="S22" s="260"/>
     </row>
     <row r="23" spans="1:19" s="17" customFormat="1" ht="30" customHeight="1">
       <c r="A23" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="266"/>
-      <c r="C23" s="278"/>
-      <c r="D23" s="272"/>
+      <c r="B23" s="238"/>
+      <c r="C23" s="250"/>
+      <c r="D23" s="244"/>
       <c r="E23" s="88" t="str">
+        <f>주간메뉴표!D21</f>
+        <v>산고추&amp;락교</v>
+      </c>
+      <c r="F23" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="G23" s="216"/>
+      <c r="H23" s="159" t="str">
+        <f>주간메뉴표!E21</f>
+        <v>양배추샐러드*케요S</v>
+      </c>
+      <c r="I23" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="J23" s="254"/>
+      <c r="K23" s="157" t="str">
+        <f>주간메뉴표!F21</f>
+        <v>닭강정/곰돌이가츠</v>
+      </c>
+      <c r="L23" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="M23" s="216"/>
+      <c r="N23" s="157" t="str">
+        <f>주간메뉴표!G21</f>
+        <v>단무지</v>
+      </c>
+      <c r="O23" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="P23" s="219"/>
+      <c r="Q23" s="159" t="str">
+        <f>주간메뉴표!H21</f>
+        <v>열무김치</v>
+      </c>
+      <c r="R23" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="S23" s="260"/>
+    </row>
+    <row r="24" spans="1:19" s="17" customFormat="1" ht="28.5" customHeight="1">
+      <c r="B24" s="238"/>
+      <c r="C24" s="250"/>
+      <c r="D24" s="244"/>
+      <c r="E24" s="88" t="str">
         <f>주간메뉴표!D22</f>
-        <v>베지치킨&amp;베지오징어링튀김</v>
-      </c>
-      <c r="F23" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="G23" s="240"/>
-      <c r="H23" s="163" t="str">
+        <v>백김치</v>
+      </c>
+      <c r="F24" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="G24" s="216"/>
+      <c r="H24" s="159" t="str">
         <f>주간메뉴표!E22</f>
-        <v>에그타르트</v>
-      </c>
-      <c r="I23" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="J23" s="282"/>
-      <c r="K23" s="161" t="str">
+        <v>치킨무</v>
+      </c>
+      <c r="I24" s="79"/>
+      <c r="J24" s="254"/>
+      <c r="K24" s="157" t="str">
         <f>주간메뉴표!F22</f>
-        <v>빠에야(피홍합,피새우,오징어)</v>
-      </c>
-      <c r="L23" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="M23" s="240"/>
-      <c r="N23" s="161" t="str">
+        <v>채소잡채/어묵국</v>
+      </c>
+      <c r="L24" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="M24" s="216"/>
+      <c r="N24" s="157" t="str">
         <f>주간메뉴표!G22</f>
-        <v>비엔나소시지볶음</v>
-      </c>
-      <c r="O23" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="P23" s="243"/>
-      <c r="Q23" s="174"/>
-      <c r="R23" s="175"/>
-      <c r="S23" s="260"/>
-    </row>
-    <row r="24" spans="1:19" s="17" customFormat="1" ht="28.5" customHeight="1">
-      <c r="B24" s="266"/>
-      <c r="C24" s="278"/>
-      <c r="D24" s="272"/>
-      <c r="E24" s="88" t="str">
+        <v>포기김치</v>
+      </c>
+      <c r="O24" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="P24" s="219"/>
+      <c r="Q24" s="159" t="str">
+        <f>주간메뉴표!H22</f>
+        <v>감잣국</v>
+      </c>
+      <c r="R24" s="258"/>
+      <c r="S24" s="260"/>
+    </row>
+    <row r="25" spans="1:19" s="17" customFormat="1" ht="30.75" customHeight="1">
+      <c r="B25" s="238"/>
+      <c r="C25" s="250"/>
+      <c r="D25" s="244"/>
+      <c r="E25" s="88" t="str">
         <f>주간메뉴표!D23</f>
-        <v>무비트피클</v>
-      </c>
-      <c r="F24" s="79"/>
-      <c r="G24" s="240"/>
-      <c r="H24" s="163" t="str">
+        <v>미역장국</v>
+      </c>
+      <c r="F25" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="G25" s="216"/>
+      <c r="H25" s="159" t="str">
         <f>주간메뉴표!E23</f>
-        <v>락교&amp;초생강&amp;산고추절임</v>
-      </c>
-      <c r="I24" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="J24" s="282"/>
-      <c r="K24" s="161" t="str">
+        <v>배추김치</v>
+      </c>
+      <c r="I25" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="J25" s="254"/>
+      <c r="K25" s="157" t="str">
         <f>주간메뉴표!F23</f>
-        <v>채소크로켓</v>
-      </c>
-      <c r="L24" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="M24" s="240"/>
-      <c r="N24" s="161" t="str">
+        <v>포기김치</v>
+      </c>
+      <c r="L25" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="M25" s="216"/>
+      <c r="N25" s="157" t="str">
         <f>주간메뉴표!G23</f>
-        <v>땅콩조림</v>
-      </c>
-      <c r="O24" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="P24" s="243"/>
-      <c r="Q24" s="174"/>
-      <c r="R24" s="175"/>
-      <c r="S24" s="260"/>
-    </row>
-    <row r="25" spans="1:19" s="17" customFormat="1" ht="30.75" customHeight="1">
-      <c r="B25" s="266"/>
-      <c r="C25" s="278"/>
-      <c r="D25" s="272"/>
-      <c r="E25" s="88" t="str">
+        <v>짬뽕국</v>
+      </c>
+      <c r="O25" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="P25" s="219"/>
+      <c r="Q25" s="159" t="str">
+        <f>주간메뉴표!H23</f>
+        <v>그린샐러드</v>
+      </c>
+      <c r="R25" s="258"/>
+      <c r="S25" s="260"/>
+    </row>
+    <row r="26" spans="1:19" s="17" customFormat="1" ht="33.75" customHeight="1">
+      <c r="B26" s="238"/>
+      <c r="C26" s="250"/>
+      <c r="D26" s="244"/>
+      <c r="E26" s="88" t="str">
         <f>주간메뉴표!D24</f>
-        <v>탄산음료</v>
-      </c>
-      <c r="F25" s="79"/>
-      <c r="G25" s="240"/>
-      <c r="H25" s="163" t="str">
+        <v>그린샐러드</v>
+      </c>
+      <c r="F26" s="79"/>
+      <c r="G26" s="216"/>
+      <c r="H26" s="159" t="str">
         <f>주간메뉴표!E24</f>
         <v>그린샐러드</v>
       </c>
-      <c r="I25" s="79"/>
-      <c r="J25" s="282"/>
-      <c r="K25" s="161" t="str">
+      <c r="I26" s="79"/>
+      <c r="J26" s="254"/>
+      <c r="K26" s="157" t="str">
         <f>주간메뉴표!F24</f>
-        <v>무비트피클/탄산음료</v>
-      </c>
-      <c r="L25" s="79"/>
-      <c r="M25" s="240"/>
-      <c r="N25" s="161" t="str">
+        <v>그린샐러드</v>
+      </c>
+      <c r="L26" s="79"/>
+      <c r="M26" s="216"/>
+      <c r="N26" s="157" t="str">
         <f>주간메뉴표!G24</f>
-        <v>포기김치/잡곡밥</v>
-      </c>
-      <c r="O25" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="P25" s="243"/>
-      <c r="Q25" s="174"/>
-      <c r="R25" s="175"/>
-      <c r="S25" s="260"/>
-    </row>
-    <row r="26" spans="1:19" s="17" customFormat="1" ht="33.75" customHeight="1">
-      <c r="B26" s="266"/>
-      <c r="C26" s="278"/>
-      <c r="D26" s="272"/>
-      <c r="E26" s="88" t="str">
-        <f>주간메뉴표!D25</f>
         <v>그린샐러드</v>
       </c>
-      <c r="F26" s="79"/>
-      <c r="G26" s="240"/>
-      <c r="H26" s="163">
-        <f>주간메뉴표!E25</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="79"/>
-      <c r="J26" s="282"/>
-      <c r="K26" s="161" t="str">
-        <f>주간메뉴표!F25</f>
-        <v>그린샐러드</v>
-      </c>
-      <c r="L26" s="79"/>
-      <c r="M26" s="240"/>
-      <c r="N26" s="161" t="str">
-        <f>주간메뉴표!G25</f>
-        <v>그린샐러드</v>
-      </c>
       <c r="O26" s="79"/>
-      <c r="P26" s="243"/>
-      <c r="Q26" s="174"/>
-      <c r="R26" s="175"/>
+      <c r="P26" s="219"/>
+      <c r="Q26" s="159"/>
+      <c r="R26" s="258"/>
       <c r="S26" s="260"/>
     </row>
     <row r="27" spans="1:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B27" s="266"/>
-      <c r="C27" s="284"/>
-      <c r="D27" s="273"/>
+      <c r="B27" s="238"/>
+      <c r="C27" s="256"/>
+      <c r="D27" s="245"/>
       <c r="E27" s="88" t="e">
         <f>주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="F27" s="79"/>
-      <c r="G27" s="241"/>
-      <c r="H27" s="163" t="e">
+      <c r="G27" s="217"/>
+      <c r="H27" s="159" t="e">
         <f>주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="I27" s="79"/>
-      <c r="J27" s="283"/>
-      <c r="K27" s="161" t="e">
+      <c r="J27" s="255"/>
+      <c r="K27" s="157" t="e">
         <f>주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="L27" s="79"/>
-      <c r="M27" s="241"/>
-      <c r="N27" s="161" t="e">
+      <c r="M27" s="217"/>
+      <c r="N27" s="157" t="e">
         <f>주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="O27" s="79"/>
-      <c r="P27" s="244"/>
-      <c r="Q27" s="174"/>
-      <c r="R27" s="175"/>
+      <c r="P27" s="220"/>
+      <c r="Q27" s="159"/>
+      <c r="R27" s="258"/>
       <c r="S27" s="261"/>
     </row>
     <row r="28" spans="1:19" s="44" customFormat="1" ht="20.25" hidden="1" customHeight="1">
-      <c r="B28" s="266"/>
-      <c r="C28" s="147"/>
-      <c r="D28" s="271"/>
+      <c r="B28" s="238"/>
+      <c r="C28" s="146"/>
+      <c r="D28" s="243"/>
       <c r="E28" s="82"/>
       <c r="F28" s="79"/>
-      <c r="G28" s="239" t="e">
+      <c r="G28" s="215" t="e">
         <f>주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="H28" s="164"/>
+      <c r="H28" s="160"/>
       <c r="I28" s="79"/>
-      <c r="J28" s="239" t="e">
+      <c r="J28" s="215" t="e">
         <f>주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K28" s="160"/>
+      <c r="K28" s="156"/>
       <c r="L28" s="79"/>
-      <c r="M28" s="239"/>
-      <c r="N28" s="164"/>
+      <c r="M28" s="215"/>
+      <c r="N28" s="160"/>
       <c r="O28" s="79"/>
-      <c r="P28" s="242"/>
-      <c r="Q28" s="168" t="e">
+      <c r="P28" s="218"/>
+      <c r="Q28" s="164" t="e">
         <f>주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="R28" s="79"/>
-      <c r="S28" s="252"/>
+      <c r="S28" s="227"/>
     </row>
     <row r="29" spans="1:19" s="17" customFormat="1" ht="20.25" hidden="1" customHeight="1">
-      <c r="B29" s="266"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="272"/>
+      <c r="B29" s="238"/>
+      <c r="C29" s="146"/>
+      <c r="D29" s="244"/>
       <c r="E29" s="89"/>
       <c r="F29" s="79"/>
-      <c r="G29" s="240"/>
-      <c r="H29" s="165"/>
+      <c r="G29" s="216"/>
+      <c r="H29" s="161"/>
       <c r="I29" s="79"/>
-      <c r="J29" s="240"/>
-      <c r="K29" s="161"/>
+      <c r="J29" s="216"/>
+      <c r="K29" s="157"/>
       <c r="L29" s="79"/>
-      <c r="M29" s="240"/>
-      <c r="N29" s="165"/>
+      <c r="M29" s="216"/>
+      <c r="N29" s="161"/>
       <c r="O29" s="79"/>
-      <c r="P29" s="243"/>
-      <c r="Q29" s="165" t="e">
+      <c r="P29" s="219"/>
+      <c r="Q29" s="161" t="e">
         <f>주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="R29" s="79"/>
-      <c r="S29" s="258"/>
+      <c r="S29" s="233"/>
     </row>
     <row r="30" spans="1:19" s="17" customFormat="1" ht="20.25" hidden="1" customHeight="1">
-      <c r="B30" s="266"/>
-      <c r="C30" s="147"/>
-      <c r="D30" s="272"/>
+      <c r="B30" s="238"/>
+      <c r="C30" s="146"/>
+      <c r="D30" s="244"/>
       <c r="E30" s="89"/>
       <c r="F30" s="79"/>
-      <c r="G30" s="240"/>
-      <c r="H30" s="165"/>
+      <c r="G30" s="216"/>
+      <c r="H30" s="161"/>
       <c r="I30" s="79"/>
-      <c r="J30" s="240"/>
-      <c r="K30" s="161"/>
+      <c r="J30" s="216"/>
+      <c r="K30" s="157"/>
       <c r="L30" s="79"/>
-      <c r="M30" s="240"/>
-      <c r="N30" s="165"/>
+      <c r="M30" s="216"/>
+      <c r="N30" s="161"/>
       <c r="O30" s="79"/>
-      <c r="P30" s="243"/>
-      <c r="Q30" s="165" t="e">
+      <c r="P30" s="219"/>
+      <c r="Q30" s="161" t="e">
         <f>주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="R30" s="79"/>
-      <c r="S30" s="258"/>
+      <c r="S30" s="233"/>
     </row>
     <row r="31" spans="1:19" s="17" customFormat="1" ht="20.25" hidden="1" customHeight="1">
-      <c r="B31" s="266"/>
-      <c r="C31" s="147"/>
-      <c r="D31" s="272"/>
+      <c r="B31" s="238"/>
+      <c r="C31" s="146"/>
+      <c r="D31" s="244"/>
       <c r="E31" s="89"/>
       <c r="F31" s="79"/>
-      <c r="G31" s="240"/>
-      <c r="H31" s="165"/>
+      <c r="G31" s="216"/>
+      <c r="H31" s="161"/>
       <c r="I31" s="79"/>
-      <c r="J31" s="240"/>
-      <c r="K31" s="161"/>
+      <c r="J31" s="216"/>
+      <c r="K31" s="157"/>
       <c r="L31" s="79"/>
-      <c r="M31" s="240"/>
-      <c r="N31" s="165"/>
+      <c r="M31" s="216"/>
+      <c r="N31" s="161"/>
       <c r="O31" s="79"/>
-      <c r="P31" s="243"/>
-      <c r="Q31" s="165" t="e">
+      <c r="P31" s="219"/>
+      <c r="Q31" s="161" t="e">
         <f>주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="R31" s="79"/>
-      <c r="S31" s="258"/>
+      <c r="S31" s="233"/>
     </row>
     <row r="32" spans="1:19" s="17" customFormat="1" ht="20.25" hidden="1" customHeight="1">
-      <c r="B32" s="266"/>
-      <c r="C32" s="147"/>
-      <c r="D32" s="272"/>
+      <c r="B32" s="238"/>
+      <c r="C32" s="146"/>
+      <c r="D32" s="244"/>
       <c r="E32" s="89"/>
       <c r="F32" s="79"/>
-      <c r="G32" s="240"/>
-      <c r="H32" s="165"/>
+      <c r="G32" s="216"/>
+      <c r="H32" s="161"/>
       <c r="I32" s="79"/>
-      <c r="J32" s="240"/>
-      <c r="K32" s="161"/>
+      <c r="J32" s="216"/>
+      <c r="K32" s="157"/>
       <c r="L32" s="79"/>
-      <c r="M32" s="240"/>
-      <c r="N32" s="165"/>
+      <c r="M32" s="216"/>
+      <c r="N32" s="161"/>
       <c r="O32" s="79"/>
-      <c r="P32" s="243"/>
-      <c r="Q32" s="165" t="e">
+      <c r="P32" s="219"/>
+      <c r="Q32" s="161" t="e">
         <f>주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="R32" s="79"/>
-      <c r="S32" s="258"/>
+      <c r="S32" s="233"/>
     </row>
     <row r="33" spans="2:19" s="17" customFormat="1" ht="20.25" hidden="1" customHeight="1">
-      <c r="B33" s="266"/>
-      <c r="C33" s="148"/>
-      <c r="D33" s="273"/>
+      <c r="B33" s="238"/>
+      <c r="C33" s="147"/>
+      <c r="D33" s="245"/>
       <c r="E33" s="89"/>
       <c r="F33" s="79"/>
-      <c r="G33" s="241"/>
-      <c r="H33" s="165"/>
+      <c r="G33" s="217"/>
+      <c r="H33" s="161"/>
       <c r="I33" s="79"/>
-      <c r="J33" s="241"/>
-      <c r="K33" s="161"/>
+      <c r="J33" s="217"/>
+      <c r="K33" s="157"/>
       <c r="L33" s="79"/>
-      <c r="M33" s="241"/>
-      <c r="N33" s="165"/>
+      <c r="M33" s="217"/>
+      <c r="N33" s="161"/>
       <c r="O33" s="79"/>
-      <c r="P33" s="244"/>
-      <c r="Q33" s="165"/>
+      <c r="P33" s="220"/>
+      <c r="Q33" s="161"/>
       <c r="R33" s="79"/>
-      <c r="S33" s="253"/>
+      <c r="S33" s="228"/>
     </row>
     <row r="34" spans="2:19" s="27" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B34" s="266"/>
-      <c r="C34" s="277" t="s">
+      <c r="B34" s="238"/>
+      <c r="C34" s="249" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="274" t="s">
+      <c r="D34" s="246" t="s">
         <v>36</v>
       </c>
       <c r="E34" s="81" t="str">
+        <f>주간메뉴표!D26</f>
+        <v>볶음김치</v>
+      </c>
+      <c r="F34" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="G34" s="234"/>
+      <c r="H34" s="162" t="str">
+        <f>주간메뉴표!E26</f>
+        <v>석박지</v>
+      </c>
+      <c r="I34" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="J34" s="234"/>
+      <c r="K34" s="162" t="str">
+        <f>주간메뉴표!F26</f>
+        <v>볶음김치</v>
+      </c>
+      <c r="L34" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="M34" s="234"/>
+      <c r="N34" s="162" t="str">
+        <f>주간메뉴표!G26</f>
+        <v>석박지</v>
+      </c>
+      <c r="O34" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="P34" s="234"/>
+      <c r="Q34" s="162" t="str">
+        <f>주간메뉴표!H26</f>
+        <v>볶음김치</v>
+      </c>
+      <c r="R34" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="S34" s="246"/>
+    </row>
+    <row r="35" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
+      <c r="B35" s="238"/>
+      <c r="C35" s="250"/>
+      <c r="D35" s="247"/>
+      <c r="E35" s="81" t="str">
+        <f>주간메뉴표!D27</f>
+        <v>우유미숫가루</v>
+      </c>
+      <c r="F35" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="G35" s="235"/>
+      <c r="H35" s="162" t="str">
+        <f>주간메뉴표!E27</f>
+        <v>발사믹&amp;자몽D</v>
+      </c>
+      <c r="I35" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="J35" s="235"/>
+      <c r="K35" s="162" t="str">
+        <f>주간메뉴표!F27</f>
+        <v>꿀레몬차</v>
+      </c>
+      <c r="L35" s="79"/>
+      <c r="M35" s="235"/>
+      <c r="N35" s="162" t="str">
+        <f>주간메뉴표!G27</f>
+        <v>녹차라떼</v>
+      </c>
+      <c r="O35" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="P35" s="235"/>
+      <c r="Q35" s="162" t="str">
+        <f>주간메뉴표!H27</f>
+        <v>복숭아아이스티</v>
+      </c>
+      <c r="R35" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="S35" s="247"/>
+    </row>
+    <row r="36" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
+      <c r="B36" s="238"/>
+      <c r="C36" s="250"/>
+      <c r="D36" s="247"/>
+      <c r="E36" s="81" t="str">
         <f>주간메뉴표!D28</f>
-        <v>볶음김치</v>
-      </c>
-      <c r="F34" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="G34" s="262"/>
-      <c r="H34" s="166" t="str">
+        <v>오리엔탈&amp;요거트D</v>
+      </c>
+      <c r="F36" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="G36" s="236"/>
+      <c r="H36" s="162">
         <f>주간메뉴표!E28</f>
-        <v>백김치</v>
-      </c>
-      <c r="I34" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="J34" s="262"/>
-      <c r="K34" s="166" t="str">
+        <v>0</v>
+      </c>
+      <c r="I36" s="79"/>
+      <c r="J36" s="236"/>
+      <c r="K36" s="162" t="str">
         <f>주간메뉴표!F28</f>
-        <v>볶음김치</v>
-      </c>
-      <c r="L34" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="M34" s="262"/>
-      <c r="N34" s="166" t="str">
+        <v>오리엔탈&amp;딸기요거트D</v>
+      </c>
+      <c r="L36" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="M36" s="236"/>
+      <c r="N36" s="162" t="str">
         <f>주간메뉴표!G28</f>
-        <v>백김치</v>
-      </c>
-      <c r="O34" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="P34" s="262"/>
-      <c r="Q34" s="166" t="str">
+        <v>발사믹&amp;한라봉D</v>
+      </c>
+      <c r="O36" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="P36" s="236"/>
+      <c r="Q36" s="162" t="str">
         <f>주간메뉴표!H28</f>
-        <v>볶음김치</v>
-      </c>
-      <c r="R34" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="S34" s="274"/>
-    </row>
-    <row r="35" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B35" s="266"/>
-      <c r="C35" s="278"/>
-      <c r="D35" s="275"/>
-      <c r="E35" s="81" t="str">
+        <v>오리엔탈&amp;사우전아일랜드D</v>
+      </c>
+      <c r="R36" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="S36" s="248"/>
+    </row>
+    <row r="37" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
+      <c r="B37" s="238"/>
+      <c r="C37" s="249" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="246" t="s">
+        <v>211</v>
+      </c>
+      <c r="E37" s="251" t="str">
         <f>주간메뉴표!D29</f>
-        <v>매실차(Hot)</v>
-      </c>
-      <c r="F35" s="79"/>
-      <c r="G35" s="263"/>
-      <c r="H35" s="166" t="str">
+        <v>불고기포케샐러드</v>
+      </c>
+      <c r="F37" s="231" t="s">
+        <v>220</v>
+      </c>
+      <c r="G37" s="215">
+        <f>주간메뉴표!D30</f>
+        <v>748</v>
+      </c>
+      <c r="H37" s="229" t="str">
         <f>주간메뉴표!E29</f>
-        <v>발사믹D&amp;참깨D</v>
-      </c>
-      <c r="I35" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="J35" s="263"/>
-      <c r="K35" s="166" t="str">
+        <v>렌틸콩닭가슴살샐러드</v>
+      </c>
+      <c r="I37" s="231" t="s">
+        <v>220</v>
+      </c>
+      <c r="J37" s="215">
+        <f>주간메뉴표!E30</f>
+        <v>667</v>
+      </c>
+      <c r="K37" s="229" t="str">
         <f>주간메뉴표!F29</f>
-        <v>유자차(hot)</v>
-      </c>
-      <c r="L35" s="79"/>
-      <c r="M35" s="263"/>
-      <c r="N35" s="166" t="str">
+        <v>목살스테이크샐러드</v>
+      </c>
+      <c r="L37" s="231" t="s">
+        <v>220</v>
+      </c>
+      <c r="M37" s="215">
+        <f>주간메뉴표!F30</f>
+        <v>769</v>
+      </c>
+      <c r="N37" s="229" t="str">
         <f>주간메뉴표!G29</f>
-        <v>나쵸칩*살사소스</v>
-      </c>
-      <c r="O35" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="P35" s="263"/>
-      <c r="Q35" s="166" t="str">
+        <v>유자치킨텐더샐러드</v>
+      </c>
+      <c r="O37" s="231" t="s">
+        <v>220</v>
+      </c>
+      <c r="P37" s="215">
+        <f>주간메뉴표!G30</f>
+        <v>688</v>
+      </c>
+      <c r="Q37" s="229" t="str">
         <f>주간메뉴표!H29</f>
-        <v>사과</v>
-      </c>
-      <c r="R35" s="79"/>
-      <c r="S35" s="275"/>
-    </row>
-    <row r="36" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B36" s="266"/>
-      <c r="C36" s="278"/>
-      <c r="D36" s="275"/>
-      <c r="E36" s="81" t="str">
-        <f>주간메뉴표!D30</f>
-        <v>오리엔탈D&amp;망고D</v>
-      </c>
-      <c r="F36" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="G36" s="264"/>
-      <c r="H36" s="166">
-        <f>주간메뉴표!E30</f>
-        <v>0</v>
-      </c>
-      <c r="I36" s="79"/>
-      <c r="J36" s="264"/>
-      <c r="K36" s="166" t="str">
-        <f>주간메뉴표!F30</f>
-        <v>오리엔탈D&amp;블루베리D</v>
-      </c>
-      <c r="L36" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="M36" s="264"/>
-      <c r="N36" s="166" t="str">
-        <f>주간메뉴표!G30</f>
-        <v>발사믹D&amp;파인애플D</v>
-      </c>
-      <c r="O36" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="P36" s="264"/>
-      <c r="Q36" s="166" t="str">
+        <v>구운버섯두부샐러드</v>
+      </c>
+      <c r="R37" s="231" t="s">
+        <v>220</v>
+      </c>
+      <c r="S37" s="227">
         <f>주간메뉴표!H30</f>
-        <v>오리엔탈D&amp;딸기D</v>
-      </c>
-      <c r="R36" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="S36" s="276"/>
-    </row>
-    <row r="37" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B37" s="266"/>
-      <c r="C37" s="277" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" s="274" t="s">
-        <v>211</v>
-      </c>
-      <c r="E37" s="279" t="str">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" s="17" customFormat="1" ht="36" customHeight="1">
+      <c r="B38" s="238"/>
+      <c r="C38" s="250"/>
+      <c r="D38" s="247"/>
+      <c r="E38" s="252"/>
+      <c r="F38" s="232"/>
+      <c r="G38" s="216"/>
+      <c r="H38" s="230"/>
+      <c r="I38" s="232"/>
+      <c r="J38" s="216"/>
+      <c r="K38" s="230"/>
+      <c r="L38" s="232"/>
+      <c r="M38" s="216"/>
+      <c r="N38" s="230"/>
+      <c r="O38" s="232"/>
+      <c r="P38" s="216"/>
+      <c r="Q38" s="230"/>
+      <c r="R38" s="232"/>
+      <c r="S38" s="228"/>
+    </row>
+    <row r="39" spans="2:19" s="44" customFormat="1" ht="33.75" customHeight="1">
+      <c r="B39" s="238"/>
+      <c r="C39" s="250"/>
+      <c r="D39" s="140" t="s">
+        <v>213</v>
+      </c>
+      <c r="E39" s="80" t="str">
         <f>주간메뉴표!D31</f>
-        <v>훈제연어스테이크샐러드</v>
-      </c>
-      <c r="F37" s="256" t="s">
-        <v>220</v>
-      </c>
-      <c r="G37" s="239">
-        <f>주간메뉴표!D32</f>
-        <v>629</v>
-      </c>
-      <c r="H37" s="254" t="str">
-        <f>주간메뉴표!E31</f>
-        <v>바질파스타샐러드</v>
-      </c>
-      <c r="I37" s="256" t="s">
-        <v>220</v>
-      </c>
-      <c r="J37" s="239">
-        <f>주간메뉴표!E32</f>
-        <v>642</v>
-      </c>
-      <c r="K37" s="254" t="str">
-        <f>주간메뉴표!F31</f>
-        <v>코코넛쉬림프샐러드</v>
-      </c>
-      <c r="L37" s="256" t="s">
-        <v>220</v>
-      </c>
-      <c r="M37" s="239">
-        <f>주간메뉴표!F32</f>
-        <v>777</v>
-      </c>
-      <c r="N37" s="254" t="str">
-        <f>주간메뉴표!G31</f>
-        <v>케이준치킨&amp;크랩타블렉샐러드</v>
-      </c>
-      <c r="O37" s="256" t="s">
-        <v>220</v>
-      </c>
-      <c r="P37" s="239">
-        <f>주간메뉴표!G32</f>
-        <v>458</v>
-      </c>
-      <c r="Q37" s="254" t="str">
-        <f>주간메뉴표!H31</f>
-        <v>포크커틀렛샐러드</v>
-      </c>
-      <c r="R37" s="256" t="s">
-        <v>220</v>
-      </c>
-      <c r="S37" s="252">
-        <f>주간메뉴표!H32</f>
-        <v>699</v>
-      </c>
-    </row>
-    <row r="38" spans="2:19" s="17" customFormat="1" ht="36" customHeight="1">
-      <c r="B38" s="266"/>
-      <c r="C38" s="278"/>
-      <c r="D38" s="275"/>
-      <c r="E38" s="280"/>
-      <c r="F38" s="257"/>
-      <c r="G38" s="240"/>
-      <c r="H38" s="255"/>
-      <c r="I38" s="257"/>
-      <c r="J38" s="240"/>
-      <c r="K38" s="255"/>
-      <c r="L38" s="257"/>
-      <c r="M38" s="240"/>
-      <c r="N38" s="255"/>
-      <c r="O38" s="257"/>
-      <c r="P38" s="240"/>
-      <c r="Q38" s="255"/>
-      <c r="R38" s="257"/>
-      <c r="S38" s="253"/>
-    </row>
-    <row r="39" spans="2:19" s="44" customFormat="1" ht="33.75" customHeight="1">
-      <c r="B39" s="266"/>
-      <c r="C39" s="278"/>
-      <c r="D39" s="141" t="s">
-        <v>213</v>
-      </c>
-      <c r="E39" s="80" t="str">
-        <f>주간메뉴표!D33</f>
-        <v>하프오리엔탈치킨샌드위치
-&amp;과일2종</v>
-      </c>
-      <c r="F39" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="G39" s="157">
-        <f>주간메뉴표!D34</f>
-        <v>315</v>
-      </c>
-      <c r="H39" s="167" t="str">
-        <f>주간메뉴표!E33</f>
-        <v>간장불고기샐러드랩
-&amp;과일2종</v>
-      </c>
-      <c r="I39" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="J39" s="157">
-        <f>주간메뉴표!E34</f>
-        <v>480</v>
-      </c>
-      <c r="K39" s="167" t="str">
-        <f>주간메뉴표!F33</f>
         <v>케이준치킨샐러드랩
 &amp;과일2종</v>
       </c>
-      <c r="L39" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="M39" s="157">
-        <f>주간메뉴표!F34</f>
+      <c r="F39" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="G39" s="153">
+        <f>주간메뉴표!D32</f>
         <v>455</v>
       </c>
-      <c r="N39" s="167" t="str">
-        <f>주간메뉴표!G33</f>
+      <c r="H39" s="163" t="str">
+        <f>주간메뉴표!E31</f>
         <v>쉬림프치즈랩샌드위치
 &amp;과일2종</v>
       </c>
+      <c r="I39" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="J39" s="153">
+        <f>주간메뉴표!E32</f>
+        <v>560</v>
+      </c>
+      <c r="K39" s="163" t="str">
+        <f>주간메뉴표!F31</f>
+        <v>햄치즈크라상샌드위치
+&amp;과일2종</v>
+      </c>
+      <c r="L39" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="M39" s="153">
+        <f>주간메뉴표!F32</f>
+        <v>420</v>
+      </c>
+      <c r="N39" s="163" t="str">
+        <f>주간메뉴표!G31</f>
+        <v>불고기랩샌드위치
+&amp;과일2종</v>
+      </c>
       <c r="O39" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P39" s="157">
+      <c r="P39" s="153">
+        <f>주간메뉴표!G32</f>
+        <v>325</v>
+      </c>
+      <c r="Q39" s="163" t="str">
+        <f>주간메뉴표!H31</f>
+        <v>어니언치킨샐러드랩
+&amp;과일2종</v>
+      </c>
+      <c r="R39" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="S39" s="262">
+        <f>주간메뉴표!H32</f>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19" s="17" customFormat="1" ht="30.75" customHeight="1">
+      <c r="B40" s="238"/>
+      <c r="C40" s="250"/>
+      <c r="D40" s="141" t="s">
+        <v>212</v>
+      </c>
+      <c r="E40" s="80" t="str">
+        <f>주간메뉴표!D33</f>
+        <v>아보카도귀리라이스</v>
+      </c>
+      <c r="F40" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="G40" s="154">
+        <f>주간메뉴표!D34</f>
+        <v>627</v>
+      </c>
+      <c r="H40" s="163" t="str">
+        <f>주간메뉴표!E33</f>
+        <v>연어구이보리라이스</v>
+      </c>
+      <c r="I40" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="J40" s="154">
+        <f>주간메뉴표!E34</f>
+        <v>478</v>
+      </c>
+      <c r="K40" s="163" t="str">
+        <f>주간메뉴표!F33</f>
+        <v>라구두부면파스타</v>
+      </c>
+      <c r="L40" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="M40" s="154">
+        <f>주간메뉴표!F34</f>
+        <v>588</v>
+      </c>
+      <c r="N40" s="163" t="str">
+        <f>주간메뉴표!G33</f>
+        <v>라후테덮밥(차슈ST)</v>
+      </c>
+      <c r="O40" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="P40" s="154">
         <f>주간메뉴표!G34</f>
-        <v>691</v>
-      </c>
-      <c r="Q39" s="177"/>
-      <c r="R39" s="175"/>
-      <c r="S39" s="178"/>
-    </row>
-    <row r="40" spans="2:19" s="17" customFormat="1" ht="30.75" customHeight="1">
-      <c r="B40" s="266"/>
-      <c r="C40" s="278"/>
-      <c r="D40" s="142" t="s">
-        <v>212</v>
-      </c>
-      <c r="E40" s="80" t="str">
-        <f>주간메뉴표!D35</f>
-        <v>라후테덮밥(차슈ST)</v>
-      </c>
-      <c r="F40" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="G40" s="158">
+        <v>679</v>
+      </c>
+      <c r="Q40" s="163" t="str">
+        <f>주간메뉴표!H33</f>
+        <v>아보카도베지키마카레</v>
+      </c>
+      <c r="R40" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="S40" s="263">
+        <f>주간메뉴표!H34</f>
+        <v>777</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
+      <c r="B41" s="237" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="239"/>
+      <c r="D41" s="243" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" s="97" t="str">
         <f>주간메뉴표!D36</f>
-        <v>679</v>
-      </c>
-      <c r="H40" s="167" t="str">
-        <f>주간메뉴표!E35</f>
-        <v>N라구두부면파스타</v>
-      </c>
-      <c r="I40" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="J40" s="158">
+        <v>우삼겹고추장찌개</v>
+      </c>
+      <c r="F41" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="G41" s="215">
+        <f>주간메뉴표!D42</f>
+        <v>932</v>
+      </c>
+      <c r="H41" s="160" t="str">
         <f>주간메뉴표!E36</f>
-        <v>588</v>
-      </c>
-      <c r="K40" s="167" t="str">
-        <f>주간메뉴표!F35</f>
-        <v>풀드포크누들샐러드</v>
-      </c>
-      <c r="L40" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="M40" s="158">
+        <v>고깃집볶음밥*계란후라이</v>
+      </c>
+      <c r="I41" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="J41" s="215">
+        <f>주간메뉴표!E42</f>
+        <v>1311</v>
+      </c>
+      <c r="K41" s="160" t="str">
         <f>주간메뉴표!F36</f>
-        <v>546</v>
-      </c>
-      <c r="N40" s="167" t="str">
-        <f>주간메뉴표!G35</f>
-        <v>N아보카도베지키마카레</v>
-      </c>
-      <c r="O40" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="P40" s="158">
+        <v>뚝배기황태해장국</v>
+      </c>
+      <c r="L41" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="M41" s="215">
+        <f>주간메뉴표!F42</f>
+        <v>1107</v>
+      </c>
+      <c r="N41" s="160" t="str">
         <f>주간메뉴표!G36</f>
-        <v>777</v>
-      </c>
-      <c r="Q40" s="177"/>
-      <c r="R40" s="175"/>
-      <c r="S40" s="179"/>
-    </row>
-    <row r="41" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B41" s="265" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" s="267"/>
-      <c r="D41" s="271" t="s">
-        <v>39</v>
-      </c>
-      <c r="E41" s="97" t="str">
+        <v>뚝배기돼지불백정식</v>
+      </c>
+      <c r="O41" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="P41" s="222">
+        <f>주간메뉴표!G42</f>
+        <v>983</v>
+      </c>
+      <c r="Q41" s="160" t="str">
+        <f>주간메뉴표!H36</f>
+        <v>명란알탕</v>
+      </c>
+      <c r="R41" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="S41" s="227">
+        <f>주간메뉴표!H42</f>
+        <v>897</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
+      <c r="B42" s="238"/>
+      <c r="C42" s="240"/>
+      <c r="D42" s="244"/>
+      <c r="E42" s="90" t="str">
+        <f>주간메뉴표!D37</f>
+        <v>두부구이*양념장</v>
+      </c>
+      <c r="F42" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="G42" s="216"/>
+      <c r="H42" s="161" t="str">
+        <f>주간메뉴표!E37</f>
+        <v>생선가스*타르타르s</v>
+      </c>
+      <c r="I42" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="J42" s="216"/>
+      <c r="K42" s="161" t="str">
+        <f>주간메뉴표!F37</f>
+        <v>너비아니*부추생채</v>
+      </c>
+      <c r="L42" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="M42" s="216"/>
+      <c r="N42" s="161" t="str">
+        <f>주간메뉴표!G37</f>
+        <v>상추&amp;깻잎쌈</v>
+      </c>
+      <c r="O42" s="79"/>
+      <c r="P42" s="223"/>
+      <c r="Q42" s="161" t="str">
+        <f>주간메뉴표!H37</f>
+        <v>햄계란전*케찹</v>
+      </c>
+      <c r="R42" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="S42" s="233"/>
+    </row>
+    <row r="43" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
+      <c r="B43" s="238"/>
+      <c r="C43" s="240"/>
+      <c r="D43" s="244"/>
+      <c r="E43" s="90" t="str">
         <f>주간메뉴표!D38</f>
-        <v>얼큰장터국밥</v>
-      </c>
-      <c r="F41" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="G41" s="239">
+        <v>메추리알장조림</v>
+      </c>
+      <c r="F43" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="G43" s="216"/>
+      <c r="H43" s="161" t="str">
+        <f>주간메뉴표!E38</f>
+        <v>체리요거트</v>
+      </c>
+      <c r="I43" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="J43" s="216"/>
+      <c r="K43" s="161" t="str">
+        <f>주간메뉴표!F38</f>
+        <v>버섯잡채</v>
+      </c>
+      <c r="L43" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="M43" s="216"/>
+      <c r="N43" s="161" t="str">
+        <f>주간메뉴표!G38</f>
+        <v>들깨미역국</v>
+      </c>
+      <c r="O43" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="P43" s="223"/>
+      <c r="Q43" s="161" t="str">
+        <f>주간메뉴표!H38</f>
+        <v>엄지새송이버섯볶음</v>
+      </c>
+      <c r="R43" s="79"/>
+      <c r="S43" s="233"/>
+    </row>
+    <row r="44" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
+      <c r="B44" s="238"/>
+      <c r="C44" s="240"/>
+      <c r="D44" s="244"/>
+      <c r="E44" s="90" t="str">
+        <f>주간메뉴표!D39</f>
+        <v>미역줄기볶음</v>
+      </c>
+      <c r="F44" s="79"/>
+      <c r="G44" s="216"/>
+      <c r="H44" s="161" t="str">
+        <f>주간메뉴표!E39</f>
+        <v>깍두기</v>
+      </c>
+      <c r="I44" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="J44" s="216"/>
+      <c r="K44" s="161" t="str">
+        <f>주간메뉴표!F39</f>
+        <v>명엽채볶음</v>
+      </c>
+      <c r="L44" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="M44" s="216"/>
+      <c r="N44" s="161" t="str">
+        <f>주간메뉴표!G39</f>
+        <v>매콤두부조림</v>
+      </c>
+      <c r="O44" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="P44" s="223"/>
+      <c r="Q44" s="161" t="str">
+        <f>주간메뉴표!H39</f>
+        <v>양념깻잎지</v>
+      </c>
+      <c r="R44" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="S44" s="233"/>
+    </row>
+    <row r="45" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
+      <c r="B45" s="238"/>
+      <c r="C45" s="240"/>
+      <c r="D45" s="244"/>
+      <c r="E45" s="90" t="str">
+        <f>주간메뉴표!D40</f>
+        <v>깍두기</v>
+      </c>
+      <c r="F45" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="G45" s="216"/>
+      <c r="H45" s="161" t="str">
+        <f>주간메뉴표!E40</f>
+        <v>건새우배추된장국</v>
+      </c>
+      <c r="I45" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="J45" s="216"/>
+      <c r="K45" s="161" t="str">
+        <f>주간메뉴표!F40</f>
+        <v>열무김치</v>
+      </c>
+      <c r="L45" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="M45" s="216"/>
+      <c r="N45" s="161" t="str">
+        <f>주간메뉴표!G40</f>
+        <v>포기김치</v>
+      </c>
+      <c r="O45" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="P45" s="223"/>
+      <c r="Q45" s="161" t="str">
+        <f>주간메뉴표!H40</f>
+        <v>깍두기</v>
+      </c>
+      <c r="R45" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="S45" s="233"/>
+    </row>
+    <row r="46" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
+      <c r="B46" s="238"/>
+      <c r="C46" s="240"/>
+      <c r="D46" s="245"/>
+      <c r="E46" s="90" t="str">
+        <f>주간메뉴표!D41</f>
+        <v>잡곡밥</v>
+      </c>
+      <c r="F46" s="79"/>
+      <c r="G46" s="217"/>
+      <c r="H46" s="161">
+        <f>주간메뉴표!E41</f>
+        <v>0</v>
+      </c>
+      <c r="I46" s="79"/>
+      <c r="J46" s="217"/>
+      <c r="K46" s="161" t="str">
+        <f>주간메뉴표!F41</f>
+        <v>잡곡밥</v>
+      </c>
+      <c r="L46" s="79"/>
+      <c r="M46" s="217"/>
+      <c r="N46" s="161" t="str">
+        <f>주간메뉴표!G41</f>
+        <v>잡곡밥</v>
+      </c>
+      <c r="O46" s="79"/>
+      <c r="P46" s="224"/>
+      <c r="Q46" s="161" t="str">
+        <f>주간메뉴표!H41</f>
+        <v>잡곡밥</v>
+      </c>
+      <c r="R46" s="79"/>
+      <c r="S46" s="233"/>
+    </row>
+    <row r="47" spans="2:19" ht="20.25" customHeight="1">
+      <c r="B47" s="238"/>
+      <c r="C47" s="240"/>
+      <c r="D47" s="243" t="s">
+        <v>31</v>
+      </c>
+      <c r="E47" s="97" t="str">
+        <f>주간메뉴표!D43</f>
+        <v>셀프스팸마요덮밥</v>
+      </c>
+      <c r="F47" s="79"/>
+      <c r="G47" s="215">
+        <f>주간메뉴표!D51</f>
+        <v>1074</v>
+      </c>
+      <c r="H47" s="164" t="str">
+        <f>주간메뉴표!E43</f>
+        <v>셀프닭갈비비빔밥</v>
+      </c>
+      <c r="I47" s="79"/>
+      <c r="J47" s="215">
+        <f>주간메뉴표!E51</f>
+        <v>949</v>
+      </c>
+      <c r="K47" s="164" t="str">
+        <f>주간메뉴표!F43</f>
+        <v>셀프맥적열무보리비빔밥</v>
+      </c>
+      <c r="L47" s="79"/>
+      <c r="M47" s="218">
+        <f>주간메뉴표!F51</f>
+        <v>852</v>
+      </c>
+      <c r="N47" s="166" t="str">
+        <f>주간메뉴표!G43</f>
+        <v>셀프명란아보카도비빔밥</v>
+      </c>
+      <c r="O47" s="79"/>
+      <c r="P47" s="222">
+        <f>주간메뉴표!G51</f>
+        <v>1186</v>
+      </c>
+      <c r="Q47" s="264" t="str">
+        <f>주간메뉴표!H43</f>
+        <v>셀프규동</v>
+      </c>
+      <c r="R47" s="265"/>
+      <c r="S47" s="268">
+        <f>주간메뉴표!H51</f>
+        <v>940</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" ht="33" customHeight="1">
+      <c r="B48" s="238"/>
+      <c r="C48" s="240"/>
+      <c r="D48" s="244"/>
+      <c r="E48" s="90" t="str">
         <f>주간메뉴표!D44</f>
-        <v>1004</v>
-      </c>
-      <c r="H41" s="164" t="str">
-        <f>주간메뉴표!E38</f>
-        <v>소시지커리필라프</v>
-      </c>
-      <c r="I41" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="J41" s="239">
+        <v>┗쌀밥,스팸구이,스크램블에그</v>
+      </c>
+      <c r="F48" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="G48" s="216"/>
+      <c r="H48" s="161" t="str">
         <f>주간메뉴표!E44</f>
-        <v>1110</v>
-      </c>
-      <c r="K41" s="164" t="str">
-        <f>주간메뉴표!F38</f>
-        <v>(뚝)닭곰탕</v>
-      </c>
-      <c r="L41" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="M41" s="239">
+        <v>┗쌀밥,닭갈비,계란후라이</v>
+      </c>
+      <c r="I48" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="J48" s="216"/>
+      <c r="K48" s="161" t="str">
         <f>주간메뉴표!F44</f>
-        <v>1333</v>
-      </c>
-      <c r="N41" s="164" t="str">
-        <f>주간메뉴표!G38</f>
-        <v>짜글이고추장돼지불고기</v>
-      </c>
-      <c r="O41" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="P41" s="247">
+        <v>┗보리밥,맥적구이,열무김치</v>
+      </c>
+      <c r="L48" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="M48" s="219"/>
+      <c r="N48" s="159" t="str">
         <f>주간메뉴표!G44</f>
-        <v>1142</v>
-      </c>
-      <c r="Q41" s="164" t="str">
-        <f>주간메뉴표!H38</f>
-        <v>(뚝)대구매운탕</v>
-      </c>
-      <c r="R41" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="S41" s="252">
+        <v>┗쌀밥,아보카도</v>
+      </c>
+      <c r="O48" s="79"/>
+      <c r="P48" s="223"/>
+      <c r="Q48" s="163" t="str">
         <f>주간메뉴표!H44</f>
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B42" s="266"/>
-      <c r="C42" s="268"/>
-      <c r="D42" s="272"/>
-      <c r="E42" s="90" t="str">
-        <f>주간메뉴표!D39</f>
-        <v>백순대볶음*양념장</v>
-      </c>
-      <c r="F42" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="G42" s="240"/>
-      <c r="H42" s="165" t="str">
-        <f>주간메뉴표!E39</f>
-        <v>미소장국</v>
-      </c>
-      <c r="I42" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="J42" s="240"/>
-      <c r="K42" s="165" t="str">
-        <f>주간메뉴표!F39</f>
-        <v>비빔채소만두</v>
-      </c>
-      <c r="L42" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="M42" s="240"/>
-      <c r="N42" s="165" t="str">
-        <f>주간메뉴표!G39</f>
-        <v>유채된장국</v>
-      </c>
-      <c r="O42" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="P42" s="248"/>
-      <c r="Q42" s="165" t="str">
-        <f>주간메뉴표!H39</f>
-        <v>꼬마돈가스강정</v>
-      </c>
-      <c r="R42" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="S42" s="258"/>
-    </row>
-    <row r="43" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B43" s="266"/>
-      <c r="C43" s="268"/>
-      <c r="D43" s="272"/>
-      <c r="E43" s="90" t="str">
-        <f>주간메뉴표!D40</f>
-        <v>계란찜</v>
-      </c>
-      <c r="F43" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="G43" s="240"/>
-      <c r="H43" s="165" t="str">
-        <f>주간메뉴표!E40</f>
-        <v>한입콤비네이션피자</v>
-      </c>
-      <c r="I43" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="J43" s="240"/>
-      <c r="K43" s="165" t="str">
-        <f>주간메뉴표!F40</f>
-        <v>김치전</v>
-      </c>
-      <c r="L43" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="M43" s="240"/>
-      <c r="N43" s="165" t="str">
-        <f>주간메뉴표!G40</f>
-        <v>두부구이</v>
-      </c>
-      <c r="O43" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="P43" s="248"/>
-      <c r="Q43" s="165" t="str">
-        <f>주간메뉴표!H40</f>
-        <v>감자채햄볶음</v>
-      </c>
-      <c r="R43" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="S43" s="258"/>
-    </row>
-    <row r="44" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B44" s="266"/>
-      <c r="C44" s="268"/>
-      <c r="D44" s="272"/>
-      <c r="E44" s="90" t="str">
-        <f>주간메뉴표!D41</f>
-        <v>다시마숙회*초고추장</v>
-      </c>
-      <c r="F44" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="G44" s="240"/>
-      <c r="H44" s="165" t="str">
-        <f>주간메뉴표!E41</f>
-        <v>코올슬로</v>
-      </c>
-      <c r="I44" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="J44" s="240"/>
-      <c r="K44" s="165" t="str">
-        <f>주간메뉴표!F41</f>
-        <v>도토리묵*양념장</v>
-      </c>
-      <c r="L44" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="M44" s="240"/>
-      <c r="N44" s="165" t="str">
-        <f>주간메뉴표!G41</f>
-        <v>돌자반볶음</v>
-      </c>
-      <c r="O44" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="P44" s="248"/>
-      <c r="Q44" s="165" t="str">
-        <f>주간메뉴표!H41</f>
-        <v>깻잎지무침</v>
-      </c>
-      <c r="R44" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="S44" s="258"/>
-    </row>
-    <row r="45" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B45" s="266"/>
-      <c r="C45" s="268"/>
-      <c r="D45" s="272"/>
-      <c r="E45" s="90" t="str">
-        <f>주간메뉴표!D42</f>
+        <v>┗쌀밥,소불고기볶음,참나물</v>
+      </c>
+      <c r="R48" s="266" t="s">
+        <v>220</v>
+      </c>
+      <c r="S48" s="269"/>
+    </row>
+    <row r="49" spans="2:19" ht="20.25" customHeight="1">
+      <c r="B49" s="238"/>
+      <c r="C49" s="240"/>
+      <c r="D49" s="244"/>
+      <c r="E49" s="90" t="str">
+        <f>주간메뉴표!D45</f>
+        <v>셀프토핑</v>
+      </c>
+      <c r="F49" s="79"/>
+      <c r="G49" s="216"/>
+      <c r="H49" s="161" t="str">
+        <f>주간메뉴표!E45</f>
+        <v>셀프토핑</v>
+      </c>
+      <c r="I49" s="79"/>
+      <c r="J49" s="216"/>
+      <c r="K49" s="161" t="str">
+        <f>주간메뉴표!F45</f>
+        <v>셀프토핑</v>
+      </c>
+      <c r="L49" s="79"/>
+      <c r="M49" s="219"/>
+      <c r="N49" s="159" t="str">
+        <f>주간메뉴표!G45</f>
+        <v>┗계란후라이,명란마요소스</v>
+      </c>
+      <c r="O49" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="P49" s="223"/>
+      <c r="Q49" s="163" t="str">
+        <f>주간메뉴표!H45</f>
+        <v>셀프토핑</v>
+      </c>
+      <c r="R49" s="265"/>
+      <c r="S49" s="269"/>
+    </row>
+    <row r="50" spans="2:19" ht="30.75" customHeight="1">
+      <c r="B50" s="238"/>
+      <c r="C50" s="240"/>
+      <c r="D50" s="244"/>
+      <c r="E50" s="90" t="str">
+        <f>주간메뉴표!D46</f>
+        <v>┗상추,숙주양파볶음</v>
+      </c>
+      <c r="F50" s="79"/>
+      <c r="G50" s="216"/>
+      <c r="H50" s="161" t="str">
+        <f>주간메뉴표!E46</f>
+        <v>┗상추,부추</v>
+      </c>
+      <c r="I50" s="79"/>
+      <c r="J50" s="216"/>
+      <c r="K50" s="161" t="str">
+        <f>주간메뉴표!F46</f>
+        <v>┗부추생채,무생채</v>
+      </c>
+      <c r="L50" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="M50" s="219"/>
+      <c r="N50" s="159" t="str">
+        <f>주간메뉴표!G46</f>
+        <v>셀프토핑</v>
+      </c>
+      <c r="O50" s="79"/>
+      <c r="P50" s="223"/>
+      <c r="Q50" s="163" t="str">
+        <f>주간메뉴표!H46</f>
+        <v>┗숙주양파볶음</v>
+      </c>
+      <c r="R50" s="265"/>
+      <c r="S50" s="269"/>
+    </row>
+    <row r="51" spans="2:19" ht="20.25" customHeight="1">
+      <c r="B51" s="238"/>
+      <c r="C51" s="240"/>
+      <c r="D51" s="244"/>
+      <c r="E51" s="90" t="str">
+        <f>주간메뉴표!D47</f>
+        <v>┗맛김가루,데리야끼양파소스</v>
+      </c>
+      <c r="F51" s="79"/>
+      <c r="G51" s="216"/>
+      <c r="H51" s="161" t="str">
+        <f>주간메뉴표!E47</f>
+        <v>┗콩나물무침,맛김가루</v>
+      </c>
+      <c r="I51" s="79"/>
+      <c r="J51" s="216"/>
+      <c r="K51" s="161" t="str">
+        <f>주간메뉴표!F47</f>
+        <v>┗맛김가루,고추장소스</v>
+      </c>
+      <c r="L51" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="M51" s="219"/>
+      <c r="N51" s="159" t="str">
+        <f>주간메뉴표!G47</f>
+        <v>┗쫑상추,맛김가루,양파볶음</v>
+      </c>
+      <c r="O51" s="79"/>
+      <c r="P51" s="223"/>
+      <c r="Q51" s="163" t="str">
+        <f>주간메뉴표!H47</f>
+        <v>┗적색강초절임,맛김가루</v>
+      </c>
+      <c r="R51" s="265"/>
+      <c r="S51" s="269"/>
+    </row>
+    <row r="52" spans="2:19" ht="20.25" customHeight="1">
+      <c r="B52" s="238"/>
+      <c r="C52" s="240"/>
+      <c r="D52" s="244"/>
+      <c r="E52" s="90" t="str">
+        <f>주간메뉴표!D48</f>
+        <v>왕교자만두찜*간장</v>
+      </c>
+      <c r="F52" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="G52" s="216"/>
+      <c r="H52" s="161" t="str">
+        <f>주간메뉴표!E48</f>
+        <v>꼬마돈가스*케찹</v>
+      </c>
+      <c r="I52" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="J52" s="216"/>
+      <c r="K52" s="161" t="str">
+        <f>주간메뉴표!F48</f>
+        <v>감자전</v>
+      </c>
+      <c r="L52" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="M52" s="219"/>
+      <c r="N52" s="159" t="str">
+        <f>주간메뉴표!G48</f>
+        <v>새우가스*스위트칠리s</v>
+      </c>
+      <c r="O52" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="P52" s="223"/>
+      <c r="Q52" s="163" t="str">
+        <f>주간메뉴표!H48</f>
+        <v>양파링튀김</v>
+      </c>
+      <c r="R52" s="266" t="s">
+        <v>220</v>
+      </c>
+      <c r="S52" s="269"/>
+    </row>
+    <row r="53" spans="2:19" ht="20.25" customHeight="1">
+      <c r="B53" s="238"/>
+      <c r="C53" s="240"/>
+      <c r="D53" s="244"/>
+      <c r="E53" s="90" t="str">
+        <f>주간메뉴표!D49</f>
+        <v>포기김치</v>
+      </c>
+      <c r="F53" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="G53" s="216"/>
+      <c r="H53" s="161" t="str">
+        <f>주간메뉴표!E49</f>
+        <v>열무김치</v>
+      </c>
+      <c r="I53" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="J53" s="216"/>
+      <c r="K53" s="161" t="str">
+        <f>주간메뉴표!F49</f>
         <v>깍두기</v>
       </c>
-      <c r="F45" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="G45" s="240"/>
-      <c r="H45" s="165" t="str">
-        <f>주간메뉴표!E42</f>
-        <v>깍두기</v>
-      </c>
-      <c r="I45" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="J45" s="240"/>
-      <c r="K45" s="165" t="str">
-        <f>주간메뉴표!F42</f>
-        <v>깍두기</v>
-      </c>
-      <c r="L45" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="M45" s="240"/>
-      <c r="N45" s="165" t="str">
-        <f>주간메뉴표!G42</f>
+      <c r="L53" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="M53" s="219"/>
+      <c r="N53" s="159" t="str">
+        <f>주간메뉴표!G49</f>
         <v>포기김치</v>
       </c>
-      <c r="O45" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="P45" s="248"/>
-      <c r="Q45" s="165" t="str">
-        <f>주간메뉴표!H42</f>
-        <v>깍두기</v>
-      </c>
-      <c r="R45" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="S45" s="258"/>
-    </row>
-    <row r="46" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B46" s="266"/>
-      <c r="C46" s="268"/>
-      <c r="D46" s="273"/>
-      <c r="E46" s="90" t="str">
-        <f>주간메뉴표!D43</f>
-        <v>잡곡밥</v>
-      </c>
-      <c r="F46" s="79"/>
-      <c r="G46" s="241"/>
-      <c r="H46" s="165">
-        <f>주간메뉴표!E43</f>
-        <v>0</v>
-      </c>
-      <c r="I46" s="79"/>
-      <c r="J46" s="241"/>
-      <c r="K46" s="165" t="str">
-        <f>주간메뉴표!F43</f>
-        <v>잡곡밥</v>
-      </c>
-      <c r="L46" s="79"/>
-      <c r="M46" s="241"/>
-      <c r="N46" s="165" t="str">
-        <f>주간메뉴표!G43</f>
-        <v>잡곡밥</v>
-      </c>
-      <c r="O46" s="79"/>
-      <c r="P46" s="249"/>
-      <c r="Q46" s="165" t="str">
-        <f>주간메뉴표!H43</f>
-        <v>잡곡밥</v>
-      </c>
-      <c r="R46" s="79"/>
-      <c r="S46" s="253"/>
-    </row>
-    <row r="47" spans="2:19" ht="20.25" customHeight="1">
-      <c r="B47" s="266"/>
-      <c r="C47" s="268"/>
-      <c r="D47" s="271" t="s">
-        <v>31</v>
-      </c>
-      <c r="E47" s="97" t="str">
-        <f>주간메뉴표!D45</f>
-        <v>셀프오쭈비빔밥</v>
-      </c>
-      <c r="F47" s="79"/>
-      <c r="G47" s="239">
+      <c r="O53" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="P53" s="223"/>
+      <c r="Q53" s="163" t="str">
+        <f>주간메뉴표!H49</f>
+        <v>포기김치</v>
+      </c>
+      <c r="R53" s="266" t="s">
+        <v>220</v>
+      </c>
+      <c r="S53" s="269"/>
+    </row>
+    <row r="54" spans="2:19" ht="20.25" customHeight="1">
+      <c r="B54" s="238"/>
+      <c r="C54" s="240"/>
+      <c r="D54" s="245"/>
+      <c r="E54" s="90" t="str">
+        <f>주간메뉴표!D50</f>
+        <v>유부장국</v>
+      </c>
+      <c r="F54" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="G54" s="217"/>
+      <c r="H54" s="161" t="str">
+        <f>주간메뉴표!E50</f>
+        <v>다시마뭇국</v>
+      </c>
+      <c r="I54" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="J54" s="217"/>
+      <c r="K54" s="161" t="str">
+        <f>주간메뉴표!F50</f>
+        <v>얼갈이된장국</v>
+      </c>
+      <c r="L54" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="M54" s="220"/>
+      <c r="N54" s="159" t="str">
+        <f>주간메뉴표!G50</f>
+        <v>팽이버섯장국</v>
+      </c>
+      <c r="O54" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="P54" s="224"/>
+      <c r="Q54" s="163" t="str">
+        <f>주간메뉴표!H50</f>
+        <v>우동국</v>
+      </c>
+      <c r="R54" s="266" t="s">
+        <v>220</v>
+      </c>
+      <c r="S54" s="270"/>
+    </row>
+    <row r="55" spans="2:19" ht="20.25" customHeight="1">
+      <c r="B55" s="238"/>
+      <c r="C55" s="240"/>
+      <c r="D55" s="246" t="s">
+        <v>36</v>
+      </c>
+      <c r="E55" s="80" t="str">
+        <f>주간메뉴표!D52</f>
+        <v>그린샐러드</v>
+      </c>
+      <c r="F55" s="79"/>
+      <c r="G55" s="225"/>
+      <c r="H55" s="161" t="str">
+        <f>주간메뉴표!E52</f>
+        <v>그린샐러드</v>
+      </c>
+      <c r="I55" s="79"/>
+      <c r="J55" s="225"/>
+      <c r="K55" s="163" t="str">
+        <f>주간메뉴표!F52</f>
+        <v>그린샐러드</v>
+      </c>
+      <c r="L55" s="79"/>
+      <c r="M55" s="225"/>
+      <c r="N55" s="163" t="str">
+        <f>주간메뉴표!G52</f>
+        <v>그린샐러드</v>
+      </c>
+      <c r="O55" s="79"/>
+      <c r="P55" s="225"/>
+      <c r="Q55" s="163" t="str">
+        <f>주간메뉴표!H52</f>
+        <v>그린샐러드</v>
+      </c>
+      <c r="R55" s="79"/>
+      <c r="S55" s="267"/>
+    </row>
+    <row r="56" spans="2:19" s="51" customFormat="1" ht="20.25" customHeight="1">
+      <c r="B56" s="241"/>
+      <c r="C56" s="242"/>
+      <c r="D56" s="248"/>
+      <c r="E56" s="80" t="str">
         <f>주간메뉴표!D53</f>
-        <v>778</v>
-      </c>
-      <c r="H47" s="168" t="str">
-        <f>주간메뉴표!E45</f>
-        <v>셀프우렁강된장비빔밥</v>
-      </c>
-      <c r="I47" s="79"/>
-      <c r="J47" s="239">
+        <v>오리엔탈&amp;요거트D</v>
+      </c>
+      <c r="F56" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="G56" s="226"/>
+      <c r="H56" s="161" t="str">
         <f>주간메뉴표!E53</f>
-        <v>702</v>
-      </c>
-      <c r="K47" s="168" t="str">
-        <f>주간메뉴표!F45</f>
-        <v>셀프노량진황제컵밥</v>
-      </c>
-      <c r="L47" s="79"/>
-      <c r="M47" s="242">
+        <v>발사믹&amp;자몽D</v>
+      </c>
+      <c r="I56" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="J56" s="226"/>
+      <c r="K56" s="163" t="str">
         <f>주간메뉴표!F53</f>
-        <v>1177</v>
-      </c>
-      <c r="N47" s="170" t="str">
-        <f>주간메뉴표!G45</f>
-        <v>셀프에비동</v>
-      </c>
-      <c r="O47" s="79"/>
-      <c r="P47" s="247">
+        <v>오리엔탈&amp;딸기요거트D</v>
+      </c>
+      <c r="L56" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="M56" s="226"/>
+      <c r="N56" s="163" t="str">
         <f>주간메뉴표!G53</f>
-        <v>817</v>
-      </c>
-      <c r="Q47" s="180"/>
-      <c r="R47" s="175"/>
-      <c r="S47" s="181"/>
-    </row>
-    <row r="48" spans="2:19" ht="33" customHeight="1">
-      <c r="B48" s="266"/>
-      <c r="C48" s="268"/>
-      <c r="D48" s="272"/>
-      <c r="E48" s="90" t="str">
-        <f>주간메뉴표!D46</f>
-        <v>┗쌀밥,오쭈떡볶음</v>
-      </c>
-      <c r="F48" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="G48" s="240"/>
-      <c r="H48" s="165" t="str">
-        <f>주간메뉴표!E46</f>
-        <v>┗쌀밥,강된장,계란후라이</v>
-      </c>
-      <c r="I48" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="J48" s="240"/>
-      <c r="K48" s="165" t="str">
-        <f>주간메뉴표!F46</f>
-        <v>┗쌀밥,삼겹살,후라이,비엔나</v>
-      </c>
-      <c r="L48" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="M48" s="243"/>
-      <c r="N48" s="163" t="str">
-        <f>주간메뉴표!G46</f>
-        <v>┗쌀밥,새우튀김</v>
-      </c>
-      <c r="O48" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="P48" s="248"/>
-      <c r="Q48" s="177"/>
-      <c r="R48" s="175"/>
-      <c r="S48" s="181"/>
-    </row>
-    <row r="49" spans="2:19" ht="20.25" customHeight="1">
-      <c r="B49" s="266"/>
-      <c r="C49" s="268"/>
-      <c r="D49" s="272"/>
-      <c r="E49" s="90" t="str">
-        <f>주간메뉴표!D47</f>
-        <v>셀프토핑</v>
-      </c>
-      <c r="F49" s="79"/>
-      <c r="G49" s="240"/>
-      <c r="H49" s="165" t="str">
-        <f>주간메뉴표!E47</f>
-        <v>셀프토핑</v>
-      </c>
-      <c r="I49" s="79"/>
-      <c r="J49" s="240"/>
-      <c r="K49" s="165" t="str">
-        <f>주간메뉴표!F47</f>
-        <v>셀프토핑</v>
-      </c>
-      <c r="L49" s="79"/>
-      <c r="M49" s="243"/>
-      <c r="N49" s="163" t="str">
-        <f>주간메뉴표!G47</f>
-        <v>셀프토핑</v>
-      </c>
-      <c r="O49" s="79"/>
-      <c r="P49" s="248"/>
-      <c r="Q49" s="177"/>
-      <c r="R49" s="175"/>
-      <c r="S49" s="181"/>
-    </row>
-    <row r="50" spans="2:19" ht="30.75" customHeight="1">
-      <c r="B50" s="266"/>
-      <c r="C50" s="268"/>
-      <c r="D50" s="272"/>
-      <c r="E50" s="90" t="str">
-        <f>주간메뉴표!D48</f>
-        <v>┗쫑상추,콩나물무침</v>
-      </c>
-      <c r="F50" s="79"/>
-      <c r="G50" s="240"/>
-      <c r="H50" s="165" t="str">
-        <f>주간메뉴표!E48</f>
-        <v>┗쫑상추,콩나물무침</v>
-      </c>
-      <c r="I50" s="79"/>
-      <c r="J50" s="240"/>
-      <c r="K50" s="165" t="str">
-        <f>주간메뉴표!F48</f>
-        <v>┗쫑상추,맛김가루</v>
-      </c>
-      <c r="L50" s="79"/>
-      <c r="M50" s="243"/>
-      <c r="N50" s="163" t="str">
-        <f>주간메뉴표!G48</f>
-        <v>┗숙주양파볶음</v>
-      </c>
-      <c r="O50" s="79"/>
-      <c r="P50" s="248"/>
-      <c r="Q50" s="177"/>
-      <c r="R50" s="175"/>
-      <c r="S50" s="181"/>
-    </row>
-    <row r="51" spans="2:19" ht="20.25" customHeight="1">
-      <c r="B51" s="266"/>
-      <c r="C51" s="268"/>
-      <c r="D51" s="272"/>
-      <c r="E51" s="90" t="str">
-        <f>주간메뉴표!D49</f>
-        <v>┗맛김가루</v>
-      </c>
-      <c r="F51" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="G51" s="240"/>
-      <c r="H51" s="165" t="str">
-        <f>주간메뉴표!E49</f>
-        <v>┗무생채,맛김가루</v>
-      </c>
-      <c r="I51" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="J51" s="240"/>
-      <c r="K51" s="165" t="str">
-        <f>주간메뉴표!F49</f>
-        <v>┗볶음김치,참치마요옥수수</v>
-      </c>
-      <c r="L51" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="M51" s="243"/>
-      <c r="N51" s="163" t="str">
-        <f>주간메뉴표!G49</f>
-        <v>┗초생강절임(채), 맛김가루</v>
-      </c>
-      <c r="O51" s="79"/>
-      <c r="P51" s="248"/>
-      <c r="Q51" s="177"/>
-      <c r="R51" s="175"/>
-      <c r="S51" s="181"/>
-    </row>
-    <row r="52" spans="2:19" ht="20.25" customHeight="1">
-      <c r="B52" s="266"/>
-      <c r="C52" s="268"/>
-      <c r="D52" s="272"/>
-      <c r="E52" s="90" t="str">
-        <f>주간메뉴표!D50</f>
-        <v>깻잎주먹완자전</v>
-      </c>
-      <c r="F52" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="G52" s="240"/>
-      <c r="H52" s="165" t="str">
-        <f>주간메뉴표!E50</f>
-        <v>녹두전</v>
-      </c>
-      <c r="I52" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="J52" s="240"/>
-      <c r="K52" s="165" t="str">
-        <f>주간메뉴표!F50</f>
-        <v>사모사*칠리s</v>
-      </c>
-      <c r="L52" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="M52" s="243"/>
-      <c r="N52" s="163" t="str">
-        <f>주간메뉴표!G50</f>
-        <v>미니애플파이</v>
-      </c>
-      <c r="O52" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="P52" s="248"/>
-      <c r="Q52" s="177"/>
-      <c r="R52" s="175"/>
-      <c r="S52" s="181"/>
-    </row>
-    <row r="53" spans="2:19" ht="20.25" customHeight="1">
-      <c r="B53" s="266"/>
-      <c r="C53" s="268"/>
-      <c r="D53" s="272"/>
-      <c r="E53" s="90" t="str">
-        <f>주간메뉴표!D51</f>
-        <v>깍두기</v>
-      </c>
-      <c r="F53" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="G53" s="240"/>
-      <c r="H53" s="165" t="str">
-        <f>주간메뉴표!E51</f>
-        <v>포기김치</v>
-      </c>
-      <c r="I53" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="J53" s="240"/>
-      <c r="K53" s="165" t="str">
-        <f>주간메뉴표!F51</f>
-        <v>열무김치</v>
-      </c>
-      <c r="L53" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="M53" s="243"/>
-      <c r="N53" s="163" t="str">
-        <f>주간메뉴표!G51</f>
-        <v>포기김치</v>
-      </c>
-      <c r="O53" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="P53" s="248"/>
-      <c r="Q53" s="177"/>
-      <c r="R53" s="175"/>
-      <c r="S53" s="181"/>
-    </row>
-    <row r="54" spans="2:19" ht="20.25" customHeight="1">
-      <c r="B54" s="266"/>
-      <c r="C54" s="268"/>
-      <c r="D54" s="273"/>
-      <c r="E54" s="90" t="str">
-        <f>주간메뉴표!D52</f>
-        <v>시금치된장국</v>
-      </c>
-      <c r="F54" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="G54" s="241"/>
-      <c r="H54" s="165" t="str">
-        <f>주간메뉴표!E52</f>
-        <v>감자수제비국</v>
-      </c>
-      <c r="I54" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="J54" s="241"/>
-      <c r="K54" s="165" t="str">
-        <f>주간메뉴표!F52</f>
-        <v>어묵국</v>
-      </c>
-      <c r="L54" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="M54" s="244"/>
-      <c r="N54" s="163" t="str">
-        <f>주간메뉴표!G52</f>
-        <v>우동국</v>
-      </c>
-      <c r="O54" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="P54" s="249"/>
-      <c r="Q54" s="177"/>
-      <c r="R54" s="175"/>
-      <c r="S54" s="182"/>
-    </row>
-    <row r="55" spans="2:19" ht="20.25" customHeight="1">
-      <c r="B55" s="266"/>
-      <c r="C55" s="268"/>
-      <c r="D55" s="274" t="s">
-        <v>36</v>
-      </c>
-      <c r="E55" s="80" t="str">
-        <f>주간메뉴표!D54</f>
-        <v>그린샐러드</v>
-      </c>
-      <c r="F55" s="79"/>
-      <c r="G55" s="250"/>
-      <c r="H55" s="165" t="str">
-        <f>주간메뉴표!E54</f>
-        <v>그린샐러드</v>
-      </c>
-      <c r="I55" s="79"/>
-      <c r="J55" s="250"/>
-      <c r="K55" s="167" t="str">
-        <f>주간메뉴표!F54</f>
-        <v>그린샐러드</v>
-      </c>
-      <c r="L55" s="79"/>
-      <c r="M55" s="250"/>
-      <c r="N55" s="167" t="str">
-        <f>주간메뉴표!G54</f>
-        <v>그린샐러드</v>
-      </c>
-      <c r="O55" s="79"/>
-      <c r="P55" s="250"/>
-      <c r="Q55" s="167" t="str">
-        <f>주간메뉴표!H54</f>
-        <v>그린샐러드</v>
-      </c>
-      <c r="R55" s="79"/>
-      <c r="S55" s="245"/>
-    </row>
-    <row r="56" spans="2:19" s="51" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B56" s="269"/>
-      <c r="C56" s="270"/>
-      <c r="D56" s="276"/>
-      <c r="E56" s="80" t="str">
-        <f>주간메뉴표!D55</f>
-        <v>오리엔탈D&amp;망고D</v>
-      </c>
-      <c r="F56" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="G56" s="251"/>
-      <c r="H56" s="165" t="str">
-        <f>주간메뉴표!E55</f>
-        <v>발사믹D&amp;참깨D</v>
-      </c>
-      <c r="I56" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="J56" s="251"/>
-      <c r="K56" s="167" t="str">
-        <f>주간메뉴표!F55</f>
-        <v>오리엔탈D&amp;블루베리D</v>
-      </c>
-      <c r="L56" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="M56" s="251"/>
-      <c r="N56" s="167" t="str">
-        <f>주간메뉴표!G55</f>
-        <v>발사믹D&amp;파인애플D</v>
+        <v>발사믹&amp;한라봉D</v>
       </c>
       <c r="O56" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="P56" s="251"/>
-      <c r="Q56" s="167" t="str">
-        <f>주간메뉴표!H55</f>
-        <v>오리엔탈D&amp;딸기D</v>
+      <c r="P56" s="226"/>
+      <c r="Q56" s="163" t="str">
+        <f>주간메뉴표!H53</f>
+        <v>오리엔탈&amp;사우전아일랜드D</v>
       </c>
       <c r="R56" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="S56" s="246"/>
+      <c r="S56" s="221"/>
     </row>
     <row r="57" spans="2:19" ht="20.25" customHeight="1">
       <c r="E57" s="70"/>
@@ -10656,7 +10533,7 @@
       <c r="B84" s="74"/>
     </row>
   </sheetData>
-  <mergeCells count="70">
+  <mergeCells count="71">
     <mergeCell ref="C9:C14"/>
     <mergeCell ref="C21:C27"/>
     <mergeCell ref="D9:D14"/>
@@ -10727,6 +10604,7 @@
     <mergeCell ref="S37:S38"/>
     <mergeCell ref="Q37:Q38"/>
     <mergeCell ref="R37:R38"/>
+    <mergeCell ref="S47:S54"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lunch.xlsx
+++ b/lunch.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="340">
   <si>
     <t>작성 가이드</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -990,6 +990,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>도시락</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>코스 1,2</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1017,6 +1021,13 @@
     <t>Y</t>
   </si>
   <si>
+    <t>셀
+프
+키
+친</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>엄마의부엌</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1029,10 +1040,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>일자: 23.11.27~12.1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>깍두기</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1049,254 +1056,22 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>일식장국</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>석박지</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>아보카도귀리라이스</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>유부장국</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>다시마뭇국</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>우동국</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.1.29~2024.2.2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>월 1/29</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>화 1/30</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>수 1/31</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>목 2/1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>금 2/2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>만두순두부찌개</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>밀푀유나베</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>꼬치어묵탕*와사비장</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>뚝배기닭갈비*우동사리</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>쇠고기콩나물밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>동태전</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>*땅콩&amp;칠리소스</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>제육볶음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>미역국</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>뚝배기된장찌개</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>어묵꽈리고추볶음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>브로콜리숙회*초장</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>감자채전</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>도톰완자전*케찹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>도시락김</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>도토리묵무침</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>고춧잎무침/깍두기</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>마제소바*스크램블에그</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>우삼겹짬뽕</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>양지쌀국수</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>버섯구이오므라이스*토마토소스</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>고구마맛탕</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>왕교자만두찜</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>새우가스*타르타르S</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>해물짜조</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>숯불데리야끼닭꼬치</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>꼬들단무지</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>요거트푸딩</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>미니쌀밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>탄산음료</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>베이컨마늘볶음밥*후라이</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fun!629_</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>국물떡볶이&amp;튀김쌈</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>한입고르곤졸라피자</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>계란채소볶음밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>철판더블치즈함박</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>중화식자장덮밥*후라이</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗김말이,고추튀김,군만두,오징어튀김</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>마카로니샐러드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>웨지감자튀김*케찹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>만두강정</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>양파고추간장절임</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>양배추샐러드*사우전D</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>멸치양념밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>단무지/우동국</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>갓김치</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>식혜</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>발사믹&amp;참깨D</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>꿀유자차</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>매실차</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>오리엔탈&amp;망고D</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1309,229 +1084,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>오리엔탈&amp;딸기D</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>비프나쵸샐러드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>크림새우샐러드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>꽃맛살아보카도샐러드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>베이컨루꼴라샐러드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>카프레제샐러드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>닭다리살간장볶음
-동태전/어묵꽈리고추볶음/
-볶음김치/잡곡밥/잔멸치볶음/과일/샐러드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>제육볶음
-메추리알장조림/감자튀김/볶음김치/잡곡밥/꼬들단무지/과일/샐러드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>우삼겹숙주볶음
-두부구이/땅종조림/볶음김치/잡곡밥/브로콜리숙회/과일/샐러드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>돈사태떡찜
-감자채전/맛살볶음/볶음김치/잡곡밥/도토리묵*양념장/과일/샐러드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>떡갈비구이*양파구이
-두부조림/미역줄기볶움/볶음김치/잡곡밥/고춧잎무침/과일/샐러드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>컬리플라워두부김치볶음밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>훈제오리귀리라이스</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>닭가슴살두부면샐러드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>폴드포크누들샐러드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>뚝배기제육치즈솥밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>비프하이라이스</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>소고기된장국밥*라면사리</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>묵말랭이들깨수제비</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>제주식돼지수육해장국</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>설탕핫도그</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>치킨너겟*허니머스터드S</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>옛날소시지전*케찹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>바싹불고기</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>코다리강정</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>청포묵김가루무침</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>과일사라다</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>다시마숙회*초장</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>흰콩곤약조림</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>궁채절임</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>미역초무침</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>고들빼기절임</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>숙주미나리나물</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>계란팟국</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>셀프우삼겹숙주비빔밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>셀프삼겹살파채비빔밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>셀프매콤오징어비빔밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>셀프치킨가라아게동</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>셀프참치채소비빔밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗쌀밥,우삼겹볶음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗쌀밥,삼겹살볶음,파채무침</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗쌀밥,오징어볶음,계란후라이</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗쌀밥,순살치킨,파채</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗쌀밥,참치캔,계란후라이</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗숙주양파볶음,부추생채</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>┗쫑상추,콩나물무침</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>┗적색초생강절임,양파볶음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>┗맛김가루</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗양배추,오이,당근채,맛김가루</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>너비아니마늘종볶음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>떡갈비조림</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>고추만두튀김</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>감자샐러드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>비엔나소시지볶음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>유채된장국</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1545,71 +1102,458 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>소불고기&amp;새우튀김마리</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>소시지&amp;제육볶음마리</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>고추장진미채&amp;떡갈비마리</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>장조림&amp;매콤멸치마리</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>돈가스&amp;꼬마김밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>초코라떼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>츠케멘(찍어먹는라멘)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>한식도시락
-set</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>마리set</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>테
-마
-6
-2
-9</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>무비트피클/탄산음료</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>그린샐러드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>갈릭점보장각구이</t>
-    </r>
+    <t>2024.2.5~2024.2.9</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>월 2/5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>화 2/6</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>수 2/7</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>목 2/8</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>금 2/9</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>전주식콩나물국밥*수란</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>오색사골떡국</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>뼈없는순살감자탕</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>쇠고기보양미역탕</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>돼지고기강정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니철판돼지갈비구이</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>제육김치볶음*두부찜</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>황태골뱅이무침</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>호박버섯볶음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>채소잡채</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>완자&amp;새송이전</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>파래자반</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙주유부나물</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>배추겉절이/잡곡밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>석박지/잡곡밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>우육탕면</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>스팸김치볶음밥*후라이</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>숯불육쌈쫄면</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>옛날크림스프</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>수제유린기</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>야끼만두</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>에그마요모닝빵</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>콘샐러드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>팽이버섯장국</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>들깨칼제비</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>수제미트소스라자냐</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
-        <sz val="9"/>
+        <sz val="12"/>
         <rFont val="나눔고딕 ExtraBold"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>*소스2종</t>
+      <t>호호식당st_</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="나눔고딕 ExtraBold"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>명란오일파스타</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>일식간장불고기솥밥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="나눔고딕 ExtraBold"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>*후라이</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>매콤오징어볶음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>호핑존샐러드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(미국새해음식)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>새우튀김*양배추샐러드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>김가루양념밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>수제피클</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>산고추&amp;압축단무지</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>락교고추장무침</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>배추겉절이</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>율무차</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정과</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>요거트*씨리얼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>깻잎닭갈비
+돼지고기강정/해물파전
+볶음김치/쌀밥/오이지무침/
+과일/샐러드/국/생수</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>버섯소불고기
+완자전/미니오믈렛/
+볶음김치/쌀밥/꼬들단무지/
+과일/샐러드/국/생수</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>목살양념구이
+감자크로켓/파래자반/
+볶음김치/쌀밥/콘샐러드/
+과일/샐러드/국/생수</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>오징어굴소스볶음
+야끼만두/숙주유부나물/
+볶음김치/쌀밥/단무지/
+과일/샐러드/국/생수</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>제육컬리플라워덮밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>그릴치킨렌틸콩라이스</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>비건갈비살볶음밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>토마토미트볼라이스</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈가스&amp;소시지마리</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼬마김밥&amp;치킨텐더마리</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>스팸&amp;매콤어묵마리</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>오징어튀김&amp;제육마리</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>감자스팸짜글이찌개</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>훈제오리볶음밥*후라이</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>장터국밥*당면사리</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭곰탕*소면사리</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡채어묵볶음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>오징어너겟*스위트칠리s</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>비엔나케첩볶음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>비빔채소납작만두</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>계란찜</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>단호박샐러드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>감자채햄볶음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>참나물유자무침</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>봄동된장무침</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>부추생채</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>시금치된장국</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀프불고기유부비빔밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀프우렁된장비빔밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀프제육비빔밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀프장조림버터비빔밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗쌀밥,불고기,유부조림</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗쌀밥,우렁강된장,계란후라이</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗쌀밥,제육볶음,계란후라이</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗쌀밥,장조림,스크램블에그</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗부추생채,무나물</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗쫑상추,무생채</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗쫑상추,오복지</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>계란장조림</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>고기메밀전병</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>생선가스*타르타르s</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>찹쌀도너츠</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>열무김치</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>우동국물</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>설날연휴</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>해물파전</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>훈제오리단호박샐러드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>베이컨시저샐러드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>케이준치킨샐러드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>씨푸드파스타샐러드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>햄계란전*케찹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>일자: 24.02.05~02.09</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>마리</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>모듬크로켓</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>남산st왕돈가스</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1621,7 +1565,7 @@
     <numFmt numFmtId="176" formatCode="mm&quot;/&quot;dd\ ddd"/>
     <numFmt numFmtId="177" formatCode="##\ &quot;Kcal&quot;"/>
   </numFmts>
-  <fonts count="56">
+  <fonts count="58">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
@@ -1930,6 +1874,13 @@
       <charset val="129"/>
     </font>
     <font>
+      <sz val="12.5"/>
+      <color theme="0"/>
+      <name val="나눔고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
       <sz val="13"/>
       <name val="나눔고딕"/>
       <family val="3"/>
@@ -2010,6 +1961,13 @@
     </font>
     <font>
       <sz val="14"/>
+      <color rgb="FF008A3E"/>
+      <name val="나눔고딕 ExtraBold"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="나눔고딕"/>
       <family val="3"/>
@@ -2022,13 +1980,13 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <name val="나눔고딕 ExtraBold"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2071,8 +2029,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -2371,6 +2335,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2410,7 +2400,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="277">
+  <cellXfs count="296">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2672,7 +2662,7 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2702,10 +2692,10 @@
     <xf numFmtId="0" fontId="24" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2714,7 +2704,7 @@
     <xf numFmtId="0" fontId="24" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2729,13 +2719,13 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2756,10 +2746,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2768,7 +2758,7 @@
     <xf numFmtId="0" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2780,10 +2770,10 @@
     <xf numFmtId="177" fontId="24" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2828,6 +2818,9 @@
     <xf numFmtId="177" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2873,7 +2866,7 @@
     <xf numFmtId="0" fontId="20" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2897,13 +2890,13 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2927,27 +2920,18 @@
     <xf numFmtId="177" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2957,34 +2941,34 @@
     <xf numFmtId="177" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="42" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="43" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="42" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="43" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="42" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="43" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="24" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2999,229 +2983,304 @@
     <xf numFmtId="177" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="5" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="41" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="41" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="41" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="41" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="41" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="40" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="40" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="40" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="40" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="40" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="41" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="41" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="41" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="41" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="41" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="40" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="40" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="40" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="41" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="41" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="41" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="40" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="40" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="40" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="41" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="40" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="41" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="40" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="41" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="40" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3229,18 +3288,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="40" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="40" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="40" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -3295,7 +3342,7 @@
         <xdr:cNvPr id="2" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3344,7 +3391,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3412,7 +3459,7 @@
         <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3475,7 +3522,7 @@
         <xdr:cNvPr id="5" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1276C702-E1C5-4135-9D6A-039A323075D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1276C702-E1C5-4135-9D6A-039A323075D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3519,7 +3566,7 @@
         <xdr:cNvPr id="6" name="그림 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36BF8C57-A606-4E69-AB0D-AB573D31B978}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{36BF8C57-A606-4E69-AB0D-AB573D31B978}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3582,7 +3629,7 @@
         <xdr:cNvPr id="7" name="그림 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A452F84A-65F9-46A6-A3B2-226018E8ADF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A452F84A-65F9-46A6-A3B2-226018E8ADF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3645,7 +3692,7 @@
         <xdr:cNvPr id="10" name="그림 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36BF8C57-A606-4E69-AB0D-AB573D31B978}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{36BF8C57-A606-4E69-AB0D-AB573D31B978}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3708,7 +3755,7 @@
         <xdr:cNvPr id="11" name="그림 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A452F84A-65F9-46A6-A3B2-226018E8ADF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A452F84A-65F9-46A6-A3B2-226018E8ADF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3771,7 +3818,7 @@
         <xdr:cNvPr id="12" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1276C702-E1C5-4135-9D6A-039A323075D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1276C702-E1C5-4135-9D6A-039A323075D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3815,7 +3862,7 @@
         <xdr:cNvPr id="13" name="그림 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36BF8C57-A606-4E69-AB0D-AB573D31B978}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{36BF8C57-A606-4E69-AB0D-AB573D31B978}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3878,7 +3925,7 @@
         <xdr:cNvPr id="14" name="그림 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A452F84A-65F9-46A6-A3B2-226018E8ADF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A452F84A-65F9-46A6-A3B2-226018E8ADF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3941,7 +3988,7 @@
         <xdr:cNvPr id="20" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1276C702-E1C5-4135-9D6A-039A323075D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1276C702-E1C5-4135-9D6A-039A323075D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3985,7 +4032,7 @@
         <xdr:cNvPr id="21" name="그림 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36BF8C57-A606-4E69-AB0D-AB573D31B978}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{36BF8C57-A606-4E69-AB0D-AB573D31B978}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4048,7 +4095,7 @@
         <xdr:cNvPr id="22" name="그림 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A452F84A-65F9-46A6-A3B2-226018E8ADF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A452F84A-65F9-46A6-A3B2-226018E8ADF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4111,7 +4158,7 @@
         <xdr:cNvPr id="16" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1276C702-E1C5-4135-9D6A-039A323075D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1276C702-E1C5-4135-9D6A-039A323075D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4160,7 +4207,7 @@
         <xdr:cNvPr id="20" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1276C702-E1C5-4135-9D6A-039A323075D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1276C702-E1C5-4135-9D6A-039A323075D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4204,7 +4251,7 @@
         <xdr:cNvPr id="7" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1276C702-E1C5-4135-9D6A-039A323075D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1276C702-E1C5-4135-9D6A-039A323075D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4238,9 +4285,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1020536</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>13608</xdr:rowOff>
+      <xdr:colOff>979715</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="810323" cy="788225"/>
     <xdr:pic>
@@ -4264,7 +4311,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2694215" y="7279822"/>
+          <a:off x="2653394" y="7021286"/>
           <a:ext cx="810323" cy="788225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4278,8 +4325,8 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>928008</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>70758</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>247651</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="810323" cy="788225"/>
     <xdr:pic>
@@ -4303,7 +4350,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6629401" y="7336972"/>
+          <a:off x="6629401" y="7187294"/>
           <a:ext cx="810323" cy="788225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4316,9 +4363,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1175658</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>127908</xdr:rowOff>
+      <xdr:colOff>998765</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="810323" cy="788225"/>
     <xdr:pic>
@@ -4342,46 +4389,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8890908" y="7394122"/>
-          <a:ext cx="810323" cy="788225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1382486</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>35380</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="810323" cy="788225"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="187" name="그림 186"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11111593" y="7301594"/>
+          <a:off x="8714015" y="4999265"/>
           <a:ext cx="810323" cy="788225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4409,7 +4417,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4829,7 +4837,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="105"/>
       <c r="H2" s="2"/>
-      <c r="J2" s="203" t="s">
+      <c r="J2" s="220" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="32"/>
@@ -4847,7 +4855,7 @@
       <c r="E3" s="12"/>
       <c r="F3" s="106"/>
       <c r="G3" s="11"/>
-      <c r="J3" s="203"/>
+      <c r="J3" s="220"/>
       <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:18" ht="24" customHeight="1">
@@ -4884,7 +4892,7 @@
       <c r="H5" s="84" t="s">
         <v>182</v>
       </c>
-      <c r="J5" s="204" t="s">
+      <c r="J5" s="221" t="s">
         <v>40</v>
       </c>
       <c r="K5" s="48"/>
@@ -4897,7 +4905,7 @@
       <c r="R5" s="2"/>
     </row>
     <row r="6" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B6" s="206" t="s">
+      <c r="B6" s="223" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="20" t="s">
@@ -4918,7 +4926,7 @@
       <c r="H6" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="J6" s="205"/>
+      <c r="J6" s="222"/>
       <c r="K6" s="21"/>
       <c r="L6" s="52"/>
       <c r="M6" s="52"/>
@@ -4929,7 +4937,7 @@
       <c r="R6" s="22"/>
     </row>
     <row r="7" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B7" s="206"/>
+      <c r="B7" s="223"/>
       <c r="C7" s="23" t="s">
         <v>7</v>
       </c>
@@ -4948,7 +4956,7 @@
       <c r="H7" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="205"/>
+      <c r="J7" s="222"/>
       <c r="K7" s="24"/>
       <c r="L7" s="52"/>
       <c r="M7" s="52"/>
@@ -4959,7 +4967,7 @@
       <c r="R7" s="22"/>
     </row>
     <row r="8" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B8" s="206"/>
+      <c r="B8" s="223"/>
       <c r="C8" s="104"/>
       <c r="D8" s="24" t="s">
         <v>185</v>
@@ -4976,7 +4984,7 @@
       <c r="H8" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="J8" s="205"/>
+      <c r="J8" s="222"/>
       <c r="K8" s="24"/>
       <c r="L8" s="16"/>
       <c r="M8" s="52"/>
@@ -4987,7 +4995,7 @@
       <c r="R8" s="22"/>
     </row>
     <row r="9" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B9" s="206"/>
+      <c r="B9" s="223"/>
       <c r="C9" s="104"/>
       <c r="D9" s="24" t="s">
         <v>70</v>
@@ -5004,7 +5012,7 @@
       <c r="H9" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="J9" s="205"/>
+      <c r="J9" s="222"/>
       <c r="K9" s="24"/>
       <c r="L9" s="8"/>
       <c r="M9" s="52"/>
@@ -5015,7 +5023,7 @@
       <c r="R9" s="22"/>
     </row>
     <row r="10" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B10" s="206"/>
+      <c r="B10" s="223"/>
       <c r="C10" s="104"/>
       <c r="D10" s="24" t="s">
         <v>74</v>
@@ -5032,7 +5040,7 @@
       <c r="H10" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="205"/>
+      <c r="J10" s="222"/>
       <c r="K10" s="24"/>
       <c r="L10" s="16"/>
       <c r="M10" s="52"/>
@@ -5043,7 +5051,7 @@
       <c r="R10" s="22"/>
     </row>
     <row r="11" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B11" s="206"/>
+      <c r="B11" s="223"/>
       <c r="C11" s="104"/>
       <c r="D11" s="24" t="s">
         <v>56</v>
@@ -5060,7 +5068,7 @@
       <c r="H11" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="J11" s="205"/>
+      <c r="J11" s="222"/>
       <c r="K11" s="24"/>
       <c r="L11" s="16"/>
       <c r="M11" s="52"/>
@@ -5071,7 +5079,7 @@
       <c r="R11" s="26"/>
     </row>
     <row r="12" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B12" s="206"/>
+      <c r="B12" s="223"/>
       <c r="C12" s="28"/>
       <c r="D12" s="24" t="s">
         <v>53</v>
@@ -5088,7 +5096,7 @@
       <c r="H12" s="34">
         <v>725</v>
       </c>
-      <c r="J12" s="205"/>
+      <c r="J12" s="222"/>
       <c r="K12" s="24"/>
       <c r="L12" s="16"/>
       <c r="M12" s="52"/>
@@ -5099,7 +5107,7 @@
       <c r="R12" s="22"/>
     </row>
     <row r="13" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B13" s="206"/>
+      <c r="B13" s="223"/>
       <c r="C13" s="20" t="s">
         <v>8</v>
       </c>
@@ -5110,7 +5118,7 @@
       <c r="H13" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="J13" s="205"/>
+      <c r="J13" s="222"/>
       <c r="K13" s="21"/>
       <c r="L13" s="16"/>
       <c r="M13" s="52"/>
@@ -5121,7 +5129,7 @@
       <c r="R13" s="22"/>
     </row>
     <row r="14" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B14" s="206"/>
+      <c r="B14" s="223"/>
       <c r="C14" s="23" t="s">
         <v>43</v>
       </c>
@@ -5132,7 +5140,7 @@
       <c r="H14" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="J14" s="205"/>
+      <c r="J14" s="222"/>
       <c r="K14" s="24"/>
       <c r="L14" s="21"/>
       <c r="M14" s="40"/>
@@ -5143,7 +5151,7 @@
       <c r="R14" s="29"/>
     </row>
     <row r="15" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B15" s="206"/>
+      <c r="B15" s="223"/>
       <c r="C15" s="104"/>
       <c r="D15" s="24"/>
       <c r="E15" s="127"/>
@@ -5152,7 +5160,7 @@
       <c r="H15" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="J15" s="205"/>
+      <c r="J15" s="222"/>
       <c r="K15" s="24"/>
       <c r="L15" s="24"/>
       <c r="M15" s="52"/>
@@ -5163,7 +5171,7 @@
       <c r="R15" s="22"/>
     </row>
     <row r="16" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B16" s="206"/>
+      <c r="B16" s="223"/>
       <c r="C16" s="104"/>
       <c r="D16" s="24"/>
       <c r="E16" s="129"/>
@@ -5172,7 +5180,7 @@
       <c r="H16" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="J16" s="205"/>
+      <c r="J16" s="222"/>
       <c r="K16" s="24"/>
       <c r="L16" s="24"/>
       <c r="M16" s="52"/>
@@ -5183,7 +5191,7 @@
       <c r="R16" s="22"/>
     </row>
     <row r="17" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B17" s="206"/>
+      <c r="B17" s="223"/>
       <c r="C17" s="104"/>
       <c r="D17" s="24"/>
       <c r="E17" s="129"/>
@@ -5192,7 +5200,7 @@
       <c r="H17" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="J17" s="205"/>
+      <c r="J17" s="222"/>
       <c r="K17" s="24"/>
       <c r="L17" s="24"/>
       <c r="M17" s="52"/>
@@ -5206,7 +5214,7 @@
       <c r="A18" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="206"/>
+      <c r="B18" s="223"/>
       <c r="C18" s="31"/>
       <c r="D18" s="24"/>
       <c r="E18" s="129"/>
@@ -5215,7 +5223,7 @@
       <c r="H18" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="J18" s="205"/>
+      <c r="J18" s="222"/>
       <c r="K18" s="24"/>
       <c r="L18" s="24"/>
       <c r="M18" s="52"/>
@@ -5226,7 +5234,7 @@
       <c r="R18" s="22"/>
     </row>
     <row r="19" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B19" s="206"/>
+      <c r="B19" s="223"/>
       <c r="C19" s="28"/>
       <c r="D19" s="34">
         <v>1014</v>
@@ -5239,7 +5247,7 @@
       <c r="H19" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="J19" s="205"/>
+      <c r="J19" s="222"/>
       <c r="K19" s="34"/>
       <c r="L19" s="24"/>
       <c r="M19" s="52"/>
@@ -5250,7 +5258,7 @@
       <c r="R19" s="32"/>
     </row>
     <row r="20" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B20" s="206"/>
+      <c r="B20" s="223"/>
       <c r="C20" s="20" t="s">
         <v>44</v>
       </c>
@@ -5265,7 +5273,7 @@
         <v>82</v>
       </c>
       <c r="H20" s="24"/>
-      <c r="J20" s="205"/>
+      <c r="J20" s="222"/>
       <c r="K20" s="24"/>
       <c r="L20" s="32"/>
       <c r="M20" s="52"/>
@@ -5276,7 +5284,7 @@
       <c r="R20" s="22"/>
     </row>
     <row r="21" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B21" s="206"/>
+      <c r="B21" s="223"/>
       <c r="C21" s="23" t="s">
         <v>45</v>
       </c>
@@ -5291,7 +5299,7 @@
         <v>84</v>
       </c>
       <c r="H21" s="24"/>
-      <c r="J21" s="205"/>
+      <c r="J21" s="222"/>
       <c r="K21" s="24"/>
       <c r="L21" s="16"/>
       <c r="M21" s="52"/>
@@ -5302,7 +5310,7 @@
       <c r="R21" s="22"/>
     </row>
     <row r="22" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B22" s="206"/>
+      <c r="B22" s="223"/>
       <c r="C22" s="23"/>
       <c r="D22" s="121" t="s">
         <v>85</v>
@@ -5315,7 +5323,7 @@
         <v>86</v>
       </c>
       <c r="H22" s="24"/>
-      <c r="J22" s="205"/>
+      <c r="J22" s="222"/>
       <c r="K22" s="24"/>
       <c r="L22" s="16"/>
       <c r="M22" s="52"/>
@@ -5326,7 +5334,7 @@
       <c r="R22" s="22"/>
     </row>
     <row r="23" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B23" s="206"/>
+      <c r="B23" s="223"/>
       <c r="C23" s="104"/>
       <c r="D23" s="121" t="s">
         <v>87</v>
@@ -5339,7 +5347,7 @@
         <v>89</v>
       </c>
       <c r="H23" s="24"/>
-      <c r="J23" s="205"/>
+      <c r="J23" s="222"/>
       <c r="K23" s="24"/>
       <c r="L23" s="16"/>
       <c r="M23" s="40"/>
@@ -5350,7 +5358,7 @@
       <c r="R23" s="29"/>
     </row>
     <row r="24" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B24" s="206"/>
+      <c r="B24" s="223"/>
       <c r="C24" s="104"/>
       <c r="D24" s="121" t="s">
         <v>90</v>
@@ -5363,7 +5371,7 @@
         <v>91</v>
       </c>
       <c r="H24" s="24"/>
-      <c r="J24" s="205"/>
+      <c r="J24" s="222"/>
       <c r="K24" s="24"/>
       <c r="L24" s="16"/>
       <c r="M24" s="52"/>
@@ -5374,7 +5382,7 @@
       <c r="R24" s="22"/>
     </row>
     <row r="25" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B25" s="206"/>
+      <c r="B25" s="223"/>
       <c r="C25" s="104"/>
       <c r="D25" s="121" t="s">
         <v>53</v>
@@ -5385,7 +5393,7 @@
         <v>79</v>
       </c>
       <c r="H25" s="24"/>
-      <c r="J25" s="205"/>
+      <c r="J25" s="222"/>
       <c r="K25" s="24"/>
       <c r="L25" s="16"/>
       <c r="M25" s="52"/>
@@ -5396,7 +5404,7 @@
       <c r="R25" s="22"/>
     </row>
     <row r="26" spans="1:18" s="33" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B26" s="206"/>
+      <c r="B26" s="223"/>
       <c r="C26" s="28"/>
       <c r="D26" s="122"/>
       <c r="E26" s="130"/>
@@ -5405,7 +5413,7 @@
       <c r="H26" s="34">
         <v>725</v>
       </c>
-      <c r="J26" s="205"/>
+      <c r="J26" s="222"/>
       <c r="K26" s="85"/>
       <c r="L26" s="66"/>
       <c r="M26" s="35"/>
@@ -5416,8 +5424,8 @@
       <c r="R26" s="30"/>
     </row>
     <row r="27" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B27" s="206"/>
-      <c r="C27" s="214" t="s">
+      <c r="B27" s="223"/>
+      <c r="C27" s="231" t="s">
         <v>46</v>
       </c>
       <c r="D27" s="24" t="s">
@@ -5435,7 +5443,7 @@
       <c r="H27" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="J27" s="205"/>
+      <c r="J27" s="222"/>
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
       <c r="M27" s="66"/>
@@ -5446,8 +5454,8 @@
       <c r="R27" s="26"/>
     </row>
     <row r="28" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B28" s="206"/>
-      <c r="C28" s="217"/>
+      <c r="B28" s="223"/>
+      <c r="C28" s="234"/>
       <c r="D28" s="24" t="s">
         <v>54</v>
       </c>
@@ -5463,7 +5471,7 @@
       <c r="H28" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="J28" s="205"/>
+      <c r="J28" s="222"/>
       <c r="K28" s="16"/>
       <c r="L28" s="16"/>
       <c r="M28" s="66"/>
@@ -5474,8 +5482,8 @@
       <c r="R28" s="26"/>
     </row>
     <row r="29" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B29" s="206"/>
-      <c r="C29" s="218"/>
+      <c r="B29" s="223"/>
+      <c r="C29" s="235"/>
       <c r="D29" s="96" t="s">
         <v>97</v>
       </c>
@@ -5489,7 +5497,7 @@
       <c r="H29" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="J29" s="205"/>
+      <c r="J29" s="222"/>
       <c r="K29" s="16"/>
       <c r="L29" s="16"/>
       <c r="M29" s="66"/>
@@ -5500,7 +5508,7 @@
       <c r="R29" s="26"/>
     </row>
     <row r="30" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B30" s="206"/>
+      <c r="B30" s="223"/>
       <c r="C30" s="20" t="s">
         <v>47</v>
       </c>
@@ -5517,7 +5525,7 @@
       <c r="H30" s="133" t="s">
         <v>100</v>
       </c>
-      <c r="J30" s="205"/>
+      <c r="J30" s="222"/>
       <c r="K30" s="24"/>
       <c r="L30" s="36"/>
       <c r="M30" s="16"/>
@@ -5528,7 +5536,7 @@
       <c r="R30" s="37"/>
     </row>
     <row r="31" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B31" s="206"/>
+      <c r="B31" s="223"/>
       <c r="C31" s="101" t="s">
         <v>48</v>
       </c>
@@ -5545,7 +5553,7 @@
       <c r="H31" s="120" t="s">
         <v>103</v>
       </c>
-      <c r="J31" s="205"/>
+      <c r="J31" s="222"/>
       <c r="K31" s="24"/>
       <c r="L31" s="25"/>
       <c r="M31" s="16"/>
@@ -5556,7 +5564,7 @@
       <c r="R31" s="37"/>
     </row>
     <row r="32" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B32" s="206"/>
+      <c r="B32" s="223"/>
       <c r="C32" s="101" t="s">
         <v>49</v>
       </c>
@@ -5573,7 +5581,7 @@
       <c r="H32" s="121" t="s">
         <v>105</v>
       </c>
-      <c r="J32" s="205"/>
+      <c r="J32" s="222"/>
       <c r="K32" s="24"/>
       <c r="L32" s="16"/>
       <c r="M32" s="16"/>
@@ -5587,7 +5595,7 @@
       <c r="A33" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="206"/>
+      <c r="B33" s="223"/>
       <c r="C33" s="103"/>
       <c r="D33" s="24" t="s">
         <v>106</v>
@@ -5602,7 +5610,7 @@
       <c r="H33" s="121" t="s">
         <v>109</v>
       </c>
-      <c r="J33" s="205"/>
+      <c r="J33" s="222"/>
       <c r="K33" s="16"/>
       <c r="L33" s="32"/>
       <c r="M33" s="16"/>
@@ -5616,7 +5624,7 @@
       <c r="A34" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="206"/>
+      <c r="B34" s="223"/>
       <c r="C34" s="103"/>
       <c r="D34" s="24"/>
       <c r="E34" s="127" t="s">
@@ -5629,7 +5637,7 @@
       <c r="H34" s="121" t="s">
         <v>110</v>
       </c>
-      <c r="J34" s="205"/>
+      <c r="J34" s="222"/>
       <c r="K34" s="38"/>
       <c r="L34" s="32"/>
       <c r="M34" s="16"/>
@@ -5640,7 +5648,7 @@
       <c r="R34" s="39"/>
     </row>
     <row r="35" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B35" s="206"/>
+      <c r="B35" s="223"/>
       <c r="C35" s="104"/>
       <c r="D35" s="24"/>
       <c r="E35" s="127" t="s">
@@ -5651,7 +5659,7 @@
       <c r="H35" s="121" t="s">
         <v>203</v>
       </c>
-      <c r="J35" s="205"/>
+      <c r="J35" s="222"/>
       <c r="K35" s="38"/>
       <c r="L35" s="16"/>
       <c r="M35" s="40"/>
@@ -5662,7 +5670,7 @@
       <c r="R35" s="43"/>
     </row>
     <row r="36" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B36" s="206"/>
+      <c r="B36" s="223"/>
       <c r="C36" s="28"/>
       <c r="D36" s="34"/>
       <c r="E36" s="130"/>
@@ -5671,7 +5679,7 @@
       <c r="H36" s="122" t="s">
         <v>111</v>
       </c>
-      <c r="J36" s="205"/>
+      <c r="J36" s="222"/>
       <c r="K36" s="16"/>
       <c r="L36" s="16"/>
       <c r="M36" s="66"/>
@@ -5682,8 +5690,8 @@
       <c r="R36" s="26"/>
     </row>
     <row r="37" spans="1:18" s="44" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B37" s="206"/>
-      <c r="C37" s="207" t="s">
+      <c r="B37" s="223"/>
+      <c r="C37" s="224" t="s">
         <v>50</v>
       </c>
       <c r="D37" s="98" t="s">
@@ -5699,7 +5707,7 @@
       <c r="H37" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="J37" s="209" t="s">
+      <c r="J37" s="226" t="s">
         <v>17</v>
       </c>
       <c r="K37" s="16"/>
@@ -5712,8 +5720,8 @@
       <c r="R37" s="32"/>
     </row>
     <row r="38" spans="1:18" s="47" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B38" s="206"/>
-      <c r="C38" s="208"/>
+      <c r="B38" s="223"/>
+      <c r="C38" s="225"/>
       <c r="D38" s="124" t="s">
         <v>116</v>
       </c>
@@ -5727,7 +5735,7 @@
       <c r="H38" s="98" t="s">
         <v>119</v>
       </c>
-      <c r="J38" s="210"/>
+      <c r="J38" s="227"/>
       <c r="K38" s="38"/>
       <c r="L38" s="52"/>
       <c r="M38" s="16"/>
@@ -5738,7 +5746,7 @@
       <c r="R38" s="32"/>
     </row>
     <row r="39" spans="1:18" s="47" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B39" s="206"/>
+      <c r="B39" s="223"/>
       <c r="C39" s="103"/>
       <c r="D39" s="98" t="s">
         <v>120</v>
@@ -5753,7 +5761,7 @@
       <c r="H39" s="98" t="s">
         <v>123</v>
       </c>
-      <c r="J39" s="210"/>
+      <c r="J39" s="227"/>
       <c r="K39" s="16"/>
       <c r="L39" s="52"/>
       <c r="M39" s="16"/>
@@ -5764,7 +5772,7 @@
       <c r="R39" s="59"/>
     </row>
     <row r="40" spans="1:18" s="17" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B40" s="206"/>
+      <c r="B40" s="223"/>
       <c r="C40" s="103"/>
       <c r="D40" s="124" t="s">
         <v>124</v>
@@ -5779,7 +5787,7 @@
       <c r="H40" s="98" t="s">
         <v>127</v>
       </c>
-      <c r="J40" s="210"/>
+      <c r="J40" s="227"/>
       <c r="K40" s="16"/>
       <c r="L40" s="40"/>
       <c r="M40" s="16"/>
@@ -5790,7 +5798,7 @@
       <c r="R40" s="69"/>
     </row>
     <row r="41" spans="1:18" s="47" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B41" s="206"/>
+      <c r="B41" s="223"/>
       <c r="C41" s="91"/>
       <c r="D41" s="98" t="s">
         <v>128</v>
@@ -5805,7 +5813,7 @@
       <c r="H41" s="98" t="s">
         <v>131</v>
       </c>
-      <c r="J41" s="210"/>
+      <c r="J41" s="227"/>
       <c r="L41" s="52"/>
       <c r="M41" s="52"/>
       <c r="N41" s="52"/>
@@ -5833,7 +5841,7 @@
       <c r="R42" s="22"/>
     </row>
     <row r="43" spans="1:18" s="17" customFormat="1" ht="26.1" customHeight="1" thickTop="1">
-      <c r="B43" s="211" t="s">
+      <c r="B43" s="228" t="s">
         <v>11</v>
       </c>
       <c r="C43" s="93" t="s">
@@ -5854,7 +5862,7 @@
       <c r="H43" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="J43" s="213" t="s">
+      <c r="J43" s="230" t="s">
         <v>12</v>
       </c>
       <c r="K43" s="52"/>
@@ -5870,7 +5878,7 @@
       <c r="A44" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="206"/>
+      <c r="B44" s="223"/>
       <c r="C44" s="94"/>
       <c r="D44" s="24" t="s">
         <v>134</v>
@@ -5887,7 +5895,7 @@
       <c r="H44" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="J44" s="213"/>
+      <c r="J44" s="230"/>
       <c r="K44" s="50"/>
       <c r="L44" s="16"/>
       <c r="M44" s="52"/>
@@ -5898,7 +5906,7 @@
       <c r="R44" s="22"/>
     </row>
     <row r="45" spans="1:18" s="17" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B45" s="206"/>
+      <c r="B45" s="223"/>
       <c r="C45" s="103"/>
       <c r="D45" s="24" t="s">
         <v>208</v>
@@ -5915,7 +5923,7 @@
       <c r="H45" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="J45" s="213"/>
+      <c r="J45" s="230"/>
       <c r="K45" s="16"/>
       <c r="L45" s="30"/>
       <c r="M45" s="52"/>
@@ -5926,7 +5934,7 @@
       <c r="R45" s="22"/>
     </row>
     <row r="46" spans="1:18" s="17" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B46" s="206"/>
+      <c r="B46" s="223"/>
       <c r="C46" s="103"/>
       <c r="D46" s="24" t="s">
         <v>57</v>
@@ -5943,7 +5951,7 @@
       <c r="H46" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="J46" s="213"/>
+      <c r="J46" s="230"/>
       <c r="K46" s="16"/>
       <c r="L46" s="8"/>
       <c r="M46" s="66"/>
@@ -5954,7 +5962,7 @@
       <c r="R46" s="26"/>
     </row>
     <row r="47" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B47" s="206"/>
+      <c r="B47" s="223"/>
       <c r="C47" s="103"/>
       <c r="D47" s="24" t="s">
         <v>146</v>
@@ -5971,7 +5979,7 @@
       <c r="H47" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="J47" s="213"/>
+      <c r="J47" s="230"/>
       <c r="K47" s="16"/>
       <c r="L47" s="8"/>
       <c r="M47" s="66"/>
@@ -5982,7 +5990,7 @@
       <c r="R47" s="26"/>
     </row>
     <row r="48" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B48" s="206"/>
+      <c r="B48" s="223"/>
       <c r="C48" s="103"/>
       <c r="D48" s="24" t="s">
         <v>151</v>
@@ -5999,7 +6007,7 @@
       <c r="H48" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="J48" s="213"/>
+      <c r="J48" s="230"/>
       <c r="K48" s="30"/>
       <c r="L48" s="8"/>
       <c r="M48" s="30"/>
@@ -6010,7 +6018,7 @@
       <c r="R48" s="26"/>
     </row>
     <row r="49" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B49" s="206"/>
+      <c r="B49" s="223"/>
       <c r="C49" s="86"/>
       <c r="D49" s="34">
         <v>725</v>
@@ -6027,7 +6035,7 @@
       <c r="H49" s="34">
         <v>725</v>
       </c>
-      <c r="J49" s="213"/>
+      <c r="J49" s="230"/>
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
       <c r="M49" s="8"/>
@@ -6035,7 +6043,7 @@
       <c r="R49" s="22"/>
     </row>
     <row r="50" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B50" s="206"/>
+      <c r="B50" s="223"/>
       <c r="C50" s="20" t="s">
         <v>14</v>
       </c>
@@ -6050,14 +6058,14 @@
         <v>158</v>
       </c>
       <c r="H50" s="21"/>
-      <c r="J50" s="213"/>
+      <c r="J50" s="230"/>
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
       <c r="N50" s="52"/>
       <c r="R50" s="22"/>
     </row>
     <row r="51" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B51" s="206"/>
+      <c r="B51" s="223"/>
       <c r="C51" s="23"/>
       <c r="D51" s="24" t="s">
         <v>159</v>
@@ -6070,7 +6078,7 @@
         <v>161</v>
       </c>
       <c r="H51" s="24"/>
-      <c r="J51" s="213"/>
+      <c r="J51" s="230"/>
       <c r="K51" s="21"/>
       <c r="L51" s="21"/>
       <c r="M51" s="8"/>
@@ -6078,7 +6086,7 @@
       <c r="R51" s="22"/>
     </row>
     <row r="52" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B52" s="206"/>
+      <c r="B52" s="223"/>
       <c r="C52" s="20"/>
       <c r="D52" s="24" t="s">
         <v>162</v>
@@ -6091,7 +6099,7 @@
         <v>164</v>
       </c>
       <c r="H52" s="24"/>
-      <c r="J52" s="213"/>
+      <c r="J52" s="230"/>
       <c r="K52" s="24"/>
       <c r="L52" s="24"/>
       <c r="M52" s="8"/>
@@ -6099,7 +6107,7 @@
       <c r="R52" s="22"/>
     </row>
     <row r="53" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B53" s="206"/>
+      <c r="B53" s="223"/>
       <c r="C53" s="20"/>
       <c r="D53" s="24" t="s">
         <v>165</v>
@@ -6112,7 +6120,7 @@
         <v>167</v>
       </c>
       <c r="H53" s="24"/>
-      <c r="J53" s="213"/>
+      <c r="J53" s="230"/>
       <c r="K53" s="24"/>
       <c r="L53" s="24"/>
       <c r="M53" s="8"/>
@@ -6120,7 +6128,7 @@
       <c r="R53" s="22"/>
     </row>
     <row r="54" spans="2:18" s="51" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B54" s="206"/>
+      <c r="B54" s="223"/>
       <c r="C54" s="20"/>
       <c r="D54" s="24" t="s">
         <v>168</v>
@@ -6133,7 +6141,7 @@
         <v>144</v>
       </c>
       <c r="H54" s="24"/>
-      <c r="J54" s="213"/>
+      <c r="J54" s="230"/>
       <c r="K54" s="24"/>
       <c r="L54" s="24"/>
       <c r="M54" s="8"/>
@@ -6144,7 +6152,7 @@
       <c r="R54" s="22"/>
     </row>
     <row r="55" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B55" s="206"/>
+      <c r="B55" s="223"/>
       <c r="C55" s="20"/>
       <c r="D55" s="24" t="s">
         <v>170</v>
@@ -6157,7 +6165,7 @@
         <v>171</v>
       </c>
       <c r="H55" s="24"/>
-      <c r="J55" s="213"/>
+      <c r="J55" s="230"/>
       <c r="K55" s="24"/>
       <c r="L55" s="24"/>
       <c r="M55" s="52"/>
@@ -6165,7 +6173,7 @@
       <c r="R55" s="22"/>
     </row>
     <row r="56" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B56" s="206"/>
+      <c r="B56" s="223"/>
       <c r="C56" s="110"/>
       <c r="D56" s="34">
         <v>725</v>
@@ -6178,7 +6186,7 @@
         <v>905</v>
       </c>
       <c r="H56" s="34"/>
-      <c r="J56" s="213"/>
+      <c r="J56" s="230"/>
       <c r="K56" s="24"/>
       <c r="L56" s="24"/>
       <c r="M56" s="52"/>
@@ -6186,8 +6194,8 @@
       <c r="R56" s="22"/>
     </row>
     <row r="57" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B57" s="206"/>
-      <c r="C57" s="214" t="s">
+      <c r="B57" s="223"/>
+      <c r="C57" s="231" t="s">
         <v>10</v>
       </c>
       <c r="D57" s="24" t="s">
@@ -6205,7 +6213,7 @@
       <c r="H57" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="J57" s="213"/>
+      <c r="J57" s="230"/>
       <c r="K57" s="25"/>
       <c r="L57" s="30"/>
       <c r="M57" s="52"/>
@@ -6213,8 +6221,8 @@
       <c r="R57" s="22"/>
     </row>
     <row r="58" spans="2:18" ht="26.1" customHeight="1" thickBot="1">
-      <c r="B58" s="212"/>
-      <c r="C58" s="215"/>
+      <c r="B58" s="229"/>
+      <c r="C58" s="232"/>
       <c r="D58" s="100" t="s">
         <v>172</v>
       </c>
@@ -6230,7 +6238,7 @@
       <c r="H58" s="100" t="s">
         <v>176</v>
       </c>
-      <c r="J58" s="213"/>
+      <c r="J58" s="230"/>
       <c r="K58" s="16"/>
       <c r="L58" s="8"/>
       <c r="M58" s="52"/>
@@ -6261,7 +6269,7 @@
       <c r="F60" s="24"/>
       <c r="G60" s="32"/>
       <c r="H60" s="32"/>
-      <c r="J60" s="216" t="s">
+      <c r="J60" s="233" t="s">
         <v>15</v>
       </c>
       <c r="K60" s="16"/>
@@ -6282,7 +6290,7 @@
       <c r="F61" s="55"/>
       <c r="G61" s="16"/>
       <c r="H61" s="56"/>
-      <c r="J61" s="216"/>
+      <c r="J61" s="233"/>
       <c r="K61" s="59"/>
       <c r="L61" s="8"/>
       <c r="M61" s="52"/>
@@ -6297,14 +6305,14 @@
       <c r="E62" s="58"/>
       <c r="F62" s="57"/>
       <c r="G62" s="58"/>
-      <c r="H62" s="202"/>
+      <c r="H62" s="219"/>
       <c r="K62" s="16"/>
       <c r="L62" s="16"/>
       <c r="M62" s="52"/>
       <c r="N62" s="52"/>
     </row>
     <row r="63" spans="2:18" ht="14.25" customHeight="1">
-      <c r="H63" s="202"/>
+      <c r="H63" s="219"/>
       <c r="K63" s="52"/>
       <c r="L63" s="16"/>
       <c r="M63" s="52"/>
@@ -6665,8 +6673,8 @@
   </sheetPr>
   <dimension ref="A1:R862"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="96" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:J29"/>
+    <sheetView showGridLines="0" topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="96" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -6708,7 +6716,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="105"/>
       <c r="H2" s="2"/>
-      <c r="J2" s="203" t="s">
+      <c r="J2" s="220" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="32"/>
@@ -6719,14 +6727,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="11"/>
       <c r="E3" s="106"/>
       <c r="F3" s="106"/>
       <c r="G3" s="11"/>
-      <c r="J3" s="203"/>
+      <c r="J3" s="220"/>
       <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:18" ht="24" customHeight="1">
@@ -6746,22 +6754,22 @@
       <c r="C5" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="170" t="s">
-        <v>234</v>
+      <c r="D5" s="171" t="s">
+        <v>240</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="H5" s="170" t="s">
-        <v>238</v>
-      </c>
-      <c r="J5" s="204" t="s">
+        <v>243</v>
+      </c>
+      <c r="H5" s="171" t="s">
+        <v>244</v>
+      </c>
+      <c r="J5" s="221" t="s">
         <v>40</v>
       </c>
       <c r="K5" s="48"/>
@@ -6774,160 +6782,150 @@
       <c r="R5" s="2"/>
     </row>
     <row r="6" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B6" s="219" t="s">
+      <c r="B6" s="236" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="D6" s="176" t="s">
-        <v>239</v>
-      </c>
-      <c r="E6" s="177" t="s">
-        <v>240</v>
-      </c>
-      <c r="F6" s="176" t="s">
-        <v>241</v>
-      </c>
-      <c r="G6" s="176" t="s">
-        <v>242</v>
-      </c>
-      <c r="H6" s="178" t="s">
-        <v>243</v>
-      </c>
-      <c r="J6" s="205"/>
+        <v>214</v>
+      </c>
+      <c r="D6" s="175" t="s">
+        <v>245</v>
+      </c>
+      <c r="E6" s="176" t="s">
+        <v>246</v>
+      </c>
+      <c r="F6" s="175" t="s">
+        <v>247</v>
+      </c>
+      <c r="G6" s="175" t="s">
+        <v>248</v>
+      </c>
+      <c r="H6" s="238" t="s">
+        <v>328</v>
+      </c>
+      <c r="J6" s="222"/>
       <c r="K6" s="52"/>
-      <c r="L6" s="149"/>
+      <c r="L6" s="150"/>
       <c r="M6" s="48"/>
       <c r="N6" s="48"/>
       <c r="O6" s="48"/>
       <c r="P6" s="22"/>
     </row>
     <row r="7" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B7" s="206"/>
+      <c r="B7" s="223"/>
       <c r="C7" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="D7" s="142" t="s">
-        <v>244</v>
+        <v>221</v>
+      </c>
+      <c r="D7" s="143" t="s">
+        <v>249</v>
       </c>
       <c r="E7" s="127" t="s">
-        <v>245</v>
-      </c>
-      <c r="F7" s="142" t="s">
-        <v>246</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="J7" s="205"/>
+        <v>250</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="G7" s="143" t="s">
+        <v>251</v>
+      </c>
+      <c r="H7" s="239"/>
+      <c r="J7" s="222"/>
       <c r="K7" s="52"/>
-      <c r="L7" s="142"/>
+      <c r="L7" s="143"/>
       <c r="M7" s="48"/>
       <c r="N7" s="48"/>
       <c r="O7" s="48"/>
       <c r="P7" s="22"/>
     </row>
     <row r="8" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B8" s="206"/>
-      <c r="C8" s="165"/>
-      <c r="D8" s="142" t="s">
-        <v>249</v>
+      <c r="B8" s="223"/>
+      <c r="C8" s="166"/>
+      <c r="D8" s="143" t="s">
+        <v>67</v>
       </c>
       <c r="E8" s="127" t="s">
-        <v>185</v>
-      </c>
-      <c r="F8" s="142" t="s">
-        <v>250</v>
-      </c>
-      <c r="G8" s="142" t="s">
-        <v>251</v>
-      </c>
-      <c r="H8" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="J8" s="205"/>
+      <c r="F8" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="G8" s="143" t="s">
+        <v>254</v>
+      </c>
+      <c r="H8" s="239"/>
+      <c r="J8" s="222"/>
       <c r="K8" s="52"/>
-      <c r="L8" s="142"/>
+      <c r="L8" s="143"/>
       <c r="M8" s="48"/>
       <c r="N8" s="45"/>
       <c r="O8" s="48"/>
       <c r="P8" s="22"/>
     </row>
     <row r="9" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B9" s="206"/>
-      <c r="C9" s="165"/>
-      <c r="D9" s="142" t="s">
-        <v>253</v>
+      <c r="B9" s="223"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="143" t="s">
+        <v>144</v>
       </c>
       <c r="E9" s="127" t="s">
-        <v>228</v>
-      </c>
-      <c r="F9" s="142" t="s">
-        <v>143</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="J9" s="205"/>
+        <v>255</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="G9" s="143" t="s">
+        <v>257</v>
+      </c>
+      <c r="H9" s="239"/>
+      <c r="J9" s="222"/>
       <c r="K9" s="52"/>
-      <c r="L9" s="142"/>
+      <c r="L9" s="143"/>
       <c r="M9" s="48"/>
       <c r="N9" s="45"/>
       <c r="O9" s="48"/>
       <c r="P9" s="22"/>
     </row>
     <row r="10" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B10" s="206"/>
-      <c r="C10" s="165"/>
-      <c r="D10" s="142" t="s">
+      <c r="B10" s="223"/>
+      <c r="C10" s="166"/>
+      <c r="D10" s="143" t="s">
         <v>56</v>
       </c>
       <c r="E10" s="127" t="s">
-        <v>224</v>
-      </c>
-      <c r="F10" s="142" t="s">
+        <v>258</v>
+      </c>
+      <c r="F10" s="143" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="142" t="s">
-        <v>153</v>
-      </c>
-      <c r="H10" s="142" t="s">
-        <v>255</v>
-      </c>
-      <c r="J10" s="205"/>
+      <c r="G10" s="143" t="s">
+        <v>259</v>
+      </c>
+      <c r="H10" s="239"/>
+      <c r="J10" s="222"/>
       <c r="K10" s="52"/>
-      <c r="L10" s="142"/>
+      <c r="L10" s="143"/>
       <c r="M10" s="48"/>
       <c r="N10" s="48"/>
       <c r="O10" s="48"/>
       <c r="P10" s="22"/>
     </row>
     <row r="11" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B11" s="206"/>
-      <c r="C11" s="165"/>
-      <c r="D11" s="142" t="s">
+      <c r="B11" s="223"/>
+      <c r="C11" s="166"/>
+      <c r="D11" s="143" t="s">
         <v>53</v>
       </c>
       <c r="E11" s="127" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="142" t="s">
+      <c r="F11" s="143" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="142" t="s">
+      <c r="G11" s="143" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="142" t="s">
-        <v>53</v>
-      </c>
-      <c r="J11" s="205"/>
+      <c r="H11" s="239"/>
+      <c r="J11" s="222"/>
       <c r="K11" s="52"/>
       <c r="L11" s="48"/>
       <c r="M11" s="48"/>
@@ -6936,24 +6934,22 @@
       <c r="P11" s="26"/>
     </row>
     <row r="12" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B12" s="206"/>
+      <c r="B12" s="223"/>
       <c r="C12" s="28"/>
-      <c r="D12" s="140">
-        <v>1278</v>
+      <c r="D12" s="141">
+        <v>1274</v>
       </c>
       <c r="E12" s="130">
-        <v>951</v>
-      </c>
-      <c r="F12" s="140">
+        <v>1142</v>
+      </c>
+      <c r="F12" s="141">
         <v>1019</v>
       </c>
-      <c r="G12" s="140">
-        <v>1142</v>
-      </c>
-      <c r="H12" s="140">
-        <v>909</v>
-      </c>
-      <c r="J12" s="205"/>
+      <c r="G12" s="141">
+        <v>990</v>
+      </c>
+      <c r="H12" s="239"/>
+      <c r="J12" s="222"/>
       <c r="K12" s="24"/>
       <c r="L12" s="48"/>
       <c r="M12" s="52"/>
@@ -6964,117 +6960,107 @@
       <c r="R12" s="22"/>
     </row>
     <row r="13" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B13" s="206"/>
+      <c r="B13" s="223"/>
       <c r="C13" s="20" t="s">
         <v>44</v>
       </c>
       <c r="D13" s="174" t="s">
-        <v>256</v>
+        <v>339</v>
       </c>
       <c r="E13" s="126" t="s">
-        <v>355</v>
-      </c>
-      <c r="F13" s="181" t="s">
-        <v>257</v>
+        <v>260</v>
+      </c>
+      <c r="F13" s="179" t="s">
+        <v>261</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="H13" s="199" t="s">
-        <v>259</v>
-      </c>
-      <c r="J13" s="205"/>
+        <v>262</v>
+      </c>
+      <c r="H13" s="239"/>
+      <c r="J13" s="222"/>
       <c r="K13" s="21"/>
       <c r="L13" s="52"/>
       <c r="M13" s="22"/>
     </row>
     <row r="14" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B14" s="206"/>
+      <c r="B14" s="223"/>
       <c r="C14" s="23" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D14" s="138" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E14" s="127" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F14" s="138" t="s">
-        <v>262</v>
+        <v>338</v>
       </c>
       <c r="G14" s="138" t="s">
-        <v>263</v>
-      </c>
-      <c r="H14" s="138" t="s">
-        <v>264</v>
-      </c>
-      <c r="J14" s="205"/>
+        <v>265</v>
+      </c>
+      <c r="H14" s="239"/>
+      <c r="J14" s="222"/>
       <c r="K14" s="24"/>
       <c r="M14" s="29"/>
     </row>
     <row r="15" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B15" s="206"/>
-      <c r="C15" s="165"/>
+      <c r="B15" s="223"/>
+      <c r="C15" s="166"/>
       <c r="D15" s="138" t="s">
-        <v>223</v>
+        <v>266</v>
       </c>
       <c r="E15" s="127" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
       <c r="F15" s="138" t="s">
+        <v>267</v>
+      </c>
+      <c r="G15" s="138" t="s">
         <v>104</v>
       </c>
-      <c r="G15" s="138" t="s">
-        <v>194</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>266</v>
-      </c>
-      <c r="J15" s="205"/>
+      <c r="H15" s="239"/>
+      <c r="J15" s="222"/>
       <c r="K15" s="24"/>
       <c r="M15" s="22"/>
     </row>
     <row r="16" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B16" s="206"/>
-      <c r="C16" s="165"/>
+      <c r="B16" s="223"/>
+      <c r="C16" s="166"/>
       <c r="D16" s="138" t="s">
-        <v>267</v>
+        <v>224</v>
       </c>
       <c r="E16" s="127" t="s">
-        <v>223</v>
+        <v>149</v>
       </c>
       <c r="F16" s="138" t="s">
-        <v>267</v>
-      </c>
-      <c r="G16" s="143" t="s">
-        <v>223</v>
-      </c>
-      <c r="H16" s="24" t="s">
-        <v>232</v>
-      </c>
-      <c r="J16" s="205"/>
+        <v>224</v>
+      </c>
+      <c r="G16" s="138" t="s">
+        <v>149</v>
+      </c>
+      <c r="H16" s="239"/>
+      <c r="J16" s="222"/>
       <c r="K16" s="24"/>
       <c r="M16" s="22"/>
     </row>
     <row r="17" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B17" s="206"/>
-      <c r="C17" s="165"/>
+      <c r="B17" s="223"/>
+      <c r="C17" s="166"/>
       <c r="D17" s="138" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="127" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="138" t="s">
         <v>155</v>
       </c>
-      <c r="E17" s="127" t="s">
+      <c r="G17" s="144" t="s">
         <v>268</v>
       </c>
-      <c r="F17" s="138" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="143" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="142" t="s">
-        <v>149</v>
-      </c>
-      <c r="J17" s="205"/>
+      <c r="H17" s="239"/>
+      <c r="J17" s="222"/>
       <c r="K17" s="24"/>
       <c r="M17" s="22"/>
     </row>
@@ -7082,49 +7068,47 @@
       <c r="A18" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="206"/>
+      <c r="B18" s="223"/>
       <c r="C18" s="31"/>
       <c r="D18" s="138" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="127" t="s">
+      <c r="E18" s="127"/>
+      <c r="F18" s="138" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="138"/>
-      <c r="G18" s="143"/>
-      <c r="H18" s="143" t="s">
+      <c r="G18" s="144" t="s">
         <v>53</v>
       </c>
-      <c r="J18" s="205"/>
+      <c r="H18" s="239"/>
+      <c r="J18" s="222"/>
       <c r="K18" s="24"/>
       <c r="M18" s="22"/>
     </row>
     <row r="19" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B19" s="206"/>
+      <c r="B19" s="223"/>
       <c r="C19" s="28"/>
-      <c r="D19" s="140">
-        <v>1241</v>
+      <c r="D19" s="141">
+        <v>1175</v>
       </c>
       <c r="E19" s="130">
-        <v>1058</v>
-      </c>
-      <c r="F19" s="140">
-        <v>1150</v>
-      </c>
-      <c r="G19" s="140">
-        <v>753</v>
-      </c>
-      <c r="H19" s="140">
-        <v>866</v>
-      </c>
-      <c r="J19" s="205"/>
+        <v>1305</v>
+      </c>
+      <c r="F19" s="141">
+        <v>1113</v>
+      </c>
+      <c r="G19" s="141">
+        <v>1257</v>
+      </c>
+      <c r="H19" s="239"/>
+      <c r="J19" s="222"/>
       <c r="K19" s="85"/>
       <c r="L19" s="17"/>
       <c r="M19" s="32"/>
       <c r="N19" s="17"/>
     </row>
     <row r="20" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B20" s="206"/>
+      <c r="B20" s="223"/>
       <c r="C20" s="20" t="s">
         <v>47</v>
       </c>
@@ -7132,205 +7116,181 @@
         <v>269</v>
       </c>
       <c r="E20" s="126" t="s">
-        <v>361</v>
+        <v>270</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="J20" s="205"/>
+        <v>272</v>
+      </c>
+      <c r="H20" s="239"/>
+      <c r="J20" s="222"/>
       <c r="K20" s="24"/>
       <c r="M20" s="22"/>
     </row>
     <row r="21" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B21" s="206"/>
+      <c r="B21" s="223"/>
       <c r="C21" s="23" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D21" s="138" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E21" s="127" t="s">
-        <v>273</v>
-      </c>
-      <c r="F21" s="181" t="s">
         <v>274</v>
       </c>
-      <c r="G21" s="181" t="s">
+      <c r="F21" s="138" t="s">
         <v>275</v>
       </c>
-      <c r="H21" s="276" t="s">
-        <v>276</v>
-      </c>
-      <c r="J21" s="205"/>
+      <c r="G21" s="138" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" s="239"/>
+      <c r="J21" s="222"/>
       <c r="K21" s="24"/>
       <c r="M21" s="22"/>
       <c r="N21" s="33"/>
     </row>
     <row r="22" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B22" s="206"/>
+      <c r="B22" s="223"/>
       <c r="C22" s="23"/>
       <c r="D22" s="138" t="s">
+        <v>276</v>
+      </c>
+      <c r="E22" s="127" t="s">
         <v>277</v>
       </c>
-      <c r="E22" s="127" t="s">
+      <c r="F22" s="138" t="s">
         <v>278</v>
-      </c>
-      <c r="F22" s="138" t="s">
-        <v>88</v>
       </c>
       <c r="G22" s="138" t="s">
         <v>279</v>
       </c>
-      <c r="H22" s="24" t="s">
-        <v>280</v>
-      </c>
-      <c r="J22" s="205"/>
+      <c r="H22" s="239"/>
+      <c r="J22" s="222"/>
       <c r="K22" s="16"/>
       <c r="L22" s="33"/>
       <c r="N22" s="27"/>
     </row>
     <row r="23" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B23" s="206"/>
-      <c r="C23" s="165"/>
+      <c r="B23" s="223"/>
+      <c r="C23" s="166"/>
       <c r="D23" s="138" t="s">
-        <v>155</v>
+        <v>280</v>
       </c>
       <c r="E23" s="127" t="s">
-        <v>281</v>
+        <v>230</v>
       </c>
       <c r="F23" s="138" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="G23" s="138" t="s">
-        <v>104</v>
-      </c>
-      <c r="H23" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="J23" s="205"/>
+        <v>149</v>
+      </c>
+      <c r="H23" s="239"/>
+      <c r="J23" s="222"/>
       <c r="K23" s="16"/>
       <c r="L23" s="138"/>
       <c r="N23" s="45"/>
     </row>
     <row r="24" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B24" s="206"/>
-      <c r="C24" s="165"/>
+      <c r="B24" s="223"/>
+      <c r="C24" s="166"/>
       <c r="D24" s="138" t="s">
-        <v>149</v>
+        <v>53</v>
       </c>
       <c r="E24" s="127" t="s">
-        <v>359</v>
-      </c>
-      <c r="F24" s="143" t="s">
-        <v>81</v>
-      </c>
-      <c r="G24" s="143" t="s">
-        <v>90</v>
-      </c>
-      <c r="H24" s="142" t="s">
-        <v>283</v>
-      </c>
-      <c r="J24" s="205"/>
+        <v>53</v>
+      </c>
+      <c r="F24" s="144" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="144" t="s">
+        <v>268</v>
+      </c>
+      <c r="H24" s="239"/>
+      <c r="J24" s="222"/>
       <c r="K24" s="16"/>
       <c r="L24" s="138"/>
       <c r="N24" s="41"/>
     </row>
     <row r="25" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B25" s="206"/>
-      <c r="C25" s="165"/>
-      <c r="D25" s="138" t="s">
+      <c r="B25" s="223"/>
+      <c r="C25" s="166"/>
+      <c r="D25" s="138"/>
+      <c r="E25" s="195"/>
+      <c r="F25" s="143"/>
+      <c r="G25" s="143" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="127" t="s">
-        <v>360</v>
-      </c>
-      <c r="F25" s="142" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" s="142" t="s">
-        <v>53</v>
-      </c>
-      <c r="H25" s="143" t="s">
-        <v>53</v>
-      </c>
-      <c r="J25" s="205"/>
+      <c r="H25" s="239"/>
+      <c r="J25" s="222"/>
       <c r="K25" s="52"/>
       <c r="L25" s="138"/>
       <c r="N25" s="16"/>
     </row>
     <row r="26" spans="1:18" s="33" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B26" s="206"/>
+      <c r="B26" s="223"/>
       <c r="C26" s="28"/>
       <c r="D26" s="138">
-        <v>1211</v>
+        <v>1156</v>
       </c>
       <c r="E26" s="130">
-        <v>1315</v>
-      </c>
-      <c r="F26" s="140">
-        <v>1013</v>
-      </c>
-      <c r="G26" s="140">
-        <v>1077</v>
-      </c>
-      <c r="H26" s="140">
-        <v>1287</v>
-      </c>
-      <c r="J26" s="205"/>
+        <v>1193</v>
+      </c>
+      <c r="F26" s="141">
+        <v>915</v>
+      </c>
+      <c r="G26" s="141">
+        <v>946</v>
+      </c>
+      <c r="H26" s="239"/>
+      <c r="J26" s="222"/>
       <c r="K26" s="66"/>
       <c r="L26" s="138"/>
       <c r="N26" s="48"/>
     </row>
     <row r="27" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B27" s="206"/>
-      <c r="C27" s="214" t="s">
+      <c r="B27" s="223"/>
+      <c r="C27" s="231" t="s">
         <v>46</v>
       </c>
       <c r="D27" s="137" t="s">
         <v>55</v>
       </c>
       <c r="E27" s="137" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F27" s="137" t="s">
         <v>55</v>
       </c>
       <c r="G27" s="137" t="s">
-        <v>284</v>
-      </c>
-      <c r="H27" s="137" t="s">
-        <v>55</v>
-      </c>
-      <c r="J27" s="205"/>
+        <v>280</v>
+      </c>
+      <c r="H27" s="239"/>
+      <c r="J27" s="222"/>
       <c r="K27" s="16"/>
       <c r="L27" s="26"/>
       <c r="N27" s="48"/>
     </row>
     <row r="28" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B28" s="206"/>
-      <c r="C28" s="217"/>
+      <c r="B28" s="223"/>
+      <c r="C28" s="234"/>
       <c r="D28" s="102" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E28" s="102" t="s">
-        <v>286</v>
+        <v>231</v>
       </c>
       <c r="F28" s="102" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="G28" s="102" t="s">
-        <v>288</v>
-      </c>
-      <c r="H28" s="102" t="s">
-        <v>354</v>
-      </c>
-      <c r="J28" s="205"/>
+        <v>283</v>
+      </c>
+      <c r="H28" s="239"/>
+      <c r="J28" s="222"/>
       <c r="K28" s="16"/>
       <c r="L28" s="66"/>
       <c r="M28" s="41"/>
@@ -7340,22 +7300,20 @@
       <c r="Q28" s="26"/>
     </row>
     <row r="29" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B29" s="206"/>
-      <c r="C29" s="218"/>
-      <c r="D29" s="147" t="s">
-        <v>289</v>
-      </c>
-      <c r="E29" s="140"/>
-      <c r="F29" s="147" t="s">
-        <v>290</v>
-      </c>
-      <c r="G29" s="148" t="s">
-        <v>291</v>
-      </c>
-      <c r="H29" s="148" t="s">
-        <v>292</v>
-      </c>
-      <c r="J29" s="205"/>
+      <c r="B29" s="223"/>
+      <c r="C29" s="235"/>
+      <c r="D29" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="E29" s="141"/>
+      <c r="F29" s="148" t="s">
+        <v>233</v>
+      </c>
+      <c r="G29" s="149" t="s">
+        <v>234</v>
+      </c>
+      <c r="H29" s="239"/>
+      <c r="J29" s="222"/>
       <c r="K29" s="109"/>
       <c r="L29" s="16"/>
       <c r="M29" s="66"/>
@@ -7366,26 +7324,24 @@
       <c r="R29" s="26"/>
     </row>
     <row r="30" spans="1:18" s="44" customFormat="1" ht="30.75" customHeight="1">
-      <c r="B30" s="206"/>
-      <c r="C30" s="182" t="s">
+      <c r="B30" s="223"/>
+      <c r="C30" s="180" t="s">
         <v>211</v>
       </c>
-      <c r="D30" s="183" t="s">
-        <v>293</v>
-      </c>
-      <c r="E30" s="184" t="s">
-        <v>294</v>
-      </c>
-      <c r="F30" s="185" t="s">
-        <v>295</v>
-      </c>
-      <c r="G30" s="185" t="s">
-        <v>296</v>
-      </c>
-      <c r="H30" s="184" t="s">
-        <v>297</v>
-      </c>
-      <c r="J30" s="209" t="s">
+      <c r="D30" s="181" t="s">
+        <v>330</v>
+      </c>
+      <c r="E30" s="182" t="s">
+        <v>331</v>
+      </c>
+      <c r="F30" s="183" t="s">
+        <v>332</v>
+      </c>
+      <c r="G30" s="183" t="s">
+        <v>333</v>
+      </c>
+      <c r="H30" s="239"/>
+      <c r="J30" s="226" t="s">
         <v>17</v>
       </c>
       <c r="K30" s="16"/>
@@ -7398,24 +7354,22 @@
       <c r="R30" s="32"/>
     </row>
     <row r="31" spans="1:18" s="47" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B31" s="206"/>
+      <c r="B31" s="223"/>
       <c r="C31" s="86"/>
-      <c r="D31" s="186">
-        <v>364</v>
-      </c>
-      <c r="E31" s="186">
-        <v>388</v>
-      </c>
-      <c r="F31" s="186">
-        <v>718</v>
-      </c>
-      <c r="G31" s="186">
-        <v>694</v>
-      </c>
-      <c r="H31" s="186">
-        <v>731</v>
-      </c>
-      <c r="J31" s="210"/>
+      <c r="D31" s="184">
+        <v>654</v>
+      </c>
+      <c r="E31" s="184">
+        <v>711</v>
+      </c>
+      <c r="F31" s="184">
+        <v>732</v>
+      </c>
+      <c r="G31" s="184">
+        <v>674</v>
+      </c>
+      <c r="H31" s="239"/>
+      <c r="J31" s="227"/>
       <c r="K31" s="52"/>
       <c r="L31" s="16"/>
       <c r="M31" s="16"/>
@@ -7425,26 +7379,24 @@
       <c r="Q31" s="32"/>
     </row>
     <row r="32" spans="1:18" s="47" customFormat="1" ht="63.75" customHeight="1">
-      <c r="B32" s="206"/>
-      <c r="C32" s="182" t="s">
-        <v>348</v>
-      </c>
-      <c r="D32" s="187" t="s">
-        <v>298</v>
-      </c>
-      <c r="E32" s="188" t="s">
-        <v>299</v>
-      </c>
-      <c r="F32" s="188" t="s">
-        <v>300</v>
-      </c>
-      <c r="G32" s="188" t="s">
-        <v>301</v>
-      </c>
-      <c r="H32" s="188" t="s">
-        <v>302</v>
-      </c>
-      <c r="J32" s="210"/>
+      <c r="B32" s="223"/>
+      <c r="C32" s="180" t="s">
+        <v>238</v>
+      </c>
+      <c r="D32" s="185" t="s">
+        <v>284</v>
+      </c>
+      <c r="E32" s="186" t="s">
+        <v>285</v>
+      </c>
+      <c r="F32" s="186" t="s">
+        <v>286</v>
+      </c>
+      <c r="G32" s="186" t="s">
+        <v>287</v>
+      </c>
+      <c r="H32" s="239"/>
+      <c r="J32" s="227"/>
       <c r="K32" s="52"/>
       <c r="L32" s="16"/>
       <c r="M32" s="16"/>
@@ -7454,24 +7406,22 @@
       <c r="Q32" s="59"/>
     </row>
     <row r="33" spans="1:18" s="47" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B33" s="206"/>
-      <c r="C33" s="141"/>
-      <c r="D33" s="189">
-        <v>958</v>
-      </c>
-      <c r="E33" s="189">
-        <v>937</v>
-      </c>
-      <c r="F33" s="189">
-        <v>926</v>
-      </c>
-      <c r="G33" s="189">
-        <v>975</v>
-      </c>
-      <c r="H33" s="189">
-        <v>961</v>
-      </c>
-      <c r="J33" s="210"/>
+      <c r="B33" s="223"/>
+      <c r="C33" s="142"/>
+      <c r="D33" s="187">
+        <v>1004</v>
+      </c>
+      <c r="E33" s="187">
+        <v>822</v>
+      </c>
+      <c r="F33" s="187">
+        <v>953</v>
+      </c>
+      <c r="G33" s="187">
+        <v>838</v>
+      </c>
+      <c r="H33" s="239"/>
+      <c r="J33" s="227"/>
       <c r="K33" s="52"/>
       <c r="L33" s="52"/>
       <c r="M33" s="52"/>
@@ -7481,25 +7431,23 @@
       <c r="Q33" s="22"/>
     </row>
     <row r="34" spans="1:18" s="47" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B34" s="206"/>
-      <c r="C34" s="182" t="s">
-        <v>217</v>
-      </c>
-      <c r="D34" s="190" t="s">
-        <v>303</v>
-      </c>
-      <c r="E34" s="190" t="s">
-        <v>304</v>
-      </c>
-      <c r="F34" s="190" t="s">
-        <v>305</v>
-      </c>
-      <c r="G34" s="190" t="s">
-        <v>306</v>
-      </c>
-      <c r="H34" s="190" t="s">
-        <v>229</v>
-      </c>
+      <c r="B34" s="223"/>
+      <c r="C34" s="180" t="s">
+        <v>218</v>
+      </c>
+      <c r="D34" s="188" t="s">
+        <v>288</v>
+      </c>
+      <c r="E34" s="188" t="s">
+        <v>289</v>
+      </c>
+      <c r="F34" s="188" t="s">
+        <v>290</v>
+      </c>
+      <c r="G34" s="188" t="s">
+        <v>291</v>
+      </c>
+      <c r="H34" s="239"/>
       <c r="J34" s="17"/>
       <c r="K34" s="52"/>
       <c r="L34" s="52"/>
@@ -7510,23 +7458,21 @@
       <c r="Q34" s="22"/>
     </row>
     <row r="35" spans="1:18" s="47" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B35" s="206"/>
-      <c r="C35" s="191"/>
-      <c r="D35" s="189">
-        <v>554</v>
-      </c>
-      <c r="E35" s="189">
-        <v>466</v>
-      </c>
-      <c r="F35" s="189">
-        <v>417</v>
-      </c>
-      <c r="G35" s="189">
-        <v>546</v>
-      </c>
-      <c r="H35" s="189">
-        <v>627</v>
-      </c>
+      <c r="B35" s="223"/>
+      <c r="C35" s="189"/>
+      <c r="D35" s="187">
+        <v>528</v>
+      </c>
+      <c r="E35" s="187">
+        <v>642</v>
+      </c>
+      <c r="F35" s="187">
+        <v>689</v>
+      </c>
+      <c r="G35" s="187">
+        <v>696</v>
+      </c>
+      <c r="H35" s="239"/>
       <c r="J35" s="17"/>
       <c r="K35" s="52"/>
       <c r="L35" s="52"/>
@@ -7537,25 +7483,23 @@
       <c r="Q35" s="22"/>
     </row>
     <row r="36" spans="1:18" s="47" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B36" s="206"/>
-      <c r="C36" s="221" t="s">
-        <v>347</v>
-      </c>
-      <c r="D36" s="198" t="s">
-        <v>349</v>
-      </c>
-      <c r="E36" s="198" t="s">
-        <v>350</v>
-      </c>
-      <c r="F36" s="198" t="s">
-        <v>353</v>
-      </c>
-      <c r="G36" s="198" t="s">
-        <v>351</v>
-      </c>
-      <c r="H36" s="198" t="s">
-        <v>352</v>
-      </c>
+      <c r="B36" s="223"/>
+      <c r="C36" s="241" t="s">
+        <v>237</v>
+      </c>
+      <c r="D36" s="194" t="s">
+        <v>292</v>
+      </c>
+      <c r="E36" s="194" t="s">
+        <v>293</v>
+      </c>
+      <c r="F36" s="194" t="s">
+        <v>294</v>
+      </c>
+      <c r="G36" s="194" t="s">
+        <v>295</v>
+      </c>
+      <c r="H36" s="239"/>
       <c r="J36" s="17"/>
       <c r="K36" s="52"/>
       <c r="L36" s="52"/>
@@ -7566,23 +7510,21 @@
       <c r="Q36" s="22"/>
     </row>
     <row r="37" spans="1:18" s="47" customFormat="1" ht="26.1" customHeight="1" thickBot="1">
-      <c r="B37" s="206"/>
-      <c r="C37" s="222"/>
-      <c r="D37" s="192">
-        <v>825</v>
-      </c>
-      <c r="E37" s="192">
+      <c r="B37" s="223"/>
+      <c r="C37" s="242"/>
+      <c r="D37" s="190">
+        <v>856</v>
+      </c>
+      <c r="E37" s="190">
+        <v>759</v>
+      </c>
+      <c r="F37" s="190">
+        <v>815</v>
+      </c>
+      <c r="G37" s="190">
         <v>834</v>
       </c>
-      <c r="F37" s="192">
-        <v>855</v>
-      </c>
-      <c r="G37" s="192">
-        <v>821</v>
-      </c>
-      <c r="H37" s="192">
-        <v>815</v>
-      </c>
+      <c r="H37" s="239"/>
       <c r="J37" s="17"/>
       <c r="K37" s="52"/>
       <c r="L37" s="52"/>
@@ -7593,28 +7535,26 @@
       <c r="Q37" s="22"/>
     </row>
     <row r="38" spans="1:18" s="17" customFormat="1" ht="26.1" customHeight="1" thickTop="1">
-      <c r="B38" s="211" t="s">
+      <c r="B38" s="228" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="193" t="s">
+      <c r="C38" s="191" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="179" t="s">
-        <v>307</v>
+      <c r="D38" s="177" t="s">
+        <v>296</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>308</v>
-      </c>
-      <c r="F38" s="149" t="s">
-        <v>309</v>
-      </c>
-      <c r="G38" s="149" t="s">
-        <v>310</v>
-      </c>
-      <c r="H38" s="21" t="s">
-        <v>311</v>
-      </c>
-      <c r="J38" s="213" t="s">
+        <v>297</v>
+      </c>
+      <c r="F38" s="150" t="s">
+        <v>298</v>
+      </c>
+      <c r="G38" s="150" t="s">
+        <v>299</v>
+      </c>
+      <c r="H38" s="239"/>
+      <c r="J38" s="230" t="s">
         <v>12</v>
       </c>
       <c r="K38" s="52"/>
@@ -7630,24 +7570,22 @@
       <c r="A39" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="206"/>
+      <c r="B39" s="223"/>
       <c r="C39" s="23"/>
-      <c r="D39" s="142" t="s">
-        <v>312</v>
+      <c r="D39" s="143" t="s">
+        <v>300</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>313</v>
-      </c>
-      <c r="F39" s="142" t="s">
-        <v>314</v>
-      </c>
-      <c r="G39" s="142" t="s">
-        <v>315</v>
-      </c>
-      <c r="H39" s="24" t="s">
-        <v>316</v>
-      </c>
-      <c r="J39" s="213"/>
+        <v>301</v>
+      </c>
+      <c r="F39" s="143" t="s">
+        <v>302</v>
+      </c>
+      <c r="G39" s="143" t="s">
+        <v>303</v>
+      </c>
+      <c r="H39" s="239"/>
+      <c r="J39" s="230"/>
       <c r="K39" s="66"/>
       <c r="L39" s="16"/>
       <c r="M39" s="52"/>
@@ -7658,24 +7596,22 @@
       <c r="R39" s="22"/>
     </row>
     <row r="40" spans="1:18" s="17" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B40" s="206"/>
-      <c r="C40" s="180"/>
-      <c r="D40" s="142" t="s">
-        <v>317</v>
+      <c r="B40" s="223"/>
+      <c r="C40" s="178"/>
+      <c r="D40" s="143" t="s">
+        <v>304</v>
       </c>
       <c r="E40" s="138" t="s">
-        <v>318</v>
-      </c>
-      <c r="F40" s="142" t="s">
-        <v>68</v>
+        <v>305</v>
+      </c>
+      <c r="F40" s="143" t="s">
+        <v>329</v>
       </c>
       <c r="G40" s="109" t="s">
-        <v>319</v>
-      </c>
-      <c r="H40" s="24" t="s">
-        <v>320</v>
-      </c>
-      <c r="J40" s="213"/>
+        <v>306</v>
+      </c>
+      <c r="H40" s="239"/>
+      <c r="J40" s="230"/>
       <c r="K40" s="66"/>
       <c r="L40" s="30"/>
       <c r="M40" s="52"/>
@@ -7686,24 +7622,22 @@
       <c r="R40" s="22"/>
     </row>
     <row r="41" spans="1:18" s="17" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B41" s="206"/>
-      <c r="C41" s="180"/>
-      <c r="D41" s="142" t="s">
-        <v>321</v>
-      </c>
-      <c r="E41" s="142" t="s">
+      <c r="B41" s="223"/>
+      <c r="C41" s="178"/>
+      <c r="D41" s="143" t="s">
+        <v>307</v>
+      </c>
+      <c r="E41" s="143" t="s">
         <v>149</v>
       </c>
-      <c r="F41" s="142" t="s">
-        <v>322</v>
+      <c r="F41" s="143" t="s">
+        <v>308</v>
       </c>
       <c r="G41" s="109" t="s">
-        <v>323</v>
-      </c>
-      <c r="H41" s="142" t="s">
-        <v>324</v>
-      </c>
-      <c r="J41" s="213"/>
+        <v>309</v>
+      </c>
+      <c r="H41" s="239"/>
+      <c r="J41" s="230"/>
       <c r="K41" s="30"/>
       <c r="L41" s="8"/>
       <c r="M41" s="66"/>
@@ -7714,24 +7648,22 @@
       <c r="R41" s="26"/>
     </row>
     <row r="42" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B42" s="206"/>
-      <c r="C42" s="180"/>
-      <c r="D42" s="142" t="s">
-        <v>150</v>
-      </c>
-      <c r="E42" s="142" t="s">
-        <v>227</v>
-      </c>
-      <c r="F42" s="142" t="s">
-        <v>223</v>
-      </c>
-      <c r="G42" s="143" t="s">
-        <v>149</v>
-      </c>
-      <c r="H42" s="142" t="s">
-        <v>223</v>
-      </c>
-      <c r="J42" s="213"/>
+      <c r="B42" s="223"/>
+      <c r="C42" s="178"/>
+      <c r="D42" s="143" t="s">
+        <v>224</v>
+      </c>
+      <c r="E42" s="143" t="s">
+        <v>310</v>
+      </c>
+      <c r="F42" s="143" t="s">
+        <v>228</v>
+      </c>
+      <c r="G42" s="144" t="s">
+        <v>224</v>
+      </c>
+      <c r="H42" s="239"/>
+      <c r="J42" s="230"/>
       <c r="K42" s="52"/>
       <c r="L42" s="8"/>
       <c r="M42" s="66"/>
@@ -7742,22 +7674,20 @@
       <c r="R42" s="26"/>
     </row>
     <row r="43" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B43" s="206"/>
-      <c r="C43" s="180"/>
-      <c r="D43" s="142" t="s">
-        <v>325</v>
-      </c>
-      <c r="E43" s="142"/>
-      <c r="F43" s="142" t="s">
-        <v>224</v>
-      </c>
-      <c r="G43" s="142" t="s">
-        <v>224</v>
-      </c>
-      <c r="H43" s="142" t="s">
-        <v>224</v>
-      </c>
-      <c r="J43" s="213"/>
+      <c r="B43" s="223"/>
+      <c r="C43" s="178"/>
+      <c r="D43" s="143" t="s">
+        <v>225</v>
+      </c>
+      <c r="E43" s="143"/>
+      <c r="F43" s="143" t="s">
+        <v>225</v>
+      </c>
+      <c r="G43" s="143" t="s">
+        <v>225</v>
+      </c>
+      <c r="H43" s="239"/>
+      <c r="J43" s="230"/>
       <c r="K43" s="52"/>
       <c r="L43" s="8"/>
       <c r="M43" s="30"/>
@@ -7768,24 +7698,22 @@
       <c r="R43" s="26"/>
     </row>
     <row r="44" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B44" s="206"/>
+      <c r="B44" s="223"/>
       <c r="C44" s="86"/>
-      <c r="D44" s="140">
-        <v>724</v>
-      </c>
-      <c r="E44" s="140">
-        <v>1098</v>
-      </c>
-      <c r="F44" s="140">
-        <v>1011</v>
-      </c>
-      <c r="G44" s="140">
-        <v>1118</v>
-      </c>
-      <c r="H44" s="140">
-        <v>1101</v>
-      </c>
-      <c r="J44" s="213"/>
+      <c r="D44" s="141">
+        <v>812</v>
+      </c>
+      <c r="E44" s="141">
+        <v>917</v>
+      </c>
+      <c r="F44" s="141">
+        <v>1260</v>
+      </c>
+      <c r="G44" s="141">
+        <v>1115</v>
+      </c>
+      <c r="H44" s="239"/>
+      <c r="J44" s="230"/>
       <c r="K44" s="52"/>
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
@@ -7793,26 +7721,24 @@
       <c r="R44" s="22"/>
     </row>
     <row r="45" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B45" s="206"/>
+      <c r="B45" s="223"/>
       <c r="C45" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="168" t="s">
-        <v>326</v>
-      </c>
-      <c r="E45" s="168" t="s">
-        <v>327</v>
-      </c>
-      <c r="F45" s="168" t="s">
-        <v>328</v>
-      </c>
-      <c r="G45" s="168" t="s">
-        <v>329</v>
-      </c>
-      <c r="H45" s="168" t="s">
-        <v>330</v>
-      </c>
-      <c r="J45" s="213"/>
+      <c r="D45" s="150" t="s">
+        <v>311</v>
+      </c>
+      <c r="E45" s="169" t="s">
+        <v>312</v>
+      </c>
+      <c r="F45" s="169" t="s">
+        <v>313</v>
+      </c>
+      <c r="G45" s="169" t="s">
+        <v>314</v>
+      </c>
+      <c r="H45" s="239"/>
+      <c r="J45" s="230"/>
       <c r="K45" s="66"/>
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
@@ -7820,24 +7746,22 @@
       <c r="R45" s="22"/>
     </row>
     <row r="46" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B46" s="206"/>
+      <c r="B46" s="223"/>
       <c r="C46" s="23"/>
-      <c r="D46" s="194" t="s">
-        <v>331</v>
-      </c>
-      <c r="E46" s="194" t="s">
-        <v>332</v>
-      </c>
-      <c r="F46" s="194" t="s">
-        <v>333</v>
-      </c>
-      <c r="G46" s="194" t="s">
-        <v>334</v>
-      </c>
-      <c r="H46" s="194" t="s">
-        <v>335</v>
-      </c>
-      <c r="J46" s="213"/>
+      <c r="D46" s="196" t="s">
+        <v>315</v>
+      </c>
+      <c r="E46" s="192" t="s">
+        <v>316</v>
+      </c>
+      <c r="F46" s="192" t="s">
+        <v>317</v>
+      </c>
+      <c r="G46" s="192" t="s">
+        <v>318</v>
+      </c>
+      <c r="H46" s="239"/>
+      <c r="J46" s="230"/>
       <c r="K46" s="66"/>
       <c r="L46" s="21"/>
       <c r="M46" s="8"/>
@@ -7845,24 +7769,22 @@
       <c r="R46" s="22"/>
     </row>
     <row r="47" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B47" s="206"/>
+      <c r="B47" s="223"/>
       <c r="C47" s="20"/>
-      <c r="D47" s="195" t="s">
-        <v>226</v>
-      </c>
-      <c r="E47" s="195" t="s">
-        <v>226</v>
-      </c>
-      <c r="F47" s="195" t="s">
-        <v>226</v>
-      </c>
-      <c r="G47" s="195" t="s">
-        <v>226</v>
-      </c>
-      <c r="H47" s="195" t="s">
-        <v>226</v>
-      </c>
-      <c r="J47" s="213"/>
+      <c r="D47" s="197" t="s">
+        <v>227</v>
+      </c>
+      <c r="E47" s="193" t="s">
+        <v>227</v>
+      </c>
+      <c r="F47" s="193" t="s">
+        <v>227</v>
+      </c>
+      <c r="G47" s="193" t="s">
+        <v>227</v>
+      </c>
+      <c r="H47" s="239"/>
+      <c r="J47" s="230"/>
       <c r="K47" s="30"/>
       <c r="L47" s="24"/>
       <c r="M47" s="8"/>
@@ -7870,24 +7792,22 @@
       <c r="R47" s="22"/>
     </row>
     <row r="48" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B48" s="206"/>
+      <c r="B48" s="223"/>
       <c r="C48" s="20"/>
-      <c r="D48" s="194" t="s">
-        <v>336</v>
-      </c>
-      <c r="E48" s="194" t="s">
-        <v>337</v>
-      </c>
-      <c r="F48" s="194" t="s">
-        <v>337</v>
-      </c>
-      <c r="G48" s="194" t="s">
-        <v>338</v>
-      </c>
-      <c r="H48" s="194" t="s">
-        <v>337</v>
-      </c>
-      <c r="J48" s="213"/>
+      <c r="D48" s="198" t="s">
+        <v>319</v>
+      </c>
+      <c r="E48" s="192" t="s">
+        <v>320</v>
+      </c>
+      <c r="F48" s="192" t="s">
+        <v>235</v>
+      </c>
+      <c r="G48" s="192" t="s">
+        <v>321</v>
+      </c>
+      <c r="H48" s="239"/>
+      <c r="J48" s="230"/>
       <c r="K48" s="8"/>
       <c r="L48" s="24"/>
       <c r="M48" s="8"/>
@@ -7895,24 +7815,22 @@
       <c r="R48" s="22"/>
     </row>
     <row r="49" spans="2:18" s="51" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B49" s="206"/>
+      <c r="B49" s="223"/>
       <c r="C49" s="20"/>
-      <c r="D49" s="194" t="s">
-        <v>339</v>
-      </c>
-      <c r="E49" s="194" t="s">
-        <v>339</v>
-      </c>
-      <c r="F49" s="194" t="s">
-        <v>339</v>
-      </c>
-      <c r="G49" s="194" t="s">
-        <v>339</v>
-      </c>
-      <c r="H49" s="194" t="s">
-        <v>340</v>
-      </c>
-      <c r="J49" s="213"/>
+      <c r="D49" s="198" t="s">
+        <v>236</v>
+      </c>
+      <c r="E49" s="192" t="s">
+        <v>236</v>
+      </c>
+      <c r="F49" s="192" t="s">
+        <v>236</v>
+      </c>
+      <c r="G49" s="192" t="s">
+        <v>236</v>
+      </c>
+      <c r="H49" s="239"/>
+      <c r="J49" s="230"/>
       <c r="K49" s="8"/>
       <c r="L49" s="24"/>
       <c r="M49" s="8"/>
@@ -7923,24 +7841,22 @@
       <c r="R49" s="22"/>
     </row>
     <row r="50" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B50" s="206"/>
+      <c r="B50" s="223"/>
       <c r="C50" s="20"/>
-      <c r="D50" s="171" t="s">
-        <v>341</v>
-      </c>
-      <c r="E50" s="169" t="s">
-        <v>342</v>
-      </c>
-      <c r="F50" s="169" t="s">
-        <v>343</v>
-      </c>
-      <c r="G50" s="169" t="s">
-        <v>344</v>
-      </c>
-      <c r="H50" s="169" t="s">
-        <v>345</v>
-      </c>
-      <c r="J50" s="213"/>
+      <c r="D50" s="170" t="s">
+        <v>322</v>
+      </c>
+      <c r="E50" s="170" t="s">
+        <v>323</v>
+      </c>
+      <c r="F50" s="170" t="s">
+        <v>324</v>
+      </c>
+      <c r="G50" s="172" t="s">
+        <v>325</v>
+      </c>
+      <c r="H50" s="239"/>
+      <c r="J50" s="230"/>
       <c r="K50" s="8"/>
       <c r="L50" s="24"/>
       <c r="M50" s="52"/>
@@ -7948,24 +7864,22 @@
       <c r="R50" s="22"/>
     </row>
     <row r="51" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B51" s="206"/>
+      <c r="B51" s="223"/>
       <c r="C51" s="20"/>
-      <c r="D51" s="171" t="s">
+      <c r="D51" s="170" t="s">
         <v>149</v>
       </c>
-      <c r="E51" s="169" t="s">
-        <v>223</v>
-      </c>
-      <c r="F51" s="169" t="s">
+      <c r="E51" s="170" t="s">
         <v>149</v>
       </c>
-      <c r="G51" s="169" t="s">
-        <v>149</v>
-      </c>
-      <c r="H51" s="169" t="s">
-        <v>149</v>
-      </c>
-      <c r="J51" s="213"/>
+      <c r="F51" s="170" t="s">
+        <v>326</v>
+      </c>
+      <c r="G51" s="172" t="s">
+        <v>224</v>
+      </c>
+      <c r="H51" s="239"/>
+      <c r="J51" s="230"/>
       <c r="K51" s="8"/>
       <c r="L51" s="24"/>
       <c r="M51" s="52"/>
@@ -7973,24 +7887,22 @@
       <c r="R51" s="22"/>
     </row>
     <row r="52" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B52" s="206"/>
+      <c r="B52" s="223"/>
       <c r="C52" s="20"/>
-      <c r="D52" s="169" t="s">
-        <v>225</v>
-      </c>
-      <c r="E52" s="169" t="s">
-        <v>227</v>
-      </c>
-      <c r="F52" s="169" t="s">
-        <v>231</v>
-      </c>
-      <c r="G52" s="169" t="s">
-        <v>230</v>
-      </c>
-      <c r="H52" s="175" t="s">
-        <v>346</v>
-      </c>
-      <c r="J52" s="213"/>
+      <c r="D52" s="170" t="s">
+        <v>155</v>
+      </c>
+      <c r="E52" s="170" t="s">
+        <v>310</v>
+      </c>
+      <c r="F52" s="170" t="s">
+        <v>226</v>
+      </c>
+      <c r="G52" s="170" t="s">
+        <v>327</v>
+      </c>
+      <c r="H52" s="239"/>
+      <c r="J52" s="230"/>
       <c r="K52" s="8"/>
       <c r="L52" s="30"/>
       <c r="M52" s="52"/>
@@ -7998,23 +7910,21 @@
       <c r="R52" s="22"/>
     </row>
     <row r="53" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B53" s="206"/>
+      <c r="B53" s="223"/>
       <c r="C53" s="20"/>
-      <c r="D53" s="140">
-        <v>659</v>
-      </c>
-      <c r="E53" s="140">
-        <v>969</v>
-      </c>
-      <c r="F53" s="140">
-        <v>946</v>
-      </c>
-      <c r="G53" s="140">
-        <v>826</v>
-      </c>
-      <c r="H53" s="140">
-        <v>675</v>
-      </c>
+      <c r="D53" s="141">
+        <v>1036</v>
+      </c>
+      <c r="E53" s="141">
+        <v>728</v>
+      </c>
+      <c r="F53" s="141">
+        <v>1125</v>
+      </c>
+      <c r="G53" s="141">
+        <v>832</v>
+      </c>
+      <c r="H53" s="239"/>
       <c r="J53" s="17"/>
       <c r="K53" s="8"/>
       <c r="L53" s="30"/>
@@ -8023,25 +7933,23 @@
       <c r="R53" s="22"/>
     </row>
     <row r="54" spans="2:18" ht="25.5" customHeight="1">
-      <c r="B54" s="206"/>
-      <c r="C54" s="214" t="s">
-        <v>214</v>
-      </c>
-      <c r="D54" s="166" t="s">
+      <c r="B54" s="223"/>
+      <c r="C54" s="231" t="s">
+        <v>215</v>
+      </c>
+      <c r="D54" s="167" t="s">
         <v>53</v>
       </c>
-      <c r="E54" s="166" t="s">
+      <c r="E54" s="167" t="s">
         <v>53</v>
       </c>
-      <c r="F54" s="166" t="s">
+      <c r="F54" s="167" t="s">
         <v>53</v>
       </c>
-      <c r="G54" s="166" t="s">
+      <c r="G54" s="167" t="s">
         <v>53</v>
       </c>
-      <c r="H54" s="166" t="s">
-        <v>53</v>
-      </c>
+      <c r="H54" s="239"/>
       <c r="K54" s="52"/>
       <c r="L54" s="8"/>
       <c r="M54" s="52"/>
@@ -8049,29 +7957,26 @@
       <c r="R54" s="22"/>
     </row>
     <row r="55" spans="2:18" s="57" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B55" s="212"/>
-      <c r="C55" s="215"/>
-      <c r="D55" s="146" t="str">
+      <c r="B55" s="229"/>
+      <c r="C55" s="232"/>
+      <c r="D55" s="147" t="str">
         <f>D29</f>
         <v>오리엔탈&amp;망고D</v>
       </c>
-      <c r="E55" s="146" t="str">
+      <c r="E55" s="147" t="str">
         <f>E28</f>
         <v>발사믹&amp;참깨D</v>
       </c>
-      <c r="F55" s="146" t="str">
+      <c r="F55" s="147" t="str">
         <f>F29</f>
         <v>오리엔탈&amp;블루베리D</v>
       </c>
-      <c r="G55" s="167" t="str">
+      <c r="G55" s="168" t="str">
         <f>G29</f>
         <v>발사믹&amp;파인애플D</v>
       </c>
-      <c r="H55" s="172" t="str">
-        <f>H29</f>
-        <v>오리엔탈&amp;딸기D</v>
-      </c>
-      <c r="J55" s="216" t="s">
+      <c r="H55" s="240"/>
+      <c r="J55" s="233" t="s">
         <v>1</v>
       </c>
       <c r="K55" s="52"/>
@@ -8091,7 +7996,7 @@
       <c r="F56" s="24"/>
       <c r="G56" s="24"/>
       <c r="H56" s="24"/>
-      <c r="J56" s="216"/>
+      <c r="J56" s="233"/>
       <c r="K56" s="59"/>
       <c r="L56" s="8"/>
       <c r="M56" s="52"/>
@@ -8136,7 +8041,7 @@
       <c r="E59" s="134"/>
       <c r="F59" s="135"/>
       <c r="G59" s="134"/>
-      <c r="H59" s="220"/>
+      <c r="H59" s="237"/>
       <c r="K59" s="52"/>
       <c r="L59" s="16"/>
       <c r="M59" s="52"/>
@@ -8146,7 +8051,7 @@
       <c r="E60" s="105"/>
       <c r="F60" s="136"/>
       <c r="G60" s="105"/>
-      <c r="H60" s="220"/>
+      <c r="H60" s="237"/>
       <c r="K60" s="25"/>
       <c r="L60" s="25"/>
       <c r="M60" s="52"/>
@@ -8449,7 +8354,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="J5:J29"/>
     <mergeCell ref="C27:C29"/>
@@ -8461,6 +8366,7 @@
     <mergeCell ref="J55:J56"/>
     <mergeCell ref="B38:B55"/>
     <mergeCell ref="H59:H60"/>
+    <mergeCell ref="H6:H55"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -8481,7 +8387,7 @@
   <dimension ref="A1:V85"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="96" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" customHeight="1"/>
@@ -8509,7 +8415,7 @@
     <row r="1" spans="2:19" ht="12.75" customHeight="1"/>
     <row r="5" spans="2:19" s="17" customFormat="1" ht="24.75" customHeight="1">
       <c r="B5" s="73" t="s">
-        <v>222</v>
+        <v>335</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="74"/>
@@ -8545,37 +8451,37 @@
       <c r="F8" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="150" t="s">
+      <c r="G8" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="153" t="s">
+      <c r="H8" s="154" t="s">
         <v>25</v>
       </c>
       <c r="I8" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="150" t="s">
+      <c r="J8" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="153" t="s">
+      <c r="K8" s="154" t="s">
         <v>26</v>
       </c>
       <c r="L8" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="150" t="s">
+      <c r="M8" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="N8" s="153" t="s">
+      <c r="N8" s="154" t="s">
         <v>27</v>
       </c>
       <c r="O8" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="P8" s="150" t="s">
+      <c r="P8" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="Q8" s="153" t="s">
+      <c r="Q8" s="154" t="s">
         <v>28</v>
       </c>
       <c r="R8" s="78" t="s">
@@ -8586,999 +8492,938 @@
       </c>
     </row>
     <row r="9" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B9" s="249" t="s">
+      <c r="B9" s="272" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="264" t="s">
+      <c r="C9" s="284" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="258" t="s">
-        <v>215</v>
+      <c r="D9" s="278" t="s">
+        <v>216</v>
       </c>
       <c r="E9" s="87" t="str">
         <f>주간메뉴표!D6</f>
-        <v>만두순두부찌개</v>
+        <v>전주식콩나물국밥*수란</v>
       </c>
       <c r="F9" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="G9" s="223">
+        <v>219</v>
+      </c>
+      <c r="G9" s="243">
         <f>주간메뉴표!D12</f>
-        <v>1278</v>
-      </c>
-      <c r="H9" s="154" t="str">
+        <v>1274</v>
+      </c>
+      <c r="H9" s="155" t="str">
         <f>주간메뉴표!E6</f>
-        <v>밀푀유나베</v>
+        <v>오색사골떡국</v>
       </c>
       <c r="I9" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="J9" s="223">
+        <v>219</v>
+      </c>
+      <c r="J9" s="243">
         <f>주간메뉴표!E12</f>
-        <v>951</v>
-      </c>
-      <c r="K9" s="154" t="str">
+        <v>1142</v>
+      </c>
+      <c r="K9" s="155" t="str">
         <f>주간메뉴표!F6</f>
-        <v>꼬치어묵탕*와사비장</v>
+        <v>뼈없는순살감자탕</v>
       </c>
       <c r="L9" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="M9" s="223">
+        <v>219</v>
+      </c>
+      <c r="M9" s="243">
         <f>주간메뉴표!F12</f>
         <v>1019</v>
       </c>
-      <c r="N9" s="154" t="str">
+      <c r="N9" s="155" t="str">
         <f>주간메뉴표!G6</f>
-        <v>뚝배기닭갈비*우동사리</v>
+        <v>쇠고기보양미역탕</v>
       </c>
       <c r="O9" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="P9" s="226">
+        <v>219</v>
+      </c>
+      <c r="P9" s="246">
         <f>주간메뉴표!G12</f>
-        <v>1142</v>
-      </c>
-      <c r="Q9" s="163" t="str">
+        <v>990</v>
+      </c>
+      <c r="Q9" s="204" t="str">
         <f>주간메뉴표!H6</f>
-        <v>쇠고기콩나물밥</v>
-      </c>
-      <c r="R9" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="S9" s="236">
+        <v>설날연휴</v>
+      </c>
+      <c r="R9" s="205"/>
+      <c r="S9" s="258">
         <f>주간메뉴표!H12</f>
-        <v>909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:19" s="17" customFormat="1" ht="19.5" customHeight="1">
-      <c r="B10" s="250"/>
-      <c r="C10" s="265"/>
-      <c r="D10" s="259"/>
+      <c r="B10" s="273"/>
+      <c r="C10" s="285"/>
+      <c r="D10" s="279"/>
       <c r="E10" s="88" t="str">
         <f>주간메뉴표!D7</f>
-        <v>동태전</v>
+        <v>돼지고기강정</v>
       </c>
       <c r="F10" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="G10" s="224"/>
-      <c r="H10" s="155" t="str">
+        <v>219</v>
+      </c>
+      <c r="G10" s="244"/>
+      <c r="H10" s="156" t="str">
         <f>주간메뉴표!E7</f>
-        <v>*땅콩&amp;칠리소스</v>
+        <v>미니철판돼지갈비구이</v>
       </c>
       <c r="I10" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="J10" s="224"/>
-      <c r="K10" s="155" t="str">
+        <v>219</v>
+      </c>
+      <c r="J10" s="244"/>
+      <c r="K10" s="156" t="str">
         <f>주간메뉴표!F7</f>
-        <v>제육볶음</v>
+        <v>햄계란전*케찹</v>
       </c>
       <c r="L10" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="M10" s="224"/>
-      <c r="N10" s="155" t="str">
+        <v>219</v>
+      </c>
+      <c r="M10" s="244"/>
+      <c r="N10" s="156" t="str">
         <f>주간메뉴표!G7</f>
-        <v>미역국</v>
+        <v>제육김치볶음*두부찜</v>
       </c>
       <c r="O10" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="P10" s="227"/>
-      <c r="Q10" s="155" t="str">
+        <v>219</v>
+      </c>
+      <c r="P10" s="247"/>
+      <c r="Q10" s="206">
         <f>주간메뉴표!H7</f>
-        <v>뚝배기된장찌개</v>
-      </c>
-      <c r="R10" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="S10" s="242"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="205"/>
+      <c r="S10" s="264"/>
     </row>
     <row r="11" spans="2:19" s="17" customFormat="1" ht="19.5" customHeight="1">
-      <c r="B11" s="250"/>
-      <c r="C11" s="265"/>
-      <c r="D11" s="259"/>
+      <c r="B11" s="273"/>
+      <c r="C11" s="285"/>
+      <c r="D11" s="279"/>
       <c r="E11" s="88" t="str">
         <f>주간메뉴표!D8</f>
-        <v>어묵꽈리고추볶음</v>
+        <v>녹두전</v>
       </c>
       <c r="F11" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="G11" s="224"/>
-      <c r="H11" s="155" t="str">
+        <v>219</v>
+      </c>
+      <c r="G11" s="244"/>
+      <c r="H11" s="156" t="str">
         <f>주간메뉴표!E8</f>
-        <v>메추리알장조림</v>
+        <v>황태골뱅이무침</v>
       </c>
       <c r="I11" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="J11" s="224"/>
-      <c r="K11" s="155" t="str">
+        <v>219</v>
+      </c>
+      <c r="J11" s="244"/>
+      <c r="K11" s="156" t="str">
         <f>주간메뉴표!F8</f>
-        <v>브로콜리숙회*초장</v>
+        <v>호박버섯볶음</v>
       </c>
       <c r="L11" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="M11" s="224"/>
-      <c r="N11" s="155" t="str">
+        <v>219</v>
+      </c>
+      <c r="M11" s="244"/>
+      <c r="N11" s="156" t="str">
         <f>주간메뉴표!G8</f>
-        <v>감자채전</v>
+        <v>채소잡채</v>
       </c>
       <c r="O11" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="P11" s="227"/>
-      <c r="Q11" s="155" t="str">
+        <v>219</v>
+      </c>
+      <c r="P11" s="247"/>
+      <c r="Q11" s="206">
         <f>주간메뉴표!H8</f>
-        <v>도톰완자전*케찹</v>
-      </c>
-      <c r="R11" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="S11" s="242"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="205"/>
+      <c r="S11" s="264"/>
     </row>
     <row r="12" spans="2:19" s="17" customFormat="1" ht="35.25" customHeight="1">
-      <c r="B12" s="250"/>
-      <c r="C12" s="265"/>
-      <c r="D12" s="259"/>
+      <c r="B12" s="273"/>
+      <c r="C12" s="285"/>
+      <c r="D12" s="279"/>
       <c r="E12" s="88" t="str">
         <f>주간메뉴표!D9</f>
-        <v>도시락김</v>
-      </c>
-      <c r="F12" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="G12" s="224"/>
-      <c r="H12" s="155" t="str">
+        <v>오이지무침</v>
+      </c>
+      <c r="F12" s="79"/>
+      <c r="G12" s="244"/>
+      <c r="H12" s="156" t="str">
         <f>주간메뉴표!E9</f>
-        <v>석박지</v>
-      </c>
-      <c r="I12" s="79"/>
-      <c r="J12" s="224"/>
-      <c r="K12" s="155" t="str">
+        <v>완자&amp;새송이전</v>
+      </c>
+      <c r="I12" s="79" t="s">
+        <v>219</v>
+      </c>
+      <c r="J12" s="244"/>
+      <c r="K12" s="156" t="str">
         <f>주간메뉴표!F9</f>
-        <v>땅콩조림</v>
-      </c>
-      <c r="L12" s="79"/>
-      <c r="M12" s="224"/>
-      <c r="N12" s="155" t="str">
+        <v>파래자반</v>
+      </c>
+      <c r="L12" s="79" t="s">
+        <v>219</v>
+      </c>
+      <c r="M12" s="244"/>
+      <c r="N12" s="156" t="str">
         <f>주간메뉴표!G9</f>
-        <v>도토리묵무침</v>
+        <v>숙주유부나물</v>
       </c>
       <c r="O12" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="P12" s="227"/>
-      <c r="Q12" s="155" t="str">
+        <v>219</v>
+      </c>
+      <c r="P12" s="247"/>
+      <c r="Q12" s="206">
         <f>주간메뉴표!H9</f>
-        <v>미역줄기볶음</v>
-      </c>
-      <c r="R12" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="S12" s="242"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="205"/>
+      <c r="S12" s="264"/>
     </row>
     <row r="13" spans="2:19" s="27" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B13" s="250"/>
-      <c r="C13" s="265"/>
-      <c r="D13" s="259"/>
+      <c r="B13" s="273"/>
+      <c r="C13" s="285"/>
+      <c r="D13" s="279"/>
       <c r="E13" s="88" t="str">
         <f>주간메뉴표!D10</f>
         <v>깍두기/잡곡밥</v>
       </c>
       <c r="F13" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="G13" s="224"/>
-      <c r="H13" s="155" t="str">
+        <v>219</v>
+      </c>
+      <c r="G13" s="244"/>
+      <c r="H13" s="156" t="str">
         <f>주간메뉴표!E10</f>
-        <v>잡곡밥</v>
+        <v>배추겉절이/잡곡밥</v>
       </c>
       <c r="I13" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="J13" s="224"/>
-      <c r="K13" s="155" t="str">
+        <v>219</v>
+      </c>
+      <c r="J13" s="244"/>
+      <c r="K13" s="156" t="str">
         <f>주간메뉴표!F10</f>
         <v>깍두기/잡곡밥</v>
       </c>
       <c r="L13" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="M13" s="224"/>
-      <c r="N13" s="155" t="str">
+        <v>219</v>
+      </c>
+      <c r="M13" s="244"/>
+      <c r="N13" s="156" t="str">
         <f>주간메뉴표!G10</f>
-        <v>포기김치/잡곡밥</v>
+        <v>석박지/잡곡밥</v>
       </c>
       <c r="O13" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="P13" s="227"/>
-      <c r="Q13" s="155" t="str">
+        <v>219</v>
+      </c>
+      <c r="P13" s="247"/>
+      <c r="Q13" s="206">
         <f>주간메뉴표!H10</f>
-        <v>고춧잎무침/깍두기</v>
-      </c>
-      <c r="R13" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="S13" s="242"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="205"/>
+      <c r="S13" s="264"/>
     </row>
     <row r="14" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B14" s="250"/>
-      <c r="C14" s="271"/>
-      <c r="D14" s="260"/>
+      <c r="B14" s="273"/>
+      <c r="C14" s="294"/>
+      <c r="D14" s="280"/>
       <c r="E14" s="88" t="str">
         <f>주간메뉴표!D11</f>
         <v>그린샐러드</v>
       </c>
       <c r="F14" s="79"/>
-      <c r="G14" s="225"/>
-      <c r="H14" s="155" t="str">
+      <c r="G14" s="245"/>
+      <c r="H14" s="156" t="str">
         <f>주간메뉴표!E11</f>
         <v>그린샐러드</v>
       </c>
       <c r="I14" s="79"/>
-      <c r="J14" s="225"/>
-      <c r="K14" s="155" t="str">
+      <c r="J14" s="245"/>
+      <c r="K14" s="156" t="str">
         <f>주간메뉴표!F11</f>
         <v>그린샐러드</v>
       </c>
       <c r="L14" s="79"/>
-      <c r="M14" s="225"/>
-      <c r="N14" s="155" t="str">
+      <c r="M14" s="245"/>
+      <c r="N14" s="156" t="str">
         <f>주간메뉴표!G11</f>
         <v>그린샐러드</v>
       </c>
       <c r="O14" s="79"/>
-      <c r="P14" s="228"/>
-      <c r="Q14" s="155" t="str">
+      <c r="P14" s="248"/>
+      <c r="Q14" s="206">
         <f>주간메뉴표!H11</f>
-        <v>그린샐러드</v>
-      </c>
-      <c r="R14" s="79"/>
-      <c r="S14" s="237"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="205"/>
+      <c r="S14" s="259"/>
     </row>
     <row r="15" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B15" s="250"/>
-      <c r="C15" s="272" t="s">
-        <v>216</v>
-      </c>
-      <c r="D15" s="258" t="s">
+      <c r="B15" s="273"/>
+      <c r="C15" s="295" t="s">
+        <v>217</v>
+      </c>
+      <c r="D15" s="278" t="s">
         <v>32</v>
       </c>
       <c r="E15" s="87" t="str">
         <f>주간메뉴표!D13</f>
-        <v>마제소바*스크램블에그</v>
+        <v>남산st왕돈가스</v>
       </c>
       <c r="F15" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="G15" s="223">
+        <v>219</v>
+      </c>
+      <c r="G15" s="243">
         <f>주간메뉴표!D19</f>
-        <v>1241</v>
-      </c>
-      <c r="H15" s="156" t="str">
+        <v>1175</v>
+      </c>
+      <c r="H15" s="157" t="str">
         <f>주간메뉴표!E13</f>
-        <v>츠케멘(찍어먹는라멘)</v>
+        <v>우육탕면</v>
       </c>
       <c r="I15" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="J15" s="223">
+        <v>219</v>
+      </c>
+      <c r="J15" s="243">
         <f>주간메뉴표!E19</f>
-        <v>1058</v>
-      </c>
-      <c r="K15" s="163" t="str">
+        <v>1305</v>
+      </c>
+      <c r="K15" s="164" t="str">
         <f>주간메뉴표!F13</f>
-        <v>우삼겹짬뽕</v>
+        <v>스팸김치볶음밥*후라이</v>
       </c>
       <c r="L15" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="M15" s="223">
+        <v>219</v>
+      </c>
+      <c r="M15" s="243">
         <f>주간메뉴표!F19</f>
-        <v>1150</v>
-      </c>
-      <c r="N15" s="154" t="str">
+        <v>1113</v>
+      </c>
+      <c r="N15" s="155" t="str">
         <f>주간메뉴표!G13</f>
-        <v>양지쌀국수</v>
+        <v>숯불육쌈쫄면</v>
       </c>
       <c r="O15" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="P15" s="223">
+        <v>219</v>
+      </c>
+      <c r="P15" s="243">
         <f>주간메뉴표!G19</f>
-        <v>753</v>
-      </c>
-      <c r="Q15" s="154" t="str">
-        <f>주간메뉴표!H13</f>
-        <v>버섯구이오므라이스*토마토소스</v>
-      </c>
-      <c r="R15" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="S15" s="236">
-        <f>주간메뉴표!H19</f>
-        <v>866</v>
-      </c>
+        <v>1257</v>
+      </c>
+      <c r="Q15" s="206"/>
+      <c r="R15" s="205"/>
+      <c r="S15" s="258"/>
     </row>
     <row r="16" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B16" s="250"/>
-      <c r="C16" s="265"/>
-      <c r="D16" s="259"/>
+      <c r="B16" s="273"/>
+      <c r="C16" s="285"/>
+      <c r="D16" s="279"/>
       <c r="E16" s="88" t="str">
         <f>주간메뉴표!D14</f>
-        <v>고구마맛탕</v>
-      </c>
-      <c r="F16" s="79"/>
-      <c r="G16" s="224"/>
-      <c r="H16" s="155" t="str">
+        <v>옛날크림스프</v>
+      </c>
+      <c r="F16" s="79" t="s">
+        <v>219</v>
+      </c>
+      <c r="G16" s="244"/>
+      <c r="H16" s="156" t="str">
         <f>주간메뉴표!E14</f>
-        <v>왕교자만두찜</v>
-      </c>
-      <c r="I16" s="79"/>
-      <c r="J16" s="224"/>
-      <c r="K16" s="155" t="str">
+        <v>수제유린기</v>
+      </c>
+      <c r="I16" s="79" t="s">
+        <v>219</v>
+      </c>
+      <c r="J16" s="244"/>
+      <c r="K16" s="156" t="str">
         <f>주간메뉴표!F14</f>
-        <v>새우가스*타르타르S</v>
+        <v>모듬크로켓</v>
       </c>
       <c r="L16" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="M16" s="224"/>
-      <c r="N16" s="155" t="str">
+        <v>219</v>
+      </c>
+      <c r="M16" s="244"/>
+      <c r="N16" s="156" t="str">
         <f>주간메뉴표!G14</f>
-        <v>해물짜조</v>
+        <v>야끼만두</v>
       </c>
       <c r="O16" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="P16" s="224"/>
-      <c r="Q16" s="155" t="str">
-        <f>주간메뉴표!H14</f>
-        <v>숯불데리야끼닭꼬치</v>
-      </c>
-      <c r="R16" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="S16" s="242"/>
+        <v>219</v>
+      </c>
+      <c r="P16" s="244"/>
+      <c r="Q16" s="206"/>
+      <c r="R16" s="205"/>
+      <c r="S16" s="264"/>
     </row>
     <row r="17" spans="1:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B17" s="250"/>
-      <c r="C17" s="265"/>
-      <c r="D17" s="259"/>
+      <c r="B17" s="273"/>
+      <c r="C17" s="285"/>
+      <c r="D17" s="279"/>
       <c r="E17" s="88" t="str">
         <f>주간메뉴표!D15</f>
-        <v>깍두기</v>
+        <v>에그마요모닝빵</v>
       </c>
       <c r="F17" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="G17" s="224"/>
-      <c r="H17" s="155" t="str">
+        <v>219</v>
+      </c>
+      <c r="G17" s="244"/>
+      <c r="H17" s="156" t="str">
         <f>주간메뉴표!E15</f>
         <v>꼬들단무지</v>
       </c>
       <c r="I17" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="J17" s="224"/>
-      <c r="K17" s="155" t="str">
+        <v>219</v>
+      </c>
+      <c r="J17" s="244"/>
+      <c r="K17" s="156" t="str">
         <f>주간메뉴표!F15</f>
+        <v>콘샐러드</v>
+      </c>
+      <c r="L17" s="79" t="s">
+        <v>219</v>
+      </c>
+      <c r="M17" s="244"/>
+      <c r="N17" s="156" t="str">
+        <f>주간메뉴표!G15</f>
         <v>단무지</v>
       </c>
-      <c r="L17" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="M17" s="224"/>
-      <c r="N17" s="155" t="str">
-        <f>주간메뉴표!G15</f>
-        <v>양파초절임</v>
-      </c>
       <c r="O17" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="P17" s="224"/>
-      <c r="Q17" s="155" t="str">
-        <f>주간메뉴표!H15</f>
-        <v>요거트푸딩</v>
-      </c>
-      <c r="R17" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="S17" s="242"/>
+        <v>219</v>
+      </c>
+      <c r="P17" s="244"/>
+      <c r="Q17" s="206"/>
+      <c r="R17" s="205"/>
+      <c r="S17" s="264"/>
     </row>
     <row r="18" spans="1:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B18" s="250"/>
-      <c r="C18" s="265"/>
-      <c r="D18" s="259"/>
+      <c r="B18" s="273"/>
+      <c r="C18" s="285"/>
+      <c r="D18" s="279"/>
       <c r="E18" s="88" t="str">
         <f>주간메뉴표!D16</f>
-        <v>미니쌀밥</v>
-      </c>
-      <c r="F18" s="79"/>
-      <c r="G18" s="224"/>
-      <c r="H18" s="155" t="str">
+        <v>깍두기</v>
+      </c>
+      <c r="F18" s="79" t="s">
+        <v>219</v>
+      </c>
+      <c r="G18" s="244"/>
+      <c r="H18" s="156" t="str">
         <f>주간메뉴표!E16</f>
+        <v>포기김치</v>
+      </c>
+      <c r="I18" s="79" t="s">
+        <v>219</v>
+      </c>
+      <c r="J18" s="244"/>
+      <c r="K18" s="156" t="str">
+        <f>주간메뉴표!F16</f>
         <v>깍두기</v>
       </c>
-      <c r="I18" s="79"/>
-      <c r="J18" s="224"/>
-      <c r="K18" s="155" t="str">
-        <f>주간메뉴표!F16</f>
-        <v>미니쌀밥</v>
-      </c>
       <c r="L18" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="M18" s="224"/>
-      <c r="N18" s="155" t="str">
+        <v>219</v>
+      </c>
+      <c r="M18" s="244"/>
+      <c r="N18" s="156" t="str">
         <f>주간메뉴표!G16</f>
-        <v>깍두기</v>
+        <v>포기김치</v>
       </c>
       <c r="O18" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="P18" s="224"/>
-      <c r="Q18" s="155" t="str">
-        <f>주간메뉴표!H16</f>
-        <v>우동국</v>
-      </c>
-      <c r="R18" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="S18" s="242"/>
+        <v>219</v>
+      </c>
+      <c r="P18" s="244"/>
+      <c r="Q18" s="206"/>
+      <c r="R18" s="205"/>
+      <c r="S18" s="264"/>
     </row>
     <row r="19" spans="1:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B19" s="250"/>
-      <c r="C19" s="265"/>
-      <c r="D19" s="259"/>
+      <c r="B19" s="273"/>
+      <c r="C19" s="285"/>
+      <c r="D19" s="279"/>
       <c r="E19" s="88" t="str">
         <f>주간메뉴표!D17</f>
+        <v>후리가케밥</v>
+      </c>
+      <c r="F19" s="79"/>
+      <c r="G19" s="244"/>
+      <c r="H19" s="156" t="str">
+        <f>주간메뉴표!E17</f>
+        <v>그린샐러드</v>
+      </c>
+      <c r="I19" s="79"/>
+      <c r="J19" s="244"/>
+      <c r="K19" s="156" t="str">
+        <f>주간메뉴표!F17</f>
         <v>두부장국</v>
       </c>
-      <c r="F19" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="G19" s="224"/>
-      <c r="H19" s="155" t="str">
-        <f>주간메뉴표!E17</f>
-        <v>탄산음료</v>
-      </c>
-      <c r="I19" s="79"/>
-      <c r="J19" s="224"/>
-      <c r="K19" s="155" t="str">
-        <f>주간메뉴표!F17</f>
-        <v>그린샐러드</v>
-      </c>
-      <c r="L19" s="79"/>
-      <c r="M19" s="224"/>
-      <c r="N19" s="155" t="str">
+      <c r="L19" s="79" t="s">
+        <v>219</v>
+      </c>
+      <c r="M19" s="244"/>
+      <c r="N19" s="156" t="str">
         <f>주간메뉴표!G17</f>
-        <v>그린샐러드</v>
-      </c>
-      <c r="O19" s="79"/>
-      <c r="P19" s="224"/>
-      <c r="Q19" s="155" t="str">
-        <f>주간메뉴표!H17</f>
-        <v>포기김치</v>
-      </c>
-      <c r="R19" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="S19" s="242"/>
+        <v>팽이버섯장국</v>
+      </c>
+      <c r="O19" s="79" t="s">
+        <v>219</v>
+      </c>
+      <c r="P19" s="244"/>
+      <c r="Q19" s="206"/>
+      <c r="R19" s="205"/>
+      <c r="S19" s="264"/>
     </row>
     <row r="20" spans="1:19" s="27" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B20" s="250"/>
-      <c r="C20" s="265"/>
-      <c r="D20" s="259"/>
+      <c r="B20" s="273"/>
+      <c r="C20" s="285"/>
+      <c r="D20" s="279"/>
       <c r="E20" s="88" t="str">
         <f>주간메뉴표!D18</f>
         <v>그린샐러드</v>
       </c>
       <c r="F20" s="79"/>
-      <c r="G20" s="224"/>
-      <c r="H20" s="155" t="str">
+      <c r="G20" s="244"/>
+      <c r="H20" s="156">
         <f>주간메뉴표!E18</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="79"/>
+      <c r="J20" s="244"/>
+      <c r="K20" s="156" t="str">
+        <f>주간메뉴표!F18</f>
         <v>그린샐러드</v>
       </c>
-      <c r="I20" s="79"/>
-      <c r="J20" s="224"/>
-      <c r="K20" s="155">
-        <f>주간메뉴표!F18</f>
-        <v>0</v>
-      </c>
       <c r="L20" s="79"/>
-      <c r="M20" s="224"/>
-      <c r="N20" s="155">
+      <c r="M20" s="244"/>
+      <c r="N20" s="156" t="str">
         <f>주간메뉴표!G18</f>
-        <v>0</v>
+        <v>그린샐러드</v>
       </c>
       <c r="O20" s="79"/>
-      <c r="P20" s="224"/>
-      <c r="Q20" s="155" t="str">
-        <f>주간메뉴표!H18</f>
-        <v>그린샐러드</v>
-      </c>
-      <c r="R20" s="79"/>
-      <c r="S20" s="237"/>
+      <c r="P20" s="244"/>
+      <c r="Q20" s="206"/>
+      <c r="R20" s="205"/>
+      <c r="S20" s="264"/>
     </row>
     <row r="21" spans="1:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B21" s="250"/>
-      <c r="C21" s="264" t="s">
-        <v>358</v>
-      </c>
-      <c r="D21" s="258" t="s">
+      <c r="B21" s="273"/>
+      <c r="C21" s="284" t="s">
+        <v>220</v>
+      </c>
+      <c r="D21" s="278" t="s">
         <v>34</v>
       </c>
       <c r="E21" s="87" t="str">
         <f>주간메뉴표!D20</f>
-        <v>베이컨마늘볶음밥*후라이</v>
-      </c>
-      <c r="F21" s="79"/>
-      <c r="G21" s="223">
+        <v>들깨칼제비</v>
+      </c>
+      <c r="F21" s="79" t="s">
+        <v>219</v>
+      </c>
+      <c r="G21" s="243">
         <f>주간메뉴표!D26</f>
-        <v>1211</v>
-      </c>
-      <c r="H21" s="154" t="str">
+        <v>1156</v>
+      </c>
+      <c r="H21" s="155" t="str">
         <f>주간메뉴표!E20</f>
-        <v>갈릭점보장각구이*소스2종</v>
+        <v>수제미트소스라자냐</v>
       </c>
       <c r="I21" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="J21" s="273">
+        <v>219</v>
+      </c>
+      <c r="J21" s="291">
         <f>주간메뉴표!E26</f>
-        <v>1315</v>
-      </c>
-      <c r="K21" s="154" t="str">
+        <v>1193</v>
+      </c>
+      <c r="K21" s="155" t="str">
         <f>주간메뉴표!F20</f>
-        <v>Fun!629_</v>
-      </c>
-      <c r="L21" s="79"/>
-      <c r="M21" s="223">
+        <v>호호식당st_명란오일파스타</v>
+      </c>
+      <c r="L21" s="79" t="s">
+        <v>219</v>
+      </c>
+      <c r="M21" s="243">
         <f>주간메뉴표!F26</f>
-        <v>1013</v>
-      </c>
-      <c r="N21" s="156" t="str">
+        <v>915</v>
+      </c>
+      <c r="N21" s="157" t="str">
         <f>주간메뉴표!G20</f>
-        <v>Fun!629_</v>
-      </c>
-      <c r="O21" s="79"/>
-      <c r="P21" s="226">
+        <v>일식간장불고기솥밥*후라이</v>
+      </c>
+      <c r="O21" s="79" t="s">
+        <v>219</v>
+      </c>
+      <c r="P21" s="246">
         <f>주간메뉴표!G26</f>
-        <v>1077</v>
-      </c>
-      <c r="Q21" s="156" t="str">
-        <f>주간메뉴표!H20</f>
-        <v>국물떡볶이&amp;튀김쌈</v>
-      </c>
-      <c r="R21" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="S21" s="243">
-        <f>주간메뉴표!H26</f>
-        <v>1287</v>
-      </c>
+        <v>946</v>
+      </c>
+      <c r="Q21" s="207"/>
+      <c r="R21" s="205"/>
+      <c r="S21" s="258"/>
     </row>
     <row r="22" spans="1:19" s="17" customFormat="1" ht="33" customHeight="1">
-      <c r="B22" s="250"/>
-      <c r="C22" s="265"/>
-      <c r="D22" s="259"/>
+      <c r="B22" s="273"/>
+      <c r="C22" s="285"/>
+      <c r="D22" s="279"/>
       <c r="E22" s="88" t="str">
         <f>주간메뉴표!D21</f>
-        <v>한입고르곤졸라피자</v>
+        <v>매콤오징어볶음</v>
       </c>
       <c r="F22" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="G22" s="224"/>
-      <c r="H22" s="157" t="str">
+        <v>219</v>
+      </c>
+      <c r="G22" s="244"/>
+      <c r="H22" s="158" t="str">
         <f>주간메뉴표!E21</f>
-        <v>계란채소볶음밥</v>
-      </c>
-      <c r="I22" s="79"/>
-      <c r="J22" s="274"/>
-      <c r="K22" s="155" t="str">
+        <v>호핑존샐러드(미국새해음식)</v>
+      </c>
+      <c r="I22" s="79" t="s">
+        <v>219</v>
+      </c>
+      <c r="J22" s="292"/>
+      <c r="K22" s="156" t="str">
         <f>주간메뉴표!F21</f>
-        <v>철판더블치즈함박</v>
+        <v>새우튀김*양배추샐러드</v>
       </c>
       <c r="L22" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="M22" s="224"/>
-      <c r="N22" s="155" t="str">
+        <v>219</v>
+      </c>
+      <c r="M22" s="244"/>
+      <c r="N22" s="156" t="str">
         <f>주간메뉴표!G21</f>
-        <v>중화식자장덮밥*후라이</v>
+        <v>타코야끼</v>
       </c>
       <c r="O22" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="P22" s="227"/>
-      <c r="Q22" s="155" t="str">
-        <f>주간메뉴표!H21</f>
-        <v>┗김말이,고추튀김,군만두,오징어튀김</v>
-      </c>
-      <c r="R22" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="S22" s="244"/>
+        <v>219</v>
+      </c>
+      <c r="P22" s="247"/>
+      <c r="Q22" s="206"/>
+      <c r="R22" s="205"/>
+      <c r="S22" s="264"/>
     </row>
     <row r="23" spans="1:19" s="17" customFormat="1" ht="30" customHeight="1">
       <c r="A23" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="250"/>
-      <c r="C23" s="265"/>
-      <c r="D23" s="259"/>
+      <c r="B23" s="273"/>
+      <c r="C23" s="285"/>
+      <c r="D23" s="279"/>
       <c r="E23" s="88" t="str">
         <f>주간메뉴표!D22</f>
-        <v>마카로니샐러드</v>
+        <v>김가루양념밥</v>
       </c>
       <c r="F23" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="G23" s="224"/>
-      <c r="H23" s="157" t="str">
+        <v>219</v>
+      </c>
+      <c r="G23" s="244"/>
+      <c r="H23" s="158" t="str">
         <f>주간메뉴표!E22</f>
-        <v>웨지감자튀김*케찹</v>
+        <v>수제피클</v>
       </c>
       <c r="I23" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="J23" s="274"/>
-      <c r="K23" s="155" t="str">
+        <v>219</v>
+      </c>
+      <c r="J23" s="292"/>
+      <c r="K23" s="156" t="str">
         <f>주간메뉴표!F22</f>
-        <v>산고추</v>
+        <v>산고추&amp;압축단무지</v>
       </c>
       <c r="L23" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="M23" s="224"/>
-      <c r="N23" s="155" t="str">
+        <v>219</v>
+      </c>
+      <c r="M23" s="244"/>
+      <c r="N23" s="156" t="str">
         <f>주간메뉴표!G22</f>
-        <v>만두강정</v>
+        <v>락교고추장무침</v>
       </c>
       <c r="O23" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="P23" s="227"/>
-      <c r="Q23" s="155" t="str">
-        <f>주간메뉴표!H22</f>
-        <v>양파고추간장절임</v>
-      </c>
-      <c r="R23" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="S23" s="244"/>
+        <v>219</v>
+      </c>
+      <c r="P23" s="247"/>
+      <c r="Q23" s="206"/>
+      <c r="R23" s="205"/>
+      <c r="S23" s="264"/>
     </row>
     <row r="24" spans="1:19" s="17" customFormat="1" ht="28.5" customHeight="1">
-      <c r="B24" s="250"/>
-      <c r="C24" s="265"/>
-      <c r="D24" s="259"/>
+      <c r="B24" s="273"/>
+      <c r="C24" s="285"/>
+      <c r="D24" s="279"/>
       <c r="E24" s="88" t="str">
         <f>주간메뉴표!D23</f>
-        <v>두부장국</v>
+        <v>배추겉절이</v>
       </c>
       <c r="F24" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="G24" s="224"/>
-      <c r="H24" s="157" t="str">
+        <v>219</v>
+      </c>
+      <c r="G24" s="244"/>
+      <c r="H24" s="158" t="str">
         <f>주간메뉴표!E23</f>
-        <v>양배추샐러드*사우전D</v>
-      </c>
-      <c r="I24" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="J24" s="274"/>
-      <c r="K24" s="155" t="str">
+        <v>탄산음료</v>
+      </c>
+      <c r="I24" s="79"/>
+      <c r="J24" s="292"/>
+      <c r="K24" s="156" t="str">
         <f>주간메뉴표!F23</f>
-        <v>깍두기</v>
-      </c>
-      <c r="L24" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="M24" s="224"/>
-      <c r="N24" s="155" t="str">
+        <v>탄산음료</v>
+      </c>
+      <c r="L24" s="79"/>
+      <c r="M24" s="244"/>
+      <c r="N24" s="156" t="str">
         <f>주간메뉴표!G23</f>
-        <v>단무지</v>
+        <v>포기김치</v>
       </c>
       <c r="O24" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="P24" s="227"/>
-      <c r="Q24" s="155" t="str">
-        <f>주간메뉴표!H23</f>
-        <v>멸치양념밥</v>
-      </c>
-      <c r="R24" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="S24" s="244"/>
+        <v>219</v>
+      </c>
+      <c r="P24" s="247"/>
+      <c r="Q24" s="206"/>
+      <c r="R24" s="205"/>
+      <c r="S24" s="264"/>
     </row>
     <row r="25" spans="1:19" s="17" customFormat="1" ht="30.75" customHeight="1">
-      <c r="B25" s="250"/>
-      <c r="C25" s="265"/>
-      <c r="D25" s="259"/>
+      <c r="B25" s="273"/>
+      <c r="C25" s="285"/>
+      <c r="D25" s="279"/>
       <c r="E25" s="88" t="str">
         <f>주간메뉴표!D24</f>
-        <v>포기김치</v>
+        <v>그린샐러드</v>
       </c>
       <c r="F25" s="79"/>
-      <c r="G25" s="224"/>
-      <c r="H25" s="157" t="str">
+      <c r="G25" s="244"/>
+      <c r="H25" s="158" t="str">
         <f>주간메뉴표!E24</f>
-        <v>무비트피클/탄산음료</v>
+        <v>그린샐러드</v>
       </c>
       <c r="I25" s="79"/>
-      <c r="J25" s="274"/>
-      <c r="K25" s="155" t="str">
+      <c r="J25" s="292"/>
+      <c r="K25" s="156" t="str">
         <f>주간메뉴표!F24</f>
-        <v>미소장국</v>
-      </c>
-      <c r="L25" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="M25" s="224"/>
-      <c r="N25" s="155" t="str">
+        <v>그린샐러드</v>
+      </c>
+      <c r="L25" s="79"/>
+      <c r="M25" s="244"/>
+      <c r="N25" s="156" t="str">
         <f>주간메뉴표!G24</f>
-        <v>포기김치/유부장국</v>
-      </c>
-      <c r="O25" s="79"/>
-      <c r="P25" s="227"/>
-      <c r="Q25" s="155" t="str">
-        <f>주간메뉴표!H24</f>
-        <v>단무지/우동국</v>
-      </c>
-      <c r="R25" s="79"/>
-      <c r="S25" s="244"/>
-    </row>
-    <row r="26" spans="1:19" s="17" customFormat="1" ht="33.75" customHeight="1">
-      <c r="B26" s="250"/>
-      <c r="C26" s="265"/>
-      <c r="D26" s="259"/>
-      <c r="E26" s="88" t="str">
+        <v>팽이버섯장국</v>
+      </c>
+      <c r="O25" s="79" t="s">
+        <v>219</v>
+      </c>
+      <c r="P25" s="247"/>
+      <c r="Q25" s="206"/>
+      <c r="R25" s="205"/>
+      <c r="S25" s="264"/>
+    </row>
+    <row r="26" spans="1:19" s="17" customFormat="1" ht="33.75" hidden="1" customHeight="1">
+      <c r="B26" s="273"/>
+      <c r="C26" s="285"/>
+      <c r="D26" s="279"/>
+      <c r="E26" s="88">
         <f>주간메뉴표!D25</f>
-        <v>그린샐러드</v>
+        <v>0</v>
       </c>
       <c r="F26" s="79"/>
-      <c r="G26" s="224"/>
-      <c r="H26" s="157" t="str">
+      <c r="G26" s="244"/>
+      <c r="H26" s="158">
         <f>주간메뉴표!E25</f>
-        <v>그린샐러드</v>
+        <v>0</v>
       </c>
       <c r="I26" s="79"/>
-      <c r="J26" s="274"/>
-      <c r="K26" s="155" t="str">
+      <c r="J26" s="292"/>
+      <c r="K26" s="156">
         <f>주간메뉴표!F25</f>
-        <v>그린샐러드</v>
+        <v>0</v>
       </c>
       <c r="L26" s="79"/>
-      <c r="M26" s="224"/>
-      <c r="N26" s="155" t="str">
+      <c r="M26" s="244"/>
+      <c r="N26" s="156" t="str">
         <f>주간메뉴표!G25</f>
         <v>그린샐러드</v>
       </c>
-      <c r="O26" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="P26" s="227"/>
-      <c r="Q26" s="155" t="str">
-        <f>주간메뉴표!H25</f>
-        <v>그린샐러드</v>
-      </c>
-      <c r="R26" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="S26" s="244"/>
-    </row>
-    <row r="27" spans="1:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B27" s="250"/>
-      <c r="C27" s="271"/>
-      <c r="D27" s="260"/>
+      <c r="O26" s="79"/>
+      <c r="P26" s="247"/>
+      <c r="Q26" s="206"/>
+      <c r="R26" s="205"/>
+      <c r="S26" s="264"/>
+    </row>
+    <row r="27" spans="1:19" s="17" customFormat="1" ht="20.25" hidden="1" customHeight="1">
+      <c r="B27" s="273"/>
+      <c r="C27" s="294"/>
+      <c r="D27" s="280"/>
       <c r="E27" s="88" t="e">
         <f>주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="F27" s="79"/>
-      <c r="G27" s="225"/>
-      <c r="H27" s="157" t="e">
+      <c r="G27" s="245"/>
+      <c r="H27" s="158" t="e">
         <f>주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="I27" s="79"/>
-      <c r="J27" s="275"/>
-      <c r="K27" s="155" t="e">
+      <c r="J27" s="293"/>
+      <c r="K27" s="156" t="e">
         <f>주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="L27" s="79"/>
-      <c r="M27" s="225"/>
-      <c r="N27" s="155" t="e">
+      <c r="M27" s="245"/>
+      <c r="N27" s="156" t="e">
         <f>주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="O27" s="79"/>
-      <c r="P27" s="228"/>
-      <c r="Q27" s="155" t="e">
+      <c r="P27" s="248"/>
+      <c r="Q27" s="206"/>
+      <c r="R27" s="205"/>
+      <c r="S27" s="259"/>
+    </row>
+    <row r="28" spans="1:19" s="44" customFormat="1" ht="20.25" hidden="1" customHeight="1">
+      <c r="B28" s="273"/>
+      <c r="C28" s="145"/>
+      <c r="D28" s="278"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="243" t="e">
         <f>주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="R27" s="79"/>
-      <c r="S27" s="245"/>
-    </row>
-    <row r="28" spans="1:19" s="44" customFormat="1" ht="20.25" hidden="1" customHeight="1">
-      <c r="B28" s="250"/>
-      <c r="C28" s="144"/>
-      <c r="D28" s="258"/>
-      <c r="E28" s="82"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="223" t="e">
+      <c r="H28" s="159"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="243" t="e">
         <f>주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="H28" s="158"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="223" t="e">
+      <c r="K28" s="155"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="243"/>
+      <c r="N28" s="159"/>
+      <c r="O28" s="79"/>
+      <c r="P28" s="246"/>
+      <c r="Q28" s="208" t="e">
         <f>주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K28" s="154"/>
-      <c r="L28" s="79"/>
-      <c r="M28" s="223"/>
-      <c r="N28" s="158"/>
-      <c r="O28" s="79"/>
-      <c r="P28" s="226"/>
-      <c r="Q28" s="162" t="e">
+      <c r="R28" s="205"/>
+      <c r="S28" s="258"/>
+    </row>
+    <row r="29" spans="1:19" s="17" customFormat="1" ht="20.25" hidden="1" customHeight="1">
+      <c r="B29" s="273"/>
+      <c r="C29" s="145"/>
+      <c r="D29" s="279"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="244"/>
+      <c r="H29" s="160"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="244"/>
+      <c r="K29" s="156"/>
+      <c r="L29" s="79"/>
+      <c r="M29" s="244"/>
+      <c r="N29" s="160"/>
+      <c r="O29" s="79"/>
+      <c r="P29" s="247"/>
+      <c r="Q29" s="209" t="e">
         <f>주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="R28" s="79"/>
-      <c r="S28" s="236"/>
-    </row>
-    <row r="29" spans="1:19" s="17" customFormat="1" ht="20.25" hidden="1" customHeight="1">
-      <c r="B29" s="250"/>
-      <c r="C29" s="144"/>
-      <c r="D29" s="259"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="224"/>
-      <c r="H29" s="159"/>
-      <c r="I29" s="79"/>
-      <c r="J29" s="224"/>
-      <c r="K29" s="155"/>
-      <c r="L29" s="79"/>
-      <c r="M29" s="224"/>
-      <c r="N29" s="159"/>
-      <c r="O29" s="79"/>
-      <c r="P29" s="227"/>
-      <c r="Q29" s="159" t="e">
+      <c r="R29" s="205"/>
+      <c r="S29" s="264"/>
+    </row>
+    <row r="30" spans="1:19" s="17" customFormat="1" ht="20.25" hidden="1" customHeight="1">
+      <c r="B30" s="273"/>
+      <c r="C30" s="145"/>
+      <c r="D30" s="279"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="244"/>
+      <c r="H30" s="160"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="244"/>
+      <c r="K30" s="156"/>
+      <c r="L30" s="79"/>
+      <c r="M30" s="244"/>
+      <c r="N30" s="160"/>
+      <c r="O30" s="79"/>
+      <c r="P30" s="247"/>
+      <c r="Q30" s="209" t="e">
         <f>주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="R29" s="79"/>
-      <c r="S29" s="242"/>
-    </row>
-    <row r="30" spans="1:19" s="17" customFormat="1" ht="20.25" hidden="1" customHeight="1">
-      <c r="B30" s="250"/>
-      <c r="C30" s="144"/>
-      <c r="D30" s="259"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="224"/>
-      <c r="H30" s="159"/>
-      <c r="I30" s="79"/>
-      <c r="J30" s="224"/>
-      <c r="K30" s="155"/>
-      <c r="L30" s="79"/>
-      <c r="M30" s="224"/>
-      <c r="N30" s="159"/>
-      <c r="O30" s="79"/>
-      <c r="P30" s="227"/>
-      <c r="Q30" s="159" t="e">
+      <c r="R30" s="205"/>
+      <c r="S30" s="264"/>
+    </row>
+    <row r="31" spans="1:19" s="17" customFormat="1" ht="20.25" hidden="1" customHeight="1">
+      <c r="B31" s="273"/>
+      <c r="C31" s="145"/>
+      <c r="D31" s="279"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="244"/>
+      <c r="H31" s="160"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="244"/>
+      <c r="K31" s="156"/>
+      <c r="L31" s="79"/>
+      <c r="M31" s="244"/>
+      <c r="N31" s="160"/>
+      <c r="O31" s="79"/>
+      <c r="P31" s="247"/>
+      <c r="Q31" s="209" t="e">
         <f>주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="R30" s="79"/>
-      <c r="S30" s="242"/>
-    </row>
-    <row r="31" spans="1:19" s="17" customFormat="1" ht="20.25" hidden="1" customHeight="1">
-      <c r="B31" s="250"/>
-      <c r="C31" s="144"/>
-      <c r="D31" s="259"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="224"/>
-      <c r="H31" s="159"/>
-      <c r="I31" s="79"/>
-      <c r="J31" s="224"/>
-      <c r="K31" s="155"/>
-      <c r="L31" s="79"/>
-      <c r="M31" s="224"/>
-      <c r="N31" s="159"/>
-      <c r="O31" s="79"/>
-      <c r="P31" s="227"/>
-      <c r="Q31" s="159" t="e">
+      <c r="R31" s="205"/>
+      <c r="S31" s="264"/>
+    </row>
+    <row r="32" spans="1:19" s="17" customFormat="1" ht="20.25" hidden="1" customHeight="1">
+      <c r="B32" s="273"/>
+      <c r="C32" s="145"/>
+      <c r="D32" s="279"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="244"/>
+      <c r="H32" s="160"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="244"/>
+      <c r="K32" s="156"/>
+      <c r="L32" s="79"/>
+      <c r="M32" s="244"/>
+      <c r="N32" s="160"/>
+      <c r="O32" s="79"/>
+      <c r="P32" s="247"/>
+      <c r="Q32" s="209" t="e">
         <f>주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="R31" s="79"/>
-      <c r="S31" s="242"/>
-    </row>
-    <row r="32" spans="1:19" s="17" customFormat="1" ht="20.25" hidden="1" customHeight="1">
-      <c r="B32" s="250"/>
-      <c r="C32" s="144"/>
-      <c r="D32" s="259"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="224"/>
-      <c r="H32" s="159"/>
-      <c r="I32" s="79"/>
-      <c r="J32" s="224"/>
-      <c r="K32" s="155"/>
-      <c r="L32" s="79"/>
-      <c r="M32" s="224"/>
-      <c r="N32" s="159"/>
-      <c r="O32" s="79"/>
-      <c r="P32" s="227"/>
-      <c r="Q32" s="159" t="e">
-        <f>주간메뉴표!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R32" s="79"/>
-      <c r="S32" s="242"/>
+      <c r="R32" s="205"/>
+      <c r="S32" s="264"/>
     </row>
     <row r="33" spans="2:19" s="17" customFormat="1" ht="20.25" hidden="1" customHeight="1">
-      <c r="B33" s="250"/>
-      <c r="C33" s="145"/>
-      <c r="D33" s="260"/>
+      <c r="B33" s="273"/>
+      <c r="C33" s="146"/>
+      <c r="D33" s="280"/>
       <c r="E33" s="89"/>
       <c r="F33" s="79"/>
-      <c r="G33" s="225"/>
-      <c r="H33" s="159"/>
+      <c r="G33" s="245"/>
+      <c r="H33" s="160"/>
       <c r="I33" s="79"/>
-      <c r="J33" s="225"/>
-      <c r="K33" s="155"/>
+      <c r="J33" s="245"/>
+      <c r="K33" s="156"/>
       <c r="L33" s="79"/>
-      <c r="M33" s="225"/>
-      <c r="N33" s="159"/>
+      <c r="M33" s="245"/>
+      <c r="N33" s="160"/>
       <c r="O33" s="79"/>
-      <c r="P33" s="228"/>
-      <c r="Q33" s="159"/>
-      <c r="R33" s="79"/>
-      <c r="S33" s="237"/>
+      <c r="P33" s="248"/>
+      <c r="Q33" s="209"/>
+      <c r="R33" s="205"/>
+      <c r="S33" s="259"/>
     </row>
     <row r="34" spans="2:19" s="27" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B34" s="250"/>
-      <c r="C34" s="264" t="s">
+      <c r="B34" s="273"/>
+      <c r="C34" s="284" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="261" t="s">
+      <c r="D34" s="286" t="s">
         <v>36</v>
       </c>
       <c r="E34" s="81" t="str">
@@ -9586,1018 +9431,955 @@
         <v>볶음김치</v>
       </c>
       <c r="F34" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="G34" s="246"/>
-      <c r="H34" s="160" t="str">
+        <v>219</v>
+      </c>
+      <c r="G34" s="265"/>
+      <c r="H34" s="161" t="str">
         <f>주간메뉴표!E27</f>
-        <v>갓김치</v>
+        <v>배추겉절이</v>
       </c>
       <c r="I34" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="J34" s="246"/>
-      <c r="K34" s="160" t="str">
+        <v>219</v>
+      </c>
+      <c r="J34" s="265"/>
+      <c r="K34" s="161" t="str">
         <f>주간메뉴표!F27</f>
         <v>볶음김치</v>
       </c>
       <c r="L34" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="M34" s="246"/>
-      <c r="N34" s="160" t="str">
+        <v>219</v>
+      </c>
+      <c r="M34" s="265"/>
+      <c r="N34" s="161" t="str">
         <f>주간메뉴표!G27</f>
-        <v>갓김치</v>
+        <v>배추겉절이</v>
       </c>
       <c r="O34" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="P34" s="246"/>
-      <c r="Q34" s="160" t="str">
+        <v>219</v>
+      </c>
+      <c r="P34" s="265"/>
+      <c r="Q34" s="210">
         <f>주간메뉴표!H27</f>
-        <v>볶음김치</v>
-      </c>
-      <c r="R34" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="S34" s="261"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="205"/>
+      <c r="S34" s="281"/>
     </row>
     <row r="35" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B35" s="250"/>
-      <c r="C35" s="265"/>
-      <c r="D35" s="262"/>
+      <c r="B35" s="273"/>
+      <c r="C35" s="285"/>
+      <c r="D35" s="288"/>
       <c r="E35" s="81" t="str">
         <f>주간메뉴표!D28</f>
-        <v>식혜</v>
-      </c>
-      <c r="F35" s="79"/>
-      <c r="G35" s="247"/>
-      <c r="H35" s="160" t="str">
+        <v>율무차</v>
+      </c>
+      <c r="F35" s="79" t="s">
+        <v>219</v>
+      </c>
+      <c r="G35" s="266"/>
+      <c r="H35" s="161" t="str">
         <f>주간메뉴표!E28</f>
         <v>발사믹&amp;참깨D</v>
       </c>
       <c r="I35" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="J35" s="247"/>
-      <c r="K35" s="160" t="str">
+        <v>219</v>
+      </c>
+      <c r="J35" s="266"/>
+      <c r="K35" s="161" t="str">
         <f>주간메뉴표!F28</f>
-        <v>꿀유자차</v>
-      </c>
-      <c r="L35" s="79"/>
-      <c r="M35" s="247"/>
-      <c r="N35" s="160" t="str">
+        <v>수정과</v>
+      </c>
+      <c r="L35" s="79" t="s">
+        <v>219</v>
+      </c>
+      <c r="M35" s="266"/>
+      <c r="N35" s="161" t="str">
         <f>주간메뉴표!G28</f>
-        <v>매실차</v>
+        <v>요거트*씨리얼</v>
       </c>
       <c r="O35" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="P35" s="247"/>
-      <c r="Q35" s="160" t="str">
+        <v>219</v>
+      </c>
+      <c r="P35" s="266"/>
+      <c r="Q35" s="210">
         <f>주간메뉴표!H28</f>
-        <v>초코라떼</v>
-      </c>
-      <c r="R35" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="S35" s="262"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="205"/>
+      <c r="S35" s="282"/>
     </row>
     <row r="36" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B36" s="250"/>
-      <c r="C36" s="265"/>
-      <c r="D36" s="262"/>
+      <c r="B36" s="273"/>
+      <c r="C36" s="285"/>
+      <c r="D36" s="288"/>
       <c r="E36" s="81" t="str">
         <f>주간메뉴표!D29</f>
         <v>오리엔탈&amp;망고D</v>
       </c>
       <c r="F36" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="G36" s="248"/>
-      <c r="H36" s="160">
+        <v>219</v>
+      </c>
+      <c r="G36" s="267"/>
+      <c r="H36" s="161">
         <f>주간메뉴표!E29</f>
         <v>0</v>
       </c>
       <c r="I36" s="79"/>
-      <c r="J36" s="248"/>
-      <c r="K36" s="160" t="str">
+      <c r="J36" s="267"/>
+      <c r="K36" s="161" t="str">
         <f>주간메뉴표!F29</f>
         <v>오리엔탈&amp;블루베리D</v>
       </c>
       <c r="L36" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="M36" s="248"/>
-      <c r="N36" s="160" t="str">
+        <v>219</v>
+      </c>
+      <c r="M36" s="267"/>
+      <c r="N36" s="161" t="str">
         <f>주간메뉴표!G29</f>
         <v>발사믹&amp;파인애플D</v>
       </c>
       <c r="O36" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="P36" s="248"/>
-      <c r="Q36" s="160" t="str">
+        <v>219</v>
+      </c>
+      <c r="P36" s="267"/>
+      <c r="Q36" s="210">
         <f>주간메뉴표!H29</f>
-        <v>오리엔탈&amp;딸기D</v>
-      </c>
-      <c r="R36" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="S36" s="263"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="205"/>
+      <c r="S36" s="283"/>
     </row>
     <row r="37" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B37" s="250"/>
-      <c r="C37" s="264" t="s">
+      <c r="B37" s="273"/>
+      <c r="C37" s="284" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="261" t="s">
+      <c r="D37" s="286" t="s">
         <v>211</v>
       </c>
-      <c r="E37" s="266" t="str">
+      <c r="E37" s="289" t="str">
         <f>주간메뉴표!D30</f>
-        <v>비프나쵸샐러드</v>
-      </c>
-      <c r="F37" s="240" t="s">
-        <v>218</v>
-      </c>
-      <c r="G37" s="223">
+        <v>훈제오리단호박샐러드</v>
+      </c>
+      <c r="F37" s="270" t="s">
+        <v>337</v>
+      </c>
+      <c r="G37" s="249">
         <f>주간메뉴표!D31</f>
-        <v>364</v>
-      </c>
-      <c r="H37" s="238" t="str">
+        <v>654</v>
+      </c>
+      <c r="H37" s="268" t="str">
         <f>주간메뉴표!E30</f>
-        <v>크림새우샐러드</v>
-      </c>
-      <c r="I37" s="240" t="s">
-        <v>218</v>
-      </c>
-      <c r="J37" s="223">
+        <v>베이컨시저샐러드</v>
+      </c>
+      <c r="I37" s="270" t="s">
+        <v>219</v>
+      </c>
+      <c r="J37" s="249">
         <f>주간메뉴표!E31</f>
-        <v>388</v>
-      </c>
-      <c r="K37" s="238" t="str">
+        <v>711</v>
+      </c>
+      <c r="K37" s="268" t="str">
         <f>주간메뉴표!F30</f>
-        <v>꽃맛살아보카도샐러드</v>
-      </c>
-      <c r="L37" s="240" t="s">
-        <v>218</v>
-      </c>
-      <c r="M37" s="223">
+        <v>케이준치킨샐러드</v>
+      </c>
+      <c r="L37" s="270" t="s">
+        <v>219</v>
+      </c>
+      <c r="M37" s="249">
         <f>주간메뉴표!F31</f>
-        <v>718</v>
-      </c>
-      <c r="N37" s="238" t="str">
+        <v>732</v>
+      </c>
+      <c r="N37" s="268" t="str">
         <f>주간메뉴표!G30</f>
-        <v>베이컨루꼴라샐러드</v>
-      </c>
-      <c r="O37" s="240" t="s">
-        <v>218</v>
-      </c>
-      <c r="P37" s="223">
+        <v>씨푸드파스타샐러드</v>
+      </c>
+      <c r="O37" s="270" t="s">
+        <v>219</v>
+      </c>
+      <c r="P37" s="249">
         <f>주간메뉴표!G31</f>
-        <v>694</v>
-      </c>
-      <c r="Q37" s="238" t="str">
+        <v>674</v>
+      </c>
+      <c r="Q37" s="260">
         <f>주간메뉴표!H30</f>
-        <v>카프레제샐러드</v>
-      </c>
-      <c r="R37" s="240" t="s">
-        <v>218</v>
-      </c>
-      <c r="S37" s="236">
+        <v>0</v>
+      </c>
+      <c r="R37" s="262"/>
+      <c r="S37" s="258">
         <f>주간메뉴표!H31</f>
-        <v>731</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:19" s="17" customFormat="1" ht="36" customHeight="1">
-      <c r="B38" s="250"/>
-      <c r="C38" s="265"/>
-      <c r="D38" s="262"/>
-      <c r="E38" s="267"/>
-      <c r="F38" s="241"/>
-      <c r="G38" s="224"/>
-      <c r="H38" s="239"/>
-      <c r="I38" s="241"/>
-      <c r="J38" s="224"/>
-      <c r="K38" s="239"/>
-      <c r="L38" s="241"/>
-      <c r="M38" s="224"/>
-      <c r="N38" s="239"/>
-      <c r="O38" s="241"/>
-      <c r="P38" s="224"/>
-      <c r="Q38" s="239"/>
-      <c r="R38" s="241"/>
-      <c r="S38" s="237"/>
-    </row>
-    <row r="39" spans="2:19" s="44" customFormat="1" ht="33.75" customHeight="1">
-      <c r="B39" s="250"/>
-      <c r="C39" s="265"/>
-      <c r="D39" s="196" t="s">
-        <v>356</v>
-      </c>
-      <c r="E39" s="80" t="str">
+      <c r="B38" s="273"/>
+      <c r="C38" s="285"/>
+      <c r="D38" s="287"/>
+      <c r="E38" s="290"/>
+      <c r="F38" s="271"/>
+      <c r="G38" s="250"/>
+      <c r="H38" s="269"/>
+      <c r="I38" s="271"/>
+      <c r="J38" s="250"/>
+      <c r="K38" s="269"/>
+      <c r="L38" s="271"/>
+      <c r="M38" s="250"/>
+      <c r="N38" s="269"/>
+      <c r="O38" s="271"/>
+      <c r="P38" s="250"/>
+      <c r="Q38" s="261"/>
+      <c r="R38" s="263"/>
+      <c r="S38" s="259"/>
+    </row>
+    <row r="39" spans="2:19" s="17" customFormat="1" ht="36" customHeight="1">
+      <c r="B39" s="273"/>
+      <c r="C39" s="285"/>
+      <c r="D39" s="202" t="s">
+        <v>336</v>
+      </c>
+      <c r="E39" s="203" t="str">
+        <f>주간메뉴표!D36</f>
+        <v>돈가스&amp;소시지마리</v>
+      </c>
+      <c r="F39" s="79" t="s">
+        <v>337</v>
+      </c>
+      <c r="G39" s="199">
+        <f>주간메뉴표!D37</f>
+        <v>856</v>
+      </c>
+      <c r="H39" s="200" t="str">
+        <f>주간메뉴표!E36</f>
+        <v>꼬마김밥&amp;치킨텐더마리</v>
+      </c>
+      <c r="I39" s="201" t="s">
+        <v>337</v>
+      </c>
+      <c r="J39" s="199">
+        <f>주간메뉴표!E37</f>
+        <v>759</v>
+      </c>
+      <c r="K39" s="200" t="str">
+        <f>주간메뉴표!F36</f>
+        <v>스팸&amp;매콤어묵마리</v>
+      </c>
+      <c r="L39" s="201" t="s">
+        <v>337</v>
+      </c>
+      <c r="M39" s="199">
+        <f>주간메뉴표!F37</f>
+        <v>815</v>
+      </c>
+      <c r="N39" s="200" t="str">
+        <f>주간메뉴표!G36</f>
+        <v>오징어튀김&amp;제육마리</v>
+      </c>
+      <c r="O39" s="201" t="s">
+        <v>337</v>
+      </c>
+      <c r="P39" s="199">
+        <f>주간메뉴표!G37</f>
+        <v>834</v>
+      </c>
+      <c r="Q39" s="216"/>
+      <c r="R39" s="217"/>
+      <c r="S39" s="218"/>
+    </row>
+    <row r="40" spans="2:19" s="44" customFormat="1" ht="66.75" customHeight="1">
+      <c r="B40" s="273"/>
+      <c r="C40" s="285"/>
+      <c r="D40" s="139" t="s">
+        <v>213</v>
+      </c>
+      <c r="E40" s="80" t="str">
         <f>주간메뉴표!D32</f>
-        <v>닭다리살간장볶음
-동태전/어묵꽈리고추볶음/
-볶음김치/잡곡밥/잔멸치볶음/과일/샐러드</v>
-      </c>
-      <c r="F39" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="G39" s="151">
+        <v>깻잎닭갈비
+돼지고기강정/해물파전
+볶음김치/쌀밥/오이지무침/
+과일/샐러드/국/생수</v>
+      </c>
+      <c r="F40" s="79" t="s">
+        <v>219</v>
+      </c>
+      <c r="G40" s="152">
         <f>주간메뉴표!D33</f>
-        <v>958</v>
-      </c>
-      <c r="H39" s="161" t="str">
+        <v>1004</v>
+      </c>
+      <c r="H40" s="162" t="str">
         <f>주간메뉴표!E32</f>
-        <v>제육볶음
-메추리알장조림/감자튀김/볶음김치/잡곡밥/꼬들단무지/과일/샐러드</v>
-      </c>
-      <c r="I39" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="J39" s="151">
+        <v>버섯소불고기
+완자전/미니오믈렛/
+볶음김치/쌀밥/꼬들단무지/
+과일/샐러드/국/생수</v>
+      </c>
+      <c r="I40" s="79" t="s">
+        <v>219</v>
+      </c>
+      <c r="J40" s="152">
         <f>주간메뉴표!E33</f>
-        <v>937</v>
-      </c>
-      <c r="K39" s="161" t="str">
+        <v>822</v>
+      </c>
+      <c r="K40" s="162" t="str">
         <f>주간메뉴표!F32</f>
-        <v>우삼겹숙주볶음
-두부구이/땅종조림/볶음김치/잡곡밥/브로콜리숙회/과일/샐러드</v>
-      </c>
-      <c r="L39" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="M39" s="151">
+        <v>목살양념구이
+감자크로켓/파래자반/
+볶음김치/쌀밥/콘샐러드/
+과일/샐러드/국/생수</v>
+      </c>
+      <c r="L40" s="79" t="s">
+        <v>219</v>
+      </c>
+      <c r="M40" s="152">
         <f>주간메뉴표!F33</f>
-        <v>926</v>
-      </c>
-      <c r="N39" s="161" t="str">
+        <v>953</v>
+      </c>
+      <c r="N40" s="162" t="str">
         <f>주간메뉴표!G32</f>
-        <v>돈사태떡찜
-감자채전/맛살볶음/볶음김치/잡곡밥/도토리묵*양념장/과일/샐러드</v>
-      </c>
-      <c r="O39" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="P39" s="151">
+        <v>오징어굴소스볶음
+야끼만두/숙주유부나물/
+볶음김치/쌀밥/단무지/
+과일/샐러드/국/생수</v>
+      </c>
+      <c r="O40" s="79" t="s">
+        <v>219</v>
+      </c>
+      <c r="P40" s="152">
         <f>주간메뉴표!G33</f>
-        <v>975</v>
-      </c>
-      <c r="Q39" s="161" t="str">
-        <f>주간메뉴표!H32</f>
-        <v>떡갈비구이*양파구이
-두부조림/미역줄기볶움/볶음김치/잡곡밥/고춧잎무침/과일/샐러드</v>
-      </c>
-      <c r="R39" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="S39" s="200">
-        <f>주간메뉴표!H33</f>
-        <v>961</v>
-      </c>
-    </row>
-    <row r="40" spans="2:19" s="44" customFormat="1" ht="33.75" customHeight="1">
-      <c r="B40" s="250"/>
-      <c r="C40" s="265"/>
-      <c r="D40" s="196" t="s">
+        <v>838</v>
+      </c>
+      <c r="Q40" s="210"/>
+      <c r="R40" s="205"/>
+      <c r="S40" s="211"/>
+    </row>
+    <row r="41" spans="2:19" s="17" customFormat="1" ht="30.75" customHeight="1">
+      <c r="B41" s="273"/>
+      <c r="C41" s="285"/>
+      <c r="D41" s="140" t="s">
         <v>212</v>
-      </c>
-      <c r="E40" s="80" t="str">
-        <f>주간메뉴표!D34</f>
-        <v>컬리플라워두부김치볶음밥</v>
-      </c>
-      <c r="F40" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="G40" s="151">
-        <f>주간메뉴표!D35</f>
-        <v>554</v>
-      </c>
-      <c r="H40" s="161" t="str">
-        <f>주간메뉴표!E34</f>
-        <v>훈제오리귀리라이스</v>
-      </c>
-      <c r="I40" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="J40" s="151">
-        <f>주간메뉴표!E35</f>
-        <v>466</v>
-      </c>
-      <c r="K40" s="161" t="str">
-        <f>주간메뉴표!F34</f>
-        <v>닭가슴살두부면샐러드</v>
-      </c>
-      <c r="L40" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="M40" s="151">
-        <f>주간메뉴표!F35</f>
-        <v>417</v>
-      </c>
-      <c r="N40" s="161" t="str">
-        <f>주간메뉴표!G34</f>
-        <v>폴드포크누들샐러드</v>
-      </c>
-      <c r="O40" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="P40" s="151">
-        <f>주간메뉴표!G35</f>
-        <v>546</v>
-      </c>
-      <c r="Q40" s="161" t="str">
-        <f>주간메뉴표!H34</f>
-        <v>아보카도귀리라이스</v>
-      </c>
-      <c r="R40" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="S40" s="200">
-        <f>주간메뉴표!H35</f>
-        <v>627</v>
-      </c>
-    </row>
-    <row r="41" spans="2:19" s="17" customFormat="1" ht="30.75" customHeight="1">
-      <c r="B41" s="250"/>
-      <c r="C41" s="265"/>
-      <c r="D41" s="139" t="s">
-        <v>357</v>
       </c>
       <c r="E41" s="80" t="str">
         <f>주간메뉴표!D34</f>
-        <v>컬리플라워두부김치볶음밥</v>
+        <v>제육컬리플라워덮밥</v>
       </c>
       <c r="F41" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="G41" s="152">
-        <f>주간메뉴표!D37</f>
-        <v>825</v>
-      </c>
-      <c r="H41" s="161" t="str">
+        <v>219</v>
+      </c>
+      <c r="G41" s="153">
+        <f>주간메뉴표!D35</f>
+        <v>528</v>
+      </c>
+      <c r="H41" s="162" t="str">
         <f>주간메뉴표!E34</f>
-        <v>훈제오리귀리라이스</v>
+        <v>그릴치킨렌틸콩라이스</v>
       </c>
       <c r="I41" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="J41" s="152">
-        <f>주간메뉴표!E37</f>
-        <v>834</v>
-      </c>
-      <c r="K41" s="161" t="str">
+        <v>219</v>
+      </c>
+      <c r="J41" s="153">
+        <f>주간메뉴표!E35</f>
+        <v>642</v>
+      </c>
+      <c r="K41" s="162" t="str">
         <f>주간메뉴표!F34</f>
-        <v>닭가슴살두부면샐러드</v>
+        <v>비건갈비살볶음밥</v>
       </c>
       <c r="L41" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="M41" s="152">
-        <f>주간메뉴표!F37</f>
-        <v>855</v>
-      </c>
-      <c r="N41" s="161" t="str">
+        <v>219</v>
+      </c>
+      <c r="M41" s="153">
+        <f>주간메뉴표!F35</f>
+        <v>689</v>
+      </c>
+      <c r="N41" s="162" t="str">
         <f>주간메뉴표!G34</f>
-        <v>폴드포크누들샐러드</v>
+        <v>토마토미트볼라이스</v>
       </c>
       <c r="O41" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="P41" s="152">
-        <f>주간메뉴표!G37</f>
-        <v>821</v>
-      </c>
-      <c r="Q41" s="161" t="str">
-        <f>주간메뉴표!H36</f>
-        <v>장조림&amp;매콤멸치마리</v>
-      </c>
-      <c r="R41" s="197" t="s">
-        <v>218</v>
-      </c>
-      <c r="S41" s="201">
-        <f>주간메뉴표!H37</f>
-        <v>815</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="P41" s="153">
+        <f>주간메뉴표!G35</f>
+        <v>696</v>
+      </c>
+      <c r="Q41" s="210"/>
+      <c r="R41" s="205"/>
+      <c r="S41" s="212"/>
     </row>
     <row r="42" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B42" s="249" t="s">
+      <c r="B42" s="272" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="254"/>
-      <c r="D42" s="258" t="s">
+      <c r="C42" s="274"/>
+      <c r="D42" s="278" t="s">
         <v>39</v>
       </c>
       <c r="E42" s="97" t="str">
         <f>주간메뉴표!D38</f>
-        <v>뚝배기제육치즈솥밥</v>
+        <v>감자스팸짜글이찌개</v>
       </c>
       <c r="F42" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="G42" s="223">
+        <v>219</v>
+      </c>
+      <c r="G42" s="243">
         <f>주간메뉴표!D44</f>
-        <v>724</v>
-      </c>
-      <c r="H42" s="158" t="str">
+        <v>812</v>
+      </c>
+      <c r="H42" s="159" t="str">
         <f>주간메뉴표!E38</f>
-        <v>비프하이라이스</v>
+        <v>훈제오리볶음밥*후라이</v>
       </c>
       <c r="I42" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="J42" s="223">
+        <v>219</v>
+      </c>
+      <c r="J42" s="243">
         <f>주간메뉴표!E44</f>
-        <v>1098</v>
-      </c>
-      <c r="K42" s="158" t="str">
+        <v>917</v>
+      </c>
+      <c r="K42" s="159" t="str">
         <f>주간메뉴표!F38</f>
-        <v>소고기된장국밥*라면사리</v>
+        <v>장터국밥*당면사리</v>
       </c>
       <c r="L42" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="M42" s="223">
+        <v>219</v>
+      </c>
+      <c r="M42" s="243">
         <f>주간메뉴표!F44</f>
-        <v>1011</v>
-      </c>
-      <c r="N42" s="158" t="str">
+        <v>1260</v>
+      </c>
+      <c r="N42" s="159" t="str">
         <f>주간메뉴표!G38</f>
-        <v>묵말랭이들깨수제비</v>
+        <v>닭곰탕*소면사리</v>
       </c>
       <c r="O42" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="P42" s="231">
+        <v>219</v>
+      </c>
+      <c r="P42" s="253">
         <f>주간메뉴표!G44</f>
-        <v>1118</v>
-      </c>
-      <c r="Q42" s="158" t="str">
+        <v>1115</v>
+      </c>
+      <c r="Q42" s="213">
         <f>주간메뉴표!H38</f>
-        <v>제주식돼지수육해장국</v>
-      </c>
-      <c r="R42" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="S42" s="251">
+        <v>0</v>
+      </c>
+      <c r="R42" s="205"/>
+      <c r="S42" s="258">
         <f>주간메뉴표!H44</f>
-        <v>1101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B43" s="250"/>
-      <c r="C43" s="255"/>
-      <c r="D43" s="259"/>
+      <c r="B43" s="273"/>
+      <c r="C43" s="275"/>
+      <c r="D43" s="279"/>
       <c r="E43" s="90" t="str">
         <f>주간메뉴표!D39</f>
-        <v>설탕핫도그</v>
+        <v>잡채어묵볶음</v>
       </c>
       <c r="F43" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="G43" s="224"/>
-      <c r="H43" s="159" t="str">
+        <v>219</v>
+      </c>
+      <c r="G43" s="244"/>
+      <c r="H43" s="160" t="str">
         <f>주간메뉴표!E39</f>
-        <v>치킨너겟*허니머스터드S</v>
+        <v>오징어너겟*스위트칠리s</v>
       </c>
       <c r="I43" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="J43" s="224"/>
-      <c r="K43" s="159" t="str">
+        <v>219</v>
+      </c>
+      <c r="J43" s="244"/>
+      <c r="K43" s="160" t="str">
         <f>주간메뉴표!F39</f>
-        <v>옛날소시지전*케찹</v>
+        <v>비엔나케첩볶음</v>
       </c>
       <c r="L43" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="M43" s="224"/>
-      <c r="N43" s="159" t="str">
+        <v>219</v>
+      </c>
+      <c r="M43" s="244"/>
+      <c r="N43" s="160" t="str">
         <f>주간메뉴표!G39</f>
-        <v>바싹불고기</v>
+        <v>비빔채소납작만두</v>
       </c>
       <c r="O43" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="P43" s="232"/>
-      <c r="Q43" s="159" t="str">
+        <v>219</v>
+      </c>
+      <c r="P43" s="254"/>
+      <c r="Q43" s="209">
         <f>주간메뉴표!H39</f>
-        <v>코다리강정</v>
-      </c>
-      <c r="R43" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="S43" s="252"/>
+        <v>0</v>
+      </c>
+      <c r="R43" s="205"/>
+      <c r="S43" s="264"/>
     </row>
     <row r="44" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B44" s="250"/>
-      <c r="C44" s="255"/>
-      <c r="D44" s="259"/>
+      <c r="B44" s="273"/>
+      <c r="C44" s="275"/>
+      <c r="D44" s="279"/>
       <c r="E44" s="90" t="str">
         <f>주간메뉴표!D40</f>
-        <v>청포묵김가루무침</v>
+        <v>계란찜</v>
       </c>
       <c r="F44" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="G44" s="224"/>
-      <c r="H44" s="159" t="str">
+        <v>219</v>
+      </c>
+      <c r="G44" s="244"/>
+      <c r="H44" s="160" t="str">
         <f>주간메뉴표!E40</f>
-        <v>과일사라다</v>
+        <v>단호박샐러드</v>
       </c>
       <c r="I44" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="J44" s="224"/>
-      <c r="K44" s="159" t="str">
+        <v>219</v>
+      </c>
+      <c r="J44" s="244"/>
+      <c r="K44" s="160" t="str">
         <f>주간메뉴표!F40</f>
-        <v>쥐어채볶음</v>
+        <v>해물파전</v>
       </c>
       <c r="L44" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="M44" s="224"/>
-      <c r="N44" s="159" t="str">
+        <v>219</v>
+      </c>
+      <c r="M44" s="244"/>
+      <c r="N44" s="160" t="str">
         <f>주간메뉴표!G40</f>
-        <v>다시마숙회*초장</v>
+        <v>감자채햄볶음</v>
       </c>
       <c r="O44" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="P44" s="232"/>
-      <c r="Q44" s="159" t="str">
+        <v>219</v>
+      </c>
+      <c r="P44" s="254"/>
+      <c r="Q44" s="209">
         <f>주간메뉴표!H40</f>
-        <v>흰콩곤약조림</v>
-      </c>
-      <c r="R44" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="S44" s="252"/>
+        <v>0</v>
+      </c>
+      <c r="R44" s="205"/>
+      <c r="S44" s="264"/>
     </row>
     <row r="45" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B45" s="250"/>
-      <c r="C45" s="255"/>
-      <c r="D45" s="259"/>
+      <c r="B45" s="273"/>
+      <c r="C45" s="275"/>
+      <c r="D45" s="279"/>
       <c r="E45" s="90" t="str">
         <f>주간메뉴표!D41</f>
-        <v>궁채절임</v>
-      </c>
-      <c r="F45" s="79"/>
-      <c r="G45" s="224"/>
-      <c r="H45" s="159" t="str">
+        <v>참나물유자무침</v>
+      </c>
+      <c r="F45" s="79" t="s">
+        <v>219</v>
+      </c>
+      <c r="G45" s="244"/>
+      <c r="H45" s="160" t="str">
         <f>주간메뉴표!E41</f>
         <v>포기김치</v>
       </c>
       <c r="I45" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="J45" s="224"/>
-      <c r="K45" s="159" t="str">
+        <v>219</v>
+      </c>
+      <c r="J45" s="244"/>
+      <c r="K45" s="160" t="str">
         <f>주간메뉴표!F41</f>
-        <v>미역초무침</v>
-      </c>
-      <c r="L45" s="79"/>
-      <c r="M45" s="224"/>
-      <c r="N45" s="159" t="str">
+        <v>봄동된장무침</v>
+      </c>
+      <c r="L45" s="79" t="s">
+        <v>219</v>
+      </c>
+      <c r="M45" s="244"/>
+      <c r="N45" s="160" t="str">
         <f>주간메뉴표!G41</f>
-        <v>고들빼기절임</v>
+        <v>부추생채</v>
       </c>
       <c r="O45" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="P45" s="232"/>
-      <c r="Q45" s="159" t="str">
+        <v>219</v>
+      </c>
+      <c r="P45" s="254"/>
+      <c r="Q45" s="209">
         <f>주간메뉴표!H41</f>
-        <v>숙주미나리나물</v>
-      </c>
-      <c r="R45" s="79"/>
-      <c r="S45" s="252"/>
+        <v>0</v>
+      </c>
+      <c r="R45" s="205"/>
+      <c r="S45" s="264"/>
     </row>
     <row r="46" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B46" s="250"/>
-      <c r="C46" s="255"/>
-      <c r="D46" s="259"/>
+      <c r="B46" s="273"/>
+      <c r="C46" s="275"/>
+      <c r="D46" s="279"/>
       <c r="E46" s="90" t="str">
         <f>주간메뉴표!D42</f>
-        <v>백김치</v>
+        <v>깍두기</v>
       </c>
       <c r="F46" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="G46" s="224"/>
-      <c r="H46" s="159" t="str">
+        <v>219</v>
+      </c>
+      <c r="G46" s="244"/>
+      <c r="H46" s="160" t="str">
         <f>주간메뉴표!E42</f>
-        <v>일식장국</v>
+        <v>시금치된장국</v>
       </c>
       <c r="I46" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="J46" s="224"/>
-      <c r="K46" s="159" t="str">
+        <v>219</v>
+      </c>
+      <c r="J46" s="244"/>
+      <c r="K46" s="160" t="str">
         <f>주간메뉴표!F42</f>
+        <v>석박지</v>
+      </c>
+      <c r="L46" s="79" t="s">
+        <v>219</v>
+      </c>
+      <c r="M46" s="244"/>
+      <c r="N46" s="160" t="str">
+        <f>주간메뉴표!G42</f>
         <v>깍두기</v>
       </c>
-      <c r="L46" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="M46" s="224"/>
-      <c r="N46" s="159" t="str">
-        <f>주간메뉴표!G42</f>
-        <v>포기김치</v>
-      </c>
       <c r="O46" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="P46" s="232"/>
-      <c r="Q46" s="159" t="str">
+        <v>219</v>
+      </c>
+      <c r="P46" s="254"/>
+      <c r="Q46" s="209">
         <f>주간메뉴표!H42</f>
-        <v>깍두기</v>
-      </c>
-      <c r="R46" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="S46" s="252"/>
+        <v>0</v>
+      </c>
+      <c r="R46" s="205"/>
+      <c r="S46" s="264"/>
     </row>
     <row r="47" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B47" s="250"/>
-      <c r="C47" s="255"/>
-      <c r="D47" s="260"/>
+      <c r="B47" s="273"/>
+      <c r="C47" s="275"/>
+      <c r="D47" s="280"/>
       <c r="E47" s="90" t="str">
         <f>주간메뉴표!D43</f>
-        <v>계란팟국</v>
+        <v>잡곡밥</v>
       </c>
       <c r="F47" s="79"/>
-      <c r="G47" s="225"/>
-      <c r="H47" s="159">
+      <c r="G47" s="245"/>
+      <c r="H47" s="160">
         <f>주간메뉴표!E43</f>
         <v>0</v>
       </c>
       <c r="I47" s="79"/>
-      <c r="J47" s="225"/>
-      <c r="K47" s="159" t="str">
+      <c r="J47" s="245"/>
+      <c r="K47" s="160" t="str">
         <f>주간메뉴표!F43</f>
         <v>잡곡밥</v>
       </c>
       <c r="L47" s="79"/>
-      <c r="M47" s="225"/>
-      <c r="N47" s="159" t="str">
+      <c r="M47" s="245"/>
+      <c r="N47" s="160" t="str">
         <f>주간메뉴표!G43</f>
         <v>잡곡밥</v>
       </c>
       <c r="O47" s="79"/>
-      <c r="P47" s="233"/>
-      <c r="Q47" s="159" t="str">
+      <c r="P47" s="255"/>
+      <c r="Q47" s="209">
         <f>주간메뉴표!H43</f>
-        <v>잡곡밥</v>
-      </c>
-      <c r="R47" s="79"/>
-      <c r="S47" s="253"/>
+        <v>0</v>
+      </c>
+      <c r="R47" s="205"/>
+      <c r="S47" s="259"/>
     </row>
     <row r="48" spans="2:19" ht="20.25" customHeight="1">
-      <c r="B48" s="250"/>
-      <c r="C48" s="255"/>
-      <c r="D48" s="258" t="s">
+      <c r="B48" s="273"/>
+      <c r="C48" s="275"/>
+      <c r="D48" s="278" t="s">
         <v>31</v>
       </c>
       <c r="E48" s="97" t="str">
         <f>주간메뉴표!D45</f>
-        <v>셀프우삼겹숙주비빔밥</v>
+        <v>셀프불고기유부비빔밥</v>
       </c>
       <c r="F48" s="79"/>
-      <c r="G48" s="223">
+      <c r="G48" s="243">
         <f>주간메뉴표!D53</f>
-        <v>659</v>
-      </c>
-      <c r="H48" s="162" t="str">
+        <v>1036</v>
+      </c>
+      <c r="H48" s="163" t="str">
         <f>주간메뉴표!E45</f>
-        <v>셀프삼겹살파채비빔밥</v>
+        <v>셀프우렁된장비빔밥</v>
       </c>
       <c r="I48" s="79"/>
-      <c r="J48" s="223">
+      <c r="J48" s="243">
         <f>주간메뉴표!E53</f>
-        <v>969</v>
-      </c>
-      <c r="K48" s="162" t="str">
+        <v>728</v>
+      </c>
+      <c r="K48" s="163" t="str">
         <f>주간메뉴표!F45</f>
-        <v>셀프매콤오징어비빔밥</v>
+        <v>셀프제육비빔밥</v>
       </c>
       <c r="L48" s="79"/>
-      <c r="M48" s="226">
+      <c r="M48" s="246">
         <f>주간메뉴표!F53</f>
-        <v>946</v>
-      </c>
-      <c r="N48" s="164" t="str">
+        <v>1125</v>
+      </c>
+      <c r="N48" s="165" t="str">
         <f>주간메뉴표!G45</f>
-        <v>셀프치킨가라아게동</v>
+        <v>셀프장조림버터비빔밥</v>
       </c>
       <c r="O48" s="79"/>
-      <c r="P48" s="231">
+      <c r="P48" s="253">
         <f>주간메뉴표!G53</f>
-        <v>826</v>
-      </c>
-      <c r="Q48" s="164" t="str">
-        <f>주간메뉴표!H45</f>
-        <v>셀프참치채소비빔밥</v>
-      </c>
-      <c r="R48" s="79"/>
-      <c r="S48" s="268">
-        <f>주간메뉴표!H53</f>
-        <v>675</v>
-      </c>
+        <v>832</v>
+      </c>
+      <c r="Q48" s="209"/>
+      <c r="R48" s="205"/>
+      <c r="S48" s="214"/>
     </row>
     <row r="49" spans="2:19" ht="33" customHeight="1">
-      <c r="B49" s="250"/>
-      <c r="C49" s="255"/>
-      <c r="D49" s="259"/>
+      <c r="B49" s="273"/>
+      <c r="C49" s="275"/>
+      <c r="D49" s="279"/>
       <c r="E49" s="90" t="str">
         <f>주간메뉴표!D46</f>
-        <v>┗쌀밥,우삼겹볶음</v>
+        <v>┗쌀밥,불고기,유부조림</v>
       </c>
       <c r="F49" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="G49" s="224"/>
-      <c r="H49" s="159" t="str">
+        <v>219</v>
+      </c>
+      <c r="G49" s="244"/>
+      <c r="H49" s="160" t="str">
         <f>주간메뉴표!E46</f>
-        <v>┗쌀밥,삼겹살볶음,파채무침</v>
+        <v>┗쌀밥,우렁강된장,계란후라이</v>
       </c>
       <c r="I49" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="J49" s="224"/>
-      <c r="K49" s="159" t="str">
+        <v>219</v>
+      </c>
+      <c r="J49" s="244"/>
+      <c r="K49" s="160" t="str">
         <f>주간메뉴표!F46</f>
-        <v>┗쌀밥,오징어볶음,계란후라이</v>
+        <v>┗쌀밥,제육볶음,계란후라이</v>
       </c>
       <c r="L49" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="M49" s="227"/>
-      <c r="N49" s="157" t="str">
+        <v>219</v>
+      </c>
+      <c r="M49" s="247"/>
+      <c r="N49" s="158" t="str">
         <f>주간메뉴표!G46</f>
-        <v>┗쌀밥,순살치킨,파채</v>
+        <v>┗쌀밥,장조림,스크램블에그</v>
       </c>
       <c r="O49" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="P49" s="232"/>
-      <c r="Q49" s="157" t="str">
-        <f>주간메뉴표!H46</f>
-        <v>┗쌀밥,참치캔,계란후라이</v>
-      </c>
-      <c r="R49" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="S49" s="269"/>
+        <v>219</v>
+      </c>
+      <c r="P49" s="254"/>
+      <c r="Q49" s="210"/>
+      <c r="R49" s="205"/>
+      <c r="S49" s="214"/>
     </row>
     <row r="50" spans="2:19" ht="20.25" customHeight="1">
-      <c r="B50" s="250"/>
-      <c r="C50" s="255"/>
-      <c r="D50" s="259"/>
+      <c r="B50" s="273"/>
+      <c r="C50" s="275"/>
+      <c r="D50" s="279"/>
       <c r="E50" s="90" t="str">
         <f>주간메뉴표!D47</f>
         <v>셀프토핑</v>
       </c>
       <c r="F50" s="79"/>
-      <c r="G50" s="224"/>
-      <c r="H50" s="159" t="str">
+      <c r="G50" s="244"/>
+      <c r="H50" s="160" t="str">
         <f>주간메뉴표!E47</f>
         <v>셀프토핑</v>
       </c>
       <c r="I50" s="79"/>
-      <c r="J50" s="224"/>
-      <c r="K50" s="159" t="str">
+      <c r="J50" s="244"/>
+      <c r="K50" s="160" t="str">
         <f>주간메뉴표!F47</f>
         <v>셀프토핑</v>
       </c>
       <c r="L50" s="79"/>
-      <c r="M50" s="227"/>
-      <c r="N50" s="157" t="str">
+      <c r="M50" s="247"/>
+      <c r="N50" s="158" t="str">
         <f>주간메뉴표!G47</f>
         <v>셀프토핑</v>
       </c>
       <c r="O50" s="79"/>
-      <c r="P50" s="232"/>
-      <c r="Q50" s="157" t="str">
-        <f>주간메뉴표!H47</f>
-        <v>셀프토핑</v>
-      </c>
-      <c r="R50" s="79"/>
-      <c r="S50" s="269"/>
+      <c r="P50" s="254"/>
+      <c r="Q50" s="210"/>
+      <c r="R50" s="205"/>
+      <c r="S50" s="214"/>
     </row>
     <row r="51" spans="2:19" ht="30.75" customHeight="1">
-      <c r="B51" s="250"/>
-      <c r="C51" s="255"/>
-      <c r="D51" s="259"/>
+      <c r="B51" s="273"/>
+      <c r="C51" s="275"/>
+      <c r="D51" s="279"/>
       <c r="E51" s="90" t="str">
         <f>주간메뉴표!D48</f>
-        <v>┗숙주양파볶음,부추생채</v>
-      </c>
-      <c r="F51" s="79"/>
-      <c r="G51" s="224"/>
-      <c r="H51" s="159" t="str">
+        <v>┗부추생채,무나물</v>
+      </c>
+      <c r="F51" s="79" t="s">
+        <v>219</v>
+      </c>
+      <c r="G51" s="244"/>
+      <c r="H51" s="160" t="str">
         <f>주간메뉴표!E48</f>
-        <v>┗쫑상추,콩나물무침</v>
+        <v>┗쫑상추,무생채</v>
       </c>
       <c r="I51" s="79"/>
-      <c r="J51" s="224"/>
-      <c r="K51" s="159" t="str">
+      <c r="J51" s="244"/>
+      <c r="K51" s="160" t="str">
         <f>주간메뉴표!F48</f>
         <v>┗쫑상추,콩나물무침</v>
       </c>
       <c r="L51" s="79"/>
-      <c r="M51" s="227"/>
-      <c r="N51" s="157" t="str">
+      <c r="M51" s="247"/>
+      <c r="N51" s="158" t="str">
         <f>주간메뉴표!G48</f>
-        <v>┗적색초생강절임,양파볶음</v>
+        <v>┗쫑상추,오복지</v>
       </c>
       <c r="O51" s="79"/>
-      <c r="P51" s="232"/>
-      <c r="Q51" s="157" t="str">
-        <f>주간메뉴표!H48</f>
-        <v>┗쫑상추,콩나물무침</v>
-      </c>
-      <c r="R51" s="79"/>
-      <c r="S51" s="269"/>
+      <c r="P51" s="254"/>
+      <c r="Q51" s="210"/>
+      <c r="R51" s="205"/>
+      <c r="S51" s="214"/>
     </row>
     <row r="52" spans="2:19" ht="20.25" customHeight="1">
-      <c r="B52" s="250"/>
-      <c r="C52" s="255"/>
-      <c r="D52" s="259"/>
+      <c r="B52" s="273"/>
+      <c r="C52" s="275"/>
+      <c r="D52" s="279"/>
       <c r="E52" s="90" t="str">
         <f>주간메뉴표!D49</f>
         <v>┗맛김가루</v>
       </c>
-      <c r="F52" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="G52" s="224"/>
-      <c r="H52" s="159" t="str">
+      <c r="F52" s="79"/>
+      <c r="G52" s="244"/>
+      <c r="H52" s="160" t="str">
         <f>주간메뉴표!E49</f>
         <v>┗맛김가루</v>
       </c>
       <c r="I52" s="79"/>
-      <c r="J52" s="224"/>
-      <c r="K52" s="159" t="str">
+      <c r="J52" s="244"/>
+      <c r="K52" s="160" t="str">
         <f>주간메뉴표!F49</f>
         <v>┗맛김가루</v>
       </c>
       <c r="L52" s="79"/>
-      <c r="M52" s="227"/>
-      <c r="N52" s="157" t="str">
+      <c r="M52" s="247"/>
+      <c r="N52" s="158" t="str">
         <f>주간메뉴표!G49</f>
         <v>┗맛김가루</v>
       </c>
       <c r="O52" s="79"/>
-      <c r="P52" s="232"/>
-      <c r="Q52" s="157" t="str">
-        <f>주간메뉴표!H49</f>
-        <v>┗양배추,오이,당근채,맛김가루</v>
-      </c>
-      <c r="R52" s="79"/>
-      <c r="S52" s="269"/>
+      <c r="P52" s="254"/>
+      <c r="Q52" s="210"/>
+      <c r="R52" s="205"/>
+      <c r="S52" s="214"/>
     </row>
     <row r="53" spans="2:19" ht="20.25" customHeight="1">
-      <c r="B53" s="250"/>
-      <c r="C53" s="255"/>
-      <c r="D53" s="259"/>
+      <c r="B53" s="273"/>
+      <c r="C53" s="275"/>
+      <c r="D53" s="279"/>
       <c r="E53" s="90" t="str">
         <f>주간메뉴표!D50</f>
-        <v>너비아니마늘종볶음</v>
+        <v>계란장조림</v>
       </c>
       <c r="F53" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="G53" s="224"/>
-      <c r="H53" s="159" t="str">
+        <v>219</v>
+      </c>
+      <c r="G53" s="244"/>
+      <c r="H53" s="160" t="str">
         <f>주간메뉴표!E50</f>
-        <v>떡갈비조림</v>
+        <v>고기메밀전병</v>
       </c>
       <c r="I53" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="J53" s="224"/>
-      <c r="K53" s="159" t="str">
+        <v>219</v>
+      </c>
+      <c r="J53" s="244"/>
+      <c r="K53" s="160" t="str">
         <f>주간메뉴표!F50</f>
-        <v>고추만두튀김</v>
+        <v>생선가스*타르타르s</v>
       </c>
       <c r="L53" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="M53" s="227"/>
-      <c r="N53" s="157" t="str">
+        <v>219</v>
+      </c>
+      <c r="M53" s="247"/>
+      <c r="N53" s="158" t="str">
         <f>주간메뉴표!G50</f>
-        <v>감자샐러드</v>
+        <v>찹쌀도너츠</v>
       </c>
       <c r="O53" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="P53" s="232"/>
-      <c r="Q53" s="157" t="str">
-        <f>주간메뉴표!H50</f>
-        <v>비엔나소시지볶음</v>
-      </c>
-      <c r="R53" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="S53" s="269"/>
+        <v>219</v>
+      </c>
+      <c r="P53" s="254"/>
+      <c r="Q53" s="210"/>
+      <c r="R53" s="205"/>
+      <c r="S53" s="214"/>
     </row>
     <row r="54" spans="2:19" ht="20.25" customHeight="1">
-      <c r="B54" s="250"/>
-      <c r="C54" s="255"/>
-      <c r="D54" s="259"/>
+      <c r="B54" s="273"/>
+      <c r="C54" s="275"/>
+      <c r="D54" s="279"/>
       <c r="E54" s="90" t="str">
         <f>주간메뉴표!D51</f>
         <v>포기김치</v>
       </c>
       <c r="F54" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="G54" s="224"/>
-      <c r="H54" s="159" t="str">
+        <v>219</v>
+      </c>
+      <c r="G54" s="244"/>
+      <c r="H54" s="160" t="str">
         <f>주간메뉴표!E51</f>
+        <v>포기김치</v>
+      </c>
+      <c r="I54" s="79" t="s">
+        <v>219</v>
+      </c>
+      <c r="J54" s="244"/>
+      <c r="K54" s="160" t="str">
+        <f>주간메뉴표!F51</f>
+        <v>열무김치</v>
+      </c>
+      <c r="L54" s="79" t="s">
+        <v>219</v>
+      </c>
+      <c r="M54" s="247"/>
+      <c r="N54" s="158" t="str">
+        <f>주간메뉴표!G51</f>
         <v>깍두기</v>
       </c>
-      <c r="I54" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="J54" s="224"/>
-      <c r="K54" s="159" t="str">
-        <f>주간메뉴표!F51</f>
-        <v>포기김치</v>
-      </c>
-      <c r="L54" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="M54" s="227"/>
-      <c r="N54" s="157" t="str">
-        <f>주간메뉴표!G51</f>
-        <v>포기김치</v>
-      </c>
       <c r="O54" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="P54" s="232"/>
-      <c r="Q54" s="157" t="str">
-        <f>주간메뉴표!H51</f>
-        <v>포기김치</v>
-      </c>
-      <c r="R54" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="S54" s="269"/>
+        <v>219</v>
+      </c>
+      <c r="P54" s="254"/>
+      <c r="Q54" s="210"/>
+      <c r="R54" s="205"/>
+      <c r="S54" s="214"/>
     </row>
     <row r="55" spans="2:19" ht="20.25" customHeight="1">
-      <c r="B55" s="250"/>
-      <c r="C55" s="255"/>
-      <c r="D55" s="260"/>
+      <c r="B55" s="273"/>
+      <c r="C55" s="275"/>
+      <c r="D55" s="280"/>
       <c r="E55" s="90" t="str">
         <f>주간메뉴표!D52</f>
+        <v>두부장국</v>
+      </c>
+      <c r="F55" s="79" t="s">
+        <v>219</v>
+      </c>
+      <c r="G55" s="245"/>
+      <c r="H55" s="160" t="str">
+        <f>주간메뉴표!E52</f>
+        <v>시금치된장국</v>
+      </c>
+      <c r="I55" s="79" t="s">
+        <v>219</v>
+      </c>
+      <c r="J55" s="245"/>
+      <c r="K55" s="160" t="str">
+        <f>주간메뉴표!F52</f>
         <v>미역장국</v>
       </c>
-      <c r="F55" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="G55" s="225"/>
-      <c r="H55" s="159" t="str">
-        <f>주간메뉴표!E52</f>
-        <v>일식장국</v>
-      </c>
-      <c r="I55" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="J55" s="225"/>
-      <c r="K55" s="159" t="str">
-        <f>주간메뉴표!F52</f>
-        <v>다시마뭇국</v>
-      </c>
       <c r="L55" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="M55" s="228"/>
-      <c r="N55" s="157" t="str">
+        <v>219</v>
+      </c>
+      <c r="M55" s="248"/>
+      <c r="N55" s="158" t="str">
         <f>주간메뉴표!G52</f>
-        <v>유부장국</v>
-      </c>
-      <c r="O55" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="P55" s="233"/>
-      <c r="Q55" s="157" t="str">
-        <f>주간메뉴표!H52</f>
-        <v>유채된장국</v>
-      </c>
-      <c r="R55" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="S55" s="270"/>
+        <v>우동국물</v>
+      </c>
+      <c r="O55" s="79"/>
+      <c r="P55" s="255"/>
+      <c r="Q55" s="210"/>
+      <c r="R55" s="205"/>
+      <c r="S55" s="215"/>
     </row>
     <row r="56" spans="2:19" ht="20.25" customHeight="1">
-      <c r="B56" s="250"/>
-      <c r="C56" s="255"/>
-      <c r="D56" s="261" t="s">
+      <c r="B56" s="273"/>
+      <c r="C56" s="275"/>
+      <c r="D56" s="286" t="s">
         <v>36</v>
       </c>
       <c r="E56" s="80" t="str">
@@ -10605,76 +10387,74 @@
         <v>그린샐러드</v>
       </c>
       <c r="F56" s="79"/>
-      <c r="G56" s="234"/>
-      <c r="H56" s="159" t="str">
+      <c r="G56" s="256"/>
+      <c r="H56" s="160" t="str">
         <f>주간메뉴표!E54</f>
         <v>그린샐러드</v>
       </c>
       <c r="I56" s="79"/>
-      <c r="J56" s="234"/>
-      <c r="K56" s="161" t="str">
+      <c r="J56" s="256"/>
+      <c r="K56" s="162" t="str">
         <f>주간메뉴표!F54</f>
         <v>그린샐러드</v>
       </c>
       <c r="L56" s="79"/>
-      <c r="M56" s="234"/>
-      <c r="N56" s="161" t="str">
+      <c r="M56" s="256"/>
+      <c r="N56" s="162" t="str">
         <f>주간메뉴표!G54</f>
         <v>그린샐러드</v>
       </c>
       <c r="O56" s="79"/>
-      <c r="P56" s="234"/>
-      <c r="Q56" s="161" t="str">
+      <c r="P56" s="256"/>
+      <c r="Q56" s="210">
         <f>주간메뉴표!H54</f>
-        <v>그린샐러드</v>
-      </c>
-      <c r="R56" s="79"/>
-      <c r="S56" s="229"/>
+        <v>0</v>
+      </c>
+      <c r="R56" s="205"/>
+      <c r="S56" s="251"/>
     </row>
     <row r="57" spans="2:19" s="51" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B57" s="256"/>
-      <c r="C57" s="257"/>
-      <c r="D57" s="263"/>
+      <c r="B57" s="276"/>
+      <c r="C57" s="277"/>
+      <c r="D57" s="287"/>
       <c r="E57" s="80" t="str">
         <f>주간메뉴표!D55</f>
         <v>오리엔탈&amp;망고D</v>
       </c>
       <c r="F57" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="G57" s="235"/>
-      <c r="H57" s="159" t="str">
+        <v>219</v>
+      </c>
+      <c r="G57" s="257"/>
+      <c r="H57" s="160" t="str">
         <f>주간메뉴표!E55</f>
         <v>발사믹&amp;참깨D</v>
       </c>
       <c r="I57" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="J57" s="235"/>
-      <c r="K57" s="161" t="str">
+        <v>219</v>
+      </c>
+      <c r="J57" s="257"/>
+      <c r="K57" s="162" t="str">
         <f>주간메뉴표!F55</f>
         <v>오리엔탈&amp;블루베리D</v>
       </c>
       <c r="L57" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="M57" s="235"/>
-      <c r="N57" s="161" t="str">
+        <v>219</v>
+      </c>
+      <c r="M57" s="257"/>
+      <c r="N57" s="162" t="str">
         <f>주간메뉴표!G55</f>
         <v>발사믹&amp;파인애플D</v>
       </c>
       <c r="O57" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="P57" s="235"/>
-      <c r="Q57" s="161" t="str">
+        <v>219</v>
+      </c>
+      <c r="P57" s="257"/>
+      <c r="Q57" s="210">
         <f>주간메뉴표!H55</f>
-        <v>오리엔탈&amp;딸기D</v>
-      </c>
-      <c r="R57" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="S57" s="230"/>
+        <v>0</v>
+      </c>
+      <c r="R57" s="205"/>
+      <c r="S57" s="252"/>
     </row>
     <row r="58" spans="2:19" ht="20.25" customHeight="1">
       <c r="E58" s="70"/>
@@ -10814,7 +10594,12 @@
       <c r="B85" s="74"/>
     </row>
   </sheetData>
-  <mergeCells count="71">
+  <mergeCells count="70">
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="C21:C27"/>
+    <mergeCell ref="D9:D14"/>
+    <mergeCell ref="G9:G14"/>
+    <mergeCell ref="C15:C20"/>
     <mergeCell ref="J9:J14"/>
     <mergeCell ref="M9:M14"/>
     <mergeCell ref="M21:M27"/>
@@ -10825,11 +10610,6 @@
     <mergeCell ref="G15:G20"/>
     <mergeCell ref="J15:J20"/>
     <mergeCell ref="M15:M20"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="C21:C27"/>
-    <mergeCell ref="D9:D14"/>
-    <mergeCell ref="G9:G14"/>
-    <mergeCell ref="C15:C20"/>
     <mergeCell ref="D34:D36"/>
     <mergeCell ref="G34:G36"/>
     <mergeCell ref="J34:J36"/>
@@ -10885,7 +10665,6 @@
     <mergeCell ref="S37:S38"/>
     <mergeCell ref="Q37:Q38"/>
     <mergeCell ref="R37:R38"/>
-    <mergeCell ref="S48:S55"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lunch.xlsx
+++ b/lunch.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="368">
   <si>
     <t>작성 가이드</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -1031,30 +1031,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>깍두기</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>잡곡밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>미역장국</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>셀프토핑</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>탄산음료</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗맛김가루</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>마리
 SET</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -1065,47 +1041,123 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>Y</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>마리</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>863 Kcal</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.2.19~2024.2.23</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>월 2/19</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>화 2/20</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>수 2/21</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>목 2/22</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>금 2/23</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>부대찌개*라면사리</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>새싹삼,삼계탕</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>해물된장찌개</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈목살김치찌개</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>전주식돌솥비빔밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>오징어커틀렛*타르타르s</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>메추리알어묵조림</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>로스팜계란전</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>너비아니구이*미나리생채</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>배추된장국</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니오믈렛*토마토피자s</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙주미나리나물</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>옥수수전</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>동태전</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>도시락김</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>고추장멸치볶음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>무말랭이무침</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>파래자반</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>깍두기</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>배추겉절이/잡곡밥</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>감자채햄볶음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>계란장조림</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>열무김치</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>우동국물</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>월 2/12</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>화 2/13</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>수 2/14</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>목 2/15</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>금 2/16</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>대체공휴일</t>
+    <t>잡곡밥</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1126,154 +1178,82 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>기사식당st</t>
+      <t>우삼겹시래기국수</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>쇠고기샤브전골</t>
-    </r>
+    <t>샘밭막국수</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>간자장*계란후라이(2&amp;3)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>팟타이</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="14"/>
+        <color rgb="FF92D050"/>
         <rFont val="나눔고딕 ExtraBold"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>*참깨마늘s</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>닭개장</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>김치전</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>부추장떡</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>바싹불고기육전*파생채</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>환어묵볶음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>청포묵김가루무침</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>양파고추간장절임</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>궁채절임</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>추억의도시락</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>우볶이</t>
+      <t>N</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="14"/>
         <rFont val="나눔고딕 ExtraBold"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>(우동떡볶이)</t>
+      <t>동파육탕면</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>베이컨퀘사디아&amp;시저샐러드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>곰돌이가츠</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>그릴드소시지&amp;감자튀김</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>인도식토마토오이샐러드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>컵라면</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>포자만두찜</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>콘샐러드/사워s/살사s</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>망고라씨</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>유부초밥*스리라차마요s</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>무비트피클</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>치즈폭포버거</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>쉬림프바질페스토리조또</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼겹김치덮밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>페퍼로니치아바타피자</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>계란국</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>수제피클&amp;할라피뇨</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>왕교자튀김</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>피클&amp;할라피뇨</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>단호박부꾸미</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>락교&amp;생강</t>
+    <t>쪽갈비구이&amp;김가루주먹밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>짬뽕국물</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>쌀국수장국</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>깐풍만두</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>도라지오이무침</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>감자채전*부추생채</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>인절미탕수육</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>고구마&amp;새우넷롤</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>배추겉절이</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니계란볶음밥</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1281,336 +1261,438 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>파김치</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>발사믹D&amp;키위D</t>
-  </si>
-  <si>
-    <t>꿀레몬차</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>밀크티</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>요구르트</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>오리엔탈D&amp;시저D</t>
-  </si>
-  <si>
-    <t>발사믹D&amp;포도D</t>
-  </si>
-  <si>
-    <t>오리엔탈D&amp;사우전아일랜드D</t>
-  </si>
-  <si>
-    <t>닭가슴살오트밀샐러드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>아보크랩샐러드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>쿠스쿠스베이컨샐러드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>포크커틀렛샐러드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>고구마돈가스
-김치전/메추리알장조림
-볶음김치/잡곡밥/양파고추간장절임/샐러드/장국/생수</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>안동식찜닭
-계란찜/왕교자튀김
-볶음김치/잡곡밥/콩나물무침
-샐러드/장국/생수</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>훈제오리채소볶음
-부추장떡/환어묵볶음
-볶음김치/잡곡밥/궁채절임
-샐러드/장국/생수</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>매콤오징어볶음
-두부구이/청포묵김가루무침
-볶음김치/잡곱밥/참나물생채
-샐러드/장국/생수</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>만두소렌틸볶음밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>그릴드치킨&amp;구아카몰샌드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>레드와인돈불고기덮밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>꼬마김밥&amp;소불고기마리</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>떡갈비&amp;진미채마리</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>제육&amp;매콤멸치마리</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>새우튀김&amp;스팸마리</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>우삼겹고추장찌개</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>순대국밥*다대기</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>깍두기청국장찌개</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>경상도식소고기뭇국</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>오징어굴소스떡볶음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>김치메밀전병</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>돼지불고기</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>가자미카레튀김</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>치커리유자무침</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>진미채고추장무침</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>부추전</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>무말랭이무침</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>멸치고추장볶음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>미역초무침</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>포기김치</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>보리밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>셀프콘참치마요덮밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>셀프불고기덮밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>셀프매콤훈제오리덮밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗쌀밥,콘참치, 스크램블에그</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗쌀밥,불고기,계란후라이</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗쌀밥,훈제오리볶음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗쌀밥,떡갈비</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗숙주양파볶음, 상추</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗상추, 호박양파볶음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗콩나물,상추,무생채</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗맛김가루.데리야끼s</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗맛김가루,비빔고추장</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>유부장국</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>콩나물국</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>물만둣국</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>모짜핫도그</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>치킨팝떡강정</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>두부조림</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>그린샐러드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>한방갈비탕</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>콩나물무침/깍두기</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>된장찌개/계란찜</t>
+    <t>쌀밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니잡곡밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>(철판)Port629화지타</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>우삼겹명란마요덮밥</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>비빔그릇</t>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF92D050"/>
+        <rFont val="나눔고딕 ExtraBold"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>N</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="12"/>
+        <rFont val="나눔고딕 ExtraBold"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>닭다리살고추장양념구이덮밥</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>철판함박샥슈카</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>콩나물국</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;또띠아&amp;야채볶음밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>버섯장국</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>대파장국</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>바게트&amp;치아바타</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>오징어문어핫바</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>소스3종</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
         <rFont val="나눔고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>(상추,김가루,날치알)</t>
+      <t>(사워,칠리,과콰몰)</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>오삼불고기</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>대파김치</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>철판소고기야끼소바</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="나눔고딕 ExtraBold"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>*후라이</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>버팔로봉&amp;감자튀김</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>셀프떡갈비비빔밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>갈릭버터난&amp;새우너겟꼬치</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>파프리카새우라이스</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.2.12~2024.2.16</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>마리</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>일자: 24.02.12~02.16</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>863 Kcal</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗상추깻잎채, 양파볶음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>월드셰프_탄두리&amp;토마토커리</t>
+    <t>채소춘권</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>지마구튀김</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>무비트피클</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>오이맛고추쌈장무침</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>락교&amp;산고추</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>콘샐러드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄산음료</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>매운족발볶음밥*후라이</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>식혜</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>발사믹&amp;자몽D</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>율무차</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>유자차</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>레몬아이스티</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>오리엔탈&amp;요거트D</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>오리엔탈&amp;딸기요거트D</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>발사믹&amp;한라봉D</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>오리엔탈&amp;사우전아일랜드D</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>뚝배기소불고기</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>뚝배기날치알밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀양돼지국밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>장터국밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>우삼겹순두부찌개</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>만두강정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니메밀전병</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>백순대볶음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>옛날소시지전</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>연근조림</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>일식돈가스</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>도토리묵무침</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>계란찜</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>알감자조림</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>과일야채샐러드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>명엽채볶음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>미역초무침</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>콩나물무침</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀프에비동</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀프오쭈볶음비빔밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀프치킨마요덮밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀프대패삼겹비빔밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀프쇠고기취나물비빔밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗쌀밥,새우튀김</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗쌀밥,오쭈볶음,계란후라이</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗쌀밥,순살치킨,계란지단</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗쌀밥,대패삼겹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗쇠고기취나물밥, 계란후라이</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀프토핑</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗숙주볶음,양파볶음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗쫑상추,콩나물</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗쫑상추,양파볶음,맛김가루</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗파생채무침,쫑상추,김가루</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗김가루,맛느티리버섯볶음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>초생강절임(채), 맛김가루</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>맛김가루</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗데리야끼&amp;마요네즈소스</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>지단,무생채,콩나물무침</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>갈치구이</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>비엔나소세지볶음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>고기경단조림</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>떡볶이</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>유채된장국</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>유부장국</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>우동국물</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>베이컨버섯샐러드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>큐브참치아보카도샐러드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>칠리새우샐러드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>오렌지리코타샐러드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>불고기포케샐러드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>제육볶음
+오징어커틀렛/두부계란전
+볶음김치/잡곡밥/도라지오이생채/샐러드/장국/생수</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>버섯소불고기
+인절미탕수육/어묵볶음
+/볶음김치/잡곡밥/무말랭이무침/샐러드/장국/생수</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>오징어볶음
+너비아니구이/파래자반
+볶음김치/잡곡밥/콘샐러드/샐러드/장국/생수</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>안동찜닭
+감자채전/메추리알조림
+볶음김치/잡곡밥/고추장멸치볶음/샐러드/장국/생수</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭갈비두부면볶음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>멕시칸소프리타샐러드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>컬리플라워두부김치볶음밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>그릴치킨렌틸콩라이스</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>치킨컬리플라워볶음밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>소불고기&amp;새우튀김</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈가스&amp;제육</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>고추장진미채&amp;떡갈비</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>장조림&amp;매콤어묵</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>소시지&amp;꼬마김밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>일자: 24.02.19~02.23</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>할라피뇨</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈사태찜
+깐풍만두/땅꽁조림
+볶음김치/잡곡밥/꼬들단무지/샐러드/장국/생수</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>사각어묵볶음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗토마토소스에 함박과계란을 넣어만든 스튜</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1622,7 +1704,7 @@
     <numFmt numFmtId="176" formatCode="mm&quot;/&quot;dd\ ddd"/>
     <numFmt numFmtId="177" formatCode="##\ &quot;Kcal&quot;"/>
   </numFmts>
-  <fonts count="61">
+  <fonts count="59">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
@@ -2011,34 +2093,8 @@
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FF008A3E"/>
-      <name val="나눔고딕 ExtraBold"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="나눔고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="나눔고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="나눔고딕 ExtraBold"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF00B050"/>
-      <name val="나눔고딕 ExtraBold"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -2050,19 +2106,33 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
+      <color rgb="FF92D050"/>
+      <name val="나눔고딕 ExtraBold"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="나눔고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <name val="나눔고딕 ExtraBold"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="나눔고딕 ExtraBold"/>
+      <name val="나눔고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2102,12 +2172,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2945,9 +3009,6 @@
     <xf numFmtId="0" fontId="24" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2987,36 +3048,18 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3035,9 +3078,6 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3056,33 +3096,6 @@
     <xf numFmtId="177" fontId="40" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="40" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="40" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="40" fillId="5" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3092,8 +3105,77 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="57" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="57" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3146,69 +3228,183 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="52" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="41" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="41" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="41" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="41" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="41" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="40" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="40" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="40" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="40" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="40" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="40" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="40" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3218,143 +3414,11 @@
     <xf numFmtId="177" fontId="40" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="41" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="41" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="40" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="40" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="40" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="40" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="40" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="40" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="40" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="41" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="41" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="41" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="58" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -4352,14 +4416,14 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>859972</xdr:colOff>
+      <xdr:colOff>1023258</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>302079</xdr:rowOff>
+      <xdr:rowOff>84365</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="810323" cy="788225"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="185" name="그림 184"/>
+        <xdr:cNvPr id="10" name="그림 9"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4378,7 +4442,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6561365" y="4629150"/>
+          <a:off x="6709683" y="4380140"/>
           <a:ext cx="810323" cy="788225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4390,15 +4454,15 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1121229</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>141515</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1183822</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="810323" cy="788225"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="186" name="그림 185"/>
+        <xdr:cNvPr id="27" name="그림 26"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4417,7 +4481,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8836479" y="4142015"/>
+          <a:off x="2857501" y="6966858"/>
           <a:ext cx="810323" cy="788225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4429,15 +4493,15 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1341665</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>917122</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>266701</xdr:rowOff>
+      <xdr:rowOff>250373</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="810323" cy="788225"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="92" name="그림 91"/>
+        <xdr:cNvPr id="28" name="그림 27"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4456,7 +4520,46 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11070772" y="6879772"/>
+          <a:off x="8613322" y="6813098"/>
+          <a:ext cx="810323" cy="788225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1284515</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>59872</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="810323" cy="788225"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="그림 36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11013622" y="6999515"/>
           <a:ext cx="810323" cy="788225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4937,7 +5040,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="97"/>
       <c r="H2" s="2"/>
-      <c r="J2" s="207" t="s">
+      <c r="J2" s="213" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="32"/>
@@ -4955,7 +5058,7 @@
       <c r="E3" s="12"/>
       <c r="F3" s="98"/>
       <c r="G3" s="11"/>
-      <c r="J3" s="207"/>
+      <c r="J3" s="213"/>
       <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:18" ht="24" customHeight="1">
@@ -4992,7 +5095,7 @@
       <c r="H5" s="81" t="s">
         <v>179</v>
       </c>
-      <c r="J5" s="208" t="s">
+      <c r="J5" s="214" t="s">
         <v>37</v>
       </c>
       <c r="K5" s="48"/>
@@ -5005,7 +5108,7 @@
       <c r="R5" s="2"/>
     </row>
     <row r="6" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B6" s="210" t="s">
+      <c r="B6" s="216" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="20" t="s">
@@ -5026,7 +5129,7 @@
       <c r="H6" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="J6" s="209"/>
+      <c r="J6" s="215"/>
       <c r="K6" s="21"/>
       <c r="L6" s="52"/>
       <c r="M6" s="52"/>
@@ -5037,7 +5140,7 @@
       <c r="R6" s="22"/>
     </row>
     <row r="7" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B7" s="210"/>
+      <c r="B7" s="216"/>
       <c r="C7" s="23" t="s">
         <v>7</v>
       </c>
@@ -5056,7 +5159,7 @@
       <c r="H7" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="209"/>
+      <c r="J7" s="215"/>
       <c r="K7" s="24"/>
       <c r="L7" s="52"/>
       <c r="M7" s="52"/>
@@ -5067,7 +5170,7 @@
       <c r="R7" s="22"/>
     </row>
     <row r="8" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B8" s="210"/>
+      <c r="B8" s="216"/>
       <c r="C8" s="96"/>
       <c r="D8" s="24" t="s">
         <v>182</v>
@@ -5084,7 +5187,7 @@
       <c r="H8" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="J8" s="209"/>
+      <c r="J8" s="215"/>
       <c r="K8" s="24"/>
       <c r="L8" s="16"/>
       <c r="M8" s="52"/>
@@ -5095,7 +5198,7 @@
       <c r="R8" s="22"/>
     </row>
     <row r="9" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B9" s="210"/>
+      <c r="B9" s="216"/>
       <c r="C9" s="96"/>
       <c r="D9" s="24" t="s">
         <v>67</v>
@@ -5112,7 +5215,7 @@
       <c r="H9" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="J9" s="209"/>
+      <c r="J9" s="215"/>
       <c r="K9" s="24"/>
       <c r="L9" s="8"/>
       <c r="M9" s="52"/>
@@ -5123,7 +5226,7 @@
       <c r="R9" s="22"/>
     </row>
     <row r="10" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B10" s="210"/>
+      <c r="B10" s="216"/>
       <c r="C10" s="96"/>
       <c r="D10" s="24" t="s">
         <v>71</v>
@@ -5140,7 +5243,7 @@
       <c r="H10" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="J10" s="209"/>
+      <c r="J10" s="215"/>
       <c r="K10" s="24"/>
       <c r="L10" s="16"/>
       <c r="M10" s="52"/>
@@ -5151,7 +5254,7 @@
       <c r="R10" s="22"/>
     </row>
     <row r="11" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B11" s="210"/>
+      <c r="B11" s="216"/>
       <c r="C11" s="96"/>
       <c r="D11" s="24" t="s">
         <v>53</v>
@@ -5168,7 +5271,7 @@
       <c r="H11" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="J11" s="209"/>
+      <c r="J11" s="215"/>
       <c r="K11" s="24"/>
       <c r="L11" s="16"/>
       <c r="M11" s="52"/>
@@ -5179,7 +5282,7 @@
       <c r="R11" s="26"/>
     </row>
     <row r="12" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B12" s="210"/>
+      <c r="B12" s="216"/>
       <c r="C12" s="28"/>
       <c r="D12" s="24" t="s">
         <v>50</v>
@@ -5196,7 +5299,7 @@
       <c r="H12" s="34">
         <v>725</v>
       </c>
-      <c r="J12" s="209"/>
+      <c r="J12" s="215"/>
       <c r="K12" s="24"/>
       <c r="L12" s="16"/>
       <c r="M12" s="52"/>
@@ -5207,7 +5310,7 @@
       <c r="R12" s="22"/>
     </row>
     <row r="13" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B13" s="210"/>
+      <c r="B13" s="216"/>
       <c r="C13" s="20" t="s">
         <v>8</v>
       </c>
@@ -5218,7 +5321,7 @@
       <c r="H13" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="J13" s="209"/>
+      <c r="J13" s="215"/>
       <c r="K13" s="21"/>
       <c r="L13" s="16"/>
       <c r="M13" s="52"/>
@@ -5229,7 +5332,7 @@
       <c r="R13" s="22"/>
     </row>
     <row r="14" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B14" s="210"/>
+      <c r="B14" s="216"/>
       <c r="C14" s="23" t="s">
         <v>40</v>
       </c>
@@ -5240,7 +5343,7 @@
       <c r="H14" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="J14" s="209"/>
+      <c r="J14" s="215"/>
       <c r="K14" s="24"/>
       <c r="L14" s="21"/>
       <c r="M14" s="40"/>
@@ -5251,7 +5354,7 @@
       <c r="R14" s="29"/>
     </row>
     <row r="15" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B15" s="210"/>
+      <c r="B15" s="216"/>
       <c r="C15" s="96"/>
       <c r="D15" s="24"/>
       <c r="E15" s="119"/>
@@ -5260,7 +5363,7 @@
       <c r="H15" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="J15" s="209"/>
+      <c r="J15" s="215"/>
       <c r="K15" s="24"/>
       <c r="L15" s="24"/>
       <c r="M15" s="52"/>
@@ -5271,7 +5374,7 @@
       <c r="R15" s="22"/>
     </row>
     <row r="16" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B16" s="210"/>
+      <c r="B16" s="216"/>
       <c r="C16" s="96"/>
       <c r="D16" s="24"/>
       <c r="E16" s="121"/>
@@ -5280,7 +5383,7 @@
       <c r="H16" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="J16" s="209"/>
+      <c r="J16" s="215"/>
       <c r="K16" s="24"/>
       <c r="L16" s="24"/>
       <c r="M16" s="52"/>
@@ -5291,7 +5394,7 @@
       <c r="R16" s="22"/>
     </row>
     <row r="17" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B17" s="210"/>
+      <c r="B17" s="216"/>
       <c r="C17" s="96"/>
       <c r="D17" s="24"/>
       <c r="E17" s="121"/>
@@ -5300,7 +5403,7 @@
       <c r="H17" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="J17" s="209"/>
+      <c r="J17" s="215"/>
       <c r="K17" s="24"/>
       <c r="L17" s="24"/>
       <c r="M17" s="52"/>
@@ -5314,7 +5417,7 @@
       <c r="A18" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="210"/>
+      <c r="B18" s="216"/>
       <c r="C18" s="31"/>
       <c r="D18" s="24"/>
       <c r="E18" s="121"/>
@@ -5323,7 +5426,7 @@
       <c r="H18" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="J18" s="209"/>
+      <c r="J18" s="215"/>
       <c r="K18" s="24"/>
       <c r="L18" s="24"/>
       <c r="M18" s="52"/>
@@ -5334,7 +5437,7 @@
       <c r="R18" s="22"/>
     </row>
     <row r="19" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B19" s="210"/>
+      <c r="B19" s="216"/>
       <c r="C19" s="28"/>
       <c r="D19" s="34">
         <v>1014</v>
@@ -5347,7 +5450,7 @@
       <c r="H19" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="J19" s="209"/>
+      <c r="J19" s="215"/>
       <c r="K19" s="34"/>
       <c r="L19" s="24"/>
       <c r="M19" s="52"/>
@@ -5358,7 +5461,7 @@
       <c r="R19" s="32"/>
     </row>
     <row r="20" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B20" s="210"/>
+      <c r="B20" s="216"/>
       <c r="C20" s="20" t="s">
         <v>41</v>
       </c>
@@ -5373,7 +5476,7 @@
         <v>79</v>
       </c>
       <c r="H20" s="24"/>
-      <c r="J20" s="209"/>
+      <c r="J20" s="215"/>
       <c r="K20" s="24"/>
       <c r="L20" s="32"/>
       <c r="M20" s="52"/>
@@ -5384,7 +5487,7 @@
       <c r="R20" s="22"/>
     </row>
     <row r="21" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B21" s="210"/>
+      <c r="B21" s="216"/>
       <c r="C21" s="23" t="s">
         <v>42</v>
       </c>
@@ -5399,7 +5502,7 @@
         <v>81</v>
       </c>
       <c r="H21" s="24"/>
-      <c r="J21" s="209"/>
+      <c r="J21" s="215"/>
       <c r="K21" s="24"/>
       <c r="L21" s="16"/>
       <c r="M21" s="52"/>
@@ -5410,7 +5513,7 @@
       <c r="R21" s="22"/>
     </row>
     <row r="22" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B22" s="210"/>
+      <c r="B22" s="216"/>
       <c r="C22" s="23"/>
       <c r="D22" s="113" t="s">
         <v>82</v>
@@ -5423,7 +5526,7 @@
         <v>83</v>
       </c>
       <c r="H22" s="24"/>
-      <c r="J22" s="209"/>
+      <c r="J22" s="215"/>
       <c r="K22" s="24"/>
       <c r="L22" s="16"/>
       <c r="M22" s="52"/>
@@ -5434,7 +5537,7 @@
       <c r="R22" s="22"/>
     </row>
     <row r="23" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B23" s="210"/>
+      <c r="B23" s="216"/>
       <c r="C23" s="96"/>
       <c r="D23" s="113" t="s">
         <v>84</v>
@@ -5447,7 +5550,7 @@
         <v>86</v>
       </c>
       <c r="H23" s="24"/>
-      <c r="J23" s="209"/>
+      <c r="J23" s="215"/>
       <c r="K23" s="24"/>
       <c r="L23" s="16"/>
       <c r="M23" s="40"/>
@@ -5458,7 +5561,7 @@
       <c r="R23" s="29"/>
     </row>
     <row r="24" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B24" s="210"/>
+      <c r="B24" s="216"/>
       <c r="C24" s="96"/>
       <c r="D24" s="113" t="s">
         <v>87</v>
@@ -5471,7 +5574,7 @@
         <v>88</v>
       </c>
       <c r="H24" s="24"/>
-      <c r="J24" s="209"/>
+      <c r="J24" s="215"/>
       <c r="K24" s="24"/>
       <c r="L24" s="16"/>
       <c r="M24" s="52"/>
@@ -5482,7 +5585,7 @@
       <c r="R24" s="22"/>
     </row>
     <row r="25" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B25" s="210"/>
+      <c r="B25" s="216"/>
       <c r="C25" s="96"/>
       <c r="D25" s="113" t="s">
         <v>50</v>
@@ -5493,7 +5596,7 @@
         <v>76</v>
       </c>
       <c r="H25" s="24"/>
-      <c r="J25" s="209"/>
+      <c r="J25" s="215"/>
       <c r="K25" s="24"/>
       <c r="L25" s="16"/>
       <c r="M25" s="52"/>
@@ -5504,7 +5607,7 @@
       <c r="R25" s="22"/>
     </row>
     <row r="26" spans="1:18" s="33" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B26" s="210"/>
+      <c r="B26" s="216"/>
       <c r="C26" s="28"/>
       <c r="D26" s="114"/>
       <c r="E26" s="122"/>
@@ -5513,7 +5616,7 @@
       <c r="H26" s="34">
         <v>725</v>
       </c>
-      <c r="J26" s="209"/>
+      <c r="J26" s="215"/>
       <c r="K26" s="82"/>
       <c r="L26" s="66"/>
       <c r="M26" s="35"/>
@@ -5524,8 +5627,8 @@
       <c r="R26" s="30"/>
     </row>
     <row r="27" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B27" s="210"/>
-      <c r="C27" s="218" t="s">
+      <c r="B27" s="216"/>
+      <c r="C27" s="224" t="s">
         <v>43</v>
       </c>
       <c r="D27" s="24" t="s">
@@ -5543,7 +5646,7 @@
       <c r="H27" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="J27" s="209"/>
+      <c r="J27" s="215"/>
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
       <c r="M27" s="66"/>
@@ -5554,8 +5657,8 @@
       <c r="R27" s="26"/>
     </row>
     <row r="28" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B28" s="210"/>
-      <c r="C28" s="221"/>
+      <c r="B28" s="216"/>
+      <c r="C28" s="227"/>
       <c r="D28" s="24" t="s">
         <v>51</v>
       </c>
@@ -5571,7 +5674,7 @@
       <c r="H28" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="J28" s="209"/>
+      <c r="J28" s="215"/>
       <c r="K28" s="16"/>
       <c r="L28" s="16"/>
       <c r="M28" s="66"/>
@@ -5582,8 +5685,8 @@
       <c r="R28" s="26"/>
     </row>
     <row r="29" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B29" s="210"/>
-      <c r="C29" s="222"/>
+      <c r="B29" s="216"/>
+      <c r="C29" s="228"/>
       <c r="D29" s="89" t="s">
         <v>94</v>
       </c>
@@ -5597,7 +5700,7 @@
       <c r="H29" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="J29" s="209"/>
+      <c r="J29" s="215"/>
       <c r="K29" s="16"/>
       <c r="L29" s="16"/>
       <c r="M29" s="66"/>
@@ -5608,7 +5711,7 @@
       <c r="R29" s="26"/>
     </row>
     <row r="30" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B30" s="210"/>
+      <c r="B30" s="216"/>
       <c r="C30" s="20" t="s">
         <v>44</v>
       </c>
@@ -5625,7 +5728,7 @@
       <c r="H30" s="125" t="s">
         <v>97</v>
       </c>
-      <c r="J30" s="209"/>
+      <c r="J30" s="215"/>
       <c r="K30" s="24"/>
       <c r="L30" s="36"/>
       <c r="M30" s="16"/>
@@ -5636,7 +5739,7 @@
       <c r="R30" s="37"/>
     </row>
     <row r="31" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B31" s="210"/>
+      <c r="B31" s="216"/>
       <c r="C31" s="93" t="s">
         <v>45</v>
       </c>
@@ -5653,7 +5756,7 @@
       <c r="H31" s="112" t="s">
         <v>100</v>
       </c>
-      <c r="J31" s="209"/>
+      <c r="J31" s="215"/>
       <c r="K31" s="24"/>
       <c r="L31" s="25"/>
       <c r="M31" s="16"/>
@@ -5664,7 +5767,7 @@
       <c r="R31" s="37"/>
     </row>
     <row r="32" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B32" s="210"/>
+      <c r="B32" s="216"/>
       <c r="C32" s="93" t="s">
         <v>46</v>
       </c>
@@ -5681,7 +5784,7 @@
       <c r="H32" s="113" t="s">
         <v>102</v>
       </c>
-      <c r="J32" s="209"/>
+      <c r="J32" s="215"/>
       <c r="K32" s="24"/>
       <c r="L32" s="16"/>
       <c r="M32" s="16"/>
@@ -5695,7 +5798,7 @@
       <c r="A33" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="210"/>
+      <c r="B33" s="216"/>
       <c r="C33" s="95"/>
       <c r="D33" s="24" t="s">
         <v>103</v>
@@ -5710,7 +5813,7 @@
       <c r="H33" s="113" t="s">
         <v>106</v>
       </c>
-      <c r="J33" s="209"/>
+      <c r="J33" s="215"/>
       <c r="K33" s="16"/>
       <c r="L33" s="32"/>
       <c r="M33" s="16"/>
@@ -5724,7 +5827,7 @@
       <c r="A34" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="210"/>
+      <c r="B34" s="216"/>
       <c r="C34" s="95"/>
       <c r="D34" s="24"/>
       <c r="E34" s="119" t="s">
@@ -5737,7 +5840,7 @@
       <c r="H34" s="113" t="s">
         <v>107</v>
       </c>
-      <c r="J34" s="209"/>
+      <c r="J34" s="215"/>
       <c r="K34" s="38"/>
       <c r="L34" s="32"/>
       <c r="M34" s="16"/>
@@ -5748,7 +5851,7 @@
       <c r="R34" s="39"/>
     </row>
     <row r="35" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B35" s="210"/>
+      <c r="B35" s="216"/>
       <c r="C35" s="96"/>
       <c r="D35" s="24"/>
       <c r="E35" s="119" t="s">
@@ -5759,7 +5862,7 @@
       <c r="H35" s="113" t="s">
         <v>200</v>
       </c>
-      <c r="J35" s="209"/>
+      <c r="J35" s="215"/>
       <c r="K35" s="38"/>
       <c r="L35" s="16"/>
       <c r="M35" s="40"/>
@@ -5770,7 +5873,7 @@
       <c r="R35" s="43"/>
     </row>
     <row r="36" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B36" s="210"/>
+      <c r="B36" s="216"/>
       <c r="C36" s="28"/>
       <c r="D36" s="34"/>
       <c r="E36" s="122"/>
@@ -5779,7 +5882,7 @@
       <c r="H36" s="114" t="s">
         <v>108</v>
       </c>
-      <c r="J36" s="209"/>
+      <c r="J36" s="215"/>
       <c r="K36" s="16"/>
       <c r="L36" s="16"/>
       <c r="M36" s="66"/>
@@ -5790,8 +5893,8 @@
       <c r="R36" s="26"/>
     </row>
     <row r="37" spans="1:18" s="44" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B37" s="210"/>
-      <c r="C37" s="211" t="s">
+      <c r="B37" s="216"/>
+      <c r="C37" s="217" t="s">
         <v>47</v>
       </c>
       <c r="D37" s="90" t="s">
@@ -5807,7 +5910,7 @@
       <c r="H37" s="90" t="s">
         <v>112</v>
       </c>
-      <c r="J37" s="213" t="s">
+      <c r="J37" s="219" t="s">
         <v>17</v>
       </c>
       <c r="K37" s="16"/>
@@ -5820,8 +5923,8 @@
       <c r="R37" s="32"/>
     </row>
     <row r="38" spans="1:18" s="47" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B38" s="210"/>
-      <c r="C38" s="212"/>
+      <c r="B38" s="216"/>
+      <c r="C38" s="218"/>
       <c r="D38" s="116" t="s">
         <v>113</v>
       </c>
@@ -5835,7 +5938,7 @@
       <c r="H38" s="90" t="s">
         <v>116</v>
       </c>
-      <c r="J38" s="214"/>
+      <c r="J38" s="220"/>
       <c r="K38" s="38"/>
       <c r="L38" s="52"/>
       <c r="M38" s="16"/>
@@ -5846,7 +5949,7 @@
       <c r="R38" s="32"/>
     </row>
     <row r="39" spans="1:18" s="47" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B39" s="210"/>
+      <c r="B39" s="216"/>
       <c r="C39" s="95"/>
       <c r="D39" s="90" t="s">
         <v>117</v>
@@ -5861,7 +5964,7 @@
       <c r="H39" s="90" t="s">
         <v>120</v>
       </c>
-      <c r="J39" s="214"/>
+      <c r="J39" s="220"/>
       <c r="K39" s="16"/>
       <c r="L39" s="52"/>
       <c r="M39" s="16"/>
@@ -5872,7 +5975,7 @@
       <c r="R39" s="59"/>
     </row>
     <row r="40" spans="1:18" s="17" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B40" s="210"/>
+      <c r="B40" s="216"/>
       <c r="C40" s="95"/>
       <c r="D40" s="116" t="s">
         <v>121</v>
@@ -5887,7 +5990,7 @@
       <c r="H40" s="90" t="s">
         <v>124</v>
       </c>
-      <c r="J40" s="214"/>
+      <c r="J40" s="220"/>
       <c r="K40" s="16"/>
       <c r="L40" s="40"/>
       <c r="M40" s="16"/>
@@ -5898,7 +6001,7 @@
       <c r="R40" s="69"/>
     </row>
     <row r="41" spans="1:18" s="47" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B41" s="210"/>
+      <c r="B41" s="216"/>
       <c r="C41" s="84"/>
       <c r="D41" s="90" t="s">
         <v>125</v>
@@ -5913,7 +6016,7 @@
       <c r="H41" s="90" t="s">
         <v>128</v>
       </c>
-      <c r="J41" s="214"/>
+      <c r="J41" s="220"/>
       <c r="L41" s="52"/>
       <c r="M41" s="52"/>
       <c r="N41" s="52"/>
@@ -5941,7 +6044,7 @@
       <c r="R42" s="22"/>
     </row>
     <row r="43" spans="1:18" s="17" customFormat="1" ht="26.1" customHeight="1" thickTop="1">
-      <c r="B43" s="215" t="s">
+      <c r="B43" s="221" t="s">
         <v>11</v>
       </c>
       <c r="C43" s="86" t="s">
@@ -5962,7 +6065,7 @@
       <c r="H43" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="J43" s="217" t="s">
+      <c r="J43" s="223" t="s">
         <v>12</v>
       </c>
       <c r="K43" s="52"/>
@@ -5978,7 +6081,7 @@
       <c r="A44" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="210"/>
+      <c r="B44" s="216"/>
       <c r="C44" s="87"/>
       <c r="D44" s="24" t="s">
         <v>131</v>
@@ -5995,7 +6098,7 @@
       <c r="H44" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="J44" s="217"/>
+      <c r="J44" s="223"/>
       <c r="K44" s="50"/>
       <c r="L44" s="16"/>
       <c r="M44" s="52"/>
@@ -6006,7 +6109,7 @@
       <c r="R44" s="22"/>
     </row>
     <row r="45" spans="1:18" s="17" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B45" s="210"/>
+      <c r="B45" s="216"/>
       <c r="C45" s="95"/>
       <c r="D45" s="24" t="s">
         <v>205</v>
@@ -6023,7 +6126,7 @@
       <c r="H45" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="J45" s="217"/>
+      <c r="J45" s="223"/>
       <c r="K45" s="16"/>
       <c r="L45" s="30"/>
       <c r="M45" s="52"/>
@@ -6034,7 +6137,7 @@
       <c r="R45" s="22"/>
     </row>
     <row r="46" spans="1:18" s="17" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B46" s="210"/>
+      <c r="B46" s="216"/>
       <c r="C46" s="95"/>
       <c r="D46" s="24" t="s">
         <v>54</v>
@@ -6051,7 +6154,7 @@
       <c r="H46" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="J46" s="217"/>
+      <c r="J46" s="223"/>
       <c r="K46" s="16"/>
       <c r="L46" s="8"/>
       <c r="M46" s="66"/>
@@ -6062,7 +6165,7 @@
       <c r="R46" s="26"/>
     </row>
     <row r="47" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B47" s="210"/>
+      <c r="B47" s="216"/>
       <c r="C47" s="95"/>
       <c r="D47" s="24" t="s">
         <v>143</v>
@@ -6079,7 +6182,7 @@
       <c r="H47" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="J47" s="217"/>
+      <c r="J47" s="223"/>
       <c r="K47" s="16"/>
       <c r="L47" s="8"/>
       <c r="M47" s="66"/>
@@ -6090,7 +6193,7 @@
       <c r="R47" s="26"/>
     </row>
     <row r="48" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B48" s="210"/>
+      <c r="B48" s="216"/>
       <c r="C48" s="95"/>
       <c r="D48" s="24" t="s">
         <v>148</v>
@@ -6107,7 +6210,7 @@
       <c r="H48" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="J48" s="217"/>
+      <c r="J48" s="223"/>
       <c r="K48" s="30"/>
       <c r="L48" s="8"/>
       <c r="M48" s="30"/>
@@ -6118,7 +6221,7 @@
       <c r="R48" s="26"/>
     </row>
     <row r="49" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B49" s="210"/>
+      <c r="B49" s="216"/>
       <c r="C49" s="83"/>
       <c r="D49" s="34">
         <v>725</v>
@@ -6135,7 +6238,7 @@
       <c r="H49" s="34">
         <v>725</v>
       </c>
-      <c r="J49" s="217"/>
+      <c r="J49" s="223"/>
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
       <c r="M49" s="8"/>
@@ -6143,7 +6246,7 @@
       <c r="R49" s="22"/>
     </row>
     <row r="50" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B50" s="210"/>
+      <c r="B50" s="216"/>
       <c r="C50" s="20" t="s">
         <v>14</v>
       </c>
@@ -6158,14 +6261,14 @@
         <v>155</v>
       </c>
       <c r="H50" s="21"/>
-      <c r="J50" s="217"/>
+      <c r="J50" s="223"/>
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
       <c r="N50" s="52"/>
       <c r="R50" s="22"/>
     </row>
     <row r="51" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B51" s="210"/>
+      <c r="B51" s="216"/>
       <c r="C51" s="23"/>
       <c r="D51" s="24" t="s">
         <v>156</v>
@@ -6178,7 +6281,7 @@
         <v>158</v>
       </c>
       <c r="H51" s="24"/>
-      <c r="J51" s="217"/>
+      <c r="J51" s="223"/>
       <c r="K51" s="21"/>
       <c r="L51" s="21"/>
       <c r="M51" s="8"/>
@@ -6186,7 +6289,7 @@
       <c r="R51" s="22"/>
     </row>
     <row r="52" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B52" s="210"/>
+      <c r="B52" s="216"/>
       <c r="C52" s="20"/>
       <c r="D52" s="24" t="s">
         <v>159</v>
@@ -6199,7 +6302,7 @@
         <v>161</v>
       </c>
       <c r="H52" s="24"/>
-      <c r="J52" s="217"/>
+      <c r="J52" s="223"/>
       <c r="K52" s="24"/>
       <c r="L52" s="24"/>
       <c r="M52" s="8"/>
@@ -6207,7 +6310,7 @@
       <c r="R52" s="22"/>
     </row>
     <row r="53" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B53" s="210"/>
+      <c r="B53" s="216"/>
       <c r="C53" s="20"/>
       <c r="D53" s="24" t="s">
         <v>162</v>
@@ -6220,7 +6323,7 @@
         <v>164</v>
       </c>
       <c r="H53" s="24"/>
-      <c r="J53" s="217"/>
+      <c r="J53" s="223"/>
       <c r="K53" s="24"/>
       <c r="L53" s="24"/>
       <c r="M53" s="8"/>
@@ -6228,7 +6331,7 @@
       <c r="R53" s="22"/>
     </row>
     <row r="54" spans="2:18" s="51" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B54" s="210"/>
+      <c r="B54" s="216"/>
       <c r="C54" s="20"/>
       <c r="D54" s="24" t="s">
         <v>165</v>
@@ -6241,7 +6344,7 @@
         <v>141</v>
       </c>
       <c r="H54" s="24"/>
-      <c r="J54" s="217"/>
+      <c r="J54" s="223"/>
       <c r="K54" s="24"/>
       <c r="L54" s="24"/>
       <c r="M54" s="8"/>
@@ -6252,7 +6355,7 @@
       <c r="R54" s="22"/>
     </row>
     <row r="55" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B55" s="210"/>
+      <c r="B55" s="216"/>
       <c r="C55" s="20"/>
       <c r="D55" s="24" t="s">
         <v>167</v>
@@ -6265,7 +6368,7 @@
         <v>168</v>
       </c>
       <c r="H55" s="24"/>
-      <c r="J55" s="217"/>
+      <c r="J55" s="223"/>
       <c r="K55" s="24"/>
       <c r="L55" s="24"/>
       <c r="M55" s="52"/>
@@ -6273,7 +6376,7 @@
       <c r="R55" s="22"/>
     </row>
     <row r="56" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B56" s="210"/>
+      <c r="B56" s="216"/>
       <c r="C56" s="102"/>
       <c r="D56" s="34">
         <v>725</v>
@@ -6286,7 +6389,7 @@
         <v>905</v>
       </c>
       <c r="H56" s="34"/>
-      <c r="J56" s="217"/>
+      <c r="J56" s="223"/>
       <c r="K56" s="24"/>
       <c r="L56" s="24"/>
       <c r="M56" s="52"/>
@@ -6294,8 +6397,8 @@
       <c r="R56" s="22"/>
     </row>
     <row r="57" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B57" s="210"/>
-      <c r="C57" s="218" t="s">
+      <c r="B57" s="216"/>
+      <c r="C57" s="224" t="s">
         <v>10</v>
       </c>
       <c r="D57" s="24" t="s">
@@ -6313,7 +6416,7 @@
       <c r="H57" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="J57" s="217"/>
+      <c r="J57" s="223"/>
       <c r="K57" s="25"/>
       <c r="L57" s="30"/>
       <c r="M57" s="52"/>
@@ -6321,8 +6424,8 @@
       <c r="R57" s="22"/>
     </row>
     <row r="58" spans="2:18" ht="26.1" customHeight="1" thickBot="1">
-      <c r="B58" s="216"/>
-      <c r="C58" s="219"/>
+      <c r="B58" s="222"/>
+      <c r="C58" s="225"/>
       <c r="D58" s="92" t="s">
         <v>169</v>
       </c>
@@ -6338,7 +6441,7 @@
       <c r="H58" s="92" t="s">
         <v>173</v>
       </c>
-      <c r="J58" s="217"/>
+      <c r="J58" s="223"/>
       <c r="K58" s="16"/>
       <c r="L58" s="8"/>
       <c r="M58" s="52"/>
@@ -6369,7 +6472,7 @@
       <c r="F60" s="24"/>
       <c r="G60" s="32"/>
       <c r="H60" s="32"/>
-      <c r="J60" s="220" t="s">
+      <c r="J60" s="226" t="s">
         <v>15</v>
       </c>
       <c r="K60" s="16"/>
@@ -6390,7 +6493,7 @@
       <c r="F61" s="55"/>
       <c r="G61" s="16"/>
       <c r="H61" s="56"/>
-      <c r="J61" s="220"/>
+      <c r="J61" s="226"/>
       <c r="K61" s="59"/>
       <c r="L61" s="8"/>
       <c r="M61" s="52"/>
@@ -6405,14 +6508,14 @@
       <c r="E62" s="58"/>
       <c r="F62" s="57"/>
       <c r="G62" s="58"/>
-      <c r="H62" s="206"/>
+      <c r="H62" s="212"/>
       <c r="K62" s="16"/>
       <c r="L62" s="16"/>
       <c r="M62" s="52"/>
       <c r="N62" s="52"/>
     </row>
     <row r="63" spans="2:18" ht="14.25" customHeight="1">
-      <c r="H63" s="206"/>
+      <c r="H63" s="212"/>
       <c r="K63" s="52"/>
       <c r="L63" s="16"/>
       <c r="M63" s="52"/>
@@ -6816,7 +6919,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="97"/>
       <c r="H2" s="2"/>
-      <c r="J2" s="207" t="s">
+      <c r="J2" s="213" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="32"/>
@@ -6827,14 +6930,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>342</v>
+        <v>226</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="11"/>
       <c r="E3" s="98"/>
       <c r="F3" s="98"/>
       <c r="G3" s="11"/>
-      <c r="J3" s="207"/>
+      <c r="J3" s="213"/>
       <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:18" ht="24" customHeight="1">
@@ -6854,22 +6957,22 @@
       <c r="C5" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="158" t="s">
-        <v>234</v>
+      <c r="D5" s="157" t="s">
+        <v>227</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="H5" s="158" t="s">
-        <v>238</v>
-      </c>
-      <c r="J5" s="208" t="s">
+        <v>230</v>
+      </c>
+      <c r="H5" s="157" t="s">
+        <v>231</v>
+      </c>
+      <c r="J5" s="214" t="s">
         <v>37</v>
       </c>
       <c r="K5" s="48"/>
@@ -6882,28 +6985,28 @@
       <c r="R5" s="2"/>
     </row>
     <row r="6" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B6" s="223" t="s">
+      <c r="B6" s="231" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="D6" s="225" t="s">
-        <v>239</v>
-      </c>
-      <c r="E6" s="118" t="s">
-        <v>331</v>
-      </c>
-      <c r="F6" s="172" t="s">
-        <v>240</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>241</v>
+      <c r="D6" s="188" t="s">
+        <v>232</v>
+      </c>
+      <c r="E6" s="189" t="s">
+        <v>233</v>
+      </c>
+      <c r="F6" s="140" t="s">
+        <v>234</v>
+      </c>
+      <c r="G6" s="188" t="s">
+        <v>235</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="J6" s="209"/>
+        <v>236</v>
+      </c>
+      <c r="J6" s="215"/>
       <c r="K6" s="52"/>
       <c r="L6" s="140"/>
       <c r="M6" s="48"/>
@@ -6912,24 +7015,26 @@
       <c r="P6" s="22"/>
     </row>
     <row r="7" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B7" s="210"/>
+      <c r="B7" s="216"/>
       <c r="C7" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="D7" s="226"/>
+      <c r="D7" s="133" t="s">
+        <v>237</v>
+      </c>
       <c r="E7" s="119" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F7" s="133" t="s">
-        <v>335</v>
+        <v>239</v>
       </c>
       <c r="G7" s="133" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H7" s="133" t="s">
-        <v>245</v>
-      </c>
-      <c r="J7" s="209"/>
+        <v>241</v>
+      </c>
+      <c r="J7" s="215"/>
       <c r="K7" s="52"/>
       <c r="L7" s="133"/>
       <c r="M7" s="48"/>
@@ -6938,22 +7043,24 @@
       <c r="P7" s="22"/>
     </row>
     <row r="8" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B8" s="210"/>
+      <c r="B8" s="216"/>
       <c r="C8" s="153"/>
-      <c r="D8" s="226"/>
+      <c r="D8" s="133" t="s">
+        <v>242</v>
+      </c>
       <c r="E8" s="119" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="F8" s="133" t="s">
-        <v>334</v>
+        <v>366</v>
       </c>
       <c r="G8" s="133" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H8" s="133" t="s">
-        <v>247</v>
-      </c>
-      <c r="J8" s="209"/>
+        <v>245</v>
+      </c>
+      <c r="J8" s="215"/>
       <c r="K8" s="52"/>
       <c r="L8" s="133"/>
       <c r="M8" s="48"/>
@@ -6962,22 +7069,24 @@
       <c r="P8" s="22"/>
     </row>
     <row r="9" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B9" s="210"/>
+      <c r="B9" s="216"/>
       <c r="C9" s="153"/>
-      <c r="D9" s="226"/>
+      <c r="D9" s="133" t="s">
+        <v>246</v>
+      </c>
       <c r="E9" s="119" t="s">
+        <v>247</v>
+      </c>
+      <c r="F9" s="24" t="s">
         <v>248</v>
-      </c>
-      <c r="F9" s="133" t="s">
-        <v>333</v>
       </c>
       <c r="G9" s="133" t="s">
         <v>249</v>
       </c>
       <c r="H9" s="133" t="s">
-        <v>145</v>
-      </c>
-      <c r="J9" s="209"/>
+        <v>140</v>
+      </c>
+      <c r="J9" s="215"/>
       <c r="K9" s="52"/>
       <c r="L9" s="133"/>
       <c r="M9" s="48"/>
@@ -6986,22 +7095,24 @@
       <c r="P9" s="22"/>
     </row>
     <row r="10" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B10" s="210"/>
+      <c r="B10" s="216"/>
       <c r="C10" s="153"/>
-      <c r="D10" s="226"/>
+      <c r="D10" s="133" t="s">
+        <v>53</v>
+      </c>
       <c r="E10" s="119" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="F10" s="133" t="s">
-        <v>332</v>
+        <v>150</v>
       </c>
       <c r="G10" s="133" t="s">
-        <v>150</v>
+        <v>53</v>
       </c>
       <c r="H10" s="133" t="s">
-        <v>150</v>
-      </c>
-      <c r="J10" s="209"/>
+        <v>250</v>
+      </c>
+      <c r="J10" s="215"/>
       <c r="K10" s="52"/>
       <c r="L10" s="133"/>
       <c r="M10" s="48"/>
@@ -7010,9 +7121,11 @@
       <c r="P10" s="22"/>
     </row>
     <row r="11" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B11" s="210"/>
+      <c r="B11" s="216"/>
       <c r="C11" s="153"/>
-      <c r="D11" s="226"/>
+      <c r="D11" s="133" t="s">
+        <v>50</v>
+      </c>
       <c r="E11" s="119" t="s">
         <v>50</v>
       </c>
@@ -7025,7 +7138,7 @@
       <c r="H11" s="133" t="s">
         <v>50</v>
       </c>
-      <c r="J11" s="209"/>
+      <c r="J11" s="215"/>
       <c r="K11" s="52"/>
       <c r="L11" s="48"/>
       <c r="M11" s="48"/>
@@ -7034,22 +7147,24 @@
       <c r="P11" s="26"/>
     </row>
     <row r="12" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B12" s="210"/>
+      <c r="B12" s="216"/>
       <c r="C12" s="28"/>
-      <c r="D12" s="226"/>
+      <c r="D12" s="131">
+        <v>1245</v>
+      </c>
       <c r="E12" s="122">
-        <v>963</v>
+        <v>1394</v>
       </c>
       <c r="F12" s="131">
-        <v>1117</v>
+        <v>1084</v>
       </c>
       <c r="G12" s="131">
-        <v>1149</v>
+        <v>939</v>
       </c>
       <c r="H12" s="131">
-        <v>863</v>
-      </c>
-      <c r="J12" s="209"/>
+        <v>907</v>
+      </c>
+      <c r="J12" s="215"/>
       <c r="K12" s="24"/>
       <c r="L12" s="48"/>
       <c r="M12" s="52"/>
@@ -7060,107 +7175,117 @@
       <c r="R12" s="22"/>
     </row>
     <row r="13" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B13" s="210"/>
+      <c r="B13" s="216"/>
       <c r="C13" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="226"/>
-      <c r="E13" s="205" t="s">
-        <v>348</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>251</v>
+      <c r="D13" s="190" t="s">
+        <v>253</v>
+      </c>
+      <c r="E13" s="118" t="s">
+        <v>254</v>
+      </c>
+      <c r="F13" s="190" t="s">
+        <v>255</v>
+      </c>
+      <c r="G13" s="190" t="s">
+        <v>256</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="J13" s="209"/>
+        <v>257</v>
+      </c>
+      <c r="J13" s="215"/>
       <c r="K13" s="21"/>
       <c r="L13" s="52"/>
       <c r="M13" s="22"/>
     </row>
     <row r="14" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B14" s="210"/>
+      <c r="B14" s="216"/>
       <c r="C14" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="D14" s="226"/>
+      <c r="D14" s="130" t="s">
+        <v>63</v>
+      </c>
       <c r="E14" s="119" t="s">
-        <v>340</v>
-      </c>
-      <c r="F14" s="173" t="s">
-        <v>253</v>
-      </c>
-      <c r="G14" s="130" t="s">
-        <v>233</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="J14" s="209"/>
+        <v>258</v>
+      </c>
+      <c r="F14" s="191" t="s">
+        <v>259</v>
+      </c>
+      <c r="G14" s="191" t="s">
+        <v>260</v>
+      </c>
+      <c r="H14" s="130" t="s">
+        <v>261</v>
+      </c>
+      <c r="J14" s="215"/>
       <c r="K14" s="24"/>
       <c r="M14" s="29"/>
     </row>
     <row r="15" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B15" s="210"/>
+      <c r="B15" s="216"/>
       <c r="C15" s="153"/>
-      <c r="D15" s="226"/>
+      <c r="D15" s="130" t="s">
+        <v>262</v>
+      </c>
       <c r="E15" s="119" t="s">
-        <v>255</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>256</v>
+        <v>263</v>
+      </c>
+      <c r="F15" s="130" t="s">
+        <v>264</v>
       </c>
       <c r="G15" s="130" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="J15" s="209"/>
+        <v>101</v>
+      </c>
+      <c r="J15" s="215"/>
       <c r="K15" s="24"/>
       <c r="M15" s="22"/>
     </row>
     <row r="16" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B16" s="210"/>
+      <c r="B16" s="216"/>
       <c r="C16" s="153"/>
-      <c r="D16" s="226"/>
+      <c r="D16" s="130" t="s">
+        <v>266</v>
+      </c>
       <c r="E16" s="119" t="s">
-        <v>259</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="G16" s="130" t="s">
-        <v>260</v>
+        <v>147</v>
+      </c>
+      <c r="F16" s="134" t="s">
+        <v>267</v>
+      </c>
+      <c r="G16" s="134" t="s">
+        <v>191</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>261</v>
-      </c>
-      <c r="J16" s="209"/>
+        <v>268</v>
+      </c>
+      <c r="J16" s="215"/>
       <c r="K16" s="24"/>
       <c r="M16" s="22"/>
     </row>
     <row r="17" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B17" s="210"/>
+      <c r="B17" s="216"/>
       <c r="C17" s="153"/>
-      <c r="D17" s="226"/>
+      <c r="D17" s="130" t="s">
+        <v>270</v>
+      </c>
       <c r="E17" s="119" t="s">
-        <v>330</v>
+        <v>50</v>
       </c>
       <c r="F17" s="134" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="G17" s="134" t="s">
-        <v>101</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="J17" s="209"/>
+        <v>250</v>
+      </c>
+      <c r="H17" s="133" t="s">
+        <v>269</v>
+      </c>
+      <c r="J17" s="215"/>
       <c r="K17" s="24"/>
       <c r="M17" s="22"/>
     </row>
@@ -7168,227 +7293,257 @@
       <c r="A18" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="210"/>
+      <c r="B18" s="216"/>
       <c r="C18" s="31"/>
-      <c r="D18" s="226"/>
+      <c r="D18" s="130" t="s">
+        <v>50</v>
+      </c>
       <c r="E18" s="119"/>
-      <c r="F18" s="134"/>
+      <c r="F18" s="134" t="s">
+        <v>50</v>
+      </c>
       <c r="G18" s="134" t="s">
         <v>50</v>
       </c>
-      <c r="H18" s="133" t="s">
+      <c r="H18" s="134" t="s">
         <v>50</v>
       </c>
-      <c r="J18" s="209"/>
+      <c r="J18" s="215"/>
       <c r="K18" s="24"/>
       <c r="M18" s="22"/>
     </row>
     <row r="19" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B19" s="210"/>
+      <c r="B19" s="216"/>
       <c r="C19" s="28"/>
-      <c r="D19" s="226"/>
+      <c r="D19" s="131">
+        <v>948</v>
+      </c>
       <c r="E19" s="122">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="F19" s="131">
-        <v>1296</v>
+        <v>1171</v>
       </c>
       <c r="G19" s="131">
-        <v>1232</v>
+        <v>748</v>
       </c>
       <c r="H19" s="131">
-        <v>1151</v>
-      </c>
-      <c r="J19" s="209"/>
+        <v>1339</v>
+      </c>
+      <c r="J19" s="215"/>
       <c r="K19" s="82"/>
       <c r="L19" s="17"/>
       <c r="M19" s="32"/>
       <c r="N19" s="17"/>
     </row>
     <row r="20" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B20" s="210"/>
+      <c r="B20" s="216"/>
       <c r="C20" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="226"/>
+      <c r="D20" s="158" t="s">
+        <v>289</v>
+      </c>
       <c r="E20" s="118" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="H20" s="140" t="s">
-        <v>264</v>
-      </c>
-      <c r="J20" s="209"/>
+        <v>272</v>
+      </c>
+      <c r="G20" s="192" t="s">
+        <v>273</v>
+      </c>
+      <c r="H20" s="190" t="s">
+        <v>274</v>
+      </c>
+      <c r="J20" s="215"/>
       <c r="K20" s="24"/>
       <c r="M20" s="22"/>
     </row>
     <row r="21" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B21" s="210"/>
+      <c r="B21" s="216"/>
       <c r="C21" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="D21" s="226"/>
+      <c r="D21" s="130" t="s">
+        <v>275</v>
+      </c>
       <c r="E21" s="119" t="s">
-        <v>338</v>
-      </c>
-      <c r="F21" s="130" t="s">
-        <v>78</v>
-      </c>
-      <c r="G21" s="130" t="s">
-        <v>265</v>
-      </c>
-      <c r="H21" s="130" t="s">
-        <v>266</v>
-      </c>
-      <c r="J21" s="209"/>
+        <v>276</v>
+      </c>
+      <c r="F21" s="193" t="s">
+        <v>277</v>
+      </c>
+      <c r="G21" s="193" t="s">
+        <v>278</v>
+      </c>
+      <c r="H21" s="291" t="s">
+        <v>367</v>
+      </c>
+      <c r="J21" s="215"/>
       <c r="K21" s="24"/>
       <c r="M21" s="22"/>
       <c r="N21" s="33"/>
     </row>
     <row r="22" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B22" s="210"/>
+      <c r="B22" s="216"/>
       <c r="C22" s="23"/>
-      <c r="D22" s="226"/>
+      <c r="D22" s="130" t="s">
+        <v>280</v>
+      </c>
       <c r="E22" s="119" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="F22" s="130" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="G22" s="130" t="s">
-        <v>269</v>
-      </c>
-      <c r="H22" s="130" t="s">
-        <v>270</v>
-      </c>
-      <c r="J22" s="209"/>
+        <v>283</v>
+      </c>
+      <c r="H22" s="170" t="s">
+        <v>279</v>
+      </c>
+      <c r="J22" s="215"/>
       <c r="K22" s="16"/>
       <c r="L22" s="33"/>
       <c r="N22" s="27"/>
     </row>
     <row r="23" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B23" s="210"/>
+      <c r="B23" s="216"/>
       <c r="C23" s="153"/>
-      <c r="D23" s="226"/>
+      <c r="D23" s="130" t="s">
+        <v>285</v>
+      </c>
       <c r="E23" s="119" t="s">
-        <v>225</v>
-      </c>
-      <c r="F23" s="134" t="s">
-        <v>271</v>
+        <v>364</v>
+      </c>
+      <c r="F23" s="130" t="s">
+        <v>286</v>
       </c>
       <c r="G23" s="130" t="s">
-        <v>225</v>
-      </c>
-      <c r="H23" s="134" t="s">
-        <v>336</v>
-      </c>
-      <c r="J23" s="209"/>
+        <v>287</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="J23" s="215"/>
       <c r="K23" s="16"/>
       <c r="L23" s="130"/>
       <c r="N23" s="45"/>
     </row>
     <row r="24" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B24" s="210"/>
+      <c r="B24" s="216"/>
       <c r="C24" s="153"/>
-      <c r="D24" s="226"/>
+      <c r="D24" s="130" t="s">
+        <v>147</v>
+      </c>
       <c r="E24" s="119" t="s">
-        <v>50</v>
+        <v>288</v>
       </c>
       <c r="F24" s="134" t="s">
-        <v>272</v>
-      </c>
-      <c r="G24" s="130" t="s">
-        <v>50</v>
-      </c>
-      <c r="H24" s="134" t="s">
-        <v>50</v>
-      </c>
-      <c r="J24" s="209"/>
+        <v>250</v>
+      </c>
+      <c r="G24" s="134" t="s">
+        <v>147</v>
+      </c>
+      <c r="H24" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="J24" s="215"/>
       <c r="K24" s="16"/>
       <c r="L24" s="130"/>
       <c r="N24" s="41"/>
     </row>
     <row r="25" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B25" s="210"/>
+      <c r="B25" s="216"/>
       <c r="C25" s="153"/>
-      <c r="D25" s="226"/>
-      <c r="E25" s="171"/>
-      <c r="F25" s="134" t="s">
+      <c r="D25" s="130" t="s">
         <v>50</v>
       </c>
-      <c r="G25" s="133"/>
-      <c r="H25" s="134"/>
-      <c r="J25" s="209"/>
+      <c r="E25" s="119" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="133" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" s="133" t="s">
+        <v>50</v>
+      </c>
+      <c r="H25" s="134" t="s">
+        <v>50</v>
+      </c>
+      <c r="J25" s="215"/>
       <c r="K25" s="52"/>
       <c r="L25" s="130"/>
       <c r="N25" s="16"/>
     </row>
     <row r="26" spans="1:18" s="33" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B26" s="210"/>
+      <c r="B26" s="216"/>
       <c r="C26" s="28"/>
-      <c r="D26" s="226"/>
+      <c r="D26" s="130">
+        <v>890</v>
+      </c>
       <c r="E26" s="122">
-        <v>1190</v>
+        <v>816</v>
       </c>
       <c r="F26" s="131">
-        <v>884</v>
+        <v>740</v>
       </c>
       <c r="G26" s="131">
-        <v>1296</v>
+        <v>1079</v>
       </c>
       <c r="H26" s="131">
-        <v>1246</v>
-      </c>
-      <c r="J26" s="209"/>
+        <v>897</v>
+      </c>
+      <c r="J26" s="215"/>
       <c r="K26" s="66"/>
       <c r="L26" s="130"/>
       <c r="N26" s="48"/>
     </row>
     <row r="27" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B27" s="210"/>
-      <c r="C27" s="218" t="s">
+      <c r="B27" s="216"/>
+      <c r="C27" s="224" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="226"/>
+      <c r="D27" s="129" t="s">
+        <v>52</v>
+      </c>
       <c r="E27" s="129" t="s">
-        <v>273</v>
+        <v>147</v>
       </c>
       <c r="F27" s="129" t="s">
         <v>52</v>
       </c>
       <c r="G27" s="129" t="s">
-        <v>273</v>
+        <v>147</v>
       </c>
       <c r="H27" s="129" t="s">
         <v>52</v>
       </c>
-      <c r="J27" s="209"/>
+      <c r="J27" s="215"/>
       <c r="K27" s="16"/>
       <c r="L27" s="26"/>
       <c r="N27" s="48"/>
     </row>
     <row r="28" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B28" s="210"/>
-      <c r="C28" s="221"/>
-      <c r="D28" s="226"/>
+      <c r="B28" s="216"/>
+      <c r="C28" s="227"/>
+      <c r="D28" s="94" t="s">
+        <v>290</v>
+      </c>
       <c r="E28" s="94" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="F28" s="94" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="G28" s="94" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="H28" s="94" t="s">
-        <v>277</v>
-      </c>
-      <c r="J28" s="209"/>
+        <v>294</v>
+      </c>
+      <c r="J28" s="215"/>
       <c r="K28" s="16"/>
       <c r="L28" s="66"/>
       <c r="M28" s="41"/>
@@ -7398,20 +7553,22 @@
       <c r="Q28" s="26"/>
     </row>
     <row r="29" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B29" s="210"/>
-      <c r="C29" s="222"/>
-      <c r="D29" s="226"/>
-      <c r="E29" s="138"/>
+      <c r="B29" s="216"/>
+      <c r="C29" s="228"/>
+      <c r="D29" s="138" t="s">
+        <v>295</v>
+      </c>
+      <c r="E29" s="131"/>
       <c r="F29" s="138" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="G29" s="139" t="s">
-        <v>279</v>
-      </c>
-      <c r="H29" s="174" t="s">
-        <v>280</v>
-      </c>
-      <c r="J29" s="209"/>
+        <v>297</v>
+      </c>
+      <c r="H29" s="194" t="s">
+        <v>298</v>
+      </c>
+      <c r="J29" s="215"/>
       <c r="K29" s="101"/>
       <c r="L29" s="16"/>
       <c r="M29" s="66"/>
@@ -7422,24 +7579,26 @@
       <c r="R29" s="26"/>
     </row>
     <row r="30" spans="1:18" s="44" customFormat="1" ht="30.75" customHeight="1">
-      <c r="B30" s="210"/>
-      <c r="C30" s="161" t="s">
+      <c r="B30" s="216"/>
+      <c r="C30" s="160" t="s">
         <v>208</v>
       </c>
-      <c r="D30" s="226"/>
-      <c r="E30" s="162" t="s">
-        <v>281</v>
-      </c>
-      <c r="F30" s="163" t="s">
-        <v>282</v>
-      </c>
-      <c r="G30" s="163" t="s">
-        <v>283</v>
+      <c r="D30" s="200" t="s">
+        <v>344</v>
+      </c>
+      <c r="E30" s="161" t="s">
+        <v>345</v>
+      </c>
+      <c r="F30" s="162" t="s">
+        <v>346</v>
+      </c>
+      <c r="G30" s="162" t="s">
+        <v>347</v>
       </c>
       <c r="H30" s="162" t="s">
-        <v>284</v>
-      </c>
-      <c r="J30" s="213" t="s">
+        <v>348</v>
+      </c>
+      <c r="J30" s="219" t="s">
         <v>17</v>
       </c>
       <c r="K30" s="16"/>
@@ -7452,22 +7611,24 @@
       <c r="R30" s="32"/>
     </row>
     <row r="31" spans="1:18" s="47" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B31" s="210"/>
+      <c r="B31" s="216"/>
       <c r="C31" s="83"/>
-      <c r="D31" s="226"/>
-      <c r="E31" s="164">
-        <v>721</v>
-      </c>
-      <c r="F31" s="164">
-        <v>759</v>
-      </c>
-      <c r="G31" s="164">
-        <v>743</v>
-      </c>
-      <c r="H31" s="164">
-        <v>757</v>
-      </c>
-      <c r="J31" s="214"/>
+      <c r="D31" s="163">
+        <v>689</v>
+      </c>
+      <c r="E31" s="163">
+        <v>723</v>
+      </c>
+      <c r="F31" s="163">
+        <v>742</v>
+      </c>
+      <c r="G31" s="163">
+        <v>638</v>
+      </c>
+      <c r="H31" s="163">
+        <v>748</v>
+      </c>
+      <c r="J31" s="220"/>
       <c r="K31" s="52"/>
       <c r="L31" s="16"/>
       <c r="M31" s="16"/>
@@ -7477,24 +7638,26 @@
       <c r="Q31" s="32"/>
     </row>
     <row r="32" spans="1:18" s="47" customFormat="1" ht="63.75" customHeight="1">
-      <c r="B32" s="210"/>
-      <c r="C32" s="161" t="s">
-        <v>228</v>
-      </c>
-      <c r="D32" s="226"/>
-      <c r="E32" s="175" t="s">
-        <v>285</v>
-      </c>
-      <c r="F32" s="175" t="s">
-        <v>286</v>
-      </c>
-      <c r="G32" s="175" t="s">
-        <v>287</v>
-      </c>
-      <c r="H32" s="175" t="s">
-        <v>288</v>
-      </c>
-      <c r="J32" s="214"/>
+      <c r="B32" s="216"/>
+      <c r="C32" s="160" t="s">
+        <v>222</v>
+      </c>
+      <c r="D32" s="201" t="s">
+        <v>349</v>
+      </c>
+      <c r="E32" s="202" t="s">
+        <v>352</v>
+      </c>
+      <c r="F32" s="202" t="s">
+        <v>350</v>
+      </c>
+      <c r="G32" s="202" t="s">
+        <v>351</v>
+      </c>
+      <c r="H32" s="202" t="s">
+        <v>365</v>
+      </c>
+      <c r="J32" s="220"/>
       <c r="K32" s="52"/>
       <c r="L32" s="16"/>
       <c r="M32" s="16"/>
@@ -7504,22 +7667,24 @@
       <c r="Q32" s="59"/>
     </row>
     <row r="33" spans="1:18" s="47" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B33" s="210"/>
+      <c r="B33" s="216"/>
       <c r="C33" s="132"/>
-      <c r="D33" s="226"/>
-      <c r="E33" s="165">
-        <v>931</v>
-      </c>
-      <c r="F33" s="165">
-        <v>877</v>
-      </c>
-      <c r="G33" s="165">
-        <v>931</v>
-      </c>
-      <c r="H33" s="165">
-        <v>834</v>
-      </c>
-      <c r="J33" s="214"/>
+      <c r="D33" s="164">
+        <v>976</v>
+      </c>
+      <c r="E33" s="164">
+        <v>881</v>
+      </c>
+      <c r="F33" s="164">
+        <v>915</v>
+      </c>
+      <c r="G33" s="164">
+        <v>892</v>
+      </c>
+      <c r="H33" s="164">
+        <v>925</v>
+      </c>
+      <c r="J33" s="220"/>
       <c r="K33" s="52"/>
       <c r="L33" s="52"/>
       <c r="M33" s="52"/>
@@ -7529,22 +7694,24 @@
       <c r="Q33" s="22"/>
     </row>
     <row r="34" spans="1:18" s="47" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B34" s="210"/>
-      <c r="C34" s="161" t="s">
+      <c r="B34" s="216"/>
+      <c r="C34" s="160" t="s">
         <v>215</v>
       </c>
-      <c r="D34" s="226"/>
-      <c r="E34" s="166" t="s">
-        <v>289</v>
-      </c>
-      <c r="F34" s="166" t="s">
-        <v>290</v>
-      </c>
-      <c r="G34" s="166" t="s">
-        <v>291</v>
-      </c>
-      <c r="H34" s="166" t="s">
-        <v>341</v>
+      <c r="D34" s="165" t="s">
+        <v>353</v>
+      </c>
+      <c r="E34" s="165" t="s">
+        <v>354</v>
+      </c>
+      <c r="F34" s="165" t="s">
+        <v>355</v>
+      </c>
+      <c r="G34" s="165" t="s">
+        <v>356</v>
+      </c>
+      <c r="H34" s="165" t="s">
+        <v>357</v>
       </c>
       <c r="J34" s="17"/>
       <c r="K34" s="52"/>
@@ -7556,20 +7723,22 @@
       <c r="Q34" s="22"/>
     </row>
     <row r="35" spans="1:18" s="47" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B35" s="210"/>
-      <c r="C35" s="167"/>
-      <c r="D35" s="226"/>
-      <c r="E35" s="165">
-        <v>603</v>
-      </c>
-      <c r="F35" s="165">
-        <v>628</v>
-      </c>
-      <c r="G35" s="165">
-        <v>678</v>
-      </c>
-      <c r="H35" s="165">
-        <v>762</v>
+      <c r="B35" s="216"/>
+      <c r="C35" s="166"/>
+      <c r="D35" s="164">
+        <v>672</v>
+      </c>
+      <c r="E35" s="164">
+        <v>467</v>
+      </c>
+      <c r="F35" s="164">
+        <v>665</v>
+      </c>
+      <c r="G35" s="164">
+        <v>642</v>
+      </c>
+      <c r="H35" s="164">
+        <v>634</v>
       </c>
       <c r="J35" s="17"/>
       <c r="K35" s="52"/>
@@ -7581,22 +7750,24 @@
       <c r="Q35" s="22"/>
     </row>
     <row r="36" spans="1:18" s="47" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B36" s="210"/>
-      <c r="C36" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="D36" s="226"/>
-      <c r="E36" s="170" t="s">
-        <v>292</v>
-      </c>
-      <c r="F36" s="170" t="s">
-        <v>293</v>
-      </c>
-      <c r="G36" s="170" t="s">
-        <v>294</v>
-      </c>
-      <c r="H36" s="170" t="s">
-        <v>295</v>
+      <c r="B36" s="216"/>
+      <c r="C36" s="229" t="s">
+        <v>221</v>
+      </c>
+      <c r="D36" s="169" t="s">
+        <v>358</v>
+      </c>
+      <c r="E36" s="169" t="s">
+        <v>362</v>
+      </c>
+      <c r="F36" s="169" t="s">
+        <v>359</v>
+      </c>
+      <c r="G36" s="169" t="s">
+        <v>360</v>
+      </c>
+      <c r="H36" s="169" t="s">
+        <v>361</v>
       </c>
       <c r="J36" s="17"/>
       <c r="K36" s="52"/>
@@ -7608,20 +7779,22 @@
       <c r="Q36" s="22"/>
     </row>
     <row r="37" spans="1:18" s="47" customFormat="1" ht="26.1" customHeight="1" thickBot="1">
-      <c r="B37" s="210"/>
-      <c r="C37" s="229"/>
-      <c r="D37" s="226"/>
-      <c r="E37" s="168">
-        <v>767</v>
-      </c>
-      <c r="F37" s="168">
+      <c r="B37" s="216"/>
+      <c r="C37" s="230"/>
+      <c r="D37" s="167">
+        <v>847</v>
+      </c>
+      <c r="E37" s="167">
+        <v>833</v>
+      </c>
+      <c r="F37" s="167">
+        <v>866</v>
+      </c>
+      <c r="G37" s="167">
         <v>822</v>
       </c>
-      <c r="G37" s="168">
-        <v>853</v>
-      </c>
-      <c r="H37" s="168">
-        <v>869</v>
+      <c r="H37" s="167">
+        <v>836</v>
       </c>
       <c r="J37" s="17"/>
       <c r="K37" s="52"/>
@@ -7633,26 +7806,28 @@
       <c r="Q37" s="22"/>
     </row>
     <row r="38" spans="1:18" s="17" customFormat="1" ht="26.1" customHeight="1" thickTop="1">
-      <c r="B38" s="215" t="s">
+      <c r="B38" s="221" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="169" t="s">
+      <c r="C38" s="168" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="226"/>
-      <c r="E38" s="140" t="s">
-        <v>296</v>
-      </c>
-      <c r="F38" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="G38" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="H38" s="21" t="s">
+      <c r="D38" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="J38" s="217" t="s">
+      <c r="E38" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="F38" s="140" t="s">
+        <v>301</v>
+      </c>
+      <c r="G38" s="190" t="s">
+        <v>302</v>
+      </c>
+      <c r="H38" s="140" t="s">
+        <v>303</v>
+      </c>
+      <c r="J38" s="223" t="s">
         <v>12</v>
       </c>
       <c r="K38" s="52"/>
@@ -7668,22 +7843,24 @@
       <c r="A39" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="210"/>
+      <c r="B39" s="216"/>
       <c r="C39" s="23"/>
-      <c r="D39" s="226"/>
-      <c r="E39" s="133" t="s">
-        <v>300</v>
+      <c r="D39" s="133" t="s">
+        <v>304</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>78</v>
       </c>
       <c r="F39" s="133" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="G39" s="133" t="s">
-        <v>302</v>
-      </c>
-      <c r="H39" s="133" t="s">
-        <v>303</v>
-      </c>
-      <c r="J39" s="217"/>
+        <v>306</v>
+      </c>
+      <c r="H39" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="J39" s="223"/>
       <c r="K39" s="66"/>
       <c r="L39" s="16"/>
       <c r="M39" s="52"/>
@@ -7694,22 +7871,24 @@
       <c r="R39" s="22"/>
     </row>
     <row r="40" spans="1:18" s="17" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B40" s="210"/>
-      <c r="C40" s="160"/>
-      <c r="D40" s="226"/>
-      <c r="E40" s="130" t="s">
-        <v>304</v>
+      <c r="B40" s="216"/>
+      <c r="C40" s="159"/>
+      <c r="D40" s="133" t="s">
+        <v>308</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>309</v>
       </c>
       <c r="F40" s="133" t="s">
-        <v>305</v>
-      </c>
-      <c r="G40" s="24" t="s">
-        <v>306</v>
+        <v>310</v>
+      </c>
+      <c r="G40" s="101" t="s">
+        <v>311</v>
       </c>
       <c r="H40" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="J40" s="217"/>
+        <v>312</v>
+      </c>
+      <c r="J40" s="223"/>
       <c r="K40" s="66"/>
       <c r="L40" s="30"/>
       <c r="M40" s="52"/>
@@ -7720,22 +7899,24 @@
       <c r="R40" s="22"/>
     </row>
     <row r="41" spans="1:18" s="17" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B41" s="210"/>
-      <c r="C41" s="160"/>
-      <c r="D41" s="226"/>
+      <c r="B41" s="216"/>
+      <c r="C41" s="159"/>
+      <c r="D41" s="133" t="s">
+        <v>164</v>
+      </c>
       <c r="E41" s="133" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F41" s="133" t="s">
-        <v>164</v>
+        <v>314</v>
       </c>
       <c r="G41" s="101" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="H41" s="133" t="s">
-        <v>309</v>
-      </c>
-      <c r="J41" s="217"/>
+        <v>316</v>
+      </c>
+      <c r="J41" s="223"/>
       <c r="K41" s="30"/>
       <c r="L41" s="8"/>
       <c r="M41" s="66"/>
@@ -7746,22 +7927,24 @@
       <c r="R41" s="26"/>
     </row>
     <row r="42" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B42" s="210"/>
-      <c r="C42" s="160"/>
-      <c r="D42" s="226"/>
+      <c r="B42" s="216"/>
+      <c r="C42" s="159"/>
+      <c r="D42" s="133" t="s">
+        <v>250</v>
+      </c>
       <c r="E42" s="133" t="s">
-        <v>310</v>
+        <v>250</v>
       </c>
       <c r="F42" s="133" t="s">
-        <v>221</v>
+        <v>146</v>
       </c>
       <c r="G42" s="134" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="H42" s="133" t="s">
-        <v>221</v>
-      </c>
-      <c r="J42" s="217"/>
+        <v>146</v>
+      </c>
+      <c r="J42" s="223"/>
       <c r="K42" s="52"/>
       <c r="L42" s="8"/>
       <c r="M42" s="66"/>
@@ -7772,22 +7955,22 @@
       <c r="R42" s="26"/>
     </row>
     <row r="43" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B43" s="210"/>
-      <c r="C43" s="160"/>
-      <c r="D43" s="226"/>
-      <c r="E43" s="133" t="s">
-        <v>222</v>
-      </c>
+      <c r="B43" s="216"/>
+      <c r="C43" s="159"/>
+      <c r="D43" s="133" t="s">
+        <v>252</v>
+      </c>
+      <c r="E43" s="133"/>
       <c r="F43" s="133" t="s">
-        <v>222</v>
-      </c>
-      <c r="G43" s="134" t="s">
-        <v>311</v>
+        <v>252</v>
+      </c>
+      <c r="G43" s="133" t="s">
+        <v>252</v>
       </c>
       <c r="H43" s="133" t="s">
-        <v>222</v>
-      </c>
-      <c r="J43" s="217"/>
+        <v>252</v>
+      </c>
+      <c r="J43" s="223"/>
       <c r="K43" s="52"/>
       <c r="L43" s="8"/>
       <c r="M43" s="30"/>
@@ -7798,22 +7981,24 @@
       <c r="R43" s="26"/>
     </row>
     <row r="44" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B44" s="210"/>
+      <c r="B44" s="216"/>
       <c r="C44" s="83"/>
-      <c r="D44" s="226"/>
+      <c r="D44" s="131">
+        <v>1172</v>
+      </c>
       <c r="E44" s="131">
-        <v>838</v>
+        <v>912</v>
       </c>
       <c r="F44" s="131">
-        <v>1208</v>
+        <v>908</v>
       </c>
       <c r="G44" s="131">
-        <v>1105</v>
+        <v>951</v>
       </c>
       <c r="H44" s="131">
-        <v>840</v>
-      </c>
-      <c r="J44" s="217"/>
+        <v>992</v>
+      </c>
+      <c r="J44" s="223"/>
       <c r="K44" s="52"/>
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
@@ -7821,24 +8006,26 @@
       <c r="R44" s="22"/>
     </row>
     <row r="45" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B45" s="210"/>
+      <c r="B45" s="216"/>
       <c r="C45" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="226"/>
-      <c r="E45" s="156" t="s">
-        <v>312</v>
-      </c>
-      <c r="F45" s="156" t="s">
-        <v>313</v>
-      </c>
-      <c r="G45" s="156" t="s">
-        <v>314</v>
-      </c>
-      <c r="H45" s="156" t="s">
-        <v>339</v>
-      </c>
-      <c r="J45" s="217"/>
+      <c r="D45" s="140" t="s">
+        <v>317</v>
+      </c>
+      <c r="E45" s="193" t="s">
+        <v>318</v>
+      </c>
+      <c r="F45" s="140" t="s">
+        <v>319</v>
+      </c>
+      <c r="G45" s="195" t="s">
+        <v>320</v>
+      </c>
+      <c r="H45" s="195" t="s">
+        <v>321</v>
+      </c>
+      <c r="J45" s="223"/>
       <c r="K45" s="66"/>
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
@@ -7846,22 +8033,24 @@
       <c r="R45" s="22"/>
     </row>
     <row r="46" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B46" s="210"/>
+      <c r="B46" s="216"/>
       <c r="C46" s="23"/>
-      <c r="D46" s="226"/>
-      <c r="E46" s="176" t="s">
-        <v>315</v>
-      </c>
-      <c r="F46" s="176" t="s">
-        <v>316</v>
-      </c>
-      <c r="G46" s="176" t="s">
-        <v>317</v>
-      </c>
-      <c r="H46" s="176" t="s">
-        <v>318</v>
-      </c>
-      <c r="J46" s="217"/>
+      <c r="D46" s="196" t="s">
+        <v>322</v>
+      </c>
+      <c r="E46" s="171" t="s">
+        <v>323</v>
+      </c>
+      <c r="F46" s="196" t="s">
+        <v>324</v>
+      </c>
+      <c r="G46" s="171" t="s">
+        <v>325</v>
+      </c>
+      <c r="H46" s="171" t="s">
+        <v>326</v>
+      </c>
+      <c r="J46" s="223"/>
       <c r="K46" s="66"/>
       <c r="L46" s="21"/>
       <c r="M46" s="8"/>
@@ -7869,22 +8058,24 @@
       <c r="R46" s="22"/>
     </row>
     <row r="47" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B47" s="210"/>
+      <c r="B47" s="216"/>
       <c r="C47" s="20"/>
-      <c r="D47" s="226"/>
-      <c r="E47" s="159" t="s">
-        <v>224</v>
-      </c>
-      <c r="F47" s="159" t="s">
-        <v>224</v>
-      </c>
-      <c r="G47" s="159" t="s">
-        <v>224</v>
-      </c>
-      <c r="H47" s="159" t="s">
-        <v>224</v>
-      </c>
-      <c r="J47" s="217"/>
+      <c r="D47" s="197" t="s">
+        <v>327</v>
+      </c>
+      <c r="E47" s="193" t="s">
+        <v>327</v>
+      </c>
+      <c r="F47" s="198" t="s">
+        <v>327</v>
+      </c>
+      <c r="G47" s="195" t="s">
+        <v>327</v>
+      </c>
+      <c r="H47" s="195" t="s">
+        <v>327</v>
+      </c>
+      <c r="J47" s="223"/>
       <c r="K47" s="30"/>
       <c r="L47" s="24"/>
       <c r="M47" s="8"/>
@@ -7892,22 +8083,24 @@
       <c r="R47" s="22"/>
     </row>
     <row r="48" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B48" s="210"/>
+      <c r="B48" s="216"/>
       <c r="C48" s="20"/>
-      <c r="D48" s="226"/>
-      <c r="E48" s="177" t="s">
-        <v>347</v>
-      </c>
-      <c r="F48" s="177" t="s">
-        <v>319</v>
-      </c>
-      <c r="G48" s="177" t="s">
-        <v>320</v>
-      </c>
-      <c r="H48" s="177" t="s">
-        <v>321</v>
-      </c>
-      <c r="J48" s="217"/>
+      <c r="D48" s="199" t="s">
+        <v>328</v>
+      </c>
+      <c r="E48" s="171" t="s">
+        <v>329</v>
+      </c>
+      <c r="F48" s="196" t="s">
+        <v>330</v>
+      </c>
+      <c r="G48" s="172" t="s">
+        <v>331</v>
+      </c>
+      <c r="H48" s="172" t="s">
+        <v>332</v>
+      </c>
+      <c r="J48" s="223"/>
       <c r="K48" s="8"/>
       <c r="L48" s="24"/>
       <c r="M48" s="8"/>
@@ -7915,22 +8108,24 @@
       <c r="R48" s="22"/>
     </row>
     <row r="49" spans="2:18" s="51" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B49" s="210"/>
+      <c r="B49" s="216"/>
       <c r="C49" s="20"/>
-      <c r="D49" s="226"/>
-      <c r="E49" s="177" t="s">
-        <v>322</v>
-      </c>
-      <c r="F49" s="177" t="s">
-        <v>226</v>
-      </c>
-      <c r="G49" s="177" t="s">
-        <v>226</v>
-      </c>
-      <c r="H49" s="177" t="s">
-        <v>323</v>
-      </c>
-      <c r="J49" s="217"/>
+      <c r="D49" s="199" t="s">
+        <v>333</v>
+      </c>
+      <c r="E49" s="130" t="s">
+        <v>334</v>
+      </c>
+      <c r="F49" s="196" t="s">
+        <v>335</v>
+      </c>
+      <c r="G49" s="171" t="s">
+        <v>336</v>
+      </c>
+      <c r="H49" s="130" t="s">
+        <v>337</v>
+      </c>
+      <c r="J49" s="223"/>
       <c r="K49" s="8"/>
       <c r="L49" s="24"/>
       <c r="M49" s="8"/>
@@ -7941,22 +8136,24 @@
       <c r="R49" s="22"/>
     </row>
     <row r="50" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B50" s="210"/>
+      <c r="B50" s="216"/>
       <c r="C50" s="20"/>
-      <c r="D50" s="226"/>
-      <c r="E50" s="157" t="s">
-        <v>223</v>
-      </c>
-      <c r="F50" s="157" t="s">
-        <v>324</v>
-      </c>
-      <c r="G50" s="157" t="s">
-        <v>325</v>
-      </c>
-      <c r="H50" s="157" t="s">
-        <v>326</v>
-      </c>
-      <c r="J50" s="217"/>
+      <c r="D50" s="133" t="s">
+        <v>338</v>
+      </c>
+      <c r="E50" s="156" t="s">
+        <v>339</v>
+      </c>
+      <c r="F50" s="156" t="s">
+        <v>340</v>
+      </c>
+      <c r="G50" s="130" t="s">
+        <v>80</v>
+      </c>
+      <c r="H50" s="133" t="s">
+        <v>341</v>
+      </c>
+      <c r="J50" s="223"/>
       <c r="K50" s="8"/>
       <c r="L50" s="24"/>
       <c r="M50" s="52"/>
@@ -7964,22 +8161,24 @@
       <c r="R50" s="22"/>
     </row>
     <row r="51" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B51" s="210"/>
+      <c r="B51" s="216"/>
       <c r="C51" s="20"/>
-      <c r="D51" s="226"/>
-      <c r="E51" s="130" t="s">
-        <v>327</v>
-      </c>
-      <c r="F51" s="157" t="s">
-        <v>328</v>
-      </c>
-      <c r="G51" s="157" t="s">
-        <v>231</v>
-      </c>
-      <c r="H51" s="24" t="s">
-        <v>329</v>
-      </c>
-      <c r="J51" s="217"/>
+      <c r="D51" s="133" t="s">
+        <v>250</v>
+      </c>
+      <c r="E51" s="156" t="s">
+        <v>250</v>
+      </c>
+      <c r="F51" s="156" t="s">
+        <v>146</v>
+      </c>
+      <c r="G51" s="130" t="s">
+        <v>342</v>
+      </c>
+      <c r="H51" s="133" t="s">
+        <v>250</v>
+      </c>
+      <c r="J51" s="223"/>
       <c r="K51" s="8"/>
       <c r="L51" s="24"/>
       <c r="M51" s="52"/>
@@ -7987,22 +8186,24 @@
       <c r="R51" s="22"/>
     </row>
     <row r="52" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B52" s="210"/>
+      <c r="B52" s="216"/>
       <c r="C52" s="20"/>
-      <c r="D52" s="226"/>
-      <c r="E52" s="157" t="s">
-        <v>146</v>
-      </c>
-      <c r="F52" s="157" t="s">
-        <v>221</v>
-      </c>
-      <c r="G52" s="157" t="s">
-        <v>146</v>
-      </c>
-      <c r="H52" s="178" t="s">
-        <v>221</v>
-      </c>
-      <c r="J52" s="217"/>
+      <c r="D52" s="133" t="s">
+        <v>342</v>
+      </c>
+      <c r="E52" s="156" t="s">
+        <v>78</v>
+      </c>
+      <c r="F52" s="156" t="s">
+        <v>343</v>
+      </c>
+      <c r="G52" s="130" t="s">
+        <v>50</v>
+      </c>
+      <c r="H52" s="130" t="s">
+        <v>50</v>
+      </c>
+      <c r="J52" s="223"/>
       <c r="K52" s="8"/>
       <c r="L52" s="30"/>
       <c r="M52" s="52"/>
@@ -8010,20 +8211,22 @@
       <c r="R52" s="22"/>
     </row>
     <row r="53" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B53" s="210"/>
+      <c r="B53" s="216"/>
       <c r="C53" s="20"/>
-      <c r="D53" s="226"/>
+      <c r="D53" s="131">
+        <v>1050</v>
+      </c>
       <c r="E53" s="131">
-        <v>1200</v>
+        <v>697</v>
       </c>
       <c r="F53" s="131">
-        <v>1091</v>
+        <v>688</v>
       </c>
       <c r="G53" s="131">
-        <v>860</v>
+        <v>1302</v>
       </c>
       <c r="H53" s="131">
-        <v>863</v>
+        <v>819</v>
       </c>
       <c r="J53" s="17"/>
       <c r="K53" s="8"/>
@@ -8033,11 +8236,13 @@
       <c r="R53" s="22"/>
     </row>
     <row r="54" spans="2:18" ht="25.5" customHeight="1">
-      <c r="B54" s="210"/>
-      <c r="C54" s="218" t="s">
+      <c r="B54" s="216"/>
+      <c r="C54" s="224" t="s">
         <v>212</v>
       </c>
-      <c r="D54" s="226"/>
+      <c r="D54" s="154" t="s">
+        <v>50</v>
+      </c>
       <c r="E54" s="154" t="s">
         <v>50</v>
       </c>
@@ -8057,26 +8262,29 @@
       <c r="R54" s="22"/>
     </row>
     <row r="55" spans="2:18" s="57" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B55" s="216"/>
-      <c r="C55" s="219"/>
-      <c r="D55" s="227"/>
+      <c r="B55" s="222"/>
+      <c r="C55" s="225"/>
+      <c r="D55" s="137" t="str">
+        <f>D29</f>
+        <v>오리엔탈&amp;요거트D</v>
+      </c>
       <c r="E55" s="137" t="str">
         <f>E28</f>
-        <v>발사믹D&amp;키위D</v>
+        <v>발사믹&amp;자몽D</v>
       </c>
       <c r="F55" s="137" t="str">
         <f>F29</f>
-        <v>오리엔탈D&amp;시저D</v>
+        <v>오리엔탈&amp;딸기요거트D</v>
       </c>
       <c r="G55" s="155" t="str">
         <f>G29</f>
-        <v>발사믹D&amp;포도D</v>
-      </c>
-      <c r="H55" s="179" t="str">
+        <v>발사믹&amp;한라봉D</v>
+      </c>
+      <c r="H55" s="292" t="str">
         <f>H29</f>
-        <v>오리엔탈D&amp;사우전아일랜드D</v>
-      </c>
-      <c r="J55" s="220" t="s">
+        <v>오리엔탈&amp;사우전아일랜드D</v>
+      </c>
+      <c r="J55" s="226" t="s">
         <v>1</v>
       </c>
       <c r="K55" s="52"/>
@@ -8096,7 +8304,7 @@
       <c r="F56" s="24"/>
       <c r="G56" s="24"/>
       <c r="H56" s="24"/>
-      <c r="J56" s="220"/>
+      <c r="J56" s="226"/>
       <c r="K56" s="59"/>
       <c r="L56" s="8"/>
       <c r="M56" s="52"/>
@@ -8141,7 +8349,7 @@
       <c r="E59" s="126"/>
       <c r="F59" s="127"/>
       <c r="G59" s="126"/>
-      <c r="H59" s="224"/>
+      <c r="H59" s="232"/>
       <c r="K59" s="52"/>
       <c r="L59" s="16"/>
       <c r="M59" s="52"/>
@@ -8151,7 +8359,7 @@
       <c r="E60" s="97"/>
       <c r="F60" s="128"/>
       <c r="G60" s="97"/>
-      <c r="H60" s="224"/>
+      <c r="H60" s="232"/>
       <c r="K60" s="25"/>
       <c r="L60" s="25"/>
       <c r="M60" s="52"/>
@@ -8454,19 +8662,18 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="11">
+    <mergeCell ref="B6:B37"/>
+    <mergeCell ref="J38:J52"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="B38:B55"/>
+    <mergeCell ref="H59:H60"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="J5:J29"/>
     <mergeCell ref="C27:C29"/>
     <mergeCell ref="J30:J33"/>
     <mergeCell ref="C54:C55"/>
     <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B6:B37"/>
-    <mergeCell ref="J38:J52"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="B38:B55"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="D6:D55"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -8487,7 +8694,7 @@
   <dimension ref="A1:V85"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="96" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" customHeight="1"/>
@@ -8515,7 +8722,7 @@
     <row r="1" spans="2:19" ht="12.75" customHeight="1"/>
     <row r="5" spans="2:19" s="17" customFormat="1" ht="24.75" customHeight="1">
       <c r="B5" s="73" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="74"/>
@@ -8592,76 +8799,86 @@
       </c>
     </row>
     <row r="9" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B9" s="230" t="s">
+      <c r="B9" s="260" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="232" t="s">
+      <c r="C9" s="277" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="235" t="s">
+      <c r="D9" s="266" t="s">
         <v>213</v>
       </c>
-      <c r="E9" s="193" t="str">
+      <c r="E9" s="203" t="str">
         <f>주간메뉴표!D6</f>
-        <v>대체공휴일</v>
-      </c>
-      <c r="F9" s="186"/>
-      <c r="G9" s="238"/>
+        <v>부대찌개*라면사리</v>
+      </c>
+      <c r="F9" s="79" t="s">
+        <v>216</v>
+      </c>
+      <c r="G9" s="238">
+        <f>주간메뉴표!D12</f>
+        <v>1245</v>
+      </c>
       <c r="H9" s="147" t="str">
         <f>주간메뉴표!E6</f>
-        <v>한방갈비탕</v>
+        <v>새싹삼,삼계탕</v>
       </c>
       <c r="I9" s="79" t="s">
         <v>216</v>
       </c>
       <c r="J9" s="241">
         <f>주간메뉴표!E12</f>
-        <v>963</v>
+        <v>1394</v>
       </c>
       <c r="K9" s="147" t="str">
         <f>주간메뉴표!F6</f>
-        <v>N기사식당st</v>
+        <v>해물된장찌개</v>
       </c>
       <c r="L9" s="79" t="s">
         <v>216</v>
       </c>
       <c r="M9" s="241">
         <f>주간메뉴표!F12</f>
-        <v>1117</v>
+        <v>1084</v>
       </c>
       <c r="N9" s="147" t="str">
         <f>주간메뉴표!G6</f>
-        <v>쇠고기샤브전골*참깨마늘s</v>
+        <v>돈목살김치찌개</v>
       </c>
       <c r="O9" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="P9" s="247">
+      <c r="P9" s="244">
         <f>주간메뉴표!G12</f>
-        <v>1149</v>
-      </c>
-      <c r="Q9" s="202" t="str">
+        <v>939</v>
+      </c>
+      <c r="Q9" s="185" t="str">
         <f>주간메뉴표!H6</f>
-        <v>닭개장</v>
+        <v>전주식돌솥비빔밥</v>
       </c>
       <c r="R9" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="S9" s="250">
+      <c r="S9" s="258">
         <f>주간메뉴표!H12</f>
-        <v>863</v>
+        <v>907</v>
       </c>
     </row>
     <row r="10" spans="2:19" s="17" customFormat="1" ht="19.5" customHeight="1">
-      <c r="B10" s="231"/>
-      <c r="C10" s="233"/>
-      <c r="D10" s="236"/>
-      <c r="E10" s="194"/>
-      <c r="F10" s="186"/>
+      <c r="B10" s="262"/>
+      <c r="C10" s="278"/>
+      <c r="D10" s="267"/>
+      <c r="E10" s="204" t="str">
+        <f>주간메뉴표!D7</f>
+        <v>오징어커틀렛*타르타르s</v>
+      </c>
+      <c r="F10" s="79" t="s">
+        <v>216</v>
+      </c>
       <c r="G10" s="239"/>
       <c r="H10" s="146" t="str">
         <f>주간메뉴표!E7</f>
-        <v>김치전</v>
+        <v>메추리알어묵조림</v>
       </c>
       <c r="I10" s="79" t="s">
         <v>216</v>
@@ -8669,7 +8886,7 @@
       <c r="J10" s="242"/>
       <c r="K10" s="146" t="str">
         <f>주간메뉴표!F7</f>
-        <v>오삼불고기</v>
+        <v>로스팜계란전</v>
       </c>
       <c r="L10" s="79" t="s">
         <v>216</v>
@@ -8677,31 +8894,36 @@
       <c r="M10" s="242"/>
       <c r="N10" s="146" t="str">
         <f>주간메뉴표!G7</f>
-        <v>부추장떡</v>
+        <v>너비아니구이*미나리생채</v>
       </c>
       <c r="O10" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="P10" s="248"/>
+      <c r="P10" s="245"/>
       <c r="Q10" s="148" t="str">
         <f>주간메뉴표!H7</f>
-        <v>바싹불고기육전*파생채</v>
+        <v>배추된장국</v>
       </c>
       <c r="R10" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="S10" s="251"/>
+      <c r="S10" s="269"/>
     </row>
     <row r="11" spans="2:19" s="17" customFormat="1" ht="19.5" customHeight="1">
-      <c r="B11" s="231"/>
-      <c r="C11" s="233"/>
-      <c r="D11" s="236"/>
-      <c r="E11" s="194"/>
-      <c r="F11" s="186"/>
+      <c r="B11" s="262"/>
+      <c r="C11" s="278"/>
+      <c r="D11" s="267"/>
+      <c r="E11" s="204" t="str">
+        <f>주간메뉴표!D8</f>
+        <v>미니오믈렛*토마토피자s</v>
+      </c>
+      <c r="F11" s="79" t="s">
+        <v>216</v>
+      </c>
       <c r="G11" s="239"/>
       <c r="H11" s="146" t="str">
         <f>주간메뉴표!E8</f>
-        <v>메추리알장조림</v>
+        <v>숙주미나리나물</v>
       </c>
       <c r="I11" s="79" t="s">
         <v>216</v>
@@ -8709,7 +8931,7 @@
       <c r="J11" s="242"/>
       <c r="K11" s="146" t="str">
         <f>주간메뉴표!F8</f>
-        <v>비빔그릇(상추,김가루,날치알)</v>
+        <v>사각어묵볶음</v>
       </c>
       <c r="L11" s="79" t="s">
         <v>216</v>
@@ -8717,63 +8939,71 @@
       <c r="M11" s="242"/>
       <c r="N11" s="146" t="str">
         <f>주간메뉴표!G8</f>
-        <v>환어묵볶음</v>
+        <v>옥수수전</v>
       </c>
       <c r="O11" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="P11" s="248"/>
+      <c r="P11" s="245"/>
       <c r="Q11" s="148" t="str">
         <f>주간메뉴표!H8</f>
-        <v>청포묵김가루무침</v>
-      </c>
-      <c r="R11" s="79"/>
-      <c r="S11" s="251"/>
+        <v>동태전</v>
+      </c>
+      <c r="R11" s="79" t="s">
+        <v>216</v>
+      </c>
+      <c r="S11" s="269"/>
     </row>
     <row r="12" spans="2:19" s="17" customFormat="1" ht="35.25" customHeight="1">
-      <c r="B12" s="231"/>
-      <c r="C12" s="233"/>
-      <c r="D12" s="236"/>
-      <c r="E12" s="194"/>
-      <c r="F12" s="186"/>
+      <c r="B12" s="262"/>
+      <c r="C12" s="278"/>
+      <c r="D12" s="267"/>
+      <c r="E12" s="204" t="str">
+        <f>주간메뉴표!D9</f>
+        <v>도시락김</v>
+      </c>
+      <c r="F12" s="179"/>
       <c r="G12" s="239"/>
       <c r="H12" s="146" t="str">
         <f>주간메뉴표!E9</f>
-        <v>양파고추간장절임</v>
+        <v>고추장멸치볶음</v>
       </c>
       <c r="I12" s="79"/>
       <c r="J12" s="242"/>
       <c r="K12" s="146" t="str">
         <f>주간메뉴표!F9</f>
-        <v>된장찌개/계란찜</v>
-      </c>
-      <c r="L12" s="79" t="s">
-        <v>216</v>
-      </c>
+        <v>무말랭이무침</v>
+      </c>
+      <c r="L12" s="79"/>
       <c r="M12" s="242"/>
       <c r="N12" s="146" t="str">
         <f>주간메뉴표!G9</f>
-        <v>궁채절임</v>
+        <v>파래자반</v>
       </c>
       <c r="O12" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="P12" s="248"/>
+      <c r="P12" s="245"/>
       <c r="Q12" s="148" t="str">
         <f>주간메뉴표!H9</f>
-        <v>참나물생채</v>
+        <v>땅콩조림</v>
       </c>
       <c r="R12" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="S12" s="251"/>
+      <c r="S12" s="269"/>
     </row>
     <row r="13" spans="2:19" s="27" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B13" s="231"/>
-      <c r="C13" s="233"/>
-      <c r="D13" s="236"/>
-      <c r="E13" s="194"/>
-      <c r="F13" s="186"/>
+      <c r="B13" s="262"/>
+      <c r="C13" s="278"/>
+      <c r="D13" s="267"/>
+      <c r="E13" s="204" t="str">
+        <f>주간메뉴표!D10</f>
+        <v>깍두기/잡곡밥</v>
+      </c>
+      <c r="F13" s="79" t="s">
+        <v>216</v>
+      </c>
       <c r="G13" s="239"/>
       <c r="H13" s="146" t="str">
         <f>주간메뉴표!E10</f>
@@ -8785,7 +9015,7 @@
       <c r="J13" s="242"/>
       <c r="K13" s="146" t="str">
         <f>주간메뉴표!F10</f>
-        <v>콩나물무침/깍두기</v>
+        <v>포기김치/잡곡밥</v>
       </c>
       <c r="L13" s="79" t="s">
         <v>216</v>
@@ -8793,27 +9023,30 @@
       <c r="M13" s="242"/>
       <c r="N13" s="146" t="str">
         <f>주간메뉴표!G10</f>
-        <v>포기김치/잡곡밥</v>
+        <v>깍두기/잡곡밥</v>
       </c>
       <c r="O13" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="P13" s="248"/>
+      <c r="P13" s="245"/>
       <c r="Q13" s="148" t="str">
         <f>주간메뉴표!H10</f>
-        <v>포기김치/잡곡밥</v>
+        <v>깍두기</v>
       </c>
       <c r="R13" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="S13" s="251"/>
+      <c r="S13" s="269"/>
     </row>
     <row r="14" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B14" s="231"/>
-      <c r="C14" s="234"/>
-      <c r="D14" s="237"/>
-      <c r="E14" s="194"/>
-      <c r="F14" s="186"/>
+      <c r="B14" s="262"/>
+      <c r="C14" s="287"/>
+      <c r="D14" s="268"/>
+      <c r="E14" s="204" t="str">
+        <f>주간메뉴표!D11</f>
+        <v>그린샐러드</v>
+      </c>
+      <c r="F14" s="179"/>
       <c r="G14" s="240"/>
       <c r="H14" s="146" t="str">
         <f>주간메뉴표!E11</f>
@@ -8832,80 +9065,93 @@
         <v>그린샐러드</v>
       </c>
       <c r="O14" s="79"/>
-      <c r="P14" s="249"/>
+      <c r="P14" s="246"/>
       <c r="Q14" s="148" t="str">
         <f>주간메뉴표!H11</f>
         <v>그린샐러드</v>
       </c>
-      <c r="R14" s="187"/>
-      <c r="S14" s="252"/>
+      <c r="R14" s="179"/>
+      <c r="S14" s="259"/>
     </row>
     <row r="15" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B15" s="231"/>
-      <c r="C15" s="253" t="s">
+      <c r="B15" s="262"/>
+      <c r="C15" s="286" t="s">
         <v>214</v>
       </c>
-      <c r="D15" s="235" t="s">
+      <c r="D15" s="266" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="193"/>
-      <c r="F15" s="186"/>
-      <c r="G15" s="238"/>
+      <c r="E15" s="203" t="str">
+        <f>주간메뉴표!D13</f>
+        <v>N우삼겹시래기국수</v>
+      </c>
+      <c r="F15" s="79" t="s">
+        <v>216</v>
+      </c>
+      <c r="G15" s="238">
+        <f>주간메뉴표!D19</f>
+        <v>948</v>
+      </c>
       <c r="H15" s="147" t="str">
         <f>주간메뉴표!E13</f>
-        <v>월드셰프_탄두리&amp;토마토커리</v>
+        <v>샘밭막국수</v>
       </c>
       <c r="I15" s="79" t="s">
         <v>216</v>
       </c>
       <c r="J15" s="241">
         <f>주간메뉴표!E19</f>
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="K15" s="147" t="str">
         <f>주간메뉴표!F13</f>
-        <v>추억의도시락</v>
+        <v>간자장*계란후라이(2&amp;3)</v>
       </c>
       <c r="L15" s="79" t="s">
         <v>216</v>
       </c>
       <c r="M15" s="241">
         <f>주간메뉴표!F19</f>
-        <v>1296</v>
+        <v>1171</v>
       </c>
       <c r="N15" s="147" t="str">
         <f>주간메뉴표!G13</f>
-        <v>우볶이(우동떡볶이)</v>
+        <v>팟타이</v>
       </c>
       <c r="O15" s="79" t="s">
         <v>216</v>
       </c>
       <c r="P15" s="241">
         <f>주간메뉴표!G19</f>
-        <v>1232</v>
-      </c>
-      <c r="Q15" s="202" t="str">
+        <v>748</v>
+      </c>
+      <c r="Q15" s="185" t="str">
         <f>주간메뉴표!H13</f>
-        <v>베이컨퀘사디아&amp;시저샐러드</v>
+        <v>N동파육탕면</v>
       </c>
       <c r="R15" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="S15" s="250">
+      <c r="S15" s="258">
         <f>주간메뉴표!H19</f>
-        <v>1151</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="16" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B16" s="231"/>
-      <c r="C16" s="233"/>
-      <c r="D16" s="236"/>
-      <c r="E16" s="194"/>
-      <c r="F16" s="186"/>
+      <c r="B16" s="262"/>
+      <c r="C16" s="278"/>
+      <c r="D16" s="267"/>
+      <c r="E16" s="204" t="str">
+        <f>주간메뉴표!D14</f>
+        <v>두부계란전</v>
+      </c>
+      <c r="F16" s="79" t="s">
+        <v>216</v>
+      </c>
       <c r="G16" s="239"/>
       <c r="H16" s="146" t="str">
         <f>주간메뉴표!E14</f>
-        <v>갈릭버터난&amp;새우너겟꼬치</v>
+        <v>쪽갈비구이&amp;김가루주먹밥</v>
       </c>
       <c r="I16" s="79" t="s">
         <v>216</v>
@@ -8913,7 +9159,7 @@
       <c r="J16" s="242"/>
       <c r="K16" s="146" t="str">
         <f>주간메뉴표!F14</f>
-        <v>곰돌이가츠</v>
+        <v>짬뽕국물</v>
       </c>
       <c r="L16" s="79" t="s">
         <v>216</v>
@@ -8921,7 +9167,7 @@
       <c r="M16" s="242"/>
       <c r="N16" s="146" t="str">
         <f>주간메뉴표!G14</f>
-        <v>우동국물</v>
+        <v>쌀국수장국</v>
       </c>
       <c r="O16" s="79" t="s">
         <v>216</v>
@@ -8929,23 +9175,28 @@
       <c r="P16" s="242"/>
       <c r="Q16" s="148" t="str">
         <f>주간메뉴표!H14</f>
-        <v>그릴드소시지&amp;감자튀김</v>
+        <v>깐풍만두</v>
       </c>
       <c r="R16" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="S16" s="251"/>
+      <c r="S16" s="269"/>
     </row>
     <row r="17" spans="1:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B17" s="231"/>
-      <c r="C17" s="233"/>
-      <c r="D17" s="236"/>
-      <c r="E17" s="194"/>
-      <c r="F17" s="186"/>
+      <c r="B17" s="262"/>
+      <c r="C17" s="278"/>
+      <c r="D17" s="267"/>
+      <c r="E17" s="204" t="str">
+        <f>주간메뉴표!D15</f>
+        <v>도라지오이무침</v>
+      </c>
+      <c r="F17" s="79" t="s">
+        <v>216</v>
+      </c>
       <c r="G17" s="239"/>
       <c r="H17" s="146" t="str">
         <f>주간메뉴표!E15</f>
-        <v>인도식토마토오이샐러드</v>
+        <v>감자채전*부추생채</v>
       </c>
       <c r="I17" s="79" t="s">
         <v>216</v>
@@ -8953,7 +9204,7 @@
       <c r="J17" s="242"/>
       <c r="K17" s="146" t="str">
         <f>주간메뉴표!F15</f>
-        <v>컵라면</v>
+        <v>인절미탕수육</v>
       </c>
       <c r="L17" s="79" t="s">
         <v>216</v>
@@ -8961,7 +9212,7 @@
       <c r="M17" s="242"/>
       <c r="N17" s="146" t="str">
         <f>주간메뉴표!G15</f>
-        <v>포자만두찜</v>
+        <v>고구마&amp;새우넷롤</v>
       </c>
       <c r="O17" s="79" t="s">
         <v>216</v>
@@ -8969,23 +9220,28 @@
       <c r="P17" s="242"/>
       <c r="Q17" s="148" t="str">
         <f>주간메뉴표!H15</f>
-        <v>콘샐러드/사워s/살사s</v>
+        <v>단무지</v>
       </c>
       <c r="R17" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="S17" s="251"/>
+      <c r="S17" s="269"/>
     </row>
     <row r="18" spans="1:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B18" s="231"/>
-      <c r="C18" s="233"/>
-      <c r="D18" s="236"/>
-      <c r="E18" s="194"/>
-      <c r="F18" s="186"/>
+      <c r="B18" s="262"/>
+      <c r="C18" s="278"/>
+      <c r="D18" s="267"/>
+      <c r="E18" s="204" t="str">
+        <f>주간메뉴표!D16</f>
+        <v>배추겉절이</v>
+      </c>
+      <c r="F18" s="79" t="s">
+        <v>216</v>
+      </c>
       <c r="G18" s="239"/>
       <c r="H18" s="146" t="str">
         <f>주간메뉴표!E16</f>
-        <v>망고라씨</v>
+        <v>백김치</v>
       </c>
       <c r="I18" s="79" t="s">
         <v>216</v>
@@ -8993,7 +9249,7 @@
       <c r="J18" s="242"/>
       <c r="K18" s="146" t="str">
         <f>주간메뉴표!F16</f>
-        <v>단무지</v>
+        <v>미니계란볶음밥</v>
       </c>
       <c r="L18" s="79" t="s">
         <v>216</v>
@@ -9001,7 +9257,7 @@
       <c r="M18" s="242"/>
       <c r="N18" s="146" t="str">
         <f>주간메뉴표!G16</f>
-        <v>유부초밥*스리라차마요s</v>
+        <v>양파초절임</v>
       </c>
       <c r="O18" s="79" t="s">
         <v>216</v>
@@ -9009,17 +9265,22 @@
       <c r="P18" s="242"/>
       <c r="Q18" s="148" t="str">
         <f>주간메뉴표!H16</f>
-        <v>무비트피클</v>
-      </c>
-      <c r="R18" s="187"/>
-      <c r="S18" s="251"/>
+        <v>배추김치</v>
+      </c>
+      <c r="R18" s="79" t="s">
+        <v>216</v>
+      </c>
+      <c r="S18" s="269"/>
     </row>
     <row r="19" spans="1:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B19" s="231"/>
-      <c r="C19" s="233"/>
-      <c r="D19" s="236"/>
-      <c r="E19" s="194"/>
-      <c r="F19" s="186"/>
+      <c r="B19" s="262"/>
+      <c r="C19" s="278"/>
+      <c r="D19" s="267"/>
+      <c r="E19" s="204" t="str">
+        <f>주간메뉴표!D17</f>
+        <v>미니잡곡밥</v>
+      </c>
+      <c r="F19" s="179"/>
       <c r="G19" s="239"/>
       <c r="H19" s="146" t="str">
         <f>주간메뉴표!E17</f>
@@ -9029,13 +9290,15 @@
       <c r="J19" s="242"/>
       <c r="K19" s="146" t="str">
         <f>주간메뉴표!F17</f>
-        <v>그린샐러드</v>
-      </c>
-      <c r="L19" s="79"/>
+        <v>단무지</v>
+      </c>
+      <c r="L19" s="79" t="s">
+        <v>216</v>
+      </c>
       <c r="M19" s="242"/>
       <c r="N19" s="146" t="str">
         <f>주간메뉴표!G17</f>
-        <v>단무지</v>
+        <v>깍두기</v>
       </c>
       <c r="O19" s="79" t="s">
         <v>216</v>
@@ -9043,17 +9306,20 @@
       <c r="P19" s="242"/>
       <c r="Q19" s="148" t="str">
         <f>주간메뉴표!H17</f>
-        <v>탄산음료</v>
-      </c>
-      <c r="R19" s="187"/>
-      <c r="S19" s="251"/>
+        <v>쌀밥</v>
+      </c>
+      <c r="R19" s="179"/>
+      <c r="S19" s="269"/>
     </row>
     <row r="20" spans="1:19" s="27" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B20" s="231"/>
-      <c r="C20" s="233"/>
-      <c r="D20" s="236"/>
-      <c r="E20" s="194"/>
-      <c r="F20" s="186"/>
+      <c r="B20" s="262"/>
+      <c r="C20" s="278"/>
+      <c r="D20" s="267"/>
+      <c r="E20" s="204" t="str">
+        <f>주간메뉴표!D18</f>
+        <v>그린샐러드</v>
+      </c>
+      <c r="F20" s="179"/>
       <c r="G20" s="239"/>
       <c r="H20" s="146">
         <f>주간메뉴표!E18</f>
@@ -9061,9 +9327,9 @@
       </c>
       <c r="I20" s="79"/>
       <c r="J20" s="242"/>
-      <c r="K20" s="146">
+      <c r="K20" s="146" t="str">
         <f>주간메뉴표!F18</f>
-        <v>0</v>
+        <v>그린샐러드</v>
       </c>
       <c r="L20" s="79"/>
       <c r="M20" s="242"/>
@@ -9077,83 +9343,94 @@
         <f>주간메뉴표!H18</f>
         <v>그린샐러드</v>
       </c>
-      <c r="R20" s="187"/>
-      <c r="S20" s="251"/>
+      <c r="R20" s="179"/>
+      <c r="S20" s="269"/>
     </row>
     <row r="21" spans="1:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B21" s="231"/>
-      <c r="C21" s="232" t="s">
+      <c r="B21" s="262"/>
+      <c r="C21" s="277" t="s">
         <v>217</v>
       </c>
-      <c r="D21" s="235" t="s">
+      <c r="D21" s="266" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="193"/>
-      <c r="F21" s="186"/>
-      <c r="G21" s="238"/>
+      <c r="E21" s="203" t="str">
+        <f>주간메뉴표!D20</f>
+        <v>매운족발볶음밥*후라이</v>
+      </c>
+      <c r="F21" s="79" t="s">
+        <v>216</v>
+      </c>
+      <c r="G21" s="238">
+        <f>주간메뉴표!D26</f>
+        <v>890</v>
+      </c>
       <c r="H21" s="147" t="str">
         <f>주간메뉴표!E20</f>
-        <v>치즈폭포버거</v>
+        <v>(철판)Port629화지타</v>
       </c>
       <c r="I21" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="J21" s="244">
+      <c r="J21" s="288">
         <f>주간메뉴표!E26</f>
-        <v>1190</v>
+        <v>816</v>
       </c>
       <c r="K21" s="147" t="str">
         <f>주간메뉴표!F20</f>
-        <v>철판소고기야끼소바*후라이</v>
+        <v>우삼겹명란마요덮밥</v>
       </c>
       <c r="L21" s="79" t="s">
         <v>216</v>
       </c>
       <c r="M21" s="241">
         <f>주간메뉴표!F26</f>
-        <v>884</v>
+        <v>740</v>
       </c>
       <c r="N21" s="147" t="str">
         <f>주간메뉴표!G20</f>
-        <v>쉬림프바질페스토리조또</v>
+        <v>N닭다리살고추장양념구이덮밥</v>
       </c>
       <c r="O21" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="P21" s="247">
+      <c r="P21" s="244">
         <f>주간메뉴표!G26</f>
-        <v>1296</v>
-      </c>
-      <c r="Q21" s="202" t="str">
+        <v>1079</v>
+      </c>
+      <c r="Q21" s="185" t="str">
         <f>주간메뉴표!H20</f>
-        <v>삼겹김치덮밥</v>
+        <v>철판함박샥슈카</v>
       </c>
       <c r="R21" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="S21" s="250">
+      <c r="S21" s="258">
         <f>주간메뉴표!H26</f>
-        <v>1246</v>
+        <v>897</v>
       </c>
     </row>
     <row r="22" spans="1:19" s="17" customFormat="1" ht="33" customHeight="1">
-      <c r="B22" s="231"/>
-      <c r="C22" s="233"/>
-      <c r="D22" s="236"/>
-      <c r="E22" s="194"/>
-      <c r="F22" s="186"/>
+      <c r="B22" s="262"/>
+      <c r="C22" s="278"/>
+      <c r="D22" s="267"/>
+      <c r="E22" s="204" t="str">
+        <f>주간메뉴표!D21</f>
+        <v>콩나물국</v>
+      </c>
+      <c r="F22" s="179"/>
       <c r="G22" s="239"/>
       <c r="H22" s="146" t="str">
         <f>주간메뉴표!E21</f>
-        <v>버팔로봉&amp;감자튀김</v>
+        <v>&amp;또띠아&amp;야채볶음밥</v>
       </c>
       <c r="I22" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="J22" s="245"/>
+      <c r="J22" s="289"/>
       <c r="K22" s="146" t="str">
         <f>주간메뉴표!F21</f>
-        <v>미소장국</v>
+        <v>버섯장국</v>
       </c>
       <c r="L22" s="79" t="s">
         <v>216</v>
@@ -9161,40 +9438,45 @@
       <c r="M22" s="242"/>
       <c r="N22" s="146" t="str">
         <f>주간메뉴표!G21</f>
-        <v>페퍼로니치아바타피자</v>
+        <v>대파장국</v>
       </c>
       <c r="O22" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="P22" s="248"/>
+      <c r="P22" s="245"/>
       <c r="Q22" s="148" t="str">
         <f>주간메뉴표!H21</f>
-        <v>계란국</v>
-      </c>
-      <c r="R22" s="79" t="s">
-        <v>216</v>
-      </c>
-      <c r="S22" s="251"/>
+        <v>┗토마토소스에 함박과계란을 넣어만든 스튜</v>
+      </c>
+      <c r="R22" s="79"/>
+      <c r="S22" s="269"/>
     </row>
     <row r="23" spans="1:19" s="17" customFormat="1" ht="30" customHeight="1">
       <c r="A23" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="231"/>
-      <c r="C23" s="233"/>
-      <c r="D23" s="236"/>
-      <c r="E23" s="194"/>
-      <c r="F23" s="186"/>
+      <c r="B23" s="262"/>
+      <c r="C23" s="278"/>
+      <c r="D23" s="267"/>
+      <c r="E23" s="204" t="str">
+        <f>주간메뉴표!D22</f>
+        <v>오징어문어핫바</v>
+      </c>
+      <c r="F23" s="79" t="s">
+        <v>216</v>
+      </c>
       <c r="G23" s="239"/>
       <c r="H23" s="146" t="str">
         <f>주간메뉴표!E22</f>
-        <v>수제피클&amp;할라피뇨</v>
-      </c>
-      <c r="I23" s="79"/>
-      <c r="J23" s="245"/>
+        <v>소스3종(사워,칠리,과콰몰)</v>
+      </c>
+      <c r="I23" s="79" t="s">
+        <v>216</v>
+      </c>
+      <c r="J23" s="289"/>
       <c r="K23" s="146" t="str">
         <f>주간메뉴표!F22</f>
-        <v>왕교자튀김</v>
+        <v>채소춘권</v>
       </c>
       <c r="L23" s="79" t="s">
         <v>216</v>
@@ -9202,71 +9484,81 @@
       <c r="M23" s="242"/>
       <c r="N23" s="146" t="str">
         <f>주간메뉴표!G22</f>
-        <v>피클&amp;할라피뇨</v>
-      </c>
-      <c r="O23" s="79"/>
-      <c r="P23" s="248"/>
+        <v>지마구튀김</v>
+      </c>
+      <c r="O23" s="79" t="s">
+        <v>216</v>
+      </c>
+      <c r="P23" s="245"/>
       <c r="Q23" s="148" t="str">
         <f>주간메뉴표!H22</f>
-        <v>단호박부꾸미</v>
+        <v>바게트&amp;치아바타</v>
       </c>
       <c r="R23" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="S23" s="251"/>
+      <c r="S23" s="269"/>
     </row>
     <row r="24" spans="1:19" s="17" customFormat="1" ht="28.5" customHeight="1">
-      <c r="B24" s="231"/>
-      <c r="C24" s="233"/>
-      <c r="D24" s="236"/>
-      <c r="E24" s="194"/>
-      <c r="F24" s="186"/>
+      <c r="B24" s="262"/>
+      <c r="C24" s="278"/>
+      <c r="D24" s="267"/>
+      <c r="E24" s="204" t="str">
+        <f>주간메뉴표!D23</f>
+        <v>오이맛고추쌈장무침</v>
+      </c>
+      <c r="F24" s="79" t="s">
+        <v>216</v>
+      </c>
       <c r="G24" s="239"/>
       <c r="H24" s="146" t="str">
         <f>주간메뉴표!E23</f>
-        <v>탄산음료</v>
+        <v>할라피뇨</v>
       </c>
       <c r="I24" s="79"/>
-      <c r="J24" s="245"/>
+      <c r="J24" s="289"/>
       <c r="K24" s="146" t="str">
         <f>주간메뉴표!F23</f>
-        <v>락교&amp;생강</v>
-      </c>
-      <c r="L24" s="79" t="s">
-        <v>216</v>
-      </c>
+        <v>락교&amp;산고추</v>
+      </c>
+      <c r="L24" s="79"/>
       <c r="M24" s="242"/>
       <c r="N24" s="146" t="str">
         <f>주간메뉴표!G23</f>
-        <v>탄산음료</v>
-      </c>
-      <c r="O24" s="79"/>
-      <c r="P24" s="248"/>
+        <v>콘샐러드</v>
+      </c>
+      <c r="O24" s="79" t="s">
+        <v>216</v>
+      </c>
+      <c r="P24" s="245"/>
       <c r="Q24" s="148" t="str">
         <f>주간메뉴표!H23</f>
-        <v>대파김치</v>
-      </c>
-      <c r="R24" s="79" t="s">
-        <v>216</v>
-      </c>
-      <c r="S24" s="251"/>
+        <v>무비트피클</v>
+      </c>
+      <c r="R24" s="79"/>
+      <c r="S24" s="269"/>
     </row>
     <row r="25" spans="1:19" s="17" customFormat="1" ht="30.75" customHeight="1">
-      <c r="B25" s="231"/>
-      <c r="C25" s="233"/>
-      <c r="D25" s="236"/>
-      <c r="E25" s="194"/>
-      <c r="F25" s="186"/>
+      <c r="B25" s="262"/>
+      <c r="C25" s="278"/>
+      <c r="D25" s="267"/>
+      <c r="E25" s="204" t="str">
+        <f>주간메뉴표!D24</f>
+        <v>백김치</v>
+      </c>
+      <c r="F25" s="79" t="s">
+        <v>216</v>
+      </c>
       <c r="G25" s="239"/>
       <c r="H25" s="146" t="str">
         <f>주간메뉴표!E24</f>
-        <v>그린샐러드</v>
+        <v>탄산음료</v>
       </c>
       <c r="I25" s="79"/>
-      <c r="J25" s="245"/>
+      <c r="J25" s="289"/>
       <c r="K25" s="146" t="str">
         <f>주간메뉴표!F24</f>
-        <v>배추김치</v>
+        <v>깍두기</v>
       </c>
       <c r="L25" s="79" t="s">
         <v>216</v>
@@ -9274,30 +9566,32 @@
       <c r="M25" s="242"/>
       <c r="N25" s="146" t="str">
         <f>주간메뉴표!G24</f>
-        <v>그린샐러드</v>
-      </c>
-      <c r="O25" s="79"/>
-      <c r="P25" s="248"/>
+        <v>백김치</v>
+      </c>
+      <c r="O25" s="79" t="s">
+        <v>216</v>
+      </c>
+      <c r="P25" s="245"/>
       <c r="Q25" s="148" t="str">
         <f>주간메뉴표!H24</f>
-        <v>그린샐러드</v>
-      </c>
-      <c r="R25" s="187"/>
-      <c r="S25" s="251"/>
+        <v>탄산음료</v>
+      </c>
+      <c r="R25" s="179"/>
+      <c r="S25" s="269"/>
     </row>
     <row r="26" spans="1:19" s="17" customFormat="1" ht="33.75" hidden="1" customHeight="1">
-      <c r="B26" s="231"/>
-      <c r="C26" s="233"/>
-      <c r="D26" s="236"/>
-      <c r="E26" s="194"/>
-      <c r="F26" s="186"/>
+      <c r="B26" s="262"/>
+      <c r="C26" s="278"/>
+      <c r="D26" s="267"/>
+      <c r="E26" s="204"/>
+      <c r="F26" s="179"/>
       <c r="G26" s="239"/>
       <c r="H26" s="148">
         <f>[1]주간메뉴표!E25</f>
         <v>0</v>
       </c>
       <c r="I26" s="79"/>
-      <c r="J26" s="245"/>
+      <c r="J26" s="289"/>
       <c r="K26" s="146">
         <f>[1]주간메뉴표!F25</f>
         <v>0</v>
@@ -9309,24 +9603,24 @@
         <v>그린샐러드</v>
       </c>
       <c r="O26" s="79"/>
-      <c r="P26" s="248"/>
+      <c r="P26" s="245"/>
       <c r="Q26" s="148"/>
-      <c r="R26" s="187"/>
-      <c r="S26" s="251"/>
+      <c r="R26" s="179"/>
+      <c r="S26" s="269"/>
     </row>
     <row r="27" spans="1:19" s="17" customFormat="1" ht="20.25" hidden="1" customHeight="1">
-      <c r="B27" s="231"/>
-      <c r="C27" s="234"/>
-      <c r="D27" s="237"/>
-      <c r="E27" s="194"/>
-      <c r="F27" s="186"/>
+      <c r="B27" s="262"/>
+      <c r="C27" s="287"/>
+      <c r="D27" s="268"/>
+      <c r="E27" s="204"/>
+      <c r="F27" s="179"/>
       <c r="G27" s="240"/>
       <c r="H27" s="148" t="e">
         <f>[1]주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="I27" s="79"/>
-      <c r="J27" s="246"/>
+      <c r="J27" s="290"/>
       <c r="K27" s="146" t="e">
         <f>[1]주간메뉴표!#REF!</f>
         <v>#REF!</v>
@@ -9338,17 +9632,17 @@
         <v>#REF!</v>
       </c>
       <c r="O27" s="79"/>
-      <c r="P27" s="249"/>
+      <c r="P27" s="246"/>
       <c r="Q27" s="148"/>
-      <c r="R27" s="187"/>
-      <c r="S27" s="252"/>
+      <c r="R27" s="179"/>
+      <c r="S27" s="259"/>
     </row>
     <row r="28" spans="1:19" s="44" customFormat="1" ht="20.25" hidden="1" customHeight="1">
-      <c r="B28" s="231"/>
+      <c r="B28" s="262"/>
       <c r="C28" s="135"/>
-      <c r="D28" s="235"/>
-      <c r="E28" s="195"/>
-      <c r="F28" s="186"/>
+      <c r="D28" s="266"/>
+      <c r="E28" s="205"/>
+      <c r="F28" s="179"/>
       <c r="G28" s="238"/>
       <c r="H28" s="149"/>
       <c r="I28" s="79"/>
@@ -9361,20 +9655,20 @@
       <c r="M28" s="241"/>
       <c r="N28" s="149"/>
       <c r="O28" s="79"/>
-      <c r="P28" s="247"/>
-      <c r="Q28" s="188" t="e">
+      <c r="P28" s="244"/>
+      <c r="Q28" s="180" t="e">
         <f>[1]주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="R28" s="187"/>
-      <c r="S28" s="250"/>
+      <c r="R28" s="179"/>
+      <c r="S28" s="258"/>
     </row>
     <row r="29" spans="1:19" s="17" customFormat="1" ht="20.25" hidden="1" customHeight="1">
-      <c r="B29" s="231"/>
+      <c r="B29" s="262"/>
       <c r="C29" s="135"/>
-      <c r="D29" s="236"/>
-      <c r="E29" s="196"/>
-      <c r="F29" s="186"/>
+      <c r="D29" s="267"/>
+      <c r="E29" s="206"/>
+      <c r="F29" s="179"/>
       <c r="G29" s="239"/>
       <c r="H29" s="150"/>
       <c r="I29" s="79"/>
@@ -9384,20 +9678,20 @@
       <c r="M29" s="242"/>
       <c r="N29" s="150"/>
       <c r="O29" s="79"/>
-      <c r="P29" s="248"/>
-      <c r="Q29" s="189" t="e">
+      <c r="P29" s="245"/>
+      <c r="Q29" s="181" t="e">
         <f>[1]주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="R29" s="187"/>
-      <c r="S29" s="251"/>
+      <c r="R29" s="179"/>
+      <c r="S29" s="269"/>
     </row>
     <row r="30" spans="1:19" s="17" customFormat="1" ht="20.25" hidden="1" customHeight="1">
-      <c r="B30" s="231"/>
+      <c r="B30" s="262"/>
       <c r="C30" s="135"/>
-      <c r="D30" s="236"/>
-      <c r="E30" s="196"/>
-      <c r="F30" s="186"/>
+      <c r="D30" s="267"/>
+      <c r="E30" s="206"/>
+      <c r="F30" s="179"/>
       <c r="G30" s="239"/>
       <c r="H30" s="150"/>
       <c r="I30" s="79"/>
@@ -9407,20 +9701,20 @@
       <c r="M30" s="242"/>
       <c r="N30" s="150"/>
       <c r="O30" s="79"/>
-      <c r="P30" s="248"/>
-      <c r="Q30" s="189" t="e">
+      <c r="P30" s="245"/>
+      <c r="Q30" s="181" t="e">
         <f>[1]주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="R30" s="187"/>
-      <c r="S30" s="251"/>
+      <c r="R30" s="179"/>
+      <c r="S30" s="269"/>
     </row>
     <row r="31" spans="1:19" s="17" customFormat="1" ht="20.25" hidden="1" customHeight="1">
-      <c r="B31" s="231"/>
+      <c r="B31" s="262"/>
       <c r="C31" s="135"/>
-      <c r="D31" s="236"/>
-      <c r="E31" s="196"/>
-      <c r="F31" s="186"/>
+      <c r="D31" s="267"/>
+      <c r="E31" s="206"/>
+      <c r="F31" s="179"/>
       <c r="G31" s="239"/>
       <c r="H31" s="150"/>
       <c r="I31" s="79"/>
@@ -9430,20 +9724,20 @@
       <c r="M31" s="242"/>
       <c r="N31" s="150"/>
       <c r="O31" s="79"/>
-      <c r="P31" s="248"/>
-      <c r="Q31" s="189" t="e">
+      <c r="P31" s="245"/>
+      <c r="Q31" s="181" t="e">
         <f>[1]주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="R31" s="187"/>
-      <c r="S31" s="251"/>
+      <c r="R31" s="179"/>
+      <c r="S31" s="269"/>
     </row>
     <row r="32" spans="1:19" s="17" customFormat="1" ht="20.25" hidden="1" customHeight="1">
-      <c r="B32" s="231"/>
+      <c r="B32" s="262"/>
       <c r="C32" s="135"/>
-      <c r="D32" s="236"/>
-      <c r="E32" s="196"/>
-      <c r="F32" s="186"/>
+      <c r="D32" s="267"/>
+      <c r="E32" s="206"/>
+      <c r="F32" s="179"/>
       <c r="G32" s="239"/>
       <c r="H32" s="150"/>
       <c r="I32" s="79"/>
@@ -9453,20 +9747,20 @@
       <c r="M32" s="242"/>
       <c r="N32" s="150"/>
       <c r="O32" s="79"/>
-      <c r="P32" s="248"/>
-      <c r="Q32" s="189" t="e">
+      <c r="P32" s="245"/>
+      <c r="Q32" s="181" t="e">
         <f>[1]주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="R32" s="187"/>
-      <c r="S32" s="251"/>
+      <c r="R32" s="179"/>
+      <c r="S32" s="269"/>
     </row>
     <row r="33" spans="2:19" s="17" customFormat="1" ht="20.25" hidden="1" customHeight="1">
-      <c r="B33" s="231"/>
+      <c r="B33" s="262"/>
       <c r="C33" s="136"/>
-      <c r="D33" s="237"/>
-      <c r="E33" s="196"/>
-      <c r="F33" s="186"/>
+      <c r="D33" s="268"/>
+      <c r="E33" s="206"/>
+      <c r="F33" s="179"/>
       <c r="G33" s="240"/>
       <c r="H33" s="150"/>
       <c r="I33" s="79"/>
@@ -9476,30 +9770,35 @@
       <c r="M33" s="243"/>
       <c r="N33" s="150"/>
       <c r="O33" s="79"/>
-      <c r="P33" s="249"/>
-      <c r="Q33" s="189"/>
-      <c r="R33" s="187"/>
-      <c r="S33" s="252"/>
+      <c r="P33" s="246"/>
+      <c r="Q33" s="181"/>
+      <c r="R33" s="179"/>
+      <c r="S33" s="259"/>
     </row>
     <row r="34" spans="2:19" s="27" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B34" s="231"/>
-      <c r="C34" s="232" t="s">
+      <c r="B34" s="262"/>
+      <c r="C34" s="277" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="254" t="s">
+      <c r="D34" s="250" t="s">
         <v>34</v>
       </c>
-      <c r="E34" s="197"/>
-      <c r="F34" s="186"/>
-      <c r="G34" s="269"/>
+      <c r="E34" s="207" t="str">
+        <f>주간메뉴표!D27</f>
+        <v>볶음김치</v>
+      </c>
+      <c r="F34" s="79" t="s">
+        <v>216</v>
+      </c>
+      <c r="G34" s="283"/>
       <c r="H34" s="151" t="str">
         <f>주간메뉴표!E27</f>
-        <v>파김치</v>
+        <v>백김치</v>
       </c>
       <c r="I34" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="J34" s="272"/>
+      <c r="J34" s="283"/>
       <c r="K34" s="151" t="str">
         <f>주간메뉴표!F27</f>
         <v>볶음김치</v>
@@ -9507,15 +9806,15 @@
       <c r="L34" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="M34" s="272"/>
+      <c r="M34" s="283"/>
       <c r="N34" s="151" t="str">
         <f>주간메뉴표!G27</f>
-        <v>파김치</v>
+        <v>백김치</v>
       </c>
       <c r="O34" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="P34" s="272"/>
+      <c r="P34" s="283"/>
       <c r="Q34" s="152" t="str">
         <f>주간메뉴표!H27</f>
         <v>볶음김치</v>
@@ -9523,293 +9822,332 @@
       <c r="R34" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="S34" s="254"/>
+      <c r="S34" s="250"/>
     </row>
     <row r="35" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B35" s="231"/>
-      <c r="C35" s="233"/>
-      <c r="D35" s="255"/>
-      <c r="E35" s="197"/>
-      <c r="F35" s="186"/>
-      <c r="G35" s="270"/>
+      <c r="B35" s="262"/>
+      <c r="C35" s="278"/>
+      <c r="D35" s="276"/>
+      <c r="E35" s="207" t="str">
+        <f>주간메뉴표!D28</f>
+        <v>식혜</v>
+      </c>
+      <c r="F35" s="179"/>
+      <c r="G35" s="284"/>
       <c r="H35" s="151" t="str">
         <f>주간메뉴표!E28</f>
-        <v>발사믹D&amp;키위D</v>
+        <v>발사믹&amp;자몽D</v>
       </c>
       <c r="I35" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="J35" s="273"/>
+      <c r="J35" s="284"/>
       <c r="K35" s="151" t="str">
         <f>주간메뉴표!F28</f>
-        <v>꿀레몬차</v>
+        <v>율무차</v>
       </c>
       <c r="L35" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="M35" s="273"/>
+      <c r="M35" s="284"/>
       <c r="N35" s="151" t="str">
         <f>주간메뉴표!G28</f>
-        <v>밀크티</v>
+        <v>유자차</v>
       </c>
       <c r="O35" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="P35" s="273"/>
+      <c r="P35" s="284"/>
       <c r="Q35" s="152" t="str">
         <f>주간메뉴표!H28</f>
-        <v>요구르트</v>
+        <v>레몬아이스티</v>
       </c>
       <c r="R35" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="S35" s="255"/>
+      <c r="S35" s="276"/>
     </row>
     <row r="36" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B36" s="231"/>
-      <c r="C36" s="233"/>
-      <c r="D36" s="255"/>
-      <c r="E36" s="197"/>
-      <c r="F36" s="186"/>
-      <c r="G36" s="271"/>
+      <c r="B36" s="262"/>
+      <c r="C36" s="278"/>
+      <c r="D36" s="276"/>
+      <c r="E36" s="207" t="str">
+        <f>주간메뉴표!D29</f>
+        <v>오리엔탈&amp;요거트D</v>
+      </c>
+      <c r="F36" s="79" t="s">
+        <v>216</v>
+      </c>
+      <c r="G36" s="285"/>
       <c r="H36" s="151">
         <f>[1]주간메뉴표!E29</f>
         <v>0</v>
       </c>
       <c r="I36" s="79"/>
-      <c r="J36" s="274"/>
+      <c r="J36" s="285"/>
       <c r="K36" s="151" t="str">
         <f>주간메뉴표!F29</f>
-        <v>오리엔탈D&amp;시저D</v>
+        <v>오리엔탈&amp;딸기요거트D</v>
       </c>
       <c r="L36" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="M36" s="274"/>
+      <c r="M36" s="285"/>
       <c r="N36" s="151" t="str">
         <f>주간메뉴표!G29</f>
-        <v>발사믹D&amp;포도D</v>
+        <v>발사믹&amp;한라봉D</v>
       </c>
       <c r="O36" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="P36" s="274"/>
+      <c r="P36" s="285"/>
       <c r="Q36" s="152" t="str">
         <f>주간메뉴표!H29</f>
-        <v>오리엔탈D&amp;사우전아일랜드D</v>
+        <v>오리엔탈&amp;사우전아일랜드D</v>
       </c>
       <c r="R36" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="S36" s="256"/>
+      <c r="S36" s="251"/>
     </row>
     <row r="37" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B37" s="231"/>
-      <c r="C37" s="232" t="s">
+      <c r="B37" s="262"/>
+      <c r="C37" s="277" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="254" t="s">
+      <c r="D37" s="250" t="s">
         <v>208</v>
       </c>
-      <c r="E37" s="257"/>
-      <c r="F37" s="259"/>
-      <c r="G37" s="261"/>
-      <c r="H37" s="263" t="str">
+      <c r="E37" s="279" t="str">
+        <f>주간메뉴표!D30</f>
+        <v>베이컨버섯샐러드</v>
+      </c>
+      <c r="F37" s="256" t="s">
+        <v>216</v>
+      </c>
+      <c r="G37" s="281">
+        <f>주간메뉴표!D31</f>
+        <v>689</v>
+      </c>
+      <c r="H37" s="274" t="str">
         <f>주간메뉴표!E30</f>
-        <v>닭가슴살오트밀샐러드</v>
-      </c>
-      <c r="I37" s="265" t="s">
-        <v>216</v>
-      </c>
-      <c r="J37" s="267">
+        <v>큐브참치아보카도샐러드</v>
+      </c>
+      <c r="I37" s="270" t="s">
+        <v>216</v>
+      </c>
+      <c r="J37" s="272">
         <f>주간메뉴표!E31</f>
-        <v>721</v>
-      </c>
-      <c r="K37" s="263" t="str">
+        <v>723</v>
+      </c>
+      <c r="K37" s="274" t="str">
         <f>주간메뉴표!F30</f>
-        <v>아보크랩샐러드</v>
-      </c>
-      <c r="L37" s="265" t="s">
-        <v>216</v>
-      </c>
-      <c r="M37" s="267">
+        <v>칠리새우샐러드</v>
+      </c>
+      <c r="L37" s="270" t="s">
+        <v>216</v>
+      </c>
+      <c r="M37" s="272">
         <f>주간메뉴표!F31</f>
-        <v>759</v>
-      </c>
-      <c r="N37" s="263" t="str">
+        <v>742</v>
+      </c>
+      <c r="N37" s="274" t="str">
         <f>주간메뉴표!G30</f>
-        <v>쿠스쿠스베이컨샐러드</v>
-      </c>
-      <c r="O37" s="265" t="s">
-        <v>216</v>
-      </c>
-      <c r="P37" s="267">
+        <v>오렌지리코타샐러드</v>
+      </c>
+      <c r="O37" s="270" t="s">
+        <v>216</v>
+      </c>
+      <c r="P37" s="272">
         <f>주간메뉴표!G31</f>
-        <v>743</v>
-      </c>
-      <c r="Q37" s="263" t="str">
+        <v>638</v>
+      </c>
+      <c r="Q37" s="274" t="str">
         <f>주간메뉴표!H30</f>
-        <v>포크커틀렛샐러드</v>
-      </c>
-      <c r="R37" s="275" t="s">
-        <v>216</v>
-      </c>
-      <c r="S37" s="250">
+        <v>불고기포케샐러드</v>
+      </c>
+      <c r="R37" s="256" t="s">
+        <v>216</v>
+      </c>
+      <c r="S37" s="258">
         <f>주간메뉴표!H31</f>
-        <v>757</v>
+        <v>748</v>
       </c>
     </row>
     <row r="38" spans="2:19" s="17" customFormat="1" ht="36" customHeight="1">
-      <c r="B38" s="231"/>
-      <c r="C38" s="233"/>
-      <c r="D38" s="256"/>
-      <c r="E38" s="258"/>
-      <c r="F38" s="260"/>
-      <c r="G38" s="262"/>
-      <c r="H38" s="264"/>
-      <c r="I38" s="266"/>
-      <c r="J38" s="268"/>
-      <c r="K38" s="264"/>
-      <c r="L38" s="266"/>
-      <c r="M38" s="268"/>
-      <c r="N38" s="264"/>
-      <c r="O38" s="266"/>
-      <c r="P38" s="268"/>
-      <c r="Q38" s="264"/>
-      <c r="R38" s="276"/>
-      <c r="S38" s="252"/>
+      <c r="B38" s="262"/>
+      <c r="C38" s="278"/>
+      <c r="D38" s="251"/>
+      <c r="E38" s="280"/>
+      <c r="F38" s="257"/>
+      <c r="G38" s="282"/>
+      <c r="H38" s="275"/>
+      <c r="I38" s="271"/>
+      <c r="J38" s="273"/>
+      <c r="K38" s="275"/>
+      <c r="L38" s="271"/>
+      <c r="M38" s="273"/>
+      <c r="N38" s="275"/>
+      <c r="O38" s="271"/>
+      <c r="P38" s="273"/>
+      <c r="Q38" s="275"/>
+      <c r="R38" s="257"/>
+      <c r="S38" s="259"/>
     </row>
     <row r="39" spans="2:19" s="17" customFormat="1" ht="36" customHeight="1">
-      <c r="B39" s="231"/>
-      <c r="C39" s="233"/>
-      <c r="D39" s="183" t="s">
-        <v>344</v>
-      </c>
-      <c r="E39" s="198"/>
-      <c r="F39" s="186"/>
-      <c r="G39" s="199"/>
-      <c r="H39" s="185" t="str">
+      <c r="B39" s="262"/>
+      <c r="C39" s="278"/>
+      <c r="D39" s="176" t="s">
+        <v>224</v>
+      </c>
+      <c r="E39" s="208" t="str">
+        <f>주간메뉴표!D36</f>
+        <v>소불고기&amp;새우튀김</v>
+      </c>
+      <c r="F39" s="79" t="s">
+        <v>216</v>
+      </c>
+      <c r="G39" s="209">
+        <f>주간메뉴표!D37</f>
+        <v>847</v>
+      </c>
+      <c r="H39" s="178" t="str">
         <f>주간메뉴표!E36</f>
-        <v>꼬마김밥&amp;소불고기마리</v>
-      </c>
-      <c r="I39" s="184" t="s">
-        <v>343</v>
-      </c>
-      <c r="J39" s="181">
+        <v>소시지&amp;꼬마김밥</v>
+      </c>
+      <c r="I39" s="177" t="s">
+        <v>223</v>
+      </c>
+      <c r="J39" s="174">
         <f>주간메뉴표!E37</f>
-        <v>767</v>
-      </c>
-      <c r="K39" s="185" t="str">
+        <v>833</v>
+      </c>
+      <c r="K39" s="178" t="str">
         <f>주간메뉴표!F36</f>
-        <v>떡갈비&amp;진미채마리</v>
-      </c>
-      <c r="L39" s="184" t="s">
-        <v>343</v>
-      </c>
-      <c r="M39" s="181">
+        <v>돈가스&amp;제육</v>
+      </c>
+      <c r="L39" s="177" t="s">
+        <v>223</v>
+      </c>
+      <c r="M39" s="174">
         <f>주간메뉴표!F37</f>
+        <v>866</v>
+      </c>
+      <c r="N39" s="178" t="str">
+        <f>주간메뉴표!G36</f>
+        <v>고추장진미채&amp;떡갈비</v>
+      </c>
+      <c r="O39" s="177" t="s">
+        <v>223</v>
+      </c>
+      <c r="P39" s="174">
+        <f>주간메뉴표!G37</f>
         <v>822</v>
       </c>
-      <c r="N39" s="185" t="str">
-        <f>주간메뉴표!G36</f>
-        <v>제육&amp;매콤멸치마리</v>
-      </c>
-      <c r="O39" s="184" t="s">
-        <v>343</v>
-      </c>
-      <c r="P39" s="181">
-        <f>주간메뉴표!G37</f>
-        <v>853</v>
-      </c>
-      <c r="Q39" s="185" t="str">
+      <c r="Q39" s="178" t="str">
         <f>주간메뉴표!H36</f>
-        <v>새우튀김&amp;스팸마리</v>
+        <v>장조림&amp;매콤어묵</v>
       </c>
       <c r="R39" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="S39" s="190">
+      <c r="S39" s="182">
         <f>주간메뉴표!H37</f>
-        <v>869</v>
+        <v>836</v>
       </c>
     </row>
     <row r="40" spans="2:19" s="44" customFormat="1" ht="66.75" customHeight="1">
-      <c r="B40" s="231"/>
-      <c r="C40" s="233"/>
-      <c r="D40" s="182" t="s">
+      <c r="B40" s="262"/>
+      <c r="C40" s="278"/>
+      <c r="D40" s="175" t="s">
         <v>210</v>
       </c>
-      <c r="E40" s="197"/>
-      <c r="F40" s="186"/>
-      <c r="G40" s="200"/>
+      <c r="E40" s="207" t="str">
+        <f>주간메뉴표!D32</f>
+        <v>제육볶음
+오징어커틀렛/두부계란전
+볶음김치/잡곡밥/도라지오이생채/샐러드/장국/생수</v>
+      </c>
+      <c r="F40" s="79" t="s">
+        <v>216</v>
+      </c>
+      <c r="G40" s="210">
+        <f>주간메뉴표!D33</f>
+        <v>976</v>
+      </c>
       <c r="H40" s="152" t="str">
         <f>주간메뉴표!E32</f>
-        <v>고구마돈가스
-김치전/메추리알장조림
-볶음김치/잡곡밥/양파고추간장절임/샐러드/장국/생수</v>
+        <v>안동찜닭
+감자채전/메추리알조림
+볶음김치/잡곡밥/고추장멸치볶음/샐러드/장국/생수</v>
       </c>
       <c r="I40" s="79" t="s">
         <v>216</v>
       </c>
       <c r="J40" s="142">
         <f>주간메뉴표!E33</f>
-        <v>931</v>
+        <v>881</v>
       </c>
       <c r="K40" s="152" t="str">
         <f>주간메뉴표!F32</f>
-        <v>안동식찜닭
-계란찜/왕교자튀김
-볶음김치/잡곡밥/콩나물무침
-샐러드/장국/생수</v>
+        <v>버섯소불고기
+인절미탕수육/어묵볶음
+/볶음김치/잡곡밥/무말랭이무침/샐러드/장국/생수</v>
       </c>
       <c r="L40" s="79" t="s">
         <v>216</v>
       </c>
       <c r="M40" s="142">
         <f>주간메뉴표!F33</f>
-        <v>877</v>
+        <v>915</v>
       </c>
       <c r="N40" s="152" t="str">
         <f>주간메뉴표!G32</f>
-        <v>훈제오리채소볶음
-부추장떡/환어묵볶음
-볶음김치/잡곡밥/궁채절임
-샐러드/장국/생수</v>
+        <v>오징어볶음
+너비아니구이/파래자반
+볶음김치/잡곡밥/콘샐러드/샐러드/장국/생수</v>
       </c>
       <c r="O40" s="79" t="s">
         <v>216</v>
       </c>
       <c r="P40" s="142">
         <f>주간메뉴표!G33</f>
-        <v>931</v>
+        <v>892</v>
       </c>
       <c r="Q40" s="152" t="str">
         <f>주간메뉴표!H32</f>
-        <v>매콤오징어볶음
-두부구이/청포묵김가루무침
-볶음김치/잡곱밥/참나물생채
-샐러드/장국/생수</v>
+        <v>돈사태찜
+깐풍만두/땅꽁조림
+볶음김치/잡곡밥/꼬들단무지/샐러드/장국/생수</v>
       </c>
       <c r="R40" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="S40" s="191">
+      <c r="S40" s="183">
         <f>주간메뉴표!H33</f>
-        <v>834</v>
+        <v>925</v>
       </c>
     </row>
     <row r="41" spans="2:19" s="17" customFormat="1" ht="30.75" customHeight="1">
-      <c r="B41" s="231"/>
-      <c r="C41" s="233"/>
-      <c r="D41" s="180" t="s">
+      <c r="B41" s="262"/>
+      <c r="C41" s="278"/>
+      <c r="D41" s="173" t="s">
         <v>209</v>
       </c>
-      <c r="E41" s="197"/>
-      <c r="F41" s="186"/>
-      <c r="G41" s="201"/>
+      <c r="E41" s="207" t="str">
+        <f>주간메뉴표!D34</f>
+        <v>닭갈비두부면볶음</v>
+      </c>
+      <c r="F41" s="79" t="s">
+        <v>216</v>
+      </c>
+      <c r="G41" s="211">
+        <f>주간메뉴표!D35</f>
+        <v>672</v>
+      </c>
       <c r="H41" s="152" t="str">
         <f>주간메뉴표!E34</f>
-        <v>만두소렌틸볶음밥</v>
+        <v>멕시칸소프리타샐러드</v>
       </c>
       <c r="I41" s="79" t="s">
         <v>216</v>
@@ -9820,104 +10158,117 @@
       </c>
       <c r="K41" s="152" t="str">
         <f>주간메뉴표!F34</f>
-        <v>그릴드치킨&amp;구아카몰샌드</v>
+        <v>컬리플라워두부김치볶음밥</v>
       </c>
       <c r="L41" s="79" t="s">
         <v>216</v>
       </c>
       <c r="M41" s="143">
         <f>주간메뉴표!F35</f>
-        <v>628</v>
+        <v>665</v>
       </c>
       <c r="N41" s="152" t="str">
         <f>주간메뉴표!G34</f>
-        <v>레드와인돈불고기덮밥</v>
+        <v>그릴치킨렌틸콩라이스</v>
       </c>
       <c r="O41" s="79" t="s">
         <v>216</v>
       </c>
       <c r="P41" s="143">
         <f>주간메뉴표!G35</f>
-        <v>678</v>
+        <v>642</v>
       </c>
       <c r="Q41" s="152" t="str">
         <f>주간메뉴표!H34</f>
-        <v>파프리카새우라이스</v>
+        <v>치킨컬리플라워볶음밥</v>
       </c>
       <c r="R41" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="S41" s="192">
+      <c r="S41" s="184">
         <f>주간메뉴표!H35</f>
-        <v>762</v>
+        <v>634</v>
       </c>
     </row>
     <row r="42" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B42" s="230" t="s">
+      <c r="B42" s="260" t="s">
         <v>11</v>
       </c>
-      <c r="C42" s="277"/>
-      <c r="D42" s="235" t="s">
+      <c r="C42" s="261"/>
+      <c r="D42" s="266" t="s">
         <v>36</v>
       </c>
-      <c r="E42" s="193"/>
-      <c r="F42" s="186"/>
-      <c r="G42" s="238"/>
-      <c r="H42" s="203" t="str">
+      <c r="E42" s="203" t="str">
+        <f>주간메뉴표!D38</f>
+        <v>뚝배기소불고기</v>
+      </c>
+      <c r="F42" s="79" t="s">
+        <v>216</v>
+      </c>
+      <c r="G42" s="238">
+        <f>주간메뉴표!D44</f>
+        <v>1172</v>
+      </c>
+      <c r="H42" s="186" t="str">
         <f>주간메뉴표!E38</f>
-        <v>우삼겹고추장찌개</v>
+        <v>뚝배기날치알밥</v>
       </c>
       <c r="I42" s="79" t="s">
         <v>216</v>
       </c>
       <c r="J42" s="241">
         <f>주간메뉴표!E44</f>
-        <v>838</v>
-      </c>
-      <c r="K42" s="203" t="str">
+        <v>912</v>
+      </c>
+      <c r="K42" s="186" t="str">
         <f>주간메뉴표!F38</f>
-        <v>순대국밥*다대기</v>
+        <v>밀양돼지국밥</v>
       </c>
       <c r="L42" s="79" t="s">
         <v>216</v>
       </c>
       <c r="M42" s="241">
         <f>주간메뉴표!F44</f>
-        <v>1208</v>
-      </c>
-      <c r="N42" s="203" t="str">
+        <v>908</v>
+      </c>
+      <c r="N42" s="186" t="str">
         <f>주간메뉴표!G38</f>
-        <v>깍두기청국장찌개</v>
+        <v>장터국밥</v>
       </c>
       <c r="O42" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="P42" s="281">
+      <c r="P42" s="247">
         <f>주간메뉴표!G44</f>
-        <v>1105</v>
-      </c>
-      <c r="Q42" s="204" t="str">
+        <v>951</v>
+      </c>
+      <c r="Q42" s="187" t="str">
         <f>주간메뉴표!H38</f>
-        <v>경상도식소고기뭇국</v>
+        <v>우삼겹순두부찌개</v>
       </c>
       <c r="R42" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="S42" s="250">
+      <c r="S42" s="258">
         <f>주간메뉴표!H44</f>
-        <v>840</v>
+        <v>992</v>
       </c>
     </row>
     <row r="43" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B43" s="231"/>
-      <c r="C43" s="278"/>
-      <c r="D43" s="236"/>
-      <c r="E43" s="194"/>
-      <c r="F43" s="186"/>
+      <c r="B43" s="262"/>
+      <c r="C43" s="263"/>
+      <c r="D43" s="267"/>
+      <c r="E43" s="204" t="str">
+        <f>주간메뉴표!D39</f>
+        <v>만두강정</v>
+      </c>
+      <c r="F43" s="79" t="s">
+        <v>216</v>
+      </c>
       <c r="G43" s="239"/>
       <c r="H43" s="150" t="str">
         <f>주간메뉴표!E39</f>
-        <v>오징어굴소스떡볶음</v>
+        <v>미소장국</v>
       </c>
       <c r="I43" s="79" t="s">
         <v>216</v>
@@ -9925,7 +10276,7 @@
       <c r="J43" s="242"/>
       <c r="K43" s="150" t="str">
         <f>주간메뉴표!F39</f>
-        <v>김치메밀전병</v>
+        <v>미니메밀전병</v>
       </c>
       <c r="L43" s="79" t="s">
         <v>216</v>
@@ -9933,37 +10284,42 @@
       <c r="M43" s="242"/>
       <c r="N43" s="150" t="str">
         <f>주간메뉴표!G39</f>
-        <v>돼지불고기</v>
+        <v>백순대볶음</v>
       </c>
       <c r="O43" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="P43" s="282"/>
-      <c r="Q43" s="189" t="str">
+      <c r="P43" s="248"/>
+      <c r="Q43" s="181" t="str">
         <f>주간메뉴표!H39</f>
-        <v>가자미카레튀김</v>
+        <v>옛날소시지전</v>
       </c>
       <c r="R43" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="S43" s="251"/>
+      <c r="S43" s="269"/>
     </row>
     <row r="44" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B44" s="231"/>
-      <c r="C44" s="278"/>
-      <c r="D44" s="236"/>
-      <c r="E44" s="194"/>
-      <c r="F44" s="186"/>
+      <c r="B44" s="262"/>
+      <c r="C44" s="263"/>
+      <c r="D44" s="267"/>
+      <c r="E44" s="204" t="str">
+        <f>주간메뉴표!D40</f>
+        <v>연근조림</v>
+      </c>
+      <c r="F44" s="179"/>
       <c r="G44" s="239"/>
       <c r="H44" s="150" t="str">
         <f>주간메뉴표!E40</f>
-        <v>치커리유자무침</v>
-      </c>
-      <c r="I44" s="79"/>
+        <v>일식돈가스</v>
+      </c>
+      <c r="I44" s="79" t="s">
+        <v>216</v>
+      </c>
       <c r="J44" s="242"/>
       <c r="K44" s="150" t="str">
         <f>주간메뉴표!F40</f>
-        <v>진미채고추장무침</v>
+        <v>도토리묵무침</v>
       </c>
       <c r="L44" s="79" t="s">
         <v>216</v>
@@ -9971,31 +10327,34 @@
       <c r="M44" s="242"/>
       <c r="N44" s="150" t="str">
         <f>주간메뉴표!G40</f>
-        <v>부추전</v>
+        <v>계란찜</v>
       </c>
       <c r="O44" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="P44" s="282"/>
-      <c r="Q44" s="189" t="str">
+      <c r="P44" s="248"/>
+      <c r="Q44" s="181" t="str">
         <f>주간메뉴표!H40</f>
-        <v>감자채햄볶음</v>
+        <v>알감자조림</v>
       </c>
       <c r="R44" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="S44" s="251"/>
+      <c r="S44" s="269"/>
     </row>
     <row r="45" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B45" s="231"/>
-      <c r="C45" s="278"/>
-      <c r="D45" s="236"/>
-      <c r="E45" s="194"/>
-      <c r="F45" s="186"/>
+      <c r="B45" s="262"/>
+      <c r="C45" s="263"/>
+      <c r="D45" s="267"/>
+      <c r="E45" s="204" t="str">
+        <f>주간메뉴표!D41</f>
+        <v>미역줄기볶음</v>
+      </c>
+      <c r="F45" s="179"/>
       <c r="G45" s="239"/>
       <c r="H45" s="150" t="str">
         <f>주간메뉴표!E41</f>
-        <v>무말랭이무침</v>
+        <v>과일야채샐러드</v>
       </c>
       <c r="I45" s="79" t="s">
         <v>216</v>
@@ -10003,7 +10362,7 @@
       <c r="J45" s="242"/>
       <c r="K45" s="150" t="str">
         <f>주간메뉴표!F41</f>
-        <v>미역줄기볶음</v>
+        <v>명엽채볶음</v>
       </c>
       <c r="L45" s="79" t="s">
         <v>216</v>
@@ -10011,29 +10370,32 @@
       <c r="M45" s="242"/>
       <c r="N45" s="150" t="str">
         <f>주간메뉴표!G41</f>
-        <v>멸치고추장볶음</v>
-      </c>
-      <c r="O45" s="79" t="s">
-        <v>216</v>
-      </c>
-      <c r="P45" s="282"/>
-      <c r="Q45" s="189" t="str">
+        <v>미역초무침</v>
+      </c>
+      <c r="O45" s="79"/>
+      <c r="P45" s="248"/>
+      <c r="Q45" s="181" t="str">
         <f>주간메뉴표!H41</f>
-        <v>미역초무침</v>
-      </c>
-      <c r="R45" s="187"/>
-      <c r="S45" s="251"/>
+        <v>콩나물무침</v>
+      </c>
+      <c r="R45" s="179"/>
+      <c r="S45" s="269"/>
     </row>
     <row r="46" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B46" s="231"/>
-      <c r="C46" s="278"/>
-      <c r="D46" s="236"/>
-      <c r="E46" s="194"/>
-      <c r="F46" s="186"/>
+      <c r="B46" s="262"/>
+      <c r="C46" s="263"/>
+      <c r="D46" s="267"/>
+      <c r="E46" s="204" t="str">
+        <f>주간메뉴표!D42</f>
+        <v>깍두기</v>
+      </c>
+      <c r="F46" s="79" t="s">
+        <v>216</v>
+      </c>
       <c r="G46" s="239"/>
       <c r="H46" s="150" t="str">
         <f>주간메뉴표!E42</f>
-        <v>포기김치</v>
+        <v>깍두기</v>
       </c>
       <c r="I46" s="79" t="s">
         <v>216</v>
@@ -10041,7 +10403,7 @@
       <c r="J46" s="242"/>
       <c r="K46" s="150" t="str">
         <f>주간메뉴표!F42</f>
-        <v>깍두기</v>
+        <v>포기김치</v>
       </c>
       <c r="L46" s="79" t="s">
         <v>216</v>
@@ -10049,31 +10411,34 @@
       <c r="M46" s="242"/>
       <c r="N46" s="150" t="str">
         <f>주간메뉴표!G42</f>
-        <v>열무김치</v>
+        <v>포기김치</v>
       </c>
       <c r="O46" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="P46" s="282"/>
-      <c r="Q46" s="189" t="str">
+      <c r="P46" s="248"/>
+      <c r="Q46" s="181" t="str">
         <f>주간메뉴표!H42</f>
-        <v>깍두기</v>
+        <v>포기김치</v>
       </c>
       <c r="R46" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="S46" s="251"/>
+      <c r="S46" s="269"/>
     </row>
     <row r="47" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B47" s="231"/>
-      <c r="C47" s="278"/>
-      <c r="D47" s="237"/>
-      <c r="E47" s="194"/>
-      <c r="F47" s="186"/>
+      <c r="B47" s="262"/>
+      <c r="C47" s="263"/>
+      <c r="D47" s="268"/>
+      <c r="E47" s="204" t="str">
+        <f>주간메뉴표!D43</f>
+        <v>잡곡밥</v>
+      </c>
+      <c r="F47" s="179"/>
       <c r="G47" s="240"/>
-      <c r="H47" s="150" t="str">
+      <c r="H47" s="150">
         <f>주간메뉴표!E43</f>
-        <v>잡곡밥</v>
+        <v>0</v>
       </c>
       <c r="I47" s="79"/>
       <c r="J47" s="243"/>
@@ -10085,72 +10450,83 @@
       <c r="M47" s="243"/>
       <c r="N47" s="150" t="str">
         <f>주간메뉴표!G43</f>
-        <v>보리밥</v>
+        <v>잡곡밥</v>
       </c>
       <c r="O47" s="79"/>
-      <c r="P47" s="283"/>
-      <c r="Q47" s="189" t="str">
+      <c r="P47" s="249"/>
+      <c r="Q47" s="181" t="str">
         <f>주간메뉴표!H43</f>
         <v>잡곡밥</v>
       </c>
-      <c r="R47" s="187"/>
-      <c r="S47" s="252"/>
+      <c r="R47" s="179"/>
+      <c r="S47" s="259"/>
     </row>
     <row r="48" spans="2:19" ht="20.25" customHeight="1">
-      <c r="B48" s="231"/>
-      <c r="C48" s="278"/>
-      <c r="D48" s="235" t="s">
+      <c r="B48" s="262"/>
+      <c r="C48" s="263"/>
+      <c r="D48" s="266" t="s">
         <v>29</v>
       </c>
-      <c r="E48" s="193"/>
-      <c r="F48" s="186"/>
-      <c r="G48" s="238"/>
-      <c r="H48" s="203" t="str">
+      <c r="E48" s="203" t="str">
+        <f>주간메뉴표!D45</f>
+        <v>셀프에비동</v>
+      </c>
+      <c r="F48" s="179"/>
+      <c r="G48" s="238">
+        <f>주간메뉴표!D53</f>
+        <v>1050</v>
+      </c>
+      <c r="H48" s="186" t="str">
         <f>주간메뉴표!E45</f>
-        <v>셀프콘참치마요덮밥</v>
+        <v>셀프오쭈볶음비빔밥</v>
       </c>
       <c r="I48" s="79"/>
       <c r="J48" s="241">
         <f>주간메뉴표!E53</f>
-        <v>1200</v>
-      </c>
-      <c r="K48" s="203" t="str">
+        <v>697</v>
+      </c>
+      <c r="K48" s="186" t="str">
         <f>주간메뉴표!F45</f>
-        <v>셀프불고기덮밥</v>
+        <v>셀프치킨마요덮밥</v>
       </c>
       <c r="L48" s="79"/>
-      <c r="M48" s="247">
+      <c r="M48" s="244">
         <f>주간메뉴표!F53</f>
-        <v>1091</v>
-      </c>
-      <c r="N48" s="202" t="str">
+        <v>688</v>
+      </c>
+      <c r="N48" s="185" t="str">
         <f>주간메뉴표!G45</f>
-        <v>셀프매콤훈제오리덮밥</v>
+        <v>셀프대패삼겹비빔밥</v>
       </c>
       <c r="O48" s="79"/>
-      <c r="P48" s="281">
+      <c r="P48" s="247">
         <f>주간메뉴표!G53</f>
-        <v>860</v>
-      </c>
-      <c r="Q48" s="204" t="str">
+        <v>1302</v>
+      </c>
+      <c r="Q48" s="187" t="str">
         <f>주간메뉴표!H45</f>
-        <v>셀프떡갈비비빔밥</v>
-      </c>
-      <c r="R48" s="187"/>
-      <c r="S48" s="290" t="s">
-        <v>346</v>
+        <v>셀프쇠고기취나물비빔밥</v>
+      </c>
+      <c r="R48" s="179"/>
+      <c r="S48" s="235" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="49" spans="2:19" ht="33" customHeight="1">
-      <c r="B49" s="231"/>
-      <c r="C49" s="278"/>
-      <c r="D49" s="236"/>
-      <c r="E49" s="194"/>
-      <c r="F49" s="186"/>
+      <c r="B49" s="262"/>
+      <c r="C49" s="263"/>
+      <c r="D49" s="267"/>
+      <c r="E49" s="204" t="str">
+        <f>주간메뉴표!D46</f>
+        <v>┗쌀밥,새우튀김</v>
+      </c>
+      <c r="F49" s="79" t="s">
+        <v>216</v>
+      </c>
       <c r="G49" s="239"/>
       <c r="H49" s="150" t="str">
         <f>주간메뉴표!E46</f>
-        <v>┗쌀밥,콘참치, 스크램블에그</v>
+        <v>┗쌀밥,오쭈볶음,계란후라이</v>
       </c>
       <c r="I49" s="79" t="s">
         <v>216</v>
@@ -10158,35 +10534,38 @@
       <c r="J49" s="242"/>
       <c r="K49" s="150" t="str">
         <f>주간메뉴표!F46</f>
-        <v>┗쌀밥,불고기,계란후라이</v>
+        <v>┗쌀밥,순살치킨,계란지단</v>
       </c>
       <c r="L49" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="M49" s="248"/>
+      <c r="M49" s="245"/>
       <c r="N49" s="148" t="str">
         <f>주간메뉴표!G46</f>
-        <v>┗쌀밥,훈제오리볶음</v>
+        <v>┗쌀밥,대패삼겹</v>
       </c>
       <c r="O49" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="P49" s="282"/>
-      <c r="Q49" s="189" t="str">
+      <c r="P49" s="248"/>
+      <c r="Q49" s="181" t="str">
         <f>주간메뉴표!H46</f>
-        <v>┗쌀밥,떡갈비</v>
+        <v>┗쇠고기취나물밥, 계란후라이</v>
       </c>
       <c r="R49" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="S49" s="291"/>
+      <c r="S49" s="236"/>
     </row>
     <row r="50" spans="2:19" ht="20.25" customHeight="1">
-      <c r="B50" s="231"/>
-      <c r="C50" s="278"/>
-      <c r="D50" s="236"/>
-      <c r="E50" s="194"/>
-      <c r="F50" s="186"/>
+      <c r="B50" s="262"/>
+      <c r="C50" s="263"/>
+      <c r="D50" s="267"/>
+      <c r="E50" s="204" t="str">
+        <f>주간메뉴표!D47</f>
+        <v>셀프토핑</v>
+      </c>
+      <c r="F50" s="179"/>
       <c r="G50" s="239"/>
       <c r="H50" s="150" t="str">
         <f>주간메뉴표!E47</f>
@@ -10199,96 +10578,111 @@
         <v>셀프토핑</v>
       </c>
       <c r="L50" s="79"/>
-      <c r="M50" s="248"/>
+      <c r="M50" s="245"/>
       <c r="N50" s="148" t="str">
         <f>주간메뉴표!G47</f>
         <v>셀프토핑</v>
       </c>
       <c r="O50" s="79"/>
-      <c r="P50" s="282"/>
-      <c r="Q50" s="189" t="str">
+      <c r="P50" s="248"/>
+      <c r="Q50" s="181" t="str">
         <f>주간메뉴표!H47</f>
         <v>셀프토핑</v>
       </c>
-      <c r="R50" s="187"/>
-      <c r="S50" s="291"/>
+      <c r="R50" s="179"/>
+      <c r="S50" s="236"/>
     </row>
     <row r="51" spans="2:19" ht="30.75" customHeight="1">
-      <c r="B51" s="231"/>
-      <c r="C51" s="278"/>
-      <c r="D51" s="236"/>
-      <c r="E51" s="194"/>
-      <c r="F51" s="186"/>
+      <c r="B51" s="262"/>
+      <c r="C51" s="263"/>
+      <c r="D51" s="267"/>
+      <c r="E51" s="204" t="str">
+        <f>주간메뉴표!D48</f>
+        <v>┗숙주볶음,양파볶음</v>
+      </c>
+      <c r="F51" s="179"/>
       <c r="G51" s="239"/>
       <c r="H51" s="150" t="str">
         <f>주간메뉴표!E48</f>
-        <v>┗상추깻잎채, 양파볶음</v>
+        <v>┗쫑상추,콩나물</v>
       </c>
       <c r="I51" s="79"/>
       <c r="J51" s="242"/>
       <c r="K51" s="150" t="str">
         <f>주간메뉴표!F48</f>
-        <v>┗숙주양파볶음, 상추</v>
+        <v>┗쫑상추,양파볶음,맛김가루</v>
       </c>
       <c r="L51" s="79"/>
-      <c r="M51" s="248"/>
+      <c r="M51" s="245"/>
       <c r="N51" s="148" t="str">
         <f>주간메뉴표!G48</f>
-        <v>┗상추, 호박양파볶음</v>
+        <v>┗파생채무침,쫑상추,김가루</v>
       </c>
       <c r="O51" s="79"/>
-      <c r="P51" s="282"/>
-      <c r="Q51" s="189" t="str">
+      <c r="P51" s="248"/>
+      <c r="Q51" s="181" t="str">
         <f>주간메뉴표!H48</f>
-        <v>┗콩나물,상추,무생채</v>
-      </c>
-      <c r="R51" s="187"/>
-      <c r="S51" s="291"/>
+        <v>┗김가루,맛느티리버섯볶음</v>
+      </c>
+      <c r="R51" s="179"/>
+      <c r="S51" s="236"/>
     </row>
     <row r="52" spans="2:19" ht="20.25" customHeight="1">
-      <c r="B52" s="231"/>
-      <c r="C52" s="278"/>
-      <c r="D52" s="236"/>
-      <c r="E52" s="194"/>
-      <c r="F52" s="186"/>
+      <c r="B52" s="262"/>
+      <c r="C52" s="263"/>
+      <c r="D52" s="267"/>
+      <c r="E52" s="204" t="str">
+        <f>주간메뉴표!D49</f>
+        <v>초생강절임(채), 맛김가루</v>
+      </c>
+      <c r="F52" s="179"/>
       <c r="G52" s="239"/>
       <c r="H52" s="150" t="str">
         <f>주간메뉴표!E49</f>
-        <v>┗맛김가루.데리야끼s</v>
-      </c>
-      <c r="I52" s="79" t="s">
-        <v>216</v>
-      </c>
+        <v>맛김가루</v>
+      </c>
+      <c r="I52" s="79"/>
       <c r="J52" s="242"/>
       <c r="K52" s="150" t="str">
         <f>주간메뉴표!F49</f>
-        <v>┗맛김가루</v>
-      </c>
-      <c r="L52" s="79"/>
-      <c r="M52" s="248"/>
+        <v>┗데리야끼&amp;마요네즈소스</v>
+      </c>
+      <c r="L52" s="79" t="s">
+        <v>216</v>
+      </c>
+      <c r="M52" s="245"/>
       <c r="N52" s="148" t="str">
         <f>주간메뉴표!G49</f>
-        <v>┗맛김가루</v>
-      </c>
-      <c r="O52" s="79"/>
-      <c r="P52" s="282"/>
-      <c r="Q52" s="189" t="str">
+        <v>지단,무생채,콩나물무침</v>
+      </c>
+      <c r="O52" s="79" t="s">
+        <v>216</v>
+      </c>
+      <c r="P52" s="248"/>
+      <c r="Q52" s="181" t="str">
         <f>주간메뉴표!H49</f>
-        <v>┗맛김가루,비빔고추장</v>
-      </c>
-      <c r="R52" s="187"/>
-      <c r="S52" s="291"/>
+        <v>갈치구이</v>
+      </c>
+      <c r="R52" s="79" t="s">
+        <v>216</v>
+      </c>
+      <c r="S52" s="236"/>
     </row>
     <row r="53" spans="2:19" ht="20.25" customHeight="1">
-      <c r="B53" s="231"/>
-      <c r="C53" s="278"/>
-      <c r="D53" s="236"/>
-      <c r="E53" s="194"/>
-      <c r="F53" s="186"/>
+      <c r="B53" s="262"/>
+      <c r="C53" s="263"/>
+      <c r="D53" s="267"/>
+      <c r="E53" s="204" t="str">
+        <f>주간메뉴표!D50</f>
+        <v>비엔나소세지볶음</v>
+      </c>
+      <c r="F53" s="79" t="s">
+        <v>216</v>
+      </c>
       <c r="G53" s="239"/>
       <c r="H53" s="150" t="str">
         <f>주간메뉴표!E50</f>
-        <v>미역장국</v>
+        <v>고기경단조림</v>
       </c>
       <c r="I53" s="79" t="s">
         <v>216</v>
@@ -10296,37 +10690,44 @@
       <c r="J53" s="242"/>
       <c r="K53" s="150" t="str">
         <f>주간메뉴표!F50</f>
-        <v>유부장국</v>
+        <v>떡볶이</v>
       </c>
       <c r="L53" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="M53" s="248"/>
+      <c r="M53" s="245"/>
       <c r="N53" s="148" t="str">
         <f>주간메뉴표!G50</f>
-        <v>콩나물국</v>
-      </c>
-      <c r="O53" s="79"/>
-      <c r="P53" s="282"/>
-      <c r="Q53" s="189" t="str">
+        <v>타코야끼</v>
+      </c>
+      <c r="O53" s="79" t="s">
+        <v>216</v>
+      </c>
+      <c r="P53" s="248"/>
+      <c r="Q53" s="181" t="str">
         <f>주간메뉴표!H50</f>
-        <v>물만둣국</v>
+        <v>유채된장국</v>
       </c>
       <c r="R53" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="S53" s="291"/>
+      <c r="S53" s="236"/>
     </row>
     <row r="54" spans="2:19" ht="20.25" customHeight="1">
-      <c r="B54" s="231"/>
-      <c r="C54" s="278"/>
-      <c r="D54" s="236"/>
-      <c r="E54" s="194"/>
-      <c r="F54" s="186"/>
+      <c r="B54" s="262"/>
+      <c r="C54" s="263"/>
+      <c r="D54" s="267"/>
+      <c r="E54" s="204" t="str">
+        <f>주간메뉴표!D51</f>
+        <v>깍두기</v>
+      </c>
+      <c r="F54" s="79" t="s">
+        <v>216</v>
+      </c>
       <c r="G54" s="239"/>
       <c r="H54" s="150" t="str">
         <f>주간메뉴표!E51</f>
-        <v>모짜핫도그</v>
+        <v>깍두기</v>
       </c>
       <c r="I54" s="79" t="s">
         <v>216</v>
@@ -10334,39 +10735,44 @@
       <c r="J54" s="242"/>
       <c r="K54" s="150" t="str">
         <f>주간메뉴표!F51</f>
-        <v>치킨팝떡강정</v>
+        <v>포기김치</v>
       </c>
       <c r="L54" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="M54" s="248"/>
+      <c r="M54" s="245"/>
       <c r="N54" s="148" t="str">
         <f>주간메뉴표!G51</f>
-        <v>계란장조림</v>
+        <v>유부장국</v>
       </c>
       <c r="O54" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="P54" s="282"/>
-      <c r="Q54" s="189" t="str">
+      <c r="P54" s="248"/>
+      <c r="Q54" s="181" t="str">
         <f>주간메뉴표!H51</f>
-        <v>두부조림</v>
+        <v>깍두기</v>
       </c>
       <c r="R54" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="S54" s="291"/>
+      <c r="S54" s="236"/>
     </row>
     <row r="55" spans="2:19" ht="20.25" customHeight="1">
-      <c r="B55" s="231"/>
-      <c r="C55" s="278"/>
-      <c r="D55" s="237"/>
-      <c r="E55" s="194"/>
-      <c r="F55" s="186"/>
+      <c r="B55" s="262"/>
+      <c r="C55" s="263"/>
+      <c r="D55" s="268"/>
+      <c r="E55" s="204" t="str">
+        <f>주간메뉴표!D52</f>
+        <v>유부장국</v>
+      </c>
+      <c r="F55" s="79" t="s">
+        <v>216</v>
+      </c>
       <c r="G55" s="240"/>
       <c r="H55" s="150" t="str">
         <f>주간메뉴표!E52</f>
-        <v>포기김치</v>
+        <v>미소장국</v>
       </c>
       <c r="I55" s="79" t="s">
         <v>216</v>
@@ -10374,102 +10780,106 @@
       <c r="J55" s="243"/>
       <c r="K55" s="150" t="str">
         <f>주간메뉴표!F52</f>
-        <v>깍두기</v>
+        <v>우동국물</v>
       </c>
       <c r="L55" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="M55" s="249"/>
+      <c r="M55" s="246"/>
       <c r="N55" s="148" t="str">
         <f>주간메뉴표!G52</f>
-        <v>포기김치</v>
-      </c>
-      <c r="O55" s="79" t="s">
-        <v>216</v>
-      </c>
-      <c r="P55" s="283"/>
-      <c r="Q55" s="189" t="str">
+        <v>그린샐러드</v>
+      </c>
+      <c r="O55" s="79"/>
+      <c r="P55" s="249"/>
+      <c r="Q55" s="181" t="str">
         <f>주간메뉴표!H52</f>
-        <v>깍두기</v>
-      </c>
-      <c r="R55" s="79" t="s">
-        <v>216</v>
-      </c>
-      <c r="S55" s="292"/>
+        <v>그린샐러드</v>
+      </c>
+      <c r="R55" s="79"/>
+      <c r="S55" s="237"/>
     </row>
     <row r="56" spans="2:19" ht="20.25" customHeight="1">
-      <c r="B56" s="231"/>
-      <c r="C56" s="278"/>
-      <c r="D56" s="254" t="s">
+      <c r="B56" s="262"/>
+      <c r="C56" s="263"/>
+      <c r="D56" s="250" t="s">
         <v>34</v>
       </c>
-      <c r="E56" s="197"/>
-      <c r="F56" s="186"/>
-      <c r="G56" s="284"/>
+      <c r="E56" s="207" t="str">
+        <f>주간메뉴표!D54</f>
+        <v>그린샐러드</v>
+      </c>
+      <c r="F56" s="179"/>
+      <c r="G56" s="252"/>
       <c r="H56" s="150" t="str">
         <f>주간메뉴표!E54</f>
         <v>그린샐러드</v>
       </c>
       <c r="I56" s="79"/>
-      <c r="J56" s="286"/>
+      <c r="J56" s="254"/>
       <c r="K56" s="152" t="str">
         <f>주간메뉴표!F54</f>
         <v>그린샐러드</v>
       </c>
       <c r="L56" s="79"/>
-      <c r="M56" s="286"/>
+      <c r="M56" s="254"/>
       <c r="N56" s="152" t="str">
         <f>주간메뉴표!G54</f>
         <v>그린샐러드</v>
       </c>
       <c r="O56" s="79"/>
-      <c r="P56" s="286"/>
+      <c r="P56" s="254"/>
       <c r="Q56" s="152" t="str">
         <f>주간메뉴표!H54</f>
         <v>그린샐러드</v>
       </c>
-      <c r="R56" s="187"/>
-      <c r="S56" s="288"/>
+      <c r="R56" s="179"/>
+      <c r="S56" s="233"/>
     </row>
     <row r="57" spans="2:19" s="51" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B57" s="279"/>
-      <c r="C57" s="280"/>
-      <c r="D57" s="256"/>
-      <c r="E57" s="197"/>
-      <c r="F57" s="186"/>
-      <c r="G57" s="285"/>
+      <c r="B57" s="264"/>
+      <c r="C57" s="265"/>
+      <c r="D57" s="251"/>
+      <c r="E57" s="207" t="str">
+        <f>주간메뉴표!D55</f>
+        <v>오리엔탈&amp;요거트D</v>
+      </c>
+      <c r="F57" s="79" t="s">
+        <v>216</v>
+      </c>
+      <c r="G57" s="253"/>
       <c r="H57" s="150" t="str">
         <f>주간메뉴표!E55</f>
-        <v>발사믹D&amp;키위D</v>
+        <v>발사믹&amp;자몽D</v>
       </c>
       <c r="I57" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="J57" s="287"/>
+      <c r="J57" s="255"/>
       <c r="K57" s="152" t="str">
         <f>주간메뉴표!F55</f>
-        <v>오리엔탈D&amp;시저D</v>
+        <v>오리엔탈&amp;딸기요거트D</v>
       </c>
       <c r="L57" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="M57" s="287"/>
+      <c r="M57" s="255"/>
       <c r="N57" s="152" t="str">
         <f>주간메뉴표!G55</f>
-        <v>발사믹D&amp;포도D</v>
+        <v>발사믹&amp;한라봉D</v>
       </c>
       <c r="O57" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="P57" s="287"/>
+      <c r="P57" s="255"/>
       <c r="Q57" s="152" t="str">
         <f>주간메뉴표!H55</f>
-        <v>오리엔탈D&amp;사우전아일랜드D</v>
+        <v>오리엔탈&amp;사우전아일랜드D</v>
       </c>
       <c r="R57" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="S57" s="289"/>
+      <c r="S57" s="234"/>
     </row>
     <row r="58" spans="2:19" ht="20.25" customHeight="1">
       <c r="E58" s="70"/>
@@ -10610,17 +11020,50 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="S56:S57"/>
-    <mergeCell ref="S48:S55"/>
-    <mergeCell ref="G48:G55"/>
-    <mergeCell ref="J48:J55"/>
-    <mergeCell ref="M48:M55"/>
-    <mergeCell ref="P48:P55"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="J56:J57"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="P56:P57"/>
+    <mergeCell ref="B9:B41"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="D9:D14"/>
+    <mergeCell ref="G9:G14"/>
+    <mergeCell ref="J9:J14"/>
+    <mergeCell ref="C21:C27"/>
+    <mergeCell ref="D21:D27"/>
+    <mergeCell ref="G21:G27"/>
+    <mergeCell ref="J21:J27"/>
+    <mergeCell ref="P9:P14"/>
+    <mergeCell ref="S9:S14"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="G15:G20"/>
+    <mergeCell ref="J15:J20"/>
+    <mergeCell ref="M15:M20"/>
+    <mergeCell ref="P15:P20"/>
+    <mergeCell ref="S15:S20"/>
+    <mergeCell ref="M9:M14"/>
+    <mergeCell ref="M21:M27"/>
+    <mergeCell ref="P21:P27"/>
+    <mergeCell ref="S21:S27"/>
+    <mergeCell ref="D28:D33"/>
+    <mergeCell ref="G28:G33"/>
+    <mergeCell ref="J28:J33"/>
+    <mergeCell ref="M28:M33"/>
+    <mergeCell ref="P28:P33"/>
+    <mergeCell ref="S28:S33"/>
+    <mergeCell ref="S34:S36"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="J34:J36"/>
+    <mergeCell ref="M34:M36"/>
+    <mergeCell ref="P34:P36"/>
     <mergeCell ref="R37:R38"/>
     <mergeCell ref="S37:S38"/>
     <mergeCell ref="B42:C57"/>
@@ -10637,50 +11080,17 @@
     <mergeCell ref="O37:O38"/>
     <mergeCell ref="P37:P38"/>
     <mergeCell ref="Q37:Q38"/>
-    <mergeCell ref="S34:S36"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="J34:J36"/>
-    <mergeCell ref="M34:M36"/>
-    <mergeCell ref="P34:P36"/>
-    <mergeCell ref="M21:M27"/>
-    <mergeCell ref="P21:P27"/>
-    <mergeCell ref="S21:S27"/>
-    <mergeCell ref="D28:D33"/>
-    <mergeCell ref="G28:G33"/>
-    <mergeCell ref="J28:J33"/>
-    <mergeCell ref="M28:M33"/>
-    <mergeCell ref="P28:P33"/>
-    <mergeCell ref="S28:S33"/>
-    <mergeCell ref="P9:P14"/>
-    <mergeCell ref="S9:S14"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="G15:G20"/>
-    <mergeCell ref="J15:J20"/>
-    <mergeCell ref="M15:M20"/>
-    <mergeCell ref="P15:P20"/>
-    <mergeCell ref="S15:S20"/>
-    <mergeCell ref="M9:M14"/>
-    <mergeCell ref="B9:B41"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="D9:D14"/>
-    <mergeCell ref="G9:G14"/>
-    <mergeCell ref="J9:J14"/>
-    <mergeCell ref="C21:C27"/>
-    <mergeCell ref="D21:D27"/>
-    <mergeCell ref="G21:G27"/>
-    <mergeCell ref="J21:J27"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="P56:P57"/>
+    <mergeCell ref="S56:S57"/>
+    <mergeCell ref="S48:S55"/>
+    <mergeCell ref="G48:G55"/>
+    <mergeCell ref="J48:J55"/>
+    <mergeCell ref="M48:M55"/>
+    <mergeCell ref="P48:P55"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lunch.xlsx
+++ b/lunch.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="346">
   <si>
     <t>작성 가이드</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -1053,123 +1053,162 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2024.2.19~2024.2.23</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>월 2/19</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>화 2/20</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>수 2/21</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>목 2/22</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>금 2/23</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>부대찌개*라면사리</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>새싹삼,삼계탕</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>해물된장찌개</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>돈목살김치찌개</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>전주식돌솥비빔밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>오징어커틀렛*타르타르s</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>메추리알어묵조림</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>로스팜계란전</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>너비아니구이*미나리생채</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>배추된장국</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>미니오믈렛*토마토피자s</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>숙주미나리나물</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>옥수수전</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>동태전</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>도시락김</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>고추장멸치볶음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>무말랭이무침</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>파래자반</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>깍두기</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>배추겉절이/잡곡밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>잡곡밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>배추겉절이</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>배추김치</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>버섯장국</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>오이맛고추쌈장무침</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>콘샐러드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄산음료</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>계란찜</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>미역초무침</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀프토핑</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>우동국물</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭갈비두부면볶음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.2.26~2024.3.1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>월 2/26</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>화 2/27</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>수 2/28</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>목 2/29</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>금 3/1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>나주곰탕*당면사리</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>마늘두부보쌈</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>우삼겹짬뽕탕</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>뚝배기돼지불백정식</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼일절</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2종왕만두(김치&amp;고기)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>냉이달래된장국</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>만두탕수</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>상추&amp;깻잎쌈</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>사각어묵고추장볶음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>감자버섯밥*양념장</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>콩나물김칫국</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>간장양파고추절임</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>부추전</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁채절임</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>단호박전</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>콩나물냉채/배추겉절이</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>브랜드콜라보_역전우동</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="14"/>
-        <color rgb="FF92D050"/>
+        <sz val="11"/>
         <rFont val="나눔고딕 ExtraBold"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>N</t>
+      <t>월드셰프_동남아</t>
     </r>
     <r>
       <rPr>
@@ -1178,521 +1217,358 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>우삼겹시래기국수</t>
+      <t xml:space="preserve"> 똠카가이</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>샘밭막국수</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>간자장*계란후라이(2&amp;3)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>팟타이</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
+    <t>잔치국수</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>매운찜닭덮밥</t>
+    </r>
     <r>
       <rPr>
-        <sz val="14"/>
-        <color rgb="FF92D050"/>
+        <sz val="11"/>
         <rFont val="나눔고딕 ExtraBold"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>N</t>
+      <t>*넓적당면사리</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="나눔고딕 ExtraBold"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>동파육탕면</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>쪽갈비구이&amp;김가루주먹밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>짬뽕국물</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>쌀국수장국</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>깐풍만두</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>도라지오이무침</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>감자채전*부추생채</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>인절미탕수육</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>고구마&amp;새우넷롤</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>배추겉절이</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>미니계란볶음밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>배추김치</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>쌀밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>미니잡곡밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>(철판)Port629화지타</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>우삼겹명란마요덮밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF92D050"/>
-        <rFont val="나눔고딕 ExtraBold"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>N</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="나눔고딕 ExtraBold"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>닭다리살고추장양념구이덮밥</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>철판함박샥슈카</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>콩나물국</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;또띠아&amp;야채볶음밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>버섯장국</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>대파장국</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>바게트&amp;치아바타</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>오징어문어핫바</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>소스3종</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="나눔고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(사워,칠리,과콰몰)</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>채소춘권</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>지마구튀김</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>무비트피클</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>오이맛고추쌈장무침</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>락교&amp;산고추</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>콘샐러드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>탄산음료</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>매운족발볶음밥*후라이</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>식혜</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>발사믹&amp;자몽D</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>율무차</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>유자차</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>레몬아이스티</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>오리엔탈&amp;요거트D</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>오리엔탈&amp;딸기요거트D</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>발사믹&amp;한라봉D</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>오리엔탈&amp;사우전아일랜드D</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>뚝배기소불고기</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>뚝배기날치알밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>밀양돼지국밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>장터국밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>우삼겹순두부찌개</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>만두강정</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>미니메밀전병</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>백순대볶음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>옛날소시지전</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>연근조림</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>일식돈가스</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>도토리묵무침</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>계란찜</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>알감자조림</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>과일야채샐러드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>명엽채볶음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>미역초무침</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>콩나물무침</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>셀프에비동</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>셀프오쭈볶음비빔밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>셀프치킨마요덮밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>셀프대패삼겹비빔밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>셀프쇠고기취나물비빔밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗쌀밥,새우튀김</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗쌀밥,오쭈볶음,계란후라이</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗쌀밥,순살치킨,계란지단</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗쌀밥,대패삼겹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗쇠고기취나물밥, 계란후라이</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>셀프토핑</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗숙주볶음,양파볶음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗쫑상추,콩나물</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗쫑상추,양파볶음,맛김가루</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗파생채무침,쫑상추,김가루</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗김가루,맛느티리버섯볶음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>초생강절임(채), 맛김가루</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>맛김가루</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗데리야끼&amp;마요네즈소스</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>지단,무생채,콩나물무침</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>갈치구이</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>비엔나소세지볶음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>고기경단조림</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>떡볶이</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>유채된장국</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>유부장국</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>우동국물</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>베이컨버섯샐러드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>큐브참치아보카도샐러드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>칠리새우샐러드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>오렌지리코타샐러드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>불고기포케샐러드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>제육볶음
-오징어커틀렛/두부계란전
-볶음김치/잡곡밥/도라지오이생채/샐러드/장국/생수</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>버섯소불고기
-인절미탕수육/어묵볶음
-/볶음김치/잡곡밥/무말랭이무침/샐러드/장국/생수</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>오징어볶음
-너비아니구이/파래자반
-볶음김치/잡곡밥/콘샐러드/샐러드/장국/생수</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>안동찜닭
-감자채전/메추리알조림
-볶음김치/잡곡밥/고추장멸치볶음/샐러드/장국/생수</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>닭갈비두부면볶음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>멕시칸소프리타샐러드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>컬리플라워두부김치볶음밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>그릴치킨렌틸콩라이스</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>치킨컬리플라워볶음밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>소불고기&amp;새우튀김</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>돈가스&amp;제육</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>고추장진미채&amp;떡갈비</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>장조림&amp;매콤어묵</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>소시지&amp;꼬마김밥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>일자: 24.02.19~02.23</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>할라피뇨</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>돈사태찜
-깐풍만두/땅꽁조림
-볶음김치/잡곡밥/꼬들단무지/샐러드/장국/생수</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>사각어묵볶음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>┗토마토소스에 함박과계란을 넣어만든 스튜</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>파닭국수</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>순살닭강정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니가라아게동</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>날치알캘리포니아롤</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>치즈스틱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>오이지&amp;깍둑단무지</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈가스김치나베</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>피쉬앤칩스</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>두부튀김마파덮밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>비빔냉면</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>불고기랩샌드위치(half)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>유린기</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>온육수</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>피클&amp;할라피뇨</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>모둠만두한판</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼬들단무지</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>냉면김치</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>김가루양념밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>석박지</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>매실차</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>발사믹&amp;참깨D</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정과</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>요거트*씨리얼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>오리엔탈&amp;망고D</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>오리엔탈&amp;블루베리D</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>발사믹&amp;파인애플D</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭가슴살크랜베리샐러드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>베이컨시저샐러드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>케이준치킨샐러드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>씨푸드파스타샐러드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>우삼겹숙주볶음
+감자튀김/부추전
+볶음김치/잡곡밥/콩나물냉채/샐러드/장국/생수</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈육간장불고기
+만두탕수/계란찜
+볶음김치/잡곡밥/궁채절임
+샐러드/장국/생수</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>고구마돈가스
+찐만두/단호박전
+볶음김치/잡곡밥/오이지
+샐러드/장국/생수</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>제육컬리플라워덮밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>만두소렌틸볶음밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>토마토미트볼라이스</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈가스&amp;소시지</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼬마김밥&amp;치킨텐더</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>스팸&amp;매콤어묵</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>오징어튀김&amp;제육</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>고깃집볶음밥*계란후라이</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>맥적열무보리비빔밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭곰탕*소면사리</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>바싹불고기*부추생채</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>미역국</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>코다리강정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>청포묵김가루무침</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>모짜핫도그*케찹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>계란국</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>봄동겉절이</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>천사채샐러드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>생선가스*타르타르s</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>열무김치</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀프노량진황제컵밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀프규동</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀프로스팜마요덮밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀프장조림버터비빔밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗쌀밥,삼겹살볶음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗쌀밥,소불고기볶음,참나물</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗쌀밥,로스팜구이,스크램블에그</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗쌀밥,장조림,스크램블에그</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗계란후라이,볶음김치</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗숙주양파볶음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗상추,숙주양파볶음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗적색강초절임,맛김가루</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗맛김가루,데리야끼양파소스</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗참치마요옥수수</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>치킨떡강정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>계란장조림</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>치킨너겟*칠리s</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>고구마맛탕/깍두기</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>일자: 24.02.26~03.01</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>오징어굴소스볶음
+야채튀김/어묵볶음
+볶음김치/잡곡밥/단무지
+샐러드/장국/생수</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗쫑상추,맛김가루</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗맛김가루,쫑상추</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>┗버터간장s, 오복지</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>(코코넛밀크,레몬그라스,고추로 맛을 낸</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>새콤매콤한 태국식 쌀국수)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2종꼬치/미니나시고랭볶음밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>양파초절임/배추김치</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1704,7 +1580,7 @@
     <numFmt numFmtId="176" formatCode="mm&quot;/&quot;dd\ ddd"/>
     <numFmt numFmtId="177" formatCode="##\ &quot;Kcal&quot;"/>
   </numFmts>
-  <fonts count="59">
+  <fonts count="57">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
@@ -2100,33 +1976,19 @@
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FF92D050"/>
+      <color rgb="FFFF0000"/>
       <name val="나눔고딕 ExtraBold"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF92D050"/>
+      <sz val="11"/>
       <name val="나눔고딕 ExtraBold"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="나눔고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="나눔고딕 ExtraBold"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <sz val="10"/>
       <name val="나눔고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -2540,7 +2402,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="293">
+  <cellXfs count="309">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3051,15 +2913,9 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3117,30 +2973,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="57" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="57" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="42" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3177,6 +3009,90 @@
     <xf numFmtId="177" fontId="40" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="54" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="42" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="42" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="42" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="5" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="23" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="23" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="42" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3413,12 +3329,6 @@
     </xf>
     <xf numFmtId="177" fontId="40" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -4415,21 +4325,21 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1023258</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>84365</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>979714</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="810323" cy="788225"/>
+    <xdr:ext cx="804493" cy="476250"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="그림 9"/>
+        <xdr:cNvPr id="53" name="그림 52"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4442,8 +4352,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6709683" y="4380140"/>
-          <a:ext cx="810323" cy="788225"/>
+          <a:off x="2653393" y="5646964"/>
+          <a:ext cx="804493" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4454,21 +4364,21 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1183822</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>27215</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1006929</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="810323" cy="788225"/>
+    <xdr:ext cx="966107" cy="939760"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="그림 26"/>
+        <xdr:cNvPr id="55" name="그림 54"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4481,8 +4391,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2857501" y="6966858"/>
-          <a:ext cx="810323" cy="788225"/>
+          <a:off x="8722179" y="7334249"/>
+          <a:ext cx="966107" cy="939760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4493,21 +4403,21 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>917122</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>250373</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>900794</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>234042</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="810323" cy="788225"/>
+    <xdr:ext cx="966107" cy="939760"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="그림 27"/>
+        <xdr:cNvPr id="56" name="그림 55"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4520,47 +4430,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8613322" y="6813098"/>
-          <a:ext cx="810323" cy="788225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1284515</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>59872</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="810323" cy="788225"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="그림 36"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11013622" y="6999515"/>
-          <a:ext cx="810323" cy="788225"/>
+          <a:off x="6602187" y="5214256"/>
+          <a:ext cx="966107" cy="939760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4681,16 +4552,22 @@
       <sheetName val="칼로리및알레르기공시"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>전주식콩나물국밥*수란</v>
+        <row r="25">
+          <cell r="E25">
+            <v>0</v>
+          </cell>
+          <cell r="F25">
+            <v>0</v>
+          </cell>
+          <cell r="G25" t="str">
+            <v>그린샐러드</v>
           </cell>
         </row>
-        <row r="25">
-          <cell r="G25" t="str">
-            <v>그린샐러드</v>
+        <row r="29">
+          <cell r="E29">
+            <v>0</v>
           </cell>
         </row>
         <row r="35">
@@ -5040,7 +4917,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="97"/>
       <c r="H2" s="2"/>
-      <c r="J2" s="213" t="s">
+      <c r="J2" s="231" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="32"/>
@@ -5058,7 +4935,7 @@
       <c r="E3" s="12"/>
       <c r="F3" s="98"/>
       <c r="G3" s="11"/>
-      <c r="J3" s="213"/>
+      <c r="J3" s="231"/>
       <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:18" ht="24" customHeight="1">
@@ -5095,7 +4972,7 @@
       <c r="H5" s="81" t="s">
         <v>179</v>
       </c>
-      <c r="J5" s="214" t="s">
+      <c r="J5" s="232" t="s">
         <v>37</v>
       </c>
       <c r="K5" s="48"/>
@@ -5108,7 +4985,7 @@
       <c r="R5" s="2"/>
     </row>
     <row r="6" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B6" s="216" t="s">
+      <c r="B6" s="234" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="20" t="s">
@@ -5129,7 +5006,7 @@
       <c r="H6" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="J6" s="215"/>
+      <c r="J6" s="233"/>
       <c r="K6" s="21"/>
       <c r="L6" s="52"/>
       <c r="M6" s="52"/>
@@ -5140,7 +5017,7 @@
       <c r="R6" s="22"/>
     </row>
     <row r="7" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B7" s="216"/>
+      <c r="B7" s="234"/>
       <c r="C7" s="23" t="s">
         <v>7</v>
       </c>
@@ -5159,7 +5036,7 @@
       <c r="H7" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="215"/>
+      <c r="J7" s="233"/>
       <c r="K7" s="24"/>
       <c r="L7" s="52"/>
       <c r="M7" s="52"/>
@@ -5170,7 +5047,7 @@
       <c r="R7" s="22"/>
     </row>
     <row r="8" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B8" s="216"/>
+      <c r="B8" s="234"/>
       <c r="C8" s="96"/>
       <c r="D8" s="24" t="s">
         <v>182</v>
@@ -5187,7 +5064,7 @@
       <c r="H8" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="J8" s="215"/>
+      <c r="J8" s="233"/>
       <c r="K8" s="24"/>
       <c r="L8" s="16"/>
       <c r="M8" s="52"/>
@@ -5198,7 +5075,7 @@
       <c r="R8" s="22"/>
     </row>
     <row r="9" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B9" s="216"/>
+      <c r="B9" s="234"/>
       <c r="C9" s="96"/>
       <c r="D9" s="24" t="s">
         <v>67</v>
@@ -5215,7 +5092,7 @@
       <c r="H9" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="J9" s="215"/>
+      <c r="J9" s="233"/>
       <c r="K9" s="24"/>
       <c r="L9" s="8"/>
       <c r="M9" s="52"/>
@@ -5226,7 +5103,7 @@
       <c r="R9" s="22"/>
     </row>
     <row r="10" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B10" s="216"/>
+      <c r="B10" s="234"/>
       <c r="C10" s="96"/>
       <c r="D10" s="24" t="s">
         <v>71</v>
@@ -5243,7 +5120,7 @@
       <c r="H10" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="J10" s="215"/>
+      <c r="J10" s="233"/>
       <c r="K10" s="24"/>
       <c r="L10" s="16"/>
       <c r="M10" s="52"/>
@@ -5254,7 +5131,7 @@
       <c r="R10" s="22"/>
     </row>
     <row r="11" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B11" s="216"/>
+      <c r="B11" s="234"/>
       <c r="C11" s="96"/>
       <c r="D11" s="24" t="s">
         <v>53</v>
@@ -5271,7 +5148,7 @@
       <c r="H11" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="J11" s="215"/>
+      <c r="J11" s="233"/>
       <c r="K11" s="24"/>
       <c r="L11" s="16"/>
       <c r="M11" s="52"/>
@@ -5282,7 +5159,7 @@
       <c r="R11" s="26"/>
     </row>
     <row r="12" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B12" s="216"/>
+      <c r="B12" s="234"/>
       <c r="C12" s="28"/>
       <c r="D12" s="24" t="s">
         <v>50</v>
@@ -5299,7 +5176,7 @@
       <c r="H12" s="34">
         <v>725</v>
       </c>
-      <c r="J12" s="215"/>
+      <c r="J12" s="233"/>
       <c r="K12" s="24"/>
       <c r="L12" s="16"/>
       <c r="M12" s="52"/>
@@ -5310,7 +5187,7 @@
       <c r="R12" s="22"/>
     </row>
     <row r="13" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B13" s="216"/>
+      <c r="B13" s="234"/>
       <c r="C13" s="20" t="s">
         <v>8</v>
       </c>
@@ -5321,7 +5198,7 @@
       <c r="H13" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="J13" s="215"/>
+      <c r="J13" s="233"/>
       <c r="K13" s="21"/>
       <c r="L13" s="16"/>
       <c r="M13" s="52"/>
@@ -5332,7 +5209,7 @@
       <c r="R13" s="22"/>
     </row>
     <row r="14" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B14" s="216"/>
+      <c r="B14" s="234"/>
       <c r="C14" s="23" t="s">
         <v>40</v>
       </c>
@@ -5343,7 +5220,7 @@
       <c r="H14" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="J14" s="215"/>
+      <c r="J14" s="233"/>
       <c r="K14" s="24"/>
       <c r="L14" s="21"/>
       <c r="M14" s="40"/>
@@ -5354,7 +5231,7 @@
       <c r="R14" s="29"/>
     </row>
     <row r="15" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B15" s="216"/>
+      <c r="B15" s="234"/>
       <c r="C15" s="96"/>
       <c r="D15" s="24"/>
       <c r="E15" s="119"/>
@@ -5363,7 +5240,7 @@
       <c r="H15" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="J15" s="215"/>
+      <c r="J15" s="233"/>
       <c r="K15" s="24"/>
       <c r="L15" s="24"/>
       <c r="M15" s="52"/>
@@ -5374,7 +5251,7 @@
       <c r="R15" s="22"/>
     </row>
     <row r="16" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B16" s="216"/>
+      <c r="B16" s="234"/>
       <c r="C16" s="96"/>
       <c r="D16" s="24"/>
       <c r="E16" s="121"/>
@@ -5383,7 +5260,7 @@
       <c r="H16" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="J16" s="215"/>
+      <c r="J16" s="233"/>
       <c r="K16" s="24"/>
       <c r="L16" s="24"/>
       <c r="M16" s="52"/>
@@ -5394,7 +5271,7 @@
       <c r="R16" s="22"/>
     </row>
     <row r="17" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B17" s="216"/>
+      <c r="B17" s="234"/>
       <c r="C17" s="96"/>
       <c r="D17" s="24"/>
       <c r="E17" s="121"/>
@@ -5403,7 +5280,7 @@
       <c r="H17" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="J17" s="215"/>
+      <c r="J17" s="233"/>
       <c r="K17" s="24"/>
       <c r="L17" s="24"/>
       <c r="M17" s="52"/>
@@ -5417,7 +5294,7 @@
       <c r="A18" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="216"/>
+      <c r="B18" s="234"/>
       <c r="C18" s="31"/>
       <c r="D18" s="24"/>
       <c r="E18" s="121"/>
@@ -5426,7 +5303,7 @@
       <c r="H18" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="J18" s="215"/>
+      <c r="J18" s="233"/>
       <c r="K18" s="24"/>
       <c r="L18" s="24"/>
       <c r="M18" s="52"/>
@@ -5437,7 +5314,7 @@
       <c r="R18" s="22"/>
     </row>
     <row r="19" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B19" s="216"/>
+      <c r="B19" s="234"/>
       <c r="C19" s="28"/>
       <c r="D19" s="34">
         <v>1014</v>
@@ -5450,7 +5327,7 @@
       <c r="H19" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="J19" s="215"/>
+      <c r="J19" s="233"/>
       <c r="K19" s="34"/>
       <c r="L19" s="24"/>
       <c r="M19" s="52"/>
@@ -5461,7 +5338,7 @@
       <c r="R19" s="32"/>
     </row>
     <row r="20" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B20" s="216"/>
+      <c r="B20" s="234"/>
       <c r="C20" s="20" t="s">
         <v>41</v>
       </c>
@@ -5476,7 +5353,7 @@
         <v>79</v>
       </c>
       <c r="H20" s="24"/>
-      <c r="J20" s="215"/>
+      <c r="J20" s="233"/>
       <c r="K20" s="24"/>
       <c r="L20" s="32"/>
       <c r="M20" s="52"/>
@@ -5487,7 +5364,7 @@
       <c r="R20" s="22"/>
     </row>
     <row r="21" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B21" s="216"/>
+      <c r="B21" s="234"/>
       <c r="C21" s="23" t="s">
         <v>42</v>
       </c>
@@ -5502,7 +5379,7 @@
         <v>81</v>
       </c>
       <c r="H21" s="24"/>
-      <c r="J21" s="215"/>
+      <c r="J21" s="233"/>
       <c r="K21" s="24"/>
       <c r="L21" s="16"/>
       <c r="M21" s="52"/>
@@ -5513,7 +5390,7 @@
       <c r="R21" s="22"/>
     </row>
     <row r="22" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B22" s="216"/>
+      <c r="B22" s="234"/>
       <c r="C22" s="23"/>
       <c r="D22" s="113" t="s">
         <v>82</v>
@@ -5526,7 +5403,7 @@
         <v>83</v>
       </c>
       <c r="H22" s="24"/>
-      <c r="J22" s="215"/>
+      <c r="J22" s="233"/>
       <c r="K22" s="24"/>
       <c r="L22" s="16"/>
       <c r="M22" s="52"/>
@@ -5537,7 +5414,7 @@
       <c r="R22" s="22"/>
     </row>
     <row r="23" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B23" s="216"/>
+      <c r="B23" s="234"/>
       <c r="C23" s="96"/>
       <c r="D23" s="113" t="s">
         <v>84</v>
@@ -5550,7 +5427,7 @@
         <v>86</v>
       </c>
       <c r="H23" s="24"/>
-      <c r="J23" s="215"/>
+      <c r="J23" s="233"/>
       <c r="K23" s="24"/>
       <c r="L23" s="16"/>
       <c r="M23" s="40"/>
@@ -5561,7 +5438,7 @@
       <c r="R23" s="29"/>
     </row>
     <row r="24" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B24" s="216"/>
+      <c r="B24" s="234"/>
       <c r="C24" s="96"/>
       <c r="D24" s="113" t="s">
         <v>87</v>
@@ -5574,7 +5451,7 @@
         <v>88</v>
       </c>
       <c r="H24" s="24"/>
-      <c r="J24" s="215"/>
+      <c r="J24" s="233"/>
       <c r="K24" s="24"/>
       <c r="L24" s="16"/>
       <c r="M24" s="52"/>
@@ -5585,7 +5462,7 @@
       <c r="R24" s="22"/>
     </row>
     <row r="25" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B25" s="216"/>
+      <c r="B25" s="234"/>
       <c r="C25" s="96"/>
       <c r="D25" s="113" t="s">
         <v>50</v>
@@ -5596,7 +5473,7 @@
         <v>76</v>
       </c>
       <c r="H25" s="24"/>
-      <c r="J25" s="215"/>
+      <c r="J25" s="233"/>
       <c r="K25" s="24"/>
       <c r="L25" s="16"/>
       <c r="M25" s="52"/>
@@ -5607,7 +5484,7 @@
       <c r="R25" s="22"/>
     </row>
     <row r="26" spans="1:18" s="33" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B26" s="216"/>
+      <c r="B26" s="234"/>
       <c r="C26" s="28"/>
       <c r="D26" s="114"/>
       <c r="E26" s="122"/>
@@ -5616,7 +5493,7 @@
       <c r="H26" s="34">
         <v>725</v>
       </c>
-      <c r="J26" s="215"/>
+      <c r="J26" s="233"/>
       <c r="K26" s="82"/>
       <c r="L26" s="66"/>
       <c r="M26" s="35"/>
@@ -5627,8 +5504,8 @@
       <c r="R26" s="30"/>
     </row>
     <row r="27" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B27" s="216"/>
-      <c r="C27" s="224" t="s">
+      <c r="B27" s="234"/>
+      <c r="C27" s="242" t="s">
         <v>43</v>
       </c>
       <c r="D27" s="24" t="s">
@@ -5646,7 +5523,7 @@
       <c r="H27" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="J27" s="215"/>
+      <c r="J27" s="233"/>
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
       <c r="M27" s="66"/>
@@ -5657,8 +5534,8 @@
       <c r="R27" s="26"/>
     </row>
     <row r="28" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B28" s="216"/>
-      <c r="C28" s="227"/>
+      <c r="B28" s="234"/>
+      <c r="C28" s="245"/>
       <c r="D28" s="24" t="s">
         <v>51</v>
       </c>
@@ -5674,7 +5551,7 @@
       <c r="H28" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="J28" s="215"/>
+      <c r="J28" s="233"/>
       <c r="K28" s="16"/>
       <c r="L28" s="16"/>
       <c r="M28" s="66"/>
@@ -5685,8 +5562,8 @@
       <c r="R28" s="26"/>
     </row>
     <row r="29" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B29" s="216"/>
-      <c r="C29" s="228"/>
+      <c r="B29" s="234"/>
+      <c r="C29" s="246"/>
       <c r="D29" s="89" t="s">
         <v>94</v>
       </c>
@@ -5700,7 +5577,7 @@
       <c r="H29" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="J29" s="215"/>
+      <c r="J29" s="233"/>
       <c r="K29" s="16"/>
       <c r="L29" s="16"/>
       <c r="M29" s="66"/>
@@ -5711,7 +5588,7 @@
       <c r="R29" s="26"/>
     </row>
     <row r="30" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B30" s="216"/>
+      <c r="B30" s="234"/>
       <c r="C30" s="20" t="s">
         <v>44</v>
       </c>
@@ -5728,7 +5605,7 @@
       <c r="H30" s="125" t="s">
         <v>97</v>
       </c>
-      <c r="J30" s="215"/>
+      <c r="J30" s="233"/>
       <c r="K30" s="24"/>
       <c r="L30" s="36"/>
       <c r="M30" s="16"/>
@@ -5739,7 +5616,7 @@
       <c r="R30" s="37"/>
     </row>
     <row r="31" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B31" s="216"/>
+      <c r="B31" s="234"/>
       <c r="C31" s="93" t="s">
         <v>45</v>
       </c>
@@ -5756,7 +5633,7 @@
       <c r="H31" s="112" t="s">
         <v>100</v>
       </c>
-      <c r="J31" s="215"/>
+      <c r="J31" s="233"/>
       <c r="K31" s="24"/>
       <c r="L31" s="25"/>
       <c r="M31" s="16"/>
@@ -5767,7 +5644,7 @@
       <c r="R31" s="37"/>
     </row>
     <row r="32" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B32" s="216"/>
+      <c r="B32" s="234"/>
       <c r="C32" s="93" t="s">
         <v>46</v>
       </c>
@@ -5784,7 +5661,7 @@
       <c r="H32" s="113" t="s">
         <v>102</v>
       </c>
-      <c r="J32" s="215"/>
+      <c r="J32" s="233"/>
       <c r="K32" s="24"/>
       <c r="L32" s="16"/>
       <c r="M32" s="16"/>
@@ -5798,7 +5675,7 @@
       <c r="A33" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="216"/>
+      <c r="B33" s="234"/>
       <c r="C33" s="95"/>
       <c r="D33" s="24" t="s">
         <v>103</v>
@@ -5813,7 +5690,7 @@
       <c r="H33" s="113" t="s">
         <v>106</v>
       </c>
-      <c r="J33" s="215"/>
+      <c r="J33" s="233"/>
       <c r="K33" s="16"/>
       <c r="L33" s="32"/>
       <c r="M33" s="16"/>
@@ -5827,7 +5704,7 @@
       <c r="A34" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="216"/>
+      <c r="B34" s="234"/>
       <c r="C34" s="95"/>
       <c r="D34" s="24"/>
       <c r="E34" s="119" t="s">
@@ -5840,7 +5717,7 @@
       <c r="H34" s="113" t="s">
         <v>107</v>
       </c>
-      <c r="J34" s="215"/>
+      <c r="J34" s="233"/>
       <c r="K34" s="38"/>
       <c r="L34" s="32"/>
       <c r="M34" s="16"/>
@@ -5851,7 +5728,7 @@
       <c r="R34" s="39"/>
     </row>
     <row r="35" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B35" s="216"/>
+      <c r="B35" s="234"/>
       <c r="C35" s="96"/>
       <c r="D35" s="24"/>
       <c r="E35" s="119" t="s">
@@ -5862,7 +5739,7 @@
       <c r="H35" s="113" t="s">
         <v>200</v>
       </c>
-      <c r="J35" s="215"/>
+      <c r="J35" s="233"/>
       <c r="K35" s="38"/>
       <c r="L35" s="16"/>
       <c r="M35" s="40"/>
@@ -5873,7 +5750,7 @@
       <c r="R35" s="43"/>
     </row>
     <row r="36" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B36" s="216"/>
+      <c r="B36" s="234"/>
       <c r="C36" s="28"/>
       <c r="D36" s="34"/>
       <c r="E36" s="122"/>
@@ -5882,7 +5759,7 @@
       <c r="H36" s="114" t="s">
         <v>108</v>
       </c>
-      <c r="J36" s="215"/>
+      <c r="J36" s="233"/>
       <c r="K36" s="16"/>
       <c r="L36" s="16"/>
       <c r="M36" s="66"/>
@@ -5893,8 +5770,8 @@
       <c r="R36" s="26"/>
     </row>
     <row r="37" spans="1:18" s="44" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B37" s="216"/>
-      <c r="C37" s="217" t="s">
+      <c r="B37" s="234"/>
+      <c r="C37" s="235" t="s">
         <v>47</v>
       </c>
       <c r="D37" s="90" t="s">
@@ -5910,7 +5787,7 @@
       <c r="H37" s="90" t="s">
         <v>112</v>
       </c>
-      <c r="J37" s="219" t="s">
+      <c r="J37" s="237" t="s">
         <v>17</v>
       </c>
       <c r="K37" s="16"/>
@@ -5923,8 +5800,8 @@
       <c r="R37" s="32"/>
     </row>
     <row r="38" spans="1:18" s="47" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B38" s="216"/>
-      <c r="C38" s="218"/>
+      <c r="B38" s="234"/>
+      <c r="C38" s="236"/>
       <c r="D38" s="116" t="s">
         <v>113</v>
       </c>
@@ -5938,7 +5815,7 @@
       <c r="H38" s="90" t="s">
         <v>116</v>
       </c>
-      <c r="J38" s="220"/>
+      <c r="J38" s="238"/>
       <c r="K38" s="38"/>
       <c r="L38" s="52"/>
       <c r="M38" s="16"/>
@@ -5949,7 +5826,7 @@
       <c r="R38" s="32"/>
     </row>
     <row r="39" spans="1:18" s="47" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B39" s="216"/>
+      <c r="B39" s="234"/>
       <c r="C39" s="95"/>
       <c r="D39" s="90" t="s">
         <v>117</v>
@@ -5964,7 +5841,7 @@
       <c r="H39" s="90" t="s">
         <v>120</v>
       </c>
-      <c r="J39" s="220"/>
+      <c r="J39" s="238"/>
       <c r="K39" s="16"/>
       <c r="L39" s="52"/>
       <c r="M39" s="16"/>
@@ -5975,7 +5852,7 @@
       <c r="R39" s="59"/>
     </row>
     <row r="40" spans="1:18" s="17" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B40" s="216"/>
+      <c r="B40" s="234"/>
       <c r="C40" s="95"/>
       <c r="D40" s="116" t="s">
         <v>121</v>
@@ -5990,7 +5867,7 @@
       <c r="H40" s="90" t="s">
         <v>124</v>
       </c>
-      <c r="J40" s="220"/>
+      <c r="J40" s="238"/>
       <c r="K40" s="16"/>
       <c r="L40" s="40"/>
       <c r="M40" s="16"/>
@@ -6001,7 +5878,7 @@
       <c r="R40" s="69"/>
     </row>
     <row r="41" spans="1:18" s="47" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B41" s="216"/>
+      <c r="B41" s="234"/>
       <c r="C41" s="84"/>
       <c r="D41" s="90" t="s">
         <v>125</v>
@@ -6016,7 +5893,7 @@
       <c r="H41" s="90" t="s">
         <v>128</v>
       </c>
-      <c r="J41" s="220"/>
+      <c r="J41" s="238"/>
       <c r="L41" s="52"/>
       <c r="M41" s="52"/>
       <c r="N41" s="52"/>
@@ -6044,7 +5921,7 @@
       <c r="R42" s="22"/>
     </row>
     <row r="43" spans="1:18" s="17" customFormat="1" ht="26.1" customHeight="1" thickTop="1">
-      <c r="B43" s="221" t="s">
+      <c r="B43" s="239" t="s">
         <v>11</v>
       </c>
       <c r="C43" s="86" t="s">
@@ -6065,7 +5942,7 @@
       <c r="H43" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="J43" s="223" t="s">
+      <c r="J43" s="241" t="s">
         <v>12</v>
       </c>
       <c r="K43" s="52"/>
@@ -6081,7 +5958,7 @@
       <c r="A44" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="216"/>
+      <c r="B44" s="234"/>
       <c r="C44" s="87"/>
       <c r="D44" s="24" t="s">
         <v>131</v>
@@ -6098,7 +5975,7 @@
       <c r="H44" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="J44" s="223"/>
+      <c r="J44" s="241"/>
       <c r="K44" s="50"/>
       <c r="L44" s="16"/>
       <c r="M44" s="52"/>
@@ -6109,7 +5986,7 @@
       <c r="R44" s="22"/>
     </row>
     <row r="45" spans="1:18" s="17" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B45" s="216"/>
+      <c r="B45" s="234"/>
       <c r="C45" s="95"/>
       <c r="D45" s="24" t="s">
         <v>205</v>
@@ -6126,7 +6003,7 @@
       <c r="H45" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="J45" s="223"/>
+      <c r="J45" s="241"/>
       <c r="K45" s="16"/>
       <c r="L45" s="30"/>
       <c r="M45" s="52"/>
@@ -6137,7 +6014,7 @@
       <c r="R45" s="22"/>
     </row>
     <row r="46" spans="1:18" s="17" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B46" s="216"/>
+      <c r="B46" s="234"/>
       <c r="C46" s="95"/>
       <c r="D46" s="24" t="s">
         <v>54</v>
@@ -6154,7 +6031,7 @@
       <c r="H46" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="J46" s="223"/>
+      <c r="J46" s="241"/>
       <c r="K46" s="16"/>
       <c r="L46" s="8"/>
       <c r="M46" s="66"/>
@@ -6165,7 +6042,7 @@
       <c r="R46" s="26"/>
     </row>
     <row r="47" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B47" s="216"/>
+      <c r="B47" s="234"/>
       <c r="C47" s="95"/>
       <c r="D47" s="24" t="s">
         <v>143</v>
@@ -6182,7 +6059,7 @@
       <c r="H47" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="J47" s="223"/>
+      <c r="J47" s="241"/>
       <c r="K47" s="16"/>
       <c r="L47" s="8"/>
       <c r="M47" s="66"/>
@@ -6193,7 +6070,7 @@
       <c r="R47" s="26"/>
     </row>
     <row r="48" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B48" s="216"/>
+      <c r="B48" s="234"/>
       <c r="C48" s="95"/>
       <c r="D48" s="24" t="s">
         <v>148</v>
@@ -6210,7 +6087,7 @@
       <c r="H48" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="J48" s="223"/>
+      <c r="J48" s="241"/>
       <c r="K48" s="30"/>
       <c r="L48" s="8"/>
       <c r="M48" s="30"/>
@@ -6221,7 +6098,7 @@
       <c r="R48" s="26"/>
     </row>
     <row r="49" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B49" s="216"/>
+      <c r="B49" s="234"/>
       <c r="C49" s="83"/>
       <c r="D49" s="34">
         <v>725</v>
@@ -6238,7 +6115,7 @@
       <c r="H49" s="34">
         <v>725</v>
       </c>
-      <c r="J49" s="223"/>
+      <c r="J49" s="241"/>
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
       <c r="M49" s="8"/>
@@ -6246,7 +6123,7 @@
       <c r="R49" s="22"/>
     </row>
     <row r="50" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B50" s="216"/>
+      <c r="B50" s="234"/>
       <c r="C50" s="20" t="s">
         <v>14</v>
       </c>
@@ -6261,14 +6138,14 @@
         <v>155</v>
       </c>
       <c r="H50" s="21"/>
-      <c r="J50" s="223"/>
+      <c r="J50" s="241"/>
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
       <c r="N50" s="52"/>
       <c r="R50" s="22"/>
     </row>
     <row r="51" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B51" s="216"/>
+      <c r="B51" s="234"/>
       <c r="C51" s="23"/>
       <c r="D51" s="24" t="s">
         <v>156</v>
@@ -6281,7 +6158,7 @@
         <v>158</v>
       </c>
       <c r="H51" s="24"/>
-      <c r="J51" s="223"/>
+      <c r="J51" s="241"/>
       <c r="K51" s="21"/>
       <c r="L51" s="21"/>
       <c r="M51" s="8"/>
@@ -6289,7 +6166,7 @@
       <c r="R51" s="22"/>
     </row>
     <row r="52" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B52" s="216"/>
+      <c r="B52" s="234"/>
       <c r="C52" s="20"/>
       <c r="D52" s="24" t="s">
         <v>159</v>
@@ -6302,7 +6179,7 @@
         <v>161</v>
       </c>
       <c r="H52" s="24"/>
-      <c r="J52" s="223"/>
+      <c r="J52" s="241"/>
       <c r="K52" s="24"/>
       <c r="L52" s="24"/>
       <c r="M52" s="8"/>
@@ -6310,7 +6187,7 @@
       <c r="R52" s="22"/>
     </row>
     <row r="53" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B53" s="216"/>
+      <c r="B53" s="234"/>
       <c r="C53" s="20"/>
       <c r="D53" s="24" t="s">
         <v>162</v>
@@ -6323,7 +6200,7 @@
         <v>164</v>
       </c>
       <c r="H53" s="24"/>
-      <c r="J53" s="223"/>
+      <c r="J53" s="241"/>
       <c r="K53" s="24"/>
       <c r="L53" s="24"/>
       <c r="M53" s="8"/>
@@ -6331,7 +6208,7 @@
       <c r="R53" s="22"/>
     </row>
     <row r="54" spans="2:18" s="51" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B54" s="216"/>
+      <c r="B54" s="234"/>
       <c r="C54" s="20"/>
       <c r="D54" s="24" t="s">
         <v>165</v>
@@ -6344,7 +6221,7 @@
         <v>141</v>
       </c>
       <c r="H54" s="24"/>
-      <c r="J54" s="223"/>
+      <c r="J54" s="241"/>
       <c r="K54" s="24"/>
       <c r="L54" s="24"/>
       <c r="M54" s="8"/>
@@ -6355,7 +6232,7 @@
       <c r="R54" s="22"/>
     </row>
     <row r="55" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B55" s="216"/>
+      <c r="B55" s="234"/>
       <c r="C55" s="20"/>
       <c r="D55" s="24" t="s">
         <v>167</v>
@@ -6368,7 +6245,7 @@
         <v>168</v>
       </c>
       <c r="H55" s="24"/>
-      <c r="J55" s="223"/>
+      <c r="J55" s="241"/>
       <c r="K55" s="24"/>
       <c r="L55" s="24"/>
       <c r="M55" s="52"/>
@@ -6376,7 +6253,7 @@
       <c r="R55" s="22"/>
     </row>
     <row r="56" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B56" s="216"/>
+      <c r="B56" s="234"/>
       <c r="C56" s="102"/>
       <c r="D56" s="34">
         <v>725</v>
@@ -6389,7 +6266,7 @@
         <v>905</v>
       </c>
       <c r="H56" s="34"/>
-      <c r="J56" s="223"/>
+      <c r="J56" s="241"/>
       <c r="K56" s="24"/>
       <c r="L56" s="24"/>
       <c r="M56" s="52"/>
@@ -6397,8 +6274,8 @@
       <c r="R56" s="22"/>
     </row>
     <row r="57" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B57" s="216"/>
-      <c r="C57" s="224" t="s">
+      <c r="B57" s="234"/>
+      <c r="C57" s="242" t="s">
         <v>10</v>
       </c>
       <c r="D57" s="24" t="s">
@@ -6416,7 +6293,7 @@
       <c r="H57" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="J57" s="223"/>
+      <c r="J57" s="241"/>
       <c r="K57" s="25"/>
       <c r="L57" s="30"/>
       <c r="M57" s="52"/>
@@ -6424,8 +6301,8 @@
       <c r="R57" s="22"/>
     </row>
     <row r="58" spans="2:18" ht="26.1" customHeight="1" thickBot="1">
-      <c r="B58" s="222"/>
-      <c r="C58" s="225"/>
+      <c r="B58" s="240"/>
+      <c r="C58" s="243"/>
       <c r="D58" s="92" t="s">
         <v>169</v>
       </c>
@@ -6441,7 +6318,7 @@
       <c r="H58" s="92" t="s">
         <v>173</v>
       </c>
-      <c r="J58" s="223"/>
+      <c r="J58" s="241"/>
       <c r="K58" s="16"/>
       <c r="L58" s="8"/>
       <c r="M58" s="52"/>
@@ -6472,7 +6349,7 @@
       <c r="F60" s="24"/>
       <c r="G60" s="32"/>
       <c r="H60" s="32"/>
-      <c r="J60" s="226" t="s">
+      <c r="J60" s="244" t="s">
         <v>15</v>
       </c>
       <c r="K60" s="16"/>
@@ -6493,7 +6370,7 @@
       <c r="F61" s="55"/>
       <c r="G61" s="16"/>
       <c r="H61" s="56"/>
-      <c r="J61" s="226"/>
+      <c r="J61" s="244"/>
       <c r="K61" s="59"/>
       <c r="L61" s="8"/>
       <c r="M61" s="52"/>
@@ -6508,14 +6385,14 @@
       <c r="E62" s="58"/>
       <c r="F62" s="57"/>
       <c r="G62" s="58"/>
-      <c r="H62" s="212"/>
+      <c r="H62" s="230"/>
       <c r="K62" s="16"/>
       <c r="L62" s="16"/>
       <c r="M62" s="52"/>
       <c r="N62" s="52"/>
     </row>
     <row r="63" spans="2:18" ht="14.25" customHeight="1">
-      <c r="H63" s="212"/>
+      <c r="H63" s="230"/>
       <c r="K63" s="52"/>
       <c r="L63" s="16"/>
       <c r="M63" s="52"/>
@@ -6876,7 +6753,7 @@
   </sheetPr>
   <dimension ref="A1:R862"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="96" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="96" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:H60"/>
     </sheetView>
   </sheetViews>
@@ -6919,7 +6796,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="97"/>
       <c r="H2" s="2"/>
-      <c r="J2" s="213" t="s">
+      <c r="J2" s="231" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="32"/>
@@ -6930,14 +6807,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="11"/>
       <c r="E3" s="98"/>
       <c r="F3" s="98"/>
       <c r="G3" s="11"/>
-      <c r="J3" s="213"/>
+      <c r="J3" s="231"/>
       <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:18" ht="24" customHeight="1">
@@ -6958,21 +6835,21 @@
         <v>39</v>
       </c>
       <c r="D5" s="157" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="H5" s="157" t="s">
-        <v>231</v>
-      </c>
-      <c r="J5" s="214" t="s">
+        <v>244</v>
+      </c>
+      <c r="J5" s="232" t="s">
         <v>37</v>
       </c>
       <c r="K5" s="48"/>
@@ -6985,28 +6862,28 @@
       <c r="R5" s="2"/>
     </row>
     <row r="6" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B6" s="231" t="s">
+      <c r="B6" s="249" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="D6" s="188" t="s">
-        <v>232</v>
-      </c>
-      <c r="E6" s="189" t="s">
-        <v>233</v>
+      <c r="D6" s="186" t="s">
+        <v>245</v>
+      </c>
+      <c r="E6" s="187" t="s">
+        <v>246</v>
       </c>
       <c r="F6" s="140" t="s">
-        <v>234</v>
-      </c>
-      <c r="G6" s="188" t="s">
-        <v>235</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="J6" s="215"/>
+        <v>247</v>
+      </c>
+      <c r="G6" s="140" t="s">
+        <v>248</v>
+      </c>
+      <c r="H6" s="202" t="s">
+        <v>249</v>
+      </c>
+      <c r="J6" s="233"/>
       <c r="K6" s="52"/>
       <c r="L6" s="140"/>
       <c r="M6" s="48"/>
@@ -7015,26 +6892,24 @@
       <c r="P6" s="22"/>
     </row>
     <row r="7" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B7" s="216"/>
+      <c r="B7" s="234"/>
       <c r="C7" s="23" t="s">
         <v>218</v>
       </c>
       <c r="D7" s="133" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="E7" s="119" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="F7" s="133" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="G7" s="133" t="s">
-        <v>240</v>
-      </c>
-      <c r="H7" s="133" t="s">
-        <v>241</v>
-      </c>
-      <c r="J7" s="215"/>
+        <v>253</v>
+      </c>
+      <c r="H7" s="203"/>
+      <c r="J7" s="233"/>
       <c r="K7" s="52"/>
       <c r="L7" s="133"/>
       <c r="M7" s="48"/>
@@ -7043,24 +6918,22 @@
       <c r="P7" s="22"/>
     </row>
     <row r="8" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B8" s="216"/>
+      <c r="B8" s="234"/>
       <c r="C8" s="153"/>
       <c r="D8" s="133" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="E8" s="119" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="F8" s="133" t="s">
-        <v>366</v>
-      </c>
-      <c r="G8" s="133" t="s">
-        <v>244</v>
-      </c>
-      <c r="H8" s="133" t="s">
-        <v>245</v>
-      </c>
-      <c r="J8" s="215"/>
+        <v>234</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="H8" s="203"/>
+      <c r="J8" s="233"/>
       <c r="K8" s="52"/>
       <c r="L8" s="133"/>
       <c r="M8" s="48"/>
@@ -7069,24 +6942,22 @@
       <c r="P8" s="22"/>
     </row>
     <row r="9" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B9" s="216"/>
+      <c r="B9" s="234"/>
       <c r="C9" s="153"/>
       <c r="D9" s="133" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="E9" s="119" t="s">
-        <v>247</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>248</v>
+        <v>258</v>
+      </c>
+      <c r="F9" s="133" t="s">
+        <v>259</v>
       </c>
       <c r="G9" s="133" t="s">
-        <v>249</v>
-      </c>
-      <c r="H9" s="133" t="s">
-        <v>140</v>
-      </c>
-      <c r="J9" s="215"/>
+        <v>260</v>
+      </c>
+      <c r="H9" s="203"/>
+      <c r="J9" s="233"/>
       <c r="K9" s="52"/>
       <c r="L9" s="133"/>
       <c r="M9" s="48"/>
@@ -7095,24 +6966,22 @@
       <c r="P9" s="22"/>
     </row>
     <row r="10" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B10" s="216"/>
+      <c r="B10" s="234"/>
       <c r="C10" s="153"/>
       <c r="D10" s="133" t="s">
         <v>53</v>
       </c>
       <c r="E10" s="119" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="F10" s="133" t="s">
-        <v>150</v>
+        <v>53</v>
       </c>
       <c r="G10" s="133" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="133" t="s">
-        <v>250</v>
-      </c>
-      <c r="J10" s="215"/>
+      <c r="H10" s="203"/>
+      <c r="J10" s="233"/>
       <c r="K10" s="52"/>
       <c r="L10" s="133"/>
       <c r="M10" s="48"/>
@@ -7121,7 +6990,7 @@
       <c r="P10" s="22"/>
     </row>
     <row r="11" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B11" s="216"/>
+      <c r="B11" s="234"/>
       <c r="C11" s="153"/>
       <c r="D11" s="133" t="s">
         <v>50</v>
@@ -7135,10 +7004,8 @@
       <c r="G11" s="133" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="133" t="s">
-        <v>50</v>
-      </c>
-      <c r="J11" s="215"/>
+      <c r="H11" s="203"/>
+      <c r="J11" s="233"/>
       <c r="K11" s="52"/>
       <c r="L11" s="48"/>
       <c r="M11" s="48"/>
@@ -7147,24 +7014,22 @@
       <c r="P11" s="26"/>
     </row>
     <row r="12" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B12" s="216"/>
+      <c r="B12" s="234"/>
       <c r="C12" s="28"/>
       <c r="D12" s="131">
-        <v>1245</v>
+        <v>974</v>
       </c>
       <c r="E12" s="122">
-        <v>1394</v>
+        <v>1265</v>
       </c>
       <c r="F12" s="131">
-        <v>1084</v>
+        <v>1269</v>
       </c>
       <c r="G12" s="131">
-        <v>939</v>
-      </c>
-      <c r="H12" s="131">
-        <v>907</v>
-      </c>
-      <c r="J12" s="215"/>
+        <v>979</v>
+      </c>
+      <c r="H12" s="204"/>
+      <c r="J12" s="233"/>
       <c r="K12" s="24"/>
       <c r="L12" s="48"/>
       <c r="M12" s="52"/>
@@ -7175,117 +7040,107 @@
       <c r="R12" s="22"/>
     </row>
     <row r="13" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B13" s="216"/>
+      <c r="B13" s="234"/>
       <c r="C13" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="190" t="s">
-        <v>253</v>
+      <c r="D13" s="158" t="s">
+        <v>262</v>
       </c>
       <c r="E13" s="118" t="s">
-        <v>254</v>
-      </c>
-      <c r="F13" s="190" t="s">
-        <v>255</v>
-      </c>
-      <c r="G13" s="190" t="s">
-        <v>256</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>257</v>
-      </c>
-      <c r="J13" s="215"/>
+        <v>263</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="G13" s="158" t="s">
+        <v>265</v>
+      </c>
+      <c r="H13" s="205"/>
+      <c r="J13" s="233"/>
       <c r="K13" s="21"/>
       <c r="L13" s="52"/>
       <c r="M13" s="22"/>
     </row>
     <row r="14" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B14" s="216"/>
+      <c r="B14" s="234"/>
       <c r="C14" s="23" t="s">
         <v>219</v>
       </c>
       <c r="D14" s="130" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="119" t="s">
-        <v>258</v>
-      </c>
-      <c r="F14" s="191" t="s">
-        <v>259</v>
-      </c>
-      <c r="G14" s="191" t="s">
-        <v>260</v>
-      </c>
-      <c r="H14" s="130" t="s">
-        <v>261</v>
-      </c>
-      <c r="J14" s="215"/>
+        <v>266</v>
+      </c>
+      <c r="E14" s="227" t="s">
+        <v>342</v>
+      </c>
+      <c r="F14" s="189" t="s">
+        <v>267</v>
+      </c>
+      <c r="G14" s="189" t="s">
+        <v>152</v>
+      </c>
+      <c r="H14" s="203"/>
+      <c r="J14" s="233"/>
       <c r="K14" s="24"/>
       <c r="M14" s="29"/>
     </row>
     <row r="15" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B15" s="216"/>
+      <c r="B15" s="234"/>
       <c r="C15" s="153"/>
       <c r="D15" s="130" t="s">
-        <v>262</v>
-      </c>
-      <c r="E15" s="119" t="s">
-        <v>263</v>
+        <v>268</v>
+      </c>
+      <c r="E15" s="228" t="s">
+        <v>343</v>
       </c>
       <c r="F15" s="130" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G15" s="130" t="s">
-        <v>265</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="J15" s="215"/>
+        <v>270</v>
+      </c>
+      <c r="H15" s="203"/>
+      <c r="J15" s="233"/>
       <c r="K15" s="24"/>
       <c r="M15" s="22"/>
     </row>
     <row r="16" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B16" s="216"/>
+      <c r="B16" s="234"/>
       <c r="C16" s="153"/>
       <c r="D16" s="130" t="s">
-        <v>266</v>
+        <v>101</v>
       </c>
       <c r="E16" s="119" t="s">
-        <v>147</v>
+        <v>344</v>
       </c>
       <c r="F16" s="134" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="G16" s="134" t="s">
-        <v>191</v>
-      </c>
-      <c r="H16" s="24" t="s">
-        <v>268</v>
-      </c>
-      <c r="J16" s="215"/>
+        <v>271</v>
+      </c>
+      <c r="H16" s="206"/>
+      <c r="J16" s="233"/>
       <c r="K16" s="24"/>
       <c r="M16" s="22"/>
     </row>
     <row r="17" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B17" s="216"/>
+      <c r="B17" s="234"/>
       <c r="C17" s="153"/>
       <c r="D17" s="130" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="E17" s="119" t="s">
+        <v>345</v>
+      </c>
+      <c r="F17" s="134" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="134" t="s">
-        <v>101</v>
-      </c>
       <c r="G17" s="134" t="s">
-        <v>250</v>
-      </c>
-      <c r="H17" s="133" t="s">
-        <v>269</v>
-      </c>
-      <c r="J17" s="215"/>
+        <v>229</v>
+      </c>
+      <c r="H17" s="207"/>
+      <c r="J17" s="233"/>
       <c r="K17" s="24"/>
       <c r="M17" s="22"/>
     </row>
@@ -7293,257 +7148,233 @@
       <c r="A18" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="216"/>
+      <c r="B18" s="234"/>
       <c r="C18" s="31"/>
       <c r="D18" s="130" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="119"/>
-      <c r="F18" s="134" t="s">
+      <c r="E18" s="119" t="s">
         <v>50</v>
       </c>
+      <c r="F18" s="134"/>
       <c r="G18" s="134" t="s">
         <v>50</v>
       </c>
-      <c r="H18" s="134" t="s">
-        <v>50</v>
-      </c>
-      <c r="J18" s="215"/>
+      <c r="H18" s="203"/>
+      <c r="J18" s="233"/>
       <c r="K18" s="24"/>
       <c r="M18" s="22"/>
     </row>
     <row r="19" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B19" s="216"/>
+      <c r="B19" s="234"/>
       <c r="C19" s="28"/>
       <c r="D19" s="131">
-        <v>948</v>
+        <v>1009</v>
       </c>
       <c r="E19" s="122">
-        <v>1219</v>
+        <v>968</v>
       </c>
       <c r="F19" s="131">
-        <v>1171</v>
+        <v>967</v>
       </c>
       <c r="G19" s="131">
-        <v>748</v>
-      </c>
-      <c r="H19" s="131">
-        <v>1339</v>
-      </c>
-      <c r="J19" s="215"/>
+        <v>1037</v>
+      </c>
+      <c r="H19" s="204"/>
+      <c r="J19" s="233"/>
       <c r="K19" s="82"/>
       <c r="L19" s="17"/>
       <c r="M19" s="32"/>
       <c r="N19" s="17"/>
     </row>
     <row r="20" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B20" s="216"/>
+      <c r="B20" s="234"/>
       <c r="C20" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="158" t="s">
-        <v>289</v>
+      <c r="D20" s="140" t="s">
+        <v>272</v>
       </c>
       <c r="E20" s="118" t="s">
-        <v>271</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>272</v>
-      </c>
-      <c r="G20" s="192" t="s">
         <v>273</v>
       </c>
-      <c r="H20" s="190" t="s">
+      <c r="F20" s="188" t="s">
         <v>274</v>
       </c>
-      <c r="J20" s="215"/>
+      <c r="G20" s="188" t="s">
+        <v>275</v>
+      </c>
+      <c r="H20" s="205"/>
+      <c r="J20" s="233"/>
       <c r="K20" s="24"/>
       <c r="M20" s="22"/>
     </row>
     <row r="21" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B21" s="216"/>
+      <c r="B21" s="234"/>
       <c r="C21" s="23" t="s">
         <v>220</v>
       </c>
       <c r="D21" s="130" t="s">
-        <v>275</v>
+        <v>182</v>
       </c>
       <c r="E21" s="119" t="s">
         <v>276</v>
       </c>
-      <c r="F21" s="193" t="s">
+      <c r="F21" s="189" t="s">
         <v>277</v>
       </c>
-      <c r="G21" s="193" t="s">
+      <c r="G21" s="189" t="s">
         <v>278</v>
       </c>
-      <c r="H21" s="291" t="s">
-        <v>367</v>
-      </c>
-      <c r="J21" s="215"/>
+      <c r="H21" s="203"/>
+      <c r="J21" s="233"/>
       <c r="K21" s="24"/>
       <c r="M21" s="22"/>
       <c r="N21" s="33"/>
     </row>
     <row r="22" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B22" s="216"/>
+      <c r="B22" s="234"/>
       <c r="C22" s="23"/>
       <c r="D22" s="130" t="s">
+        <v>232</v>
+      </c>
+      <c r="E22" s="119" t="s">
+        <v>279</v>
+      </c>
+      <c r="F22" s="130" t="s">
+        <v>230</v>
+      </c>
+      <c r="G22" s="189" t="s">
         <v>280</v>
       </c>
-      <c r="E22" s="119" t="s">
-        <v>281</v>
-      </c>
-      <c r="F22" s="130" t="s">
-        <v>282</v>
-      </c>
-      <c r="G22" s="130" t="s">
-        <v>283</v>
-      </c>
-      <c r="H22" s="170" t="s">
-        <v>279</v>
-      </c>
-      <c r="J22" s="215"/>
+      <c r="H22" s="203"/>
+      <c r="J22" s="233"/>
       <c r="K22" s="16"/>
       <c r="L22" s="33"/>
       <c r="N22" s="27"/>
     </row>
     <row r="23" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B23" s="216"/>
+      <c r="B23" s="234"/>
       <c r="C23" s="153"/>
       <c r="D23" s="130" t="s">
-        <v>285</v>
+        <v>226</v>
       </c>
       <c r="E23" s="119" t="s">
-        <v>364</v>
-      </c>
-      <c r="F23" s="130" t="s">
-        <v>286</v>
+        <v>233</v>
+      </c>
+      <c r="F23" s="134" t="s">
+        <v>281</v>
       </c>
       <c r="G23" s="130" t="s">
-        <v>287</v>
-      </c>
-      <c r="H23" s="24" t="s">
-        <v>284</v>
-      </c>
-      <c r="J23" s="215"/>
+        <v>282</v>
+      </c>
+      <c r="H23" s="207"/>
+      <c r="J23" s="233"/>
       <c r="K23" s="16"/>
       <c r="L23" s="130"/>
       <c r="N23" s="45"/>
     </row>
     <row r="24" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B24" s="216"/>
+      <c r="B24" s="234"/>
       <c r="C24" s="153"/>
       <c r="D24" s="130" t="s">
-        <v>147</v>
+        <v>227</v>
       </c>
       <c r="E24" s="119" t="s">
-        <v>288</v>
+        <v>50</v>
       </c>
       <c r="F24" s="134" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="G24" s="134" t="s">
-        <v>147</v>
-      </c>
-      <c r="H24" s="133" t="s">
-        <v>288</v>
-      </c>
-      <c r="J24" s="215"/>
+        <v>283</v>
+      </c>
+      <c r="H24" s="207"/>
+      <c r="J24" s="233"/>
       <c r="K24" s="16"/>
       <c r="L24" s="130"/>
       <c r="N24" s="41"/>
     </row>
     <row r="25" spans="1:18" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B25" s="216"/>
+      <c r="B25" s="234"/>
       <c r="C25" s="153"/>
       <c r="D25" s="130" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="119" t="s">
-        <v>50</v>
-      </c>
-      <c r="F25" s="133" t="s">
+      <c r="E25" s="119"/>
+      <c r="F25" s="134" t="s">
         <v>50</v>
       </c>
       <c r="G25" s="133" t="s">
         <v>50</v>
       </c>
-      <c r="H25" s="134" t="s">
-        <v>50</v>
-      </c>
-      <c r="J25" s="215"/>
+      <c r="H25" s="207"/>
+      <c r="J25" s="233"/>
       <c r="K25" s="52"/>
       <c r="L25" s="130"/>
       <c r="N25" s="16"/>
     </row>
     <row r="26" spans="1:18" s="33" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B26" s="216"/>
+      <c r="B26" s="234"/>
       <c r="C26" s="28"/>
       <c r="D26" s="130">
-        <v>890</v>
+        <v>1299</v>
       </c>
       <c r="E26" s="122">
-        <v>816</v>
+        <v>949</v>
       </c>
       <c r="F26" s="131">
-        <v>740</v>
+        <v>1229</v>
       </c>
       <c r="G26" s="131">
-        <v>1079</v>
-      </c>
-      <c r="H26" s="131">
-        <v>897</v>
-      </c>
-      <c r="J26" s="215"/>
+        <v>1222</v>
+      </c>
+      <c r="H26" s="204"/>
+      <c r="J26" s="233"/>
       <c r="K26" s="66"/>
       <c r="L26" s="130"/>
       <c r="N26" s="48"/>
     </row>
     <row r="27" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B27" s="216"/>
-      <c r="C27" s="224" t="s">
+      <c r="B27" s="234"/>
+      <c r="C27" s="242" t="s">
         <v>43</v>
       </c>
       <c r="D27" s="129" t="s">
         <v>52</v>
       </c>
       <c r="E27" s="129" t="s">
-        <v>147</v>
+        <v>284</v>
       </c>
       <c r="F27" s="129" t="s">
         <v>52</v>
       </c>
       <c r="G27" s="129" t="s">
-        <v>147</v>
-      </c>
-      <c r="H27" s="129" t="s">
-        <v>52</v>
-      </c>
-      <c r="J27" s="215"/>
+        <v>284</v>
+      </c>
+      <c r="H27" s="208"/>
+      <c r="J27" s="233"/>
       <c r="K27" s="16"/>
       <c r="L27" s="26"/>
       <c r="N27" s="48"/>
     </row>
     <row r="28" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B28" s="216"/>
-      <c r="C28" s="227"/>
+      <c r="B28" s="234"/>
+      <c r="C28" s="245"/>
       <c r="D28" s="94" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E28" s="94" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F28" s="94" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G28" s="94" t="s">
-        <v>293</v>
-      </c>
-      <c r="H28" s="94" t="s">
-        <v>294</v>
-      </c>
-      <c r="J28" s="215"/>
+        <v>288</v>
+      </c>
+      <c r="H28" s="209"/>
+      <c r="J28" s="233"/>
       <c r="K28" s="16"/>
       <c r="L28" s="66"/>
       <c r="M28" s="41"/>
@@ -7553,22 +7384,20 @@
       <c r="Q28" s="26"/>
     </row>
     <row r="29" spans="1:18" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B29" s="216"/>
-      <c r="C29" s="228"/>
+      <c r="B29" s="234"/>
+      <c r="C29" s="246"/>
       <c r="D29" s="138" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E29" s="131"/>
       <c r="F29" s="138" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G29" s="139" t="s">
-        <v>297</v>
-      </c>
-      <c r="H29" s="194" t="s">
-        <v>298</v>
-      </c>
-      <c r="J29" s="215"/>
+        <v>291</v>
+      </c>
+      <c r="H29" s="210"/>
+      <c r="J29" s="233"/>
       <c r="K29" s="101"/>
       <c r="L29" s="16"/>
       <c r="M29" s="66"/>
@@ -7579,26 +7408,24 @@
       <c r="R29" s="26"/>
     </row>
     <row r="30" spans="1:18" s="44" customFormat="1" ht="30.75" customHeight="1">
-      <c r="B30" s="216"/>
+      <c r="B30" s="234"/>
       <c r="C30" s="160" t="s">
         <v>208</v>
       </c>
-      <c r="D30" s="200" t="s">
-        <v>344</v>
+      <c r="D30" s="190" t="s">
+        <v>292</v>
       </c>
       <c r="E30" s="161" t="s">
-        <v>345</v>
+        <v>293</v>
       </c>
       <c r="F30" s="162" t="s">
-        <v>346</v>
+        <v>294</v>
       </c>
       <c r="G30" s="162" t="s">
-        <v>347</v>
-      </c>
-      <c r="H30" s="162" t="s">
-        <v>348</v>
-      </c>
-      <c r="J30" s="219" t="s">
+        <v>295</v>
+      </c>
+      <c r="H30" s="211"/>
+      <c r="J30" s="237" t="s">
         <v>17</v>
       </c>
       <c r="K30" s="16"/>
@@ -7611,24 +7438,22 @@
       <c r="R30" s="32"/>
     </row>
     <row r="31" spans="1:18" s="47" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B31" s="216"/>
+      <c r="B31" s="234"/>
       <c r="C31" s="83"/>
       <c r="D31" s="163">
         <v>689</v>
       </c>
       <c r="E31" s="163">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="F31" s="163">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="G31" s="163">
-        <v>638</v>
-      </c>
-      <c r="H31" s="163">
-        <v>748</v>
-      </c>
-      <c r="J31" s="220"/>
+        <v>674</v>
+      </c>
+      <c r="H31" s="212"/>
+      <c r="J31" s="238"/>
       <c r="K31" s="52"/>
       <c r="L31" s="16"/>
       <c r="M31" s="16"/>
@@ -7638,26 +7463,24 @@
       <c r="Q31" s="32"/>
     </row>
     <row r="32" spans="1:18" s="47" customFormat="1" ht="63.75" customHeight="1">
-      <c r="B32" s="216"/>
+      <c r="B32" s="234"/>
       <c r="C32" s="160" t="s">
         <v>222</v>
       </c>
-      <c r="D32" s="201" t="s">
-        <v>349</v>
-      </c>
-      <c r="E32" s="202" t="s">
-        <v>352</v>
-      </c>
-      <c r="F32" s="202" t="s">
-        <v>350</v>
-      </c>
-      <c r="G32" s="202" t="s">
-        <v>351</v>
-      </c>
-      <c r="H32" s="202" t="s">
-        <v>365</v>
-      </c>
-      <c r="J32" s="220"/>
+      <c r="D32" s="191" t="s">
+        <v>338</v>
+      </c>
+      <c r="E32" s="192" t="s">
+        <v>296</v>
+      </c>
+      <c r="F32" s="192" t="s">
+        <v>297</v>
+      </c>
+      <c r="G32" s="192" t="s">
+        <v>298</v>
+      </c>
+      <c r="H32" s="213"/>
+      <c r="J32" s="238"/>
       <c r="K32" s="52"/>
       <c r="L32" s="16"/>
       <c r="M32" s="16"/>
@@ -7667,24 +7490,22 @@
       <c r="Q32" s="59"/>
     </row>
     <row r="33" spans="1:18" s="47" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B33" s="216"/>
+      <c r="B33" s="234"/>
       <c r="C33" s="132"/>
       <c r="D33" s="164">
-        <v>976</v>
+        <v>962</v>
       </c>
       <c r="E33" s="164">
-        <v>881</v>
+        <v>957</v>
       </c>
       <c r="F33" s="164">
-        <v>915</v>
+        <v>897</v>
       </c>
       <c r="G33" s="164">
-        <v>892</v>
-      </c>
-      <c r="H33" s="164">
-        <v>925</v>
-      </c>
-      <c r="J33" s="220"/>
+        <v>1002</v>
+      </c>
+      <c r="H33" s="214"/>
+      <c r="J33" s="238"/>
       <c r="K33" s="52"/>
       <c r="L33" s="52"/>
       <c r="M33" s="52"/>
@@ -7694,25 +7515,23 @@
       <c r="Q33" s="22"/>
     </row>
     <row r="34" spans="1:18" s="47" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B34" s="216"/>
+      <c r="B34" s="234"/>
       <c r="C34" s="160" t="s">
         <v>215</v>
       </c>
       <c r="D34" s="165" t="s">
-        <v>353</v>
+        <v>299</v>
       </c>
       <c r="E34" s="165" t="s">
-        <v>354</v>
+        <v>300</v>
       </c>
       <c r="F34" s="165" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="G34" s="165" t="s">
-        <v>356</v>
-      </c>
-      <c r="H34" s="165" t="s">
-        <v>357</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="H34" s="215"/>
       <c r="J34" s="17"/>
       <c r="K34" s="52"/>
       <c r="L34" s="52"/>
@@ -7723,23 +7542,21 @@
       <c r="Q34" s="22"/>
     </row>
     <row r="35" spans="1:18" s="47" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B35" s="216"/>
+      <c r="B35" s="234"/>
       <c r="C35" s="166"/>
       <c r="D35" s="164">
+        <v>528</v>
+      </c>
+      <c r="E35" s="164">
+        <v>603</v>
+      </c>
+      <c r="F35" s="164">
+        <v>696</v>
+      </c>
+      <c r="G35" s="164">
         <v>672</v>
       </c>
-      <c r="E35" s="164">
-        <v>467</v>
-      </c>
-      <c r="F35" s="164">
-        <v>665</v>
-      </c>
-      <c r="G35" s="164">
-        <v>642</v>
-      </c>
-      <c r="H35" s="164">
-        <v>634</v>
-      </c>
+      <c r="H35" s="214"/>
       <c r="J35" s="17"/>
       <c r="K35" s="52"/>
       <c r="L35" s="52"/>
@@ -7750,25 +7567,23 @@
       <c r="Q35" s="22"/>
     </row>
     <row r="36" spans="1:18" s="47" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B36" s="216"/>
-      <c r="C36" s="229" t="s">
+      <c r="B36" s="234"/>
+      <c r="C36" s="247" t="s">
         <v>221</v>
       </c>
       <c r="D36" s="169" t="s">
-        <v>358</v>
+        <v>302</v>
       </c>
       <c r="E36" s="169" t="s">
-        <v>362</v>
+        <v>303</v>
       </c>
       <c r="F36" s="169" t="s">
-        <v>359</v>
+        <v>304</v>
       </c>
       <c r="G36" s="169" t="s">
-        <v>360</v>
-      </c>
-      <c r="H36" s="169" t="s">
-        <v>361</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="H36" s="216"/>
       <c r="J36" s="17"/>
       <c r="K36" s="52"/>
       <c r="L36" s="52"/>
@@ -7779,23 +7594,21 @@
       <c r="Q36" s="22"/>
     </row>
     <row r="37" spans="1:18" s="47" customFormat="1" ht="26.1" customHeight="1" thickBot="1">
-      <c r="B37" s="216"/>
-      <c r="C37" s="230"/>
+      <c r="B37" s="234"/>
+      <c r="C37" s="248"/>
       <c r="D37" s="167">
-        <v>847</v>
+        <v>826</v>
       </c>
       <c r="E37" s="167">
-        <v>833</v>
+        <v>786</v>
       </c>
       <c r="F37" s="167">
-        <v>866</v>
+        <v>798</v>
       </c>
       <c r="G37" s="167">
-        <v>822</v>
-      </c>
-      <c r="H37" s="167">
-        <v>836</v>
-      </c>
+        <v>864</v>
+      </c>
+      <c r="H37" s="217"/>
       <c r="J37" s="17"/>
       <c r="K37" s="52"/>
       <c r="L37" s="52"/>
@@ -7806,28 +7619,26 @@
       <c r="Q37" s="22"/>
     </row>
     <row r="38" spans="1:18" s="17" customFormat="1" ht="26.1" customHeight="1" thickTop="1">
-      <c r="B38" s="221" t="s">
+      <c r="B38" s="239" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="168" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="21" t="s">
-        <v>299</v>
+      <c r="D38" s="186" t="s">
+        <v>59</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="F38" s="140" t="s">
-        <v>301</v>
-      </c>
-      <c r="G38" s="190" t="s">
-        <v>302</v>
-      </c>
-      <c r="H38" s="140" t="s">
-        <v>303</v>
-      </c>
-      <c r="J38" s="223" t="s">
+        <v>307</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="H38" s="218"/>
+      <c r="J38" s="241" t="s">
         <v>12</v>
       </c>
       <c r="K38" s="52"/>
@@ -7843,24 +7654,22 @@
       <c r="A39" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="216"/>
+      <c r="B39" s="234"/>
       <c r="C39" s="23"/>
       <c r="D39" s="133" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>78</v>
+        <v>310</v>
       </c>
       <c r="F39" s="133" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="G39" s="133" t="s">
-        <v>306</v>
-      </c>
-      <c r="H39" s="24" t="s">
-        <v>307</v>
-      </c>
-      <c r="J39" s="223"/>
+        <v>311</v>
+      </c>
+      <c r="H39" s="203"/>
+      <c r="J39" s="241"/>
       <c r="K39" s="66"/>
       <c r="L39" s="16"/>
       <c r="M39" s="52"/>
@@ -7871,24 +7680,22 @@
       <c r="R39" s="22"/>
     </row>
     <row r="40" spans="1:18" s="17" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B40" s="216"/>
+      <c r="B40" s="234"/>
       <c r="C40" s="159"/>
       <c r="D40" s="133" t="s">
-        <v>308</v>
-      </c>
-      <c r="E40" s="24" t="s">
-        <v>309</v>
-      </c>
-      <c r="F40" s="133" t="s">
-        <v>310</v>
-      </c>
-      <c r="G40" s="101" t="s">
-        <v>311</v>
-      </c>
-      <c r="H40" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="J40" s="223"/>
+      <c r="E40" s="130" t="s">
+        <v>313</v>
+      </c>
+      <c r="F40" s="101" t="s">
+        <v>317</v>
+      </c>
+      <c r="G40" s="133" t="s">
+        <v>135</v>
+      </c>
+      <c r="H40" s="203"/>
+      <c r="J40" s="241"/>
       <c r="K40" s="66"/>
       <c r="L40" s="30"/>
       <c r="M40" s="52"/>
@@ -7899,24 +7706,22 @@
       <c r="R40" s="22"/>
     </row>
     <row r="41" spans="1:18" s="17" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B41" s="216"/>
+      <c r="B41" s="234"/>
       <c r="C41" s="159"/>
       <c r="D41" s="133" t="s">
-        <v>164</v>
+        <v>315</v>
       </c>
       <c r="E41" s="133" t="s">
-        <v>313</v>
-      </c>
-      <c r="F41" s="133" t="s">
-        <v>314</v>
-      </c>
-      <c r="G41" s="101" t="s">
-        <v>315</v>
-      </c>
-      <c r="H41" s="133" t="s">
         <v>316</v>
       </c>
-      <c r="J41" s="223"/>
+      <c r="F41" s="134" t="s">
+        <v>235</v>
+      </c>
+      <c r="G41" s="133" t="s">
+        <v>231</v>
+      </c>
+      <c r="H41" s="203"/>
+      <c r="J41" s="241"/>
       <c r="K41" s="30"/>
       <c r="L41" s="8"/>
       <c r="M41" s="66"/>
@@ -7927,24 +7732,22 @@
       <c r="R41" s="26"/>
     </row>
     <row r="42" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B42" s="216"/>
+      <c r="B42" s="234"/>
       <c r="C42" s="159"/>
       <c r="D42" s="133" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="E42" s="133" t="s">
-        <v>250</v>
+        <v>318</v>
       </c>
       <c r="F42" s="133" t="s">
+        <v>226</v>
+      </c>
+      <c r="G42" s="133" t="s">
         <v>146</v>
       </c>
-      <c r="G42" s="134" t="s">
-        <v>146</v>
-      </c>
-      <c r="H42" s="133" t="s">
-        <v>146</v>
-      </c>
-      <c r="J42" s="223"/>
+      <c r="H42" s="203"/>
+      <c r="J42" s="241"/>
       <c r="K42" s="52"/>
       <c r="L42" s="8"/>
       <c r="M42" s="66"/>
@@ -7955,22 +7758,18 @@
       <c r="R42" s="26"/>
     </row>
     <row r="43" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B43" s="216"/>
+      <c r="B43" s="234"/>
       <c r="C43" s="159"/>
       <c r="D43" s="133" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="E43" s="133"/>
-      <c r="F43" s="133" t="s">
-        <v>252</v>
-      </c>
+      <c r="F43" s="133"/>
       <c r="G43" s="133" t="s">
-        <v>252</v>
-      </c>
-      <c r="H43" s="133" t="s">
-        <v>252</v>
-      </c>
-      <c r="J43" s="223"/>
+        <v>227</v>
+      </c>
+      <c r="H43" s="203"/>
+      <c r="J43" s="241"/>
       <c r="K43" s="52"/>
       <c r="L43" s="8"/>
       <c r="M43" s="30"/>
@@ -7981,24 +7780,22 @@
       <c r="R43" s="26"/>
     </row>
     <row r="44" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B44" s="216"/>
+      <c r="B44" s="234"/>
       <c r="C44" s="83"/>
       <c r="D44" s="131">
-        <v>1172</v>
+        <v>920</v>
       </c>
       <c r="E44" s="131">
-        <v>912</v>
+        <v>1227</v>
       </c>
       <c r="F44" s="131">
-        <v>908</v>
+        <v>936</v>
       </c>
       <c r="G44" s="131">
-        <v>951</v>
-      </c>
-      <c r="H44" s="131">
-        <v>992</v>
-      </c>
-      <c r="J44" s="223"/>
+        <v>1047</v>
+      </c>
+      <c r="H44" s="204"/>
+      <c r="J44" s="241"/>
       <c r="K44" s="52"/>
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
@@ -8006,26 +7803,24 @@
       <c r="R44" s="22"/>
     </row>
     <row r="45" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B45" s="216"/>
+      <c r="B45" s="234"/>
       <c r="C45" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="140" t="s">
-        <v>317</v>
-      </c>
-      <c r="E45" s="193" t="s">
-        <v>318</v>
-      </c>
-      <c r="F45" s="140" t="s">
+      <c r="D45" s="219" t="s">
         <v>319</v>
       </c>
-      <c r="G45" s="195" t="s">
+      <c r="E45" s="219" t="s">
         <v>320</v>
       </c>
-      <c r="H45" s="195" t="s">
+      <c r="F45" s="219" t="s">
         <v>321</v>
       </c>
-      <c r="J45" s="223"/>
+      <c r="G45" s="158" t="s">
+        <v>322</v>
+      </c>
+      <c r="H45" s="220"/>
+      <c r="J45" s="241"/>
       <c r="K45" s="66"/>
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
@@ -8033,24 +7828,22 @@
       <c r="R45" s="22"/>
     </row>
     <row r="46" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B46" s="216"/>
+      <c r="B46" s="234"/>
       <c r="C46" s="23"/>
-      <c r="D46" s="196" t="s">
-        <v>322</v>
-      </c>
-      <c r="E46" s="171" t="s">
+      <c r="D46" s="221" t="s">
         <v>323</v>
       </c>
-      <c r="F46" s="196" t="s">
+      <c r="E46" s="221" t="s">
         <v>324</v>
       </c>
-      <c r="G46" s="171" t="s">
+      <c r="F46" s="221" t="s">
         <v>325</v>
       </c>
-      <c r="H46" s="171" t="s">
+      <c r="G46" s="170" t="s">
         <v>326</v>
       </c>
-      <c r="J46" s="223"/>
+      <c r="H46" s="222"/>
+      <c r="J46" s="241"/>
       <c r="K46" s="66"/>
       <c r="L46" s="21"/>
       <c r="M46" s="8"/>
@@ -8058,24 +7851,22 @@
       <c r="R46" s="22"/>
     </row>
     <row r="47" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B47" s="216"/>
+      <c r="B47" s="234"/>
       <c r="C47" s="20"/>
-      <c r="D47" s="197" t="s">
+      <c r="D47" s="221" t="s">
         <v>327</v>
       </c>
-      <c r="E47" s="193" t="s">
-        <v>327</v>
-      </c>
-      <c r="F47" s="198" t="s">
-        <v>327</v>
-      </c>
-      <c r="G47" s="195" t="s">
-        <v>327</v>
-      </c>
-      <c r="H47" s="195" t="s">
-        <v>327</v>
-      </c>
-      <c r="J47" s="223"/>
+      <c r="E47" s="223" t="s">
+        <v>236</v>
+      </c>
+      <c r="F47" s="223" t="s">
+        <v>236</v>
+      </c>
+      <c r="G47" s="158" t="s">
+        <v>236</v>
+      </c>
+      <c r="H47" s="220"/>
+      <c r="J47" s="241"/>
       <c r="K47" s="30"/>
       <c r="L47" s="24"/>
       <c r="M47" s="8"/>
@@ -8083,24 +7874,22 @@
       <c r="R47" s="22"/>
     </row>
     <row r="48" spans="1:18" ht="26.1" customHeight="1">
-      <c r="B48" s="216"/>
+      <c r="B48" s="234"/>
       <c r="C48" s="20"/>
-      <c r="D48" s="199" t="s">
+      <c r="D48" s="223" t="s">
+        <v>236</v>
+      </c>
+      <c r="E48" s="221" t="s">
         <v>328</v>
       </c>
-      <c r="E48" s="171" t="s">
+      <c r="F48" s="221" t="s">
         <v>329</v>
       </c>
-      <c r="F48" s="196" t="s">
-        <v>330</v>
-      </c>
-      <c r="G48" s="172" t="s">
-        <v>331</v>
-      </c>
-      <c r="H48" s="172" t="s">
-        <v>332</v>
-      </c>
-      <c r="J48" s="223"/>
+      <c r="G48" s="170" t="s">
+        <v>341</v>
+      </c>
+      <c r="H48" s="224"/>
+      <c r="J48" s="241"/>
       <c r="K48" s="8"/>
       <c r="L48" s="24"/>
       <c r="M48" s="8"/>
@@ -8108,24 +7897,22 @@
       <c r="R48" s="22"/>
     </row>
     <row r="49" spans="2:18" s="51" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B49" s="216"/>
+      <c r="B49" s="234"/>
       <c r="C49" s="20"/>
-      <c r="D49" s="199" t="s">
-        <v>333</v>
-      </c>
-      <c r="E49" s="130" t="s">
-        <v>334</v>
-      </c>
-      <c r="F49" s="196" t="s">
-        <v>335</v>
-      </c>
-      <c r="G49" s="171" t="s">
-        <v>336</v>
-      </c>
-      <c r="H49" s="130" t="s">
-        <v>337</v>
-      </c>
-      <c r="J49" s="223"/>
+      <c r="D49" s="221" t="s">
+        <v>339</v>
+      </c>
+      <c r="E49" s="221" t="s">
+        <v>330</v>
+      </c>
+      <c r="F49" s="221" t="s">
+        <v>331</v>
+      </c>
+      <c r="G49" s="221" t="s">
+        <v>340</v>
+      </c>
+      <c r="H49" s="203"/>
+      <c r="J49" s="241"/>
       <c r="K49" s="8"/>
       <c r="L49" s="24"/>
       <c r="M49" s="8"/>
@@ -8136,24 +7923,22 @@
       <c r="R49" s="22"/>
     </row>
     <row r="50" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B50" s="216"/>
+      <c r="B50" s="234"/>
       <c r="C50" s="20"/>
-      <c r="D50" s="133" t="s">
-        <v>338</v>
+      <c r="D50" s="221" t="s">
+        <v>332</v>
       </c>
       <c r="E50" s="156" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="F50" s="156" t="s">
-        <v>340</v>
-      </c>
-      <c r="G50" s="130" t="s">
-        <v>80</v>
-      </c>
-      <c r="H50" s="133" t="s">
-        <v>341</v>
-      </c>
-      <c r="J50" s="223"/>
+        <v>314</v>
+      </c>
+      <c r="G50" s="133" t="s">
+        <v>78</v>
+      </c>
+      <c r="H50" s="203"/>
+      <c r="J50" s="241"/>
       <c r="K50" s="8"/>
       <c r="L50" s="24"/>
       <c r="M50" s="52"/>
@@ -8161,24 +7946,22 @@
       <c r="R50" s="22"/>
     </row>
     <row r="51" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B51" s="216"/>
+      <c r="B51" s="234"/>
       <c r="C51" s="20"/>
-      <c r="D51" s="133" t="s">
-        <v>250</v>
+      <c r="D51" s="130" t="s">
+        <v>237</v>
       </c>
       <c r="E51" s="156" t="s">
-        <v>250</v>
+        <v>334</v>
       </c>
       <c r="F51" s="156" t="s">
-        <v>146</v>
-      </c>
-      <c r="G51" s="130" t="s">
-        <v>342</v>
-      </c>
-      <c r="H51" s="133" t="s">
-        <v>250</v>
-      </c>
-      <c r="J51" s="223"/>
+        <v>335</v>
+      </c>
+      <c r="G51" s="133" t="s">
+        <v>333</v>
+      </c>
+      <c r="H51" s="203"/>
+      <c r="J51" s="241"/>
       <c r="K51" s="8"/>
       <c r="L51" s="24"/>
       <c r="M51" s="52"/>
@@ -8186,24 +7969,22 @@
       <c r="R51" s="22"/>
     </row>
     <row r="52" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B52" s="216"/>
+      <c r="B52" s="234"/>
       <c r="C52" s="20"/>
-      <c r="D52" s="133" t="s">
-        <v>342</v>
+      <c r="D52" s="130" t="s">
+        <v>336</v>
       </c>
       <c r="E52" s="156" t="s">
-        <v>78</v>
+        <v>226</v>
       </c>
       <c r="F52" s="156" t="s">
-        <v>343</v>
-      </c>
-      <c r="G52" s="130" t="s">
-        <v>50</v>
-      </c>
-      <c r="H52" s="130" t="s">
-        <v>50</v>
-      </c>
-      <c r="J52" s="223"/>
+        <v>226</v>
+      </c>
+      <c r="G52" s="133" t="s">
+        <v>146</v>
+      </c>
+      <c r="H52" s="206"/>
+      <c r="J52" s="241"/>
       <c r="K52" s="8"/>
       <c r="L52" s="30"/>
       <c r="M52" s="52"/>
@@ -8211,23 +7992,21 @@
       <c r="R52" s="22"/>
     </row>
     <row r="53" spans="2:18" ht="26.1" customHeight="1">
-      <c r="B53" s="216"/>
+      <c r="B53" s="234"/>
       <c r="C53" s="20"/>
       <c r="D53" s="131">
-        <v>1050</v>
+        <v>1297</v>
       </c>
       <c r="E53" s="131">
-        <v>697</v>
+        <v>1010</v>
       </c>
       <c r="F53" s="131">
-        <v>688</v>
+        <v>1253</v>
       </c>
       <c r="G53" s="131">
-        <v>1302</v>
-      </c>
-      <c r="H53" s="131">
-        <v>819</v>
-      </c>
+        <v>967</v>
+      </c>
+      <c r="H53" s="204"/>
       <c r="J53" s="17"/>
       <c r="K53" s="8"/>
       <c r="L53" s="30"/>
@@ -8236,8 +8015,8 @@
       <c r="R53" s="22"/>
     </row>
     <row r="54" spans="2:18" ht="25.5" customHeight="1">
-      <c r="B54" s="216"/>
-      <c r="C54" s="224" t="s">
+      <c r="B54" s="234"/>
+      <c r="C54" s="242" t="s">
         <v>212</v>
       </c>
       <c r="D54" s="154" t="s">
@@ -8252,9 +8031,7 @@
       <c r="G54" s="154" t="s">
         <v>50</v>
       </c>
-      <c r="H54" s="154" t="s">
-        <v>50</v>
-      </c>
+      <c r="H54" s="225"/>
       <c r="K54" s="52"/>
       <c r="L54" s="8"/>
       <c r="M54" s="52"/>
@@ -8262,29 +8039,26 @@
       <c r="R54" s="22"/>
     </row>
     <row r="55" spans="2:18" s="57" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B55" s="222"/>
-      <c r="C55" s="225"/>
+      <c r="B55" s="240"/>
+      <c r="C55" s="243"/>
       <c r="D55" s="137" t="str">
         <f>D29</f>
-        <v>오리엔탈&amp;요거트D</v>
+        <v>오리엔탈&amp;망고D</v>
       </c>
       <c r="E55" s="137" t="str">
         <f>E28</f>
-        <v>발사믹&amp;자몽D</v>
+        <v>발사믹&amp;참깨D</v>
       </c>
       <c r="F55" s="137" t="str">
         <f>F29</f>
-        <v>오리엔탈&amp;딸기요거트D</v>
+        <v>오리엔탈&amp;블루베리D</v>
       </c>
       <c r="G55" s="155" t="str">
         <f>G29</f>
-        <v>발사믹&amp;한라봉D</v>
-      </c>
-      <c r="H55" s="292" t="str">
-        <f>H29</f>
-        <v>오리엔탈&amp;사우전아일랜드D</v>
-      </c>
-      <c r="J55" s="226" t="s">
+        <v>발사믹&amp;파인애플D</v>
+      </c>
+      <c r="H55" s="226"/>
+      <c r="J55" s="244" t="s">
         <v>1</v>
       </c>
       <c r="K55" s="52"/>
@@ -8304,7 +8078,7 @@
       <c r="F56" s="24"/>
       <c r="G56" s="24"/>
       <c r="H56" s="24"/>
-      <c r="J56" s="226"/>
+      <c r="J56" s="244"/>
       <c r="K56" s="59"/>
       <c r="L56" s="8"/>
       <c r="M56" s="52"/>
@@ -8349,7 +8123,7 @@
       <c r="E59" s="126"/>
       <c r="F59" s="127"/>
       <c r="G59" s="126"/>
-      <c r="H59" s="232"/>
+      <c r="H59" s="250"/>
       <c r="K59" s="52"/>
       <c r="L59" s="16"/>
       <c r="M59" s="52"/>
@@ -8359,7 +8133,7 @@
       <c r="E60" s="97"/>
       <c r="F60" s="128"/>
       <c r="G60" s="97"/>
-      <c r="H60" s="232"/>
+      <c r="H60" s="250"/>
       <c r="K60" s="25"/>
       <c r="L60" s="25"/>
       <c r="M60" s="52"/>
@@ -8694,7 +8468,7 @@
   <dimension ref="A1:V85"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="96" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" customHeight="1"/>
@@ -8722,7 +8496,7 @@
     <row r="1" spans="2:19" ht="12.75" customHeight="1"/>
     <row r="5" spans="2:19" s="17" customFormat="1" ht="24.75" customHeight="1">
       <c r="B5" s="73" t="s">
-        <v>363</v>
+        <v>337</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="74"/>
@@ -8799,228 +8573,218 @@
       </c>
     </row>
     <row r="9" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B9" s="260" t="s">
+      <c r="B9" s="278" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="277" t="s">
+      <c r="C9" s="295" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="266" t="s">
+      <c r="D9" s="284" t="s">
         <v>213</v>
       </c>
-      <c r="E9" s="203" t="str">
+      <c r="E9" s="193" t="str">
         <f>주간메뉴표!D6</f>
-        <v>부대찌개*라면사리</v>
+        <v>나주곰탕*당면사리</v>
       </c>
       <c r="F9" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="G9" s="238">
+      <c r="G9" s="256">
         <f>주간메뉴표!D12</f>
-        <v>1245</v>
+        <v>974</v>
       </c>
       <c r="H9" s="147" t="str">
         <f>주간메뉴표!E6</f>
-        <v>새싹삼,삼계탕</v>
+        <v>마늘두부보쌈</v>
       </c>
       <c r="I9" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="J9" s="241">
+      <c r="J9" s="259">
         <f>주간메뉴표!E12</f>
-        <v>1394</v>
+        <v>1265</v>
       </c>
       <c r="K9" s="147" t="str">
         <f>주간메뉴표!F6</f>
-        <v>해물된장찌개</v>
+        <v>우삼겹짬뽕탕</v>
       </c>
       <c r="L9" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="M9" s="241">
+      <c r="M9" s="259">
         <f>주간메뉴표!F12</f>
-        <v>1084</v>
+        <v>1269</v>
       </c>
       <c r="N9" s="147" t="str">
         <f>주간메뉴표!G6</f>
-        <v>돈목살김치찌개</v>
+        <v>뚝배기돼지불백정식</v>
       </c>
       <c r="O9" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="P9" s="244">
+      <c r="P9" s="262">
         <f>주간메뉴표!G12</f>
-        <v>939</v>
-      </c>
-      <c r="Q9" s="185" t="str">
+        <v>979</v>
+      </c>
+      <c r="Q9" s="183" t="str">
         <f>주간메뉴표!H6</f>
-        <v>전주식돌솥비빔밥</v>
-      </c>
-      <c r="R9" s="79" t="s">
-        <v>216</v>
-      </c>
-      <c r="S9" s="258">
+        <v>삼일절</v>
+      </c>
+      <c r="R9" s="79"/>
+      <c r="S9" s="276">
         <f>주간메뉴표!H12</f>
-        <v>907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:19" s="17" customFormat="1" ht="19.5" customHeight="1">
-      <c r="B10" s="262"/>
-      <c r="C10" s="278"/>
-      <c r="D10" s="267"/>
-      <c r="E10" s="204" t="str">
+      <c r="B10" s="280"/>
+      <c r="C10" s="296"/>
+      <c r="D10" s="285"/>
+      <c r="E10" s="194" t="str">
         <f>주간메뉴표!D7</f>
-        <v>오징어커틀렛*타르타르s</v>
+        <v>2종왕만두(김치&amp;고기)</v>
       </c>
       <c r="F10" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="G10" s="239"/>
+      <c r="G10" s="257"/>
       <c r="H10" s="146" t="str">
         <f>주간메뉴표!E7</f>
-        <v>메추리알어묵조림</v>
+        <v>냉이달래된장국</v>
       </c>
       <c r="I10" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="J10" s="242"/>
+      <c r="J10" s="260"/>
       <c r="K10" s="146" t="str">
         <f>주간메뉴표!F7</f>
-        <v>로스팜계란전</v>
+        <v>만두탕수</v>
       </c>
       <c r="L10" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="M10" s="242"/>
+      <c r="M10" s="260"/>
       <c r="N10" s="146" t="str">
         <f>주간메뉴표!G7</f>
-        <v>너비아니구이*미나리생채</v>
-      </c>
-      <c r="O10" s="79" t="s">
-        <v>216</v>
-      </c>
-      <c r="P10" s="245"/>
-      <c r="Q10" s="148" t="str">
+        <v>상추&amp;깻잎쌈</v>
+      </c>
+      <c r="O10" s="79"/>
+      <c r="P10" s="263"/>
+      <c r="Q10" s="148">
         <f>주간메뉴표!H7</f>
-        <v>배추된장국</v>
-      </c>
-      <c r="R10" s="79" t="s">
-        <v>216</v>
-      </c>
-      <c r="S10" s="269"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="79"/>
+      <c r="S10" s="287"/>
     </row>
     <row r="11" spans="2:19" s="17" customFormat="1" ht="19.5" customHeight="1">
-      <c r="B11" s="262"/>
-      <c r="C11" s="278"/>
-      <c r="D11" s="267"/>
-      <c r="E11" s="204" t="str">
+      <c r="B11" s="280"/>
+      <c r="C11" s="296"/>
+      <c r="D11" s="285"/>
+      <c r="E11" s="194" t="str">
         <f>주간메뉴표!D8</f>
-        <v>미니오믈렛*토마토피자s</v>
+        <v>사각어묵고추장볶음</v>
       </c>
       <c r="F11" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="G11" s="239"/>
+      <c r="G11" s="257"/>
       <c r="H11" s="146" t="str">
         <f>주간메뉴표!E8</f>
-        <v>숙주미나리나물</v>
-      </c>
-      <c r="I11" s="79" t="s">
-        <v>216</v>
-      </c>
-      <c r="J11" s="242"/>
+        <v>감자버섯밥*양념장</v>
+      </c>
+      <c r="I11" s="79"/>
+      <c r="J11" s="260"/>
       <c r="K11" s="146" t="str">
         <f>주간메뉴표!F8</f>
-        <v>사각어묵볶음</v>
+        <v>계란찜</v>
       </c>
       <c r="L11" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="M11" s="242"/>
+      <c r="M11" s="260"/>
       <c r="N11" s="146" t="str">
         <f>주간메뉴표!G8</f>
-        <v>옥수수전</v>
+        <v>콩나물김칫국</v>
       </c>
       <c r="O11" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="P11" s="245"/>
-      <c r="Q11" s="148" t="str">
+      <c r="P11" s="263"/>
+      <c r="Q11" s="148">
         <f>주간메뉴표!H8</f>
-        <v>동태전</v>
-      </c>
-      <c r="R11" s="79" t="s">
-        <v>216</v>
-      </c>
-      <c r="S11" s="269"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="79"/>
+      <c r="S11" s="287"/>
     </row>
     <row r="12" spans="2:19" s="17" customFormat="1" ht="35.25" customHeight="1">
-      <c r="B12" s="262"/>
-      <c r="C12" s="278"/>
-      <c r="D12" s="267"/>
-      <c r="E12" s="204" t="str">
+      <c r="B12" s="280"/>
+      <c r="C12" s="296"/>
+      <c r="D12" s="285"/>
+      <c r="E12" s="194" t="str">
         <f>주간메뉴표!D9</f>
-        <v>도시락김</v>
-      </c>
-      <c r="F12" s="179"/>
-      <c r="G12" s="239"/>
+        <v>간장양파고추절임</v>
+      </c>
+      <c r="F12" s="177"/>
+      <c r="G12" s="257"/>
       <c r="H12" s="146" t="str">
         <f>주간메뉴표!E9</f>
-        <v>고추장멸치볶음</v>
-      </c>
-      <c r="I12" s="79"/>
-      <c r="J12" s="242"/>
+        <v>부추전</v>
+      </c>
+      <c r="I12" s="79" t="s">
+        <v>216</v>
+      </c>
+      <c r="J12" s="260"/>
       <c r="K12" s="146" t="str">
         <f>주간메뉴표!F9</f>
-        <v>무말랭이무침</v>
+        <v>궁채절임</v>
       </c>
       <c r="L12" s="79"/>
-      <c r="M12" s="242"/>
+      <c r="M12" s="260"/>
       <c r="N12" s="146" t="str">
         <f>주간메뉴표!G9</f>
-        <v>파래자반</v>
+        <v>단호박전</v>
       </c>
       <c r="O12" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="P12" s="245"/>
-      <c r="Q12" s="148" t="str">
+      <c r="P12" s="263"/>
+      <c r="Q12" s="148">
         <f>주간메뉴표!H9</f>
-        <v>땅콩조림</v>
-      </c>
-      <c r="R12" s="79" t="s">
-        <v>216</v>
-      </c>
-      <c r="S12" s="269"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="79"/>
+      <c r="S12" s="287"/>
     </row>
     <row r="13" spans="2:19" s="27" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B13" s="262"/>
-      <c r="C13" s="278"/>
-      <c r="D13" s="267"/>
-      <c r="E13" s="204" t="str">
+      <c r="B13" s="280"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="285"/>
+      <c r="E13" s="194" t="str">
         <f>주간메뉴표!D10</f>
         <v>깍두기/잡곡밥</v>
       </c>
       <c r="F13" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="G13" s="239"/>
+      <c r="G13" s="257"/>
       <c r="H13" s="146" t="str">
         <f>주간메뉴표!E10</f>
-        <v>배추겉절이/잡곡밥</v>
+        <v>콩나물냉채/배추겉절이</v>
       </c>
       <c r="I13" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="J13" s="242"/>
+      <c r="J13" s="260"/>
       <c r="K13" s="146" t="str">
         <f>주간메뉴표!F10</f>
-        <v>포기김치/잡곡밥</v>
+        <v>깍두기/잡곡밥</v>
       </c>
       <c r="L13" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="M13" s="242"/>
+      <c r="M13" s="260"/>
       <c r="N13" s="146" t="str">
         <f>주간메뉴표!G10</f>
         <v>깍두기/잡곡밥</v>
@@ -9028,777 +8792,759 @@
       <c r="O13" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="P13" s="245"/>
-      <c r="Q13" s="148" t="str">
+      <c r="P13" s="263"/>
+      <c r="Q13" s="148">
         <f>주간메뉴표!H10</f>
-        <v>깍두기</v>
-      </c>
-      <c r="R13" s="79" t="s">
-        <v>216</v>
-      </c>
-      <c r="S13" s="269"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="79"/>
+      <c r="S13" s="287"/>
     </row>
     <row r="14" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B14" s="262"/>
-      <c r="C14" s="287"/>
-      <c r="D14" s="268"/>
-      <c r="E14" s="204" t="str">
+      <c r="B14" s="280"/>
+      <c r="C14" s="305"/>
+      <c r="D14" s="286"/>
+      <c r="E14" s="194" t="str">
         <f>주간메뉴표!D11</f>
         <v>그린샐러드</v>
       </c>
-      <c r="F14" s="179"/>
-      <c r="G14" s="240"/>
+      <c r="F14" s="177"/>
+      <c r="G14" s="258"/>
       <c r="H14" s="146" t="str">
         <f>주간메뉴표!E11</f>
         <v>그린샐러드</v>
       </c>
       <c r="I14" s="79"/>
-      <c r="J14" s="243"/>
+      <c r="J14" s="261"/>
       <c r="K14" s="146" t="str">
         <f>주간메뉴표!F11</f>
         <v>그린샐러드</v>
       </c>
       <c r="L14" s="79"/>
-      <c r="M14" s="243"/>
+      <c r="M14" s="261"/>
       <c r="N14" s="146" t="str">
         <f>주간메뉴표!G11</f>
         <v>그린샐러드</v>
       </c>
       <c r="O14" s="79"/>
-      <c r="P14" s="246"/>
-      <c r="Q14" s="148" t="str">
+      <c r="P14" s="264"/>
+      <c r="Q14" s="148">
         <f>주간메뉴표!H11</f>
-        <v>그린샐러드</v>
-      </c>
-      <c r="R14" s="179"/>
-      <c r="S14" s="259"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="177"/>
+      <c r="S14" s="277"/>
     </row>
     <row r="15" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B15" s="262"/>
-      <c r="C15" s="286" t="s">
+      <c r="B15" s="280"/>
+      <c r="C15" s="304" t="s">
         <v>214</v>
       </c>
-      <c r="D15" s="266" t="s">
+      <c r="D15" s="284" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="203" t="str">
+      <c r="E15" s="193" t="str">
         <f>주간메뉴표!D13</f>
-        <v>N우삼겹시래기국수</v>
+        <v>브랜드콜라보_역전우동</v>
       </c>
       <c r="F15" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="G15" s="238">
+      <c r="G15" s="256">
         <f>주간메뉴표!D19</f>
-        <v>948</v>
+        <v>1009</v>
       </c>
       <c r="H15" s="147" t="str">
         <f>주간메뉴표!E13</f>
-        <v>샘밭막국수</v>
+        <v>월드셰프_동남아 똠카가이</v>
       </c>
       <c r="I15" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="J15" s="241">
+      <c r="J15" s="259">
         <f>주간메뉴표!E19</f>
-        <v>1219</v>
+        <v>968</v>
       </c>
       <c r="K15" s="147" t="str">
         <f>주간메뉴표!F13</f>
-        <v>간자장*계란후라이(2&amp;3)</v>
+        <v>잔치국수</v>
       </c>
       <c r="L15" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="M15" s="241">
+      <c r="M15" s="259">
         <f>주간메뉴표!F19</f>
-        <v>1171</v>
+        <v>967</v>
       </c>
       <c r="N15" s="147" t="str">
         <f>주간메뉴표!G13</f>
-        <v>팟타이</v>
+        <v>매운찜닭덮밥*넓적당면사리</v>
       </c>
       <c r="O15" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="P15" s="241">
+      <c r="P15" s="259">
         <f>주간메뉴표!G19</f>
-        <v>748</v>
-      </c>
-      <c r="Q15" s="185" t="str">
+        <v>1037</v>
+      </c>
+      <c r="Q15" s="183">
         <f>주간메뉴표!H13</f>
-        <v>N동파육탕면</v>
-      </c>
-      <c r="R15" s="79" t="s">
-        <v>216</v>
-      </c>
-      <c r="S15" s="258">
+        <v>0</v>
+      </c>
+      <c r="R15" s="79"/>
+      <c r="S15" s="276">
         <f>주간메뉴표!H19</f>
-        <v>1339</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B16" s="262"/>
-      <c r="C16" s="278"/>
-      <c r="D16" s="267"/>
-      <c r="E16" s="204" t="str">
+      <c r="B16" s="280"/>
+      <c r="C16" s="296"/>
+      <c r="D16" s="285"/>
+      <c r="E16" s="194" t="str">
         <f>주간메뉴표!D14</f>
-        <v>두부계란전</v>
+        <v>파닭국수</v>
       </c>
       <c r="F16" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="G16" s="239"/>
-      <c r="H16" s="146" t="str">
+      <c r="G16" s="257"/>
+      <c r="H16" s="229" t="str">
         <f>주간메뉴표!E14</f>
-        <v>쪽갈비구이&amp;김가루주먹밥</v>
-      </c>
-      <c r="I16" s="79" t="s">
-        <v>216</v>
-      </c>
-      <c r="J16" s="242"/>
+        <v>(코코넛밀크,레몬그라스,고추로 맛을 낸</v>
+      </c>
+      <c r="I16" s="79"/>
+      <c r="J16" s="260"/>
       <c r="K16" s="146" t="str">
         <f>주간메뉴표!F14</f>
-        <v>짬뽕국물</v>
+        <v>순살닭강정</v>
       </c>
       <c r="L16" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="M16" s="242"/>
+      <c r="M16" s="260"/>
       <c r="N16" s="146" t="str">
         <f>주간메뉴표!G14</f>
-        <v>쌀국수장국</v>
+        <v>두부장국</v>
       </c>
       <c r="O16" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="P16" s="242"/>
-      <c r="Q16" s="148" t="str">
+      <c r="P16" s="260"/>
+      <c r="Q16" s="148">
         <f>주간메뉴표!H14</f>
-        <v>깐풍만두</v>
-      </c>
-      <c r="R16" s="79" t="s">
-        <v>216</v>
-      </c>
-      <c r="S16" s="269"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="79"/>
+      <c r="S16" s="287"/>
     </row>
     <row r="17" spans="1:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B17" s="262"/>
-      <c r="C17" s="278"/>
-      <c r="D17" s="267"/>
-      <c r="E17" s="204" t="str">
+      <c r="B17" s="280"/>
+      <c r="C17" s="296"/>
+      <c r="D17" s="285"/>
+      <c r="E17" s="194" t="str">
         <f>주간메뉴표!D15</f>
-        <v>도라지오이무침</v>
+        <v>미니가라아게동</v>
       </c>
       <c r="F17" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="G17" s="239"/>
+      <c r="G17" s="257"/>
       <c r="H17" s="146" t="str">
         <f>주간메뉴표!E15</f>
-        <v>감자채전*부추생채</v>
-      </c>
-      <c r="I17" s="79" t="s">
-        <v>216</v>
-      </c>
-      <c r="J17" s="242"/>
+        <v>새콤매콤한 태국식 쌀국수)</v>
+      </c>
+      <c r="I17" s="79"/>
+      <c r="J17" s="260"/>
       <c r="K17" s="146" t="str">
         <f>주간메뉴표!F15</f>
-        <v>인절미탕수육</v>
+        <v>날치알캘리포니아롤</v>
       </c>
       <c r="L17" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="M17" s="242"/>
+      <c r="M17" s="260"/>
       <c r="N17" s="146" t="str">
         <f>주간메뉴표!G15</f>
-        <v>고구마&amp;새우넷롤</v>
+        <v>치즈스틱</v>
       </c>
       <c r="O17" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="P17" s="242"/>
-      <c r="Q17" s="148" t="str">
+      <c r="P17" s="260"/>
+      <c r="Q17" s="148">
         <f>주간메뉴표!H15</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="79"/>
+      <c r="S17" s="287"/>
+    </row>
+    <row r="18" spans="1:19" s="17" customFormat="1" ht="20.25" customHeight="1">
+      <c r="B18" s="280"/>
+      <c r="C18" s="296"/>
+      <c r="D18" s="285"/>
+      <c r="E18" s="194" t="str">
+        <f>주간메뉴표!D16</f>
         <v>단무지</v>
       </c>
-      <c r="R17" s="79" t="s">
-        <v>216</v>
-      </c>
-      <c r="S17" s="269"/>
-    </row>
-    <row r="18" spans="1:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B18" s="262"/>
-      <c r="C18" s="278"/>
-      <c r="D18" s="267"/>
-      <c r="E18" s="204" t="str">
-        <f>주간메뉴표!D16</f>
-        <v>배추겉절이</v>
-      </c>
       <c r="F18" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="G18" s="239"/>
+      <c r="G18" s="257"/>
       <c r="H18" s="146" t="str">
         <f>주간메뉴표!E16</f>
-        <v>백김치</v>
+        <v>2종꼬치/미니나시고랭볶음밥</v>
       </c>
       <c r="I18" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="J18" s="242"/>
+      <c r="J18" s="260"/>
       <c r="K18" s="146" t="str">
         <f>주간메뉴표!F16</f>
-        <v>미니계란볶음밥</v>
+        <v>배추겉절이</v>
       </c>
       <c r="L18" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="M18" s="242"/>
+      <c r="M18" s="260"/>
       <c r="N18" s="146" t="str">
         <f>주간메뉴표!G16</f>
-        <v>양파초절임</v>
+        <v>오이지&amp;깍둑단무지</v>
       </c>
       <c r="O18" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="P18" s="242"/>
-      <c r="Q18" s="148" t="str">
+      <c r="P18" s="260"/>
+      <c r="Q18" s="148">
         <f>주간메뉴표!H16</f>
+        <v>0</v>
+      </c>
+      <c r="R18" s="79"/>
+      <c r="S18" s="287"/>
+    </row>
+    <row r="19" spans="1:19" s="17" customFormat="1" ht="20.25" customHeight="1">
+      <c r="B19" s="280"/>
+      <c r="C19" s="296"/>
+      <c r="D19" s="285"/>
+      <c r="E19" s="194" t="str">
+        <f>주간메뉴표!D17</f>
         <v>배추김치</v>
       </c>
-      <c r="R18" s="79" t="s">
-        <v>216</v>
-      </c>
-      <c r="S18" s="269"/>
-    </row>
-    <row r="19" spans="1:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B19" s="262"/>
-      <c r="C19" s="278"/>
-      <c r="D19" s="267"/>
-      <c r="E19" s="204" t="str">
-        <f>주간메뉴표!D17</f>
-        <v>미니잡곡밥</v>
-      </c>
-      <c r="F19" s="179"/>
-      <c r="G19" s="239"/>
+      <c r="F19" s="79" t="s">
+        <v>216</v>
+      </c>
+      <c r="G19" s="257"/>
       <c r="H19" s="146" t="str">
         <f>주간메뉴표!E17</f>
-        <v>그린샐러드</v>
-      </c>
-      <c r="I19" s="79"/>
-      <c r="J19" s="242"/>
+        <v>양파초절임/배추김치</v>
+      </c>
+      <c r="I19" s="79" t="s">
+        <v>216</v>
+      </c>
+      <c r="J19" s="260"/>
       <c r="K19" s="146" t="str">
         <f>주간메뉴표!F17</f>
-        <v>단무지</v>
-      </c>
-      <c r="L19" s="79" t="s">
-        <v>216</v>
-      </c>
-      <c r="M19" s="242"/>
+        <v>그린샐러드</v>
+      </c>
+      <c r="L19" s="79"/>
+      <c r="M19" s="260"/>
       <c r="N19" s="146" t="str">
         <f>주간메뉴표!G17</f>
-        <v>깍두기</v>
+        <v>배추김치</v>
       </c>
       <c r="O19" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="P19" s="242"/>
-      <c r="Q19" s="148" t="str">
+      <c r="P19" s="260"/>
+      <c r="Q19" s="148">
         <f>주간메뉴표!H17</f>
-        <v>쌀밥</v>
-      </c>
-      <c r="R19" s="179"/>
-      <c r="S19" s="269"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="177"/>
+      <c r="S19" s="287"/>
     </row>
     <row r="20" spans="1:19" s="27" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B20" s="262"/>
-      <c r="C20" s="278"/>
-      <c r="D20" s="267"/>
-      <c r="E20" s="204" t="str">
+      <c r="B20" s="280"/>
+      <c r="C20" s="296"/>
+      <c r="D20" s="285"/>
+      <c r="E20" s="194" t="str">
         <f>주간메뉴표!D18</f>
         <v>그린샐러드</v>
       </c>
-      <c r="F20" s="179"/>
-      <c r="G20" s="239"/>
-      <c r="H20" s="146">
+      <c r="F20" s="177"/>
+      <c r="G20" s="257"/>
+      <c r="H20" s="146" t="str">
         <f>주간메뉴표!E18</f>
+        <v>그린샐러드</v>
+      </c>
+      <c r="I20" s="79"/>
+      <c r="J20" s="260"/>
+      <c r="K20" s="146">
+        <f>주간메뉴표!F18</f>
         <v>0</v>
       </c>
-      <c r="I20" s="79"/>
-      <c r="J20" s="242"/>
-      <c r="K20" s="146" t="str">
-        <f>주간메뉴표!F18</f>
-        <v>그린샐러드</v>
-      </c>
       <c r="L20" s="79"/>
-      <c r="M20" s="242"/>
+      <c r="M20" s="260"/>
       <c r="N20" s="146" t="str">
         <f>주간메뉴표!G18</f>
         <v>그린샐러드</v>
       </c>
       <c r="O20" s="79"/>
-      <c r="P20" s="242"/>
-      <c r="Q20" s="148" t="str">
+      <c r="P20" s="260"/>
+      <c r="Q20" s="148">
         <f>주간메뉴표!H18</f>
-        <v>그린샐러드</v>
-      </c>
-      <c r="R20" s="179"/>
-      <c r="S20" s="269"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="177"/>
+      <c r="S20" s="287"/>
     </row>
     <row r="21" spans="1:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B21" s="262"/>
-      <c r="C21" s="277" t="s">
+      <c r="B21" s="280"/>
+      <c r="C21" s="295" t="s">
         <v>217</v>
       </c>
-      <c r="D21" s="266" t="s">
+      <c r="D21" s="284" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="203" t="str">
+      <c r="E21" s="193" t="str">
         <f>주간메뉴표!D20</f>
-        <v>매운족발볶음밥*후라이</v>
+        <v>돈가스김치나베</v>
       </c>
       <c r="F21" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="G21" s="238">
+      <c r="G21" s="256">
         <f>주간메뉴표!D26</f>
-        <v>890</v>
+        <v>1299</v>
       </c>
       <c r="H21" s="147" t="str">
         <f>주간메뉴표!E20</f>
-        <v>(철판)Port629화지타</v>
+        <v>피쉬앤칩스</v>
       </c>
       <c r="I21" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="J21" s="288">
+      <c r="J21" s="306">
         <f>주간메뉴표!E26</f>
-        <v>816</v>
+        <v>949</v>
       </c>
       <c r="K21" s="147" t="str">
         <f>주간메뉴표!F20</f>
-        <v>우삼겹명란마요덮밥</v>
+        <v>두부튀김마파덮밥</v>
       </c>
       <c r="L21" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="M21" s="241">
+      <c r="M21" s="259">
         <f>주간메뉴표!F26</f>
-        <v>740</v>
+        <v>1229</v>
       </c>
       <c r="N21" s="147" t="str">
         <f>주간메뉴표!G20</f>
-        <v>N닭다리살고추장양념구이덮밥</v>
+        <v>비빔냉면</v>
       </c>
       <c r="O21" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="P21" s="244">
+      <c r="P21" s="262">
         <f>주간메뉴표!G26</f>
-        <v>1079</v>
-      </c>
-      <c r="Q21" s="185" t="str">
+        <v>1222</v>
+      </c>
+      <c r="Q21" s="183">
         <f>주간메뉴표!H20</f>
-        <v>철판함박샥슈카</v>
-      </c>
-      <c r="R21" s="79" t="s">
-        <v>216</v>
-      </c>
-      <c r="S21" s="258">
+        <v>0</v>
+      </c>
+      <c r="R21" s="79"/>
+      <c r="S21" s="276">
         <f>주간메뉴표!H26</f>
-        <v>897</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:19" s="17" customFormat="1" ht="33" customHeight="1">
-      <c r="B22" s="262"/>
-      <c r="C22" s="278"/>
-      <c r="D22" s="267"/>
-      <c r="E22" s="204" t="str">
+      <c r="B22" s="280"/>
+      <c r="C22" s="296"/>
+      <c r="D22" s="285"/>
+      <c r="E22" s="194" t="str">
         <f>주간메뉴표!D21</f>
-        <v>콩나물국</v>
-      </c>
-      <c r="F22" s="179"/>
-      <c r="G22" s="239"/>
+        <v>메추리알장조림</v>
+      </c>
+      <c r="F22" s="79" t="s">
+        <v>216</v>
+      </c>
+      <c r="G22" s="257"/>
       <c r="H22" s="146" t="str">
         <f>주간메뉴표!E21</f>
-        <v>&amp;또띠아&amp;야채볶음밥</v>
+        <v>불고기랩샌드위치(half)</v>
       </c>
       <c r="I22" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="J22" s="289"/>
+      <c r="J22" s="307"/>
       <c r="K22" s="146" t="str">
         <f>주간메뉴표!F21</f>
-        <v>버섯장국</v>
+        <v>유린기</v>
       </c>
       <c r="L22" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="M22" s="242"/>
+      <c r="M22" s="260"/>
       <c r="N22" s="146" t="str">
         <f>주간메뉴표!G21</f>
-        <v>대파장국</v>
+        <v>온육수</v>
       </c>
       <c r="O22" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="P22" s="245"/>
-      <c r="Q22" s="148" t="str">
+      <c r="P22" s="263"/>
+      <c r="Q22" s="148">
         <f>주간메뉴표!H21</f>
-        <v>┗토마토소스에 함박과계란을 넣어만든 스튜</v>
+        <v>0</v>
       </c>
       <c r="R22" s="79"/>
-      <c r="S22" s="269"/>
+      <c r="S22" s="287"/>
     </row>
     <row r="23" spans="1:19" s="17" customFormat="1" ht="30" customHeight="1">
       <c r="A23" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="262"/>
-      <c r="C23" s="278"/>
-      <c r="D23" s="267"/>
-      <c r="E23" s="204" t="str">
+      <c r="B23" s="280"/>
+      <c r="C23" s="296"/>
+      <c r="D23" s="285"/>
+      <c r="E23" s="194" t="str">
         <f>주간메뉴표!D22</f>
-        <v>오징어문어핫바</v>
+        <v>콘샐러드</v>
       </c>
       <c r="F23" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="G23" s="239"/>
+      <c r="G23" s="257"/>
       <c r="H23" s="146" t="str">
         <f>주간메뉴표!E22</f>
-        <v>소스3종(사워,칠리,과콰몰)</v>
-      </c>
-      <c r="I23" s="79" t="s">
-        <v>216</v>
-      </c>
-      <c r="J23" s="289"/>
+        <v>피클&amp;할라피뇨</v>
+      </c>
+      <c r="I23" s="79"/>
+      <c r="J23" s="307"/>
       <c r="K23" s="146" t="str">
         <f>주간메뉴표!F22</f>
-        <v>채소춘권</v>
+        <v>버섯장국</v>
       </c>
       <c r="L23" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="M23" s="242"/>
+      <c r="M23" s="260"/>
       <c r="N23" s="146" t="str">
         <f>주간메뉴표!G22</f>
-        <v>지마구튀김</v>
+        <v>모둠만두한판</v>
       </c>
       <c r="O23" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="P23" s="245"/>
-      <c r="Q23" s="148" t="str">
+      <c r="P23" s="263"/>
+      <c r="Q23" s="148">
         <f>주간메뉴표!H22</f>
-        <v>바게트&amp;치아바타</v>
-      </c>
-      <c r="R23" s="79" t="s">
-        <v>216</v>
-      </c>
-      <c r="S23" s="269"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="79"/>
+      <c r="S23" s="287"/>
     </row>
     <row r="24" spans="1:19" s="17" customFormat="1" ht="28.5" customHeight="1">
-      <c r="B24" s="262"/>
-      <c r="C24" s="278"/>
-      <c r="D24" s="267"/>
-      <c r="E24" s="204" t="str">
+      <c r="B24" s="280"/>
+      <c r="C24" s="296"/>
+      <c r="D24" s="285"/>
+      <c r="E24" s="194" t="str">
         <f>주간메뉴표!D23</f>
-        <v>오이맛고추쌈장무침</v>
+        <v>깍두기</v>
       </c>
       <c r="F24" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="G24" s="239"/>
+      <c r="G24" s="257"/>
       <c r="H24" s="146" t="str">
         <f>주간메뉴표!E23</f>
-        <v>할라피뇨</v>
+        <v>탄산음료</v>
       </c>
       <c r="I24" s="79"/>
-      <c r="J24" s="289"/>
+      <c r="J24" s="307"/>
       <c r="K24" s="146" t="str">
         <f>주간메뉴표!F23</f>
-        <v>락교&amp;산고추</v>
-      </c>
-      <c r="L24" s="79"/>
-      <c r="M24" s="242"/>
+        <v>꼬들단무지</v>
+      </c>
+      <c r="L24" s="79" t="s">
+        <v>216</v>
+      </c>
+      <c r="M24" s="260"/>
       <c r="N24" s="146" t="str">
         <f>주간메뉴표!G23</f>
-        <v>콘샐러드</v>
+        <v>냉면김치</v>
       </c>
       <c r="O24" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="P24" s="245"/>
-      <c r="Q24" s="148" t="str">
+      <c r="P24" s="263"/>
+      <c r="Q24" s="148">
         <f>주간메뉴표!H23</f>
-        <v>무비트피클</v>
+        <v>0</v>
       </c>
       <c r="R24" s="79"/>
-      <c r="S24" s="269"/>
+      <c r="S24" s="287"/>
     </row>
     <row r="25" spans="1:19" s="17" customFormat="1" ht="30.75" customHeight="1">
-      <c r="B25" s="262"/>
-      <c r="C25" s="278"/>
-      <c r="D25" s="267"/>
-      <c r="E25" s="204" t="str">
+      <c r="B25" s="280"/>
+      <c r="C25" s="296"/>
+      <c r="D25" s="285"/>
+      <c r="E25" s="194" t="str">
         <f>주간메뉴표!D24</f>
-        <v>백김치</v>
-      </c>
-      <c r="F25" s="79" t="s">
-        <v>216</v>
-      </c>
-      <c r="G25" s="239"/>
+        <v>잡곡밥</v>
+      </c>
+      <c r="F25" s="79"/>
+      <c r="G25" s="257"/>
       <c r="H25" s="146" t="str">
         <f>주간메뉴표!E24</f>
-        <v>탄산음료</v>
+        <v>그린샐러드</v>
       </c>
       <c r="I25" s="79"/>
-      <c r="J25" s="289"/>
+      <c r="J25" s="307"/>
       <c r="K25" s="146" t="str">
         <f>주간메뉴표!F24</f>
-        <v>깍두기</v>
+        <v>배추김치</v>
       </c>
       <c r="L25" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="M25" s="242"/>
+      <c r="M25" s="260"/>
       <c r="N25" s="146" t="str">
         <f>주간메뉴표!G24</f>
-        <v>백김치</v>
-      </c>
-      <c r="O25" s="79" t="s">
-        <v>216</v>
-      </c>
-      <c r="P25" s="245"/>
-      <c r="Q25" s="148" t="str">
+        <v>김가루양념밥</v>
+      </c>
+      <c r="O25" s="79"/>
+      <c r="P25" s="263"/>
+      <c r="Q25" s="148">
         <f>주간메뉴표!H24</f>
-        <v>탄산음료</v>
-      </c>
-      <c r="R25" s="179"/>
-      <c r="S25" s="269"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="177"/>
+      <c r="S25" s="287"/>
     </row>
     <row r="26" spans="1:19" s="17" customFormat="1" ht="33.75" hidden="1" customHeight="1">
-      <c r="B26" s="262"/>
-      <c r="C26" s="278"/>
-      <c r="D26" s="267"/>
-      <c r="E26" s="204"/>
-      <c r="F26" s="179"/>
-      <c r="G26" s="239"/>
+      <c r="B26" s="280"/>
+      <c r="C26" s="296"/>
+      <c r="D26" s="285"/>
+      <c r="E26" s="194"/>
+      <c r="F26" s="177"/>
+      <c r="G26" s="257"/>
       <c r="H26" s="148">
         <f>[1]주간메뉴표!E25</f>
         <v>0</v>
       </c>
       <c r="I26" s="79"/>
-      <c r="J26" s="289"/>
+      <c r="J26" s="307"/>
       <c r="K26" s="146">
         <f>[1]주간메뉴표!F25</f>
         <v>0</v>
       </c>
       <c r="L26" s="79"/>
-      <c r="M26" s="242"/>
+      <c r="M26" s="260"/>
       <c r="N26" s="146" t="str">
         <f>[1]주간메뉴표!G25</f>
         <v>그린샐러드</v>
       </c>
       <c r="O26" s="79"/>
-      <c r="P26" s="245"/>
+      <c r="P26" s="263"/>
       <c r="Q26" s="148"/>
-      <c r="R26" s="179"/>
-      <c r="S26" s="269"/>
+      <c r="R26" s="177"/>
+      <c r="S26" s="287"/>
     </row>
     <row r="27" spans="1:19" s="17" customFormat="1" ht="20.25" hidden="1" customHeight="1">
-      <c r="B27" s="262"/>
-      <c r="C27" s="287"/>
-      <c r="D27" s="268"/>
-      <c r="E27" s="204"/>
-      <c r="F27" s="179"/>
-      <c r="G27" s="240"/>
+      <c r="B27" s="280"/>
+      <c r="C27" s="305"/>
+      <c r="D27" s="286"/>
+      <c r="E27" s="194"/>
+      <c r="F27" s="177"/>
+      <c r="G27" s="258"/>
       <c r="H27" s="148" t="e">
         <f>[1]주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="I27" s="79"/>
-      <c r="J27" s="290"/>
+      <c r="J27" s="308"/>
       <c r="K27" s="146" t="e">
         <f>[1]주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="L27" s="79"/>
-      <c r="M27" s="243"/>
+      <c r="M27" s="261"/>
       <c r="N27" s="146" t="e">
         <f>[1]주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="O27" s="79"/>
-      <c r="P27" s="246"/>
+      <c r="P27" s="264"/>
       <c r="Q27" s="148"/>
-      <c r="R27" s="179"/>
-      <c r="S27" s="259"/>
+      <c r="R27" s="177"/>
+      <c r="S27" s="277"/>
     </row>
     <row r="28" spans="1:19" s="44" customFormat="1" ht="20.25" hidden="1" customHeight="1">
-      <c r="B28" s="262"/>
+      <c r="B28" s="280"/>
       <c r="C28" s="135"/>
-      <c r="D28" s="266"/>
-      <c r="E28" s="205"/>
-      <c r="F28" s="179"/>
-      <c r="G28" s="238"/>
+      <c r="D28" s="284"/>
+      <c r="E28" s="195"/>
+      <c r="F28" s="177"/>
+      <c r="G28" s="256"/>
       <c r="H28" s="149"/>
       <c r="I28" s="79"/>
-      <c r="J28" s="241" t="e">
+      <c r="J28" s="259" t="e">
         <f>[1]주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="K28" s="145"/>
       <c r="L28" s="79"/>
-      <c r="M28" s="241"/>
+      <c r="M28" s="259"/>
       <c r="N28" s="149"/>
       <c r="O28" s="79"/>
-      <c r="P28" s="244"/>
-      <c r="Q28" s="180" t="e">
+      <c r="P28" s="262"/>
+      <c r="Q28" s="178" t="e">
         <f>[1]주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="R28" s="179"/>
-      <c r="S28" s="258"/>
+      <c r="R28" s="177"/>
+      <c r="S28" s="276"/>
     </row>
     <row r="29" spans="1:19" s="17" customFormat="1" ht="20.25" hidden="1" customHeight="1">
-      <c r="B29" s="262"/>
+      <c r="B29" s="280"/>
       <c r="C29" s="135"/>
-      <c r="D29" s="267"/>
-      <c r="E29" s="206"/>
-      <c r="F29" s="179"/>
-      <c r="G29" s="239"/>
+      <c r="D29" s="285"/>
+      <c r="E29" s="196"/>
+      <c r="F29" s="177"/>
+      <c r="G29" s="257"/>
       <c r="H29" s="150"/>
       <c r="I29" s="79"/>
-      <c r="J29" s="242"/>
+      <c r="J29" s="260"/>
       <c r="K29" s="146"/>
       <c r="L29" s="79"/>
-      <c r="M29" s="242"/>
+      <c r="M29" s="260"/>
       <c r="N29" s="150"/>
       <c r="O29" s="79"/>
-      <c r="P29" s="245"/>
-      <c r="Q29" s="181" t="e">
+      <c r="P29" s="263"/>
+      <c r="Q29" s="179" t="e">
         <f>[1]주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="R29" s="179"/>
-      <c r="S29" s="269"/>
+      <c r="R29" s="177"/>
+      <c r="S29" s="287"/>
     </row>
     <row r="30" spans="1:19" s="17" customFormat="1" ht="20.25" hidden="1" customHeight="1">
-      <c r="B30" s="262"/>
+      <c r="B30" s="280"/>
       <c r="C30" s="135"/>
-      <c r="D30" s="267"/>
-      <c r="E30" s="206"/>
-      <c r="F30" s="179"/>
-      <c r="G30" s="239"/>
+      <c r="D30" s="285"/>
+      <c r="E30" s="196"/>
+      <c r="F30" s="177"/>
+      <c r="G30" s="257"/>
       <c r="H30" s="150"/>
       <c r="I30" s="79"/>
-      <c r="J30" s="242"/>
+      <c r="J30" s="260"/>
       <c r="K30" s="146"/>
       <c r="L30" s="79"/>
-      <c r="M30" s="242"/>
+      <c r="M30" s="260"/>
       <c r="N30" s="150"/>
       <c r="O30" s="79"/>
-      <c r="P30" s="245"/>
-      <c r="Q30" s="181" t="e">
+      <c r="P30" s="263"/>
+      <c r="Q30" s="179" t="e">
         <f>[1]주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="R30" s="179"/>
-      <c r="S30" s="269"/>
+      <c r="R30" s="177"/>
+      <c r="S30" s="287"/>
     </row>
     <row r="31" spans="1:19" s="17" customFormat="1" ht="20.25" hidden="1" customHeight="1">
-      <c r="B31" s="262"/>
+      <c r="B31" s="280"/>
       <c r="C31" s="135"/>
-      <c r="D31" s="267"/>
-      <c r="E31" s="206"/>
-      <c r="F31" s="179"/>
-      <c r="G31" s="239"/>
+      <c r="D31" s="285"/>
+      <c r="E31" s="196"/>
+      <c r="F31" s="177"/>
+      <c r="G31" s="257"/>
       <c r="H31" s="150"/>
       <c r="I31" s="79"/>
-      <c r="J31" s="242"/>
+      <c r="J31" s="260"/>
       <c r="K31" s="146"/>
       <c r="L31" s="79"/>
-      <c r="M31" s="242"/>
+      <c r="M31" s="260"/>
       <c r="N31" s="150"/>
       <c r="O31" s="79"/>
-      <c r="P31" s="245"/>
-      <c r="Q31" s="181" t="e">
+      <c r="P31" s="263"/>
+      <c r="Q31" s="179" t="e">
         <f>[1]주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="R31" s="179"/>
-      <c r="S31" s="269"/>
+      <c r="R31" s="177"/>
+      <c r="S31" s="287"/>
     </row>
     <row r="32" spans="1:19" s="17" customFormat="1" ht="20.25" hidden="1" customHeight="1">
-      <c r="B32" s="262"/>
+      <c r="B32" s="280"/>
       <c r="C32" s="135"/>
-      <c r="D32" s="267"/>
-      <c r="E32" s="206"/>
-      <c r="F32" s="179"/>
-      <c r="G32" s="239"/>
+      <c r="D32" s="285"/>
+      <c r="E32" s="196"/>
+      <c r="F32" s="177"/>
+      <c r="G32" s="257"/>
       <c r="H32" s="150"/>
       <c r="I32" s="79"/>
-      <c r="J32" s="242"/>
+      <c r="J32" s="260"/>
       <c r="K32" s="146"/>
       <c r="L32" s="79"/>
-      <c r="M32" s="242"/>
+      <c r="M32" s="260"/>
       <c r="N32" s="150"/>
       <c r="O32" s="79"/>
-      <c r="P32" s="245"/>
-      <c r="Q32" s="181" t="e">
+      <c r="P32" s="263"/>
+      <c r="Q32" s="179" t="e">
         <f>[1]주간메뉴표!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="R32" s="179"/>
-      <c r="S32" s="269"/>
+      <c r="R32" s="177"/>
+      <c r="S32" s="287"/>
     </row>
     <row r="33" spans="2:19" s="17" customFormat="1" ht="20.25" hidden="1" customHeight="1">
-      <c r="B33" s="262"/>
+      <c r="B33" s="280"/>
       <c r="C33" s="136"/>
-      <c r="D33" s="268"/>
-      <c r="E33" s="206"/>
-      <c r="F33" s="179"/>
-      <c r="G33" s="240"/>
+      <c r="D33" s="286"/>
+      <c r="E33" s="196"/>
+      <c r="F33" s="177"/>
+      <c r="G33" s="258"/>
       <c r="H33" s="150"/>
       <c r="I33" s="79"/>
-      <c r="J33" s="243"/>
+      <c r="J33" s="261"/>
       <c r="K33" s="146"/>
       <c r="L33" s="79"/>
-      <c r="M33" s="243"/>
+      <c r="M33" s="261"/>
       <c r="N33" s="150"/>
       <c r="O33" s="79"/>
-      <c r="P33" s="246"/>
-      <c r="Q33" s="181"/>
-      <c r="R33" s="179"/>
-      <c r="S33" s="259"/>
+      <c r="P33" s="264"/>
+      <c r="Q33" s="179"/>
+      <c r="R33" s="177"/>
+      <c r="S33" s="277"/>
     </row>
     <row r="34" spans="2:19" s="27" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B34" s="262"/>
-      <c r="C34" s="277" t="s">
+      <c r="B34" s="280"/>
+      <c r="C34" s="295" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="250" t="s">
+      <c r="D34" s="268" t="s">
         <v>34</v>
       </c>
-      <c r="E34" s="207" t="str">
+      <c r="E34" s="197" t="str">
         <f>주간메뉴표!D27</f>
         <v>볶음김치</v>
       </c>
       <c r="F34" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="G34" s="283"/>
+      <c r="G34" s="301"/>
       <c r="H34" s="151" t="str">
         <f>주간메뉴표!E27</f>
-        <v>백김치</v>
+        <v>석박지</v>
       </c>
       <c r="I34" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="J34" s="283"/>
+      <c r="J34" s="301"/>
       <c r="K34" s="151" t="str">
         <f>주간메뉴표!F27</f>
         <v>볶음김치</v>
@@ -9806,348 +9552,335 @@
       <c r="L34" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="M34" s="283"/>
+      <c r="M34" s="301"/>
       <c r="N34" s="151" t="str">
         <f>주간메뉴표!G27</f>
-        <v>백김치</v>
+        <v>석박지</v>
       </c>
       <c r="O34" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="P34" s="283"/>
-      <c r="Q34" s="152" t="str">
+      <c r="P34" s="301"/>
+      <c r="Q34" s="152">
         <f>주간메뉴표!H27</f>
-        <v>볶음김치</v>
-      </c>
-      <c r="R34" s="79" t="s">
-        <v>216</v>
-      </c>
-      <c r="S34" s="250"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="79"/>
+      <c r="S34" s="268"/>
     </row>
     <row r="35" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B35" s="262"/>
-      <c r="C35" s="278"/>
-      <c r="D35" s="276"/>
-      <c r="E35" s="207" t="str">
+      <c r="B35" s="280"/>
+      <c r="C35" s="296"/>
+      <c r="D35" s="294"/>
+      <c r="E35" s="197" t="str">
         <f>주간메뉴표!D28</f>
-        <v>식혜</v>
-      </c>
-      <c r="F35" s="179"/>
-      <c r="G35" s="284"/>
+        <v>매실차</v>
+      </c>
+      <c r="F35" s="177"/>
+      <c r="G35" s="302"/>
       <c r="H35" s="151" t="str">
         <f>주간메뉴표!E28</f>
-        <v>발사믹&amp;자몽D</v>
+        <v>발사믹&amp;참깨D</v>
       </c>
       <c r="I35" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="J35" s="284"/>
+      <c r="J35" s="302"/>
       <c r="K35" s="151" t="str">
         <f>주간메뉴표!F28</f>
-        <v>율무차</v>
-      </c>
-      <c r="L35" s="79" t="s">
-        <v>216</v>
-      </c>
-      <c r="M35" s="284"/>
+        <v>수정과</v>
+      </c>
+      <c r="L35" s="79"/>
+      <c r="M35" s="302"/>
       <c r="N35" s="151" t="str">
         <f>주간메뉴표!G28</f>
-        <v>유자차</v>
+        <v>요거트*씨리얼</v>
       </c>
       <c r="O35" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="P35" s="284"/>
-      <c r="Q35" s="152" t="str">
+      <c r="P35" s="302"/>
+      <c r="Q35" s="152">
         <f>주간메뉴표!H28</f>
-        <v>레몬아이스티</v>
-      </c>
-      <c r="R35" s="79" t="s">
-        <v>216</v>
-      </c>
-      <c r="S35" s="276"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="79"/>
+      <c r="S35" s="294"/>
     </row>
     <row r="36" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B36" s="262"/>
-      <c r="C36" s="278"/>
-      <c r="D36" s="276"/>
-      <c r="E36" s="207" t="str">
+      <c r="B36" s="280"/>
+      <c r="C36" s="296"/>
+      <c r="D36" s="294"/>
+      <c r="E36" s="197" t="str">
         <f>주간메뉴표!D29</f>
-        <v>오리엔탈&amp;요거트D</v>
+        <v>오리엔탈&amp;망고D</v>
       </c>
       <c r="F36" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="G36" s="285"/>
+      <c r="G36" s="303"/>
       <c r="H36" s="151">
         <f>[1]주간메뉴표!E29</f>
         <v>0</v>
       </c>
       <c r="I36" s="79"/>
-      <c r="J36" s="285"/>
+      <c r="J36" s="303"/>
       <c r="K36" s="151" t="str">
         <f>주간메뉴표!F29</f>
-        <v>오리엔탈&amp;딸기요거트D</v>
+        <v>오리엔탈&amp;블루베리D</v>
       </c>
       <c r="L36" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="M36" s="285"/>
+      <c r="M36" s="303"/>
       <c r="N36" s="151" t="str">
         <f>주간메뉴표!G29</f>
-        <v>발사믹&amp;한라봉D</v>
+        <v>발사믹&amp;파인애플D</v>
       </c>
       <c r="O36" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="P36" s="285"/>
-      <c r="Q36" s="152" t="str">
+      <c r="P36" s="303"/>
+      <c r="Q36" s="152">
         <f>주간메뉴표!H29</f>
-        <v>오리엔탈&amp;사우전아일랜드D</v>
-      </c>
-      <c r="R36" s="79" t="s">
-        <v>216</v>
-      </c>
-      <c r="S36" s="251"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="79"/>
+      <c r="S36" s="269"/>
     </row>
     <row r="37" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B37" s="262"/>
-      <c r="C37" s="277" t="s">
+      <c r="B37" s="280"/>
+      <c r="C37" s="295" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="250" t="s">
+      <c r="D37" s="268" t="s">
         <v>208</v>
       </c>
-      <c r="E37" s="279" t="str">
+      <c r="E37" s="297" t="str">
         <f>주간메뉴표!D30</f>
-        <v>베이컨버섯샐러드</v>
-      </c>
-      <c r="F37" s="256" t="s">
-        <v>216</v>
-      </c>
-      <c r="G37" s="281">
+        <v>닭가슴살크랜베리샐러드</v>
+      </c>
+      <c r="F37" s="274" t="s">
+        <v>216</v>
+      </c>
+      <c r="G37" s="299">
         <f>주간메뉴표!D31</f>
         <v>689</v>
       </c>
-      <c r="H37" s="274" t="str">
+      <c r="H37" s="292" t="str">
         <f>주간메뉴표!E30</f>
-        <v>큐브참치아보카도샐러드</v>
-      </c>
-      <c r="I37" s="270" t="s">
-        <v>216</v>
-      </c>
-      <c r="J37" s="272">
+        <v>베이컨시저샐러드</v>
+      </c>
+      <c r="I37" s="288" t="s">
+        <v>216</v>
+      </c>
+      <c r="J37" s="290">
         <f>주간메뉴표!E31</f>
-        <v>723</v>
-      </c>
-      <c r="K37" s="274" t="str">
+        <v>711</v>
+      </c>
+      <c r="K37" s="292" t="str">
         <f>주간메뉴표!F30</f>
-        <v>칠리새우샐러드</v>
-      </c>
-      <c r="L37" s="270" t="s">
-        <v>216</v>
-      </c>
-      <c r="M37" s="272">
+        <v>케이준치킨샐러드</v>
+      </c>
+      <c r="L37" s="288" t="s">
+        <v>216</v>
+      </c>
+      <c r="M37" s="290">
         <f>주간메뉴표!F31</f>
-        <v>742</v>
-      </c>
-      <c r="N37" s="274" t="str">
+        <v>732</v>
+      </c>
+      <c r="N37" s="292" t="str">
         <f>주간메뉴표!G30</f>
-        <v>오렌지리코타샐러드</v>
-      </c>
-      <c r="O37" s="270" t="s">
-        <v>216</v>
-      </c>
-      <c r="P37" s="272">
+        <v>씨푸드파스타샐러드</v>
+      </c>
+      <c r="O37" s="288" t="s">
+        <v>216</v>
+      </c>
+      <c r="P37" s="290">
         <f>주간메뉴표!G31</f>
-        <v>638</v>
-      </c>
-      <c r="Q37" s="274" t="str">
+        <v>674</v>
+      </c>
+      <c r="Q37" s="292">
         <f>주간메뉴표!H30</f>
-        <v>불고기포케샐러드</v>
-      </c>
-      <c r="R37" s="256" t="s">
-        <v>216</v>
-      </c>
-      <c r="S37" s="258">
+        <v>0</v>
+      </c>
+      <c r="R37" s="274"/>
+      <c r="S37" s="276">
         <f>주간메뉴표!H31</f>
-        <v>748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:19" s="17" customFormat="1" ht="36" customHeight="1">
-      <c r="B38" s="262"/>
-      <c r="C38" s="278"/>
-      <c r="D38" s="251"/>
-      <c r="E38" s="280"/>
-      <c r="F38" s="257"/>
-      <c r="G38" s="282"/>
-      <c r="H38" s="275"/>
-      <c r="I38" s="271"/>
-      <c r="J38" s="273"/>
-      <c r="K38" s="275"/>
-      <c r="L38" s="271"/>
-      <c r="M38" s="273"/>
-      <c r="N38" s="275"/>
-      <c r="O38" s="271"/>
-      <c r="P38" s="273"/>
-      <c r="Q38" s="275"/>
-      <c r="R38" s="257"/>
-      <c r="S38" s="259"/>
+      <c r="B38" s="280"/>
+      <c r="C38" s="296"/>
+      <c r="D38" s="269"/>
+      <c r="E38" s="298"/>
+      <c r="F38" s="275"/>
+      <c r="G38" s="300"/>
+      <c r="H38" s="293"/>
+      <c r="I38" s="289"/>
+      <c r="J38" s="291"/>
+      <c r="K38" s="293"/>
+      <c r="L38" s="289"/>
+      <c r="M38" s="291"/>
+      <c r="N38" s="293"/>
+      <c r="O38" s="289"/>
+      <c r="P38" s="291"/>
+      <c r="Q38" s="293"/>
+      <c r="R38" s="275"/>
+      <c r="S38" s="277"/>
     </row>
     <row r="39" spans="2:19" s="17" customFormat="1" ht="36" customHeight="1">
-      <c r="B39" s="262"/>
-      <c r="C39" s="278"/>
-      <c r="D39" s="176" t="s">
+      <c r="B39" s="280"/>
+      <c r="C39" s="296"/>
+      <c r="D39" s="174" t="s">
         <v>224</v>
       </c>
-      <c r="E39" s="208" t="str">
+      <c r="E39" s="198" t="str">
         <f>주간메뉴표!D36</f>
-        <v>소불고기&amp;새우튀김</v>
+        <v>돈가스&amp;소시지</v>
       </c>
       <c r="F39" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="G39" s="209">
+      <c r="G39" s="199">
         <f>주간메뉴표!D37</f>
-        <v>847</v>
-      </c>
-      <c r="H39" s="178" t="str">
+        <v>826</v>
+      </c>
+      <c r="H39" s="176" t="str">
         <f>주간메뉴표!E36</f>
-        <v>소시지&amp;꼬마김밥</v>
-      </c>
-      <c r="I39" s="177" t="s">
+        <v>꼬마김밥&amp;치킨텐더</v>
+      </c>
+      <c r="I39" s="175" t="s">
         <v>223</v>
       </c>
-      <c r="J39" s="174">
+      <c r="J39" s="172">
         <f>주간메뉴표!E37</f>
-        <v>833</v>
-      </c>
-      <c r="K39" s="178" t="str">
+        <v>786</v>
+      </c>
+      <c r="K39" s="176" t="str">
         <f>주간메뉴표!F36</f>
-        <v>돈가스&amp;제육</v>
-      </c>
-      <c r="L39" s="177" t="s">
+        <v>스팸&amp;매콤어묵</v>
+      </c>
+      <c r="L39" s="175" t="s">
         <v>223</v>
       </c>
-      <c r="M39" s="174">
+      <c r="M39" s="172">
         <f>주간메뉴표!F37</f>
-        <v>866</v>
-      </c>
-      <c r="N39" s="178" t="str">
+        <v>798</v>
+      </c>
+      <c r="N39" s="176" t="str">
         <f>주간메뉴표!G36</f>
-        <v>고추장진미채&amp;떡갈비</v>
-      </c>
-      <c r="O39" s="177" t="s">
+        <v>오징어튀김&amp;제육</v>
+      </c>
+      <c r="O39" s="175" t="s">
         <v>223</v>
       </c>
-      <c r="P39" s="174">
+      <c r="P39" s="172">
         <f>주간메뉴표!G37</f>
-        <v>822</v>
-      </c>
-      <c r="Q39" s="178" t="str">
+        <v>864</v>
+      </c>
+      <c r="Q39" s="176">
         <f>주간메뉴표!H36</f>
-        <v>장조림&amp;매콤어묵</v>
-      </c>
-      <c r="R39" s="79" t="s">
-        <v>216</v>
-      </c>
-      <c r="S39" s="182">
+        <v>0</v>
+      </c>
+      <c r="R39" s="79"/>
+      <c r="S39" s="180">
         <f>주간메뉴표!H37</f>
-        <v>836</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:19" s="44" customFormat="1" ht="66.75" customHeight="1">
-      <c r="B40" s="262"/>
-      <c r="C40" s="278"/>
-      <c r="D40" s="175" t="s">
+      <c r="B40" s="280"/>
+      <c r="C40" s="296"/>
+      <c r="D40" s="173" t="s">
         <v>210</v>
       </c>
-      <c r="E40" s="207" t="str">
+      <c r="E40" s="197" t="str">
         <f>주간메뉴표!D32</f>
-        <v>제육볶음
-오징어커틀렛/두부계란전
-볶음김치/잡곡밥/도라지오이생채/샐러드/장국/생수</v>
+        <v>오징어굴소스볶음
+야채튀김/어묵볶음
+볶음김치/잡곡밥/단무지
+샐러드/장국/생수</v>
       </c>
       <c r="F40" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="G40" s="210">
+      <c r="G40" s="200">
         <f>주간메뉴표!D33</f>
-        <v>976</v>
+        <v>962</v>
       </c>
       <c r="H40" s="152" t="str">
         <f>주간메뉴표!E32</f>
-        <v>안동찜닭
-감자채전/메추리알조림
-볶음김치/잡곡밥/고추장멸치볶음/샐러드/장국/생수</v>
+        <v>우삼겹숙주볶음
+감자튀김/부추전
+볶음김치/잡곡밥/콩나물냉채/샐러드/장국/생수</v>
       </c>
       <c r="I40" s="79" t="s">
         <v>216</v>
       </c>
       <c r="J40" s="142">
         <f>주간메뉴표!E33</f>
-        <v>881</v>
+        <v>957</v>
       </c>
       <c r="K40" s="152" t="str">
         <f>주간메뉴표!F32</f>
-        <v>버섯소불고기
-인절미탕수육/어묵볶음
-/볶음김치/잡곡밥/무말랭이무침/샐러드/장국/생수</v>
+        <v>돈육간장불고기
+만두탕수/계란찜
+볶음김치/잡곡밥/궁채절임
+샐러드/장국/생수</v>
       </c>
       <c r="L40" s="79" t="s">
         <v>216</v>
       </c>
       <c r="M40" s="142">
         <f>주간메뉴표!F33</f>
-        <v>915</v>
+        <v>897</v>
       </c>
       <c r="N40" s="152" t="str">
         <f>주간메뉴표!G32</f>
-        <v>오징어볶음
-너비아니구이/파래자반
-볶음김치/잡곡밥/콘샐러드/샐러드/장국/생수</v>
+        <v>고구마돈가스
+찐만두/단호박전
+볶음김치/잡곡밥/오이지
+샐러드/장국/생수</v>
       </c>
       <c r="O40" s="79" t="s">
         <v>216</v>
       </c>
       <c r="P40" s="142">
         <f>주간메뉴표!G33</f>
-        <v>892</v>
-      </c>
-      <c r="Q40" s="152" t="str">
+        <v>1002</v>
+      </c>
+      <c r="Q40" s="152">
         <f>주간메뉴표!H32</f>
-        <v>돈사태찜
-깐풍만두/땅꽁조림
-볶음김치/잡곡밥/꼬들단무지/샐러드/장국/생수</v>
-      </c>
-      <c r="R40" s="79" t="s">
-        <v>216</v>
-      </c>
-      <c r="S40" s="183">
+        <v>0</v>
+      </c>
+      <c r="R40" s="79"/>
+      <c r="S40" s="181">
         <f>주간메뉴표!H33</f>
-        <v>925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:19" s="17" customFormat="1" ht="30.75" customHeight="1">
-      <c r="B41" s="262"/>
-      <c r="C41" s="278"/>
-      <c r="D41" s="173" t="s">
+      <c r="B41" s="280"/>
+      <c r="C41" s="296"/>
+      <c r="D41" s="171" t="s">
         <v>209</v>
       </c>
-      <c r="E41" s="207" t="str">
+      <c r="E41" s="197" t="str">
         <f>주간메뉴표!D34</f>
-        <v>닭갈비두부면볶음</v>
+        <v>제육컬리플라워덮밥</v>
       </c>
       <c r="F41" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="G41" s="211">
+      <c r="G41" s="201">
         <f>주간메뉴표!D35</f>
-        <v>672</v>
+        <v>528</v>
       </c>
       <c r="H41" s="152" t="str">
         <f>주간메뉴표!E34</f>
-        <v>멕시칸소프리타샐러드</v>
+        <v>만두소렌틸볶음밥</v>
       </c>
       <c r="I41" s="79" t="s">
         <v>216</v>
@@ -10158,257 +9891,253 @@
       </c>
       <c r="K41" s="152" t="str">
         <f>주간메뉴표!F34</f>
-        <v>컬리플라워두부김치볶음밥</v>
+        <v>토마토미트볼라이스</v>
       </c>
       <c r="L41" s="79" t="s">
         <v>216</v>
       </c>
       <c r="M41" s="143">
         <f>주간메뉴표!F35</f>
-        <v>665</v>
+        <v>696</v>
       </c>
       <c r="N41" s="152" t="str">
         <f>주간메뉴표!G34</f>
-        <v>그릴치킨렌틸콩라이스</v>
+        <v>닭갈비두부면볶음</v>
       </c>
       <c r="O41" s="79" t="s">
         <v>216</v>
       </c>
       <c r="P41" s="143">
         <f>주간메뉴표!G35</f>
-        <v>642</v>
-      </c>
-      <c r="Q41" s="152" t="str">
+        <v>672</v>
+      </c>
+      <c r="Q41" s="152">
         <f>주간메뉴표!H34</f>
-        <v>치킨컬리플라워볶음밥</v>
-      </c>
-      <c r="R41" s="79" t="s">
-        <v>216</v>
-      </c>
-      <c r="S41" s="184">
+        <v>0</v>
+      </c>
+      <c r="R41" s="79"/>
+      <c r="S41" s="182">
         <f>주간메뉴표!H35</f>
-        <v>634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B42" s="260" t="s">
+      <c r="B42" s="278" t="s">
         <v>11</v>
       </c>
-      <c r="C42" s="261"/>
-      <c r="D42" s="266" t="s">
+      <c r="C42" s="279"/>
+      <c r="D42" s="284" t="s">
         <v>36</v>
       </c>
-      <c r="E42" s="203" t="str">
+      <c r="E42" s="193" t="str">
         <f>주간메뉴표!D38</f>
-        <v>뚝배기소불고기</v>
+        <v>대파육개장</v>
       </c>
       <c r="F42" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="G42" s="238">
+      <c r="G42" s="256">
         <f>주간메뉴표!D44</f>
-        <v>1172</v>
-      </c>
-      <c r="H42" s="186" t="str">
+        <v>920</v>
+      </c>
+      <c r="H42" s="184" t="str">
         <f>주간메뉴표!E38</f>
-        <v>뚝배기날치알밥</v>
+        <v>고깃집볶음밥*계란후라이</v>
       </c>
       <c r="I42" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="J42" s="241">
+      <c r="J42" s="259">
         <f>주간메뉴표!E44</f>
-        <v>912</v>
-      </c>
-      <c r="K42" s="186" t="str">
+        <v>1227</v>
+      </c>
+      <c r="K42" s="184" t="str">
         <f>주간메뉴표!F38</f>
-        <v>밀양돼지국밥</v>
+        <v>맥적열무보리비빔밥</v>
       </c>
       <c r="L42" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="M42" s="241">
+      <c r="M42" s="259">
         <f>주간메뉴표!F44</f>
-        <v>908</v>
-      </c>
-      <c r="N42" s="186" t="str">
+        <v>936</v>
+      </c>
+      <c r="N42" s="184" t="str">
         <f>주간메뉴표!G38</f>
-        <v>장터국밥</v>
+        <v>닭곰탕*소면사리</v>
       </c>
       <c r="O42" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="P42" s="247">
+      <c r="P42" s="265">
         <f>주간메뉴표!G44</f>
-        <v>951</v>
-      </c>
-      <c r="Q42" s="187" t="str">
+        <v>1047</v>
+      </c>
+      <c r="Q42" s="185">
         <f>주간메뉴표!H38</f>
-        <v>우삼겹순두부찌개</v>
-      </c>
-      <c r="R42" s="79" t="s">
-        <v>216</v>
-      </c>
-      <c r="S42" s="258">
+        <v>0</v>
+      </c>
+      <c r="R42" s="79"/>
+      <c r="S42" s="276">
         <f>주간메뉴표!H44</f>
-        <v>992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B43" s="262"/>
-      <c r="C43" s="263"/>
-      <c r="D43" s="267"/>
-      <c r="E43" s="204" t="str">
+      <c r="B43" s="280"/>
+      <c r="C43" s="281"/>
+      <c r="D43" s="285"/>
+      <c r="E43" s="194" t="str">
         <f>주간메뉴표!D39</f>
-        <v>만두강정</v>
+        <v>바싹불고기*부추생채</v>
       </c>
       <c r="F43" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="G43" s="239"/>
+      <c r="G43" s="257"/>
       <c r="H43" s="150" t="str">
         <f>주간메뉴표!E39</f>
-        <v>미소장국</v>
+        <v>미역국</v>
       </c>
       <c r="I43" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="J43" s="242"/>
+      <c r="J43" s="260"/>
       <c r="K43" s="150" t="str">
         <f>주간메뉴표!F39</f>
-        <v>미니메밀전병</v>
+        <v>계란국</v>
       </c>
       <c r="L43" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="M43" s="242"/>
+      <c r="M43" s="260"/>
       <c r="N43" s="150" t="str">
         <f>주간메뉴표!G39</f>
-        <v>백순대볶음</v>
+        <v>코다리강정</v>
       </c>
       <c r="O43" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="P43" s="248"/>
-      <c r="Q43" s="181" t="str">
+      <c r="P43" s="266"/>
+      <c r="Q43" s="179">
         <f>주간메뉴표!H39</f>
-        <v>옛날소시지전</v>
-      </c>
-      <c r="R43" s="79" t="s">
-        <v>216</v>
-      </c>
-      <c r="S43" s="269"/>
+        <v>0</v>
+      </c>
+      <c r="R43" s="79"/>
+      <c r="S43" s="287"/>
     </row>
     <row r="44" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B44" s="262"/>
-      <c r="C44" s="263"/>
-      <c r="D44" s="267"/>
-      <c r="E44" s="204" t="str">
+      <c r="B44" s="280"/>
+      <c r="C44" s="281"/>
+      <c r="D44" s="285"/>
+      <c r="E44" s="194" t="str">
         <f>주간메뉴표!D40</f>
-        <v>연근조림</v>
-      </c>
-      <c r="F44" s="179"/>
-      <c r="G44" s="239"/>
+        <v>청포묵김가루무침</v>
+      </c>
+      <c r="F44" s="79" t="s">
+        <v>216</v>
+      </c>
+      <c r="G44" s="257"/>
       <c r="H44" s="150" t="str">
         <f>주간메뉴표!E40</f>
-        <v>일식돈가스</v>
+        <v>모짜핫도그*케찹</v>
       </c>
       <c r="I44" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="J44" s="242"/>
+      <c r="J44" s="260"/>
       <c r="K44" s="150" t="str">
         <f>주간메뉴표!F40</f>
-        <v>도토리묵무침</v>
+        <v>생선가스*타르타르s</v>
       </c>
       <c r="L44" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="M44" s="242"/>
+      <c r="M44" s="260"/>
       <c r="N44" s="150" t="str">
         <f>주간메뉴표!G40</f>
-        <v>계란찜</v>
-      </c>
-      <c r="O44" s="79" t="s">
-        <v>216</v>
-      </c>
-      <c r="P44" s="248"/>
-      <c r="Q44" s="181" t="str">
+        <v>감자채볶음</v>
+      </c>
+      <c r="O44" s="79"/>
+      <c r="P44" s="266"/>
+      <c r="Q44" s="179">
         <f>주간메뉴표!H40</f>
-        <v>알감자조림</v>
-      </c>
-      <c r="R44" s="79" t="s">
-        <v>216</v>
-      </c>
-      <c r="S44" s="269"/>
+        <v>0</v>
+      </c>
+      <c r="R44" s="79"/>
+      <c r="S44" s="287"/>
     </row>
     <row r="45" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B45" s="262"/>
-      <c r="C45" s="263"/>
-      <c r="D45" s="267"/>
-      <c r="E45" s="204" t="str">
+      <c r="B45" s="280"/>
+      <c r="C45" s="281"/>
+      <c r="D45" s="285"/>
+      <c r="E45" s="194" t="str">
         <f>주간메뉴표!D41</f>
-        <v>미역줄기볶음</v>
-      </c>
-      <c r="F45" s="179"/>
-      <c r="G45" s="239"/>
+        <v>봄동겉절이</v>
+      </c>
+      <c r="F45" s="79" t="s">
+        <v>216</v>
+      </c>
+      <c r="G45" s="257"/>
       <c r="H45" s="150" t="str">
         <f>주간메뉴표!E41</f>
-        <v>과일야채샐러드</v>
+        <v>천사채샐러드</v>
       </c>
       <c r="I45" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="J45" s="242"/>
+      <c r="J45" s="260"/>
       <c r="K45" s="150" t="str">
         <f>주간메뉴표!F41</f>
-        <v>명엽채볶음</v>
+        <v>미역초무침</v>
       </c>
       <c r="L45" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="M45" s="242"/>
+      <c r="M45" s="260"/>
       <c r="N45" s="150" t="str">
         <f>주간메뉴표!G41</f>
-        <v>미역초무침</v>
-      </c>
-      <c r="O45" s="79"/>
-      <c r="P45" s="248"/>
-      <c r="Q45" s="181" t="str">
+        <v>오이맛고추쌈장무침</v>
+      </c>
+      <c r="O45" s="79" t="s">
+        <v>216</v>
+      </c>
+      <c r="P45" s="266"/>
+      <c r="Q45" s="179">
         <f>주간메뉴표!H41</f>
-        <v>콩나물무침</v>
-      </c>
-      <c r="R45" s="179"/>
-      <c r="S45" s="269"/>
+        <v>0</v>
+      </c>
+      <c r="R45" s="177"/>
+      <c r="S45" s="287"/>
     </row>
     <row r="46" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B46" s="262"/>
-      <c r="C46" s="263"/>
-      <c r="D46" s="267"/>
-      <c r="E46" s="204" t="str">
+      <c r="B46" s="280"/>
+      <c r="C46" s="281"/>
+      <c r="D46" s="285"/>
+      <c r="E46" s="194" t="str">
         <f>주간메뉴표!D42</f>
-        <v>깍두기</v>
+        <v>석박지</v>
       </c>
       <c r="F46" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="G46" s="239"/>
+      <c r="G46" s="257"/>
       <c r="H46" s="150" t="str">
         <f>주간메뉴표!E42</f>
-        <v>깍두기</v>
+        <v>열무김치</v>
       </c>
       <c r="I46" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="J46" s="242"/>
+      <c r="J46" s="260"/>
       <c r="K46" s="150" t="str">
         <f>주간메뉴표!F42</f>
-        <v>포기김치</v>
+        <v>깍두기</v>
       </c>
       <c r="L46" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="M46" s="242"/>
+      <c r="M46" s="260"/>
       <c r="N46" s="150" t="str">
         <f>주간메뉴표!G42</f>
         <v>포기김치</v>
@@ -10416,470 +10145,462 @@
       <c r="O46" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="P46" s="248"/>
-      <c r="Q46" s="181" t="str">
+      <c r="P46" s="266"/>
+      <c r="Q46" s="179">
         <f>주간메뉴표!H42</f>
-        <v>포기김치</v>
-      </c>
-      <c r="R46" s="79" t="s">
-        <v>216</v>
-      </c>
-      <c r="S46" s="269"/>
+        <v>0</v>
+      </c>
+      <c r="R46" s="79"/>
+      <c r="S46" s="287"/>
     </row>
     <row r="47" spans="2:19" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B47" s="262"/>
-      <c r="C47" s="263"/>
-      <c r="D47" s="268"/>
-      <c r="E47" s="204" t="str">
+      <c r="B47" s="280"/>
+      <c r="C47" s="281"/>
+      <c r="D47" s="286"/>
+      <c r="E47" s="194" t="str">
         <f>주간메뉴표!D43</f>
         <v>잡곡밥</v>
       </c>
-      <c r="F47" s="179"/>
-      <c r="G47" s="240"/>
+      <c r="F47" s="177"/>
+      <c r="G47" s="258"/>
       <c r="H47" s="150">
         <f>주간메뉴표!E43</f>
         <v>0</v>
       </c>
       <c r="I47" s="79"/>
-      <c r="J47" s="243"/>
-      <c r="K47" s="150" t="str">
+      <c r="J47" s="261"/>
+      <c r="K47" s="150">
         <f>주간메뉴표!F43</f>
-        <v>잡곡밥</v>
+        <v>0</v>
       </c>
       <c r="L47" s="79"/>
-      <c r="M47" s="243"/>
+      <c r="M47" s="261"/>
       <c r="N47" s="150" t="str">
         <f>주간메뉴표!G43</f>
         <v>잡곡밥</v>
       </c>
       <c r="O47" s="79"/>
-      <c r="P47" s="249"/>
-      <c r="Q47" s="181" t="str">
+      <c r="P47" s="267"/>
+      <c r="Q47" s="179">
         <f>주간메뉴표!H43</f>
-        <v>잡곡밥</v>
-      </c>
-      <c r="R47" s="179"/>
-      <c r="S47" s="259"/>
+        <v>0</v>
+      </c>
+      <c r="R47" s="177"/>
+      <c r="S47" s="277"/>
     </row>
     <row r="48" spans="2:19" ht="20.25" customHeight="1">
-      <c r="B48" s="262"/>
-      <c r="C48" s="263"/>
-      <c r="D48" s="266" t="s">
+      <c r="B48" s="280"/>
+      <c r="C48" s="281"/>
+      <c r="D48" s="284" t="s">
         <v>29</v>
       </c>
-      <c r="E48" s="203" t="str">
+      <c r="E48" s="193" t="str">
         <f>주간메뉴표!D45</f>
-        <v>셀프에비동</v>
-      </c>
-      <c r="F48" s="179"/>
-      <c r="G48" s="238">
+        <v>셀프노량진황제컵밥</v>
+      </c>
+      <c r="F48" s="177"/>
+      <c r="G48" s="256">
         <f>주간메뉴표!D53</f>
-        <v>1050</v>
-      </c>
-      <c r="H48" s="186" t="str">
+        <v>1297</v>
+      </c>
+      <c r="H48" s="184" t="str">
         <f>주간메뉴표!E45</f>
-        <v>셀프오쭈볶음비빔밥</v>
+        <v>셀프규동</v>
       </c>
       <c r="I48" s="79"/>
-      <c r="J48" s="241">
+      <c r="J48" s="259">
         <f>주간메뉴표!E53</f>
-        <v>697</v>
-      </c>
-      <c r="K48" s="186" t="str">
+        <v>1010</v>
+      </c>
+      <c r="K48" s="184" t="str">
         <f>주간메뉴표!F45</f>
-        <v>셀프치킨마요덮밥</v>
+        <v>셀프로스팜마요덮밥</v>
       </c>
       <c r="L48" s="79"/>
-      <c r="M48" s="244">
+      <c r="M48" s="262">
         <f>주간메뉴표!F53</f>
-        <v>688</v>
-      </c>
-      <c r="N48" s="185" t="str">
+        <v>1253</v>
+      </c>
+      <c r="N48" s="183" t="str">
         <f>주간메뉴표!G45</f>
-        <v>셀프대패삼겹비빔밥</v>
+        <v>셀프장조림버터비빔밥</v>
       </c>
       <c r="O48" s="79"/>
-      <c r="P48" s="247">
+      <c r="P48" s="265">
         <f>주간메뉴표!G53</f>
-        <v>1302</v>
-      </c>
-      <c r="Q48" s="187" t="str">
+        <v>967</v>
+      </c>
+      <c r="Q48" s="185">
         <f>주간메뉴표!H45</f>
-        <v>셀프쇠고기취나물비빔밥</v>
-      </c>
-      <c r="R48" s="179"/>
-      <c r="S48" s="235" t="s">
+        <v>0</v>
+      </c>
+      <c r="R48" s="177"/>
+      <c r="S48" s="253" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="49" spans="2:19" ht="33" customHeight="1">
-      <c r="B49" s="262"/>
-      <c r="C49" s="263"/>
-      <c r="D49" s="267"/>
-      <c r="E49" s="204" t="str">
+      <c r="B49" s="280"/>
+      <c r="C49" s="281"/>
+      <c r="D49" s="285"/>
+      <c r="E49" s="194" t="str">
         <f>주간메뉴표!D46</f>
-        <v>┗쌀밥,새우튀김</v>
+        <v>┗쌀밥,삼겹살볶음</v>
       </c>
       <c r="F49" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="G49" s="239"/>
+      <c r="G49" s="257"/>
       <c r="H49" s="150" t="str">
         <f>주간메뉴표!E46</f>
-        <v>┗쌀밥,오쭈볶음,계란후라이</v>
+        <v>┗쌀밥,소불고기볶음,참나물</v>
       </c>
       <c r="I49" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="J49" s="242"/>
+      <c r="J49" s="260"/>
       <c r="K49" s="150" t="str">
         <f>주간메뉴표!F46</f>
-        <v>┗쌀밥,순살치킨,계란지단</v>
+        <v>┗쌀밥,로스팜구이,스크램블에그</v>
       </c>
       <c r="L49" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="M49" s="245"/>
+      <c r="M49" s="263"/>
       <c r="N49" s="148" t="str">
         <f>주간메뉴표!G46</f>
-        <v>┗쌀밥,대패삼겹</v>
+        <v>┗쌀밥,장조림,스크램블에그</v>
       </c>
       <c r="O49" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="P49" s="248"/>
-      <c r="Q49" s="181" t="str">
+      <c r="P49" s="266"/>
+      <c r="Q49" s="179">
         <f>주간메뉴표!H46</f>
-        <v>┗쇠고기취나물밥, 계란후라이</v>
-      </c>
-      <c r="R49" s="79" t="s">
-        <v>216</v>
-      </c>
-      <c r="S49" s="236"/>
+        <v>0</v>
+      </c>
+      <c r="R49" s="79"/>
+      <c r="S49" s="254"/>
     </row>
     <row r="50" spans="2:19" ht="20.25" customHeight="1">
-      <c r="B50" s="262"/>
-      <c r="C50" s="263"/>
-      <c r="D50" s="267"/>
-      <c r="E50" s="204" t="str">
+      <c r="B50" s="280"/>
+      <c r="C50" s="281"/>
+      <c r="D50" s="285"/>
+      <c r="E50" s="194" t="str">
         <f>주간메뉴표!D47</f>
-        <v>셀프토핑</v>
-      </c>
-      <c r="F50" s="179"/>
-      <c r="G50" s="239"/>
+        <v>┗계란후라이,볶음김치</v>
+      </c>
+      <c r="F50" s="79" t="s">
+        <v>216</v>
+      </c>
+      <c r="G50" s="257"/>
       <c r="H50" s="150" t="str">
         <f>주간메뉴표!E47</f>
         <v>셀프토핑</v>
       </c>
       <c r="I50" s="79"/>
-      <c r="J50" s="242"/>
+      <c r="J50" s="260"/>
       <c r="K50" s="150" t="str">
         <f>주간메뉴표!F47</f>
         <v>셀프토핑</v>
       </c>
       <c r="L50" s="79"/>
-      <c r="M50" s="245"/>
+      <c r="M50" s="263"/>
       <c r="N50" s="148" t="str">
         <f>주간메뉴표!G47</f>
         <v>셀프토핑</v>
       </c>
       <c r="O50" s="79"/>
-      <c r="P50" s="248"/>
-      <c r="Q50" s="181" t="str">
+      <c r="P50" s="266"/>
+      <c r="Q50" s="179">
         <f>주간메뉴표!H47</f>
+        <v>0</v>
+      </c>
+      <c r="R50" s="177"/>
+      <c r="S50" s="254"/>
+    </row>
+    <row r="51" spans="2:19" ht="30.75" customHeight="1">
+      <c r="B51" s="280"/>
+      <c r="C51" s="281"/>
+      <c r="D51" s="285"/>
+      <c r="E51" s="194" t="str">
+        <f>주간메뉴표!D48</f>
         <v>셀프토핑</v>
       </c>
-      <c r="R50" s="179"/>
-      <c r="S50" s="236"/>
-    </row>
-    <row r="51" spans="2:19" ht="30.75" customHeight="1">
-      <c r="B51" s="262"/>
-      <c r="C51" s="263"/>
-      <c r="D51" s="267"/>
-      <c r="E51" s="204" t="str">
-        <f>주간메뉴표!D48</f>
-        <v>┗숙주볶음,양파볶음</v>
-      </c>
-      <c r="F51" s="179"/>
-      <c r="G51" s="239"/>
+      <c r="F51" s="177"/>
+      <c r="G51" s="257"/>
       <c r="H51" s="150" t="str">
         <f>주간메뉴표!E48</f>
-        <v>┗쫑상추,콩나물</v>
+        <v>┗숙주양파볶음</v>
       </c>
       <c r="I51" s="79"/>
-      <c r="J51" s="242"/>
+      <c r="J51" s="260"/>
       <c r="K51" s="150" t="str">
         <f>주간메뉴표!F48</f>
-        <v>┗쫑상추,양파볶음,맛김가루</v>
+        <v>┗상추,숙주양파볶음</v>
       </c>
       <c r="L51" s="79"/>
-      <c r="M51" s="245"/>
+      <c r="M51" s="263"/>
       <c r="N51" s="148" t="str">
         <f>주간메뉴표!G48</f>
-        <v>┗파생채무침,쫑상추,김가루</v>
-      </c>
-      <c r="O51" s="79"/>
-      <c r="P51" s="248"/>
-      <c r="Q51" s="181" t="str">
+        <v>┗버터간장s, 오복지</v>
+      </c>
+      <c r="O51" s="79" t="s">
+        <v>216</v>
+      </c>
+      <c r="P51" s="266"/>
+      <c r="Q51" s="179">
         <f>주간메뉴표!H48</f>
-        <v>┗김가루,맛느티리버섯볶음</v>
-      </c>
-      <c r="R51" s="179"/>
-      <c r="S51" s="236"/>
-    </row>
-    <row r="52" spans="2:19" ht="20.25" customHeight="1">
-      <c r="B52" s="262"/>
-      <c r="C52" s="263"/>
-      <c r="D52" s="267"/>
-      <c r="E52" s="204" t="str">
+        <v>0</v>
+      </c>
+      <c r="R51" s="177"/>
+      <c r="S51" s="254"/>
+    </row>
+    <row r="52" spans="2:19" ht="32.25" customHeight="1">
+      <c r="B52" s="280"/>
+      <c r="C52" s="281"/>
+      <c r="D52" s="285"/>
+      <c r="E52" s="194" t="str">
         <f>주간메뉴표!D49</f>
-        <v>초생강절임(채), 맛김가루</v>
-      </c>
-      <c r="F52" s="179"/>
-      <c r="G52" s="239"/>
+        <v>┗쫑상추,맛김가루</v>
+      </c>
+      <c r="F52" s="79"/>
+      <c r="G52" s="257"/>
       <c r="H52" s="150" t="str">
         <f>주간메뉴표!E49</f>
-        <v>맛김가루</v>
+        <v>┗적색강초절임,맛김가루</v>
       </c>
       <c r="I52" s="79"/>
-      <c r="J52" s="242"/>
+      <c r="J52" s="260"/>
       <c r="K52" s="150" t="str">
         <f>주간메뉴표!F49</f>
-        <v>┗데리야끼&amp;마요네즈소스</v>
+        <v>┗맛김가루,데리야끼양파소스</v>
       </c>
       <c r="L52" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="M52" s="245"/>
+      <c r="M52" s="263"/>
       <c r="N52" s="148" t="str">
         <f>주간메뉴표!G49</f>
-        <v>지단,무생채,콩나물무침</v>
-      </c>
-      <c r="O52" s="79" t="s">
-        <v>216</v>
-      </c>
-      <c r="P52" s="248"/>
-      <c r="Q52" s="181" t="str">
+        <v>┗맛김가루,쫑상추</v>
+      </c>
+      <c r="O52" s="79"/>
+      <c r="P52" s="266"/>
+      <c r="Q52" s="179">
         <f>주간메뉴표!H49</f>
-        <v>갈치구이</v>
-      </c>
-      <c r="R52" s="79" t="s">
-        <v>216</v>
-      </c>
-      <c r="S52" s="236"/>
+        <v>0</v>
+      </c>
+      <c r="R52" s="79"/>
+      <c r="S52" s="254"/>
     </row>
     <row r="53" spans="2:19" ht="20.25" customHeight="1">
-      <c r="B53" s="262"/>
-      <c r="C53" s="263"/>
-      <c r="D53" s="267"/>
-      <c r="E53" s="204" t="str">
+      <c r="B53" s="280"/>
+      <c r="C53" s="281"/>
+      <c r="D53" s="285"/>
+      <c r="E53" s="194" t="str">
         <f>주간메뉴표!D50</f>
-        <v>비엔나소세지볶음</v>
+        <v>┗참치마요옥수수</v>
       </c>
       <c r="F53" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="G53" s="239"/>
+      <c r="G53" s="257"/>
       <c r="H53" s="150" t="str">
         <f>주간메뉴표!E50</f>
-        <v>고기경단조림</v>
+        <v>미역국</v>
       </c>
       <c r="I53" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="J53" s="242"/>
+      <c r="J53" s="260"/>
       <c r="K53" s="150" t="str">
         <f>주간메뉴표!F50</f>
-        <v>떡볶이</v>
+        <v>계란국</v>
       </c>
       <c r="L53" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="M53" s="245"/>
+      <c r="M53" s="263"/>
       <c r="N53" s="148" t="str">
         <f>주간메뉴표!G50</f>
-        <v>타코야끼</v>
+        <v>미소장국</v>
       </c>
       <c r="O53" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="P53" s="248"/>
-      <c r="Q53" s="181" t="str">
+      <c r="P53" s="266"/>
+      <c r="Q53" s="179">
         <f>주간메뉴표!H50</f>
-        <v>유채된장국</v>
-      </c>
-      <c r="R53" s="79" t="s">
-        <v>216</v>
-      </c>
-      <c r="S53" s="236"/>
+        <v>0</v>
+      </c>
+      <c r="R53" s="79"/>
+      <c r="S53" s="254"/>
     </row>
     <row r="54" spans="2:19" ht="20.25" customHeight="1">
-      <c r="B54" s="262"/>
-      <c r="C54" s="263"/>
-      <c r="D54" s="267"/>
-      <c r="E54" s="204" t="str">
+      <c r="B54" s="280"/>
+      <c r="C54" s="281"/>
+      <c r="D54" s="285"/>
+      <c r="E54" s="194" t="str">
         <f>주간메뉴표!D51</f>
-        <v>깍두기</v>
+        <v>우동국물</v>
       </c>
       <c r="F54" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="G54" s="239"/>
+      <c r="G54" s="257"/>
       <c r="H54" s="150" t="str">
         <f>주간메뉴표!E51</f>
-        <v>깍두기</v>
+        <v>계란장조림</v>
       </c>
       <c r="I54" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="J54" s="242"/>
+      <c r="J54" s="260"/>
       <c r="K54" s="150" t="str">
         <f>주간메뉴표!F51</f>
-        <v>포기김치</v>
+        <v>치킨너겟*칠리s</v>
       </c>
       <c r="L54" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="M54" s="245"/>
+      <c r="M54" s="263"/>
       <c r="N54" s="148" t="str">
         <f>주간메뉴표!G51</f>
-        <v>유부장국</v>
+        <v>치킨떡강정</v>
       </c>
       <c r="O54" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="P54" s="248"/>
-      <c r="Q54" s="181" t="str">
+      <c r="P54" s="266"/>
+      <c r="Q54" s="179">
         <f>주간메뉴표!H51</f>
-        <v>깍두기</v>
-      </c>
-      <c r="R54" s="79" t="s">
-        <v>216</v>
-      </c>
-      <c r="S54" s="236"/>
+        <v>0</v>
+      </c>
+      <c r="R54" s="79"/>
+      <c r="S54" s="254"/>
     </row>
     <row r="55" spans="2:19" ht="20.25" customHeight="1">
-      <c r="B55" s="262"/>
-      <c r="C55" s="263"/>
-      <c r="D55" s="268"/>
-      <c r="E55" s="204" t="str">
+      <c r="B55" s="280"/>
+      <c r="C55" s="281"/>
+      <c r="D55" s="286"/>
+      <c r="E55" s="194" t="str">
         <f>주간메뉴표!D52</f>
-        <v>유부장국</v>
+        <v>고구마맛탕/깍두기</v>
       </c>
       <c r="F55" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="G55" s="240"/>
+      <c r="G55" s="258"/>
       <c r="H55" s="150" t="str">
         <f>주간메뉴표!E52</f>
-        <v>미소장국</v>
+        <v>깍두기</v>
       </c>
       <c r="I55" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="J55" s="243"/>
+      <c r="J55" s="261"/>
       <c r="K55" s="150" t="str">
         <f>주간메뉴표!F52</f>
-        <v>우동국물</v>
+        <v>깍두기</v>
       </c>
       <c r="L55" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="M55" s="246"/>
+      <c r="M55" s="264"/>
       <c r="N55" s="148" t="str">
         <f>주간메뉴표!G52</f>
-        <v>그린샐러드</v>
-      </c>
-      <c r="O55" s="79"/>
-      <c r="P55" s="249"/>
-      <c r="Q55" s="181" t="str">
+        <v>포기김치</v>
+      </c>
+      <c r="O55" s="79" t="s">
+        <v>216</v>
+      </c>
+      <c r="P55" s="267"/>
+      <c r="Q55" s="179">
         <f>주간메뉴표!H52</f>
-        <v>그린샐러드</v>
+        <v>0</v>
       </c>
       <c r="R55" s="79"/>
-      <c r="S55" s="237"/>
+      <c r="S55" s="255"/>
     </row>
     <row r="56" spans="2:19" ht="20.25" customHeight="1">
-      <c r="B56" s="262"/>
-      <c r="C56" s="263"/>
-      <c r="D56" s="250" t="s">
+      <c r="B56" s="280"/>
+      <c r="C56" s="281"/>
+      <c r="D56" s="268" t="s">
         <v>34</v>
       </c>
-      <c r="E56" s="207" t="str">
+      <c r="E56" s="197" t="str">
         <f>주간메뉴표!D54</f>
         <v>그린샐러드</v>
       </c>
-      <c r="F56" s="179"/>
-      <c r="G56" s="252"/>
+      <c r="F56" s="177"/>
+      <c r="G56" s="270"/>
       <c r="H56" s="150" t="str">
         <f>주간메뉴표!E54</f>
         <v>그린샐러드</v>
       </c>
       <c r="I56" s="79"/>
-      <c r="J56" s="254"/>
+      <c r="J56" s="272"/>
       <c r="K56" s="152" t="str">
         <f>주간메뉴표!F54</f>
         <v>그린샐러드</v>
       </c>
       <c r="L56" s="79"/>
-      <c r="M56" s="254"/>
+      <c r="M56" s="272"/>
       <c r="N56" s="152" t="str">
         <f>주간메뉴표!G54</f>
         <v>그린샐러드</v>
       </c>
       <c r="O56" s="79"/>
-      <c r="P56" s="254"/>
-      <c r="Q56" s="152" t="str">
+      <c r="P56" s="272"/>
+      <c r="Q56" s="152">
         <f>주간메뉴표!H54</f>
-        <v>그린샐러드</v>
-      </c>
-      <c r="R56" s="179"/>
-      <c r="S56" s="233"/>
+        <v>0</v>
+      </c>
+      <c r="R56" s="177"/>
+      <c r="S56" s="251"/>
     </row>
     <row r="57" spans="2:19" s="51" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B57" s="264"/>
-      <c r="C57" s="265"/>
-      <c r="D57" s="251"/>
-      <c r="E57" s="207" t="str">
+      <c r="B57" s="282"/>
+      <c r="C57" s="283"/>
+      <c r="D57" s="269"/>
+      <c r="E57" s="197" t="str">
         <f>주간메뉴표!D55</f>
-        <v>오리엔탈&amp;요거트D</v>
+        <v>오리엔탈&amp;망고D</v>
       </c>
       <c r="F57" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="G57" s="253"/>
+      <c r="G57" s="271"/>
       <c r="H57" s="150" t="str">
         <f>주간메뉴표!E55</f>
-        <v>발사믹&amp;자몽D</v>
+        <v>발사믹&amp;참깨D</v>
       </c>
       <c r="I57" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="J57" s="255"/>
+      <c r="J57" s="273"/>
       <c r="K57" s="152" t="str">
         <f>주간메뉴표!F55</f>
-        <v>오리엔탈&amp;딸기요거트D</v>
+        <v>오리엔탈&amp;블루베리D</v>
       </c>
       <c r="L57" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="M57" s="255"/>
+      <c r="M57" s="273"/>
       <c r="N57" s="152" t="str">
         <f>주간메뉴표!G55</f>
-        <v>발사믹&amp;한라봉D</v>
+        <v>발사믹&amp;파인애플D</v>
       </c>
       <c r="O57" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="P57" s="255"/>
-      <c r="Q57" s="152" t="str">
+      <c r="P57" s="273"/>
+      <c r="Q57" s="152">
         <f>주간메뉴표!H55</f>
-        <v>오리엔탈&amp;사우전아일랜드D</v>
-      </c>
-      <c r="R57" s="79" t="s">
-        <v>216</v>
-      </c>
-      <c r="S57" s="234"/>
+        <v>0</v>
+      </c>
+      <c r="R57" s="79"/>
+      <c r="S57" s="252"/>
     </row>
     <row r="58" spans="2:19" ht="20.25" customHeight="1">
       <c r="E58" s="70"/>
